--- a/analyses_outputs/results.xlsx
+++ b/analyses_outputs/results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -671,7 +671,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>results\Cohere-embed-multilingual-light-v3.0</t>
+          <t>Cohere-embed-multilingual-light-v3.0</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -756,7 +756,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>results\Cohere-embed-multilingual-v3.0</t>
+          <t>Cohere-embed-multilingual-v3.0</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -841,7 +841,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>results\Geotrend\bert-base-10lang-cased</t>
+          <t>Geotrend/bert-base-10lang-cased</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -926,7 +926,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>results\Geotrend\bert-base-15lang-cased</t>
+          <t>Geotrend/bert-base-15lang-cased</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1011,7 +1011,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>results\Geotrend\bert-base-25lang-cased</t>
+          <t>Geotrend/bert-base-25lang-cased</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1096,7 +1096,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>results\Geotrend\distilbert-base-25lang-cased</t>
+          <t>Geotrend/distilbert-base-25lang-cased</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1181,7 +1181,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>results\Geotrend\distilbert-base-en-fr-cased</t>
+          <t>Geotrend/distilbert-base-en-fr-cased</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1266,7 +1266,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>results\Geotrend\distilbert-base-en-fr-es-pt-it-cased</t>
+          <t>Geotrend/distilbert-base-en-fr-es-pt-it-cased</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1351,7 +1351,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>results\Geotrend\distilbert-base-fr-cased</t>
+          <t>Geotrend/distilbert-base-fr-cased</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1436,7 +1436,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>results\Wissam42\sentence-croissant-llm-base</t>
+          <t>Wissam42/sentence-croissant-llm-base</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1521,7 +1521,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>results\bert-base-multilingual-cased</t>
+          <t>bert-base-multilingual-cased</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -1606,7 +1606,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>results\bert-base-multilingual-uncased</t>
+          <t>bert-base-multilingual-uncased</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -1691,7 +1691,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>results\camembert\camembert-base</t>
+          <t>camembert/camembert-base</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -1776,7 +1776,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>results\camembert\camembert-large</t>
+          <t>camembert/camembert-large</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -1861,7 +1861,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>results\dangvantuan\sentence-camembert-base</t>
+          <t>dangvantuan/sentence-camembert-base</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -1946,7 +1946,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>results\dangvantuan\sentence-camembert-large</t>
+          <t>dangvantuan/sentence-camembert-large</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2031,7 +2031,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>results\distilbert-base-uncased</t>
+          <t>distilbert-base-uncased</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2116,7 +2116,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>results\flaubert\flaubert_base_cased</t>
+          <t>flaubert/flaubert_base_cased</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2201,7 +2201,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>results\flaubert\flaubert_base_uncased</t>
+          <t>flaubert/flaubert_base_uncased</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2286,7 +2286,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>results\flaubert\flaubert_large_cased</t>
+          <t>flaubert/flaubert_large_cased</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -2371,7 +2371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>results\intfloat\e5-mistral-7b-instruct</t>
+          <t>intfloat/e5-mistral-7b-instruct</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -2456,7 +2456,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>results\intfloat\multilingual-e5-base</t>
+          <t>intfloat/multilingual-e5-base</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -2541,7 +2541,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>results\intfloat\multilingual-e5-large</t>
+          <t>intfloat/multilingual-e5-large</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -2626,7 +2626,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>results\intfloat\multilingual-e5-small</t>
+          <t>intfloat/multilingual-e5-small</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -2711,7 +2711,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>results\izhx\udever-bloom-1b1</t>
+          <t>izhx/udever-bloom-1b1</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -2796,7 +2796,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>results\izhx\udever-bloom-560m</t>
+          <t>izhx/udever-bloom-560m</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -2881,7 +2881,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>results\laser2</t>
+          <t>laser2</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -2966,7 +2966,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\LaBSE</t>
+          <t>sentence-transformers/LaBSE</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3051,7 +3051,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\all-MiniLM-L12-v2</t>
+          <t>sentence-transformers/all-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -3136,7 +3136,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\all-MiniLM-L6-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -3221,7 +3221,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\distiluse-base-multilingual-cased-v2</t>
+          <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -3306,7 +3306,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\multi-qa-MiniLM-L6-cos-v1</t>
+          <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -3391,7 +3391,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\paraphrase-multilingual-MiniLM-L12-v2</t>
+          <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -3476,7 +3476,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\paraphrase-multilingual-mpnet-base-v2</t>
+          <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
@@ -3561,7 +3561,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\sentence-t5-base</t>
+          <t>sentence-transformers/sentence-t5-base</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -3646,7 +3646,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\sentence-t5-large</t>
+          <t>sentence-transformers/sentence-t5-large</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
@@ -3731,7 +3731,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\sentence-t5-xl</t>
+          <t>sentence-transformers/sentence-t5-xl</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
@@ -3816,7 +3816,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>results\sentence-transformers\sentence-t5-xxl</t>
+          <t>sentence-transformers/sentence-t5-xxl</t>
         </is>
       </c>
       <c r="B41" s="3" t="n">
@@ -3901,7 +3901,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>results\shibing624\text2vec-base-multilingual</t>
+          <t>shibing624/text2vec-base-multilingual</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
@@ -3986,7 +3986,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>results\text-embedding-ada-002</t>
+          <t>text-embedding-ada-002</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
@@ -4069,7 +4069,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>results\voyage-2</t>
+          <t>voyage-2</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
@@ -4154,7 +4154,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>results\voyage-code-2</t>
+          <t>voyage-code-2</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
@@ -4239,7 +4239,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>results\vprelovac\universal-sentence-encoder-multilingual-3</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
@@ -4324,7 +4324,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>results\vprelovac\universal-sentence-encoder-multilingual-large-3</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
@@ -4409,7 +4409,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>results\xlm-roberta-base</t>
+          <t>xlm-roberta-base</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
@@ -4494,7 +4494,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>results\xlm-roberta-large</t>
+          <t>xlm-roberta-large</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">

--- a/analyses_outputs/results.xlsx
+++ b/analyses_outputs/results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,193 +471,239 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Retrieval</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Clustering</t>
         </is>
       </c>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Reranking</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>BitextMining</t>
+        </is>
+      </c>
       <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>PairClassification</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Reranking</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Retrieval</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="n"/>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
       <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>PairClassification</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>STS</t>
         </is>
       </c>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Summarization</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>BitextMining</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="n"/>
-      <c r="AA1" s="1" t="n"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Reranking</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>AmazonReviewsClassification</t>
+          <t>AlloprofRetrieval_test</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>MasakhaNEWSClassification</t>
+          <t>BSARDRetrieval_test</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>MassiveIntentClassification</t>
+          <t>MintakaRetrieval_test</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>MassiveScenarioClassification</t>
+          <t>SyntecRetrieval_test</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>MTOPDomainClassification</t>
+          <t>XPQARetrieval_test</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>MTOPIntentClassification</t>
+          <t>AlloProfClusteringP2P_test</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>AlloProfClusteringP2P</t>
+          <t>AlloProfClusteringS2S_test</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>AlloProfClusteringS2S</t>
+          <t>AlloprofReranking_test</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>HALClusteringS2S</t>
+          <t>AmazonReviewsClassification_test</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>MasakhaNEWSClusteringP2P</t>
+          <t>FloresBitextMining_dev_fra_Latn-eng_Latn</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>MasakhaNEWSClusteringS2S</t>
+          <t>FloresBitextMining_dev_eng_Latn-fra_Latn</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>MLSUMClusteringP2P</t>
+          <t>HALClusteringS2S_test</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>MLSUMClusteringS2S</t>
+          <t>MasakhaNEWSClassification_test</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>OpusparcusPC</t>
+          <t>MasakhaNEWSClusteringP2P_test</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>AlloprofReranking</t>
+          <t>MasakhaNEWSClusteringS2S_test</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
         <is>
-          <t>SyntecReranking</t>
+          <t>MassiveIntentClassification_test</t>
         </is>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>AlloprofRetrieval</t>
+          <t>MassiveScenarioClassification_test</t>
         </is>
       </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
-          <t>BSARDRetrieval</t>
+          <t>MLSUMClusteringP2P_test</t>
         </is>
       </c>
       <c r="T2" s="1" t="inlineStr">
         <is>
-          <t>SyntecRetrieval</t>
+          <t>MLSUMClusteringS2S_test</t>
         </is>
       </c>
       <c r="U2" s="1" t="inlineStr">
         <is>
-          <t>SICKFr</t>
+          <t>MTOPDomainClassification_test</t>
         </is>
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>STS22</t>
+          <t>MTOPIntentClassification_test</t>
         </is>
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>STSBenchmarkMultilingualSTS</t>
+          <t>OpusparcusPC_test.full</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>SummEvalFr</t>
+          <t>OpusparcusPC_validation.full</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>DiaBLaBitextMining_fr-en</t>
+          <t>PawsX_test</t>
         </is>
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>FloresBitextMining_fra_Latn-eng_Latn</t>
+          <t>SICKFr_test</t>
         </is>
       </c>
       <c r="AA2" s="1" t="inlineStr">
         <is>
-          <t>FloresBitextMining_eng_Latn-fra_Latn</t>
+          <t>STS22_test</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>STSBenchmarkMultilingualSTS_test</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>SummEvalFr_test</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>SyntecReranking_test</t>
         </is>
       </c>
     </row>
@@ -671,3919 +717,4886 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cohere-embed-multilingual-light-v3.0</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\BAAI\bge-m3</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.386</v>
+        <v>0.48951</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.8258293838862558</v>
+        <v>0.6036</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5631136516476126</v>
+        <v>0.2286</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.5949562878278413</v>
+        <v>0.84505</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.8079235828374569</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0.5000626370184779</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0.6195997777996813</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.3135667338652056</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.1731069266684963</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0.5653149091881723</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0.2076388882074784</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0.4279854786876686</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0.3272447200966951</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0.5159850314408292</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0.8803333333333333</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0.35394</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0.00165</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0.73117</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>0.7550483099806141</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>0.8279714502136332</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>0.7648019211186484</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>0.314006702294</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0.6631613175502583</v>
-      </c>
-      <c r="Z4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>0.9973253092611166</v>
-      </c>
+        <v>0.7089800000000001</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
+      <c r="W4" s="2" t="inlineStr"/>
+      <c r="X4" s="2" t="inlineStr"/>
+      <c r="Y4" s="2" t="inlineStr"/>
+      <c r="Z4" s="2" t="inlineStr"/>
+      <c r="AA4" s="2" t="inlineStr"/>
+      <c r="AB4" s="2" t="inlineStr"/>
+      <c r="AC4" s="2" t="inlineStr"/>
+      <c r="AD4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cohere-embed-multilingual-v3.0</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Cohere-embed-multilingual-light-v3.0</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.41892</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0.8310426540284359</v>
+        <v>0.35394</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.51802</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.629388029589778</v>
+        <v>0.23004</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.6729320780094149</v>
+        <v>0.7688199999999999</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.8622925148762919</v>
+        <v>0.45227</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.6107422486689634</v>
+        <v>0.6195997777996813</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.6352561566282294</v>
+        <v>0.3135667338652056</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.361759185577996</v>
+        <v>0.5159850314408292</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1990356735257148</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0.4871568358267845</v>
+        <v>0.386</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.2281620621631342</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0.4508360325363872</v>
+        <v>0.1731069266684963</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0.347527142956374</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>1</v>
+        <v>0.8258293838862558</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0.5680686305484748</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>0.5101276380430734</v>
+        <v>0.294063089090014</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0.8571666666666666</v>
+        <v>0.5631136516476126</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.38361</v>
+        <v>0.5949562878278413</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0.00624</v>
+        <v>0.4279854786876686</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.78246</v>
-      </c>
-      <c r="U5" s="3" t="n">
-        <v>0.7923250123076204</v>
+        <v>0.3272447200966951</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0.8079235828374569</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>0.8276336405644232</v>
+        <v>0.5000626370184779</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.8184387078760932</v>
+        <v>0.9091625445064609</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.3126400952397324</v>
+        <v>0.9209596025105193</v>
       </c>
       <c r="Y5" s="2" t="n">
-        <v>0.8308540836724554</v>
-      </c>
-      <c r="Z5" s="3" t="n">
-        <v>1</v>
+        <v>0.5731728148121378</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0.7550483099806141</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>1</v>
+        <v>0.8279714502136332</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>0.7648019211186484</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>0.314006702294</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>0.8803333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/bert-base-10lang-cased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Cohere-embed-multilingual-v3.0</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.29382</v>
+        <v>0.38361</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.6398104265402844</v>
+        <v>0.44144</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3728312037659718</v>
+        <v>0.25437</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.4449562878278413</v>
+        <v>0.79269</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.6364860632633886</v>
+        <v>0.58873</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.378703413717507</v>
+        <v>0.6352561566282294</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.5321615105669343</v>
+        <v>0.361759185577996</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.429190297654638</v>
+        <v>0.5101276380430734</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.199384954892849</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0.2269756454278503</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0.193928635456079</v>
+        <v>0.41892</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0.4095727738171321</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0.3186880455337019</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>1</v>
+        <v>0.1990356735257148</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0.830568720379147</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0.5318379498672176</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0.3620982002721123</v>
+        <v>0.3230998225707994</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.5325</v>
+        <v>0.629388029589778</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.01604</v>
+        <v>0.6729320780094149</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0.00068</v>
+        <v>0.4508360325363872</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0.13841</v>
+        <v>0.347527142956374</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.5876409741522338</v>
+        <v>0.8622925148762919</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>0.4031453580850377</v>
+        <v>0.6107422486689634</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.5224992109220082</v>
+        <v>0.940778214081015</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.2905539823973022</v>
+        <v>0.9503580631772154</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>0.299374159143314</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.6125533530469982</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>0.7923250123076204</v>
       </c>
       <c r="AA6" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.8276336405644232</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>0.8184387078760932</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>0.3126400952397324</v>
+      </c>
+      <c r="AD6" s="2" t="n">
+        <v>0.8571666666666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/bert-base-15lang-cased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\bert-base-10lang-cased</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.2935</v>
+        <v>0.01604</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.6398104265402844</v>
+        <v>0.1036</v>
       </c>
       <c r="D7" s="2" t="n">
+        <v>0.03554</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.18948</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.18391</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.5321615105669343</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.429190297654638</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.3620982002721123</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.29382</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0.9694082246740221</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0.9762621196924105</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0.199384954892849</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0.6393364928909953</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0.2423499234956803</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0.2445999599094782</v>
+      </c>
+      <c r="Q7" s="2" t="n">
         <v>0.3728312037659718</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>0.4446872898453262</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0.6370184779204509</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0.3785468211713123</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.5316174444700196</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.4342614550943816</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.2025950895317026</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0.2275661907565381</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0.196731735853123</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0.4121972569008033</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0.3188309116220031</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0.3620732261213783</v>
-      </c>
-      <c r="Q7" s="2" t="n">
+      <c r="R7" s="2" t="n">
+        <v>0.4449562878278413</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0.4095727738171321</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0.3186880455337019</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0.6364860632633886</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0.378703413717507</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0.867897383298739</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0.8721090971840637</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0.5339515630722629</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0.5876409741522338</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0.4031453580850377</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0.5224992109220082</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0.2905539823973022</v>
+      </c>
+      <c r="AD7" s="2" t="n">
         <v>0.5325</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0.0161</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>0.00072</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>0.13841</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>0.5877261140633706</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0.4039926511396135</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>0.5224819480869909</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>0.2913284671743393</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>0.2995597273787902</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>0.9694082246740221</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>0.9762621196924105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/bert-base-25lang-cased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\bert-base-15lang-cased</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.29388</v>
+        <v>0.0161</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.6395734597156398</v>
+        <v>0.1036</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3729657027572293</v>
+        <v>0.03554</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.4446872898453261</v>
+        <v>0.18948</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.636266833698716</v>
+        <v>0.18349</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.3785781396805512</v>
+        <v>0.5316174444700196</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.5348707232890372</v>
+        <v>0.4342614550943816</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.4310077911837933</v>
+        <v>0.3620732261213783</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1977790848789767</v>
+        <v>0.2935</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.2276048067723082</v>
+        <v>0.9694082246740221</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.1950507884954757</v>
+        <v>0.9762621196924105</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.4072820957884197</v>
+        <v>0.2025950895317026</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0.3193833137858634</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>1</v>
+        <v>0.6388625592417062</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0.2423499234956803</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0.3625225169020871</v>
+        <v>0.2445999599094782</v>
       </c>
       <c r="Q8" s="2" t="n">
+        <v>0.3728312037659718</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0.4446872898453262</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0.4121972569008033</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>0.3188309116220031</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0.6370184779204509</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0.3785468211713123</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0.8677678461935234</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0.8721085649923495</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0.5338191982712758</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0.5877261140633706</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0.4039926511396135</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>0.5224819480869909</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0.2913284671743393</v>
+      </c>
+      <c r="AD8" s="2" t="n">
         <v>0.5325</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>0.01604</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>0.00071</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>0.13841</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>0.5875963417221689</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>0.387722409346517</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>0.5224992109220082</v>
-      </c>
-      <c r="X8" s="2" t="n">
-        <v>0.2884414777790376</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>0.2996061329422579</v>
-      </c>
-      <c r="Z8" s="2" t="n">
-        <v>0.9694082246740221</v>
-      </c>
-      <c r="AA8" s="2" t="n">
-        <v>0.9762621196924105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/distilbert-base-25lang-cased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\bert-base-25lang-cased</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.2853599999999999</v>
+        <v>0.01604</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.6748815165876778</v>
+        <v>0.1036</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3495292535305985</v>
+        <v>0.03554</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.4418291862811029</v>
+        <v>0.18948</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.6191356091450047</v>
+        <v>0.1846</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.3534606952709051</v>
+        <v>0.5348707232890372</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.5714285975098367</v>
+        <v>0.4310077911837933</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.4348241240386942</v>
+        <v>0.3625225169020871</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1861576116891369</v>
+        <v>0.29388</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.2529238110620755</v>
+        <v>0.9694082246740221</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.2177615830731148</v>
+        <v>0.9762621196924105</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.4090788738384479</v>
+        <v>0.1977790848789767</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.3126641649690648</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>1</v>
+        <v>0.6390995260663508</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0.2423499234956803</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0.3200076671044939</v>
+        <v>0.2445999599094782</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0.5241666666666667</v>
+        <v>0.3729657027572293</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.01414</v>
+        <v>0.4446872898453261</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0</v>
+        <v>0.4072820957884197</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>0.15615</v>
+        <v>0.3193833137858634</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.6164041848098294</v>
+        <v>0.636266833698716</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.4135399271271215</v>
+        <v>0.3785781396805512</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.5701758346273191</v>
+        <v>0.8679078502914821</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.3070335729873741</v>
+        <v>0.872319293517213</v>
       </c>
       <c r="Y9" s="2" t="n">
-        <v>0.1131336094934851</v>
+        <v>0.5339135830001998</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>0.9204446673353393</v>
+        <v>0.5875963417221689</v>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.387722409346517</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0.5224992109220082</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0.2884414777790376</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0.5325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/distilbert-base-en-fr-cased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-25lang-cased</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.2851199999999999</v>
+        <v>0.01414</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.6755924170616113</v>
+        <v>0.11261</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3478816408876934</v>
+        <v>0.02991</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.4401479488903833</v>
+        <v>0.17599</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.6191982461634826</v>
+        <v>0.15897</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.353585969307861</v>
+        <v>0.5714285975098367</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.5665935732649282</v>
+        <v>0.4348241240386942</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.4215320575444813</v>
+        <v>0.3200076671044939</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.1954334300029073</v>
+        <v>0.2853599999999999</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.2486268729843229</v>
+        <v>0.9204446673353393</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.237425052227337</v>
+        <v>0.9066087150339909</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.4071825511365696</v>
+        <v>0.1861576116891369</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0.314328804874776</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <v>1</v>
+        <v>0.6751184834123224</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0.3238783548898045</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0.3209078159887816</v>
+        <v>0.3317203899044766</v>
       </c>
       <c r="Q10" s="2" t="n">
+        <v>0.3495292535305985</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0.4418291862811029</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0.4090788738384479</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0.3126641649690648</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0.6191356091450047</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0.3534606952709051</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>0.8609728031715025</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>0.8758173702252184</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>0.5078393817652131</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0.6164041848098294</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>0.4135399271271215</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>0.5701758346273191</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>0.3070335729873741</v>
+      </c>
+      <c r="AD10" s="2" t="n">
         <v>0.5241666666666667</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>0.01364</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>0.15615</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>0.6165632183808489</v>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>0.4218079567381129</v>
-      </c>
-      <c r="W10" s="2" t="n">
-        <v>0.570654953893223</v>
-      </c>
-      <c r="X10" s="2" t="n">
-        <v>0.3122667451153068</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>0.1129692265139254</v>
-      </c>
-      <c r="Z10" s="2" t="n">
-        <v>0.9192744901370778</v>
-      </c>
-      <c r="AA10" s="2" t="n">
-        <v>0.9066087150339909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/distilbert-base-en-fr-es-pt-it-cased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-en-fr-cased</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.2856</v>
+        <v>0.01364</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.6755924170616113</v>
+        <v>0.10811</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3491257565568258</v>
+        <v>0.03014</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.441661062542031</v>
+        <v>0.17599</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.6192608831819605</v>
+        <v>0.1556</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.3541497024741622</v>
+        <v>0.5665935732649282</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.5656571585750919</v>
+        <v>0.4215320575444813</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.4348639521255671</v>
+        <v>0.3209078159887816</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.195516374988827</v>
+        <v>0.2851199999999999</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.2670243010523903</v>
+        <v>0.9192744901370778</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.2155546385990898</v>
+        <v>0.9066087150339909</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.4091629743654286</v>
+        <v>0.1954334300029073</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.3109946916708017</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>1</v>
+        <v>0.6751184834123224</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0.3378317847816555</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.3206529068436572</v>
+        <v>0.3404565705021788</v>
       </c>
       <c r="Q11" s="2" t="n">
+        <v>0.3478816408876934</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0.4401479488903833</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>0.4071825511365696</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>0.314328804874776</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>0.6191982461634826</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0.353585969307861</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>0.8609925738288053</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>0.8757734114810968</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0.5076824569885957</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0.6165632183808489</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>0.4218079567381129</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>0.570654953893223</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>0.3122667451153068</v>
+      </c>
+      <c r="AD11" s="2" t="n">
         <v>0.5241666666666667</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>0.01406</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>0.15615</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>0.6164042836935036</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>0.4159156703977949</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>0.5704733367736529</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>0.3099238484208555</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>0.1136640517513887</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>0.9204446673353393</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>0.9066087150339909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/distilbert-base-fr-cased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-en-fr-es-pt-it-cased</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.2859599999999999</v>
+        <v>0.01406</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.6767772511848341</v>
+        <v>0.11261</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3493275050437122</v>
+        <v>0.02991</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.4378614660390047</v>
+        <v>0.17599</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.6170685875352333</v>
+        <v>0.15944</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.352740369558409</v>
+        <v>0.5656571585750919</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.5728722420376016</v>
+        <v>0.4348639521255671</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.4300157593054996</v>
+        <v>0.3206529068436572</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.1960397251544971</v>
+        <v>0.2856</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.2638464853080644</v>
+        <v>0.9204446673353393</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.2245402658703151</v>
+        <v>0.9066087150339909</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0.4074944583831627</v>
+        <v>0.195516374988827</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>0.3141069123749394</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <v>1</v>
+        <v>0.6755924170616113</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>0.3350757808521446</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0.3230694491734496</v>
+        <v>0.3317203899044766</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0.5191666666666668</v>
+        <v>0.3491257565568258</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.01386</v>
+        <v>0.441661062542031</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0</v>
+        <v>0.4091629743654286</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.15246</v>
+        <v>0.3109946916708017</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.6168581678045449</v>
+        <v>0.6192608831819605</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0.4282484915255096</v>
+        <v>0.3541497024741622</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.5703033340036064</v>
+        <v>0.8608285959508718</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.3098048164787563</v>
+        <v>0.8757472823792262</v>
       </c>
       <c r="Y12" s="2" t="n">
-        <v>0.05946715324206229</v>
+        <v>0.5076412788138646</v>
       </c>
       <c r="Z12" s="2" t="n">
-        <v>0.6332293277880038</v>
+        <v>0.6164042836935036</v>
       </c>
       <c r="AA12" s="2" t="n">
-        <v>0.6499806439094893</v>
+        <v>0.4159156703977949</v>
+      </c>
+      <c r="AB12" s="2" t="n">
+        <v>0.5704733367736529</v>
+      </c>
+      <c r="AC12" s="2" t="n">
+        <v>0.3099238484208555</v>
+      </c>
+      <c r="AD12" s="2" t="n">
+        <v>0.5241666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Wissam42/sentence-croissant-llm-base</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-fr-cased</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.34792</v>
+        <v>0.01386</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.7928909952606634</v>
+        <v>0.11261</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5940820443846672</v>
+        <v>0.03052</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.6528581035642234</v>
+        <v>0.17519</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.855214531788287</v>
+        <v>0.15906</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.6312245537112433</v>
+        <v>0.5728722420376016</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.6411669265073395</v>
+        <v>0.4300157593054996</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.325236731994226</v>
+        <v>0.3230694491734496</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.2340128867212198</v>
+        <v>0.2859599999999999</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.4345336299939132</v>
+        <v>0.6332293277880038</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.3274410957528469</v>
+        <v>0.6499806439094893</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0.429413226398757</v>
+        <v>0.1960397251544971</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0.3391299056452157</v>
-      </c>
-      <c r="O13" s="3" t="n">
-        <v>1</v>
+        <v>0.6767772511848341</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0.337589716019601</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>0.5299964667919109</v>
+        <v>0.3460782647523849</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0.8290000000000001</v>
+        <v>0.3493275050437122</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.29969</v>
+        <v>0.4378614660390047</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>0.00075</v>
+        <v>0.4074944583831627</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>0.72917</v>
+        <v>0.3141069123749394</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.6960017257463582</v>
+        <v>0.6170685875352333</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>0.7877222611897307</v>
+        <v>0.352740369558409</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.7922738680429985</v>
+        <v>0.8604661480576208</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.2904259923005852</v>
+        <v>0.8761939806579652</v>
       </c>
       <c r="Y13" s="2" t="n">
-        <v>0.7371911997949699</v>
-      </c>
-      <c r="Z13" s="3" t="n">
-        <v>1</v>
+        <v>0.5073485498358526</v>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>0.6168581678045449</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.4282484915255096</v>
+      </c>
+      <c r="AB13" s="2" t="n">
+        <v>0.5703033340036064</v>
+      </c>
+      <c r="AC13" s="2" t="n">
+        <v>0.3098048164787563</v>
+      </c>
+      <c r="AD13" s="2" t="n">
+        <v>0.5191666666666668</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>bert-base-multilingual-cased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\OrdalieTech\Solon-embeddings-base-0.1</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.29394</v>
+        <v>0.41118</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.6407582938388626</v>
+        <v>0.54505</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.3729993275050437</v>
+        <v>0.28144</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.4446536650975118</v>
+        <v>0.80796</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.6361102411525212</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0.3783589101158785</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>0.5149653756008361</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.4305645671675891</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.2080755658975593</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>0.2293395365856379</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>0.2030456578758897</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>0.4090371994645377</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>0.3179683201467264</v>
-      </c>
-      <c r="O14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>0.3623465498799006</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>0.5325</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>0.01626</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>0.00071</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>0.13841</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>0.5874812845368886</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>0.3904525758557057</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>0.5224722935490146</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>0.2880779587217142</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>0.2996061329422579</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>0.9694082246740221</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>0.9762621196924105</v>
-      </c>
+        <v>0.67599</v>
+      </c>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr"/>
+      <c r="Q14" s="2" t="inlineStr"/>
+      <c r="R14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr"/>
+      <c r="T14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr"/>
+      <c r="W14" s="2" t="inlineStr"/>
+      <c r="X14" s="2" t="inlineStr"/>
+      <c r="Y14" s="2" t="inlineStr"/>
+      <c r="Z14" s="2" t="inlineStr"/>
+      <c r="AA14" s="2" t="inlineStr"/>
+      <c r="AB14" s="2" t="inlineStr"/>
+      <c r="AC14" s="2" t="inlineStr"/>
+      <c r="AD14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>bert-base-multilingual-uncased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\OrdalieTech\Solon-embeddings-large-0.1</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.29024</v>
+        <v>0.46942</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.7566350710900475</v>
+        <v>0.57658</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3800605245460659</v>
+        <v>0.30074</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.4363147276395427</v>
+        <v>0.84605</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.644910742248669</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0.3940181647353586</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>0.6066148200885675</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.3505397363641355</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.2089820298983429</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>0.3379467890585106</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>0.2183538216690671</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>0.4349522858689475</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>0.3098774275886452</v>
-      </c>
-      <c r="O15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>0.3884926710455013</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>0.05506</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>0.27484</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>0.5826449144443914</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>0.5647457412587442</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>0.5497353309633939</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>0.3072334740467725</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>0.3559984760058366</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>0.9477432296890672</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>0.9799398194583752</v>
-      </c>
+        <v>0.70221</v>
+      </c>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr"/>
+      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr"/>
+      <c r="V15" s="2" t="inlineStr"/>
+      <c r="W15" s="2" t="inlineStr"/>
+      <c r="X15" s="2" t="inlineStr"/>
+      <c r="Y15" s="2" t="inlineStr"/>
+      <c r="Z15" s="2" t="inlineStr"/>
+      <c r="AA15" s="2" t="inlineStr"/>
+      <c r="AB15" s="2" t="inlineStr"/>
+      <c r="AC15" s="2" t="inlineStr"/>
+      <c r="AD15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>camembert/camembert-base</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Wissam42\sentence-croissant-llm-base</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.29814</v>
+        <v>0.29969</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.6552132701421801</v>
+        <v>0.52252</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3095158036314727</v>
+        <v>0.21309</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.3948554135843981</v>
+        <v>0.74197</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.5839336047604134</v>
+        <v>0.58573</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.2861259004071406</v>
+        <v>0.6411669265073395</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.5423893147384338</v>
+        <v>0.325236731994226</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2918804706562174</v>
+        <v>0.5299964667919109</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.1350952753315698</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>0.2477143738587012</v>
+        <v>0.34792</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.1256730013999637</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.4060210180892428</v>
+        <v>0.2340128867212198</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>0.2663399835756784</v>
-      </c>
-      <c r="O16" s="3" t="n">
-        <v>1</v>
+        <v>0.7928909952606634</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>0.5394435157885373</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0.2428709072770491</v>
+        <v>0.4105178984993857</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0.4126666666666667</v>
+        <v>0.5940820443846672</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.00235</v>
+        <v>0.6528581035642234</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0</v>
+        <v>0.429413226398757</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.04853</v>
+        <v>0.3391299056452157</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.5368307592304911</v>
+        <v>0.855214531788287</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>0.6107432321823179</v>
+        <v>0.6312245537112433</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.5486423488745364</v>
+        <v>0.9141910841619804</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.2963071602202985</v>
+        <v>0.9261526052336004</v>
       </c>
       <c r="Y16" s="2" t="n">
-        <v>0.04331694082788507</v>
+        <v>0.6313386879959426</v>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>0.2602264772347189</v>
+        <v>0.6960017257463582</v>
       </c>
       <c r="AA16" s="2" t="n">
-        <v>0.2515262419615453</v>
+        <v>0.7877222611897307</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>0.7922738680429985</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>0.2904259923005852</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>0.8290000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>camembert/camembert-large</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\bert-base-multilingual-cased</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.31168</v>
+        <v>0.01626</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.7054502369668245</v>
+        <v>0.1036</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3620376597175521</v>
+        <v>0.03554</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.4633490248823134</v>
+        <v>0.18948</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.6839336047604134</v>
+        <v>0.1849</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.4249608518634513</v>
+        <v>0.5149653756008361</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.592712061687221</v>
+        <v>0.4305645671675891</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.3424503121580777</v>
+        <v>0.3623465498799006</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.1838664804452286</v>
+        <v>0.29394</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.314684180075507</v>
+        <v>0.9694082246740221</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.2617897512336529</v>
+        <v>0.9762621196924105</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.4408218038488301</v>
+        <v>0.2080755658975593</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0.351462769915096</v>
-      </c>
-      <c r="O17" s="3" t="n">
-        <v>1</v>
+        <v>0.6400473933649289</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>0.2423499234956803</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>0.3306899111278445</v>
+        <v>0.2445999599094782</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0.5105</v>
+        <v>0.3729993275050437</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.01968</v>
+        <v>0.4446536650975118</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>0.00068</v>
+        <v>0.4090371994645377</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0.13415</v>
+        <v>0.3179683201467264</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.5880208439406661</v>
+        <v>0.6361102411525212</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>0.5725762796846933</v>
+        <v>0.3783589101158785</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.6183576200859585</v>
+        <v>0.8677048159592717</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.2797711620509544</v>
+        <v>0.8722976958382189</v>
       </c>
       <c r="Y17" s="2" t="n">
-        <v>0.05998688454697069</v>
+        <v>0.5339388951464616</v>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>0.4013712370627894</v>
+        <v>0.5874812845368886</v>
       </c>
       <c r="AA17" s="2" t="n">
-        <v>0.3161171999727407</v>
+        <v>0.3904525758557057</v>
+      </c>
+      <c r="AB17" s="2" t="n">
+        <v>0.5224722935490146</v>
+      </c>
+      <c r="AC17" s="2" t="n">
+        <v>0.2880779587217142</v>
+      </c>
+      <c r="AD17" s="2" t="n">
+        <v>0.5325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>dangvantuan/sentence-camembert-base</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\bert-base-multilingual-uncased</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.36026</v>
+        <v>0.05506</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.7033175355450237</v>
+        <v>0.16216</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.5159381304640215</v>
+        <v>0.02872</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.6127774041694687</v>
+        <v>0.34951</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.7710303789539619</v>
+        <v>0.26117</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.4343877231443783</v>
+        <v>0.6066148200885675</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.5909203102484407</v>
+        <v>0.3505397363641355</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.389167691440152</v>
+        <v>0.3884926710455013</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.2021549178618914</v>
+        <v>0.29024</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.2730374419802702</v>
+        <v>0.9477432296890672</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.1608827755313814</v>
+        <v>0.9799398194583752</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0.3597635372718684</v>
+        <v>0.2089820298983429</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>0.2705338909472246</v>
-      </c>
-      <c r="O18" s="3" t="n">
-        <v>1</v>
+        <v>0.756872037914692</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0.4971340561526633</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>0.4868090891948794</v>
+        <v>0.422255814870678</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0.7975</v>
+        <v>0.3800605245460659</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.21938</v>
+        <v>0.4363147276395427</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0</v>
+        <v>0.4349522858689475</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>0.65439</v>
+        <v>0.3098774275886452</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.7417817544381963</v>
+        <v>0.644910742248669</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>0.7753949779251178</v>
+        <v>0.3940181647353586</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.8163901919126012</v>
+        <v>0.8743393906507683</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.2877116932900191</v>
+        <v>0.8874950508866897</v>
       </c>
       <c r="Y18" s="2" t="n">
-        <v>0.3606737729832072</v>
+        <v>0.5322360899538218</v>
       </c>
       <c r="Z18" s="2" t="n">
-        <v>0.8975927783350049</v>
+        <v>0.5826449144443914</v>
       </c>
       <c r="AA18" s="2" t="n">
-        <v>0.9007021063189569</v>
+        <v>0.5647457412587442</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>0.5497353309633939</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>0.3072334740467725</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>0.664</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>dangvantuan/sentence-camembert-large</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\camembert\camembert-base</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.3797</v>
+        <v>0.00235</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.8061611374407583</v>
+        <v>0.0045</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.6265299260255548</v>
+        <v>0.02022</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.6929051782111635</v>
+        <v>0.05799</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.8573755089257752</v>
+        <v>0.19922</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.5861572189163796</v>
+        <v>0.5423893147384338</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.6268796577838202</v>
+        <v>0.2918804706562174</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.4206075946482793</v>
+        <v>0.2428709072770491</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.2390369822485666</v>
+        <v>0.29814</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.4743734878485815</v>
+        <v>0.2602264772347189</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.26790387619791</v>
+        <v>0.2515262419615453</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.420359585982358</v>
+        <v>0.1350952753315698</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>0.3229405651242595</v>
-      </c>
-      <c r="O19" s="3" t="n">
-        <v>1</v>
+        <v>0.6561611374407583</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>0.4398103174841825</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>0.5761808536150032</v>
+        <v>0.2665670855775651</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0.8815000000000001</v>
+        <v>0.3095158036314727</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.31623</v>
+        <v>0.3948554135843981</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0</v>
+        <v>0.4060210180892428</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0.79442</v>
+        <v>0.2663399835756784</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.7769676247221875</v>
+        <v>0.5839336047604134</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>0.8172944501533574</v>
-      </c>
-      <c r="W19" s="3" t="n">
-        <v>0.8578534328308375</v>
+        <v>0.2861259004071406</v>
+      </c>
+      <c r="W19" s="2" t="n">
+        <v>0.8342726180422799</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.3088268637624669</v>
+        <v>0.8601987158204568</v>
       </c>
       <c r="Y19" s="2" t="n">
-        <v>0.6783115045819693</v>
+        <v>0.521089966496604</v>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>0.9946506185222335</v>
+        <v>0.5368307592304911</v>
       </c>
       <c r="AA19" s="2" t="n">
-        <v>0.995987963891675</v>
+        <v>0.6107432321823179</v>
+      </c>
+      <c r="AB19" s="2" t="n">
+        <v>0.5486423488745364</v>
+      </c>
+      <c r="AC19" s="2" t="n">
+        <v>0.2963071602202985</v>
+      </c>
+      <c r="AD19" s="2" t="n">
+        <v>0.4126666666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>distilbert-base-uncased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\camembert\camembert-large</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.2541</v>
+        <v>0.01968</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.5509478672985781</v>
+        <v>0.009010000000000001</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.2076664425016812</v>
+        <v>0.03552</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.2808338937457969</v>
+        <v>0.17539</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0.4403695584090198</v>
+        <v>0.20472</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.2053867835891012</v>
+        <v>0.592712061687221</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.3654854742123225</v>
+        <v>0.3424503121580777</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2581130737375776</v>
+        <v>0.3306899111278445</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.1223708659659341</v>
+        <v>0.31168</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.1544547125239513</v>
+        <v>0.4013712370627894</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.1185482758128203</v>
+        <v>0.3161171999727407</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.3194912583149639</v>
+        <v>0.1838664804452286</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>0.243012339178737</v>
-      </c>
-      <c r="O20" s="3" t="n">
-        <v>1</v>
+        <v>0.7061611374407584</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>0.4213366020734207</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>0.2395511773805056</v>
+        <v>0.3335790002411184</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0.4636666666666666</v>
+        <v>0.3620376597175521</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.4633490248823134</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0.00148</v>
+        <v>0.4408218038488301</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>0.06802</v>
+        <v>0.351462769915096</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.5546828187668631</v>
+        <v>0.6839336047604134</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>0.1554865823093162</v>
+        <v>0.4249608518634513</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.4602440842999612</v>
+        <v>0.7663262539483096</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.3109262244283785</v>
+        <v>0.797210507122408</v>
       </c>
       <c r="Y20" s="2" t="n">
-        <v>0.009654559268801278</v>
+        <v>0.5228462246810233</v>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>0.04620745118237596</v>
+        <v>0.5880208439406661</v>
       </c>
       <c r="AA20" s="2" t="n">
-        <v>0.06596709425391827</v>
+        <v>0.5725762796846933</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>0.6183576200859585</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>0.2797711620509544</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>0.5105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>flaubert/flaubert_base_cased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\dangvantuan\sentence-camembert-base</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.24904</v>
+        <v>0.21938</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.7106635071090046</v>
+        <v>0.39189</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.06980497646267654</v>
+        <v>0.13357</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.1140551445864156</v>
+        <v>0.68618</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.2554963983714375</v>
+        <v>0.57916</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.09492640150328843</v>
+        <v>0.5909203102484407</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.5285934835529511</v>
+        <v>0.389167691440152</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1445975007371924</v>
+        <v>0.4868090891948794</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03854581426819014</v>
+        <v>0.36026</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.271841977349962</v>
+        <v>0.8975927783350049</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.03942005375167697</v>
+        <v>0.9007021063189569</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.3905601625969005</v>
+        <v>0.2021549178618914</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0.171305846850958</v>
-      </c>
-      <c r="O21" s="3" t="n">
-        <v>1</v>
+        <v>0.7035545023696683</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>0.3603382429363983</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0.3481294672682068</v>
+        <v>0.3076503346423071</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0.5588333333333334</v>
+        <v>0.5159381304640215</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.01628</v>
+        <v>0.6127774041694687</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0.00234</v>
+        <v>0.3597635372718684</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.1712</v>
+        <v>0.2705338909472246</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.5386168675726091</v>
+        <v>0.7710303789539619</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>0.6536672090843911</v>
+        <v>0.4343877231443783</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.3713955104980419</v>
+        <v>0.9205083560505066</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.312594655829165</v>
+        <v>0.9328066173124074</v>
       </c>
       <c r="Y21" s="2" t="n">
-        <v>0.01979442433142667</v>
+        <v>0.5743705197496742</v>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>0.3091099858805599</v>
+        <v>0.7417817544381963</v>
       </c>
       <c r="AA21" s="2" t="n">
-        <v>0.3585084545943069</v>
+        <v>0.7753949779251178</v>
+      </c>
+      <c r="AB21" s="2" t="n">
+        <v>0.8163901919126012</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>0.2877116932900191</v>
+      </c>
+      <c r="AD21" s="2" t="n">
+        <v>0.7975</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>flaubert/flaubert_base_uncased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\dangvantuan\sentence-camembert-large</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.23518</v>
+        <v>0.31623</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.6258293838862559</v>
+        <v>0.56757</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.06237390719569604</v>
+        <v>0.21871</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.1098184263618023</v>
+        <v>0.8111</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.2774193548387097</v>
+        <v>0.65623</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.08609458189790167</v>
+        <v>0.6268796577838202</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.4320222924608445</v>
+        <v>0.4206075946482793</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1293857445009916</v>
+        <v>0.5761808536150032</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01795603069453415</v>
+        <v>0.3797</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.1423484010011634</v>
+        <v>0.9946506185222335</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.03547793198749143</v>
+        <v>0.995987963891675</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0.3322371189429822</v>
+        <v>0.2390369822485666</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>0.1489756017869693</v>
-      </c>
-      <c r="O22" s="3" t="n">
-        <v>1</v>
+        <v>0.8061611374407583</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>0.5450656885773288</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>0.3455157833857672</v>
+        <v>0.4473220244132624</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0.5718333333333334</v>
+        <v>0.6265299260255548</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.01719</v>
+        <v>0.6929051782111635</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0.00076</v>
+        <v>0.420359585982358</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>0.17197</v>
+        <v>0.3229405651242595</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.4190237966349758</v>
+        <v>0.8573755089257752</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>0.5515047105823337</v>
+        <v>0.5861572189163796</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.3340826064580523</v>
+        <v>0.9462760751835194</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.2942790176376187</v>
+        <v>0.9525375018810192</v>
       </c>
       <c r="Y22" s="2" t="n">
-        <v>0.02985745352493187</v>
+        <v>0.5958886792690583</v>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>0.2537073113561774</v>
+        <v>0.7769676247221875</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>0.08098894058162567</v>
+        <v>0.8172944501533574</v>
+      </c>
+      <c r="AB22" s="3" t="n">
+        <v>0.8578534328308375</v>
+      </c>
+      <c r="AC22" s="2" t="n">
+        <v>0.3088268637624669</v>
+      </c>
+      <c r="AD22" s="2" t="n">
+        <v>0.8815000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>flaubert/flaubert_large_cased</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\distilbert-base-uncased</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.22446</v>
+        <v>0.0045</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.5554502369668246</v>
+        <v>0.01802</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1641223940820444</v>
+        <v>0.00583</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.2271687962340282</v>
+        <v>0.08987000000000001</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.2426558095834638</v>
+        <v>0.17744</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.09790165988098966</v>
+        <v>0.3654854742123225</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.4085073955515567</v>
+        <v>0.2581130737375776</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.217556103036172</v>
+        <v>0.2395511773805056</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.05262528089639844</v>
+        <v>0.2541</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.1575378600158786</v>
+        <v>0.04620745118237596</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.05400860401659607</v>
+        <v>0.06596709425391827</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0.3809040459534752</v>
+        <v>0.1223708659659341</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>0.1871270130969609</v>
-      </c>
-      <c r="O23" s="3" t="n">
-        <v>1</v>
+        <v>0.5507109004739337</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>0.2280827796748879</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>0.2628634383924476</v>
+        <v>0.3072061278544836</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0.428</v>
+        <v>0.2076664425016812</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0058</v>
+        <v>0.2808338937457969</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>0.00219</v>
+        <v>0.3194912583149639</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>0.01</v>
+        <v>0.243012339178737</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.3460428228637162</v>
+        <v>0.4403695584090198</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>0.4852164892537546</v>
+        <v>0.2053867835891012</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.1565944995632818</v>
+        <v>0.8407210207396341</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.2924968054601468</v>
+        <v>0.85575055590875</v>
       </c>
       <c r="Y23" s="2" t="n">
-        <v>0.009125460760132157</v>
+        <v>0.5193426436605626</v>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>0.1491870638833542</v>
+        <v>0.5546828187668631</v>
       </c>
       <c r="AA23" s="2" t="n">
-        <v>0.1739429979680737</v>
+        <v>0.1554865823093162</v>
+      </c>
+      <c r="AB23" s="2" t="n">
+        <v>0.4602440842999612</v>
+      </c>
+      <c r="AC23" s="2" t="n">
+        <v>0.3109262244283785</v>
+      </c>
+      <c r="AD23" s="2" t="n">
+        <v>0.4636666666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>intfloat/e5-mistral-7b-instruct</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\flaubert\flaubert_base_cased</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.3670600000000001</v>
+        <v>0.01628</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.8056872037914692</v>
+        <v>0.02252</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4638533960995293</v>
+        <v>0.00579</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.5385675857431069</v>
+        <v>0.20562</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.7479799561540871</v>
+        <v>0.06587999999999999</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.5397118697150015</v>
+        <v>0.5285934835529511</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.6106009333650795</v>
+        <v>0.1445975007371924</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2812144287516594</v>
+        <v>0.3481294672682068</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.1969463250152054</v>
+        <v>0.24904</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.5171156481659041</v>
+        <v>0.3091099858805599</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.3647638700023768</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>0.4559377361216638</v>
+        <v>0.3585084545943069</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>0.03854581426819014</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0.3200009173890195</v>
-      </c>
-      <c r="O24" s="3" t="n">
-        <v>1</v>
+        <v>0.7113744075829384</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>0.4161016174685461</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>0.4736204616404567</v>
+        <v>0.2126096885689954</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0.7705</v>
+        <v>0.06980497646267654</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.16464</v>
+        <v>0.1140551445864156</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0.00074</v>
+        <v>0.3905601625969005</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>0.52244</v>
+        <v>0.171305846850958</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.6439158828177767</v>
+        <v>0.2554963983714375</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>0.6981584012442746</v>
+        <v>0.09492640150328843</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.6187038869282395</v>
-      </c>
-      <c r="X24" s="3" t="n">
-        <v>0.3221574896003379</v>
+        <v>0.8214541028748449</v>
+      </c>
+      <c r="X24" s="2" t="n">
+        <v>0.8372010738024828</v>
       </c>
       <c r="Y24" s="2" t="n">
-        <v>0.007426228877037484</v>
+        <v>0.5189063823329726</v>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>0.4810461602296786</v>
+        <v>0.5386168675726091</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>0.6295424735745699</v>
+        <v>0.6536672090843911</v>
+      </c>
+      <c r="AB24" s="2" t="n">
+        <v>0.3713955104980419</v>
+      </c>
+      <c r="AC24" s="2" t="n">
+        <v>0.312594655829165</v>
+      </c>
+      <c r="AD24" s="2" t="n">
+        <v>0.5588333333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>intfloat/multilingual-e5-base</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\flaubert\flaubert_base_uncased</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.40944</v>
+        <v>0.01719</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.7971563981042655</v>
+        <v>0.02703</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.6083389374579691</v>
+        <v>0.00508</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.6648621385339609</v>
+        <v>0.22333</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.8478546821171312</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.5550892577513311</v>
+        <v>0.4320222924608445</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.6208902532272975</v>
+        <v>0.1293857445009916</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.3298420160973169</v>
+        <v>0.3455157833857672</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.224815183324348</v>
+        <v>0.23518</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.4146967004570042</v>
+        <v>0.2537073113561774</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.2878992928699836</v>
+        <v>0.08098894058162567</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0.4347744902667021</v>
+        <v>0.01795603069453415</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>0.3852856167447359</v>
-      </c>
-      <c r="O25" s="3" t="n">
-        <v>1</v>
+        <v>0.6260663507109006</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>0.2849343428327477</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>0.5810060561836056</v>
+        <v>0.2257882491180909</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0.8543333333333334</v>
+        <v>0.06237390719569604</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.36213</v>
+        <v>0.1098184263618023</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0</v>
+        <v>0.3322371189429822</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>0.77893</v>
+        <v>0.1489756017869693</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.7622741775011176</v>
+        <v>0.2774193548387097</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>0.7812983399916396</v>
+        <v>0.08609458189790167</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.8061987894341297</v>
+        <v>0.8199594649342907</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.3076006060850825</v>
+        <v>0.8371300542205431</v>
       </c>
       <c r="Y25" s="2" t="n">
-        <v>0.8469805121423075</v>
-      </c>
-      <c r="Z25" s="3" t="n">
-        <v>1</v>
+        <v>0.5277777608306072</v>
+      </c>
+      <c r="Z25" s="2" t="n">
+        <v>0.4190237966349758</v>
       </c>
       <c r="AA25" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.5515047105823337</v>
+      </c>
+      <c r="AB25" s="2" t="n">
+        <v>0.3340826064580523</v>
+      </c>
+      <c r="AC25" s="2" t="n">
+        <v>0.2942790176376187</v>
+      </c>
+      <c r="AD25" s="2" t="n">
+        <v>0.5718333333333334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>intfloat/multilingual-e5-large</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\flaubert\flaubert_large_cased</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.41906</v>
+        <v>0.0058</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.7938388625592416</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.6354741089441829</v>
+        <v>0.00263</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.6814727639542704</v>
+        <v>0.01578</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.8640776699029127</v>
+        <v>0.03694</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.5943000313185093</v>
+        <v>0.4085073955515567</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.6299441060729347</v>
+        <v>0.217556103036172</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.3226490465285985</v>
+        <v>0.2628634383924476</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.224385340783431</v>
+        <v>0.22446</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.3765497284282792</v>
+        <v>0.1491870638833542</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.2897009236085679</v>
+        <v>0.1739429979680737</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0.4403584780733176</v>
+        <v>0.05262528089639844</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0.3764790754795183</v>
-      </c>
-      <c r="O26" s="3" t="n">
-        <v>1</v>
+        <v>0.5563981042654029</v>
+      </c>
+      <c r="O26" s="2" t="n">
+        <v>0.2642955329593683</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>0.5736952514221313</v>
+        <v>0.2467651379532248</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0.8689999999999999</v>
+        <v>0.1641223940820444</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.38155</v>
+        <v>0.2271687962340282</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0.01406</v>
+        <v>0.3809040459534752</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>0.79504</v>
+        <v>0.1871270130969609</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.7877953920342992</v>
+        <v>0.2426558095834638</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>0.7959570636221113</v>
+        <v>0.09790165988098966</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.825331305991469</v>
+        <v>0.7477882434061929</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.3091960914950717</v>
+        <v>0.7644139372682293</v>
       </c>
       <c r="Y26" s="2" t="n">
-        <v>0.848343389001009</v>
-      </c>
-      <c r="Z26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="3" t="n">
-        <v>1</v>
+        <v>0.5413772297820212</v>
+      </c>
+      <c r="Z26" s="2" t="n">
+        <v>0.3460428228637162</v>
+      </c>
+      <c r="AA26" s="2" t="n">
+        <v>0.4852164892537546</v>
+      </c>
+      <c r="AB26" s="2" t="n">
+        <v>0.1565944995632818</v>
+      </c>
+      <c r="AC26" s="2" t="n">
+        <v>0.2924968054601468</v>
+      </c>
+      <c r="AD26" s="2" t="n">
+        <v>0.428</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>intfloat/multilingual-e5-small</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\e5-mistral-7b-instruct</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.39678</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0.776303317535545</v>
-      </c>
+        <v>0.16464</v>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="n">
-        <v>0.5596839273705447</v>
+        <v>0.03572</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.6141896435776732</v>
+        <v>0.55901</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0.8119636705292829</v>
+        <v>0.41288</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>0.4600689007203257</v>
+        <v>0.6106009333650795</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.6088563017856842</v>
+        <v>0.2812144287516594</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.3252159090813198</v>
+        <v>0.4736204616404567</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.1895146766129994</v>
+        <v>0.3670600000000001</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.4377044774776253</v>
+        <v>0.4810461602296786</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.3368294068632095</v>
+        <v>0.6295424735745699</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0.4319898481643542</v>
+        <v>0.1969463250152054</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>0.3760912295232594</v>
-      </c>
-      <c r="O27" s="3" t="n">
-        <v>1</v>
+        <v>0.8059241706161137</v>
+      </c>
+      <c r="O27" s="2" t="n">
+        <v>0.5246796947226955</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>0.5616883460889035</v>
+        <v>0.4920055056152256</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0.8669999999999999</v>
+        <v>0.4638533960995293</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.27011</v>
+        <v>0.5385675857431069</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0.00115</v>
+        <v>0.4559377361216638</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>0.74121</v>
+        <v>0.3200009173890195</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.7561918985563969</v>
+        <v>0.7479799561540871</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>0.7961730402830817</v>
+        <v>0.5397118697150015</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.7932089325677624</v>
+        <v>0.8849687629254399</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.3184904693517336</v>
+        <v>0.9018852564940179</v>
       </c>
       <c r="Y27" s="2" t="n">
-        <v>0.8191820946779194</v>
-      </c>
-      <c r="Z27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="3" t="n">
-        <v>1</v>
+        <v>0.6365112459841364</v>
+      </c>
+      <c r="Z27" s="2" t="n">
+        <v>0.6439158828177767</v>
+      </c>
+      <c r="AA27" s="2" t="n">
+        <v>0.6981584012442746</v>
+      </c>
+      <c r="AB27" s="2" t="n">
+        <v>0.6187038869282395</v>
+      </c>
+      <c r="AC27" s="3" t="n">
+        <v>0.3221574896003379</v>
+      </c>
+      <c r="AD27" s="2" t="n">
+        <v>0.7705</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>izhx/udever-bloom-1b1</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\multilingual-e5-base</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.35122</v>
+        <v>0.36213</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.8092417061611374</v>
+        <v>0.5315299999999999</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.4321116341627437</v>
+        <v>0.23459</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.4978143913920645</v>
+        <v>0.8048999999999999</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0.6924209207641716</v>
+        <v>0.65813</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.5124960851863452</v>
+        <v>0.6208902532272975</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.6222399442609416</v>
+        <v>0.3298420160973169</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2705660566063521</v>
+        <v>0.5810060561836056</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.1386308009277809</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>0.4477280615670335</v>
+        <v>0.40944</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.2139691795010458</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0.4411463190530258</v>
+        <v>0.224815183324348</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>0.3046596247823246</v>
-      </c>
-      <c r="O28" s="3" t="n">
-        <v>1</v>
+        <v>0.7969194312796208</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>0.4790955603113446</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>0.391305123990374</v>
+        <v>0.511613591091413</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0.6258333333333334</v>
+        <v>0.6083389374579691</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.12368</v>
+        <v>0.6648621385339609</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0</v>
+        <v>0.4347744902667021</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>0.36219</v>
+        <v>0.3852856167447359</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.5994249043712252</v>
+        <v>0.8478546821171312</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>0.7710422175271007</v>
+        <v>0.5550892577513311</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.4997294509449677</v>
+        <v>0.9271872509880947</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.2947773908643301</v>
+        <v>0.9388089167367641</v>
       </c>
       <c r="Y28" s="2" t="n">
-        <v>0.02960398393820522</v>
+        <v>0.5693001208081843</v>
       </c>
       <c r="Z28" s="2" t="n">
-        <v>0.7507920742612434</v>
+        <v>0.7622741775011176</v>
       </c>
       <c r="AA28" s="2" t="n">
-        <v>0.7753324186122581</v>
+        <v>0.7812983399916396</v>
+      </c>
+      <c r="AB28" s="2" t="n">
+        <v>0.8061987894341297</v>
+      </c>
+      <c r="AC28" s="2" t="n">
+        <v>0.3076006060850825</v>
+      </c>
+      <c r="AD28" s="2" t="n">
+        <v>0.8543333333333334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>izhx/udever-bloom-560m</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\multilingual-e5-large</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.2685</v>
+        <v>0.38155</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.6822274881516588</v>
+        <v>0.59459</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.1509078681909886</v>
+        <v>0.25198</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.2167451244115669</v>
+        <v>0.81073</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0.3498590667084247</v>
+        <v>0.66152</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.1575634199812089</v>
+        <v>0.6299441060729347</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.5356669323782933</v>
+        <v>0.3226490465285985</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.2213080649584274</v>
+        <v>0.5736952514221313</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.07676232398725595</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>0.1994542448864338</v>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>0.08196381524377111</v>
+        <v>0.41906</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>0.3643378561194323</v>
+        <v>0.224385340783431</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>0.252602955617548</v>
-      </c>
-      <c r="O29" s="3" t="n">
-        <v>1</v>
+        <v>0.7938388625592416</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0.4094051717864892</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>0.2874535569238364</v>
+        <v>0.3056417709980992</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0.5088333333333334</v>
+        <v>0.6354741089441829</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.01977</v>
+        <v>0.6814727639542704</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>0.00203</v>
+        <v>0.4403584780733176</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>0.19361</v>
+        <v>0.3764790754795183</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.5454151151439361</v>
+        <v>0.8640776699029127</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>0.6134778039151253</v>
+        <v>0.5943000313185093</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.367797062871304</v>
+        <v>0.938913502641856</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.236335996838468</v>
+        <v>0.9484999717971343</v>
       </c>
       <c r="Y29" s="2" t="n">
-        <v>0.08123300931367383</v>
+        <v>0.5850354286368129</v>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>0.4982878074063394</v>
+        <v>0.7877953920342992</v>
       </c>
       <c r="AA29" s="2" t="n">
-        <v>0.3735697737011764</v>
+        <v>0.7959570636221113</v>
+      </c>
+      <c r="AB29" s="2" t="n">
+        <v>0.825331305991469</v>
+      </c>
+      <c r="AC29" s="2" t="n">
+        <v>0.3091960914950717</v>
+      </c>
+      <c r="AD29" s="2" t="n">
+        <v>0.8689999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>laser2</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\multilingual-e5-small</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.3389</v>
+        <v>0.27011</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.6597156398104265</v>
+        <v>0.51802</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.5255548083389374</v>
+        <v>0.22532</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.5855749831876261</v>
+        <v>0.75757</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0.7615408706545569</v>
+        <v>0.57468</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.5677106169746321</v>
+        <v>0.6088563017856842</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.4844987065316271</v>
+        <v>0.3252159090813198</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.2581005978931367</v>
+        <v>0.5616883460889035</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.1152462522943653</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>0.2231318915059183</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>0.1122470642337733</v>
+        <v>0.39678</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0.3452771955734939</v>
+        <v>0.1895146766129994</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>0.2734632035175874</v>
-      </c>
-      <c r="O30" s="3" t="n">
-        <v>1</v>
+        <v>0.7765402843601896</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>0.4012052586909949</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>0.3529297636080134</v>
+        <v>0.3922138626257822</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0.5593333333333333</v>
+        <v>0.5596839273705447</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.03097</v>
+        <v>0.6141896435776732</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0.00732</v>
+        <v>0.4319898481643542</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>0.24016</v>
+        <v>0.3760912295232594</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.6495173425879137</v>
+        <v>0.8119636705292829</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>0.6526537801367611</v>
+        <v>0.4600689007203257</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.698190921587828</v>
+        <v>0.9251631850374396</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.3156475744412745</v>
+        <v>0.9361314066710414</v>
       </c>
       <c r="Y30" s="2" t="n">
-        <v>0.8592414264387124</v>
-      </c>
-      <c r="Z30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="3" t="n">
-        <v>1</v>
+        <v>0.5567655997101544</v>
+      </c>
+      <c r="Z30" s="2" t="n">
+        <v>0.7561918985563969</v>
+      </c>
+      <c r="AA30" s="2" t="n">
+        <v>0.7961730402830817</v>
+      </c>
+      <c r="AB30" s="2" t="n">
+        <v>0.7932089325677624</v>
+      </c>
+      <c r="AC30" s="2" t="n">
+        <v>0.3184904693517336</v>
+      </c>
+      <c r="AD30" s="2" t="n">
+        <v>0.8669999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/LaBSE</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\izhx\udever-bloom-1b1</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.3852399999999999</v>
+        <v>0.12368</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.7736966824644551</v>
+        <v>0.32432</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.6046738399462004</v>
+        <v>0.02784</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.6510423671822462</v>
+        <v>0.40572</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>0.8413717507046664</v>
+        <v>0.33816</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.6201064829314126</v>
+        <v>0.6222399442609416</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.5478373637265357</v>
+        <v>0.2705660566063521</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.316037738871091</v>
+        <v>0.391305123990374</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.2061928108108767</v>
+        <v>0.35122</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.4278706818116396</v>
+        <v>0.7507920742612434</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.2823803800504961</v>
+        <v>0.7753324186122581</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0.4209325634914144</v>
+        <v>0.1386308009277809</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>0.348364243914043</v>
-      </c>
-      <c r="O31" s="3" t="n">
-        <v>1</v>
+        <v>0.8082938388625592</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>0.4020146637093098</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>0.4950995736410158</v>
+        <v>0.2734727715023461</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0.7328333333333332</v>
+        <v>0.4321116341627437</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.19775</v>
+        <v>0.4978143913920645</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0.00575</v>
+        <v>0.4411463190530258</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>0.5006</v>
+        <v>0.3046596247823246</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.699399693283394</v>
+        <v>0.6924209207641716</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>0.779542837388368</v>
+        <v>0.5124960851863452</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.7509746606428888</v>
+        <v>0.8553994259572022</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.301637456328485</v>
-      </c>
-      <c r="Y31" s="3" t="n">
-        <v>0.8754400001529438</v>
-      </c>
-      <c r="Z31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="3" t="n">
-        <v>1</v>
+        <v>0.8699512931793678</v>
+      </c>
+      <c r="Y31" s="2" t="n">
+        <v>0.6199445797185625</v>
+      </c>
+      <c r="Z31" s="2" t="n">
+        <v>0.5994249043712252</v>
+      </c>
+      <c r="AA31" s="2" t="n">
+        <v>0.7710422175271007</v>
+      </c>
+      <c r="AB31" s="2" t="n">
+        <v>0.4997294509449677</v>
+      </c>
+      <c r="AC31" s="2" t="n">
+        <v>0.2947773908643301</v>
+      </c>
+      <c r="AD31" s="2" t="n">
+        <v>0.6258333333333334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-MiniLM-L12-v2</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\izhx\udever-bloom-560m</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.2754</v>
+        <v>0.01977</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.7222748815165877</v>
+        <v>0.06306</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.4481506388702085</v>
+        <v>0.00478</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.537626092804304</v>
+        <v>0.24447</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0.7559348575007829</v>
+        <v>0.12977</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>0.3893830253679925</v>
+        <v>0.5356669323782933</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.4602594872664162</v>
+        <v>0.2213080649584274</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.3182943689925971</v>
+        <v>0.2874535569238364</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.1957951528987704</v>
+        <v>0.2685</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.2683740719058668</v>
+        <v>0.4982878074063394</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.2077939391952769</v>
+        <v>0.3735697737011764</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.3435218323840786</v>
+        <v>0.07676232398725595</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0.2929559187477989</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <v>1</v>
+        <v>0.6793838862559242</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>0.3756989794785178</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>0.4573497604610514</v>
+        <v>0.2057636370254607</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0.6833333333333335</v>
+        <v>0.1509078681909886</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.33196</v>
+        <v>0.2167451244115669</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0.00076</v>
+        <v>0.3643378561194323</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>0.58125</v>
+        <v>0.252602955617548</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.6316238159087848</v>
+        <v>0.3498590667084247</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>0.6951402658537921</v>
+        <v>0.1575634199812089</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.6667725575200975</v>
+        <v>0.821028497835868</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.2662863565868236</v>
+        <v>0.8387532049805303</v>
       </c>
       <c r="Y32" s="2" t="n">
-        <v>0.096967565885423</v>
+        <v>0.5968876661366747</v>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>0.7091264534343772</v>
+        <v>0.5454151151439361</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>0.6191113021604495</v>
+        <v>0.6134778039151253</v>
+      </c>
+      <c r="AB32" s="2" t="n">
+        <v>0.367797062871304</v>
+      </c>
+      <c r="AC32" s="2" t="n">
+        <v>0.236335996838468</v>
+      </c>
+      <c r="AD32" s="2" t="n">
+        <v>0.5088333333333334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\laser2</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.2689800000000001</v>
+        <v>0.03097</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.7402843601895734</v>
+        <v>0.08108</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.4263954270342972</v>
+        <v>0.06314</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.5115669132481506</v>
+        <v>0.28578</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0.7508299404948324</v>
+        <v>0.42589</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0.3965236454744754</v>
+        <v>0.4844987065316271</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.5183078853752063</v>
+        <v>0.2581005978931367</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.3206588333216591</v>
+        <v>0.3529297636080134</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.1884080354213321</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>0.3258045892929137</v>
-      </c>
-      <c r="L33" s="2" t="n">
-        <v>0.2174540495225184</v>
+        <v>0.3389</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.3673575599443643</v>
+        <v>0.1152462522943653</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>0.2811790550911384</v>
-      </c>
-      <c r="O33" s="3" t="n">
-        <v>1</v>
+        <v>0.659004739336493</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>0.3204069399698778</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>0.3169263945167622</v>
+        <v>0.2977201517756452</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0.5956666666666667</v>
+        <v>0.5255548083389374</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.28413</v>
+        <v>0.5855749831876261</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0</v>
+        <v>0.3452771955734939</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>0.57306</v>
+        <v>0.2734632035175874</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.6248225654609475</v>
+        <v>0.7615408706545569</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>0.7700398643056744</v>
+        <v>0.5677106169746321</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.6493028232792631</v>
+        <v>0.9376676402095003</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.2828180757815488</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>0.03498878152491112</v>
+        <v>0.9461924042044693</v>
+      </c>
+      <c r="Y33" s="3" t="n">
+        <v>0.6952503411108341</v>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>0.6231354410624419</v>
+        <v>0.6495173425879137</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>0.564793587110538</v>
+        <v>0.6526537801367611</v>
+      </c>
+      <c r="AB33" s="2" t="n">
+        <v>0.698190921587828</v>
+      </c>
+      <c r="AC33" s="2" t="n">
+        <v>0.3156475744412745</v>
+      </c>
+      <c r="AD33" s="2" t="n">
+        <v>0.5593333333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\manu\bge-m3-custom-fr</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.35764</v>
+        <v>0.44736</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.7687203791469195</v>
+        <v>0.5315299999999999</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.598285137861466</v>
+        <v>0.25173</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.6738735709482178</v>
+        <v>0.79145</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.8498277481991858</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>0.5610710930159725</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>0.5595373948625354</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.3538541904887588</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>0.1820092523936601</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>0.4087161293436307</v>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>0.2453035984765158</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>0.4017045078734119</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>0.3464793188683687</v>
-      </c>
-      <c r="O34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="2" t="n">
-        <v>0.5177355262516891</v>
-      </c>
-      <c r="Q34" s="2" t="n">
-        <v>0.7478333333333331</v>
-      </c>
-      <c r="R34" s="2" t="n">
-        <v>0.26994</v>
-      </c>
-      <c r="S34" s="2" t="n">
-        <v>0.00171</v>
-      </c>
-      <c r="T34" s="2" t="n">
-        <v>0.62012</v>
-      </c>
-      <c r="U34" s="2" t="n">
-        <v>0.7249442911000451</v>
-      </c>
-      <c r="V34" s="2" t="n">
-        <v>0.7641254265129491</v>
-      </c>
-      <c r="W34" s="2" t="n">
-        <v>0.7748827876122101</v>
-      </c>
-      <c r="X34" s="2" t="n">
-        <v>0.2812111546255657</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>0.8327728076127141</v>
-      </c>
-      <c r="Z34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="3" t="n">
-        <v>1</v>
-      </c>
+        <v>0.68492</v>
+      </c>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr"/>
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
+      <c r="W34" s="2" t="inlineStr"/>
+      <c r="X34" s="2" t="inlineStr"/>
+      <c r="Y34" s="2" t="inlineStr"/>
+      <c r="Z34" s="2" t="inlineStr"/>
+      <c r="AA34" s="2" t="inlineStr"/>
+      <c r="AB34" s="2" t="inlineStr"/>
+      <c r="AC34" s="2" t="inlineStr"/>
+      <c r="AD34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\manu\sentence_croissant_alpha_v0.2</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.27046</v>
+        <v>0.45487</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.7563981042654029</v>
+        <v>0.60811</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.4264290517821117</v>
+        <v>0.26351</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.499226630800269</v>
+        <v>0.79169</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>0.7296899467585343</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>0.3718446601941748</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>0.4913194595542176</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.2615924058641751</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0.124913841593586</v>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>0.3522819591205593</v>
-      </c>
-      <c r="L35" s="2" t="n">
-        <v>0.1781705102832473</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>0.3514684027308759</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>0.2595314882250714</v>
-      </c>
-      <c r="O35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" s="2" t="n">
-        <v>0.4027970855790797</v>
-      </c>
-      <c r="Q35" s="2" t="n">
-        <v>0.6508333333333334</v>
-      </c>
-      <c r="R35" s="2" t="n">
-        <v>0.30229</v>
-      </c>
-      <c r="S35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="2" t="n">
-        <v>0.57153</v>
-      </c>
-      <c r="U35" s="2" t="n">
-        <v>0.6210588256655486</v>
-      </c>
-      <c r="V35" s="2" t="n">
-        <v>0.7461882879262099</v>
-      </c>
-      <c r="W35" s="2" t="n">
-        <v>0.6384700996869166</v>
-      </c>
-      <c r="X35" s="2" t="n">
-        <v>0.2759064320988224</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>0.08784505319023178</v>
-      </c>
-      <c r="Z35" s="2" t="n">
-        <v>0.5537365949388782</v>
-      </c>
-      <c r="AA35" s="2" t="n">
-        <v>0.5046345385362436</v>
-      </c>
+        <v>0.61948</v>
+      </c>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr"/>
+      <c r="W35" s="2" t="inlineStr"/>
+      <c r="X35" s="2" t="inlineStr"/>
+      <c r="Y35" s="2" t="inlineStr"/>
+      <c r="Z35" s="2" t="inlineStr"/>
+      <c r="AA35" s="2" t="inlineStr"/>
+      <c r="AB35" s="2" t="inlineStr"/>
+      <c r="AC35" s="2" t="inlineStr"/>
+      <c r="AD35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\manu\sentence_croissant_alpha_v0.3</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.36758</v>
+        <v>0.49097</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.7609004739336493</v>
+        <v>0.65766</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.5751513113651648</v>
+        <v>0.2966</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.6451916610625421</v>
+        <v>0.8097299999999999</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>0.7769808957093642</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>0.4793611024115252</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>0.5606489195760765</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.4215818771542176</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.2320666181560827</v>
-      </c>
-      <c r="K36" s="2" t="n">
-        <v>0.3291808540835628</v>
-      </c>
-      <c r="L36" s="2" t="n">
-        <v>0.2742146292893042</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>0.3997152802677553</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>0.3654820279096755</v>
-      </c>
-      <c r="O36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="2" t="n">
-        <v>0.4900817277127068</v>
-      </c>
-      <c r="Q36" s="2" t="n">
-        <v>0.7503333333333333</v>
-      </c>
-      <c r="R36" s="2" t="n">
-        <v>0.26634</v>
-      </c>
-      <c r="S36" s="2" t="n">
-        <v>0.00069</v>
-      </c>
-      <c r="T36" s="2" t="n">
-        <v>0.62978</v>
-      </c>
-      <c r="U36" s="2" t="n">
-        <v>0.75102380757868</v>
-      </c>
-      <c r="V36" s="2" t="n">
-        <v>0.7054517669493489</v>
-      </c>
-      <c r="W36" s="2" t="n">
-        <v>0.7989821675921884</v>
-      </c>
-      <c r="X36" s="2" t="n">
-        <v>0.2919931043966207</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>0.7772438859983376</v>
-      </c>
-      <c r="Z36" s="2" t="n">
-        <v>0.9986626546305583</v>
-      </c>
-      <c r="AA36" s="2" t="n">
-        <v>0.995987963891675</v>
-      </c>
+        <v>0.6420400000000001</v>
+      </c>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr"/>
+      <c r="Q36" s="2" t="inlineStr"/>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr"/>
+      <c r="T36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr"/>
+      <c r="W36" s="2" t="inlineStr"/>
+      <c r="X36" s="2" t="inlineStr"/>
+      <c r="Y36" s="2" t="inlineStr"/>
+      <c r="Z36" s="2" t="inlineStr"/>
+      <c r="AA36" s="2" t="inlineStr"/>
+      <c r="AB36" s="2" t="inlineStr"/>
+      <c r="AC36" s="2" t="inlineStr"/>
+      <c r="AD36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\mistral-embed</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.40138</v>
+        <v>0.56836</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.7810426540284359</v>
+        <v>0.6756799999999999</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.6187962340282447</v>
+        <v>0.21732</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.678950907868191</v>
+        <v>0.7877</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>0.8029126213592234</v>
+        <v>0.74235</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.5203570310053242</v>
+        <v>0.6200673531656187</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.5449402070854203</v>
+        <v>0.4919858181804794</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.4478667196341167</v>
+        <v>0.7235703741352056</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.239677482639205</v>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>0.399507859433065</v>
-      </c>
-      <c r="L37" s="2" t="n">
-        <v>0.2884982459300411</v>
-      </c>
+        <v>0.41594</v>
+      </c>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
       <c r="M37" s="2" t="n">
-        <v>0.4055377595140954</v>
+        <v>0.2617385576460144</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>0.3753003494348933</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <v>1</v>
+        <v>0.8139810426540285</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>0.4812513474674608</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>0.5433541215937093</v>
+        <v>0.3961706213267493</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0.8323333333333334</v>
+        <v>0.6283120376597177</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.30799</v>
+        <v>0.6971418964357767</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0</v>
+        <v>0.4527933950642883</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>0.72098</v>
+        <v>0.427376128032198</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.755583681044677</v>
+        <v>0.9005010961478235</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>0.7430483195474878</v>
+        <v>0.6608831819605385</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.8469135860099118</v>
+        <v>0.9261462822985623</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.2946828386641493</v>
+        <v>0.9390344015481578</v>
       </c>
       <c r="Y37" s="2" t="n">
-        <v>0.8067461852300057</v>
+        <v>0.6202390909948808</v>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>0.9986626546305584</v>
-      </c>
-      <c r="AA37" s="3" t="n">
-        <v>1</v>
+        <v>0.7621241859440422</v>
+      </c>
+      <c r="AA37" s="2" t="n">
+        <v>0.8274398153558601</v>
+      </c>
+      <c r="AB37" s="2" t="n">
+        <v>0.7972225305052291</v>
+      </c>
+      <c r="AC37" s="2" t="n">
+        <v>0.3146953192338591</v>
+      </c>
+      <c r="AD37" s="2" t="n">
+        <v>0.8856666666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-base</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\LaBSE</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.3735</v>
+        <v>0.19775</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.8116113744075829</v>
+        <v>0.22973</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.5113315400134499</v>
+        <v>0.15529</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.5991930060524545</v>
+        <v>0.55315</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>0.7502975258377701</v>
+        <v>0.51736</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0.4384591293454432</v>
+        <v>0.5478373637265357</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.5844150763298186</v>
+        <v>0.316037738871091</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.3593354716276945</v>
+        <v>0.4950995736410158</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.1771709655357738</v>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>0.5392106599890245</v>
-      </c>
-      <c r="L38" s="2" t="n">
-        <v>0.2830438938491224</v>
+        <v>0.3852399999999999</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0.4076920517896694</v>
+        <v>0.2061928108108767</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>0.3006026181192261</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <v>1</v>
+        <v>0.7739336492890996</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>0.4615982853044859</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>0.5011645682624447</v>
+        <v>0.3813297329222706</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0.7805</v>
+        <v>0.6046738399462004</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.27523</v>
+        <v>0.6510423671822462</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0.00818</v>
+        <v>0.4209325634914144</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>0.63024</v>
+        <v>0.348364243914043</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.7173634724227647</v>
+        <v>0.8413717507046664</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>0.7768846630995027</v>
+        <v>0.6201064829314126</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.7404061698113868</v>
+        <v>0.9395623291640002</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>0.3000911423350935</v>
+        <v>0.9441484444599348</v>
       </c>
       <c r="Y38" s="2" t="n">
-        <v>0.551313531869022</v>
+        <v>0.5463098409665733</v>
       </c>
       <c r="Z38" s="2" t="n">
-        <v>0.9735874289535272</v>
+        <v>0.699399693283394</v>
       </c>
       <c r="AA38" s="2" t="n">
-        <v>0.9615513206285523</v>
+        <v>0.779542837388368</v>
+      </c>
+      <c r="AB38" s="2" t="n">
+        <v>0.7509746606428888</v>
+      </c>
+      <c r="AC38" s="2" t="n">
+        <v>0.301637456328485</v>
+      </c>
+      <c r="AD38" s="2" t="n">
+        <v>0.7328333333333332</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-large</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\all-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.4147999999999999</v>
+        <v>0.33196</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.8037914691943128</v>
+        <v>0.34234</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.5701412239408203</v>
+        <v>0.16079</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.6360121049092132</v>
+        <v>0.608</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>0.795959912308174</v>
+        <v>0.55899</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.4772940808017538</v>
+        <v>0.4602594872664162</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.6182277140780882</v>
+        <v>0.3182943689925971</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.3977568234064501</v>
+        <v>0.4573497604610514</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.1873235586707495</v>
+        <v>0.2754</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.5548362649714498</v>
+        <v>0.7091264534343772</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.2634116887092831</v>
+        <v>0.6191113021604495</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0.4207261111658658</v>
+        <v>0.1957951528987704</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0.3186940328271737</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>1</v>
+        <v>0.7220379146919431</v>
+      </c>
+      <c r="O39" s="2" t="n">
+        <v>0.4271872726070847</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>0.5799215751439791</v>
+        <v>0.3246835377100011</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0.7976666666666666</v>
+        <v>0.4481506388702085</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.34518</v>
+        <v>0.537626092804304</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0.00177</v>
+        <v>0.3435218323840786</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>0.7003</v>
+        <v>0.2929559187477989</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.7282743267188198</v>
+        <v>0.7559348575007829</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>0.750086943549879</v>
+        <v>0.3893830253679925</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.7759236947905355</v>
+        <v>0.8734880754144339</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>0.3022765637412754</v>
+        <v>0.8779525332075913</v>
       </c>
       <c r="Y39" s="2" t="n">
-        <v>0.7109667114459385</v>
+        <v>0.5552853885736202</v>
       </c>
       <c r="Z39" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.6316238159087848</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>0.9866265463055833</v>
+        <v>0.6951402658537921</v>
+      </c>
+      <c r="AB39" s="2" t="n">
+        <v>0.6667725575200975</v>
+      </c>
+      <c r="AC39" s="2" t="n">
+        <v>0.2662863565868236</v>
+      </c>
+      <c r="AD39" s="2" t="n">
+        <v>0.6833333333333335</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-xl</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.43516</v>
+        <v>0.28413</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.8009478672985783</v>
+        <v>0.27477</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.6098520511096167</v>
+        <v>0.09195</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.6641560188298588</v>
+        <v>0.60148</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>0.8514249921703726</v>
+        <v>0.51786</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>0.5439085499530223</v>
+        <v>0.5183078853752063</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.6037247542497267</v>
+        <v>0.3206588333216591</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.4076035180401736</v>
+        <v>0.3169263945167622</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.2027889302653955</v>
+        <v>0.2689800000000001</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.5362316418384276</v>
+        <v>0.6231354410624419</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.2956407849592017</v>
+        <v>0.564793587110538</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0.4161005491114602</v>
+        <v>0.1884080354213321</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>0.3360365488455902</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>1</v>
+        <v>0.740521327014218</v>
+      </c>
+      <c r="O40" s="2" t="n">
+        <v>0.3492044210457986</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>0.6329940615569801</v>
+        <v>0.4057681708831091</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0.8306666666666667</v>
+        <v>0.4263954270342972</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.40375</v>
+        <v>0.5115669132481506</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.3673575599443643</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>0.72341</v>
+        <v>0.2811790550911384</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.7508041932935345</v>
+        <v>0.7508299404948324</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>0.7749353352876681</v>
+        <v>0.3965236454744754</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.794154396398088</v>
+        <v>0.8652704370552743</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>0.3159390228650623</v>
+        <v>0.8759124475461358</v>
       </c>
       <c r="Y40" s="2" t="n">
-        <v>0.7586314484331536</v>
+        <v>0.5539810428438392</v>
       </c>
       <c r="Z40" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.6248225654609475</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.7700398643056744</v>
+      </c>
+      <c r="AB40" s="2" t="n">
+        <v>0.6493028232792631</v>
+      </c>
+      <c r="AC40" s="2" t="n">
+        <v>0.2828180757815488</v>
+      </c>
+      <c r="AD40" s="2" t="n">
+        <v>0.5956666666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-xxl</t>
-        </is>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>0.4608800000000001</v>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\distiluse-base-multilingual-cased-v2</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>0.26994</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.7909952606635071</v>
-      </c>
-      <c r="D41" s="3" t="n">
-        <v>0.6590786819098857</v>
+        <v>0.28829</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>0.22545</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.6853059852051111</v>
+        <v>0.65338</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0.8620106482931412</v>
+        <v>0.51196</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>0.5833385530848731</v>
+        <v>0.5595373948625354</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.6097713304012906</v>
+        <v>0.3538541904887588</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.4350024233904722</v>
+        <v>0.5177355262516891</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.2140492459012981</v>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>0.5307752442093291</v>
-      </c>
-      <c r="L41" s="2" t="n">
-        <v>0.2454165971723786</v>
+        <v>0.35764</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>0.4224117195163593</v>
+        <v>0.1820092523936601</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>0.3524745757300218</v>
-      </c>
-      <c r="O41" s="3" t="n">
-        <v>1</v>
+        <v>0.7687203791469195</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>0.5376154899329338</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>0.6836198251579949</v>
+        <v>0.3276276082145452</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0.8515</v>
+        <v>0.598285137861466</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.45748</v>
-      </c>
-      <c r="S41" s="3" t="n">
-        <v>0.05524</v>
+        <v>0.6738735709482178</v>
+      </c>
+      <c r="S41" s="2" t="n">
+        <v>0.4017045078734119</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>0.77085</v>
+        <v>0.3464793188683687</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.7706782664515456</v>
+        <v>0.8498277481991858</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>0.7680240821366182</v>
+        <v>0.5610710930159725</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.8124450977788589</v>
+        <v>0.9207498432598107</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>0.3039226775800043</v>
+        <v>0.9374506536091047</v>
       </c>
       <c r="Y41" s="2" t="n">
-        <v>0.8324518195666728</v>
+        <v>0.5107538398683125</v>
       </c>
       <c r="Z41" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.7249442911000451</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.7641254265129491</v>
+      </c>
+      <c r="AB41" s="2" t="n">
+        <v>0.7748827876122101</v>
+      </c>
+      <c r="AC41" s="2" t="n">
+        <v>0.2812111546255657</v>
+      </c>
+      <c r="AD41" s="2" t="n">
+        <v>0.7478333333333331</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>shibing624/text2vec-base-multilingual</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\multi-qa-MiniLM-L6-cos-v1</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.34254</v>
+        <v>0.30229</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.7381516587677724</v>
+        <v>0.2973</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.5193006052454606</v>
+        <v>0.16312</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.5830867518493612</v>
+        <v>0.58073</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0.7182586908863138</v>
+        <v>0.48832</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.4453492013780145</v>
+        <v>0.4913194595542176</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.4910742502173265</v>
+        <v>0.2615924058641751</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.3272237759178746</v>
+        <v>0.4027970855790797</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.1619070583380436</v>
+        <v>0.27046</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.3193050164392256</v>
+        <v>0.5537365949388782</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.1937935361736592</v>
+        <v>0.5046345385362436</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>0.3619042628585186</v>
+        <v>0.124913841593586</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>0.303885451410444</v>
-      </c>
-      <c r="O42" s="3" t="n">
-        <v>1</v>
+        <v>0.7561611374407583</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>0.5372744669883476</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>0.5148170958763292</v>
+        <v>0.2726838058131417</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0.7028333333333333</v>
+        <v>0.4264290517821117</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.18899</v>
+        <v>0.499226630800269</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0.00197</v>
+        <v>0.3514684027308759</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>0.46355</v>
+        <v>0.2595314882250714</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.7724805746003676</v>
+        <v>0.7296899467585343</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>0.7409937723367189</v>
+        <v>0.3718446601941748</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.8347595626027418</v>
+        <v>0.8806670648536865</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.2933489058303607</v>
+        <v>0.8776887387170348</v>
       </c>
       <c r="Y42" s="2" t="n">
-        <v>0.7780898243854504</v>
+        <v>0.5736104900905769</v>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>0.9879638916750251</v>
+        <v>0.6210588256655486</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.7461882879262099</v>
+      </c>
+      <c r="AB42" s="2" t="n">
+        <v>0.6384700996869166</v>
+      </c>
+      <c r="AC42" s="2" t="n">
+        <v>0.2759064320988224</v>
+      </c>
+      <c r="AD42" s="2" t="n">
+        <v>0.6508333333333334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>text-embedding-ada-002</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\paraphrase-multilingual-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.43764</v>
+        <v>0.26634</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.8158767772511849</v>
+        <v>0.37838</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.6542030934767989</v>
+        <v>0.21535</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.7110961667787492</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>0.8937676166614468</v>
-      </c>
-      <c r="G43" s="3" t="n">
-        <v>0.6445349201378014</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>0.6482909467525912</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>0.5352055108193531</v>
+        <v>0.65543</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>0.42511</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>0.5606489195760765</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>0.4215818771542176</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>0.4900817277127068</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.2617596819504725</v>
+        <v>0.36758</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.5166550561413287</v>
-      </c>
-      <c r="L43" s="3" t="n">
-        <v>0.4620860733073753</v>
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>0.995987963891675</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>0.445914143327743</v>
-      </c>
-      <c r="N43" s="3" t="n">
-        <v>0.416657222225081</v>
-      </c>
-      <c r="O43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="3" t="n">
-        <v>0.8986666666666667</v>
+        <v>0.2320666181560827</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>0.7609004739336493</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>0.3657831649774737</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>0.3389979666918544</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>0.5751513113651648</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.5164</v>
+        <v>0.6451916610625421</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0.02151</v>
-      </c>
-      <c r="T43" s="3" t="n">
-        <v>0.85037</v>
+        <v>0.3997152802677553</v>
+      </c>
+      <c r="T43" s="2" t="n">
+        <v>0.3654820279096755</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.7627685738662282</v>
+        <v>0.7769808957093642</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>0.810931445449386</v>
+        <v>0.4793611024115252</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.775488475913985</v>
+        <v>0.9200522043693091</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>0.3049962446901472</v>
+        <v>0.9414470609254002</v>
       </c>
       <c r="Y43" s="2" t="n">
-        <v>0.860436629641775</v>
+        <v>0.5694456712082714</v>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>0.9933132731527916</v>
+        <v>0.75102380757868</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.7054517669493489</v>
+      </c>
+      <c r="AB43" s="2" t="n">
+        <v>0.7989821675921884</v>
+      </c>
+      <c r="AC43" s="2" t="n">
+        <v>0.2919931043966207</v>
+      </c>
+      <c r="AD43" s="2" t="n">
+        <v>0.7503333333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>voyage-2</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\paraphrase-multilingual-mpnet-base-v2</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.37262</v>
+        <v>0.30799</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.7812796208530806</v>
+        <v>0.42793</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.5369872225958305</v>
+        <v>0.24454</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.6246133154001345</v>
+        <v>0.75998</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0.7978703413717507</v>
+        <v>0.46221</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>0.4561854055746946</v>
+        <v>0.5449402070854203</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0.5795590984348414</v>
+        <v>0.4478667196341167</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0.4165266573039174</v>
+        <v>0.5433541215937093</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0.2484326275705308</v>
+        <v>0.40138</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.4097062571248877</v>
-      </c>
-      <c r="L44" s="2" t="n">
-        <v>0.3529053349566959</v>
+        <v>0.9986626546305584</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.4508245196010945</v>
+        <v>0.239677482639205</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>0.3877264742587128</v>
-      </c>
-      <c r="O44" s="3" t="n">
-        <v>1</v>
+        <v>0.7810426540284359</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>0.41569311482541</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>0.6353910351142916</v>
+        <v>0.3087579159546582</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0.8265</v>
+        <v>0.6187962340282447</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>0.45499</v>
+        <v>0.678950907868191</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0.00844</v>
+        <v>0.4055377595140954</v>
       </c>
       <c r="T44" s="2" t="n">
-        <v>0.73226</v>
+        <v>0.3753003494348933</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>0.6851217063378627</v>
+        <v>0.8029126213592234</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>0.7050549213561673</v>
+        <v>0.5203570310053242</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>0.7642936190822642</v>
+        <v>0.9345353677987358</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>0.3087952286335955</v>
+        <v>0.9530638045019797</v>
       </c>
       <c r="Y44" s="2" t="n">
-        <v>0.3189440828794315</v>
+        <v>0.5814276884080426</v>
       </c>
       <c r="Z44" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.755583681044677</v>
       </c>
       <c r="AA44" s="2" t="n">
-        <v>0.9799398194583752</v>
+        <v>0.7430483195474878</v>
+      </c>
+      <c r="AB44" s="2" t="n">
+        <v>0.8469135860099118</v>
+      </c>
+      <c r="AC44" s="2" t="n">
+        <v>0.2946828386641493</v>
+      </c>
+      <c r="AD44" s="2" t="n">
+        <v>0.8323333333333334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>voyage-code-2</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-base</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.4215</v>
+        <v>0.27523</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.8215639810426542</v>
+        <v>0.3964</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.630766644250168</v>
+        <v>0.2104</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>0.7014794889038332</v>
+        <v>0.66999</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>0.8767616661446915</v>
+        <v>0.45191</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>0.5943626683369871</v>
+        <v>0.5844150763298186</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0.6162945124485424</v>
+        <v>0.3593354716276945</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0.5067174392659987</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>0.2744285128302836</v>
+        <v>0.5011645682624447</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>0.3735</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.4801480761600359</v>
+        <v>0.9735874289535272</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.3893920230005153</v>
+        <v>0.9615513206285523</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0.4522898818144546</v>
+        <v>0.1771709655357738</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>0.4148135128122253</v>
-      </c>
-      <c r="O45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="3" t="n">
-        <v>0.7079122494623074</v>
+        <v>0.812085308056872</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>0.6190485205190622</v>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v>0.3564262992341879</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0.8676666666666667</v>
-      </c>
-      <c r="R45" s="3" t="n">
-        <v>0.52606</v>
+        <v>0.5113315400134499</v>
+      </c>
+      <c r="R45" s="2" t="n">
+        <v>0.5991930060524545</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0.01708</v>
+        <v>0.4076920517896694</v>
       </c>
       <c r="T45" s="2" t="n">
-        <v>0.81468</v>
+        <v>0.3006026181192261</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>0.7356028375217639</v>
+        <v>0.7502975258377701</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>0.7999221736030022</v>
+        <v>0.4384591293454432</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>0.7901988871511573</v>
+        <v>0.8939826485982256</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>0.2833835044555462</v>
+        <v>0.9004953622645687</v>
       </c>
       <c r="Y45" s="2" t="n">
-        <v>0.6013319288411012</v>
+        <v>0.5535169602026141</v>
       </c>
       <c r="Z45" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.7173634724227647</v>
       </c>
       <c r="AA45" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.7768846630995027</v>
+      </c>
+      <c r="AB45" s="2" t="n">
+        <v>0.7404061698113868</v>
+      </c>
+      <c r="AC45" s="2" t="n">
+        <v>0.3000911423350935</v>
+      </c>
+      <c r="AD45" s="2" t="n">
+        <v>0.7805</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-large</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.33514</v>
+        <v>0.34518</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.8201421800947868</v>
+        <v>0.46847</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.6119031607262946</v>
+        <v>0.23918</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0.7021856086079354</v>
+        <v>0.71053</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>0.8549639837143752</v>
+        <v>0.48792</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0.5398371437519573</v>
+        <v>0.6182277140780882</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0.5689916720736953</v>
+        <v>0.3977568234064501</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0.378393691062227</v>
+        <v>0.5799215751439791</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0.1894729944719849</v>
+        <v>0.4147999999999999</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.5087736644872866</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.3815321624669409</v>
+        <v>0.9866265463055833</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.4389692922750733</v>
+        <v>0.1873235586707495</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>0.3550144906912691</v>
-      </c>
-      <c r="O46" s="3" t="n">
-        <v>1</v>
+        <v>0.8042654028436018</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>0.585985794265385</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>0.5622529766312828</v>
+        <v>0.3133479963331417</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0.7384999999999999</v>
+        <v>0.5701412239408203</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>0.35267</v>
+        <v>0.6360121049092132</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0.0008</v>
+        <v>0.4207261111658658</v>
       </c>
       <c r="T46" s="2" t="n">
-        <v>0.6815099999999999</v>
+        <v>0.3186940328271737</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>0.7137136565612174</v>
+        <v>0.795959912308174</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>0.779121959792631</v>
+        <v>0.4772940808017538</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>0.7547623244259472</v>
+        <v>0.911862793751712</v>
       </c>
       <c r="X46" s="2" t="n">
-        <v>0.2821210761980673</v>
+        <v>0.9186413027481362</v>
       </c>
       <c r="Y46" s="2" t="n">
-        <v>0.8167705770180773</v>
-      </c>
-      <c r="Z46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="3" t="n">
-        <v>1</v>
+        <v>0.5958684223229149</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>0.7282743267188198</v>
+      </c>
+      <c r="AA46" s="2" t="n">
+        <v>0.750086943549879</v>
+      </c>
+      <c r="AB46" s="2" t="n">
+        <v>0.7759236947905355</v>
+      </c>
+      <c r="AC46" s="2" t="n">
+        <v>0.3022765637412754</v>
+      </c>
+      <c r="AD46" s="2" t="n">
+        <v>0.7976666666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-xl</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.35092</v>
+        <v>0.40375</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.7611374407582938</v>
+        <v>0.5</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.6580363147276395</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>0.7346671149966374</v>
+        <v>0.31539</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>0.74237</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>0.881866583150642</v>
+        <v>0.5214299999999999</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>0.6363921077356717</v>
+        <v>0.6037247542497267</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0.5420886916175743</v>
+        <v>0.4076035180401736</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0.3794903151594224</v>
+        <v>0.6329940615569801</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0.1894341512230004</v>
+        <v>0.43516</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0.4171961966269651</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.3663911809146293</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>0.4102454366803547</v>
+        <v>0.2027889302653955</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>0.3796744706245461</v>
-      </c>
-      <c r="O47" s="3" t="n">
-        <v>1</v>
+        <v>0.8009478672985783</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>0.6282235512125198</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>0.5539319797366447</v>
+        <v>0.3173861927815954</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0.7713333333333332</v>
+        <v>0.6098520511096167</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>0.33781</v>
+        <v>0.6641560188298588</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>0</v>
+        <v>0.4161005491114602</v>
       </c>
       <c r="T47" s="2" t="n">
-        <v>0.60991</v>
+        <v>0.3360365488455902</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>0.7438679213720065</v>
+        <v>0.8514249921703726</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>0.7110616222714751</v>
+        <v>0.5439085499530223</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>0.7815527423484122</v>
+        <v>0.9248433060784351</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>0.2855799948642319</v>
+        <v>0.9378969696931576</v>
       </c>
       <c r="Y47" s="2" t="n">
-        <v>0.838819395056347</v>
-      </c>
-      <c r="Z47" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="3" t="n">
-        <v>1</v>
+        <v>0.6252251289274147</v>
+      </c>
+      <c r="Z47" s="2" t="n">
+        <v>0.7508041932935345</v>
+      </c>
+      <c r="AA47" s="2" t="n">
+        <v>0.7749353352876681</v>
+      </c>
+      <c r="AB47" s="2" t="n">
+        <v>0.794154396398088</v>
+      </c>
+      <c r="AC47" s="2" t="n">
+        <v>0.3159390228650623</v>
+      </c>
+      <c r="AD47" s="2" t="n">
+        <v>0.8306666666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>xlm-roberta-base</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-xxl</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.2674799999999999</v>
+        <v>0.45748</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.6063981042654027</v>
+        <v>0.5585599999999999</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.1358103564223268</v>
+        <v>0.34929</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>0.2321452589105581</v>
+        <v>0.78975</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.4383025367992484</v>
+        <v>0.56202</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.1937676166614469</v>
+        <v>0.6097713304012906</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0.5224409381186116</v>
+        <v>0.4350024233904722</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0.2037478764202963</v>
+        <v>0.6836198251579949</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>0.08678029981035876</v>
+        <v>0.4608800000000001</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0.2250003641156331</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.07006583885055262</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>0.4044298462507268</v>
+        <v>0.2140492459012981</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>0.2414271814543187</v>
-      </c>
-      <c r="O48" s="3" t="n">
-        <v>1</v>
+        <v>0.7909952606635071</v>
+      </c>
+      <c r="O48" s="2" t="n">
+        <v>0.6114553646367987</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>0.2558120580916916</v>
+        <v>0.3823921323645222</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0.4375000000000001</v>
+        <v>0.6590786819098857</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>0.00156</v>
+        <v>0.6853059852051111</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0</v>
+        <v>0.4224117195163593</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>0.00431</v>
+        <v>0.3524745757300218</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>0.4861539023272589</v>
+        <v>0.8620106482931412</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>0.5672433175176572</v>
+        <v>0.5833385530848731</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>0.4622634194376477</v>
+        <v>0.9394372210364297</v>
       </c>
       <c r="X48" s="2" t="n">
-        <v>0.2914448969497285</v>
+        <v>0.9511141986772736</v>
       </c>
       <c r="Y48" s="2" t="n">
-        <v>0.2117178555612327</v>
+        <v>0.639782556744936</v>
       </c>
       <c r="Z48" s="2" t="n">
-        <v>0.7017890974510833</v>
+        <v>0.7706782664515456</v>
       </c>
       <c r="AA48" s="2" t="n">
-        <v>0.5328738628505576</v>
+        <v>0.7680240821366182</v>
+      </c>
+      <c r="AB48" s="2" t="n">
+        <v>0.8124450977788589</v>
+      </c>
+      <c r="AC48" s="2" t="n">
+        <v>0.3039226775800043</v>
+      </c>
+      <c r="AD48" s="2" t="n">
+        <v>0.8515</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>xlm-roberta-large</t>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\shibing624\text2vec-base-multilingual</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
+        <v>0.18899</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>0.26126</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>0.14812</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>0.49694</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>0.4910742502173265</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>0.3272237759178746</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>0.5148170958763292</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>0.34254</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>0.9879638916750251</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>0.9946506185222334</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>0.1619070583380436</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>0.7383886255924171</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>0.3850723861796326</v>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v>0.3251081280317133</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>0.5193006052454606</v>
+      </c>
+      <c r="R49" s="2" t="n">
+        <v>0.5830867518493612</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>0.3619042628585186</v>
+      </c>
+      <c r="T49" s="2" t="n">
+        <v>0.303885451410444</v>
+      </c>
+      <c r="U49" s="2" t="n">
+        <v>0.7182586908863138</v>
+      </c>
+      <c r="V49" s="2" t="n">
+        <v>0.4453492013780145</v>
+      </c>
+      <c r="W49" s="2" t="n">
+        <v>0.9204078160599214</v>
+      </c>
+      <c r="X49" s="2" t="n">
+        <v>0.9395153724999291</v>
+      </c>
+      <c r="Y49" s="2" t="n">
+        <v>0.6556847028211261</v>
+      </c>
+      <c r="Z49" s="2" t="n">
+        <v>0.7724805746003676</v>
+      </c>
+      <c r="AA49" s="2" t="n">
+        <v>0.7409937723367189</v>
+      </c>
+      <c r="AB49" s="2" t="n">
+        <v>0.8347595626027418</v>
+      </c>
+      <c r="AC49" s="2" t="n">
+        <v>0.2933489058303607</v>
+      </c>
+      <c r="AD49" s="2" t="n">
+        <v>0.7028333333333333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\text-embedding-3-large</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>0.60282</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>0.73423</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>0.62957</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>0.8686700000000001</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>0.76519</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>0.6188729664384736</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>0.5383026633586214</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>0.7609503650218049</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>0.46196</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>0.2796643625096684</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>0.8218009478672986</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>0.5270799653215082</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>0.3970800658666344</v>
+      </c>
+      <c r="Q50" s="3" t="n">
+        <v>0.713315400134499</v>
+      </c>
+      <c r="R50" s="3" t="n">
+        <v>0.7646267652992602</v>
+      </c>
+      <c r="S50" s="2" t="n">
+        <v>0.4589797204034647</v>
+      </c>
+      <c r="T50" s="3" t="n">
+        <v>0.4572072923344249</v>
+      </c>
+      <c r="U50" s="3" t="n">
+        <v>0.9337300344503602</v>
+      </c>
+      <c r="V50" s="3" t="n">
+        <v>0.7367679298465393</v>
+      </c>
+      <c r="W50" s="3" t="n">
+        <v>0.956495941906191</v>
+      </c>
+      <c r="X50" s="3" t="n">
+        <v>0.9632216568565823</v>
+      </c>
+      <c r="Y50" s="2" t="n">
+        <v>0.6487004383237154</v>
+      </c>
+      <c r="Z50" s="2" t="n">
+        <v>0.7874564096121601</v>
+      </c>
+      <c r="AA50" s="2" t="n">
+        <v>0.8218742629385483</v>
+      </c>
+      <c r="AB50" s="2" t="n">
+        <v>0.825163980735896</v>
+      </c>
+      <c r="AC50" s="2" t="n">
+        <v>0.2958989154199727</v>
+      </c>
+      <c r="AD50" s="3" t="n">
+        <v>0.9094999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>0.52088</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>0.65766</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>0.41674</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>0.86816</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>0.74907</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>0.6142121566849555</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>0.5097017531638819</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>0.6998774786860906</v>
+      </c>
+      <c r="J51" s="2" t="n">
+        <v>0.4284000000000001</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0.2704358042080826</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>0.7646919431279622</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>0.4524961818598886</v>
+      </c>
+      <c r="P51" s="3" t="n">
+        <v>0.5476153105172287</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>0.6779757901815737</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>0.7329186281102892</v>
+      </c>
+      <c r="S51" s="3" t="n">
+        <v>0.4626366669004257</v>
+      </c>
+      <c r="T51" s="2" t="n">
+        <v>0.4567430092008721</v>
+      </c>
+      <c r="U51" s="2" t="n">
+        <v>0.9088318196053869</v>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>0.678640776699029</v>
+      </c>
+      <c r="W51" s="2" t="n">
+        <v>0.9444824312907959</v>
+      </c>
+      <c r="X51" s="2" t="n">
+        <v>0.952465716551754</v>
+      </c>
+      <c r="Y51" s="2" t="n">
+        <v>0.6136061823257404</v>
+      </c>
+      <c r="Z51" s="2" t="n">
+        <v>0.7569412697440474</v>
+      </c>
+      <c r="AA51" s="2" t="n">
+        <v>0.8086996866193595</v>
+      </c>
+      <c r="AB51" s="2" t="n">
+        <v>0.8113498962069088</v>
+      </c>
+      <c r="AC51" s="2" t="n">
+        <v>0.3049243366483514</v>
+      </c>
+      <c r="AD51" s="2" t="n">
+        <v>0.8961666666666668</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\text-embedding-ada-002</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>0.5164</v>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="n">
+        <v>0.2994</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>0.85969</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>0.73004</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>0.6482909467525912</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>0.5352055108193531</v>
+      </c>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="n">
+        <v>0.43764</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <v>0.9933132731527916</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>0.9946506185222334</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <v>0.2617596819504725</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>0.8151658767772512</v>
+      </c>
+      <c r="O52" s="3" t="n">
+        <v>0.6835358427222893</v>
+      </c>
+      <c r="P52" s="2" t="n">
+        <v>0.4857524685115383</v>
+      </c>
+      <c r="Q52" s="2" t="n">
+        <v>0.6542030934767989</v>
+      </c>
+      <c r="R52" s="2" t="n">
+        <v>0.7110961667787492</v>
+      </c>
+      <c r="S52" s="2" t="n">
+        <v>0.445914143327743</v>
+      </c>
+      <c r="T52" s="2" t="n">
+        <v>0.416657222225081</v>
+      </c>
+      <c r="U52" s="2" t="n">
+        <v>0.8937676166614468</v>
+      </c>
+      <c r="V52" s="2" t="n">
+        <v>0.6445349201378014</v>
+      </c>
+      <c r="W52" s="2" t="n">
+        <v>0.9412076883261254</v>
+      </c>
+      <c r="X52" s="2" t="n">
+        <v>0.9510295908785357</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>0.6016251068115703</v>
+      </c>
+      <c r="Z52" s="2" t="n">
+        <v>0.7627685738662282</v>
+      </c>
+      <c r="AA52" s="2" t="n">
+        <v>0.810931445449386</v>
+      </c>
+      <c r="AB52" s="2" t="n">
+        <v>0.775488475913985</v>
+      </c>
+      <c r="AC52" s="2" t="n">
+        <v>0.3049962446901472</v>
+      </c>
+      <c r="AD52" s="2" t="n">
+        <v>0.8986666666666667</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\voyage-2</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>0.45499</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>0.52703</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>0.15507</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>0.75831</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>0.67065</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>0.5795590984348414</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>0.4165266573039174</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>0.6353910351142916</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>0.37262</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>0.9919759277833501</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>0.9799398194583752</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>0.2484326275705308</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>0.8018957345971565</v>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v>0.4854232311151437</v>
+      </c>
+      <c r="P53" s="2" t="n">
+        <v>0.3633106838853807</v>
+      </c>
+      <c r="Q53" s="2" t="n">
+        <v>0.5369872225958305</v>
+      </c>
+      <c r="R53" s="2" t="n">
+        <v>0.6246133154001345</v>
+      </c>
+      <c r="S53" s="2" t="n">
+        <v>0.4508245196010945</v>
+      </c>
+      <c r="T53" s="2" t="n">
+        <v>0.3877264742587128</v>
+      </c>
+      <c r="U53" s="2" t="n">
+        <v>0.7978703413717507</v>
+      </c>
+      <c r="V53" s="2" t="n">
+        <v>0.4561854055746946</v>
+      </c>
+      <c r="W53" s="2" t="n">
+        <v>0.8976194426555255</v>
+      </c>
+      <c r="X53" s="2" t="n">
+        <v>0.896781936586669</v>
+      </c>
+      <c r="Y53" s="2" t="n">
+        <v>0.5895656630212746</v>
+      </c>
+      <c r="Z53" s="2" t="n">
+        <v>0.6851217063378627</v>
+      </c>
+      <c r="AA53" s="2" t="n">
+        <v>0.7050549213561673</v>
+      </c>
+      <c r="AB53" s="2" t="n">
+        <v>0.7642936190822642</v>
+      </c>
+      <c r="AC53" s="2" t="n">
+        <v>0.3087952286335955</v>
+      </c>
+      <c r="AD53" s="2" t="n">
+        <v>0.8265</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\voyage-code-2</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>0.52606</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0.68018</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>0.19047</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>0.82766</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>0.71946</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>0.6162945124485424</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>0.5067174392659987</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>0.7079122494623074</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>0.4215</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>0.9946506185222334</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>0.2744285128302836</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>0.8213270142180095</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>0.5659470191472211</v>
+      </c>
+      <c r="P54" s="2" t="n">
+        <v>0.3517814667732468</v>
+      </c>
+      <c r="Q54" s="2" t="n">
+        <v>0.630766644250168</v>
+      </c>
+      <c r="R54" s="2" t="n">
+        <v>0.7014794889038332</v>
+      </c>
+      <c r="S54" s="2" t="n">
+        <v>0.4522898818144546</v>
+      </c>
+      <c r="T54" s="2" t="n">
+        <v>0.4148135128122253</v>
+      </c>
+      <c r="U54" s="2" t="n">
+        <v>0.8767616661446915</v>
+      </c>
+      <c r="V54" s="2" t="n">
+        <v>0.5943626683369871</v>
+      </c>
+      <c r="W54" s="2" t="n">
+        <v>0.9286798412153197</v>
+      </c>
+      <c r="X54" s="2" t="n">
+        <v>0.9371986705026045</v>
+      </c>
+      <c r="Y54" s="2" t="n">
+        <v>0.608332001960638</v>
+      </c>
+      <c r="Z54" s="2" t="n">
+        <v>0.7356028375217639</v>
+      </c>
+      <c r="AA54" s="2" t="n">
+        <v>0.7999221736030022</v>
+      </c>
+      <c r="AB54" s="2" t="n">
+        <v>0.7901988871511573</v>
+      </c>
+      <c r="AC54" s="2" t="n">
+        <v>0.2833835044555462</v>
+      </c>
+      <c r="AD54" s="2" t="n">
+        <v>0.8676666666666667</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\vprelovac\universal-sentence-encoder-multilingual-3</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>0.35267</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>0.26121</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>0.69819</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>0.5689916720736953</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>0.378393691062227</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>0.5622529766312828</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <v>0.33514</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <v>0.1894729944719849</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <v>0.8206161137440759</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>0.6057161066482416</v>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v>0.4030766635566808</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>0.6119031607262946</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>0.7021856086079354</v>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>0.4389692922750733</v>
+      </c>
+      <c r="T55" s="2" t="n">
+        <v>0.3550144906912691</v>
+      </c>
+      <c r="U55" s="2" t="n">
+        <v>0.8549639837143752</v>
+      </c>
+      <c r="V55" s="2" t="n">
+        <v>0.5398371437519573</v>
+      </c>
+      <c r="W55" s="2" t="n">
+        <v>0.914642734849384</v>
+      </c>
+      <c r="X55" s="2" t="n">
+        <v>0.9276770338480919</v>
+      </c>
+      <c r="Y55" s="2" t="n">
+        <v>0.5238943982284524</v>
+      </c>
+      <c r="Z55" s="2" t="n">
+        <v>0.7137136565612174</v>
+      </c>
+      <c r="AA55" s="2" t="n">
+        <v>0.779121959792631</v>
+      </c>
+      <c r="AB55" s="2" t="n">
+        <v>0.7547623244259472</v>
+      </c>
+      <c r="AC55" s="2" t="n">
+        <v>0.2821210761980673</v>
+      </c>
+      <c r="AD55" s="2" t="n">
+        <v>0.7384999999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\vprelovac\universal-sentence-encoder-multilingual-large-3</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>0.33781</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>0.6369</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>0.65213</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>0.5420886916175743</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>0.3794903151594224</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>0.5539319797366447</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>0.35092</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>0.1894341512230004</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>0.7203791469194313</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>0.2408582264260665</v>
+      </c>
+      <c r="P56" s="2" t="n">
+        <v>0.4024379912798725</v>
+      </c>
+      <c r="Q56" s="2" t="n">
+        <v>0.6580363147276395</v>
+      </c>
+      <c r="R56" s="2" t="n">
+        <v>0.7346671149966374</v>
+      </c>
+      <c r="S56" s="2" t="n">
+        <v>0.4102454366803547</v>
+      </c>
+      <c r="T56" s="2" t="n">
+        <v>0.3796744706245461</v>
+      </c>
+      <c r="U56" s="2" t="n">
+        <v>0.881866583150642</v>
+      </c>
+      <c r="V56" s="2" t="n">
+        <v>0.6363921077356717</v>
+      </c>
+      <c r="W56" s="2" t="n">
+        <v>0.9337926495141736</v>
+      </c>
+      <c r="X56" s="2" t="n">
+        <v>0.9463878648421398</v>
+      </c>
+      <c r="Y56" s="2" t="n">
+        <v>0.5362415343852915</v>
+      </c>
+      <c r="Z56" s="2" t="n">
+        <v>0.7438679213720065</v>
+      </c>
+      <c r="AA56" s="2" t="n">
+        <v>0.7110616222714751</v>
+      </c>
+      <c r="AB56" s="2" t="n">
+        <v>0.7815527423484122</v>
+      </c>
+      <c r="AC56" s="2" t="n">
+        <v>0.2855799948642319</v>
+      </c>
+      <c r="AD56" s="2" t="n">
+        <v>0.7713333333333332</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>0.00156</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>0.00876</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>0.03332</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>0.11649</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>0.5224409381186116</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>0.2037478764202963</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>0.2558120580916916</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>0.2674799999999999</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <v>0.7017890974510833</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>0.5328738628505576</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <v>0.08678029981035876</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <v>0.6049763033175355</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <v>0.2928935602108218</v>
+      </c>
+      <c r="P57" s="2" t="n">
+        <v>0.2375634936431052</v>
+      </c>
+      <c r="Q57" s="2" t="n">
+        <v>0.1358103564223268</v>
+      </c>
+      <c r="R57" s="2" t="n">
+        <v>0.2321452589105581</v>
+      </c>
+      <c r="S57" s="2" t="n">
+        <v>0.4044298462507268</v>
+      </c>
+      <c r="T57" s="2" t="n">
+        <v>0.2414271814543187</v>
+      </c>
+      <c r="U57" s="2" t="n">
+        <v>0.4383025367992484</v>
+      </c>
+      <c r="V57" s="2" t="n">
+        <v>0.1937676166614469</v>
+      </c>
+      <c r="W57" s="2" t="n">
+        <v>0.8544669820078381</v>
+      </c>
+      <c r="X57" s="2" t="n">
+        <v>0.8624645232635788</v>
+      </c>
+      <c r="Y57" s="2" t="n">
+        <v>0.5134610960311026</v>
+      </c>
+      <c r="Z57" s="2" t="n">
+        <v>0.4861539023272589</v>
+      </c>
+      <c r="AA57" s="2" t="n">
+        <v>0.5672433175176572</v>
+      </c>
+      <c r="AB57" s="2" t="n">
+        <v>0.4622634194376477</v>
+      </c>
+      <c r="AC57" s="2" t="n">
+        <v>0.2914448969497285</v>
+      </c>
+      <c r="AD57" s="2" t="n">
+        <v>0.4375000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\xlm-roberta-large</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>0.00517</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>0.01351</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>0.06598999999999999</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>0.12702</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>0.5653605568863168</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>0.2118476703867388</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>0.2861531615674818</v>
+      </c>
+      <c r="J58" s="2" t="n">
         <v>0.26616</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>0.6575829383886257</v>
-      </c>
-      <c r="D49" s="2" t="n">
+      <c r="K58" s="2" t="n">
+        <v>0.6492966311974625</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>0.2594625928964929</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>0.05943345675729141</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>0.6575829383886255</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>0.3402405632525344</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>0.2152479457502924</v>
+      </c>
+      <c r="Q58" s="2" t="n">
         <v>0.1582044384667115</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="R58" s="2" t="n">
         <v>0.2392064559515804</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="S58" s="2" t="n">
+        <v>0.4267404394453324</v>
+      </c>
+      <c r="T58" s="2" t="n">
+        <v>0.1850128406979126</v>
+      </c>
+      <c r="U58" s="2" t="n">
         <v>0.367710616974632</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="V58" s="2" t="n">
         <v>0.1537112433448168</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0.5653605568863168</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0.2118476703867388</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>0.05943345675729141</v>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>0.2695782699802628</v>
-      </c>
-      <c r="L49" s="2" t="n">
-        <v>0.05671038621087049</v>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>0.4267404394453324</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>0.1850128406979126</v>
-      </c>
-      <c r="O49" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="2" t="n">
-        <v>0.2861531615674818</v>
-      </c>
-      <c r="Q49" s="2" t="n">
+      <c r="W58" s="2" t="n">
+        <v>0.8372982569551426</v>
+      </c>
+      <c r="X58" s="2" t="n">
+        <v>0.8393372076362939</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0.5338491922324053</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>0.5001340631306734</v>
+      </c>
+      <c r="AA58" s="2" t="n">
+        <v>0.5549160342530441</v>
+      </c>
+      <c r="AB58" s="2" t="n">
+        <v>0.4231665294262342</v>
+      </c>
+      <c r="AC58" s="2" t="n">
+        <v>0.2889430627940623</v>
+      </c>
+      <c r="AD58" s="2" t="n">
         <v>0.4940000000000001</v>
       </c>
-      <c r="R49" s="2" t="n">
-        <v>0.00517</v>
-      </c>
-      <c r="S49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2" t="n">
-        <v>0.06265999999999999</v>
-      </c>
-      <c r="U49" s="2" t="n">
-        <v>0.5001340631306734</v>
-      </c>
-      <c r="V49" s="2" t="n">
-        <v>0.5549160342530441</v>
-      </c>
-      <c r="W49" s="2" t="n">
-        <v>0.4231665294262342</v>
-      </c>
-      <c r="X49" s="2" t="n">
-        <v>0.2889430627940623</v>
-      </c>
-      <c r="Y49" s="2" t="n">
-        <v>0.1324934909347301</v>
-      </c>
-      <c r="Z49" s="2" t="n">
-        <v>0.6492966311974625</v>
-      </c>
-      <c r="AA49" s="2" t="n">
-        <v>0.2594625928964929</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="H1:N1"/>
+  <mergeCells count="9">
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/analyses_outputs/results.xlsx
+++ b/analyses_outputs/results.xlsx
@@ -67,14 +67,14 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,43 +471,63 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Retrieval</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
+          <t>STS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BitextMining</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>STS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Retrieval</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PairClassification</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Reranking</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Clustering</t>
         </is>
       </c>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Reranking</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>BitextMining</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>STS</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -518,13 +538,17 @@
       <c r="P1" s="1" t="n"/>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="n"/>
+          <t>Retrieval</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Clustering</t>
+          <t>BitextMining</t>
         </is>
       </c>
       <c r="T1" s="1" t="n"/>
@@ -536,174 +560,184 @@
       <c r="V1" s="1" t="n"/>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>Summarization</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Reranking</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>PairClassification</t>
         </is>
       </c>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>STS</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="n"/>
       <c r="AB1" s="1" t="n"/>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Summarization</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Reranking</t>
-        </is>
-      </c>
+          <t>Retrieval</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>STSBenchmarkMultilingualSTS_test</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>HALClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>DiaBlaBitextMining_test_fr-en</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>MasakhaNEWSClusteringP2P_test</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>MasakhaNEWSClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>SICKFr_test</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>MassiveScenarioClassification_test</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>MintakaRetrieval_test</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>PawsX_test</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>AmazonReviewsClassification_test</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>AlloprofReranking_test</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>AlloProfClusteringP2P_test</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>STS22_test</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>MLSUMClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>AlloProfClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>SyntecRetrieval_test</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>MLSUMClusteringP2P_test</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>FloresBitextMining_dev_fra_Latn-eng_Latn</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>FloresBitextMining_dev_eng_Latn-fra_Latn</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>MTOPIntentClassification_test</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>MTOPDomainClassification_test</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>SummEvalFr_test</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>SyntecReranking_test</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>MasakhaNEWSClassification_test</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>MassiveIntentClassification_test</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>OpusparcusPC_test.full</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>OpusparcusPC_validation.full</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>XPQARetrieval_test</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
           <t>AlloprofRetrieval_test</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>BSARDRetrieval_test</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>MintakaRetrieval_test</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SyntecRetrieval_test</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>XPQARetrieval_test</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>AlloProfClusteringP2P_test</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>AlloProfClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>AlloprofReranking_test</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>AmazonReviewsClassification_test</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>FloresBitextMining_dev_fra_Latn-eng_Latn</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>FloresBitextMining_dev_eng_Latn-fra_Latn</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>HALClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClassification_test</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClusteringP2P_test</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>MassiveIntentClassification_test</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>MassiveScenarioClassification_test</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>MLSUMClusteringP2P_test</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>MLSUMClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>MTOPDomainClassification_test</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>MTOPIntentClassification_test</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>OpusparcusPC_test.full</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>OpusparcusPC_validation.full</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>PawsX_test</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>SICKFr_test</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>STS22_test</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>STSBenchmarkMultilingualSTS_test</t>
-        </is>
-      </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>SummEvalFr_test</t>
-        </is>
-      </c>
-      <c r="AD2" s="1" t="inlineStr">
-        <is>
-          <t>SyntecReranking_test</t>
         </is>
       </c>
     </row>
@@ -717,4886 +751,5436 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\BAAI\bge-m3</t>
+          <t>BAAI/bge-m3</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.48951</v>
+        <v>0.8158927194633603</v>
       </c>
       <c r="C4" s="2" t="n">
+        <v>0.2416331806317998</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.8537830877079311</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.4506890534306004</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.4239778254058173</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.783253749595937</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.7329858776059179</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.5967939817396208</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0.44786</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0.7393313825594308</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0.5905236983747767</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0.822666177362106</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0.4359058441822957</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0.3663402207206274</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0.84505</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0.4310191921623729</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0.6236767929846538</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0.8924522392734107</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0.3109710097201092</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>0.8844444444444445</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>0.7656398104265404</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0.6744451916610625</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>0.9288541715265348</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>0.9457289365299991</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>0.70911</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>0.48978</v>
+      </c>
+      <c r="AE4" s="2" t="n">
         <v>0.6036</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0.2286</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.84505</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0.7089800000000001</v>
-      </c>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
-      <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
-      <c r="W4" s="2" t="inlineStr"/>
-      <c r="X4" s="2" t="inlineStr"/>
-      <c r="Y4" s="2" t="inlineStr"/>
-      <c r="Z4" s="2" t="inlineStr"/>
-      <c r="AA4" s="2" t="inlineStr"/>
-      <c r="AB4" s="2" t="inlineStr"/>
-      <c r="AC4" s="2" t="inlineStr"/>
-      <c r="AD4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Cohere-embed-multilingual-light-v3.0</t>
+          <t>Geotrend/bert-base-10lang-cased</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.35394</v>
+        <v>0.5224992109220082</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.51802</v>
+        <v>0.199384954892849</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.23004</v>
+        <v>0.299374159143314</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.7688199999999999</v>
+        <v>0.2423499234956803</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.45227</v>
+        <v>0.2445999599094782</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.6195997777996813</v>
+        <v>0.5876409741522338</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.3135667338652056</v>
+        <v>0.4449562878278413</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.5159850314408292</v>
+        <v>0.03554</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>1</v>
+        <v>0.5339515630722629</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0.29382</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.3179379221831011</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0.1731069266684963</v>
+        <v>0.5321615105669343</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0.8258293838862558</v>
+        <v>0.4031453580850377</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.5680686305484748</v>
+        <v>0.3186880455337019</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>0.294063089090014</v>
+        <v>0.429190297654638</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0.5631136516476126</v>
+        <v>0.18948</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.5949562878278413</v>
+        <v>0.4095727738171321</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0.4279854786876686</v>
+        <v>0.9694082246740221</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.3272447200966951</v>
+        <v>0.9762621196924105</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.8079235828374569</v>
+        <v>0.378703413717507</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>0.5000626370184779</v>
+        <v>0.6364860632633886</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9091625445064609</v>
+        <v>0.2905539823973022</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9209596025105193</v>
+        <v>0.433218253968254</v>
       </c>
       <c r="Y5" s="2" t="n">
-        <v>0.5731728148121378</v>
+        <v>0.6393364928909953</v>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>0.7550483099806141</v>
-      </c>
-      <c r="AA5" s="3" t="n">
-        <v>0.8279714502136332</v>
+        <v>0.3728312037659718</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0.867897383298739</v>
       </c>
       <c r="AB5" s="2" t="n">
-        <v>0.7648019211186484</v>
+        <v>0.8721090971840637</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>0.314006702294</v>
+        <v>0.18391</v>
       </c>
       <c r="AD5" s="2" t="n">
-        <v>0.8803333333333333</v>
+        <v>0.01604</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>0.1036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Cohere-embed-multilingual-v3.0</t>
+          <t>Geotrend/bert-base-15lang-cased</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.38361</v>
+        <v>0.5224819480869909</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.44144</v>
+        <v>0.2025950895317026</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.25437</v>
+        <v>0.2995597273787902</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.79269</v>
+        <v>0.2423499234956803</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.58873</v>
+        <v>0.2445999599094782</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.6352561566282294</v>
+        <v>0.5877261140633706</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.361759185577996</v>
+        <v>0.4446872898453262</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.5101276380430734</v>
+        <v>0.03554</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.41892</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>0.5338191982712758</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0.2935</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0.3173867246559752</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0.1990356735257148</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0.830568720379147</v>
+        <v>0.5316174444700196</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0.4039926511396135</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.5318379498672176</v>
+        <v>0.3188309116220031</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0.3230998225707994</v>
+        <v>0.4342614550943816</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.629388029589778</v>
+        <v>0.18948</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.6729320780094149</v>
+        <v>0.4121972569008033</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0.4508360325363872</v>
+        <v>0.9694082246740221</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0.347527142956374</v>
+        <v>0.9762621196924105</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.8622925148762919</v>
+        <v>0.3785468211713123</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>0.6107422486689634</v>
+        <v>0.6370184779204509</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.940778214081015</v>
+        <v>0.2913284671743393</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9503580631772154</v>
+        <v>0.433218253968254</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>0.6125533530469982</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>0.7923250123076204</v>
+        <v>0.6388625592417062</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>0.3728312037659718</v>
       </c>
       <c r="AA6" s="2" t="n">
-        <v>0.8276336405644232</v>
+        <v>0.8677678461935234</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>0.8184387078760932</v>
+        <v>0.8721085649923495</v>
       </c>
       <c r="AC6" s="2" t="n">
-        <v>0.3126400952397324</v>
+        <v>0.18349</v>
       </c>
       <c r="AD6" s="2" t="n">
-        <v>0.8571666666666666</v>
+        <v>0.0161</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>0.1036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\bert-base-10lang-cased</t>
+          <t>Geotrend/bert-base-25lang-cased</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
+        <v>0.5224992109220082</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.1977790848789767</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0.2996061329422579</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0.2423499234956803</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.2445999599094782</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.5875963417221689</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.4446872898453261</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.03554</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.5339135830001998</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0.29388</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0.3183568791057281</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0.5348707232890372</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0.387722409346517</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0.3193833137858634</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0.4310077911837933</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0.18948</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0.4072820957884197</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0.9694082246740221</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0.9762621196924105</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0.3785781396805512</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0.636266833698716</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0.2884414777790376</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0.433218253968254</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0.6390995260663508</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0.3729657027572293</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0.8679078502914821</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0.872319293517213</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0.1846</v>
+      </c>
+      <c r="AD7" s="2" t="n">
         <v>0.01604</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="AE7" s="2" t="n">
         <v>0.1036</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0.03554</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0.18948</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0.18391</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0.5321615105669343</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.429190297654638</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.3620982002721123</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.29382</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0.9694082246740221</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0.9762621196924105</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0.199384954892849</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0.6393364928909953</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0.2423499234956803</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0.2445999599094782</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0.3728312037659718</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0.4449562878278413</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>0.4095727738171321</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>0.3186880455337019</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>0.6364860632633886</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0.378703413717507</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>0.867897383298739</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>0.8721090971840637</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>0.5339515630722629</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>0.5876409741522338</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>0.4031453580850377</v>
-      </c>
-      <c r="AB7" s="2" t="n">
-        <v>0.5224992109220082</v>
-      </c>
-      <c r="AC7" s="2" t="n">
-        <v>0.2905539823973022</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <v>0.5325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\bert-base-15lang-cased</t>
+          <t>Geotrend/distilbert-base-25lang-cased</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.0161</v>
+        <v>0.5701758346273191</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.1861576116891369</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.1131336094934851</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.3238783548898045</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.18349</v>
+        <v>0.3317203899044766</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.5316174444700196</v>
+        <v>0.6164041848098294</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.4342614550943816</v>
+        <v>0.4418291862811029</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3620732261213783</v>
+        <v>0.02991</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.2935</v>
+        <v>0.5078393817652131</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.2853599999999999</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.2929426466158667</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.2025950895317026</v>
+        <v>0.5714285975098367</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0.6388625592417062</v>
+        <v>0.4135399271271215</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.3126641649690648</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.4348241240386942</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0.3728312037659718</v>
+        <v>0.17599</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.4446872898453262</v>
+        <v>0.4090788738384479</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0.4121972569008033</v>
+        <v>0.9204446673353393</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.3188309116220031</v>
+        <v>0.9066087150339909</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.6370184779204509</v>
+        <v>0.3534606952709051</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0.3785468211713123</v>
+        <v>0.6191356091450047</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.8677678461935234</v>
+        <v>0.3070335729873741</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8721085649923495</v>
+        <v>0.3942936507936509</v>
       </c>
       <c r="Y8" s="2" t="n">
-        <v>0.5338191982712758</v>
+        <v>0.6751184834123224</v>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>0.5877261140633706</v>
+        <v>0.3495292535305985</v>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.4039926511396135</v>
+        <v>0.8609728031715025</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0.5224819480869909</v>
+        <v>0.8758173702252184</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>0.2913284671743393</v>
+        <v>0.15897</v>
       </c>
       <c r="AD8" s="2" t="n">
-        <v>0.5325</v>
+        <v>0.01414</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>0.11261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\bert-base-25lang-cased</t>
+          <t>Geotrend/distilbert-base-en-fr-cased</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.01604</v>
+        <v>0.570654953893223</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.1954334300029073</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.1129692265139254</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.3378317847816555</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.1846</v>
+        <v>0.3404565705021788</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.5348707232890372</v>
+        <v>0.6165632183808489</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.4310077911837933</v>
+        <v>0.4401479488903833</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3625225169020871</v>
+        <v>0.03014</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.29388</v>
+        <v>0.5076824569885957</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.2851199999999999</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.293075699444281</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.1977790848789767</v>
+        <v>0.5665935732649282</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.6390995260663508</v>
+        <v>0.4218079567381129</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.314328804874776</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.4215320575444813</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0.3729657027572293</v>
+        <v>0.17599</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.4446872898453261</v>
+        <v>0.4071825511365696</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0.4072820957884197</v>
+        <v>0.9192744901370778</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>0.3193833137858634</v>
+        <v>0.9066087150339909</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.636266833698716</v>
+        <v>0.353585969307861</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.3785781396805512</v>
+        <v>0.6191982461634826</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.8679078502914821</v>
+        <v>0.3122667451153068</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.872319293517213</v>
+        <v>0.3942936507936509</v>
       </c>
       <c r="Y9" s="2" t="n">
-        <v>0.5339135830001998</v>
+        <v>0.6751184834123224</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>0.5875963417221689</v>
+        <v>0.3478816408876934</v>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>0.387722409346517</v>
+        <v>0.8609925738288053</v>
       </c>
       <c r="AB9" s="2" t="n">
-        <v>0.5224992109220082</v>
+        <v>0.8757734114810968</v>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>0.2884414777790376</v>
+        <v>0.1556</v>
       </c>
       <c r="AD9" s="2" t="n">
-        <v>0.5325</v>
+        <v>0.01364</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0.10811</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-25lang-cased</t>
+          <t>Geotrend/distilbert-base-en-fr-es-pt-it-cased</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.01414</v>
+        <v>0.5704733367736529</v>
       </c>
       <c r="C10" s="2" t="n">
+        <v>0.195516374988827</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0.1136640517513887</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0.3350757808521446</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.3317203899044766</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.6164042836935036</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0.441661062542031</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0.02991</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0.5076412788138646</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0.2856</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0.2933882142274384</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0.5656571585750919</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0.4159156703977949</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0.3109946916708017</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0.4348639521255671</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0.17599</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0.4091629743654286</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>0.9204446673353393</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0.9066087150339909</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0.3541497024741622</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>0.6192608831819605</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>0.3099238484208555</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>0.3942936507936509</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>0.6755924170616113</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0.3491257565568258</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>0.8608285959508718</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>0.8757472823792262</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>0.15944</v>
+      </c>
+      <c r="AD10" s="2" t="n">
+        <v>0.01406</v>
+      </c>
+      <c r="AE10" s="2" t="n">
         <v>0.11261</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0.02991</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0.17599</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0.15897</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0.5714285975098367</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0.4348241240386942</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.3200076671044939</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0.2853599999999999</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>0.9204446673353393</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>0.9066087150339909</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>0.1861576116891369</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0.6751184834123224</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>0.3238783548898045</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>0.3317203899044766</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>0.3495292535305985</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>0.4418291862811029</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>0.4090788738384479</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>0.3126641649690648</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>0.6191356091450047</v>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>0.3534606952709051</v>
-      </c>
-      <c r="W10" s="2" t="n">
-        <v>0.8609728031715025</v>
-      </c>
-      <c r="X10" s="2" t="n">
-        <v>0.8758173702252184</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>0.5078393817652131</v>
-      </c>
-      <c r="Z10" s="2" t="n">
-        <v>0.6164041848098294</v>
-      </c>
-      <c r="AA10" s="2" t="n">
-        <v>0.4135399271271215</v>
-      </c>
-      <c r="AB10" s="2" t="n">
-        <v>0.5701758346273191</v>
-      </c>
-      <c r="AC10" s="2" t="n">
-        <v>0.3070335729873741</v>
-      </c>
-      <c r="AD10" s="2" t="n">
-        <v>0.5241666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-en-fr-cased</t>
+          <t>Geotrend/distilbert-base-fr-cased</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.01364</v>
+        <v>0.5703033340036064</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.10811</v>
+        <v>0.1960397251544971</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.03014</v>
+        <v>0.05946715324206229</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.17599</v>
+        <v>0.337589716019601</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.1556</v>
+        <v>0.3460782647523849</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.5665935732649282</v>
+        <v>0.6168581678045449</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.4215320575444813</v>
+        <v>0.4378614660390047</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3209078159887816</v>
+        <v>0.03052</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.2851199999999999</v>
+        <v>0.5073485498358526</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.9192744901370778</v>
+        <v>0.2859599999999999</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.2939054280177285</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.1954334300029073</v>
+        <v>0.5728722420376016</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.6751184834123224</v>
+        <v>0.4282484915255096</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.3378317847816555</v>
+        <v>0.3141069123749394</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.3404565705021788</v>
+        <v>0.4300157593054996</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0.3478816408876934</v>
+        <v>0.17519</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.4401479488903833</v>
+        <v>0.4074944583831627</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4071825511365696</v>
+        <v>0.6332293277880038</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.314328804874776</v>
+        <v>0.6499806439094893</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.6191982461634826</v>
+        <v>0.352740369558409</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>0.353585969307861</v>
+        <v>0.6170685875352333</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.8609925738288053</v>
+        <v>0.3098048164787563</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8757734114810968</v>
+        <v>0.3929484126984127</v>
       </c>
       <c r="Y11" s="2" t="n">
-        <v>0.5076824569885957</v>
+        <v>0.6767772511848341</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>0.6165632183808489</v>
+        <v>0.3493275050437122</v>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>0.4218079567381129</v>
+        <v>0.8604661480576208</v>
       </c>
       <c r="AB11" s="2" t="n">
-        <v>0.570654953893223</v>
+        <v>0.8761939806579652</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.3122667451153068</v>
+        <v>0.15906</v>
       </c>
       <c r="AD11" s="2" t="n">
-        <v>0.5241666666666667</v>
+        <v>0.01386</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>0.11261</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-en-fr-es-pt-it-cased</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>0.01406</v>
+          <t>Lajavaness/sentence-camembert-large</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0.8613984001863513</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.11261</v>
+        <v>0.2443517236782352</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.02991</v>
+        <v>0.7007349877195761</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.17599</v>
+        <v>0.4352577047069188</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.15944</v>
+        <v>0.3670529681942382</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.5656571585750919</v>
+        <v>0.7770899952473914</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.4348639521255671</v>
+        <v>0.6981170141223941</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3206529068436572</v>
+        <v>0.22464</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.2856</v>
+        <v>0.6136877605231777</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.9204446673353393</v>
+        <v>0.38396</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.6277308388350255</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0.195516374988827</v>
+        <v>0.6237888550471491</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>0.6755924170616113</v>
+        <v>0.8171227763972017</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.3350757808521446</v>
+        <v>0.4295050938255963</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0.3317203899044766</v>
+        <v>0.3986103179536452</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0.3491257565568258</v>
+        <v>0.79127</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.441661062542031</v>
+        <v>0.429549637509742</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0.4091629743654286</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.3109946916708017</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.6192608831819605</v>
+        <v>0.6080488568744128</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0.3541497024741622</v>
+        <v>0.8650485436893204</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.8608285959508718</v>
+        <v>0.3160647188490759</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8757472823792262</v>
+        <v>0.8217738095238094</v>
       </c>
       <c r="Y12" s="2" t="n">
-        <v>0.5076412788138646</v>
+        <v>0.7409952606635072</v>
       </c>
       <c r="Z12" s="2" t="n">
-        <v>0.6164042836935036</v>
+        <v>0.6380295897780768</v>
       </c>
       <c r="AA12" s="2" t="n">
-        <v>0.4159156703977949</v>
+        <v>0.9428131982731722</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>0.5704733367736529</v>
+        <v>0.9533318136331852</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>0.3099238484208555</v>
+        <v>0.65019</v>
       </c>
       <c r="AD12" s="2" t="n">
-        <v>0.5241666666666667</v>
+        <v>0.33007</v>
+      </c>
+      <c r="AE12" s="2" t="n">
+        <v>0.56306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-fr-cased</t>
+          <t>OrdalieTech/Solon-embeddings-base-0.1</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.01386</v>
+        <v>0.7853527565797995</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.11261</v>
+        <v>0.2370252984949168</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.03052</v>
+        <v>0.8524372355009098</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.17519</v>
+        <v>0.4964694067651284</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.15906</v>
+        <v>0.3618981917730912</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.5728722420376016</v>
+        <v>0.7534687515605065</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.4300157593054996</v>
+        <v>0.6997310020174849</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.3230694491734496</v>
+        <v>0.28144</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.2859599999999999</v>
+        <v>0.5870544934940987</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.6332293277880038</v>
+        <v>0.4100799999999999</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.6499806439094893</v>
+        <v>0.7088752883376981</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0.1960397251544971</v>
+        <v>0.6137421216267173</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0.6767772511848341</v>
+        <v>0.8119061093553033</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>0.337589716019601</v>
+        <v>0.4246984637988738</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>0.3460782647523849</v>
+        <v>0.3662872206933244</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0.3493275050437122</v>
+        <v>0.80796</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.4378614660390047</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>0.4074944583831627</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>0.3141069123749394</v>
+        <v>0.4286366213915852</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.6170685875352333</v>
+        <v>0.6229877857813969</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>0.352740369558409</v>
+        <v>0.8698089570936423</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.8604661480576208</v>
+        <v>0.307197717007175</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.8761939806579652</v>
+        <v>0.8457499999999999</v>
       </c>
       <c r="Y13" s="2" t="n">
-        <v>0.5073485498358526</v>
+        <v>0.7547393364928909</v>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>0.6168581678045449</v>
+        <v>0.648285137861466</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>0.4282484915255096</v>
+        <v>0.9305839400834288</v>
       </c>
       <c r="AB13" s="2" t="n">
-        <v>0.5703033340036064</v>
+        <v>0.9422828541658839</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>0.3098048164787563</v>
+        <v>0.67599</v>
       </c>
       <c r="AD13" s="2" t="n">
-        <v>0.5191666666666668</v>
+        <v>0.41118</v>
+      </c>
+      <c r="AE13" s="2" t="n">
+        <v>0.0045</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\OrdalieTech\Solon-embeddings-base-0.1</t>
+          <t>OrdalieTech/Solon-embeddings-large-0.1</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.41118</v>
+        <v>0.799935484366653</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.54505</v>
+        <v>0.239541362584812</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.28144</v>
+        <v>0.8694952864886114</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.80796</v>
+        <v>0.4563006463136968</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.67599</v>
-      </c>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr"/>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
-      <c r="W14" s="2" t="inlineStr"/>
-      <c r="X14" s="2" t="inlineStr"/>
-      <c r="Y14" s="2" t="inlineStr"/>
-      <c r="Z14" s="2" t="inlineStr"/>
-      <c r="AA14" s="2" t="inlineStr"/>
-      <c r="AB14" s="2" t="inlineStr"/>
-      <c r="AC14" s="2" t="inlineStr"/>
-      <c r="AD14" s="2" t="inlineStr"/>
+        <v>0.3086339630962708</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0.767437746873382</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0.712878278412912</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0.30074</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0.6018934804753497</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>0.42094</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>0.7222761824335505</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0.6310932448320445</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0.8330552085410882</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>0.4327314328859869</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0.373886875609376</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>0.84605</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>0.42750019998425</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>0.6854995302223614</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>0.8925148762918884</v>
+      </c>
+      <c r="W14" s="2" t="n">
+        <v>0.2966081877466483</v>
+      </c>
+      <c r="X14" s="2" t="n">
+        <v>0.8711666666666666</v>
+      </c>
+      <c r="Y14" s="2" t="n">
+        <v>0.7609004739336493</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>0.6736381977135171</v>
+      </c>
+      <c r="AA14" s="2" t="n">
+        <v>0.9401979957812989</v>
+      </c>
+      <c r="AB14" s="2" t="n">
+        <v>0.952291317855892</v>
+      </c>
+      <c r="AC14" s="2" t="n">
+        <v>0.70221</v>
+      </c>
+      <c r="AD14" s="2" t="n">
+        <v>0.46942</v>
+      </c>
+      <c r="AE14" s="2" t="n">
+        <v>0.57658</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\OrdalieTech\Solon-embeddings-large-0.1</t>
+          <t>Wissam42/sentence-croissant-llm-base</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.46942</v>
+        <v>0.7922738680429985</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.57658</v>
+        <v>0.2340128867212198</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.30074</v>
+        <v>0.7371911997949699</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.84605</v>
+        <v>0.5394435157885373</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.70221</v>
-      </c>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr"/>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
-      <c r="W15" s="2" t="inlineStr"/>
-      <c r="X15" s="2" t="inlineStr"/>
-      <c r="Y15" s="2" t="inlineStr"/>
-      <c r="Z15" s="2" t="inlineStr"/>
-      <c r="AA15" s="2" t="inlineStr"/>
-      <c r="AB15" s="2" t="inlineStr"/>
-      <c r="AC15" s="2" t="inlineStr"/>
-      <c r="AD15" s="2" t="inlineStr"/>
+        <v>0.4105178984993857</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0.6960017257463582</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0.6528581035642234</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0.21309</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0.6313386879959426</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0.34792</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>0.5675487985583264</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0.6411669265073395</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0.7877222611897307</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>0.3391299056452157</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>0.325236731994226</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>0.74197</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>0.429413226398757</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>0.9973253092611166</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>0.6312245537112433</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>0.855214531788287</v>
+      </c>
+      <c r="W15" s="2" t="n">
+        <v>0.2904259923005852</v>
+      </c>
+      <c r="X15" s="2" t="n">
+        <v>0.779595238095238</v>
+      </c>
+      <c r="Y15" s="2" t="n">
+        <v>0.7928909952606634</v>
+      </c>
+      <c r="Z15" s="2" t="n">
+        <v>0.5940820443846672</v>
+      </c>
+      <c r="AA15" s="2" t="n">
+        <v>0.9141910841619804</v>
+      </c>
+      <c r="AB15" s="2" t="n">
+        <v>0.9261526052336004</v>
+      </c>
+      <c r="AC15" s="2" t="n">
+        <v>0.58573</v>
+      </c>
+      <c r="AD15" s="2" t="n">
+        <v>0.29969</v>
+      </c>
+      <c r="AE15" s="2" t="n">
+        <v>0.52252</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Wissam42\sentence-croissant-llm-base</t>
+          <t>bert-base-multilingual-cased</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.29969</v>
+        <v>0.5224722935490146</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.52252</v>
+        <v>0.2080755658975593</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.21309</v>
+        <v>0.2996061329422579</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.74197</v>
+        <v>0.2423499234956803</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.58573</v>
+        <v>0.2445999599094782</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.6411669265073395</v>
+        <v>0.5874812845368886</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.325236731994226</v>
+        <v>0.4446536650975118</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.5299964667919109</v>
+        <v>0.03554</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.34792</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>1</v>
+        <v>0.5339388951464616</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>0.29394</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.3178385313302001</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.2340128867212198</v>
+        <v>0.5149653756008361</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>0.7928909952606634</v>
+        <v>0.3904525758557057</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0.5394435157885373</v>
+        <v>0.3179683201467264</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0.4105178984993857</v>
+        <v>0.4305645671675891</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0.5940820443846672</v>
+        <v>0.18948</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.6528581035642234</v>
+        <v>0.4090371994645377</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0.429413226398757</v>
+        <v>0.9694082246740221</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.3391299056452157</v>
+        <v>0.9762621196924105</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.855214531788287</v>
+        <v>0.3783589101158785</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>0.6312245537112433</v>
+        <v>0.6361102411525212</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9141910841619804</v>
+        <v>0.2880779587217142</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.9261526052336004</v>
+        <v>0.4340515873015873</v>
       </c>
       <c r="Y16" s="2" t="n">
-        <v>0.6313386879959426</v>
+        <v>0.6400473933649289</v>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>0.6960017257463582</v>
+        <v>0.3729993275050437</v>
       </c>
       <c r="AA16" s="2" t="n">
-        <v>0.7877222611897307</v>
+        <v>0.8677048159592717</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0.7922738680429985</v>
+        <v>0.8722976958382189</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>0.2904259923005852</v>
+        <v>0.1849</v>
       </c>
       <c r="AD16" s="2" t="n">
-        <v>0.8290000000000001</v>
+        <v>0.01626</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>0.1036</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\bert-base-multilingual-cased</t>
+          <t>bert-base-multilingual-uncased</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.01626</v>
+        <v>0.5497353309633939</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.2089820298983429</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.3559984760058366</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.4971340561526633</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.1849</v>
+        <v>0.422255814870678</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.5149653756008361</v>
+        <v>0.5826449144443914</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.4305645671675891</v>
+        <v>0.4363147276395427</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.3623465498799006</v>
+        <v>0.02872</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.29394</v>
+        <v>0.5322360899538218</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.29024</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.3277262979995819</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.2080755658975593</v>
+        <v>0.6066148200885675</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0.6400473933649289</v>
+        <v>0.5647457412587442</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.3098774275886452</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.3505397363641355</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0.3729993275050437</v>
+        <v>0.34951</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.4446536650975118</v>
+        <v>0.4349522858689475</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>0.4090371994645377</v>
+        <v>0.9477432296890672</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0.3179683201467264</v>
+        <v>0.9799398194583752</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.6361102411525212</v>
+        <v>0.3940181647353586</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>0.3783589101158785</v>
+        <v>0.644910742248669</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.8677048159592717</v>
+        <v>0.3072334740467725</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.8722976958382189</v>
+        <v>0.5896785714285715</v>
       </c>
       <c r="Y17" s="2" t="n">
-        <v>0.5339388951464616</v>
+        <v>0.756872037914692</v>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>0.5874812845368886</v>
+        <v>0.3800605245460659</v>
       </c>
       <c r="AA17" s="2" t="n">
-        <v>0.3904525758557057</v>
+        <v>0.8743393906507683</v>
       </c>
       <c r="AB17" s="2" t="n">
-        <v>0.5224722935490146</v>
+        <v>0.8874950508866897</v>
       </c>
       <c r="AC17" s="2" t="n">
-        <v>0.2880779587217142</v>
+        <v>0.26117</v>
       </c>
       <c r="AD17" s="2" t="n">
-        <v>0.5325</v>
+        <v>0.05506</v>
+      </c>
+      <c r="AE17" s="2" t="n">
+        <v>0.16216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\bert-base-multilingual-uncased</t>
+          <t>camembert/camembert-base</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.05506</v>
+        <v>0.5486423488745364</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.16216</v>
+        <v>0.1350952753315698</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.02872</v>
+        <v>0.04331694082788507</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.34951</v>
+        <v>0.4398103174841825</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.26117</v>
+        <v>0.2665670855775651</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.6066148200885675</v>
+        <v>0.5368307592304911</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.3505397363641355</v>
+        <v>0.3948554135843981</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.3884926710455013</v>
+        <v>0.02022</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.29024</v>
+        <v>0.521089966496604</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.9477432296890672</v>
+        <v>0.29814</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.9799398194583752</v>
+        <v>0.2556621635909326</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0.2089820298983429</v>
+        <v>0.5423893147384338</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>0.756872037914692</v>
+        <v>0.6107432321823179</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0.4971340561526633</v>
+        <v>0.2663399835756784</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>0.422255814870678</v>
+        <v>0.2918804706562174</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0.3800605245460659</v>
+        <v>0.05799</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.4363147276395427</v>
+        <v>0.4060210180892428</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0.4349522858689475</v>
+        <v>0.2602264772347189</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>0.3098774275886452</v>
+        <v>0.2515262419615453</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.644910742248669</v>
+        <v>0.2861259004071406</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>0.3940181647353586</v>
+        <v>0.5839336047604134</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.8743393906507683</v>
+        <v>0.2963071602202985</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8874950508866897</v>
+        <v>0.361670634920635</v>
       </c>
       <c r="Y18" s="2" t="n">
-        <v>0.5322360899538218</v>
+        <v>0.6561611374407583</v>
       </c>
       <c r="Z18" s="2" t="n">
-        <v>0.5826449144443914</v>
+        <v>0.3095158036314727</v>
       </c>
       <c r="AA18" s="2" t="n">
-        <v>0.5647457412587442</v>
+        <v>0.8342726180422799</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>0.5497353309633939</v>
+        <v>0.8601987158204568</v>
       </c>
       <c r="AC18" s="2" t="n">
-        <v>0.3072334740467725</v>
+        <v>0.19922</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>0.664</v>
+        <v>0.00235</v>
+      </c>
+      <c r="AE18" s="2" t="n">
+        <v>0.0045</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\camembert\camembert-base</t>
+          <t>camembert/camembert-large</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.00235</v>
+        <v>0.6183576200859585</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.1838664804452286</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.02022</v>
+        <v>0.05998688454697069</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.05799</v>
+        <v>0.4213366020734207</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.19922</v>
+        <v>0.3335790002411184</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.5423893147384338</v>
+        <v>0.5880208439406661</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.2918804706562174</v>
+        <v>0.4633490248823134</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2428709072770491</v>
+        <v>0.03552</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.29814</v>
+        <v>0.5228462246810233</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.2602264772347189</v>
+        <v>0.31168</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.2515262419615453</v>
+        <v>0.3293934606539791</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.1350952753315698</v>
+        <v>0.592712061687221</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>0.6561611374407583</v>
+        <v>0.5725762796846933</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>0.4398103174841825</v>
+        <v>0.351462769915096</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>0.2665670855775651</v>
+        <v>0.3424503121580777</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0.3095158036314727</v>
+        <v>0.17539</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.3948554135843981</v>
+        <v>0.4408218038488301</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0.4060210180892428</v>
+        <v>0.4013712370627894</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0.2663399835756784</v>
+        <v>0.3161171999727407</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.5839336047604134</v>
+        <v>0.4249608518634513</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>0.2861259004071406</v>
+        <v>0.6839336047604134</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.8342726180422799</v>
+        <v>0.2797711620509544</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8601987158204568</v>
+        <v>0.3578185425685426</v>
       </c>
       <c r="Y19" s="2" t="n">
-        <v>0.521089966496604</v>
+        <v>0.7061611374407584</v>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>0.5368307592304911</v>
+        <v>0.3620376597175521</v>
       </c>
       <c r="AA19" s="2" t="n">
-        <v>0.6107432321823179</v>
+        <v>0.7663262539483096</v>
       </c>
       <c r="AB19" s="2" t="n">
-        <v>0.5486423488745364</v>
+        <v>0.797210507122408</v>
       </c>
       <c r="AC19" s="2" t="n">
-        <v>0.2963071602202985</v>
+        <v>0.20472</v>
       </c>
       <c r="AD19" s="2" t="n">
-        <v>0.4126666666666667</v>
+        <v>0.01968</v>
+      </c>
+      <c r="AE19" s="2" t="n">
+        <v>0.009010000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\camembert\camembert-large</t>
+          <t>dangvantuan/sentence-camembert-base</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.01968</v>
+        <v>0.8163901919126012</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.2021549178618914</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.03552</v>
+        <v>0.3606737729832072</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.17539</v>
+        <v>0.3603382429363983</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0.20472</v>
+        <v>0.3076503346423071</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.592712061687221</v>
+        <v>0.7417817544381963</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.3424503121580777</v>
+        <v>0.6127774041694687</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.3306899111278445</v>
+        <v>0.13357</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.31168</v>
+        <v>0.5743705197496742</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.4013712370627894</v>
+        <v>0.36026</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.3161171999727407</v>
+        <v>0.5834449233135185</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.1838664804452286</v>
+        <v>0.5909203102484407</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>0.7061611374407584</v>
+        <v>0.7753949779251178</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0.4213366020734207</v>
+        <v>0.2705338909472246</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>0.3335790002411184</v>
+        <v>0.389167691440152</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0.3620376597175521</v>
+        <v>0.68618</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.4633490248823134</v>
+        <v>0.3597635372718684</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0.4408218038488301</v>
+        <v>0.8975927783350049</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>0.351462769915096</v>
+        <v>0.9007021063189569</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.6839336047604134</v>
+        <v>0.4343877231443783</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>0.4249608518634513</v>
+        <v>0.7710303789539619</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.7663262539483096</v>
+        <v>0.2877116932900191</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.797210507122408</v>
+        <v>0.7372738095238095</v>
       </c>
       <c r="Y20" s="2" t="n">
-        <v>0.5228462246810233</v>
+        <v>0.7035545023696683</v>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>0.5880208439406661</v>
+        <v>0.5159381304640215</v>
       </c>
       <c r="AA20" s="2" t="n">
-        <v>0.5725762796846933</v>
+        <v>0.9205083560505066</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>0.6183576200859585</v>
+        <v>0.9328066173124074</v>
       </c>
       <c r="AC20" s="2" t="n">
-        <v>0.2797711620509544</v>
+        <v>0.57916</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>0.5105</v>
+        <v>0.21938</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>0.39189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\dangvantuan\sentence-camembert-base</t>
+          <t>dangvantuan/sentence-camembert-large</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.21938</v>
+        <v>0.8578534328308375</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.39189</v>
+        <v>0.2390369822485666</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.13357</v>
+        <v>0.6783115045819693</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.68618</v>
+        <v>0.5450656885773288</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.57916</v>
+        <v>0.4473220244132624</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.5909203102484407</v>
+        <v>0.7769676247221875</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.389167691440152</v>
+        <v>0.6929051782111635</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.4868090891948794</v>
+        <v>0.21871</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.36026</v>
+        <v>0.5958886792690583</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.8975927783350049</v>
+        <v>0.3797</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.9007021063189569</v>
+        <v>0.6232895404009673</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.2021549178618914</v>
+        <v>0.6268796577838202</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0.7035545023696683</v>
+        <v>0.8172944501533574</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>0.3603382429363983</v>
+        <v>0.3229405651242595</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0.3076503346423071</v>
+        <v>0.4206075946482793</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0.5159381304640215</v>
+        <v>0.8111</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.6127774041694687</v>
+        <v>0.420359585982358</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0.3597635372718684</v>
+        <v>0.9946506185222335</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.2705338909472246</v>
+        <v>0.995987963891675</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.7710303789539619</v>
+        <v>0.5861572189163796</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>0.4343877231443783</v>
+        <v>0.8573755089257752</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9205083560505066</v>
+        <v>0.3088268637624669</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.9328066173124074</v>
+        <v>0.848345238095238</v>
       </c>
       <c r="Y21" s="2" t="n">
-        <v>0.5743705197496742</v>
+        <v>0.8061611374407583</v>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>0.7417817544381963</v>
+        <v>0.6265299260255548</v>
       </c>
       <c r="AA21" s="2" t="n">
-        <v>0.7753949779251178</v>
+        <v>0.9462760751835194</v>
       </c>
       <c r="AB21" s="2" t="n">
-        <v>0.8163901919126012</v>
+        <v>0.9525375018810192</v>
       </c>
       <c r="AC21" s="2" t="n">
-        <v>0.2877116932900191</v>
+        <v>0.65623</v>
       </c>
       <c r="AD21" s="2" t="n">
-        <v>0.7975</v>
+        <v>0.31623</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>0.56757</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\dangvantuan\sentence-camembert-large</t>
+          <t>distilbert-base-uncased</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.31623</v>
+        <v>0.4602440842999612</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.56757</v>
+        <v>0.1223708659659341</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.21871</v>
+        <v>0.009654559268801278</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.8111</v>
+        <v>0.2280827796748879</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.65623</v>
+        <v>0.3072061278544836</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.6268796577838202</v>
+        <v>0.5546828187668631</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.4206075946482793</v>
+        <v>0.2808338937457969</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.5761808536150032</v>
+        <v>0.00583</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.3797</v>
+        <v>0.5193426436605626</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.9946506185222335</v>
+        <v>0.2541</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.995987963891675</v>
+        <v>0.2832650180596683</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0.2390369822485666</v>
+        <v>0.3654854742123225</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>0.8061611374407583</v>
+        <v>0.1554865823093162</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0.5450656885773288</v>
+        <v>0.243012339178737</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>0.4473220244132624</v>
+        <v>0.2581130737375776</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0.6265299260255548</v>
+        <v>0.08987000000000001</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.6929051782111635</v>
+        <v>0.3194912583149639</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0.420359585982358</v>
+        <v>0.04620745118237596</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>0.3229405651242595</v>
+        <v>0.06596709425391827</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.8573755089257752</v>
+        <v>0.2053867835891012</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>0.5861572189163796</v>
+        <v>0.4403695584090198</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9462760751835194</v>
+        <v>0.3109262244283785</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.9525375018810192</v>
+        <v>0.3513737373737374</v>
       </c>
       <c r="Y22" s="2" t="n">
-        <v>0.5958886792690583</v>
+        <v>0.5507109004739337</v>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>0.7769676247221875</v>
+        <v>0.2076664425016812</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>0.8172944501533574</v>
-      </c>
-      <c r="AB22" s="3" t="n">
-        <v>0.8578534328308375</v>
+        <v>0.8407210207396341</v>
+      </c>
+      <c r="AB22" s="2" t="n">
+        <v>0.85575055590875</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0.3088268637624669</v>
+        <v>0.17744</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>0.8815000000000001</v>
+        <v>0.0045</v>
+      </c>
+      <c r="AE22" s="2" t="n">
+        <v>0.01802</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\distilbert-base-uncased</t>
+          <t>embed-multilingual-light-v3.0</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.7648019211186484</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.01802</v>
+        <v>0.1731069266684963</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.00583</v>
+        <v>0.6631613175502583</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.08987000000000001</v>
+        <v>0.5680686305484748</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.17744</v>
+        <v>0.294063089090014</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.3654854742123225</v>
+        <v>0.7550483099806141</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.2581130737375776</v>
+        <v>0.5949562878278413</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2395511773805056</v>
+        <v>0.23004</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.2541</v>
+        <v>0.5731728148121378</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.04620745118237596</v>
+        <v>0.386</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.06596709425391827</v>
+        <v>0.7022205799056065</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0.1223708659659341</v>
+        <v>0.6195997777996813</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>0.5507109004739337</v>
+        <v>0.8279714502136332</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>0.2280827796748879</v>
+        <v>0.3272447200966951</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>0.3072061278544836</v>
+        <v>0.3135667338652056</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0.2076664425016812</v>
+        <v>0.7688199999999999</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.2808338937457969</v>
-      </c>
-      <c r="S23" s="2" t="n">
-        <v>0.3194912583149639</v>
+        <v>0.4279854786876686</v>
+      </c>
+      <c r="S23" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>0.243012339178737</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.4403695584090198</v>
+        <v>0.5000626370184779</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>0.2053867835891012</v>
+        <v>0.8079235828374569</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.8407210207396341</v>
+        <v>0.314006702294</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.85575055590875</v>
+        <v>0.8196666666666665</v>
       </c>
       <c r="Y23" s="2" t="n">
-        <v>0.5193426436605626</v>
+        <v>0.8258293838862558</v>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>0.5546828187668631</v>
+        <v>0.5631136516476126</v>
       </c>
       <c r="AA23" s="2" t="n">
-        <v>0.1554865823093162</v>
+        <v>0.9091625445064609</v>
       </c>
       <c r="AB23" s="2" t="n">
-        <v>0.4602440842999612</v>
+        <v>0.9209596025105193</v>
       </c>
       <c r="AC23" s="2" t="n">
-        <v>0.3109262244283785</v>
+        <v>0.45227</v>
       </c>
       <c r="AD23" s="2" t="n">
-        <v>0.4636666666666666</v>
+        <v>0.35394</v>
+      </c>
+      <c r="AE23" s="2" t="n">
+        <v>0.51802</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\flaubert\flaubert_base_cased</t>
+          <t>embed-multilingual-v3.0</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.01628</v>
+        <v>0.8184387078760932</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.02252</v>
+        <v>0.1990356735257148</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.00579</v>
+        <v>0.8308540836724554</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.20562</v>
+        <v>0.5318379498672176</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.06587999999999999</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0.5285934835529511</v>
+        <v>0.3230998225707994</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0.7923250123076204</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.1445975007371924</v>
+        <v>0.6729320780094149</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.3481294672682068</v>
+        <v>0.25437</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.24904</v>
+        <v>0.6125533530469982</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.3091099858805599</v>
+        <v>0.41892</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.3585084545943069</v>
+        <v>0.7366250957261234</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.03854581426819014</v>
+        <v>0.6352561566282294</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0.7113744075829384</v>
+        <v>0.8276336405644232</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0.4161016174685461</v>
+        <v>0.347527142956374</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>0.2126096885689954</v>
+        <v>0.361759185577996</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0.06980497646267654</v>
+        <v>0.79269</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.1140551445864156</v>
-      </c>
-      <c r="S24" s="2" t="n">
-        <v>0.3905601625969005</v>
-      </c>
-      <c r="T24" s="2" t="n">
-        <v>0.171305846850958</v>
+        <v>0.4508360325363872</v>
+      </c>
+      <c r="S24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.2554963983714375</v>
+        <v>0.6107422486689634</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>0.09492640150328843</v>
+        <v>0.8622925148762919</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.8214541028748449</v>
+        <v>0.3126400952397324</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8372010738024828</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>0.5189063823329726</v>
+        <v>0.8365833333333333</v>
+      </c>
+      <c r="Y24" s="3" t="n">
+        <v>0.830568720379147</v>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>0.5386168675726091</v>
+        <v>0.629388029589778</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>0.6536672090843911</v>
+        <v>0.940778214081015</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0.3713955104980419</v>
+        <v>0.9503580631772154</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0.312594655829165</v>
+        <v>0.58873</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>0.5588333333333334</v>
+        <v>0.38361</v>
+      </c>
+      <c r="AE24" s="2" t="n">
+        <v>0.44144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\flaubert\flaubert_base_uncased</t>
+          <t>flaubert/flaubert_base_cased</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.01719</v>
+        <v>0.3713955104980419</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.02703</v>
+        <v>0.03854581426819014</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.00508</v>
+        <v>0.01979442433142667</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.22333</v>
+        <v>0.4161016174685461</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.2126096885689954</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.4320222924608445</v>
+        <v>0.5386168675726091</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.1293857445009916</v>
+        <v>0.1140551445864156</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.3455157833857672</v>
+        <v>0.00579</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.23518</v>
+        <v>0.5189063823329726</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.2537073113561774</v>
+        <v>0.24904</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.08098894058162567</v>
+        <v>0.2920875344017915</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0.01795603069453415</v>
+        <v>0.5285934835529511</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>0.6260663507109006</v>
+        <v>0.6536672090843911</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>0.2849343428327477</v>
+        <v>0.171305846850958</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>0.2257882491180909</v>
+        <v>0.1445975007371924</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0.06237390719569604</v>
+        <v>0.20562</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.1098184263618023</v>
+        <v>0.3905601625969005</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0.3322371189429822</v>
+        <v>0.3091099858805599</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>0.1489756017869693</v>
+        <v>0.3585084545943069</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.2774193548387097</v>
+        <v>0.09492640150328843</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>0.08609458189790167</v>
+        <v>0.2554963983714375</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.8199594649342907</v>
+        <v>0.312594655829165</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.8371300542205431</v>
+        <v>0.427472582972583</v>
       </c>
       <c r="Y25" s="2" t="n">
-        <v>0.5277777608306072</v>
+        <v>0.7113744075829384</v>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>0.4190237966349758</v>
+        <v>0.06980497646267654</v>
       </c>
       <c r="AA25" s="2" t="n">
-        <v>0.5515047105823337</v>
+        <v>0.8214541028748449</v>
       </c>
       <c r="AB25" s="2" t="n">
-        <v>0.3340826064580523</v>
+        <v>0.8372010738024828</v>
       </c>
       <c r="AC25" s="2" t="n">
-        <v>0.2942790176376187</v>
+        <v>0.06587999999999999</v>
       </c>
       <c r="AD25" s="2" t="n">
-        <v>0.5718333333333334</v>
+        <v>0.01628</v>
+      </c>
+      <c r="AE25" s="2" t="n">
+        <v>0.02252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\flaubert\flaubert_large_cased</t>
+          <t>flaubert/flaubert_base_uncased</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.0058</v>
+        <v>0.3340826064580523</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0</v>
+        <v>0.01795603069453415</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.00263</v>
+        <v>0.02985745352493187</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.01578</v>
+        <v>0.2849343428327477</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.03694</v>
+        <v>0.2257882491180909</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.4085073955515567</v>
+        <v>0.4190237966349758</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.217556103036172</v>
+        <v>0.1098184263618023</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2628634383924476</v>
+        <v>0.00508</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.22446</v>
+        <v>0.5277777608306072</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.1491870638833542</v>
+        <v>0.23518</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.1739429979680737</v>
+        <v>0.2990165728874674</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0.05262528089639844</v>
+        <v>0.4320222924608445</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0.5563981042654029</v>
+        <v>0.5515047105823337</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0.2642955329593683</v>
+        <v>0.1489756017869693</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>0.2467651379532248</v>
+        <v>0.1293857445009916</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0.1641223940820444</v>
+        <v>0.22333</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.2271687962340282</v>
+        <v>0.3322371189429822</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0.3809040459534752</v>
+        <v>0.2537073113561774</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>0.1871270130969609</v>
+        <v>0.08098894058162567</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.2426558095834638</v>
+        <v>0.08609458189790167</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>0.09790165988098966</v>
+        <v>0.2774193548387097</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.7477882434061929</v>
+        <v>0.2942790176376187</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.7644139372682293</v>
+        <v>0.4900678210678211</v>
       </c>
       <c r="Y26" s="2" t="n">
-        <v>0.5413772297820212</v>
+        <v>0.6260663507109006</v>
       </c>
       <c r="Z26" s="2" t="n">
-        <v>0.3460428228637162</v>
+        <v>0.06237390719569604</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>0.4852164892537546</v>
+        <v>0.8199594649342907</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>0.1565944995632818</v>
+        <v>0.8371300542205431</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0.2924968054601468</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>0.428</v>
+        <v>0.01719</v>
+      </c>
+      <c r="AE26" s="2" t="n">
+        <v>0.02703</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\e5-mistral-7b-instruct</t>
+          <t>flaubert/flaubert_large_cased</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.16464</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr"/>
+        <v>0.1565944995632818</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0.05262528089639844</v>
+      </c>
       <c r="D27" s="2" t="n">
-        <v>0.03572</v>
+        <v>0.009125460760132157</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.55901</v>
+        <v>0.2642955329593683</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0.41288</v>
+        <v>0.2467651379532248</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>0.6106009333650795</v>
+        <v>0.3460428228637162</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.2812144287516594</v>
+        <v>0.2271687962340282</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.4736204616404567</v>
+        <v>0.00263</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.3670600000000001</v>
+        <v>0.5413772297820212</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.4810461602296786</v>
+        <v>0.22446</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.6295424735745699</v>
+        <v>0.293477014607151</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0.1969463250152054</v>
+        <v>0.4085073955515567</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>0.8059241706161137</v>
+        <v>0.4852164892537546</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>0.5246796947226955</v>
+        <v>0.1871270130969609</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>0.4920055056152256</v>
+        <v>0.217556103036172</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0.4638533960995293</v>
+        <v>0.01578</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.5385675857431069</v>
+        <v>0.3809040459534752</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0.4559377361216638</v>
+        <v>0.1491870638833542</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>0.3200009173890195</v>
+        <v>0.1739429979680737</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.7479799561540871</v>
+        <v>0.09790165988098966</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>0.5397118697150015</v>
+        <v>0.2426558095834638</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.8849687629254399</v>
+        <v>0.2924968054601468</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.9018852564940179</v>
+        <v>0.3206645021645022</v>
       </c>
       <c r="Y27" s="2" t="n">
-        <v>0.6365112459841364</v>
+        <v>0.5563981042654029</v>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>0.6439158828177767</v>
+        <v>0.1641223940820444</v>
       </c>
       <c r="AA27" s="2" t="n">
-        <v>0.6981584012442746</v>
+        <v>0.7477882434061929</v>
       </c>
       <c r="AB27" s="2" t="n">
-        <v>0.6187038869282395</v>
-      </c>
-      <c r="AC27" s="3" t="n">
-        <v>0.3221574896003379</v>
+        <v>0.7644139372682293</v>
+      </c>
+      <c r="AC27" s="2" t="n">
+        <v>0.03694</v>
       </c>
       <c r="AD27" s="2" t="n">
-        <v>0.7705</v>
+        <v>0.0058</v>
+      </c>
+      <c r="AE27" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\multilingual-e5-base</t>
+          <t>intfloat/e5-mistral-7b-instruct</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.36213</v>
+        <v>0.8258035914230101</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.5315299999999999</v>
+        <v>0.2703784312414779</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.23459</v>
+        <v>0.8537682572781737</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.8048999999999999</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>0.65813</v>
+        <v>0.3774396036145243</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0.6506715922995265</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.6208902532272975</v>
+        <v>0.7914808164798864</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.3298420160973169</v>
+        <v>0.6982515131136517</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.5810060561836056</v>
+        <v>0.48849</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.40944</v>
-      </c>
-      <c r="K28" s="3" t="n">
+        <v>0.6008082215984939</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>0.44124</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>0.7435294651132076</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0.6372358432087271</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0.756267198771491</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>0.4441451479416692</v>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>0.5813416598329056</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>0.83433</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0.4532798369950647</v>
+      </c>
+      <c r="S28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L28" s="2" t="n">
-        <v>0.9986626546305583</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>0.224815183324348</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>0.7969194312796208</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>0.4790955603113446</v>
-      </c>
-      <c r="P28" s="2" t="n">
-        <v>0.511613591091413</v>
-      </c>
-      <c r="Q28" s="2" t="n">
-        <v>0.6083389374579691</v>
-      </c>
-      <c r="R28" s="2" t="n">
-        <v>0.6648621385339609</v>
-      </c>
-      <c r="S28" s="2" t="n">
-        <v>0.4347744902667021</v>
-      </c>
-      <c r="T28" s="2" t="n">
-        <v>0.3852856167447359</v>
+      <c r="T28" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.8478546821171312</v>
+        <v>0.5298465393047291</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>0.5550892577513311</v>
+        <v>0.8202630754776072</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9271872509880947</v>
+        <v>0.3120032624874787</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.9388089167367641</v>
+        <v>0.9000952380952382</v>
       </c>
       <c r="Y28" s="2" t="n">
-        <v>0.5693001208081843</v>
+        <v>0.7495260663507108</v>
       </c>
       <c r="Z28" s="2" t="n">
-        <v>0.7622741775011176</v>
+        <v>0.59862138533961</v>
       </c>
       <c r="AA28" s="2" t="n">
-        <v>0.7812983399916396</v>
+        <v>0.9199728356434089</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>0.8061987894341297</v>
+        <v>0.9395017624590254</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0.3076006060850825</v>
+        <v>0.63403</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>0.8543333333333334</v>
+        <v>0.45024</v>
+      </c>
+      <c r="AE28" s="2" t="n">
+        <v>0.64414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\multilingual-e5-large</t>
+          <t>intfloat/multilingual-e5-base</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.38155</v>
+        <v>0.8061987894341297</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.59459</v>
+        <v>0.224815183324348</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.25198</v>
+        <v>0.8469805121423075</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.81073</v>
+        <v>0.4790955603113446</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0.66152</v>
+        <v>0.511613591091413</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.6299441060729347</v>
+        <v>0.7622741775011176</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.3226490465285985</v>
+        <v>0.6648621385339609</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.5736952514221313</v>
+        <v>0.23459</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.41906</v>
-      </c>
-      <c r="K29" s="3" t="n">
+        <v>0.5693001208081843</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>0.40944</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>0.666692811769824</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>0.6208902532272975</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>0.7812983399916396</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0.3852856167447359</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>0.3298420160973169</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>0.8048999999999999</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>0.4347744902667021</v>
+      </c>
+      <c r="S29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>0.224385340783431</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>0.7938388625592416</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>0.4094051717864892</v>
-      </c>
-      <c r="P29" s="2" t="n">
-        <v>0.3056417709980992</v>
-      </c>
-      <c r="Q29" s="2" t="n">
-        <v>0.6354741089441829</v>
-      </c>
-      <c r="R29" s="2" t="n">
-        <v>0.6814727639542704</v>
-      </c>
-      <c r="S29" s="2" t="n">
-        <v>0.4403584780733176</v>
-      </c>
       <c r="T29" s="2" t="n">
-        <v>0.3764790754795183</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.8640776699029127</v>
+        <v>0.5550892577513311</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>0.5943000313185093</v>
+        <v>0.8478546821171312</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.938913502641856</v>
+        <v>0.3076006060850825</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.9484999717971343</v>
+        <v>0.8293333333333333</v>
       </c>
       <c r="Y29" s="2" t="n">
-        <v>0.5850354286368129</v>
+        <v>0.7969194312796208</v>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>0.7877953920342992</v>
+        <v>0.6083389374579691</v>
       </c>
       <c r="AA29" s="2" t="n">
-        <v>0.7959570636221113</v>
+        <v>0.9271872509880947</v>
       </c>
       <c r="AB29" s="2" t="n">
-        <v>0.825331305991469</v>
+        <v>0.9388089167367641</v>
       </c>
       <c r="AC29" s="2" t="n">
-        <v>0.3091960914950717</v>
+        <v>0.65813</v>
       </c>
       <c r="AD29" s="2" t="n">
-        <v>0.8689999999999999</v>
+        <v>0.36213</v>
+      </c>
+      <c r="AE29" s="2" t="n">
+        <v>0.5315299999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\multilingual-e5-small</t>
+          <t>intfloat/multilingual-e5-large</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.27011</v>
+        <v>0.825331305991469</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.51802</v>
+        <v>0.224385340783431</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.22532</v>
+        <v>0.848343389001009</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.75757</v>
+        <v>0.4094051717864892</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0.57468</v>
+        <v>0.3056417709980992</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.6088563017856842</v>
+        <v>0.7877953920342992</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.3252159090813198</v>
+        <v>0.6814727639542704</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.5616883460889035</v>
+        <v>0.25198</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.39678</v>
-      </c>
-      <c r="K30" s="3" t="n">
+        <v>0.5850354286368129</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>0.41906</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>0.6938624729293177</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>0.6299441060729347</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>0.7959570636221113</v>
+      </c>
+      <c r="O30" s="2" t="n">
+        <v>0.3764790754795183</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v>0.3226490465285985</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>0.81073</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>0.4403584780733176</v>
+      </c>
+      <c r="S30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L30" s="3" t="n">
+      <c r="T30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M30" s="2" t="n">
-        <v>0.1895146766129994</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>0.7765402843601896</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>0.4012052586909949</v>
-      </c>
-      <c r="P30" s="2" t="n">
-        <v>0.3922138626257822</v>
-      </c>
-      <c r="Q30" s="2" t="n">
-        <v>0.5596839273705447</v>
-      </c>
-      <c r="R30" s="2" t="n">
-        <v>0.6141896435776732</v>
-      </c>
-      <c r="S30" s="2" t="n">
-        <v>0.4319898481643542</v>
-      </c>
-      <c r="T30" s="2" t="n">
-        <v>0.3760912295232594</v>
-      </c>
       <c r="U30" s="2" t="n">
-        <v>0.8119636705292829</v>
+        <v>0.5943000313185093</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>0.4600689007203257</v>
+        <v>0.8640776699029127</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9251631850374396</v>
+        <v>0.3091960914950717</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.9361314066710414</v>
+        <v>0.8286666666666666</v>
       </c>
       <c r="Y30" s="2" t="n">
-        <v>0.5567655997101544</v>
+        <v>0.7938388625592416</v>
       </c>
       <c r="Z30" s="2" t="n">
-        <v>0.7561918985563969</v>
+        <v>0.6354741089441829</v>
       </c>
       <c r="AA30" s="2" t="n">
-        <v>0.7961730402830817</v>
+        <v>0.938913502641856</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>0.7932089325677624</v>
+        <v>0.9484999717971343</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0.3184904693517336</v>
+        <v>0.66152</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>0.8669999999999999</v>
+        <v>0.38155</v>
+      </c>
+      <c r="AE30" s="2" t="n">
+        <v>0.59459</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\izhx\udever-bloom-1b1</t>
+          <t>intfloat/multilingual-e5-small</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.12368</v>
+        <v>0.7932089325677624</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.32432</v>
+        <v>0.1895146766129994</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.02784</v>
+        <v>0.8191820946779194</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.40572</v>
+        <v>0.4012052586909949</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>0.33816</v>
+        <v>0.3922138626257822</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.6222399442609416</v>
+        <v>0.7561918985563969</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.2705660566063521</v>
+        <v>0.6141896435776732</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.391305123990374</v>
+        <v>0.22532</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.35122</v>
+        <v>0.5567655997101544</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.7507920742612434</v>
+        <v>0.39678</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.7753324186122581</v>
+        <v>0.6527671789828227</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0.1386308009277809</v>
+        <v>0.6088563017856842</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>0.8082938388625592</v>
+        <v>0.7961730402830817</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>0.4020146637093098</v>
+        <v>0.3760912295232594</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>0.2734727715023461</v>
+        <v>0.3252159090813198</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0.4321116341627437</v>
+        <v>0.75757</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.4978143913920645</v>
-      </c>
-      <c r="S31" s="2" t="n">
-        <v>0.4411463190530258</v>
-      </c>
-      <c r="T31" s="2" t="n">
-        <v>0.3046596247823246</v>
+        <v>0.4319898481643542</v>
+      </c>
+      <c r="S31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.6924209207641716</v>
+        <v>0.4600689007203257</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>0.5124960851863452</v>
-      </c>
-      <c r="W31" s="2" t="n">
-        <v>0.8553994259572022</v>
+        <v>0.8119636705292829</v>
+      </c>
+      <c r="W31" s="3" t="n">
+        <v>0.3184904693517336</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.8699512931793678</v>
+        <v>0.8181666666666665</v>
       </c>
       <c r="Y31" s="2" t="n">
-        <v>0.6199445797185625</v>
+        <v>0.7765402843601896</v>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>0.5994249043712252</v>
+        <v>0.5596839273705447</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>0.7710422175271007</v>
+        <v>0.9251631850374396</v>
       </c>
       <c r="AB31" s="2" t="n">
-        <v>0.4997294509449677</v>
+        <v>0.9361314066710414</v>
       </c>
       <c r="AC31" s="2" t="n">
-        <v>0.2947773908643301</v>
+        <v>0.57468</v>
       </c>
       <c r="AD31" s="2" t="n">
-        <v>0.6258333333333334</v>
+        <v>0.27011</v>
+      </c>
+      <c r="AE31" s="2" t="n">
+        <v>0.51802</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\izhx\udever-bloom-560m</t>
+          <t>izhx/udever-bloom-1b1</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.01977</v>
+        <v>0.4997294509449677</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.06306</v>
+        <v>0.1386308009277809</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.00478</v>
+        <v>0.02960398393820522</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.24447</v>
+        <v>0.4020146637093098</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0.12977</v>
+        <v>0.2734727715023461</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>0.5356669323782933</v>
+        <v>0.5994249043712252</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.2213080649584274</v>
+        <v>0.4978143913920645</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2874535569238364</v>
+        <v>0.02784</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.2685</v>
+        <v>0.6199445797185625</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.4982878074063394</v>
+        <v>0.35122</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.3735697737011764</v>
+        <v>0.3861486557235695</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.07676232398725595</v>
+        <v>0.6222399442609416</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0.6793838862559242</v>
+        <v>0.7710422175271007</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0.3756989794785178</v>
+        <v>0.3046596247823246</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>0.2057636370254607</v>
+        <v>0.2705660566063521</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0.1509078681909886</v>
+        <v>0.40572</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.2167451244115669</v>
+        <v>0.4411463190530258</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0.3643378561194323</v>
+        <v>0.7507920742612434</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>0.252602955617548</v>
+        <v>0.7753324186122581</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.3498590667084247</v>
+        <v>0.5124960851863452</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>0.1575634199812089</v>
+        <v>0.6924209207641716</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.821028497835868</v>
+        <v>0.2947773908643301</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.8387532049805303</v>
+        <v>0.4799292929292929</v>
       </c>
       <c r="Y32" s="2" t="n">
-        <v>0.5968876661366747</v>
+        <v>0.8082938388625592</v>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>0.5454151151439361</v>
+        <v>0.4321116341627437</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>0.6134778039151253</v>
+        <v>0.8553994259572022</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>0.367797062871304</v>
+        <v>0.8699512931793678</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0.236335996838468</v>
+        <v>0.33816</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>0.5088333333333334</v>
+        <v>0.12368</v>
+      </c>
+      <c r="AE32" s="2" t="n">
+        <v>0.32432</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\laser2</t>
+          <t>izhx/udever-bloom-560m</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.03097</v>
+        <v>0.367797062871304</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.08108</v>
+        <v>0.07676232398725595</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.06314</v>
+        <v>0.08123300931367383</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.28578</v>
+        <v>0.3756989794785178</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0.42589</v>
+        <v>0.2057636370254607</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0.4844987065316271</v>
+        <v>0.5454151151439361</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.2581005978931367</v>
+        <v>0.2167451244115669</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.3529297636080134</v>
+        <v>0.00478</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.3389</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3" t="n">
-        <v>1</v>
+        <v>0.5968876661366747</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>0.2685</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>0.3071196838846439</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.1152462522943653</v>
+        <v>0.5356669323782933</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>0.659004739336493</v>
+        <v>0.6134778039151253</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0.3204069399698778</v>
+        <v>0.252602955617548</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>0.2977201517756452</v>
+        <v>0.2213080649584274</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0.5255548083389374</v>
+        <v>0.24447</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.5855749831876261</v>
+        <v>0.3643378561194323</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0.3452771955734939</v>
+        <v>0.4982878074063394</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>0.2734632035175874</v>
+        <v>0.3735697737011764</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.7615408706545569</v>
+        <v>0.1575634199812089</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>0.5677106169746321</v>
+        <v>0.3498590667084247</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9376676402095003</v>
+        <v>0.236335996838468</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.9461924042044693</v>
-      </c>
-      <c r="Y33" s="3" t="n">
-        <v>0.6952503411108341</v>
+        <v>0.4720992063492064</v>
+      </c>
+      <c r="Y33" s="2" t="n">
+        <v>0.6793838862559242</v>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>0.6495173425879137</v>
+        <v>0.1509078681909886</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>0.6526537801367611</v>
+        <v>0.821028497835868</v>
       </c>
       <c r="AB33" s="2" t="n">
-        <v>0.698190921587828</v>
+        <v>0.8387532049805303</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>0.3156475744412745</v>
+        <v>0.12977</v>
       </c>
       <c r="AD33" s="2" t="n">
-        <v>0.5593333333333333</v>
+        <v>0.01977</v>
+      </c>
+      <c r="AE33" s="2" t="n">
+        <v>0.06306</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\manu\bge-m3-custom-fr</t>
+          <t>laser2</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.44736</v>
+        <v>0.698190921587828</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.5315299999999999</v>
+        <v>0.1152462522943653</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.25173</v>
+        <v>0.8592414264387124</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.79145</v>
+        <v>0.3204069399698778</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.68492</v>
-      </c>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr"/>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr"/>
-      <c r="X34" s="2" t="inlineStr"/>
-      <c r="Y34" s="2" t="inlineStr"/>
-      <c r="Z34" s="2" t="inlineStr"/>
-      <c r="AA34" s="2" t="inlineStr"/>
-      <c r="AB34" s="2" t="inlineStr"/>
-      <c r="AC34" s="2" t="inlineStr"/>
-      <c r="AD34" s="2" t="inlineStr"/>
+        <v>0.2977201517756452</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>0.6495173425879137</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>0.5855749831876261</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0.06314</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>0.6952503411108341</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>0.3389</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>0.3949722119087398</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>0.4844987065316271</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>0.6526537801367611</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>0.2734632035175874</v>
+      </c>
+      <c r="P34" s="2" t="n">
+        <v>0.2581005978931367</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>0.28578</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>0.3452771955734939</v>
+      </c>
+      <c r="S34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <v>0.5677106169746321</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>0.7615408706545569</v>
+      </c>
+      <c r="W34" s="2" t="n">
+        <v>0.3156475744412745</v>
+      </c>
+      <c r="X34" s="2" t="n">
+        <v>0.4901031746031747</v>
+      </c>
+      <c r="Y34" s="2" t="n">
+        <v>0.659004739336493</v>
+      </c>
+      <c r="Z34" s="2" t="n">
+        <v>0.5255548083389374</v>
+      </c>
+      <c r="AA34" s="2" t="n">
+        <v>0.9376676402095003</v>
+      </c>
+      <c r="AB34" s="2" t="n">
+        <v>0.9461924042044693</v>
+      </c>
+      <c r="AC34" s="2" t="n">
+        <v>0.42589</v>
+      </c>
+      <c r="AD34" s="2" t="n">
+        <v>0.03097</v>
+      </c>
+      <c r="AE34" s="2" t="n">
+        <v>0.08108</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\manu\sentence_croissant_alpha_v0.2</t>
+          <t>manu/bge-m3-custom-fr</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.45487</v>
+        <v>0.8130363449669112</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.60811</v>
+        <v>0.2426017909651959</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.26351</v>
+        <v>0.8278011992260426</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.79169</v>
+        <v>0.292272082926912</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>0.61948</v>
-      </c>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr"/>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
-      <c r="W35" s="2" t="inlineStr"/>
-      <c r="X35" s="2" t="inlineStr"/>
-      <c r="Y35" s="2" t="inlineStr"/>
-      <c r="Z35" s="2" t="inlineStr"/>
-      <c r="AA35" s="2" t="inlineStr"/>
-      <c r="AB35" s="2" t="inlineStr"/>
-      <c r="AC35" s="2" t="inlineStr"/>
-      <c r="AD35" s="2" t="inlineStr"/>
+        <v>0.4157909770352988</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>0.7550779819674533</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>0.7456960322797579</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0.25173</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>0.6094421871363481</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>0.42324</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>0.7368891701668482</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>0.5757878622622551</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>0.8190001119887127</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>0.4243781497829743</v>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v>0.3944229454079622</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>0.79145</v>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>0.4214163246845126</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="T35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>0.6082054494206075</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>0.903883495145631</v>
+      </c>
+      <c r="W35" s="2" t="n">
+        <v>0.3005908023438207</v>
+      </c>
+      <c r="X35" s="2" t="n">
+        <v>0.845873015873016</v>
+      </c>
+      <c r="Y35" s="2" t="n">
+        <v>0.7023696682464454</v>
+      </c>
+      <c r="Z35" s="2" t="n">
+        <v>0.6669468728984532</v>
+      </c>
+      <c r="AA35" s="2" t="n">
+        <v>0.9333973385767004</v>
+      </c>
+      <c r="AB35" s="2" t="n">
+        <v>0.944701727209905</v>
+      </c>
+      <c r="AC35" s="2" t="n">
+        <v>0.68492</v>
+      </c>
+      <c r="AD35" s="2" t="n">
+        <v>0.44746</v>
+      </c>
+      <c r="AE35" s="2" t="n">
+        <v>0.5315299999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\manu\sentence_croissant_alpha_v0.3</t>
+          <t>manu/sentence_croissant_alpha_v0.2</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.49097</v>
+        <v>0.7262832939213406</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.65766</v>
+        <v>0.2548325975781052</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2966</v>
+        <v>0.7490244473049233</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.8097299999999999</v>
+        <v>0.5574960450682011</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>0.6420400000000001</v>
-      </c>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
-      <c r="W36" s="2" t="inlineStr"/>
-      <c r="X36" s="2" t="inlineStr"/>
-      <c r="Y36" s="2" t="inlineStr"/>
-      <c r="Z36" s="2" t="inlineStr"/>
-      <c r="AA36" s="2" t="inlineStr"/>
-      <c r="AB36" s="2" t="inlineStr"/>
-      <c r="AC36" s="2" t="inlineStr"/>
-      <c r="AD36" s="2" t="inlineStr"/>
+        <v>0.3227666866562461</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>0.6912509283105648</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>0.7008406186953597</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>0.26351</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>0.668665650886613</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>0.38106</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>0.7196818323283877</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>0.6224457184731559</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>0.792794943790982</v>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>0.4438422214552257</v>
+      </c>
+      <c r="P36" s="2" t="n">
+        <v>0.3796537550876475</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>0.7870200000000001</v>
+      </c>
+      <c r="R36" s="2" t="n">
+        <v>0.4460491760281284</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>0.9973253092611166</v>
+      </c>
+      <c r="T36" s="2" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="U36" s="2" t="n">
+        <v>0.6147823363607892</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>0.885812715314751</v>
+      </c>
+      <c r="W36" s="2" t="n">
+        <v>0.2963260674606215</v>
+      </c>
+      <c r="X36" s="2" t="n">
+        <v>0.8224285714285715</v>
+      </c>
+      <c r="Y36" s="2" t="n">
+        <v>0.7552132701421801</v>
+      </c>
+      <c r="Z36" s="2" t="n">
+        <v>0.6383658372562205</v>
+      </c>
+      <c r="AA36" s="2" t="n">
+        <v>0.9315589224053143</v>
+      </c>
+      <c r="AB36" s="2" t="n">
+        <v>0.93299242831188</v>
+      </c>
+      <c r="AC36" s="2" t="n">
+        <v>0.61914</v>
+      </c>
+      <c r="AD36" s="2" t="n">
+        <v>0.45487</v>
+      </c>
+      <c r="AE36" s="2" t="n">
+        <v>0.6036</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\mistral-embed</t>
+          <t>manu/sentence_croissant_alpha_v0.3</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.56836</v>
+        <v>0.7765803549830591</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.6756799999999999</v>
+        <v>0.2632047044833564</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.21732</v>
+        <v>0.7737718097451919</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.7877</v>
+        <v>0.5799405225219099</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>0.74235</v>
+        <v>0.3769405326971794</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.6200673531656187</v>
+        <v>0.719770122605619</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.4919858181804794</v>
+        <v>0.6986550100874244</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.7235703741352056</v>
+        <v>0.2965</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.41594</v>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
+        <v>0.6542042805601268</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>0.3631</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>0.7364325943253973</v>
+      </c>
       <c r="M37" s="2" t="n">
-        <v>0.2617385576460144</v>
+        <v>0.6049889083017318</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>0.8139810426540285</v>
+        <v>0.8133791809403829</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0.4812513474674608</v>
+        <v>0.4381914693719002</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>0.3961706213267493</v>
+        <v>0.4058550987695524</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0.6283120376597177</v>
+        <v>0.8033</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.6971418964357767</v>
+        <v>0.4422111049954497</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0.4527933950642883</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>0.427376128032198</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.9005010961478235</v>
+        <v>0.592890698402756</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>0.6608831819605385</v>
+        <v>0.8825555903538993</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9261462822985623</v>
+        <v>0.3099183622495067</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.9390344015481578</v>
+        <v>0.8217023809523809</v>
       </c>
       <c r="Y37" s="2" t="n">
-        <v>0.6202390909948808</v>
+        <v>0.75781990521327</v>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>0.7621241859440422</v>
+        <v>0.6489240080699393</v>
       </c>
       <c r="AA37" s="2" t="n">
-        <v>0.8274398153558601</v>
+        <v>0.9346759444633187</v>
       </c>
       <c r="AB37" s="2" t="n">
-        <v>0.7972225305052291</v>
+        <v>0.9401873666553365</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0.3146953192338591</v>
+        <v>0.64217</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>0.8856666666666666</v>
+        <v>0.49088</v>
+      </c>
+      <c r="AE37" s="2" t="n">
+        <v>0.65766</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\LaBSE</t>
+          <t>mistral-embed</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.19775</v>
+        <v>0.7972225305052291</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.22973</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>0.15529</v>
-      </c>
+        <v>0.2617385576460144</v>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
-        <v>0.55315</v>
+        <v>0.4812513474674608</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>0.51736</v>
+        <v>0.3961706213267493</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0.5478373637265357</v>
+        <v>0.7621241859440422</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.316037738871091</v>
+        <v>0.6971418964357767</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.4950995736410158</v>
+        <v>0.21732</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.3852399999999999</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3" t="n">
-        <v>1</v>
+        <v>0.6202390909948808</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>0.41594</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>0.7796140728300852</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0.2061928108108767</v>
+        <v>0.6200673531656187</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>0.7739336492890996</v>
+        <v>0.8274398153558601</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0.4615982853044859</v>
+        <v>0.427376128032198</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>0.3813297329222706</v>
+        <v>0.4919858181804794</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0.6046738399462004</v>
+        <v>0.7877</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.6510423671822462</v>
-      </c>
-      <c r="S38" s="2" t="n">
-        <v>0.4209325634914144</v>
-      </c>
-      <c r="T38" s="2" t="n">
-        <v>0.348364243914043</v>
-      </c>
+        <v>0.4527933950642883</v>
+      </c>
+      <c r="S38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="inlineStr"/>
       <c r="U38" s="2" t="n">
-        <v>0.8413717507046664</v>
+        <v>0.6608831819605385</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>0.6201064829314126</v>
+        <v>0.9005010961478235</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9395623291640002</v>
+        <v>0.3146953192338591</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>0.9441484444599348</v>
+        <v>0.8122619047619049</v>
       </c>
       <c r="Y38" s="2" t="n">
-        <v>0.5463098409665733</v>
+        <v>0.8139810426540285</v>
       </c>
       <c r="Z38" s="2" t="n">
-        <v>0.699399693283394</v>
+        <v>0.6283120376597177</v>
       </c>
       <c r="AA38" s="2" t="n">
-        <v>0.779542837388368</v>
+        <v>0.9261462822985623</v>
       </c>
       <c r="AB38" s="2" t="n">
-        <v>0.7509746606428888</v>
+        <v>0.9390344015481578</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0.301637456328485</v>
+        <v>0.74235</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>0.7328333333333332</v>
+        <v>0.56836</v>
+      </c>
+      <c r="AE38" s="2" t="n">
+        <v>0.6756799999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\all-MiniLM-L12-v2</t>
+          <t>sentence-transformers/LaBSE</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.33196</v>
+        <v>0.7509746606428888</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.34234</v>
+        <v>0.2061928108108767</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.16079</v>
+        <v>0.8754400001529438</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.608</v>
+        <v>0.4615982853044859</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>0.55899</v>
+        <v>0.3813297329222706</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.4602594872664162</v>
+        <v>0.699399693283394</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.3182943689925971</v>
+        <v>0.6510423671822462</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.4573497604610514</v>
+        <v>0.15529</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.2754</v>
+        <v>0.5463098409665733</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.7091264534343772</v>
+        <v>0.3852399999999999</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.6191113021604495</v>
+        <v>0.5537476614602802</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0.1957951528987704</v>
+        <v>0.5478373637265357</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0.7220379146919431</v>
+        <v>0.779542837388368</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0.4271872726070847</v>
+        <v>0.348364243914043</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>0.3246835377100011</v>
+        <v>0.316037738871091</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0.4481506388702085</v>
+        <v>0.55315</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.537626092804304</v>
-      </c>
-      <c r="S39" s="2" t="n">
-        <v>0.3435218323840786</v>
-      </c>
-      <c r="T39" s="2" t="n">
-        <v>0.2929559187477989</v>
+        <v>0.4209325634914144</v>
+      </c>
+      <c r="S39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.7559348575007829</v>
+        <v>0.6201064829314126</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>0.3893830253679925</v>
+        <v>0.8413717507046664</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.8734880754144339</v>
+        <v>0.301637456328485</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>0.8779525332075913</v>
+        <v>0.6762063492063493</v>
       </c>
       <c r="Y39" s="2" t="n">
-        <v>0.5552853885736202</v>
+        <v>0.7739336492890996</v>
       </c>
       <c r="Z39" s="2" t="n">
-        <v>0.6316238159087848</v>
+        <v>0.6046738399462004</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>0.6951402658537921</v>
+        <v>0.9395623291640002</v>
       </c>
       <c r="AB39" s="2" t="n">
-        <v>0.6667725575200975</v>
+        <v>0.9441484444599348</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0.2662863565868236</v>
+        <v>0.51736</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>0.6833333333333335</v>
+        <v>0.19775</v>
+      </c>
+      <c r="AE39" s="2" t="n">
+        <v>0.22973</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\all-MiniLM-L6-v2</t>
+          <t>sentence-transformers/all-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.28413</v>
+        <v>0.6667725575200975</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.27477</v>
+        <v>0.1957951528987704</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.09195</v>
+        <v>0.096967565885423</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.60148</v>
+        <v>0.4271872726070847</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>0.51786</v>
+        <v>0.3246835377100011</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>0.5183078853752063</v>
+        <v>0.6316238159087848</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.3206588333216591</v>
+        <v>0.537626092804304</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.3169263945167622</v>
+        <v>0.16079</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.2689800000000001</v>
+        <v>0.5552853885736202</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.6231354410624419</v>
+        <v>0.2754</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.564793587110538</v>
+        <v>0.6701369640322303</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0.1884080354213321</v>
+        <v>0.4602594872664162</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>0.740521327014218</v>
+        <v>0.6951402658537921</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0.3492044210457986</v>
+        <v>0.2929559187477989</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>0.4057681708831091</v>
+        <v>0.3182943689925971</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0.4263954270342972</v>
+        <v>0.608</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.5115669132481506</v>
+        <v>0.3435218323840786</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0.3673575599443643</v>
+        <v>0.7091264534343772</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>0.2811790550911384</v>
+        <v>0.6191113021604495</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.7508299404948324</v>
+        <v>0.3893830253679925</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>0.3965236454744754</v>
+        <v>0.7559348575007829</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.8652704370552743</v>
+        <v>0.2662863565868236</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>0.8759124475461358</v>
+        <v>0.6917023809523809</v>
       </c>
       <c r="Y40" s="2" t="n">
-        <v>0.5539810428438392</v>
+        <v>0.7220379146919431</v>
       </c>
       <c r="Z40" s="2" t="n">
-        <v>0.6248225654609475</v>
+        <v>0.4481506388702085</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>0.7700398643056744</v>
+        <v>0.8734880754144339</v>
       </c>
       <c r="AB40" s="2" t="n">
-        <v>0.6493028232792631</v>
+        <v>0.8779525332075913</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0.2828180757815488</v>
+        <v>0.55899</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>0.5956666666666667</v>
+        <v>0.33196</v>
+      </c>
+      <c r="AE40" s="2" t="n">
+        <v>0.34234</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\distiluse-base-multilingual-cased-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.26994</v>
+        <v>0.6493028232792631</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.28829</v>
+        <v>0.1884080354213321</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.22545</v>
+        <v>0.03498878152491112</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.65338</v>
+        <v>0.3492044210457986</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0.51196</v>
+        <v>0.4057681708831091</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>0.5595373948625354</v>
+        <v>0.6248225654609475</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.3538541904887588</v>
+        <v>0.5115669132481506</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.5177355262516891</v>
+        <v>0.09195</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.35764</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3" t="n">
-        <v>1</v>
+        <v>0.5539810428438392</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>0.2689800000000001</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>0.6262172640988071</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>0.1820092523936601</v>
+        <v>0.5183078853752063</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>0.7687203791469195</v>
+        <v>0.7700398643056744</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0.5376154899329338</v>
+        <v>0.2811790550911384</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>0.3276276082145452</v>
+        <v>0.3206588333216591</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0.598285137861466</v>
+        <v>0.60148</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.6738735709482178</v>
+        <v>0.3673575599443643</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0.4017045078734119</v>
+        <v>0.6231354410624419</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>0.3464793188683687</v>
+        <v>0.564793587110538</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.8498277481991858</v>
+        <v>0.3965236454744754</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>0.5610710930159725</v>
+        <v>0.7508299404948324</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9207498432598107</v>
+        <v>0.2828180757815488</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>0.9374506536091047</v>
+        <v>0.6730793650793651</v>
       </c>
       <c r="Y41" s="2" t="n">
-        <v>0.5107538398683125</v>
+        <v>0.740521327014218</v>
       </c>
       <c r="Z41" s="2" t="n">
-        <v>0.7249442911000451</v>
+        <v>0.4263954270342972</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>0.7641254265129491</v>
+        <v>0.8652704370552743</v>
       </c>
       <c r="AB41" s="2" t="n">
-        <v>0.7748827876122101</v>
+        <v>0.8759124475461358</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0.2812111546255657</v>
+        <v>0.51786</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>0.7478333333333331</v>
+        <v>0.28413</v>
+      </c>
+      <c r="AE41" s="2" t="n">
+        <v>0.27477</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\multi-qa-MiniLM-L6-cos-v1</t>
+          <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.30229</v>
+        <v>0.7748827876122101</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.2973</v>
+        <v>0.1820092523936601</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.16312</v>
+        <v>0.8327728076127141</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.58073</v>
+        <v>0.5376154899329338</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0.48832</v>
+        <v>0.3276276082145452</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.4913194595542176</v>
+        <v>0.7249442911000451</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.2615924058641751</v>
+        <v>0.6738735709482178</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.4027970855790797</v>
+        <v>0.22545</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.27046</v>
+        <v>0.5107538398683125</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.5537365949388782</v>
+        <v>0.35764</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.5046345385362436</v>
+        <v>0.6237756079207663</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>0.124913841593586</v>
+        <v>0.5595373948625354</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>0.7561611374407583</v>
+        <v>0.7641254265129491</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0.5372744669883476</v>
+        <v>0.3464793188683687</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>0.2726838058131417</v>
+        <v>0.3538541904887588</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0.4264290517821117</v>
+        <v>0.65338</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.499226630800269</v>
-      </c>
-      <c r="S42" s="2" t="n">
-        <v>0.3514684027308759</v>
-      </c>
-      <c r="T42" s="2" t="n">
-        <v>0.2595314882250714</v>
+        <v>0.4017045078734119</v>
+      </c>
+      <c r="S42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.7296899467585343</v>
+        <v>0.5610710930159725</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>0.3718446601941748</v>
+        <v>0.8498277481991858</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.8806670648536865</v>
+        <v>0.2812111546255657</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.8776887387170348</v>
+        <v>0.7463571428571428</v>
       </c>
       <c r="Y42" s="2" t="n">
-        <v>0.5736104900905769</v>
+        <v>0.7687203791469195</v>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>0.6210588256655486</v>
+        <v>0.598285137861466</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>0.7461882879262099</v>
+        <v>0.9207498432598107</v>
       </c>
       <c r="AB42" s="2" t="n">
-        <v>0.6384700996869166</v>
+        <v>0.9374506536091047</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0.2759064320988224</v>
+        <v>0.51196</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>0.6508333333333334</v>
+        <v>0.26994</v>
+      </c>
+      <c r="AE42" s="2" t="n">
+        <v>0.28829</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\paraphrase-multilingual-MiniLM-L12-v2</t>
+          <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.26634</v>
+        <v>0.6384700996869166</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.37838</v>
+        <v>0.124913841593586</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.21535</v>
+        <v>0.08784505319023178</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.65543</v>
+        <v>0.5372744669883476</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>0.42511</v>
+        <v>0.2726838058131417</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>0.5606489195760765</v>
+        <v>0.6210588256655486</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.4215818771542176</v>
+        <v>0.499226630800269</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.4900817277127068</v>
+        <v>0.16312</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.36758</v>
+        <v>0.5736104900905769</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.27046</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.995987963891675</v>
+        <v>0.6295365014472553</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>0.2320666181560827</v>
+        <v>0.4913194595542176</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>0.7609004739336493</v>
+        <v>0.7461882879262099</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0.3657831649774737</v>
+        <v>0.2595314882250714</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>0.3389979666918544</v>
+        <v>0.2615924058641751</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0.5751513113651648</v>
+        <v>0.58073</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.6451916610625421</v>
+        <v>0.3514684027308759</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0.3997152802677553</v>
+        <v>0.5537365949388782</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>0.3654820279096755</v>
+        <v>0.5046345385362436</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.7769808957093642</v>
+        <v>0.3718446601941748</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>0.4793611024115252</v>
+        <v>0.7296899467585343</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9200522043693091</v>
+        <v>0.2759064320988224</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>0.9414470609254002</v>
+        <v>0.6505281385281385</v>
       </c>
       <c r="Y43" s="2" t="n">
-        <v>0.5694456712082714</v>
+        <v>0.7561611374407583</v>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>0.75102380757868</v>
+        <v>0.4264290517821117</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>0.7054517669493489</v>
+        <v>0.8806670648536865</v>
       </c>
       <c r="AB43" s="2" t="n">
-        <v>0.7989821675921884</v>
+        <v>0.8776887387170348</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0.2919931043966207</v>
+        <v>0.48832</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>0.7503333333333333</v>
+        <v>0.30229</v>
+      </c>
+      <c r="AE43" s="2" t="n">
+        <v>0.2973</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\paraphrase-multilingual-mpnet-base-v2</t>
+          <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.30799</v>
+        <v>0.7989821675921884</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.42793</v>
+        <v>0.2320666181560827</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.24454</v>
+        <v>0.7772438859983376</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.75998</v>
+        <v>0.3657831649774737</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0.46221</v>
+        <v>0.3389979666918544</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>0.5449402070854203</v>
+        <v>0.75102380757868</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0.4478667196341167</v>
+        <v>0.6451916610625421</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0.5433541215937093</v>
+        <v>0.21535</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0.40138</v>
+        <v>0.5694456712082714</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.9986626546305584</v>
-      </c>
-      <c r="L44" s="3" t="n">
-        <v>1</v>
+        <v>0.36758</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>0.6242438219619088</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.239677482639205</v>
+        <v>0.5606489195760765</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>0.7810426540284359</v>
+        <v>0.7054517669493489</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0.41569311482541</v>
+        <v>0.3654820279096755</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>0.3087579159546582</v>
+        <v>0.4215818771542176</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0.6187962340282447</v>
+        <v>0.65543</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>0.678950907868191</v>
+        <v>0.3997152802677553</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0.4055377595140954</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="T44" s="2" t="n">
-        <v>0.3753003494348933</v>
+        <v>0.995987963891675</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>0.8029126213592234</v>
+        <v>0.4793611024115252</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>0.5203570310053242</v>
+        <v>0.7769808957093642</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>0.9345353677987358</v>
+        <v>0.2919931043966207</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>0.9530638045019797</v>
+        <v>0.7250396825396825</v>
       </c>
       <c r="Y44" s="2" t="n">
-        <v>0.5814276884080426</v>
+        <v>0.7609004739336493</v>
       </c>
       <c r="Z44" s="2" t="n">
-        <v>0.755583681044677</v>
+        <v>0.5751513113651648</v>
       </c>
       <c r="AA44" s="2" t="n">
-        <v>0.7430483195474878</v>
+        <v>0.9200522043693091</v>
       </c>
       <c r="AB44" s="2" t="n">
-        <v>0.8469135860099118</v>
+        <v>0.9414470609254002</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0.2946828386641493</v>
+        <v>0.42511</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>0.8323333333333334</v>
+        <v>0.26634</v>
+      </c>
+      <c r="AE44" s="2" t="n">
+        <v>0.37838</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-base</t>
+          <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.27523</v>
+        <v>0.8469135860099118</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.3964</v>
+        <v>0.239677482639205</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.2104</v>
+        <v>0.8067461852300057</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>0.66999</v>
+        <v>0.41569311482541</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>0.45191</v>
+        <v>0.3087579159546582</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>0.5844150763298186</v>
+        <v>0.755583681044677</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0.3593354716276945</v>
+        <v>0.678950907868191</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0.5011645682624447</v>
+        <v>0.24454</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0.3735</v>
+        <v>0.5814276884080426</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.9735874289535272</v>
+        <v>0.40138</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.9615513206285523</v>
+        <v>0.6720432168620495</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0.1771709655357738</v>
+        <v>0.5449402070854203</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>0.812085308056872</v>
+        <v>0.7430483195474878</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0.6190485205190622</v>
+        <v>0.3753003494348933</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>0.3564262992341879</v>
+        <v>0.4478667196341167</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0.5113315400134499</v>
+        <v>0.75998</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>0.5991930060524545</v>
+        <v>0.4055377595140954</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0.4076920517896694</v>
-      </c>
-      <c r="T45" s="2" t="n">
-        <v>0.3006026181192261</v>
+        <v>0.9986626546305584</v>
+      </c>
+      <c r="T45" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>0.7502975258377701</v>
+        <v>0.5203570310053242</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>0.4384591293454432</v>
+        <v>0.8029126213592234</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>0.8939826485982256</v>
+        <v>0.2946828386641493</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>0.9004953622645687</v>
+        <v>0.8096666666666666</v>
       </c>
       <c r="Y45" s="2" t="n">
-        <v>0.5535169602026141</v>
+        <v>0.7810426540284359</v>
       </c>
       <c r="Z45" s="2" t="n">
-        <v>0.7173634724227647</v>
+        <v>0.6187962340282447</v>
       </c>
       <c r="AA45" s="2" t="n">
-        <v>0.7768846630995027</v>
+        <v>0.9345353677987358</v>
       </c>
       <c r="AB45" s="2" t="n">
-        <v>0.7404061698113868</v>
+        <v>0.9530638045019797</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0.3000911423350935</v>
+        <v>0.46221</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>0.7805</v>
+        <v>0.30799</v>
+      </c>
+      <c r="AE45" s="2" t="n">
+        <v>0.42793</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-large</t>
+          <t>sentence-transformers/sentence-t5-base</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.34518</v>
+        <v>0.7404061698113868</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.46847</v>
+        <v>0.1771709655357738</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.23918</v>
+        <v>0.551313531869022</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0.71053</v>
+        <v>0.6190485205190622</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>0.48792</v>
+        <v>0.3564262992341879</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0.6182277140780882</v>
+        <v>0.7173634724227647</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0.3977568234064501</v>
+        <v>0.5991930060524545</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0.5799215751439791</v>
+        <v>0.2104</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0.4147999999999999</v>
+        <v>0.5535169602026141</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.3735</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.9866265463055833</v>
+        <v>0.6322134288038879</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.1873235586707495</v>
+        <v>0.5844150763298186</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>0.8042654028436018</v>
+        <v>0.7768846630995027</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0.585985794265385</v>
+        <v>0.3006026181192261</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>0.3133479963331417</v>
+        <v>0.3593354716276945</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0.5701412239408203</v>
+        <v>0.66999</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>0.6360121049092132</v>
+        <v>0.4076920517896694</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>0.4207261111658658</v>
+        <v>0.9735874289535272</v>
       </c>
       <c r="T46" s="2" t="n">
-        <v>0.3186940328271737</v>
+        <v>0.9615513206285523</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>0.795959912308174</v>
+        <v>0.4384591293454432</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>0.4772940808017538</v>
+        <v>0.7502975258377701</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>0.911862793751712</v>
+        <v>0.3000911423350935</v>
       </c>
       <c r="X46" s="2" t="n">
-        <v>0.9186413027481362</v>
+        <v>0.758845238095238</v>
       </c>
       <c r="Y46" s="2" t="n">
-        <v>0.5958684223229149</v>
+        <v>0.812085308056872</v>
       </c>
       <c r="Z46" s="2" t="n">
-        <v>0.7282743267188198</v>
+        <v>0.5113315400134499</v>
       </c>
       <c r="AA46" s="2" t="n">
-        <v>0.750086943549879</v>
+        <v>0.8939826485982256</v>
       </c>
       <c r="AB46" s="2" t="n">
-        <v>0.7759236947905355</v>
+        <v>0.9004953622645687</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0.3022765637412754</v>
+        <v>0.45191</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>0.7976666666666666</v>
+        <v>0.27523</v>
+      </c>
+      <c r="AE46" s="2" t="n">
+        <v>0.3964</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-xl</t>
+          <t>sentence-transformers/sentence-t5-large</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.40375</v>
+        <v>0.7759236947905355</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.5</v>
+        <v>0.1873235586707495</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.31539</v>
+        <v>0.7109667114459385</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0.74237</v>
+        <v>0.585985794265385</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>0.5214299999999999</v>
+        <v>0.3133479963331417</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>0.6037247542497267</v>
+        <v>0.7282743267188198</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0.4076035180401736</v>
+        <v>0.6360121049092132</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0.6329940615569801</v>
+        <v>0.23918</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0.43516</v>
+        <v>0.5958684223229149</v>
       </c>
       <c r="K47" s="2" t="n">
+        <v>0.4147999999999999</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>0.6754584284213152</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>0.6182277140780882</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>0.750086943549879</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>0.3186940328271737</v>
+      </c>
+      <c r="P47" s="2" t="n">
+        <v>0.3977568234064501</v>
+      </c>
+      <c r="Q47" s="2" t="n">
+        <v>0.71053</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>0.4207261111658658</v>
+      </c>
+      <c r="S47" s="2" t="n">
         <v>0.9919759277833501</v>
       </c>
-      <c r="L47" s="2" t="n">
-        <v>0.9919759277833501</v>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>0.2027889302653955</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>0.8009478672985783</v>
-      </c>
-      <c r="O47" s="2" t="n">
-        <v>0.6282235512125198</v>
-      </c>
-      <c r="P47" s="2" t="n">
-        <v>0.3173861927815954</v>
-      </c>
-      <c r="Q47" s="2" t="n">
-        <v>0.6098520511096167</v>
-      </c>
-      <c r="R47" s="2" t="n">
-        <v>0.6641560188298588</v>
-      </c>
-      <c r="S47" s="2" t="n">
-        <v>0.4161005491114602</v>
-      </c>
       <c r="T47" s="2" t="n">
-        <v>0.3360365488455902</v>
+        <v>0.9866265463055833</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>0.8514249921703726</v>
+        <v>0.4772940808017538</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>0.5439085499530223</v>
+        <v>0.795959912308174</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>0.9248433060784351</v>
+        <v>0.3022765637412754</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>0.9378969696931576</v>
+        <v>0.782813492063492</v>
       </c>
       <c r="Y47" s="2" t="n">
-        <v>0.6252251289274147</v>
+        <v>0.8042654028436018</v>
       </c>
       <c r="Z47" s="2" t="n">
-        <v>0.7508041932935345</v>
+        <v>0.5701412239408203</v>
       </c>
       <c r="AA47" s="2" t="n">
-        <v>0.7749353352876681</v>
+        <v>0.911862793751712</v>
       </c>
       <c r="AB47" s="2" t="n">
-        <v>0.794154396398088</v>
+        <v>0.9186413027481362</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0.3159390228650623</v>
+        <v>0.48792</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>0.8306666666666667</v>
+        <v>0.34518</v>
+      </c>
+      <c r="AE47" s="2" t="n">
+        <v>0.46847</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-xxl</t>
+          <t>sentence-transformers/sentence-t5-xl</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.45748</v>
+        <v>0.794154396398088</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.5585599999999999</v>
+        <v>0.2027889302653955</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.34929</v>
+        <v>0.7586314484331536</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>0.78975</v>
+        <v>0.6282235512125198</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.56202</v>
+        <v>0.3173861927815954</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.6097713304012906</v>
+        <v>0.7508041932935345</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0.4350024233904722</v>
+        <v>0.6641560188298588</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0.6836198251579949</v>
+        <v>0.31539</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>0.4608800000000001</v>
+        <v>0.6252251289274147</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.43516</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.711535861715982</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>0.2140492459012981</v>
+        <v>0.6037247542497267</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>0.7909952606635071</v>
+        <v>0.7749353352876681</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0.6114553646367987</v>
+        <v>0.3360365488455902</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>0.3823921323645222</v>
+        <v>0.4076035180401736</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0.6590786819098857</v>
+        <v>0.74237</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>0.6853059852051111</v>
+        <v>0.4161005491114602</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0.4224117195163593</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>0.3524745757300218</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>0.8620106482931412</v>
+        <v>0.5439085499530223</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>0.5833385530848731</v>
+        <v>0.8514249921703726</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>0.9394372210364297</v>
+        <v>0.3159390228650623</v>
       </c>
       <c r="X48" s="2" t="n">
-        <v>0.9511141986772736</v>
+        <v>0.8092543290043289</v>
       </c>
       <c r="Y48" s="2" t="n">
-        <v>0.639782556744936</v>
+        <v>0.8009478672985783</v>
       </c>
       <c r="Z48" s="2" t="n">
-        <v>0.7706782664515456</v>
+        <v>0.6098520511096167</v>
       </c>
       <c r="AA48" s="2" t="n">
-        <v>0.7680240821366182</v>
+        <v>0.9248433060784351</v>
       </c>
       <c r="AB48" s="2" t="n">
-        <v>0.8124450977788589</v>
+        <v>0.9378969696931576</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0.3039226775800043</v>
+        <v>0.5214299999999999</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>0.8515</v>
+        <v>0.40375</v>
+      </c>
+      <c r="AE48" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\shibing624\text2vec-base-multilingual</t>
+          <t>sentence-transformers/sentence-t5-xxl</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.18899</v>
+        <v>0.8124450977788589</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.26126</v>
+        <v>0.2140492459012981</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.14812</v>
+        <v>0.8324518195666728</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0.49694</v>
+        <v>0.6114553646367987</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0.404</v>
+        <v>0.3823921323645222</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>0.4910742502173265</v>
+        <v>0.7706782664515456</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>0.3272237759178746</v>
+        <v>0.6853059852051111</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0.5148170958763292</v>
+        <v>0.34929</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>0.34254</v>
+        <v>0.639782556744936</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.9879638916750251</v>
+        <v>0.4608800000000001</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.7523712951211723</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>0.1619070583380436</v>
+        <v>0.6097713304012906</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>0.7383886255924171</v>
+        <v>0.7680240821366182</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0.3850723861796326</v>
+        <v>0.3524745757300218</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>0.3251081280317133</v>
+        <v>0.4350024233904722</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0.5193006052454606</v>
+        <v>0.78975</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>0.5830867518493612</v>
+        <v>0.4224117195163593</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>0.3619042628585186</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="T49" s="2" t="n">
-        <v>0.303885451410444</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>0.7182586908863138</v>
+        <v>0.5833385530848731</v>
       </c>
       <c r="V49" s="2" t="n">
-        <v>0.4453492013780145</v>
+        <v>0.8620106482931412</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>0.9204078160599214</v>
+        <v>0.3039226775800043</v>
       </c>
       <c r="X49" s="2" t="n">
-        <v>0.9395153724999291</v>
+        <v>0.8171666666666667</v>
       </c>
       <c r="Y49" s="2" t="n">
-        <v>0.6556847028211261</v>
+        <v>0.7909952606635071</v>
       </c>
       <c r="Z49" s="2" t="n">
-        <v>0.7724805746003676</v>
+        <v>0.6590786819098857</v>
       </c>
       <c r="AA49" s="2" t="n">
-        <v>0.7409937723367189</v>
+        <v>0.9394372210364297</v>
       </c>
       <c r="AB49" s="2" t="n">
-        <v>0.8347595626027418</v>
+        <v>0.9511141986772736</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0.2933489058303607</v>
+        <v>0.56202</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>0.7028333333333333</v>
+        <v>0.45748</v>
+      </c>
+      <c r="AE49" s="2" t="n">
+        <v>0.5585599999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\text-embedding-3-large</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>0.60282</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>0.73423</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>0.62957</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>0.8686700000000001</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>0.76519</v>
+          <t>shibing624/text2vec-base-multilingual</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>0.8347595626027418</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0.1619070583380436</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>0.7780898243854504</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>0.3850723861796326</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>0.3251081280317133</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>0.6188729664384736</v>
-      </c>
-      <c r="H50" s="3" t="n">
-        <v>0.5383026633586214</v>
-      </c>
-      <c r="I50" s="3" t="n">
-        <v>0.7609503650218049</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>0.46196</v>
-      </c>
-      <c r="K50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" s="3" t="n">
-        <v>0.2796643625096684</v>
+        <v>0.7724805746003676</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>0.5830867518493612</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>0.14812</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>0.6556847028211261</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>0.34254</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>0.556826861955334</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>0.4910742502173265</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>0.8218009478672986</v>
+        <v>0.7409937723367189</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0.5270799653215082</v>
+        <v>0.303885451410444</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>0.3970800658666344</v>
-      </c>
-      <c r="Q50" s="3" t="n">
-        <v>0.713315400134499</v>
-      </c>
-      <c r="R50" s="3" t="n">
-        <v>0.7646267652992602</v>
+        <v>0.3272237759178746</v>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>0.49694</v>
+      </c>
+      <c r="R50" s="2" t="n">
+        <v>0.3619042628585186</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0.4589797204034647</v>
-      </c>
-      <c r="T50" s="3" t="n">
-        <v>0.4572072923344249</v>
-      </c>
-      <c r="U50" s="3" t="n">
-        <v>0.9337300344503602</v>
-      </c>
-      <c r="V50" s="3" t="n">
-        <v>0.7367679298465393</v>
-      </c>
-      <c r="W50" s="3" t="n">
-        <v>0.956495941906191</v>
-      </c>
-      <c r="X50" s="3" t="n">
-        <v>0.9632216568565823</v>
+        <v>0.9879638916750251</v>
+      </c>
+      <c r="T50" s="2" t="n">
+        <v>0.9946506185222334</v>
+      </c>
+      <c r="U50" s="2" t="n">
+        <v>0.4453492013780145</v>
+      </c>
+      <c r="V50" s="2" t="n">
+        <v>0.7182586908863138</v>
+      </c>
+      <c r="W50" s="2" t="n">
+        <v>0.2933489058303607</v>
+      </c>
+      <c r="X50" s="2" t="n">
+        <v>0.6281626984126983</v>
       </c>
       <c r="Y50" s="2" t="n">
-        <v>0.6487004383237154</v>
+        <v>0.7383886255924171</v>
       </c>
       <c r="Z50" s="2" t="n">
-        <v>0.7874564096121601</v>
+        <v>0.5193006052454606</v>
       </c>
       <c r="AA50" s="2" t="n">
-        <v>0.8218742629385483</v>
+        <v>0.9204078160599214</v>
       </c>
       <c r="AB50" s="2" t="n">
-        <v>0.825163980735896</v>
+        <v>0.9395153724999291</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0.2958989154199727</v>
-      </c>
-      <c r="AD50" s="3" t="n">
-        <v>0.9094999999999999</v>
+        <v>0.404</v>
+      </c>
+      <c r="AD50" s="2" t="n">
+        <v>0.18899</v>
+      </c>
+      <c r="AE50" s="2" t="n">
+        <v>0.26126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\text-embedding-3-small</t>
+          <t>text-embedding-3-large</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.52088</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>0.65766</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>0.41674</v>
+        <v>0.825163980735896</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>0.2796643625096684</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>0.884362910537232</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>0.86816</v>
+        <v>0.5270799653215082</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>0.74907</v>
+        <v>0.3970800658666344</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>0.6142121566849555</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>0.5097017531638819</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.6998774786860906</v>
+        <v>0.7874564096121601</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>0.7646267652992602</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>0.62957</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>0.4284000000000001</v>
+        <v>0.6487004383237154</v>
       </c>
       <c r="K51" s="3" t="n">
+        <v>0.46196</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>0.8044786254258053</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0.6188729664384736</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>0.8218742629385483</v>
+      </c>
+      <c r="O51" s="3" t="n">
+        <v>0.4572072923344249</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>0.5383026633586214</v>
+      </c>
+      <c r="Q51" s="3" t="n">
+        <v>0.8686700000000001</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>0.4589797204034647</v>
+      </c>
+      <c r="S51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L51" s="3" t="n">
+      <c r="T51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M51" s="2" t="n">
-        <v>0.2704358042080826</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>0.7646919431279622</v>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>0.4524961818598886</v>
-      </c>
-      <c r="P51" s="3" t="n">
-        <v>0.5476153105172287</v>
-      </c>
-      <c r="Q51" s="2" t="n">
-        <v>0.6779757901815737</v>
-      </c>
-      <c r="R51" s="2" t="n">
-        <v>0.7329186281102892</v>
-      </c>
-      <c r="S51" s="3" t="n">
-        <v>0.4626366669004257</v>
-      </c>
-      <c r="T51" s="2" t="n">
-        <v>0.4567430092008721</v>
-      </c>
-      <c r="U51" s="2" t="n">
-        <v>0.9088318196053869</v>
-      </c>
-      <c r="V51" s="2" t="n">
-        <v>0.678640776699029</v>
+      <c r="U51" s="3" t="n">
+        <v>0.7367679298465393</v>
+      </c>
+      <c r="V51" s="3" t="n">
+        <v>0.9337300344503602</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>0.9444824312907959</v>
-      </c>
-      <c r="X51" s="2" t="n">
-        <v>0.952465716551754</v>
+        <v>0.2958989154199727</v>
+      </c>
+      <c r="X51" s="3" t="n">
+        <v>0.9156666666666666</v>
       </c>
       <c r="Y51" s="2" t="n">
-        <v>0.6136061823257404</v>
-      </c>
-      <c r="Z51" s="2" t="n">
-        <v>0.7569412697440474</v>
-      </c>
-      <c r="AA51" s="2" t="n">
-        <v>0.8086996866193595</v>
-      </c>
-      <c r="AB51" s="2" t="n">
-        <v>0.8113498962069088</v>
-      </c>
-      <c r="AC51" s="2" t="n">
-        <v>0.3049243366483514</v>
-      </c>
-      <c r="AD51" s="2" t="n">
-        <v>0.8961666666666668</v>
+        <v>0.8218009478672986</v>
+      </c>
+      <c r="Z51" s="3" t="n">
+        <v>0.713315400134499</v>
+      </c>
+      <c r="AA51" s="3" t="n">
+        <v>0.956495941906191</v>
+      </c>
+      <c r="AB51" s="3" t="n">
+        <v>0.9632216568565823</v>
+      </c>
+      <c r="AC51" s="3" t="n">
+        <v>0.76519</v>
+      </c>
+      <c r="AD51" s="3" t="n">
+        <v>0.60282</v>
+      </c>
+      <c r="AE51" s="3" t="n">
+        <v>0.73423</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\text-embedding-ada-002</t>
+          <t>text-embedding-3-small</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.5164</v>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
+        <v>0.8113498962069088</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>0.2704358042080826</v>
+      </c>
       <c r="D52" s="2" t="n">
-        <v>0.2994</v>
+        <v>0.8569611214966121</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>0.85969</v>
+        <v>0.4524961818598886</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>0.73004</v>
-      </c>
-      <c r="G52" s="3" t="n">
-        <v>0.6482909467525912</v>
+        <v>0.5476153105172287</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>0.7569412697440474</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>0.5352055108193531</v>
-      </c>
-      <c r="I52" s="2" t="inlineStr"/>
+        <v>0.7329186281102892</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>0.41674</v>
+      </c>
       <c r="J52" s="2" t="n">
-        <v>0.43764</v>
+        <v>0.6136061823257404</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>0.9933132731527916</v>
+        <v>0.4284000000000001</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.7411183812926199</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>0.2617596819504725</v>
+        <v>0.6142121566849555</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>0.8151658767772512</v>
-      </c>
-      <c r="O52" s="3" t="n">
-        <v>0.6835358427222893</v>
+        <v>0.8086996866193595</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>0.4567430092008721</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>0.4857524685115383</v>
+        <v>0.5097017531638819</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0.6542030934767989</v>
-      </c>
-      <c r="R52" s="2" t="n">
-        <v>0.7110961667787492</v>
-      </c>
-      <c r="S52" s="2" t="n">
-        <v>0.445914143327743</v>
-      </c>
-      <c r="T52" s="2" t="n">
-        <v>0.416657222225081</v>
+        <v>0.86816</v>
+      </c>
+      <c r="R52" s="3" t="n">
+        <v>0.4626366669004257</v>
+      </c>
+      <c r="S52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>0.8937676166614468</v>
+        <v>0.678640776699029</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>0.6445349201378014</v>
+        <v>0.9088318196053869</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0.9412076883261254</v>
+        <v>0.3049243366483514</v>
       </c>
       <c r="X52" s="2" t="n">
-        <v>0.9510295908785357</v>
+        <v>0.8945000000000001</v>
       </c>
       <c r="Y52" s="2" t="n">
-        <v>0.6016251068115703</v>
+        <v>0.7646919431279622</v>
       </c>
       <c r="Z52" s="2" t="n">
-        <v>0.7627685738662282</v>
+        <v>0.6779757901815737</v>
       </c>
       <c r="AA52" s="2" t="n">
-        <v>0.810931445449386</v>
+        <v>0.9444824312907959</v>
       </c>
       <c r="AB52" s="2" t="n">
-        <v>0.775488475913985</v>
+        <v>0.952465716551754</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0.3049962446901472</v>
+        <v>0.74907</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>0.8986666666666667</v>
+        <v>0.52088</v>
+      </c>
+      <c r="AE52" s="2" t="n">
+        <v>0.65766</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\voyage-2</t>
+          <t>text-embedding-ada-002</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.45499</v>
+        <v>0.775488475913985</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.52703</v>
+        <v>0.2617596819504725</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.15507</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>0.75831</v>
+        <v>0.860436629641775</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>0.6835358427222893</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>0.67065</v>
+        <v>0.4857524685115383</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>0.5795590984348414</v>
+        <v>0.7627685738662282</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0.4165266573039174</v>
+        <v>0.7110961667787492</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0.6353910351142916</v>
+        <v>0.2994</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>0.37262</v>
+        <v>0.6016251068115703</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.43764</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>0.9799398194583752</v>
-      </c>
-      <c r="M53" s="2" t="n">
-        <v>0.2484326275705308</v>
+        <v>0.7553035636965619</v>
+      </c>
+      <c r="M53" s="3" t="n">
+        <v>0.6482909467525912</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>0.8018957345971565</v>
+        <v>0.810931445449386</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0.4854232311151437</v>
+        <v>0.416657222225081</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>0.3633106838853807</v>
+        <v>0.5352055108193531</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0.5369872225958305</v>
+        <v>0.85969</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>0.6246133154001345</v>
+        <v>0.445914143327743</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>0.4508245196010945</v>
+        <v>0.9933132731527916</v>
       </c>
       <c r="T53" s="2" t="n">
-        <v>0.3877264742587128</v>
+        <v>0.9946506185222334</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>0.7978703413717507</v>
+        <v>0.6445349201378014</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>0.4561854055746946</v>
+        <v>0.8937676166614468</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>0.8976194426555255</v>
+        <v>0.3049962446901472</v>
       </c>
       <c r="X53" s="2" t="n">
-        <v>0.896781936586669</v>
+        <v>0.8894999999999998</v>
       </c>
       <c r="Y53" s="2" t="n">
-        <v>0.5895656630212746</v>
+        <v>0.8151658767772512</v>
       </c>
       <c r="Z53" s="2" t="n">
-        <v>0.6851217063378627</v>
+        <v>0.6542030934767989</v>
       </c>
       <c r="AA53" s="2" t="n">
-        <v>0.7050549213561673</v>
+        <v>0.9412076883261254</v>
       </c>
       <c r="AB53" s="2" t="n">
-        <v>0.7642936190822642</v>
+        <v>0.9510295908785357</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0.3087952286335955</v>
+        <v>0.73004</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>0.8265</v>
-      </c>
+        <v>0.5164</v>
+      </c>
+      <c r="AE53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\voyage-code-2</t>
+          <t>voyage-2</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.52606</v>
+        <v>0.7642936190822642</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.68018</v>
+        <v>0.2484326275705308</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.19047</v>
+        <v>0.3189440828794315</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>0.82766</v>
+        <v>0.4854232311151437</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>0.71946</v>
+        <v>0.3633106838853807</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>0.6162945124485424</v>
+        <v>0.6851217063378627</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>0.5067174392659987</v>
+        <v>0.6246133154001345</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>0.7079122494623074</v>
+        <v>0.15507</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>0.4215</v>
+        <v>0.5895656630212746</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.37262</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.7266605452700412</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>0.2744285128302836</v>
+        <v>0.5795590984348414</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>0.8213270142180095</v>
+        <v>0.7050549213561673</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>0.5659470191472211</v>
+        <v>0.3877264742587128</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>0.3517814667732468</v>
+        <v>0.4165266573039174</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>0.630766644250168</v>
+        <v>0.75831</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>0.7014794889038332</v>
+        <v>0.4508245196010945</v>
       </c>
       <c r="S54" s="2" t="n">
-        <v>0.4522898818144546</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="T54" s="2" t="n">
-        <v>0.4148135128122253</v>
+        <v>0.9799398194583752</v>
       </c>
       <c r="U54" s="2" t="n">
-        <v>0.8767616661446915</v>
+        <v>0.4561854055746946</v>
       </c>
       <c r="V54" s="2" t="n">
-        <v>0.5943626683369871</v>
+        <v>0.7978703413717507</v>
       </c>
       <c r="W54" s="2" t="n">
-        <v>0.9286798412153197</v>
+        <v>0.3087952286335955</v>
       </c>
       <c r="X54" s="2" t="n">
-        <v>0.9371986705026045</v>
+        <v>0.797095238095238</v>
       </c>
       <c r="Y54" s="2" t="n">
-        <v>0.608332001960638</v>
+        <v>0.8018957345971565</v>
       </c>
       <c r="Z54" s="2" t="n">
-        <v>0.7356028375217639</v>
+        <v>0.5369872225958305</v>
       </c>
       <c r="AA54" s="2" t="n">
-        <v>0.7999221736030022</v>
+        <v>0.8976194426555255</v>
       </c>
       <c r="AB54" s="2" t="n">
-        <v>0.7901988871511573</v>
+        <v>0.896781936586669</v>
       </c>
       <c r="AC54" s="2" t="n">
-        <v>0.2833835044555462</v>
+        <v>0.67065</v>
       </c>
       <c r="AD54" s="2" t="n">
-        <v>0.8676666666666667</v>
+        <v>0.45499</v>
+      </c>
+      <c r="AE54" s="2" t="n">
+        <v>0.52703</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\vprelovac\universal-sentence-encoder-multilingual-3</t>
+          <t>voyage-code-2</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.35267</v>
+        <v>0.7901988871511573</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.2744285128302836</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.26121</v>
+        <v>0.6013319288411012</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>0.69819</v>
+        <v>0.5659470191472211</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>0.5959</v>
+        <v>0.3517814667732468</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>0.5689916720736953</v>
+        <v>0.7356028375217639</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>0.378393691062227</v>
+        <v>0.7014794889038332</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0.5622529766312828</v>
+        <v>0.19047</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>0.33514</v>
-      </c>
-      <c r="K55" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" s="3" t="n">
-        <v>1</v>
+        <v>0.608332001960638</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <v>0.4215</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>0.7561215395567691</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>0.1894729944719849</v>
+        <v>0.6162945124485424</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>0.8206161137440759</v>
+        <v>0.7999221736030022</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>0.6057161066482416</v>
+        <v>0.4148135128122253</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>0.4030766635566808</v>
+        <v>0.5067174392659987</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>0.6119031607262946</v>
+        <v>0.82766</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>0.7021856086079354</v>
+        <v>0.4522898818144546</v>
       </c>
       <c r="S55" s="2" t="n">
-        <v>0.4389692922750733</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="T55" s="2" t="n">
-        <v>0.3550144906912691</v>
+        <v>0.9946506185222334</v>
       </c>
       <c r="U55" s="2" t="n">
-        <v>0.8549639837143752</v>
+        <v>0.5943626683369871</v>
       </c>
       <c r="V55" s="2" t="n">
-        <v>0.5398371437519573</v>
+        <v>0.8767616661446915</v>
       </c>
       <c r="W55" s="2" t="n">
-        <v>0.914642734849384</v>
+        <v>0.2833835044555462</v>
       </c>
       <c r="X55" s="2" t="n">
-        <v>0.9276770338480919</v>
+        <v>0.8671785714285715</v>
       </c>
       <c r="Y55" s="2" t="n">
-        <v>0.5238943982284524</v>
+        <v>0.8213270142180095</v>
       </c>
       <c r="Z55" s="2" t="n">
-        <v>0.7137136565612174</v>
+        <v>0.630766644250168</v>
       </c>
       <c r="AA55" s="2" t="n">
-        <v>0.779121959792631</v>
+        <v>0.9286798412153197</v>
       </c>
       <c r="AB55" s="2" t="n">
-        <v>0.7547623244259472</v>
+        <v>0.9371986705026045</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>0.2821210761980673</v>
+        <v>0.71946</v>
       </c>
       <c r="AD55" s="2" t="n">
-        <v>0.7384999999999999</v>
+        <v>0.52606</v>
+      </c>
+      <c r="AE55" s="2" t="n">
+        <v>0.68018</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\vprelovac\universal-sentence-encoder-multilingual-large-3</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.33781</v>
+        <v>0.7547623244259472</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0</v>
+        <v>0.1894729944719849</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.2621</v>
+        <v>0.8167705770180773</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>0.6369</v>
+        <v>0.6057161066482416</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>0.65213</v>
+        <v>0.4030766635566808</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>0.5420886916175743</v>
+        <v>0.7137136565612174</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>0.3794903151594224</v>
+        <v>0.7021856086079354</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>0.5539319797366447</v>
+        <v>0.26121</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>0.35092</v>
-      </c>
-      <c r="K56" s="3" t="n">
+        <v>0.5238943982284524</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <v>0.33514</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>0.6217487639018026</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <v>0.5689916720736953</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <v>0.779121959792631</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <v>0.3550144906912691</v>
+      </c>
+      <c r="P56" s="2" t="n">
+        <v>0.378393691062227</v>
+      </c>
+      <c r="Q56" s="2" t="n">
+        <v>0.69819</v>
+      </c>
+      <c r="R56" s="2" t="n">
+        <v>0.4389692922750733</v>
+      </c>
+      <c r="S56" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L56" s="3" t="n">
+      <c r="T56" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M56" s="2" t="n">
-        <v>0.1894341512230004</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>0.7203791469194313</v>
-      </c>
-      <c r="O56" s="2" t="n">
-        <v>0.2408582264260665</v>
-      </c>
-      <c r="P56" s="2" t="n">
-        <v>0.4024379912798725</v>
-      </c>
-      <c r="Q56" s="2" t="n">
-        <v>0.6580363147276395</v>
-      </c>
-      <c r="R56" s="2" t="n">
-        <v>0.7346671149966374</v>
-      </c>
-      <c r="S56" s="2" t="n">
-        <v>0.4102454366803547</v>
-      </c>
-      <c r="T56" s="2" t="n">
-        <v>0.3796744706245461</v>
-      </c>
       <c r="U56" s="2" t="n">
-        <v>0.881866583150642</v>
+        <v>0.5398371437519573</v>
       </c>
       <c r="V56" s="2" t="n">
-        <v>0.6363921077356717</v>
+        <v>0.8549639837143752</v>
       </c>
       <c r="W56" s="2" t="n">
-        <v>0.9337926495141736</v>
+        <v>0.2821210761980673</v>
       </c>
       <c r="X56" s="2" t="n">
-        <v>0.9463878648421398</v>
+        <v>0.7392857142857143</v>
       </c>
       <c r="Y56" s="2" t="n">
-        <v>0.5362415343852915</v>
+        <v>0.8206161137440759</v>
       </c>
       <c r="Z56" s="2" t="n">
-        <v>0.7438679213720065</v>
+        <v>0.6119031607262946</v>
       </c>
       <c r="AA56" s="2" t="n">
-        <v>0.7110616222714751</v>
+        <v>0.914642734849384</v>
       </c>
       <c r="AB56" s="2" t="n">
-        <v>0.7815527423484122</v>
+        <v>0.9276770338480919</v>
       </c>
       <c r="AC56" s="2" t="n">
-        <v>0.2855799948642319</v>
+        <v>0.5959</v>
       </c>
       <c r="AD56" s="2" t="n">
-        <v>0.7713333333333332</v>
+        <v>0.35267</v>
+      </c>
+      <c r="AE56" s="2" t="n">
+        <v>0.0045</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\xlm-roberta-base</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.00156</v>
+        <v>0.7815527423484122</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.1894341512230004</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.00876</v>
+        <v>0.838819395056347</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>0.03332</v>
+        <v>0.2408582264260665</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>0.11649</v>
+        <v>0.4024379912798725</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>0.5224409381186116</v>
+        <v>0.7438679213720065</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>0.2037478764202963</v>
+        <v>0.7346671149966374</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0.2558120580916916</v>
+        <v>0.2621</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>0.2674799999999999</v>
+        <v>0.5362415343852915</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>0.7017890974510833</v>
+        <v>0.35092</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>0.5328738628505576</v>
+        <v>0.639460440116346</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>0.08678029981035876</v>
+        <v>0.5420886916175743</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>0.6049763033175355</v>
+        <v>0.7110616222714751</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>0.2928935602108218</v>
+        <v>0.3796744706245461</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>0.2375634936431052</v>
+        <v>0.3794903151594224</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0.1358103564223268</v>
+        <v>0.6369</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>0.2321452589105581</v>
-      </c>
-      <c r="S57" s="2" t="n">
-        <v>0.4044298462507268</v>
-      </c>
-      <c r="T57" s="2" t="n">
-        <v>0.2414271814543187</v>
+        <v>0.4102454366803547</v>
+      </c>
+      <c r="S57" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U57" s="2" t="n">
-        <v>0.4383025367992484</v>
+        <v>0.6363921077356717</v>
       </c>
       <c r="V57" s="2" t="n">
-        <v>0.1937676166614469</v>
+        <v>0.881866583150642</v>
       </c>
       <c r="W57" s="2" t="n">
-        <v>0.8544669820078381</v>
+        <v>0.2855799948642319</v>
       </c>
       <c r="X57" s="2" t="n">
-        <v>0.8624645232635788</v>
+        <v>0.6925079365079365</v>
       </c>
       <c r="Y57" s="2" t="n">
-        <v>0.5134610960311026</v>
+        <v>0.7203791469194313</v>
       </c>
       <c r="Z57" s="2" t="n">
-        <v>0.4861539023272589</v>
+        <v>0.6580363147276395</v>
       </c>
       <c r="AA57" s="2" t="n">
-        <v>0.5672433175176572</v>
+        <v>0.9337926495141736</v>
       </c>
       <c r="AB57" s="2" t="n">
-        <v>0.4622634194376477</v>
+        <v>0.9463878648421398</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0.2914448969497285</v>
+        <v>0.65213</v>
       </c>
       <c r="AD57" s="2" t="n">
-        <v>0.4375000000000001</v>
+        <v>0.33781</v>
+      </c>
+      <c r="AE57" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\xlm-roberta-large</t>
+          <t>xlm-roberta-base</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
+        <v>0.4622634194376477</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>0.08678029981035876</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>0.2117178555612327</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>0.2928935602108218</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>0.2375634936431052</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>0.4861539023272589</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>0.2321452589105581</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>0.00876</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <v>0.5134610960311026</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <v>0.2674799999999999</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>0.2756444888903243</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <v>0.5224409381186116</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <v>0.5672433175176572</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>0.2414271814543187</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>0.2037478764202963</v>
+      </c>
+      <c r="Q58" s="2" t="n">
+        <v>0.03332</v>
+      </c>
+      <c r="R58" s="2" t="n">
+        <v>0.4044298462507268</v>
+      </c>
+      <c r="S58" s="2" t="n">
+        <v>0.7017890974510833</v>
+      </c>
+      <c r="T58" s="2" t="n">
+        <v>0.5328738628505576</v>
+      </c>
+      <c r="U58" s="2" t="n">
+        <v>0.1937676166614469</v>
+      </c>
+      <c r="V58" s="2" t="n">
+        <v>0.4383025367992484</v>
+      </c>
+      <c r="W58" s="2" t="n">
+        <v>0.2914448969497285</v>
+      </c>
+      <c r="X58" s="2" t="n">
+        <v>0.3191150793650793</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0.6049763033175355</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>0.1358103564223268</v>
+      </c>
+      <c r="AA58" s="2" t="n">
+        <v>0.8544669820078381</v>
+      </c>
+      <c r="AB58" s="2" t="n">
+        <v>0.8624645232635788</v>
+      </c>
+      <c r="AC58" s="2" t="n">
+        <v>0.11649</v>
+      </c>
+      <c r="AD58" s="2" t="n">
+        <v>0.00156</v>
+      </c>
+      <c r="AE58" s="2" t="n">
+        <v>0.0045</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>xlm-roberta-large</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>0.4231665294262342</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>0.05943345675729141</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>0.1324934909347301</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>0.3402405632525344</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>0.2152479457502924</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>0.5001340631306734</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>0.2392064559515804</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>0.5338491922324053</v>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>0.26616</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>0.3089459830689988</v>
+      </c>
+      <c r="M59" s="2" t="n">
+        <v>0.5653605568863168</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>0.5549160342530441</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>0.1850128406979126</v>
+      </c>
+      <c r="P59" s="2" t="n">
+        <v>0.2118476703867388</v>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>0.06598999999999999</v>
+      </c>
+      <c r="R59" s="2" t="n">
+        <v>0.4267404394453324</v>
+      </c>
+      <c r="S59" s="2" t="n">
+        <v>0.6492966311974625</v>
+      </c>
+      <c r="T59" s="2" t="n">
+        <v>0.2594625928964929</v>
+      </c>
+      <c r="U59" s="2" t="n">
+        <v>0.1537112433448168</v>
+      </c>
+      <c r="V59" s="2" t="n">
+        <v>0.367710616974632</v>
+      </c>
+      <c r="W59" s="2" t="n">
+        <v>0.2889430627940623</v>
+      </c>
+      <c r="X59" s="2" t="n">
+        <v>0.3874368686868688</v>
+      </c>
+      <c r="Y59" s="2" t="n">
+        <v>0.6575829383886255</v>
+      </c>
+      <c r="Z59" s="2" t="n">
+        <v>0.1582044384667115</v>
+      </c>
+      <c r="AA59" s="2" t="n">
+        <v>0.8372982569551426</v>
+      </c>
+      <c r="AB59" s="2" t="n">
+        <v>0.8393372076362939</v>
+      </c>
+      <c r="AC59" s="2" t="n">
+        <v>0.12702</v>
+      </c>
+      <c r="AD59" s="2" t="n">
         <v>0.00517</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="AE59" s="2" t="n">
         <v>0.01351</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>0.06598999999999999</v>
-      </c>
-      <c r="F58" s="2" t="n">
-        <v>0.12702</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>0.5653605568863168</v>
-      </c>
-      <c r="H58" s="2" t="n">
-        <v>0.2118476703867388</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>0.2861531615674818</v>
-      </c>
-      <c r="J58" s="2" t="n">
-        <v>0.26616</v>
-      </c>
-      <c r="K58" s="2" t="n">
-        <v>0.6492966311974625</v>
-      </c>
-      <c r="L58" s="2" t="n">
-        <v>0.2594625928964929</v>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>0.05943345675729141</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>0.6575829383886255</v>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>0.3402405632525344</v>
-      </c>
-      <c r="P58" s="2" t="n">
-        <v>0.2152479457502924</v>
-      </c>
-      <c r="Q58" s="2" t="n">
-        <v>0.1582044384667115</v>
-      </c>
-      <c r="R58" s="2" t="n">
-        <v>0.2392064559515804</v>
-      </c>
-      <c r="S58" s="2" t="n">
-        <v>0.4267404394453324</v>
-      </c>
-      <c r="T58" s="2" t="n">
-        <v>0.1850128406979126</v>
-      </c>
-      <c r="U58" s="2" t="n">
-        <v>0.367710616974632</v>
-      </c>
-      <c r="V58" s="2" t="n">
-        <v>0.1537112433448168</v>
-      </c>
-      <c r="W58" s="2" t="n">
-        <v>0.8372982569551426</v>
-      </c>
-      <c r="X58" s="2" t="n">
-        <v>0.8393372076362939</v>
-      </c>
-      <c r="Y58" s="2" t="n">
-        <v>0.5338491922324053</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>0.5001340631306734</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>0.5549160342530441</v>
-      </c>
-      <c r="AB58" s="2" t="n">
-        <v>0.4231665294262342</v>
-      </c>
-      <c r="AC58" s="2" t="n">
-        <v>0.2889430627940623</v>
-      </c>
-      <c r="AD58" s="2" t="n">
-        <v>0.4940000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="7">
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/analyses_outputs/results.xlsx
+++ b/analyses_outputs/results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AE53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,1902 +848,1902 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/bert-base-10lang-cased</t>
+          <t>Geotrend/distilbert-base-25lang-cased</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.5224992109220082</v>
+        <v>0.5701758346273191</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.199384954892849</v>
+        <v>0.1861576116891369</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.299374159143314</v>
+        <v>0.1131336094934851</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.3238783548898045</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.3317203899044766</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.5876409741522338</v>
+        <v>0.6164041848098294</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.4449562878278413</v>
+        <v>0.4418291862811029</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.02991</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.5339515630722629</v>
+        <v>0.5078393817652131</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.29382</v>
+        <v>0.2853599999999999</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.3179379221831011</v>
+        <v>0.2929426466158667</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0.5321615105669343</v>
+        <v>0.5714285975098367</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0.4031453580850377</v>
+        <v>0.4135399271271215</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.3186880455337019</v>
+        <v>0.3126641649690648</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>0.429190297654638</v>
+        <v>0.4348241240386942</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.17599</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.4095727738171321</v>
+        <v>0.4090788738384479</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.9204446673353393</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.9066087150339909</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.378703413717507</v>
+        <v>0.3534606952709051</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>0.6364860632633886</v>
+        <v>0.6191356091450047</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.2905539823973022</v>
+        <v>0.3070335729873741</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.433218253968254</v>
+        <v>0.3942936507936509</v>
       </c>
       <c r="Y5" s="2" t="n">
-        <v>0.6393364928909953</v>
+        <v>0.6751184834123224</v>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>0.3728312037659718</v>
+        <v>0.3495292535305985</v>
       </c>
       <c r="AA5" s="2" t="n">
-        <v>0.867897383298739</v>
+        <v>0.8609728031715025</v>
       </c>
       <c r="AB5" s="2" t="n">
-        <v>0.8721090971840637</v>
+        <v>0.8758173702252184</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>0.18391</v>
+        <v>0.15897</v>
       </c>
       <c r="AD5" s="2" t="n">
-        <v>0.01604</v>
+        <v>0.01414</v>
       </c>
       <c r="AE5" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.11261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/bert-base-15lang-cased</t>
+          <t>Geotrend/distilbert-base-en-fr-cased</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.5224819480869909</v>
+        <v>0.570654953893223</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.2025950895317026</v>
+        <v>0.1954334300029073</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2995597273787902</v>
+        <v>0.1129692265139254</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.3378317847816555</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.3404565705021788</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.5877261140633706</v>
+        <v>0.6165632183808489</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.4446872898453262</v>
+        <v>0.4401479488903833</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.03014</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.5338191982712758</v>
+        <v>0.5076824569885957</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.2935</v>
+        <v>0.2851199999999999</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.3173867246559752</v>
+        <v>0.293075699444281</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0.5316174444700196</v>
+        <v>0.5665935732649282</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>0.4039926511396135</v>
+        <v>0.4218079567381129</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.3188309116220031</v>
+        <v>0.314328804874776</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0.4342614550943816</v>
+        <v>0.4215320575444813</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.17599</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.4121972569008033</v>
+        <v>0.4071825511365696</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.9192744901370778</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.9066087150339909</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.3785468211713123</v>
+        <v>0.353585969307861</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>0.6370184779204509</v>
+        <v>0.6191982461634826</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.2913284671743393</v>
+        <v>0.3122667451153068</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.433218253968254</v>
+        <v>0.3942936507936509</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>0.6388625592417062</v>
+        <v>0.6751184834123224</v>
       </c>
       <c r="Z6" s="2" t="n">
-        <v>0.3728312037659718</v>
+        <v>0.3478816408876934</v>
       </c>
       <c r="AA6" s="2" t="n">
-        <v>0.8677678461935234</v>
+        <v>0.8609925738288053</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>0.8721085649923495</v>
+        <v>0.8757734114810968</v>
       </c>
       <c r="AC6" s="2" t="n">
-        <v>0.18349</v>
+        <v>0.1556</v>
       </c>
       <c r="AD6" s="2" t="n">
-        <v>0.0161</v>
+        <v>0.01364</v>
       </c>
       <c r="AE6" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.10811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/bert-base-25lang-cased</t>
+          <t>Geotrend/distilbert-base-fr-cased</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.5224992109220082</v>
+        <v>0.5703033340036064</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.1977790848789767</v>
+        <v>0.1960397251544971</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2996061329422579</v>
+        <v>0.05946715324206229</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.337589716019601</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.3460782647523849</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.5875963417221689</v>
+        <v>0.6168581678045449</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.4446872898453261</v>
+        <v>0.4378614660390047</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.03052</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.5339135830001998</v>
+        <v>0.5073485498358526</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.29388</v>
+        <v>0.2859599999999999</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.3183568791057281</v>
+        <v>0.2939054280177285</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.5348707232890372</v>
+        <v>0.5728722420376016</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.387722409346517</v>
+        <v>0.4282484915255096</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.3193833137858634</v>
+        <v>0.3141069123749394</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.4310077911837933</v>
+        <v>0.4300157593054996</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.17519</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.4072820957884197</v>
+        <v>0.4074944583831627</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.6332293277880038</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.6499806439094893</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.3785781396805512</v>
+        <v>0.352740369558409</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.636266833698716</v>
+        <v>0.6170685875352333</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.2884414777790376</v>
+        <v>0.3098048164787563</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.433218253968254</v>
+        <v>0.3929484126984127</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>0.6390995260663508</v>
+        <v>0.6767772511848341</v>
       </c>
       <c r="Z7" s="2" t="n">
-        <v>0.3729657027572293</v>
+        <v>0.3493275050437122</v>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>0.8679078502914821</v>
+        <v>0.8604661480576208</v>
       </c>
       <c r="AB7" s="2" t="n">
-        <v>0.872319293517213</v>
+        <v>0.8761939806579652</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>0.1846</v>
+        <v>0.15906</v>
       </c>
       <c r="AD7" s="2" t="n">
-        <v>0.01604</v>
+        <v>0.01386</v>
       </c>
       <c r="AE7" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.11261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/distilbert-base-25lang-cased</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0.5701758346273191</v>
+          <t>Lajavaness/sentence-camembert-large</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.8613984001863513</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.1861576116891369</v>
+        <v>0.2443517236782352</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1131336094934851</v>
+        <v>0.7007349877195761</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.3238783548898045</v>
+        <v>0.4352577047069188</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.3317203899044766</v>
+        <v>0.3670529681942382</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.6164041848098294</v>
+        <v>0.7770899952473914</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.4418291862811029</v>
+        <v>0.6981170141223941</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.02991</v>
+        <v>0.22464</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.5078393817652131</v>
+        <v>0.6136877605231777</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.2853599999999999</v>
+        <v>0.38396</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.2929426466158667</v>
+        <v>0.6277308388350255</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.5714285975098367</v>
+        <v>0.6237888550471491</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0.4135399271271215</v>
+        <v>0.8171227763972017</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.3126641649690648</v>
+        <v>0.4295050938255963</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0.4348241240386942</v>
+        <v>0.3986103179536452</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0.17599</v>
+        <v>0.79127</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.4090788738384479</v>
+        <v>0.429549637509742</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0.9204446673353393</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.3534606952709051</v>
+        <v>0.6080488568744128</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0.6191356091450047</v>
+        <v>0.8650485436893204</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.3070335729873741</v>
+        <v>0.3160647188490759</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.3942936507936509</v>
+        <v>0.8217738095238094</v>
       </c>
       <c r="Y8" s="2" t="n">
-        <v>0.6751184834123224</v>
+        <v>0.7409952606635072</v>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>0.3495292535305985</v>
+        <v>0.6380295897780768</v>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.8609728031715025</v>
+        <v>0.9428131982731722</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0.8758173702252184</v>
+        <v>0.9533318136331852</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>0.15897</v>
+        <v>0.65019</v>
       </c>
       <c r="AD8" s="2" t="n">
-        <v>0.01414</v>
+        <v>0.33007</v>
       </c>
       <c r="AE8" s="2" t="n">
-        <v>0.11261</v>
+        <v>0.56306</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/distilbert-base-en-fr-cased</t>
+          <t>OrdalieTech/Solon-embeddings-base-0.1</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.570654953893223</v>
+        <v>0.7853527565797995</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.1954334300029073</v>
+        <v>0.2370252984949168</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1129692265139254</v>
+        <v>0.8524372355009098</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.3378317847816555</v>
+        <v>0.4964694067651284</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.3404565705021788</v>
+        <v>0.3618981917730912</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.6165632183808489</v>
+        <v>0.7534687515605065</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.4401479488903833</v>
+        <v>0.6997310020174849</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.03014</v>
+        <v>0.28144</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.5076824569885957</v>
+        <v>0.5870544934940987</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.2851199999999999</v>
+        <v>0.4100799999999999</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.293075699444281</v>
+        <v>0.7088752883376981</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.5665935732649282</v>
+        <v>0.6137421216267173</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.4218079567381129</v>
+        <v>0.8119061093553033</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.314328804874776</v>
+        <v>0.4246984637988738</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0.4215320575444813</v>
+        <v>0.3662872206933244</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0.17599</v>
+        <v>0.80796</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.4071825511365696</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0.9192744901370778</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.4286366213915852</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.353585969307861</v>
+        <v>0.6229877857813969</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.6191982461634826</v>
+        <v>0.8698089570936423</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.3122667451153068</v>
+        <v>0.307197717007175</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.3942936507936509</v>
+        <v>0.8457499999999999</v>
       </c>
       <c r="Y9" s="2" t="n">
-        <v>0.6751184834123224</v>
+        <v>0.7547393364928909</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>0.3478816408876934</v>
+        <v>0.648285137861466</v>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>0.8609925738288053</v>
+        <v>0.9305839400834288</v>
       </c>
       <c r="AB9" s="2" t="n">
-        <v>0.8757734114810968</v>
+        <v>0.9422828541658839</v>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>0.1556</v>
+        <v>0.67599</v>
       </c>
       <c r="AD9" s="2" t="n">
-        <v>0.01364</v>
+        <v>0.41118</v>
       </c>
       <c r="AE9" s="2" t="n">
-        <v>0.10811</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/distilbert-base-en-fr-es-pt-it-cased</t>
+          <t>OrdalieTech/Solon-embeddings-large-0.1</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.5704733367736529</v>
+        <v>0.799935484366653</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.195516374988827</v>
+        <v>0.239541362584812</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1136640517513887</v>
+        <v>0.8694952864886114</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.3350757808521446</v>
+        <v>0.4563006463136968</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.3317203899044766</v>
+        <v>0.3086339630962708</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.6164042836935036</v>
+        <v>0.767437746873382</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.441661062542031</v>
+        <v>0.712878278412912</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.02991</v>
+        <v>0.30074</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.5076412788138646</v>
+        <v>0.6018934804753497</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.2856</v>
+        <v>0.42094</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.2933882142274384</v>
+        <v>0.7222761824335505</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.5656571585750919</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0.4159156703977949</v>
+        <v>0.6310932448320445</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0.8330552085410882</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.3109946916708017</v>
+        <v>0.4327314328859869</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0.4348639521255671</v>
+        <v>0.373886875609376</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0.17599</v>
+        <v>0.84605</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.4091629743654286</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>0.9204446673353393</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.42750019998425</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.3541497024741622</v>
+        <v>0.6854995302223614</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0.6192608831819605</v>
+        <v>0.8925148762918884</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.3099238484208555</v>
+        <v>0.2966081877466483</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.3942936507936509</v>
+        <v>0.8711666666666666</v>
       </c>
       <c r="Y10" s="2" t="n">
-        <v>0.6755924170616113</v>
+        <v>0.7609004739336493</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.3491257565568258</v>
+        <v>0.6736381977135171</v>
       </c>
       <c r="AA10" s="2" t="n">
-        <v>0.8608285959508718</v>
+        <v>0.9401979957812989</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>0.8757472823792262</v>
+        <v>0.952291317855892</v>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>0.15944</v>
+        <v>0.70221</v>
       </c>
       <c r="AD10" s="2" t="n">
-        <v>0.01406</v>
+        <v>0.46942</v>
       </c>
       <c r="AE10" s="2" t="n">
-        <v>0.11261</v>
+        <v>0.57658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Geotrend/distilbert-base-fr-cased</t>
+          <t>Wissam42/sentence-croissant-llm-base</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.5703033340036064</v>
+        <v>0.7922738680429985</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.1960397251544971</v>
+        <v>0.2340128867212198</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.05946715324206229</v>
+        <v>0.7371911997949699</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.337589716019601</v>
+        <v>0.5394435157885373</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.3460782647523849</v>
+        <v>0.4105178984993857</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.6168581678045449</v>
+        <v>0.6960017257463582</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.4378614660390047</v>
+        <v>0.6528581035642234</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.03052</v>
+        <v>0.21309</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.5073485498358526</v>
+        <v>0.6313386879959426</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.2859599999999999</v>
+        <v>0.34792</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.2939054280177285</v>
+        <v>0.5675487985583264</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.5728722420376016</v>
+        <v>0.6411669265073395</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.4282484915255096</v>
+        <v>0.7877222611897307</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.3141069123749394</v>
+        <v>0.3391299056452157</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.4300157593054996</v>
+        <v>0.325236731994226</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0.17519</v>
+        <v>0.74197</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.4074944583831627</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>0.6332293277880038</v>
+        <v>0.429413226398757</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.6499806439094893</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.352740369558409</v>
+        <v>0.6312245537112433</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>0.6170685875352333</v>
+        <v>0.855214531788287</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.3098048164787563</v>
+        <v>0.2904259923005852</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.3929484126984127</v>
+        <v>0.779595238095238</v>
       </c>
       <c r="Y11" s="2" t="n">
-        <v>0.6767772511848341</v>
+        <v>0.7928909952606634</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>0.3493275050437122</v>
+        <v>0.5940820443846672</v>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>0.8604661480576208</v>
+        <v>0.9141910841619804</v>
       </c>
       <c r="AB11" s="2" t="n">
-        <v>0.8761939806579652</v>
+        <v>0.9261526052336004</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.15906</v>
+        <v>0.58573</v>
       </c>
       <c r="AD11" s="2" t="n">
-        <v>0.01386</v>
+        <v>0.29969</v>
       </c>
       <c r="AE11" s="2" t="n">
-        <v>0.11261</v>
+        <v>0.52252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lajavaness/sentence-camembert-large</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>0.8613984001863513</v>
+          <t>bert-base-multilingual-cased</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.5224722935490146</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.2443517236782352</v>
+        <v>0.2080755658975593</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.7007349877195761</v>
+        <v>0.2996061329422579</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.4352577047069188</v>
+        <v>0.2423499234956803</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.3670529681942382</v>
+        <v>0.2445999599094782</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.7770899952473914</v>
+        <v>0.5874812845368886</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.6981170141223941</v>
+        <v>0.4446536650975118</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.22464</v>
+        <v>0.03554</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.6136877605231777</v>
+        <v>0.5339388951464616</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.38396</v>
+        <v>0.29394</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.6277308388350255</v>
+        <v>0.3178385313302001</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0.6237888550471491</v>
+        <v>0.5149653756008361</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>0.8171227763972017</v>
+        <v>0.3904525758557057</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.4295050938255963</v>
+        <v>0.3179683201467264</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0.3986103179536452</v>
+        <v>0.4305645671675891</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0.79127</v>
+        <v>0.18948</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.429549637509742</v>
+        <v>0.4090371994645377</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.9694082246740221</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.9762621196924105</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.6080488568744128</v>
+        <v>0.3783589101158785</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0.8650485436893204</v>
+        <v>0.6361102411525212</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.3160647188490759</v>
+        <v>0.2880779587217142</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8217738095238094</v>
+        <v>0.4340515873015873</v>
       </c>
       <c r="Y12" s="2" t="n">
-        <v>0.7409952606635072</v>
+        <v>0.6400473933649289</v>
       </c>
       <c r="Z12" s="2" t="n">
-        <v>0.6380295897780768</v>
+        <v>0.3729993275050437</v>
       </c>
       <c r="AA12" s="2" t="n">
-        <v>0.9428131982731722</v>
+        <v>0.8677048159592717</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>0.9533318136331852</v>
+        <v>0.8722976958382189</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>0.65019</v>
+        <v>0.1849</v>
       </c>
       <c r="AD12" s="2" t="n">
-        <v>0.33007</v>
+        <v>0.01626</v>
       </c>
       <c r="AE12" s="2" t="n">
-        <v>0.56306</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>OrdalieTech/Solon-embeddings-base-0.1</t>
+          <t>bert-base-multilingual-uncased</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.7853527565797995</v>
+        <v>0.5497353309633939</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.2370252984949168</v>
+        <v>0.2089820298983429</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.8524372355009098</v>
+        <v>0.3559984760058366</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.4964694067651284</v>
+        <v>0.4971340561526633</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.3618981917730912</v>
+        <v>0.422255814870678</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.7534687515605065</v>
+        <v>0.5826449144443914</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.6997310020174849</v>
+        <v>0.4363147276395427</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.28144</v>
+        <v>0.02872</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.5870544934940987</v>
+        <v>0.5322360899538218</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.4100799999999999</v>
+        <v>0.29024</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.7088752883376981</v>
+        <v>0.3277262979995819</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0.6137421216267173</v>
+        <v>0.6066148200885675</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0.8119061093553033</v>
+        <v>0.5647457412587442</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>0.4246984637988738</v>
+        <v>0.3098774275886452</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>0.3662872206933244</v>
+        <v>0.3505397363641355</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0.80796</v>
+        <v>0.34951</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.4286366213915852</v>
-      </c>
-      <c r="S13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" s="3" t="n">
-        <v>1</v>
+        <v>0.4349522858689475</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>0.9477432296890672</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>0.9799398194583752</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.6229877857813969</v>
+        <v>0.3940181647353586</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>0.8698089570936423</v>
+        <v>0.644910742248669</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.307197717007175</v>
+        <v>0.3072334740467725</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.8457499999999999</v>
+        <v>0.5896785714285715</v>
       </c>
       <c r="Y13" s="2" t="n">
-        <v>0.7547393364928909</v>
+        <v>0.756872037914692</v>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>0.648285137861466</v>
+        <v>0.3800605245460659</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>0.9305839400834288</v>
+        <v>0.8743393906507683</v>
       </c>
       <c r="AB13" s="2" t="n">
-        <v>0.9422828541658839</v>
+        <v>0.8874950508866897</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>0.67599</v>
+        <v>0.26117</v>
       </c>
       <c r="AD13" s="2" t="n">
-        <v>0.41118</v>
+        <v>0.05506</v>
       </c>
       <c r="AE13" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.16216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>OrdalieTech/Solon-embeddings-large-0.1</t>
+          <t>camembert/camembert-base</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.799935484366653</v>
+        <v>0.5486423488745364</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.239541362584812</v>
+        <v>0.1350952753315698</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.8694952864886114</v>
+        <v>0.04331694082788507</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.4563006463136968</v>
+        <v>0.4398103174841825</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.3086339630962708</v>
+        <v>0.2665670855775651</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.767437746873382</v>
+        <v>0.5368307592304911</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.712878278412912</v>
+        <v>0.3948554135843981</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.30074</v>
+        <v>0.02022</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.6018934804753497</v>
+        <v>0.521089966496604</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.42094</v>
+        <v>0.29814</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.7222761824335505</v>
+        <v>0.2556621635909326</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0.6310932448320445</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>0.8330552085410882</v>
+        <v>0.5423893147384338</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>0.6107432321823179</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0.4327314328859869</v>
+        <v>0.2663399835756784</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>0.373886875609376</v>
+        <v>0.2918804706562174</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0.84605</v>
+        <v>0.05799</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.42750019998425</v>
-      </c>
-      <c r="S14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T14" s="3" t="n">
-        <v>1</v>
+        <v>0.4060210180892428</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>0.2602264772347189</v>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>0.2515262419615453</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.6854995302223614</v>
+        <v>0.2861259004071406</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>0.8925148762918884</v>
+        <v>0.5839336047604134</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.2966081877466483</v>
+        <v>0.2963071602202985</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.8711666666666666</v>
+        <v>0.361670634920635</v>
       </c>
       <c r="Y14" s="2" t="n">
-        <v>0.7609004739336493</v>
+        <v>0.6561611374407583</v>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>0.6736381977135171</v>
+        <v>0.3095158036314727</v>
       </c>
       <c r="AA14" s="2" t="n">
-        <v>0.9401979957812989</v>
+        <v>0.8342726180422799</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>0.952291317855892</v>
+        <v>0.8601987158204568</v>
       </c>
       <c r="AC14" s="2" t="n">
-        <v>0.70221</v>
+        <v>0.19922</v>
       </c>
       <c r="AD14" s="2" t="n">
-        <v>0.46942</v>
+        <v>0.00235</v>
       </c>
       <c r="AE14" s="2" t="n">
-        <v>0.57658</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Wissam42/sentence-croissant-llm-base</t>
+          <t>camembert/camembert-large</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.7922738680429985</v>
+        <v>0.6183576200859585</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.2340128867212198</v>
+        <v>0.1838664804452286</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.7371911997949699</v>
+        <v>0.05998688454697069</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.5394435157885373</v>
+        <v>0.4213366020734207</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.4105178984993857</v>
+        <v>0.3335790002411184</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0.6960017257463582</v>
+        <v>0.5880208439406661</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.6528581035642234</v>
+        <v>0.4633490248823134</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.21309</v>
+        <v>0.03552</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.6313386879959426</v>
+        <v>0.5228462246810233</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.34792</v>
+        <v>0.31168</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.5675487985583264</v>
+        <v>0.3293934606539791</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.6411669265073395</v>
+        <v>0.592712061687221</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>0.7877222611897307</v>
+        <v>0.5725762796846933</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>0.3391299056452157</v>
+        <v>0.351462769915096</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>0.325236731994226</v>
+        <v>0.3424503121580777</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0.74197</v>
+        <v>0.17539</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.429413226398757</v>
-      </c>
-      <c r="S15" s="3" t="n">
-        <v>1</v>
+        <v>0.4408218038488301</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>0.4013712370627894</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.3161171999727407</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.6312245537112433</v>
+        <v>0.4249608518634513</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>0.855214531788287</v>
+        <v>0.6839336047604134</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.2904259923005852</v>
+        <v>0.2797711620509544</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.779595238095238</v>
+        <v>0.3578185425685426</v>
       </c>
       <c r="Y15" s="2" t="n">
-        <v>0.7928909952606634</v>
+        <v>0.7061611374407584</v>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>0.5940820443846672</v>
+        <v>0.3620376597175521</v>
       </c>
       <c r="AA15" s="2" t="n">
-        <v>0.9141910841619804</v>
+        <v>0.7663262539483096</v>
       </c>
       <c r="AB15" s="2" t="n">
-        <v>0.9261526052336004</v>
+        <v>0.797210507122408</v>
       </c>
       <c r="AC15" s="2" t="n">
-        <v>0.58573</v>
+        <v>0.20472</v>
       </c>
       <c r="AD15" s="2" t="n">
-        <v>0.29969</v>
+        <v>0.01968</v>
       </c>
       <c r="AE15" s="2" t="n">
-        <v>0.52252</v>
+        <v>0.009010000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>bert-base-multilingual-cased</t>
+          <t>dangvantuan/sentence-camembert-base</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.5224722935490146</v>
+        <v>0.8163901919126012</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.2080755658975593</v>
+        <v>0.2021549178618914</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2996061329422579</v>
+        <v>0.3606737729832072</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.3603382429363983</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.3076503346423071</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.5874812845368886</v>
+        <v>0.7417817544381963</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.4446536650975118</v>
+        <v>0.6127774041694687</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.13357</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.5339388951464616</v>
+        <v>0.5743705197496742</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.29394</v>
+        <v>0.36026</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.3178385313302001</v>
+        <v>0.5834449233135185</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.5149653756008361</v>
+        <v>0.5909203102484407</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>0.3904525758557057</v>
+        <v>0.7753949779251178</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0.3179683201467264</v>
+        <v>0.2705338909472246</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0.4305645671675891</v>
+        <v>0.389167691440152</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.68618</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.4090371994645377</v>
+        <v>0.3597635372718684</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.8975927783350049</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.9007021063189569</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.3783589101158785</v>
+        <v>0.4343877231443783</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>0.6361102411525212</v>
+        <v>0.7710303789539619</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.2880779587217142</v>
+        <v>0.2877116932900191</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.4340515873015873</v>
+        <v>0.7372738095238095</v>
       </c>
       <c r="Y16" s="2" t="n">
-        <v>0.6400473933649289</v>
+        <v>0.7035545023696683</v>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>0.3729993275050437</v>
+        <v>0.5159381304640215</v>
       </c>
       <c r="AA16" s="2" t="n">
-        <v>0.8677048159592717</v>
+        <v>0.9205083560505066</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0.8722976958382189</v>
+        <v>0.9328066173124074</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>0.1849</v>
+        <v>0.57916</v>
       </c>
       <c r="AD16" s="2" t="n">
-        <v>0.01626</v>
+        <v>0.21938</v>
       </c>
       <c r="AE16" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.39189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>bert-base-multilingual-uncased</t>
+          <t>embed-multilingual-light-v3.0</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.5497353309633939</v>
+        <v>0.7648019211186484</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.2089820298983429</v>
+        <v>0.1731069266684963</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3559984760058366</v>
+        <v>0.6631613175502583</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.4971340561526633</v>
+        <v>0.5680686305484748</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.422255814870678</v>
+        <v>0.294063089090014</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.5826449144443914</v>
+        <v>0.7550483099806141</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.4363147276395427</v>
+        <v>0.5949562878278413</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.02872</v>
+        <v>0.23004</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.5322360899538218</v>
+        <v>0.5731728148121378</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.29024</v>
+        <v>0.386</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.3277262979995819</v>
+        <v>0.7022205799056065</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.6066148200885675</v>
+        <v>0.6195997777996813</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0.5647457412587442</v>
+        <v>0.8279714502136332</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>0.3098774275886452</v>
+        <v>0.3272447200966951</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>0.3505397363641355</v>
+        <v>0.3135667338652056</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0.34951</v>
+        <v>0.7688199999999999</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.4349522858689475</v>
-      </c>
-      <c r="S17" s="2" t="n">
-        <v>0.9477432296890672</v>
+        <v>0.4279854786876686</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0.9799398194583752</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.3940181647353586</v>
+        <v>0.5000626370184779</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>0.644910742248669</v>
+        <v>0.8079235828374569</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.3072334740467725</v>
+        <v>0.314006702294</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.5896785714285715</v>
+        <v>0.8196666666666665</v>
       </c>
       <c r="Y17" s="2" t="n">
-        <v>0.756872037914692</v>
+        <v>0.8258293838862558</v>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>0.3800605245460659</v>
+        <v>0.5631136516476126</v>
       </c>
       <c r="AA17" s="2" t="n">
-        <v>0.8743393906507683</v>
+        <v>0.9091625445064609</v>
       </c>
       <c r="AB17" s="2" t="n">
-        <v>0.8874950508866897</v>
+        <v>0.9209596025105193</v>
       </c>
       <c r="AC17" s="2" t="n">
-        <v>0.26117</v>
+        <v>0.45227</v>
       </c>
       <c r="AD17" s="2" t="n">
-        <v>0.05506</v>
+        <v>0.35394</v>
       </c>
       <c r="AE17" s="2" t="n">
-        <v>0.16216</v>
+        <v>0.51802</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>camembert/camembert-base</t>
+          <t>embed-multilingual-v3.0</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.5486423488745364</v>
+        <v>0.8184387078760932</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.1350952753315698</v>
+        <v>0.1990356735257148</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.04331694082788507</v>
+        <v>0.8308540836724554</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.4398103174841825</v>
+        <v>0.5318379498672176</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.2665670855775651</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0.5368307592304911</v>
+        <v>0.3230998225707994</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0.7923250123076204</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.3948554135843981</v>
+        <v>0.6729320780094149</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.02022</v>
+        <v>0.25437</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.521089966496604</v>
+        <v>0.6125533530469982</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.29814</v>
+        <v>0.41892</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.2556621635909326</v>
+        <v>0.7366250957261234</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0.5423893147384338</v>
+        <v>0.6352561566282294</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>0.6107432321823179</v>
+        <v>0.8276336405644232</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0.2663399835756784</v>
+        <v>0.347527142956374</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>0.2918804706562174</v>
+        <v>0.361759185577996</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0.05799</v>
+        <v>0.79269</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.4060210180892428</v>
-      </c>
-      <c r="S18" s="2" t="n">
-        <v>0.2602264772347189</v>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>0.2515262419615453</v>
+        <v>0.4508360325363872</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.2861259004071406</v>
+        <v>0.6107422486689634</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>0.5839336047604134</v>
+        <v>0.8622925148762919</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.2963071602202985</v>
+        <v>0.3126400952397324</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.361670634920635</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>0.6561611374407583</v>
+        <v>0.8365833333333333</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>0.830568720379147</v>
       </c>
       <c r="Z18" s="2" t="n">
-        <v>0.3095158036314727</v>
+        <v>0.629388029589778</v>
       </c>
       <c r="AA18" s="2" t="n">
-        <v>0.8342726180422799</v>
+        <v>0.940778214081015</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>0.8601987158204568</v>
+        <v>0.9503580631772154</v>
       </c>
       <c r="AC18" s="2" t="n">
-        <v>0.19922</v>
+        <v>0.58873</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>0.00235</v>
+        <v>0.38361</v>
       </c>
       <c r="AE18" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.44144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>camembert/camembert-large</t>
+          <t>flaubert/flaubert_base_cased</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.6183576200859585</v>
+        <v>0.3713955104980419</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.1838664804452286</v>
+        <v>0.03854581426819014</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.05998688454697069</v>
+        <v>0.01979442433142667</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.4213366020734207</v>
+        <v>0.4161016174685461</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.3335790002411184</v>
+        <v>0.2126096885689954</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.5880208439406661</v>
+        <v>0.5386168675726091</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.4633490248823134</v>
+        <v>0.1140551445864156</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.03552</v>
+        <v>0.00579</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.5228462246810233</v>
+        <v>0.5189063823329726</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.31168</v>
+        <v>0.24904</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.3293934606539791</v>
+        <v>0.2920875344017915</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.592712061687221</v>
+        <v>0.5285934835529511</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>0.5725762796846933</v>
+        <v>0.6536672090843911</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>0.351462769915096</v>
+        <v>0.171305846850958</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>0.3424503121580777</v>
+        <v>0.1445975007371924</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0.17539</v>
+        <v>0.20562</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.4408218038488301</v>
+        <v>0.3905601625969005</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0.4013712370627894</v>
+        <v>0.3091099858805599</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0.3161171999727407</v>
+        <v>0.3585084545943069</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.4249608518634513</v>
+        <v>0.09492640150328843</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>0.6839336047604134</v>
+        <v>0.2554963983714375</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.2797711620509544</v>
+        <v>0.312594655829165</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.3578185425685426</v>
+        <v>0.427472582972583</v>
       </c>
       <c r="Y19" s="2" t="n">
-        <v>0.7061611374407584</v>
+        <v>0.7113744075829384</v>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>0.3620376597175521</v>
+        <v>0.06980497646267654</v>
       </c>
       <c r="AA19" s="2" t="n">
-        <v>0.7663262539483096</v>
+        <v>0.8214541028748449</v>
       </c>
       <c r="AB19" s="2" t="n">
-        <v>0.797210507122408</v>
+        <v>0.8372010738024828</v>
       </c>
       <c r="AC19" s="2" t="n">
-        <v>0.20472</v>
+        <v>0.06587999999999999</v>
       </c>
       <c r="AD19" s="2" t="n">
-        <v>0.01968</v>
+        <v>0.01628</v>
       </c>
       <c r="AE19" s="2" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.02252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>dangvantuan/sentence-camembert-base</t>
+          <t>flaubert/flaubert_base_uncased</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.8163901919126012</v>
+        <v>0.3340826064580523</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.2021549178618914</v>
+        <v>0.01795603069453415</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3606737729832072</v>
+        <v>0.02985745352493187</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.3603382429363983</v>
+        <v>0.2849343428327477</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0.3076503346423071</v>
+        <v>0.2257882491180909</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.7417817544381963</v>
+        <v>0.4190237966349758</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.6127774041694687</v>
+        <v>0.1098184263618023</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.13357</v>
+        <v>0.00508</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.5743705197496742</v>
+        <v>0.5277777608306072</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.36026</v>
+        <v>0.23518</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.5834449233135185</v>
+        <v>0.2990165728874674</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.5909203102484407</v>
+        <v>0.4320222924608445</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>0.7753949779251178</v>
+        <v>0.5515047105823337</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0.2705338909472246</v>
+        <v>0.1489756017869693</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>0.389167691440152</v>
+        <v>0.1293857445009916</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0.68618</v>
+        <v>0.22333</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.3597635372718684</v>
+        <v>0.3322371189429822</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0.8975927783350049</v>
+        <v>0.2537073113561774</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>0.9007021063189569</v>
+        <v>0.08098894058162567</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.4343877231443783</v>
+        <v>0.08609458189790167</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>0.7710303789539619</v>
+        <v>0.2774193548387097</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.2877116932900191</v>
+        <v>0.2942790176376187</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.7372738095238095</v>
+        <v>0.4900678210678211</v>
       </c>
       <c r="Y20" s="2" t="n">
-        <v>0.7035545023696683</v>
+        <v>0.6260663507109006</v>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>0.5159381304640215</v>
+        <v>0.06237390719569604</v>
       </c>
       <c r="AA20" s="2" t="n">
-        <v>0.9205083560505066</v>
+        <v>0.8199594649342907</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>0.9328066173124074</v>
+        <v>0.8371300542205431</v>
       </c>
       <c r="AC20" s="2" t="n">
-        <v>0.57916</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>0.21938</v>
+        <v>0.01719</v>
       </c>
       <c r="AE20" s="2" t="n">
-        <v>0.39189</v>
+        <v>0.02703</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>dangvantuan/sentence-camembert-large</t>
+          <t>flaubert/flaubert_large_cased</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.8578534328308375</v>
+        <v>0.1565944995632818</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.2390369822485666</v>
+        <v>0.05262528089639844</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.6783115045819693</v>
+        <v>0.009125460760132157</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.5450656885773288</v>
+        <v>0.2642955329593683</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.4473220244132624</v>
+        <v>0.2467651379532248</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.7769676247221875</v>
+        <v>0.3460428228637162</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.6929051782111635</v>
+        <v>0.2271687962340282</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.21871</v>
+        <v>0.00263</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.5958886792690583</v>
+        <v>0.5413772297820212</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.3797</v>
+        <v>0.22446</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.6232895404009673</v>
+        <v>0.293477014607151</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.6268796577838202</v>
+        <v>0.4085073955515567</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0.8172944501533574</v>
+        <v>0.4852164892537546</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>0.3229405651242595</v>
+        <v>0.1871270130969609</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0.4206075946482793</v>
+        <v>0.217556103036172</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0.8111</v>
+        <v>0.01578</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.420359585982358</v>
+        <v>0.3809040459534752</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0.9946506185222335</v>
+        <v>0.1491870638833542</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.995987963891675</v>
+        <v>0.1739429979680737</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.5861572189163796</v>
+        <v>0.09790165988098966</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>0.8573755089257752</v>
+        <v>0.2426558095834638</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.3088268637624669</v>
+        <v>0.2924968054601468</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.848345238095238</v>
+        <v>0.3206645021645022</v>
       </c>
       <c r="Y21" s="2" t="n">
-        <v>0.8061611374407583</v>
+        <v>0.5563981042654029</v>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>0.6265299260255548</v>
+        <v>0.1641223940820444</v>
       </c>
       <c r="AA21" s="2" t="n">
-        <v>0.9462760751835194</v>
+        <v>0.7477882434061929</v>
       </c>
       <c r="AB21" s="2" t="n">
-        <v>0.9525375018810192</v>
+        <v>0.7644139372682293</v>
       </c>
       <c r="AC21" s="2" t="n">
-        <v>0.65623</v>
+        <v>0.03694</v>
       </c>
       <c r="AD21" s="2" t="n">
-        <v>0.31623</v>
+        <v>0.0058</v>
       </c>
       <c r="AE21" s="2" t="n">
-        <v>0.56757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>distilbert-base-uncased</t>
+          <t>intfloat/e5-mistral-7b-instruct</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.4602440842999612</v>
+        <v>0.8258035914230101</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.1223708659659341</v>
+        <v>0.2703784312414779</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.009654559268801278</v>
+        <v>0.8537682572781737</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.2280827796748879</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0.3072061278544836</v>
+        <v>0.3774396036145243</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.6506715922995265</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.5546828187668631</v>
+        <v>0.7914808164798864</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.2808338937457969</v>
+        <v>0.6982515131136517</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.00583</v>
+        <v>0.48849</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.5193426436605626</v>
+        <v>0.6008082215984939</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.2541</v>
+        <v>0.44124</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.2832650180596683</v>
+        <v>0.7435294651132076</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0.3654854742123225</v>
+        <v>0.6372358432087271</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>0.1554865823093162</v>
+        <v>0.756267198771491</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0.243012339178737</v>
-      </c>
-      <c r="P22" s="2" t="n">
-        <v>0.2581130737375776</v>
+        <v>0.4441451479416692</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>0.5813416598329056</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0.08987000000000001</v>
+        <v>0.83433</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.3194912583149639</v>
-      </c>
-      <c r="S22" s="2" t="n">
-        <v>0.04620745118237596</v>
-      </c>
-      <c r="T22" s="2" t="n">
-        <v>0.06596709425391827</v>
+        <v>0.4532798369950647</v>
+      </c>
+      <c r="S22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.2053867835891012</v>
+        <v>0.5298465393047291</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>0.4403695584090198</v>
+        <v>0.8202630754776072</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.3109262244283785</v>
+        <v>0.3120032624874787</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.3513737373737374</v>
+        <v>0.9000952380952382</v>
       </c>
       <c r="Y22" s="2" t="n">
-        <v>0.5507109004739337</v>
+        <v>0.7495260663507108</v>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>0.2076664425016812</v>
+        <v>0.59862138533961</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>0.8407210207396341</v>
+        <v>0.9199728356434089</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>0.85575055590875</v>
+        <v>0.9395017624590254</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0.17744</v>
+        <v>0.63403</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.45024</v>
       </c>
       <c r="AE22" s="2" t="n">
-        <v>0.01802</v>
+        <v>0.64414</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>embed-multilingual-light-v3.0</t>
+          <t>intfloat/multilingual-e5-base</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.7648019211186484</v>
+        <v>0.8061987894341297</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.1731069266684963</v>
+        <v>0.224815183324348</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.6631613175502583</v>
+        <v>0.8469805121423075</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.5680686305484748</v>
+        <v>0.4790955603113446</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.294063089090014</v>
+        <v>0.511613591091413</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.7550483099806141</v>
+        <v>0.7622741775011176</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.5949562878278413</v>
+        <v>0.6648621385339609</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.23004</v>
+        <v>0.23459</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.5731728148121378</v>
+        <v>0.5693001208081843</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.386</v>
+        <v>0.40944</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.7022205799056065</v>
+        <v>0.666692811769824</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0.6195997777996813</v>
+        <v>0.6208902532272975</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>0.8279714502136332</v>
+        <v>0.7812983399916396</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>0.3272447200966951</v>
+        <v>0.3852856167447359</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>0.3135667338652056</v>
+        <v>0.3298420160973169</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0.7688199999999999</v>
+        <v>0.8048999999999999</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.4279854786876686</v>
+        <v>0.4347744902667021</v>
       </c>
       <c r="S23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.5000626370184779</v>
+        <v>0.5550892577513311</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>0.8079235828374569</v>
+        <v>0.8478546821171312</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.314006702294</v>
+        <v>0.3076006060850825</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8196666666666665</v>
+        <v>0.8293333333333333</v>
       </c>
       <c r="Y23" s="2" t="n">
-        <v>0.8258293838862558</v>
+        <v>0.7969194312796208</v>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>0.5631136516476126</v>
+        <v>0.6083389374579691</v>
       </c>
       <c r="AA23" s="2" t="n">
-        <v>0.9091625445064609</v>
+        <v>0.9271872509880947</v>
       </c>
       <c r="AB23" s="2" t="n">
-        <v>0.9209596025105193</v>
+        <v>0.9388089167367641</v>
       </c>
       <c r="AC23" s="2" t="n">
-        <v>0.45227</v>
+        <v>0.65813</v>
       </c>
       <c r="AD23" s="2" t="n">
-        <v>0.35394</v>
+        <v>0.36213</v>
       </c>
       <c r="AE23" s="2" t="n">
-        <v>0.51802</v>
+        <v>0.5315299999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>embed-multilingual-v3.0</t>
+          <t>intfloat/multilingual-e5-large</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.8184387078760932</v>
+        <v>0.825331305991469</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.1990356735257148</v>
+        <v>0.224385340783431</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.8308540836724554</v>
+        <v>0.848343389001009</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.5318379498672176</v>
+        <v>0.4094051717864892</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.3230998225707994</v>
-      </c>
-      <c r="G24" s="3" t="n">
-        <v>0.7923250123076204</v>
+        <v>0.3056417709980992</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>0.7877953920342992</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.6729320780094149</v>
+        <v>0.6814727639542704</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.25437</v>
+        <v>0.25198</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.6125533530469982</v>
+        <v>0.5850354286368129</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.41892</v>
+        <v>0.41906</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.7366250957261234</v>
+        <v>0.6938624729293177</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.6352561566282294</v>
+        <v>0.6299441060729347</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0.8276336405644232</v>
+        <v>0.7959570636221113</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0.347527142956374</v>
+        <v>0.3764790754795183</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>0.361759185577996</v>
+        <v>0.3226490465285985</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0.79269</v>
+        <v>0.81073</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.4508360325363872</v>
+        <v>0.4403584780733176</v>
       </c>
       <c r="S24" s="3" t="n">
         <v>1</v>
@@ -2752,386 +2752,386 @@
         <v>1</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.6107422486689634</v>
+        <v>0.5943000313185093</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>0.8622925148762919</v>
+        <v>0.8640776699029127</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.3126400952397324</v>
+        <v>0.3091960914950717</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8365833333333333</v>
-      </c>
-      <c r="Y24" s="3" t="n">
-        <v>0.830568720379147</v>
+        <v>0.8286666666666666</v>
+      </c>
+      <c r="Y24" s="2" t="n">
+        <v>0.7938388625592416</v>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>0.629388029589778</v>
+        <v>0.6354741089441829</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>0.940778214081015</v>
+        <v>0.938913502641856</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0.9503580631772154</v>
+        <v>0.9484999717971343</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0.58873</v>
+        <v>0.66152</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>0.38361</v>
+        <v>0.38155</v>
       </c>
       <c r="AE24" s="2" t="n">
-        <v>0.44144</v>
+        <v>0.59459</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>flaubert/flaubert_base_cased</t>
+          <t>intfloat/multilingual-e5-small</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.3713955104980419</v>
+        <v>0.7932089325677624</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.03854581426819014</v>
+        <v>0.1895146766129994</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.01979442433142667</v>
+        <v>0.8191820946779194</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.4161016174685461</v>
+        <v>0.4012052586909949</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.2126096885689954</v>
+        <v>0.3922138626257822</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.5386168675726091</v>
+        <v>0.7561918985563969</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.1140551445864156</v>
+        <v>0.6141896435776732</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.00579</v>
+        <v>0.22532</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.5189063823329726</v>
+        <v>0.5567655997101544</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.24904</v>
+        <v>0.39678</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.2920875344017915</v>
+        <v>0.6527671789828227</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0.5285934835529511</v>
+        <v>0.6088563017856842</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>0.6536672090843911</v>
+        <v>0.7961730402830817</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>0.171305846850958</v>
+        <v>0.3760912295232594</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>0.1445975007371924</v>
+        <v>0.3252159090813198</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0.20562</v>
+        <v>0.75757</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.3905601625969005</v>
-      </c>
-      <c r="S25" s="2" t="n">
-        <v>0.3091099858805599</v>
-      </c>
-      <c r="T25" s="2" t="n">
-        <v>0.3585084545943069</v>
+        <v>0.4319898481643542</v>
+      </c>
+      <c r="S25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.09492640150328843</v>
+        <v>0.4600689007203257</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>0.2554963983714375</v>
-      </c>
-      <c r="W25" s="2" t="n">
-        <v>0.312594655829165</v>
+        <v>0.8119636705292829</v>
+      </c>
+      <c r="W25" s="3" t="n">
+        <v>0.3184904693517336</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.427472582972583</v>
+        <v>0.8181666666666665</v>
       </c>
       <c r="Y25" s="2" t="n">
-        <v>0.7113744075829384</v>
+        <v>0.7765402843601896</v>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>0.06980497646267654</v>
+        <v>0.5596839273705447</v>
       </c>
       <c r="AA25" s="2" t="n">
-        <v>0.8214541028748449</v>
+        <v>0.9251631850374396</v>
       </c>
       <c r="AB25" s="2" t="n">
-        <v>0.8372010738024828</v>
+        <v>0.9361314066710414</v>
       </c>
       <c r="AC25" s="2" t="n">
-        <v>0.06587999999999999</v>
+        <v>0.57468</v>
       </c>
       <c r="AD25" s="2" t="n">
-        <v>0.01628</v>
+        <v>0.27011</v>
       </c>
       <c r="AE25" s="2" t="n">
-        <v>0.02252</v>
+        <v>0.51802</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>flaubert/flaubert_base_uncased</t>
+          <t>izhx/udever-bloom-1b1</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.3340826064580523</v>
+        <v>0.4997294509449677</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.01795603069453415</v>
+        <v>0.1386308009277809</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.02985745352493187</v>
+        <v>0.02960398393820522</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.2849343428327477</v>
+        <v>0.4020146637093098</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.2257882491180909</v>
+        <v>0.2734727715023461</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.4190237966349758</v>
+        <v>0.5994249043712252</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.1098184263618023</v>
+        <v>0.4978143913920645</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.00508</v>
+        <v>0.02784</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.5277777608306072</v>
+        <v>0.6199445797185625</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.23518</v>
+        <v>0.35122</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.2990165728874674</v>
+        <v>0.3861486557235695</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0.4320222924608445</v>
+        <v>0.6222399442609416</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0.5515047105823337</v>
+        <v>0.7710422175271007</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0.1489756017869693</v>
+        <v>0.3046596247823246</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>0.1293857445009916</v>
+        <v>0.2705660566063521</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0.22333</v>
+        <v>0.40572</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.3322371189429822</v>
+        <v>0.4411463190530258</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0.2537073113561774</v>
+        <v>0.7507920742612434</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>0.08098894058162567</v>
+        <v>0.7753324186122581</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.08609458189790167</v>
+        <v>0.5124960851863452</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>0.2774193548387097</v>
+        <v>0.6924209207641716</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.2942790176376187</v>
+        <v>0.2947773908643301</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.4900678210678211</v>
+        <v>0.4799292929292929</v>
       </c>
       <c r="Y26" s="2" t="n">
-        <v>0.6260663507109006</v>
+        <v>0.8082938388625592</v>
       </c>
       <c r="Z26" s="2" t="n">
-        <v>0.06237390719569604</v>
+        <v>0.4321116341627437</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>0.8199594649342907</v>
+        <v>0.8553994259572022</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>0.8371300542205431</v>
+        <v>0.8699512931793678</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.33816</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>0.01719</v>
+        <v>0.12368</v>
       </c>
       <c r="AE26" s="2" t="n">
-        <v>0.02703</v>
+        <v>0.32432</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>flaubert/flaubert_large_cased</t>
+          <t>izhx/udever-bloom-560m</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.1565944995632818</v>
+        <v>0.367797062871304</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.05262528089639844</v>
+        <v>0.07676232398725595</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.009125460760132157</v>
+        <v>0.08123300931367383</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.2642955329593683</v>
+        <v>0.3756989794785178</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0.2467651379532248</v>
+        <v>0.2057636370254607</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>0.3460428228637162</v>
+        <v>0.5454151151439361</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.2271687962340282</v>
+        <v>0.2167451244115669</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.00263</v>
+        <v>0.00478</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.5413772297820212</v>
+        <v>0.5968876661366747</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.22446</v>
+        <v>0.2685</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.293477014607151</v>
+        <v>0.3071196838846439</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0.4085073955515567</v>
+        <v>0.5356669323782933</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>0.4852164892537546</v>
+        <v>0.6134778039151253</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>0.1871270130969609</v>
+        <v>0.252602955617548</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>0.217556103036172</v>
+        <v>0.2213080649584274</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0.01578</v>
+        <v>0.24447</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.3809040459534752</v>
+        <v>0.3643378561194323</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0.1491870638833542</v>
+        <v>0.4982878074063394</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>0.1739429979680737</v>
+        <v>0.3735697737011764</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.09790165988098966</v>
+        <v>0.1575634199812089</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>0.2426558095834638</v>
+        <v>0.3498590667084247</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.2924968054601468</v>
+        <v>0.236335996838468</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.3206645021645022</v>
+        <v>0.4720992063492064</v>
       </c>
       <c r="Y27" s="2" t="n">
-        <v>0.5563981042654029</v>
+        <v>0.6793838862559242</v>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>0.1641223940820444</v>
+        <v>0.1509078681909886</v>
       </c>
       <c r="AA27" s="2" t="n">
-        <v>0.7477882434061929</v>
+        <v>0.821028497835868</v>
       </c>
       <c r="AB27" s="2" t="n">
-        <v>0.7644139372682293</v>
+        <v>0.8387532049805303</v>
       </c>
       <c r="AC27" s="2" t="n">
-        <v>0.03694</v>
+        <v>0.12977</v>
       </c>
       <c r="AD27" s="2" t="n">
-        <v>0.0058</v>
+        <v>0.01977</v>
       </c>
       <c r="AE27" s="2" t="n">
-        <v>0</v>
+        <v>0.06306</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>intfloat/e5-mistral-7b-instruct</t>
+          <t>laser2</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.8258035914230101</v>
+        <v>0.698190921587828</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.2703784312414779</v>
+        <v>0.1152462522943653</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.8537682572781737</v>
+        <v>0.8592414264387124</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.3774396036145243</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>0.6506715922995265</v>
+        <v>0.3204069399698778</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0.2977201517756452</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.7914808164798864</v>
+        <v>0.6495173425879137</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.6982515131136517</v>
+        <v>0.5855749831876261</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.48849</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.6008082215984939</v>
+        <v>0.06314</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>0.6952503411108341</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0.44124</v>
+        <v>0.3389</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.7435294651132076</v>
+        <v>0.3949722119087398</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0.6372358432087271</v>
+        <v>0.4844987065316271</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>0.756267198771491</v>
+        <v>0.6526537801367611</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0.4441451479416692</v>
-      </c>
-      <c r="P28" s="3" t="n">
-        <v>0.5813416598329056</v>
+        <v>0.2734632035175874</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>0.2581005978931367</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0.83433</v>
+        <v>0.28578</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.4532798369950647</v>
+        <v>0.3452771955734939</v>
       </c>
       <c r="S28" s="3" t="n">
         <v>1</v>
@@ -3140,131 +3140,131 @@
         <v>1</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.5298465393047291</v>
+        <v>0.5677106169746321</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>0.8202630754776072</v>
+        <v>0.7615408706545569</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.3120032624874787</v>
+        <v>0.3156475744412745</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.9000952380952382</v>
+        <v>0.4901031746031747</v>
       </c>
       <c r="Y28" s="2" t="n">
-        <v>0.7495260663507108</v>
+        <v>0.659004739336493</v>
       </c>
       <c r="Z28" s="2" t="n">
-        <v>0.59862138533961</v>
+        <v>0.5255548083389374</v>
       </c>
       <c r="AA28" s="2" t="n">
-        <v>0.9199728356434089</v>
+        <v>0.9376676402095003</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>0.9395017624590254</v>
+        <v>0.9461924042044693</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0.63403</v>
+        <v>0.42589</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>0.45024</v>
+        <v>0.03097</v>
       </c>
       <c r="AE28" s="2" t="n">
-        <v>0.64414</v>
+        <v>0.08108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>intfloat/multilingual-e5-base</t>
+          <t>manu/bge-m3-custom-fr</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.8061987894341297</v>
+        <v>0.8130363449669112</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.224815183324348</v>
+        <v>0.2426017909651959</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.8469805121423075</v>
+        <v>0.8278011992260426</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.4790955603113446</v>
+        <v>0.292272082926912</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0.511613591091413</v>
+        <v>0.4157909770352988</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.7622741775011176</v>
+        <v>0.7550779819674533</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.6648621385339609</v>
+        <v>0.7456960322797579</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.23459</v>
+        <v>0.25173</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.5693001208081843</v>
+        <v>0.6094421871363481</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>0.40944</v>
+        <v>0.42324</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0.666692811769824</v>
+        <v>0.7368891701668482</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>0.6208902532272975</v>
+        <v>0.5757878622622551</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>0.7812983399916396</v>
+        <v>0.8190001119887127</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>0.3852856167447359</v>
+        <v>0.4243781497829743</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>0.3298420160973169</v>
+        <v>0.3944229454079622</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.79145</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.4347744902667021</v>
-      </c>
-      <c r="S29" s="3" t="n">
+        <v>0.4214163246845126</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="T29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T29" s="2" t="n">
-        <v>0.9986626546305583</v>
-      </c>
       <c r="U29" s="2" t="n">
-        <v>0.5550892577513311</v>
+        <v>0.6082054494206075</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>0.8478546821171312</v>
+        <v>0.903883495145631</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.3076006060850825</v>
+        <v>0.3005908023438207</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.8293333333333333</v>
+        <v>0.845873015873016</v>
       </c>
       <c r="Y29" s="2" t="n">
-        <v>0.7969194312796208</v>
+        <v>0.7023696682464454</v>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>0.6083389374579691</v>
+        <v>0.6669468728984532</v>
       </c>
       <c r="AA29" s="2" t="n">
-        <v>0.9271872509880947</v>
+        <v>0.9333973385767004</v>
       </c>
       <c r="AB29" s="2" t="n">
-        <v>0.9388089167367641</v>
+        <v>0.944701727209905</v>
       </c>
       <c r="AC29" s="2" t="n">
-        <v>0.65813</v>
+        <v>0.68492</v>
       </c>
       <c r="AD29" s="2" t="n">
-        <v>0.36213</v>
+        <v>0.44746</v>
       </c>
       <c r="AE29" s="2" t="n">
         <v>0.5315299999999999</v>
@@ -3273,2090 +3273,2094 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>intfloat/multilingual-e5-large</t>
+          <t>manu/sentence_croissant_alpha_v0.2</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.825331305991469</v>
+        <v>0.7262832939213406</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.224385340783431</v>
+        <v>0.2548325975781052</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.848343389001009</v>
+        <v>0.7490244473049233</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.4094051717864892</v>
+        <v>0.5574960450682011</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0.3056417709980992</v>
+        <v>0.3227666866562461</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.7877953920342992</v>
+        <v>0.6912509283105648</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.6814727639542704</v>
+        <v>0.7008406186953597</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.25198</v>
+        <v>0.26351</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.5850354286368129</v>
+        <v>0.668665650886613</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0.41906</v>
+        <v>0.38106</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.6938624729293177</v>
+        <v>0.7196818323283877</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0.6299441060729347</v>
+        <v>0.6224457184731559</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>0.7959570636221113</v>
+        <v>0.792794943790982</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0.3764790754795183</v>
+        <v>0.4438422214552257</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>0.3226490465285985</v>
+        <v>0.3796537550876475</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0.81073</v>
+        <v>0.7870200000000001</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.4403584780733176</v>
-      </c>
-      <c r="S30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" s="3" t="n">
-        <v>1</v>
+        <v>0.4460491760281284</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <v>0.9973253092611166</v>
+      </c>
+      <c r="T30" s="2" t="n">
+        <v>0.9986626546305583</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.5943000313185093</v>
+        <v>0.6147823363607892</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>0.8640776699029127</v>
+        <v>0.885812715314751</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.3091960914950717</v>
+        <v>0.2963260674606215</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.8286666666666666</v>
+        <v>0.8224285714285715</v>
       </c>
       <c r="Y30" s="2" t="n">
-        <v>0.7938388625592416</v>
+        <v>0.7552132701421801</v>
       </c>
       <c r="Z30" s="2" t="n">
-        <v>0.6354741089441829</v>
+        <v>0.6383658372562205</v>
       </c>
       <c r="AA30" s="2" t="n">
-        <v>0.938913502641856</v>
+        <v>0.9315589224053143</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>0.9484999717971343</v>
+        <v>0.93299242831188</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0.66152</v>
+        <v>0.61914</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>0.38155</v>
+        <v>0.45487</v>
       </c>
       <c r="AE30" s="2" t="n">
-        <v>0.59459</v>
+        <v>0.6036</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>intfloat/multilingual-e5-small</t>
+          <t>manu/sentence_croissant_alpha_v0.3</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.7932089325677624</v>
+        <v>0.7765803549830591</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.1895146766129994</v>
+        <v>0.2632047044833564</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.8191820946779194</v>
+        <v>0.7737718097451919</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.4012052586909949</v>
+        <v>0.5799405225219099</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>0.3922138626257822</v>
+        <v>0.3769405326971794</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.7561918985563969</v>
+        <v>0.719770122605619</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.6141896435776732</v>
+        <v>0.6986550100874244</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.22532</v>
+        <v>0.2965</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.5567655997101544</v>
+        <v>0.6542042805601268</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.39678</v>
+        <v>0.3631</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.6527671789828227</v>
+        <v>0.7364325943253973</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0.6088563017856842</v>
+        <v>0.6049889083017318</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>0.7961730402830817</v>
+        <v>0.8133791809403829</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>0.3760912295232594</v>
+        <v>0.4381914693719002</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>0.3252159090813198</v>
+        <v>0.4058550987695524</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0.75757</v>
+        <v>0.8033</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.4319898481643542</v>
-      </c>
-      <c r="S31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T31" s="3" t="n">
-        <v>1</v>
+        <v>0.4422111049954497</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="T31" s="2" t="n">
+        <v>0.9973253092611166</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.4600689007203257</v>
+        <v>0.592890698402756</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>0.8119636705292829</v>
-      </c>
-      <c r="W31" s="3" t="n">
-        <v>0.3184904693517336</v>
+        <v>0.8825555903538993</v>
+      </c>
+      <c r="W31" s="2" t="n">
+        <v>0.3099183622495067</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.8181666666666665</v>
+        <v>0.8217023809523809</v>
       </c>
       <c r="Y31" s="2" t="n">
-        <v>0.7765402843601896</v>
+        <v>0.75781990521327</v>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>0.5596839273705447</v>
+        <v>0.6489240080699393</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>0.9251631850374396</v>
+        <v>0.9346759444633187</v>
       </c>
       <c r="AB31" s="2" t="n">
-        <v>0.9361314066710414</v>
+        <v>0.9401873666553365</v>
       </c>
       <c r="AC31" s="2" t="n">
-        <v>0.57468</v>
+        <v>0.64217</v>
       </c>
       <c r="AD31" s="2" t="n">
-        <v>0.27011</v>
+        <v>0.49088</v>
       </c>
       <c r="AE31" s="2" t="n">
-        <v>0.51802</v>
+        <v>0.65766</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>izhx/udever-bloom-1b1</t>
+          <t>mistral-embed</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.4997294509449677</v>
+        <v>0.7972225305052291</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.1386308009277809</v>
+        <v>0.2617385576460144</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.02960398393820522</v>
+        <v>0.7486276019358121</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.4020146637093098</v>
+        <v>0.4812513474674608</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0.2734727715023461</v>
+        <v>0.3961706213267493</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>0.5994249043712252</v>
+        <v>0.7621241859440422</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.4978143913920645</v>
+        <v>0.6971418964357767</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.02784</v>
+        <v>0.21732</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.6199445797185625</v>
+        <v>0.6202390909948808</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.35122</v>
+        <v>0.41594</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.3861486557235695</v>
+        <v>0.7796140728300852</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.6222399442609416</v>
+        <v>0.6200673531656187</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0.7710422175271007</v>
+        <v>0.8274398153558601</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0.3046596247823246</v>
+        <v>0.427376128032198</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>0.2705660566063521</v>
+        <v>0.4919858181804794</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0.40572</v>
+        <v>0.7877</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.4411463190530258</v>
-      </c>
-      <c r="S32" s="2" t="n">
-        <v>0.7507920742612434</v>
+        <v>0.4527933950642883</v>
+      </c>
+      <c r="S32" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>0.7753324186122581</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.5124960851863452</v>
+        <v>0.6608831819605385</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>0.6924209207641716</v>
+        <v>0.9005010961478235</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.2947773908643301</v>
+        <v>0.3146953192338591</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.4799292929292929</v>
+        <v>0.8122619047619049</v>
       </c>
       <c r="Y32" s="2" t="n">
-        <v>0.8082938388625592</v>
+        <v>0.8139810426540285</v>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>0.4321116341627437</v>
+        <v>0.6283120376597177</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>0.8553994259572022</v>
+        <v>0.9261462822985623</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>0.8699512931793678</v>
+        <v>0.9390344015481578</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0.33816</v>
+        <v>0.74235</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>0.12368</v>
+        <v>0.56836</v>
       </c>
       <c r="AE32" s="2" t="n">
-        <v>0.32432</v>
+        <v>0.6756799999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>izhx/udever-bloom-560m</t>
+          <t>sentence-transformers/LaBSE</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.367797062871304</v>
+        <v>0.7509746606428888</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.07676232398725595</v>
+        <v>0.2061928108108767</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.08123300931367383</v>
+        <v>0.8754400001529438</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.3756989794785178</v>
+        <v>0.4615982853044859</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0.2057636370254607</v>
+        <v>0.3813297329222706</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0.5454151151439361</v>
+        <v>0.699399693283394</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.2167451244115669</v>
+        <v>0.6510423671822462</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.00478</v>
+        <v>0.15529</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.5968876661366747</v>
+        <v>0.5463098409665733</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.2685</v>
+        <v>0.3852399999999999</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.3071196838846439</v>
+        <v>0.5537476614602802</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.5356669323782933</v>
+        <v>0.5478373637265357</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>0.6134778039151253</v>
+        <v>0.779542837388368</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0.252602955617548</v>
+        <v>0.348364243914043</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>0.2213080649584274</v>
+        <v>0.316037738871091</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0.24447</v>
+        <v>0.55315</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.3643378561194323</v>
-      </c>
-      <c r="S33" s="2" t="n">
-        <v>0.4982878074063394</v>
-      </c>
-      <c r="T33" s="2" t="n">
-        <v>0.3735697737011764</v>
+        <v>0.4209325634914144</v>
+      </c>
+      <c r="S33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.1575634199812089</v>
+        <v>0.6201064829314126</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>0.3498590667084247</v>
+        <v>0.8413717507046664</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.236335996838468</v>
+        <v>0.301637456328485</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.4720992063492064</v>
+        <v>0.6762063492063493</v>
       </c>
       <c r="Y33" s="2" t="n">
-        <v>0.6793838862559242</v>
+        <v>0.7739336492890996</v>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>0.1509078681909886</v>
+        <v>0.6046738399462004</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>0.821028497835868</v>
+        <v>0.9395623291640002</v>
       </c>
       <c r="AB33" s="2" t="n">
-        <v>0.8387532049805303</v>
+        <v>0.9441484444599348</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>0.12977</v>
+        <v>0.51736</v>
       </c>
       <c r="AD33" s="2" t="n">
-        <v>0.01977</v>
+        <v>0.19775</v>
       </c>
       <c r="AE33" s="2" t="n">
-        <v>0.06306</v>
+        <v>0.22973</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>laser2</t>
+          <t>sentence-transformers/all-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.698190921587828</v>
+        <v>0.6667725575200975</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.1152462522943653</v>
+        <v>0.1957951528987704</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.8592414264387124</v>
+        <v>0.096967565885423</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.3204069399698778</v>
+        <v>0.4271872726070847</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.2977201517756452</v>
+        <v>0.3246835377100011</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>0.6495173425879137</v>
+        <v>0.6316238159087848</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.5855749831876261</v>
+        <v>0.537626092804304</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.06314</v>
-      </c>
-      <c r="J34" s="3" t="n">
-        <v>0.6952503411108341</v>
+        <v>0.16079</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>0.5552853885736202</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.3389</v>
+        <v>0.2754</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.3949722119087398</v>
+        <v>0.6701369640322303</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0.4844987065316271</v>
+        <v>0.4602594872664162</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>0.6526537801367611</v>
+        <v>0.6951402658537921</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0.2734632035175874</v>
+        <v>0.2929559187477989</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>0.2581005978931367</v>
+        <v>0.3182943689925971</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0.28578</v>
+        <v>0.608</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.3452771955734939</v>
-      </c>
-      <c r="S34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T34" s="3" t="n">
-        <v>1</v>
+        <v>0.3435218323840786</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>0.7091264534343772</v>
+      </c>
+      <c r="T34" s="2" t="n">
+        <v>0.6191113021604495</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.5677106169746321</v>
+        <v>0.3893830253679925</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>0.7615408706545569</v>
+        <v>0.7559348575007829</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.3156475744412745</v>
+        <v>0.2662863565868236</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.4901031746031747</v>
+        <v>0.6917023809523809</v>
       </c>
       <c r="Y34" s="2" t="n">
-        <v>0.659004739336493</v>
+        <v>0.7220379146919431</v>
       </c>
       <c r="Z34" s="2" t="n">
-        <v>0.5255548083389374</v>
+        <v>0.4481506388702085</v>
       </c>
       <c r="AA34" s="2" t="n">
-        <v>0.9376676402095003</v>
+        <v>0.8734880754144339</v>
       </c>
       <c r="AB34" s="2" t="n">
-        <v>0.9461924042044693</v>
+        <v>0.8779525332075913</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0.42589</v>
+        <v>0.55899</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>0.03097</v>
+        <v>0.33196</v>
       </c>
       <c r="AE34" s="2" t="n">
-        <v>0.08108</v>
+        <v>0.34234</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>manu/bge-m3-custom-fr</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.8130363449669112</v>
+        <v>0.6493028232792631</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.2426017909651959</v>
+        <v>0.1884080354213321</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.8278011992260426</v>
+        <v>0.03498878152491112</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.292272082926912</v>
+        <v>0.3492044210457986</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>0.4157909770352988</v>
+        <v>0.4057681708831091</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>0.7550779819674533</v>
+        <v>0.6248225654609475</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.7456960322797579</v>
+        <v>0.5115669132481506</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.25173</v>
+        <v>0.09195</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.6094421871363481</v>
+        <v>0.5539810428438392</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0.42324</v>
+        <v>0.2689800000000001</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.7368891701668482</v>
+        <v>0.6262172640988071</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0.5757878622622551</v>
+        <v>0.5183078853752063</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>0.8190001119887127</v>
+        <v>0.7700398643056744</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0.4243781497829743</v>
+        <v>0.2811790550911384</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>0.3944229454079622</v>
+        <v>0.3206588333216591</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0.79145</v>
+        <v>0.60148</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.4214163246845126</v>
+        <v>0.3673575599443643</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0.9986626546305583</v>
-      </c>
-      <c r="T35" s="3" t="n">
-        <v>1</v>
+        <v>0.6231354410624419</v>
+      </c>
+      <c r="T35" s="2" t="n">
+        <v>0.564793587110538</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.6082054494206075</v>
+        <v>0.3965236454744754</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>0.903883495145631</v>
+        <v>0.7508299404948324</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.3005908023438207</v>
+        <v>0.2828180757815488</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>0.845873015873016</v>
+        <v>0.6730793650793651</v>
       </c>
       <c r="Y35" s="2" t="n">
-        <v>0.7023696682464454</v>
+        <v>0.740521327014218</v>
       </c>
       <c r="Z35" s="2" t="n">
-        <v>0.6669468728984532</v>
+        <v>0.4263954270342972</v>
       </c>
       <c r="AA35" s="2" t="n">
-        <v>0.9333973385767004</v>
+        <v>0.8652704370552743</v>
       </c>
       <c r="AB35" s="2" t="n">
-        <v>0.944701727209905</v>
+        <v>0.8759124475461358</v>
       </c>
       <c r="AC35" s="2" t="n">
-        <v>0.68492</v>
+        <v>0.51786</v>
       </c>
       <c r="AD35" s="2" t="n">
-        <v>0.44746</v>
+        <v>0.28413</v>
       </c>
       <c r="AE35" s="2" t="n">
-        <v>0.5315299999999999</v>
+        <v>0.27477</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>manu/sentence_croissant_alpha_v0.2</t>
+          <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.7262832939213406</v>
+        <v>0.7748827876122101</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.2548325975781052</v>
+        <v>0.1820092523936601</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.7490244473049233</v>
+        <v>0.8327728076127141</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.5574960450682011</v>
+        <v>0.5376154899329338</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>0.3227666866562461</v>
+        <v>0.3276276082145452</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>0.6912509283105648</v>
+        <v>0.7249442911000451</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.7008406186953597</v>
+        <v>0.6738735709482178</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.26351</v>
+        <v>0.22545</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.668665650886613</v>
+        <v>0.5107538398683125</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>0.38106</v>
+        <v>0.35764</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.7196818323283877</v>
+        <v>0.6237756079207663</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>0.6224457184731559</v>
+        <v>0.5595373948625354</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>0.792794943790982</v>
+        <v>0.7641254265129491</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0.4438422214552257</v>
+        <v>0.3464793188683687</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>0.3796537550876475</v>
+        <v>0.3538541904887588</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0.7870200000000001</v>
+        <v>0.65338</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.4460491760281284</v>
-      </c>
-      <c r="S36" s="2" t="n">
-        <v>0.9973253092611166</v>
-      </c>
-      <c r="T36" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.4017045078734119</v>
+      </c>
+      <c r="S36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.6147823363607892</v>
+        <v>0.5610710930159725</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>0.885812715314751</v>
+        <v>0.8498277481991858</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.2963260674606215</v>
+        <v>0.2812111546255657</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.8224285714285715</v>
+        <v>0.7463571428571428</v>
       </c>
       <c r="Y36" s="2" t="n">
-        <v>0.7552132701421801</v>
+        <v>0.7687203791469195</v>
       </c>
       <c r="Z36" s="2" t="n">
-        <v>0.6383658372562205</v>
+        <v>0.598285137861466</v>
       </c>
       <c r="AA36" s="2" t="n">
-        <v>0.9315589224053143</v>
+        <v>0.9207498432598107</v>
       </c>
       <c r="AB36" s="2" t="n">
-        <v>0.93299242831188</v>
+        <v>0.9374506536091047</v>
       </c>
       <c r="AC36" s="2" t="n">
-        <v>0.61914</v>
+        <v>0.51196</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>0.45487</v>
+        <v>0.26994</v>
       </c>
       <c r="AE36" s="2" t="n">
-        <v>0.6036</v>
+        <v>0.28829</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>manu/sentence_croissant_alpha_v0.3</t>
+          <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.7765803549830591</v>
+        <v>0.6384700996869166</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.2632047044833564</v>
+        <v>0.124913841593586</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.7737718097451919</v>
+        <v>0.08784505319023178</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.5799405225219099</v>
+        <v>0.5372744669883476</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>0.3769405326971794</v>
+        <v>0.2726838058131417</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.719770122605619</v>
+        <v>0.6210588256655486</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.6986550100874244</v>
+        <v>0.499226630800269</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.2965</v>
+        <v>0.16312</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.6542042805601268</v>
+        <v>0.5736104900905769</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.3631</v>
+        <v>0.27046</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.7364325943253973</v>
+        <v>0.6295365014472553</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>0.6049889083017318</v>
+        <v>0.4913194595542176</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>0.8133791809403829</v>
+        <v>0.7461882879262099</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0.4381914693719002</v>
+        <v>0.2595314882250714</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>0.4058550987695524</v>
+        <v>0.2615924058641751</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0.8033</v>
+        <v>0.58073</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.4422111049954497</v>
+        <v>0.3514684027308759</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.5537365949388782</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.5046345385362436</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.592890698402756</v>
+        <v>0.3718446601941748</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>0.8825555903538993</v>
+        <v>0.7296899467585343</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.3099183622495067</v>
+        <v>0.2759064320988224</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.8217023809523809</v>
+        <v>0.6505281385281385</v>
       </c>
       <c r="Y37" s="2" t="n">
-        <v>0.75781990521327</v>
+        <v>0.7561611374407583</v>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>0.6489240080699393</v>
+        <v>0.4264290517821117</v>
       </c>
       <c r="AA37" s="2" t="n">
-        <v>0.9346759444633187</v>
+        <v>0.8806670648536865</v>
       </c>
       <c r="AB37" s="2" t="n">
-        <v>0.9401873666553365</v>
+        <v>0.8776887387170348</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0.64217</v>
+        <v>0.48832</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>0.49088</v>
+        <v>0.30229</v>
       </c>
       <c r="AE37" s="2" t="n">
-        <v>0.65766</v>
+        <v>0.2973</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>mistral-embed</t>
+          <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.7972225305052291</v>
+        <v>0.7989821675921884</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.2617385576460144</v>
-      </c>
-      <c r="D38" s="2" t="inlineStr"/>
+        <v>0.2320666181560827</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>0.7772438859983376</v>
+      </c>
       <c r="E38" s="2" t="n">
-        <v>0.4812513474674608</v>
+        <v>0.3657831649774737</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>0.3961706213267493</v>
+        <v>0.3389979666918544</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0.7621241859440422</v>
+        <v>0.75102380757868</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.6971418964357767</v>
+        <v>0.6451916610625421</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.21732</v>
+        <v>0.21535</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.6202390909948808</v>
+        <v>0.5694456712082714</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0.41594</v>
+        <v>0.36758</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.7796140728300852</v>
+        <v>0.6242438219619088</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0.6200673531656187</v>
+        <v>0.5606489195760765</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>0.8274398153558601</v>
+        <v>0.7054517669493489</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0.427376128032198</v>
+        <v>0.3654820279096755</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>0.4919858181804794</v>
+        <v>0.4215818771542176</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0.7877</v>
+        <v>0.65543</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.4527933950642883</v>
-      </c>
-      <c r="S38" s="2" t="inlineStr"/>
-      <c r="T38" s="2" t="inlineStr"/>
+        <v>0.3997152802677553</v>
+      </c>
+      <c r="S38" s="2" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="T38" s="2" t="n">
+        <v>0.995987963891675</v>
+      </c>
       <c r="U38" s="2" t="n">
-        <v>0.6608831819605385</v>
+        <v>0.4793611024115252</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>0.9005010961478235</v>
+        <v>0.7769808957093642</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.3146953192338591</v>
+        <v>0.2919931043966207</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>0.8122619047619049</v>
+        <v>0.7250396825396825</v>
       </c>
       <c r="Y38" s="2" t="n">
-        <v>0.8139810426540285</v>
+        <v>0.7609004739336493</v>
       </c>
       <c r="Z38" s="2" t="n">
-        <v>0.6283120376597177</v>
+        <v>0.5751513113651648</v>
       </c>
       <c r="AA38" s="2" t="n">
-        <v>0.9261462822985623</v>
+        <v>0.9200522043693091</v>
       </c>
       <c r="AB38" s="2" t="n">
-        <v>0.9390344015481578</v>
+        <v>0.9414470609254002</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0.74235</v>
+        <v>0.42511</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>0.56836</v>
+        <v>0.26634</v>
       </c>
       <c r="AE38" s="2" t="n">
-        <v>0.6756799999999999</v>
+        <v>0.37838</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/LaBSE</t>
+          <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.7509746606428888</v>
+        <v>0.8469135860099118</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.2061928108108767</v>
+        <v>0.239677482639205</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.8754400001529438</v>
+        <v>0.8067461852300057</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.4615982853044859</v>
+        <v>0.41569311482541</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>0.3813297329222706</v>
+        <v>0.3087579159546582</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.699399693283394</v>
+        <v>0.755583681044677</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.6510423671822462</v>
+        <v>0.678950907868191</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.15529</v>
+        <v>0.24454</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.5463098409665733</v>
+        <v>0.5814276884080426</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.3852399999999999</v>
+        <v>0.40138</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.5537476614602802</v>
+        <v>0.6720432168620495</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0.5478373637265357</v>
+        <v>0.5449402070854203</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0.779542837388368</v>
+        <v>0.7430483195474878</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0.348364243914043</v>
+        <v>0.3753003494348933</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>0.316037738871091</v>
+        <v>0.4478667196341167</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0.55315</v>
+        <v>0.75998</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.4209325634914144</v>
-      </c>
-      <c r="S39" s="3" t="n">
-        <v>1</v>
+        <v>0.4055377595140954</v>
+      </c>
+      <c r="S39" s="2" t="n">
+        <v>0.9986626546305584</v>
       </c>
       <c r="T39" s="3" t="n">
         <v>1</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.6201064829314126</v>
+        <v>0.5203570310053242</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>0.8413717507046664</v>
+        <v>0.8029126213592234</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.301637456328485</v>
+        <v>0.2946828386641493</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>0.6762063492063493</v>
+        <v>0.8096666666666666</v>
       </c>
       <c r="Y39" s="2" t="n">
-        <v>0.7739336492890996</v>
+        <v>0.7810426540284359</v>
       </c>
       <c r="Z39" s="2" t="n">
-        <v>0.6046738399462004</v>
+        <v>0.6187962340282447</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>0.9395623291640002</v>
+        <v>0.9345353677987358</v>
       </c>
       <c r="AB39" s="2" t="n">
-        <v>0.9441484444599348</v>
+        <v>0.9530638045019797</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0.51736</v>
+        <v>0.46221</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>0.19775</v>
+        <v>0.30799</v>
       </c>
       <c r="AE39" s="2" t="n">
-        <v>0.22973</v>
+        <v>0.42793</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-MiniLM-L12-v2</t>
+          <t>sentence-transformers/sentence-t5-base</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.6667725575200975</v>
+        <v>0.7404061698113868</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.1957951528987704</v>
+        <v>0.1771709655357738</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.096967565885423</v>
+        <v>0.551313531869022</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.4271872726070847</v>
+        <v>0.6190485205190622</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>0.3246835377100011</v>
+        <v>0.3564262992341879</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>0.6316238159087848</v>
+        <v>0.7173634724227647</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.537626092804304</v>
+        <v>0.5991930060524545</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.16079</v>
+        <v>0.2104</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.5552853885736202</v>
+        <v>0.5535169602026141</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.2754</v>
+        <v>0.3735</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.6701369640322303</v>
+        <v>0.6322134288038879</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0.4602594872664162</v>
+        <v>0.5844150763298186</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>0.6951402658537921</v>
+        <v>0.7768846630995027</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0.2929559187477989</v>
+        <v>0.3006026181192261</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>0.3182943689925971</v>
+        <v>0.3593354716276945</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0.608</v>
+        <v>0.66999</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.3435218323840786</v>
+        <v>0.4076920517896694</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0.7091264534343772</v>
+        <v>0.9735874289535272</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>0.6191113021604495</v>
+        <v>0.9615513206285523</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.3893830253679925</v>
+        <v>0.4384591293454432</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>0.7559348575007829</v>
+        <v>0.7502975258377701</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.2662863565868236</v>
+        <v>0.3000911423350935</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>0.6917023809523809</v>
+        <v>0.758845238095238</v>
       </c>
       <c r="Y40" s="2" t="n">
-        <v>0.7220379146919431</v>
+        <v>0.812085308056872</v>
       </c>
       <c r="Z40" s="2" t="n">
-        <v>0.4481506388702085</v>
+        <v>0.5113315400134499</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>0.8734880754144339</v>
+        <v>0.8939826485982256</v>
       </c>
       <c r="AB40" s="2" t="n">
-        <v>0.8779525332075913</v>
+        <v>0.9004953622645687</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0.55899</v>
+        <v>0.45191</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>0.33196</v>
+        <v>0.27523</v>
       </c>
       <c r="AE40" s="2" t="n">
-        <v>0.34234</v>
+        <v>0.3964</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+          <t>sentence-transformers/sentence-t5-large</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.6493028232792631</v>
+        <v>0.7759236947905355</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.1884080354213321</v>
+        <v>0.1873235586707495</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.03498878152491112</v>
+        <v>0.7109667114459385</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.3492044210457986</v>
+        <v>0.585985794265385</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0.4057681708831091</v>
+        <v>0.3133479963331417</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>0.6248225654609475</v>
+        <v>0.7282743267188198</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.5115669132481506</v>
+        <v>0.6360121049092132</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.09195</v>
+        <v>0.23918</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.5539810428438392</v>
+        <v>0.5958684223229149</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0.2689800000000001</v>
+        <v>0.4147999999999999</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.6262172640988071</v>
+        <v>0.6754584284213152</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>0.5183078853752063</v>
+        <v>0.6182277140780882</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>0.7700398643056744</v>
+        <v>0.750086943549879</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0.2811790550911384</v>
+        <v>0.3186940328271737</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>0.3206588333216591</v>
+        <v>0.3977568234064501</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0.60148</v>
+        <v>0.71053</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.3673575599443643</v>
+        <v>0.4207261111658658</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0.6231354410624419</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>0.564793587110538</v>
+        <v>0.9866265463055833</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.3965236454744754</v>
+        <v>0.4772940808017538</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>0.7508299404948324</v>
+        <v>0.795959912308174</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.2828180757815488</v>
+        <v>0.3022765637412754</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>0.6730793650793651</v>
+        <v>0.782813492063492</v>
       </c>
       <c r="Y41" s="2" t="n">
-        <v>0.740521327014218</v>
+        <v>0.8042654028436018</v>
       </c>
       <c r="Z41" s="2" t="n">
-        <v>0.4263954270342972</v>
+        <v>0.5701412239408203</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>0.8652704370552743</v>
+        <v>0.911862793751712</v>
       </c>
       <c r="AB41" s="2" t="n">
-        <v>0.8759124475461358</v>
+        <v>0.9186413027481362</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0.51786</v>
+        <v>0.48792</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>0.28413</v>
+        <v>0.34518</v>
       </c>
       <c r="AE41" s="2" t="n">
-        <v>0.27477</v>
+        <v>0.46847</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
+          <t>sentence-transformers/sentence-t5-xl</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.7748827876122101</v>
+        <v>0.794154396398088</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.1820092523936601</v>
+        <v>0.2027889302653955</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.8327728076127141</v>
+        <v>0.7586314484331536</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.5376154899329338</v>
+        <v>0.6282235512125198</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0.3276276082145452</v>
+        <v>0.3173861927815954</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.7249442911000451</v>
+        <v>0.7508041932935345</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.6738735709482178</v>
+        <v>0.6641560188298588</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.22545</v>
+        <v>0.31539</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.5107538398683125</v>
+        <v>0.6252251289274147</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.35764</v>
+        <v>0.43516</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.6237756079207663</v>
+        <v>0.711535861715982</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>0.5595373948625354</v>
+        <v>0.6037247542497267</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>0.7641254265129491</v>
+        <v>0.7749353352876681</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0.3464793188683687</v>
+        <v>0.3360365488455902</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>0.3538541904887588</v>
+        <v>0.4076035180401736</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0.65338</v>
+        <v>0.74237</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.4017045078734119</v>
-      </c>
-      <c r="S42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" s="3" t="n">
-        <v>1</v>
+        <v>0.4161005491114602</v>
+      </c>
+      <c r="S42" s="2" t="n">
+        <v>0.9919759277833501</v>
+      </c>
+      <c r="T42" s="2" t="n">
+        <v>0.9919759277833501</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.5610710930159725</v>
+        <v>0.5439085499530223</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>0.8498277481991858</v>
+        <v>0.8514249921703726</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.2812111546255657</v>
+        <v>0.3159390228650623</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.7463571428571428</v>
+        <v>0.8092543290043289</v>
       </c>
       <c r="Y42" s="2" t="n">
-        <v>0.7687203791469195</v>
+        <v>0.8009478672985783</v>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>0.598285137861466</v>
+        <v>0.6098520511096167</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>0.9207498432598107</v>
+        <v>0.9248433060784351</v>
       </c>
       <c r="AB42" s="2" t="n">
-        <v>0.9374506536091047</v>
+        <v>0.9378969696931576</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0.51196</v>
+        <v>0.5214299999999999</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>0.26994</v>
+        <v>0.40375</v>
       </c>
       <c r="AE42" s="2" t="n">
-        <v>0.28829</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
+          <t>sentence-transformers/sentence-t5-xxl</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.6384700996869166</v>
+        <v>0.8124450977788589</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.124913841593586</v>
+        <v>0.2140492459012981</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.08784505319023178</v>
+        <v>0.8324518195666728</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.5372744669883476</v>
+        <v>0.6114553646367987</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>0.2726838058131417</v>
+        <v>0.3823921323645222</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>0.6210588256655486</v>
+        <v>0.7706782664515456</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.499226630800269</v>
+        <v>0.6853059852051111</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.16312</v>
+        <v>0.34929</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.5736104900905769</v>
+        <v>0.639782556744936</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.27046</v>
+        <v>0.4608800000000001</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.6295365014472553</v>
+        <v>0.7523712951211723</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>0.4913194595542176</v>
+        <v>0.6097713304012906</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>0.7461882879262099</v>
+        <v>0.7680240821366182</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0.2595314882250714</v>
+        <v>0.3524745757300218</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>0.2615924058641751</v>
+        <v>0.4350024233904722</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0.58073</v>
+        <v>0.78975</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.3514684027308759</v>
+        <v>0.4224117195163593</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0.5537365949388782</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>0.5046345385362436</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.3718446601941748</v>
+        <v>0.5833385530848731</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>0.7296899467585343</v>
+        <v>0.8620106482931412</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.2759064320988224</v>
+        <v>0.3039226775800043</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>0.6505281385281385</v>
+        <v>0.8171666666666667</v>
       </c>
       <c r="Y43" s="2" t="n">
-        <v>0.7561611374407583</v>
+        <v>0.7909952606635071</v>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>0.4264290517821117</v>
+        <v>0.6590786819098857</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>0.8806670648536865</v>
+        <v>0.9394372210364297</v>
       </c>
       <c r="AB43" s="2" t="n">
-        <v>0.8776887387170348</v>
+        <v>0.9511141986772736</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0.48832</v>
+        <v>0.56202</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>0.30229</v>
+        <v>0.45748</v>
       </c>
       <c r="AE43" s="2" t="n">
-        <v>0.2973</v>
+        <v>0.5585599999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
+          <t>shibing624/text2vec-base-multilingual</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.7989821675921884</v>
+        <v>0.8347595626027418</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.2320666181560827</v>
+        <v>0.1619070583380436</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.7772438859983376</v>
+        <v>0.7780898243854504</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.3657831649774737</v>
+        <v>0.3850723861796326</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0.3389979666918544</v>
+        <v>0.3251081280317133</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>0.75102380757868</v>
+        <v>0.7724805746003676</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0.6451916610625421</v>
+        <v>0.5830867518493612</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0.21535</v>
+        <v>0.14812</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0.5694456712082714</v>
+        <v>0.6556847028211261</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.36758</v>
+        <v>0.34254</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.6242438219619088</v>
+        <v>0.556826861955334</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.5606489195760765</v>
+        <v>0.4910742502173265</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>0.7054517669493489</v>
+        <v>0.7409937723367189</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0.3654820279096755</v>
+        <v>0.303885451410444</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>0.4215818771542176</v>
+        <v>0.3272237759178746</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0.65543</v>
+        <v>0.49694</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>0.3997152802677553</v>
+        <v>0.3619042628585186</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.9879638916750251</v>
       </c>
       <c r="T44" s="2" t="n">
-        <v>0.995987963891675</v>
+        <v>0.9946506185222334</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>0.4793611024115252</v>
+        <v>0.4453492013780145</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>0.7769808957093642</v>
+        <v>0.7182586908863138</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>0.2919931043966207</v>
+        <v>0.2933489058303607</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>0.7250396825396825</v>
+        <v>0.6281626984126983</v>
       </c>
       <c r="Y44" s="2" t="n">
-        <v>0.7609004739336493</v>
+        <v>0.7383886255924171</v>
       </c>
       <c r="Z44" s="2" t="n">
-        <v>0.5751513113651648</v>
+        <v>0.5193006052454606</v>
       </c>
       <c r="AA44" s="2" t="n">
-        <v>0.9200522043693091</v>
+        <v>0.9204078160599214</v>
       </c>
       <c r="AB44" s="2" t="n">
-        <v>0.9414470609254002</v>
+        <v>0.9395153724999291</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0.42511</v>
+        <v>0.404</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>0.26634</v>
+        <v>0.18899</v>
       </c>
       <c r="AE44" s="2" t="n">
-        <v>0.37838</v>
+        <v>0.26126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
+          <t>text-embedding-3-large</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.8469135860099118</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>0.239677482639205</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>0.8067461852300057</v>
+        <v>0.825163980735896</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>0.2796643625096684</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>0.884362910537232</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>0.41569311482541</v>
+        <v>0.5270799653215082</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>0.3087579159546582</v>
+        <v>0.3970800658666344</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>0.755583681044677</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>0.678950907868191</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.24454</v>
+        <v>0.7874564096121601</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>0.7646267652992602</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>0.62957</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0.5814276884080426</v>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>0.40138</v>
-      </c>
-      <c r="L45" s="2" t="n">
-        <v>0.6720432168620495</v>
+        <v>0.6487004383237154</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>0.46196</v>
+      </c>
+      <c r="L45" s="3" t="n">
+        <v>0.8044786254258053</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0.5449402070854203</v>
+        <v>0.6188729664384736</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>0.7430483195474878</v>
-      </c>
-      <c r="O45" s="2" t="n">
-        <v>0.3753003494348933</v>
+        <v>0.8218742629385483</v>
+      </c>
+      <c r="O45" s="3" t="n">
+        <v>0.4572072923344249</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>0.4478667196341167</v>
-      </c>
-      <c r="Q45" s="2" t="n">
-        <v>0.75998</v>
+        <v>0.5383026633586214</v>
+      </c>
+      <c r="Q45" s="3" t="n">
+        <v>0.8686700000000001</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>0.4055377595140954</v>
-      </c>
-      <c r="S45" s="2" t="n">
-        <v>0.9986626546305584</v>
+        <v>0.4589797204034647</v>
+      </c>
+      <c r="S45" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="T45" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U45" s="2" t="n">
-        <v>0.5203570310053242</v>
-      </c>
-      <c r="V45" s="2" t="n">
-        <v>0.8029126213592234</v>
+      <c r="U45" s="3" t="n">
+        <v>0.7367679298465393</v>
+      </c>
+      <c r="V45" s="3" t="n">
+        <v>0.9337300344503602</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>0.2946828386641493</v>
-      </c>
-      <c r="X45" s="2" t="n">
-        <v>0.8096666666666666</v>
+        <v>0.2958989154199727</v>
+      </c>
+      <c r="X45" s="3" t="n">
+        <v>0.9156666666666666</v>
       </c>
       <c r="Y45" s="2" t="n">
-        <v>0.7810426540284359</v>
-      </c>
-      <c r="Z45" s="2" t="n">
-        <v>0.6187962340282447</v>
-      </c>
-      <c r="AA45" s="2" t="n">
-        <v>0.9345353677987358</v>
-      </c>
-      <c r="AB45" s="2" t="n">
-        <v>0.9530638045019797</v>
-      </c>
-      <c r="AC45" s="2" t="n">
-        <v>0.46221</v>
-      </c>
-      <c r="AD45" s="2" t="n">
-        <v>0.30799</v>
-      </c>
-      <c r="AE45" s="2" t="n">
-        <v>0.42793</v>
+        <v>0.8218009478672986</v>
+      </c>
+      <c r="Z45" s="3" t="n">
+        <v>0.713315400134499</v>
+      </c>
+      <c r="AA45" s="3" t="n">
+        <v>0.956495941906191</v>
+      </c>
+      <c r="AB45" s="3" t="n">
+        <v>0.9632216568565823</v>
+      </c>
+      <c r="AC45" s="3" t="n">
+        <v>0.76519</v>
+      </c>
+      <c r="AD45" s="3" t="n">
+        <v>0.60282</v>
+      </c>
+      <c r="AE45" s="3" t="n">
+        <v>0.73423</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-base</t>
+          <t>text-embedding-3-small</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.7404061698113868</v>
+        <v>0.8113498962069088</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.1771709655357738</v>
+        <v>0.2704358042080826</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.551313531869022</v>
+        <v>0.8569611214966121</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0.6190485205190622</v>
+        <v>0.4524961818598886</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>0.3564262992341879</v>
+        <v>0.5476153105172287</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0.7173634724227647</v>
+        <v>0.7569412697440474</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0.5991930060524545</v>
+        <v>0.7329186281102892</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0.2104</v>
+        <v>0.41674</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0.5535169602026141</v>
+        <v>0.6136061823257404</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.3735</v>
+        <v>0.4284000000000001</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.6322134288038879</v>
+        <v>0.7411183812926199</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.5844150763298186</v>
+        <v>0.6142121566849555</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>0.7768846630995027</v>
+        <v>0.8086996866193595</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0.3006026181192261</v>
+        <v>0.4567430092008721</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>0.3593354716276945</v>
+        <v>0.5097017531638819</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0.66999</v>
-      </c>
-      <c r="R46" s="2" t="n">
-        <v>0.4076920517896694</v>
-      </c>
-      <c r="S46" s="2" t="n">
-        <v>0.9735874289535272</v>
-      </c>
-      <c r="T46" s="2" t="n">
-        <v>0.9615513206285523</v>
+        <v>0.86816</v>
+      </c>
+      <c r="R46" s="3" t="n">
+        <v>0.4626366669004257</v>
+      </c>
+      <c r="S46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U46" s="2" t="n">
-        <v>0.4384591293454432</v>
+        <v>0.678640776699029</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>0.7502975258377701</v>
+        <v>0.9088318196053869</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>0.3000911423350935</v>
+        <v>0.3049243366483514</v>
       </c>
       <c r="X46" s="2" t="n">
-        <v>0.758845238095238</v>
+        <v>0.8945000000000001</v>
       </c>
       <c r="Y46" s="2" t="n">
-        <v>0.812085308056872</v>
+        <v>0.7646919431279622</v>
       </c>
       <c r="Z46" s="2" t="n">
-        <v>0.5113315400134499</v>
+        <v>0.6779757901815737</v>
       </c>
       <c r="AA46" s="2" t="n">
-        <v>0.8939826485982256</v>
+        <v>0.9444824312907959</v>
       </c>
       <c r="AB46" s="2" t="n">
-        <v>0.9004953622645687</v>
+        <v>0.952465716551754</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0.45191</v>
+        <v>0.74907</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>0.27523</v>
+        <v>0.52088</v>
       </c>
       <c r="AE46" s="2" t="n">
-        <v>0.3964</v>
+        <v>0.65766</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-large</t>
+          <t>text-embedding-ada-002</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.7759236947905355</v>
+        <v>0.775488475913985</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.1873235586707495</v>
+        <v>0.2617596819504725</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.7109667114459385</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>0.585985794265385</v>
+        <v>0.860436629641775</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>0.6835358427222893</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>0.3133479963331417</v>
+        <v>0.4857524685115383</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>0.7282743267188198</v>
+        <v>0.7627685738662282</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0.6360121049092132</v>
+        <v>0.7110961667787492</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0.23918</v>
+        <v>0.2994</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0.5958684223229149</v>
+        <v>0.6016251068115703</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0.4147999999999999</v>
+        <v>0.43764</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.6754584284213152</v>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>0.6182277140780882</v>
+        <v>0.7553035636965619</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>0.6482909467525912</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>0.750086943549879</v>
+        <v>0.810931445449386</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0.3186940328271737</v>
+        <v>0.416657222225081</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>0.3977568234064501</v>
+        <v>0.5352055108193531</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0.71053</v>
+        <v>0.85969</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>0.4207261111658658</v>
+        <v>0.445914143327743</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.9933132731527916</v>
       </c>
       <c r="T47" s="2" t="n">
-        <v>0.9866265463055833</v>
+        <v>0.9946506185222334</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>0.4772940808017538</v>
+        <v>0.6445349201378014</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>0.795959912308174</v>
+        <v>0.8937676166614468</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>0.3022765637412754</v>
+        <v>0.3049962446901472</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>0.782813492063492</v>
+        <v>0.8894999999999998</v>
       </c>
       <c r="Y47" s="2" t="n">
-        <v>0.8042654028436018</v>
+        <v>0.8151658767772512</v>
       </c>
       <c r="Z47" s="2" t="n">
-        <v>0.5701412239408203</v>
+        <v>0.6542030934767989</v>
       </c>
       <c r="AA47" s="2" t="n">
-        <v>0.911862793751712</v>
+        <v>0.9412076883261254</v>
       </c>
       <c r="AB47" s="2" t="n">
-        <v>0.9186413027481362</v>
+        <v>0.9510295908785357</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0.48792</v>
+        <v>0.73004</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>0.34518</v>
-      </c>
-      <c r="AE47" s="2" t="n">
-        <v>0.46847</v>
-      </c>
+        <v>0.5164</v>
+      </c>
+      <c r="AE47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-xl</t>
+          <t>voyage-2</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.794154396398088</v>
+        <v>0.7642936190822642</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.2027889302653955</v>
+        <v>0.2484326275705308</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.7586314484331536</v>
+        <v>0.3189440828794315</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>0.6282235512125198</v>
+        <v>0.4854232311151437</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.3173861927815954</v>
+        <v>0.3633106838853807</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.7508041932935345</v>
+        <v>0.6851217063378627</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0.6641560188298588</v>
+        <v>0.6246133154001345</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0.31539</v>
+        <v>0.15507</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>0.6252251289274147</v>
+        <v>0.5895656630212746</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0.43516</v>
+        <v>0.37262</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.711535861715982</v>
+        <v>0.7266605452700412</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>0.6037247542497267</v>
+        <v>0.5795590984348414</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>0.7749353352876681</v>
+        <v>0.7050549213561673</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0.3360365488455902</v>
+        <v>0.3877264742587128</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>0.4076035180401736</v>
+        <v>0.4165266573039174</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0.74237</v>
+        <v>0.75831</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>0.4161005491114602</v>
+        <v>0.4508245196010945</v>
       </c>
       <c r="S48" s="2" t="n">
         <v>0.9919759277833501</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.9799398194583752</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>0.5439085499530223</v>
+        <v>0.4561854055746946</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>0.8514249921703726</v>
+        <v>0.7978703413717507</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>0.3159390228650623</v>
+        <v>0.3087952286335955</v>
       </c>
       <c r="X48" s="2" t="n">
-        <v>0.8092543290043289</v>
+        <v>0.797095238095238</v>
       </c>
       <c r="Y48" s="2" t="n">
-        <v>0.8009478672985783</v>
+        <v>0.8018957345971565</v>
       </c>
       <c r="Z48" s="2" t="n">
-        <v>0.6098520511096167</v>
+        <v>0.5369872225958305</v>
       </c>
       <c r="AA48" s="2" t="n">
-        <v>0.9248433060784351</v>
+        <v>0.8976194426555255</v>
       </c>
       <c r="AB48" s="2" t="n">
-        <v>0.9378969696931576</v>
+        <v>0.896781936586669</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0.5214299999999999</v>
+        <v>0.67065</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>0.40375</v>
+        <v>0.45499</v>
       </c>
       <c r="AE48" s="2" t="n">
-        <v>0.5</v>
+        <v>0.52703</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-xxl</t>
+          <t>voyage-code-2</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.8124450977788589</v>
+        <v>0.7901988871511573</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.2140492459012981</v>
+        <v>0.2744285128302836</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.8324518195666728</v>
+        <v>0.6013319288411012</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0.6114553646367987</v>
+        <v>0.5659470191472211</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0.3823921323645222</v>
+        <v>0.3517814667732468</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>0.7706782664515456</v>
+        <v>0.7356028375217639</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>0.6853059852051111</v>
+        <v>0.7014794889038332</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0.34929</v>
+        <v>0.19047</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>0.639782556744936</v>
+        <v>0.608332001960638</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.4608800000000001</v>
+        <v>0.4215</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.7523712951211723</v>
+        <v>0.7561215395567691</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>0.6097713304012906</v>
+        <v>0.6162945124485424</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>0.7680240821366182</v>
+        <v>0.7999221736030022</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0.3524745757300218</v>
+        <v>0.4148135128122253</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>0.4350024233904722</v>
+        <v>0.5067174392659987</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0.78975</v>
+        <v>0.82766</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>0.4224117195163593</v>
+        <v>0.4522898818144546</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="T49" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.9946506185222334</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>0.5833385530848731</v>
+        <v>0.5943626683369871</v>
       </c>
       <c r="V49" s="2" t="n">
-        <v>0.8620106482931412</v>
+        <v>0.8767616661446915</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>0.3039226775800043</v>
+        <v>0.2833835044555462</v>
       </c>
       <c r="X49" s="2" t="n">
-        <v>0.8171666666666667</v>
+        <v>0.8671785714285715</v>
       </c>
       <c r="Y49" s="2" t="n">
-        <v>0.7909952606635071</v>
+        <v>0.8213270142180095</v>
       </c>
       <c r="Z49" s="2" t="n">
-        <v>0.6590786819098857</v>
+        <v>0.630766644250168</v>
       </c>
       <c r="AA49" s="2" t="n">
-        <v>0.9394372210364297</v>
+        <v>0.9286798412153197</v>
       </c>
       <c r="AB49" s="2" t="n">
-        <v>0.9511141986772736</v>
+        <v>0.9371986705026045</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0.56202</v>
+        <v>0.71946</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>0.45748</v>
+        <v>0.52606</v>
       </c>
       <c r="AE49" s="2" t="n">
-        <v>0.5585599999999999</v>
+        <v>0.68018</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>shibing624/text2vec-base-multilingual</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.8347595626027418</v>
+        <v>0.7547623244259472</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.1619070583380436</v>
+        <v>0.1894729944719849</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.7780898243854504</v>
+        <v>0.8167705770180773</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>0.3850723861796326</v>
+        <v>0.6057161066482416</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>0.3251081280317133</v>
+        <v>0.4030766635566808</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>0.7724805746003676</v>
+        <v>0.7137136565612174</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>0.5830867518493612</v>
+        <v>0.7021856086079354</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0.14812</v>
+        <v>0.26121</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>0.6556847028211261</v>
+        <v>0.5238943982284524</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>0.34254</v>
+        <v>0.33514</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>0.556826861955334</v>
+        <v>0.6217487639018026</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>0.4910742502173265</v>
+        <v>0.5689916720736953</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>0.7409937723367189</v>
+        <v>0.779121959792631</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0.303885451410444</v>
+        <v>0.3550144906912691</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>0.3272237759178746</v>
+        <v>0.378393691062227</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0.49694</v>
+        <v>0.69819</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>0.3619042628585186</v>
-      </c>
-      <c r="S50" s="2" t="n">
-        <v>0.9879638916750251</v>
-      </c>
-      <c r="T50" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.4389692922750733</v>
+      </c>
+      <c r="S50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U50" s="2" t="n">
-        <v>0.4453492013780145</v>
+        <v>0.5398371437519573</v>
       </c>
       <c r="V50" s="2" t="n">
-        <v>0.7182586908863138</v>
+        <v>0.8549639837143752</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>0.2933489058303607</v>
+        <v>0.2821210761980673</v>
       </c>
       <c r="X50" s="2" t="n">
-        <v>0.6281626984126983</v>
+        <v>0.7392857142857143</v>
       </c>
       <c r="Y50" s="2" t="n">
-        <v>0.7383886255924171</v>
+        <v>0.8206161137440759</v>
       </c>
       <c r="Z50" s="2" t="n">
-        <v>0.5193006052454606</v>
+        <v>0.6119031607262946</v>
       </c>
       <c r="AA50" s="2" t="n">
-        <v>0.9204078160599214</v>
+        <v>0.914642734849384</v>
       </c>
       <c r="AB50" s="2" t="n">
-        <v>0.9395153724999291</v>
+        <v>0.9276770338480919</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0.404</v>
+        <v>0.5959</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>0.18899</v>
+        <v>0.35267</v>
       </c>
       <c r="AE50" s="2" t="n">
-        <v>0.26126</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>text-embedding-3-large</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.825163980735896</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>0.2796643625096684</v>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>0.884362910537232</v>
+        <v>0.7815527423484122</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>0.1894341512230004</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>0.838819395056347</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>0.5270799653215082</v>
+        <v>0.2408582264260665</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>0.3970800658666344</v>
+        <v>0.4024379912798725</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>0.7874564096121601</v>
-      </c>
-      <c r="H51" s="3" t="n">
-        <v>0.7646267652992602</v>
-      </c>
-      <c r="I51" s="3" t="n">
-        <v>0.62957</v>
+        <v>0.7438679213720065</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>0.7346671149966374</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>0.2621</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>0.6487004383237154</v>
-      </c>
-      <c r="K51" s="3" t="n">
-        <v>0.46196</v>
-      </c>
-      <c r="L51" s="3" t="n">
-        <v>0.8044786254258053</v>
+        <v>0.5362415343852915</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>0.35092</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>0.639460440116346</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>0.6188729664384736</v>
+        <v>0.5420886916175743</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>0.8218742629385483</v>
-      </c>
-      <c r="O51" s="3" t="n">
-        <v>0.4572072923344249</v>
+        <v>0.7110616222714751</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>0.3796744706245461</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>0.5383026633586214</v>
-      </c>
-      <c r="Q51" s="3" t="n">
-        <v>0.8686700000000001</v>
+        <v>0.3794903151594224</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>0.6369</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>0.4589797204034647</v>
+        <v>0.4102454366803547</v>
       </c>
       <c r="S51" s="3" t="n">
         <v>1</v>
@@ -5364,811 +5368,231 @@
       <c r="T51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U51" s="3" t="n">
-        <v>0.7367679298465393</v>
-      </c>
-      <c r="V51" s="3" t="n">
-        <v>0.9337300344503602</v>
+      <c r="U51" s="2" t="n">
+        <v>0.6363921077356717</v>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>0.881866583150642</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>0.2958989154199727</v>
-      </c>
-      <c r="X51" s="3" t="n">
-        <v>0.9156666666666666</v>
+        <v>0.2855799948642319</v>
+      </c>
+      <c r="X51" s="2" t="n">
+        <v>0.6925079365079365</v>
       </c>
       <c r="Y51" s="2" t="n">
-        <v>0.8218009478672986</v>
-      </c>
-      <c r="Z51" s="3" t="n">
-        <v>0.713315400134499</v>
-      </c>
-      <c r="AA51" s="3" t="n">
-        <v>0.956495941906191</v>
-      </c>
-      <c r="AB51" s="3" t="n">
-        <v>0.9632216568565823</v>
-      </c>
-      <c r="AC51" s="3" t="n">
-        <v>0.76519</v>
-      </c>
-      <c r="AD51" s="3" t="n">
-        <v>0.60282</v>
-      </c>
-      <c r="AE51" s="3" t="n">
-        <v>0.73423</v>
+        <v>0.7203791469194313</v>
+      </c>
+      <c r="Z51" s="2" t="n">
+        <v>0.6580363147276395</v>
+      </c>
+      <c r="AA51" s="2" t="n">
+        <v>0.9337926495141736</v>
+      </c>
+      <c r="AB51" s="2" t="n">
+        <v>0.9463878648421398</v>
+      </c>
+      <c r="AC51" s="2" t="n">
+        <v>0.65213</v>
+      </c>
+      <c r="AD51" s="2" t="n">
+        <v>0.33781</v>
+      </c>
+      <c r="AE51" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>text-embedding-3-small</t>
+          <t>xlm-roberta-base</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.8113498962069088</v>
+        <v>0.4622634194376477</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.2704358042080826</v>
+        <v>0.08678029981035876</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.8569611214966121</v>
+        <v>0.2117178555612327</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>0.4524961818598886</v>
+        <v>0.2928935602108218</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>0.5476153105172287</v>
+        <v>0.2375634936431052</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>0.7569412697440474</v>
+        <v>0.4861539023272589</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>0.7329186281102892</v>
+        <v>0.2321452589105581</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>0.41674</v>
+        <v>0.00876</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>0.6136061823257404</v>
+        <v>0.5134610960311026</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>0.4284000000000001</v>
+        <v>0.2674799999999999</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>0.7411183812926199</v>
+        <v>0.2756444888903243</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>0.6142121566849555</v>
+        <v>0.5224409381186116</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>0.8086996866193595</v>
+        <v>0.5672433175176572</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>0.4567430092008721</v>
+        <v>0.2414271814543187</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>0.5097017531638819</v>
+        <v>0.2037478764202963</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0.86816</v>
-      </c>
-      <c r="R52" s="3" t="n">
-        <v>0.4626366669004257</v>
-      </c>
-      <c r="S52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" s="3" t="n">
-        <v>1</v>
+        <v>0.03332</v>
+      </c>
+      <c r="R52" s="2" t="n">
+        <v>0.4044298462507268</v>
+      </c>
+      <c r="S52" s="2" t="n">
+        <v>0.7017890974510833</v>
+      </c>
+      <c r="T52" s="2" t="n">
+        <v>0.5328738628505576</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>0.678640776699029</v>
+        <v>0.1937676166614469</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>0.9088318196053869</v>
+        <v>0.4383025367992484</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0.3049243366483514</v>
+        <v>0.2914448969497285</v>
       </c>
       <c r="X52" s="2" t="n">
-        <v>0.8945000000000001</v>
+        <v>0.3191150793650793</v>
       </c>
       <c r="Y52" s="2" t="n">
-        <v>0.7646919431279622</v>
+        <v>0.6049763033175355</v>
       </c>
       <c r="Z52" s="2" t="n">
-        <v>0.6779757901815737</v>
+        <v>0.1358103564223268</v>
       </c>
       <c r="AA52" s="2" t="n">
-        <v>0.9444824312907959</v>
+        <v>0.8544669820078381</v>
       </c>
       <c r="AB52" s="2" t="n">
-        <v>0.952465716551754</v>
+        <v>0.8624645232635788</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0.74907</v>
+        <v>0.11649</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>0.52088</v>
+        <v>0.00156</v>
       </c>
       <c r="AE52" s="2" t="n">
-        <v>0.65766</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>text-embedding-ada-002</t>
+          <t>xlm-roberta-large</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.775488475913985</v>
+        <v>0.4231665294262342</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.2617596819504725</v>
+        <v>0.05943345675729141</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.860436629641775</v>
-      </c>
-      <c r="E53" s="3" t="n">
-        <v>0.6835358427222893</v>
+        <v>0.1324934909347301</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>0.3402405632525344</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>0.4857524685115383</v>
+        <v>0.2152479457502924</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>0.7627685738662282</v>
+        <v>0.5001340631306734</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0.7110961667787492</v>
+        <v>0.2392064559515804</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0.2994</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>0.6016251068115703</v>
+        <v>0.5338491922324053</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>0.43764</v>
+        <v>0.26616</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>0.7553035636965619</v>
-      </c>
-      <c r="M53" s="3" t="n">
-        <v>0.6482909467525912</v>
+        <v>0.3089459830689988</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>0.5653605568863168</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>0.810931445449386</v>
+        <v>0.5549160342530441</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0.416657222225081</v>
+        <v>0.1850128406979126</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>0.5352055108193531</v>
+        <v>0.2118476703867388</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0.85969</v>
+        <v>0.06598999999999999</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>0.445914143327743</v>
+        <v>0.4267404394453324</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>0.9933132731527916</v>
+        <v>0.6492966311974625</v>
       </c>
       <c r="T53" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.2594625928964929</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>0.6445349201378014</v>
+        <v>0.1537112433448168</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>0.8937676166614468</v>
+        <v>0.367710616974632</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>0.3049962446901472</v>
+        <v>0.2889430627940623</v>
       </c>
       <c r="X53" s="2" t="n">
-        <v>0.8894999999999998</v>
+        <v>0.3874368686868688</v>
       </c>
       <c r="Y53" s="2" t="n">
-        <v>0.8151658767772512</v>
+        <v>0.6575829383886255</v>
       </c>
       <c r="Z53" s="2" t="n">
-        <v>0.6542030934767989</v>
+        <v>0.1582044384667115</v>
       </c>
       <c r="AA53" s="2" t="n">
-        <v>0.9412076883261254</v>
+        <v>0.8372982569551426</v>
       </c>
       <c r="AB53" s="2" t="n">
-        <v>0.9510295908785357</v>
+        <v>0.8393372076362939</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0.73004</v>
+        <v>0.12702</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>0.5164</v>
-      </c>
-      <c r="AE53" s="2" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>voyage-2</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>0.7642936190822642</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>0.2484326275705308</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>0.3189440828794315</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>0.4854232311151437</v>
-      </c>
-      <c r="F54" s="2" t="n">
-        <v>0.3633106838853807</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>0.6851217063378627</v>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>0.6246133154001345</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>0.15507</v>
-      </c>
-      <c r="J54" s="2" t="n">
-        <v>0.5895656630212746</v>
-      </c>
-      <c r="K54" s="2" t="n">
-        <v>0.37262</v>
-      </c>
-      <c r="L54" s="2" t="n">
-        <v>0.7266605452700412</v>
-      </c>
-      <c r="M54" s="2" t="n">
-        <v>0.5795590984348414</v>
-      </c>
-      <c r="N54" s="2" t="n">
-        <v>0.7050549213561673</v>
-      </c>
-      <c r="O54" s="2" t="n">
-        <v>0.3877264742587128</v>
-      </c>
-      <c r="P54" s="2" t="n">
-        <v>0.4165266573039174</v>
-      </c>
-      <c r="Q54" s="2" t="n">
-        <v>0.75831</v>
-      </c>
-      <c r="R54" s="2" t="n">
-        <v>0.4508245196010945</v>
-      </c>
-      <c r="S54" s="2" t="n">
-        <v>0.9919759277833501</v>
-      </c>
-      <c r="T54" s="2" t="n">
-        <v>0.9799398194583752</v>
-      </c>
-      <c r="U54" s="2" t="n">
-        <v>0.4561854055746946</v>
-      </c>
-      <c r="V54" s="2" t="n">
-        <v>0.7978703413717507</v>
-      </c>
-      <c r="W54" s="2" t="n">
-        <v>0.3087952286335955</v>
-      </c>
-      <c r="X54" s="2" t="n">
-        <v>0.797095238095238</v>
-      </c>
-      <c r="Y54" s="2" t="n">
-        <v>0.8018957345971565</v>
-      </c>
-      <c r="Z54" s="2" t="n">
-        <v>0.5369872225958305</v>
-      </c>
-      <c r="AA54" s="2" t="n">
-        <v>0.8976194426555255</v>
-      </c>
-      <c r="AB54" s="2" t="n">
-        <v>0.896781936586669</v>
-      </c>
-      <c r="AC54" s="2" t="n">
-        <v>0.67065</v>
-      </c>
-      <c r="AD54" s="2" t="n">
-        <v>0.45499</v>
-      </c>
-      <c r="AE54" s="2" t="n">
-        <v>0.52703</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>voyage-code-2</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>0.7901988871511573</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>0.2744285128302836</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>0.6013319288411012</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>0.5659470191472211</v>
-      </c>
-      <c r="F55" s="2" t="n">
-        <v>0.3517814667732468</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>0.7356028375217639</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>0.7014794889038332</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>0.19047</v>
-      </c>
-      <c r="J55" s="2" t="n">
-        <v>0.608332001960638</v>
-      </c>
-      <c r="K55" s="2" t="n">
-        <v>0.4215</v>
-      </c>
-      <c r="L55" s="2" t="n">
-        <v>0.7561215395567691</v>
-      </c>
-      <c r="M55" s="2" t="n">
-        <v>0.6162945124485424</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>0.7999221736030022</v>
-      </c>
-      <c r="O55" s="2" t="n">
-        <v>0.4148135128122253</v>
-      </c>
-      <c r="P55" s="2" t="n">
-        <v>0.5067174392659987</v>
-      </c>
-      <c r="Q55" s="2" t="n">
-        <v>0.82766</v>
-      </c>
-      <c r="R55" s="2" t="n">
-        <v>0.4522898818144546</v>
-      </c>
-      <c r="S55" s="2" t="n">
-        <v>0.9986626546305583</v>
-      </c>
-      <c r="T55" s="2" t="n">
-        <v>0.9946506185222334</v>
-      </c>
-      <c r="U55" s="2" t="n">
-        <v>0.5943626683369871</v>
-      </c>
-      <c r="V55" s="2" t="n">
-        <v>0.8767616661446915</v>
-      </c>
-      <c r="W55" s="2" t="n">
-        <v>0.2833835044555462</v>
-      </c>
-      <c r="X55" s="2" t="n">
-        <v>0.8671785714285715</v>
-      </c>
-      <c r="Y55" s="2" t="n">
-        <v>0.8213270142180095</v>
-      </c>
-      <c r="Z55" s="2" t="n">
-        <v>0.630766644250168</v>
-      </c>
-      <c r="AA55" s="2" t="n">
-        <v>0.9286798412153197</v>
-      </c>
-      <c r="AB55" s="2" t="n">
-        <v>0.9371986705026045</v>
-      </c>
-      <c r="AC55" s="2" t="n">
-        <v>0.71946</v>
-      </c>
-      <c r="AD55" s="2" t="n">
-        <v>0.52606</v>
-      </c>
-      <c r="AE55" s="2" t="n">
-        <v>0.68018</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>0.7547623244259472</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>0.1894729944719849</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>0.8167705770180773</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>0.6057161066482416</v>
-      </c>
-      <c r="F56" s="2" t="n">
-        <v>0.4030766635566808</v>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>0.7137136565612174</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>0.7021856086079354</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>0.26121</v>
-      </c>
-      <c r="J56" s="2" t="n">
-        <v>0.5238943982284524</v>
-      </c>
-      <c r="K56" s="2" t="n">
-        <v>0.33514</v>
-      </c>
-      <c r="L56" s="2" t="n">
-        <v>0.6217487639018026</v>
-      </c>
-      <c r="M56" s="2" t="n">
-        <v>0.5689916720736953</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>0.779121959792631</v>
-      </c>
-      <c r="O56" s="2" t="n">
-        <v>0.3550144906912691</v>
-      </c>
-      <c r="P56" s="2" t="n">
-        <v>0.378393691062227</v>
-      </c>
-      <c r="Q56" s="2" t="n">
-        <v>0.69819</v>
-      </c>
-      <c r="R56" s="2" t="n">
-        <v>0.4389692922750733</v>
-      </c>
-      <c r="S56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U56" s="2" t="n">
-        <v>0.5398371437519573</v>
-      </c>
-      <c r="V56" s="2" t="n">
-        <v>0.8549639837143752</v>
-      </c>
-      <c r="W56" s="2" t="n">
-        <v>0.2821210761980673</v>
-      </c>
-      <c r="X56" s="2" t="n">
-        <v>0.7392857142857143</v>
-      </c>
-      <c r="Y56" s="2" t="n">
-        <v>0.8206161137440759</v>
-      </c>
-      <c r="Z56" s="2" t="n">
-        <v>0.6119031607262946</v>
-      </c>
-      <c r="AA56" s="2" t="n">
-        <v>0.914642734849384</v>
-      </c>
-      <c r="AB56" s="2" t="n">
-        <v>0.9276770338480919</v>
-      </c>
-      <c r="AC56" s="2" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="AD56" s="2" t="n">
-        <v>0.35267</v>
-      </c>
-      <c r="AE56" s="2" t="n">
-        <v>0.0045</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>0.7815527423484122</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>0.1894341512230004</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>0.838819395056347</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>0.2408582264260665</v>
-      </c>
-      <c r="F57" s="2" t="n">
-        <v>0.4024379912798725</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>0.7438679213720065</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>0.7346671149966374</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>0.2621</v>
-      </c>
-      <c r="J57" s="2" t="n">
-        <v>0.5362415343852915</v>
-      </c>
-      <c r="K57" s="2" t="n">
-        <v>0.35092</v>
-      </c>
-      <c r="L57" s="2" t="n">
-        <v>0.639460440116346</v>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>0.5420886916175743</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>0.7110616222714751</v>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>0.3796744706245461</v>
-      </c>
-      <c r="P57" s="2" t="n">
-        <v>0.3794903151594224</v>
-      </c>
-      <c r="Q57" s="2" t="n">
-        <v>0.6369</v>
-      </c>
-      <c r="R57" s="2" t="n">
-        <v>0.4102454366803547</v>
-      </c>
-      <c r="S57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T57" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U57" s="2" t="n">
-        <v>0.6363921077356717</v>
-      </c>
-      <c r="V57" s="2" t="n">
-        <v>0.881866583150642</v>
-      </c>
-      <c r="W57" s="2" t="n">
-        <v>0.2855799948642319</v>
-      </c>
-      <c r="X57" s="2" t="n">
-        <v>0.6925079365079365</v>
-      </c>
-      <c r="Y57" s="2" t="n">
-        <v>0.7203791469194313</v>
-      </c>
-      <c r="Z57" s="2" t="n">
-        <v>0.6580363147276395</v>
-      </c>
-      <c r="AA57" s="2" t="n">
-        <v>0.9337926495141736</v>
-      </c>
-      <c r="AB57" s="2" t="n">
-        <v>0.9463878648421398</v>
-      </c>
-      <c r="AC57" s="2" t="n">
-        <v>0.65213</v>
-      </c>
-      <c r="AD57" s="2" t="n">
-        <v>0.33781</v>
-      </c>
-      <c r="AE57" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>xlm-roberta-base</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>0.4622634194376477</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>0.08678029981035876</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>0.2117178555612327</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>0.2928935602108218</v>
-      </c>
-      <c r="F58" s="2" t="n">
-        <v>0.2375634936431052</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>0.4861539023272589</v>
-      </c>
-      <c r="H58" s="2" t="n">
-        <v>0.2321452589105581</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>0.00876</v>
-      </c>
-      <c r="J58" s="2" t="n">
-        <v>0.5134610960311026</v>
-      </c>
-      <c r="K58" s="2" t="n">
-        <v>0.2674799999999999</v>
-      </c>
-      <c r="L58" s="2" t="n">
-        <v>0.2756444888903243</v>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>0.5224409381186116</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>0.5672433175176572</v>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>0.2414271814543187</v>
-      </c>
-      <c r="P58" s="2" t="n">
-        <v>0.2037478764202963</v>
-      </c>
-      <c r="Q58" s="2" t="n">
-        <v>0.03332</v>
-      </c>
-      <c r="R58" s="2" t="n">
-        <v>0.4044298462507268</v>
-      </c>
-      <c r="S58" s="2" t="n">
-        <v>0.7017890974510833</v>
-      </c>
-      <c r="T58" s="2" t="n">
-        <v>0.5328738628505576</v>
-      </c>
-      <c r="U58" s="2" t="n">
-        <v>0.1937676166614469</v>
-      </c>
-      <c r="V58" s="2" t="n">
-        <v>0.4383025367992484</v>
-      </c>
-      <c r="W58" s="2" t="n">
-        <v>0.2914448969497285</v>
-      </c>
-      <c r="X58" s="2" t="n">
-        <v>0.3191150793650793</v>
-      </c>
-      <c r="Y58" s="2" t="n">
-        <v>0.6049763033175355</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>0.1358103564223268</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>0.8544669820078381</v>
-      </c>
-      <c r="AB58" s="2" t="n">
-        <v>0.8624645232635788</v>
-      </c>
-      <c r="AC58" s="2" t="n">
-        <v>0.11649</v>
-      </c>
-      <c r="AD58" s="2" t="n">
-        <v>0.00156</v>
-      </c>
-      <c r="AE58" s="2" t="n">
-        <v>0.0045</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>xlm-roberta-large</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>0.4231665294262342</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>0.05943345675729141</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>0.1324934909347301</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>0.3402405632525344</v>
-      </c>
-      <c r="F59" s="2" t="n">
-        <v>0.2152479457502924</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>0.5001340631306734</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>0.2392064559515804</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="J59" s="2" t="n">
-        <v>0.5338491922324053</v>
-      </c>
-      <c r="K59" s="2" t="n">
-        <v>0.26616</v>
-      </c>
-      <c r="L59" s="2" t="n">
-        <v>0.3089459830689988</v>
-      </c>
-      <c r="M59" s="2" t="n">
-        <v>0.5653605568863168</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>0.5549160342530441</v>
-      </c>
-      <c r="O59" s="2" t="n">
-        <v>0.1850128406979126</v>
-      </c>
-      <c r="P59" s="2" t="n">
-        <v>0.2118476703867388</v>
-      </c>
-      <c r="Q59" s="2" t="n">
-        <v>0.06598999999999999</v>
-      </c>
-      <c r="R59" s="2" t="n">
-        <v>0.4267404394453324</v>
-      </c>
-      <c r="S59" s="2" t="n">
-        <v>0.6492966311974625</v>
-      </c>
-      <c r="T59" s="2" t="n">
-        <v>0.2594625928964929</v>
-      </c>
-      <c r="U59" s="2" t="n">
-        <v>0.1537112433448168</v>
-      </c>
-      <c r="V59" s="2" t="n">
-        <v>0.367710616974632</v>
-      </c>
-      <c r="W59" s="2" t="n">
-        <v>0.2889430627940623</v>
-      </c>
-      <c r="X59" s="2" t="n">
-        <v>0.3874368686868688</v>
-      </c>
-      <c r="Y59" s="2" t="n">
-        <v>0.6575829383886255</v>
-      </c>
-      <c r="Z59" s="2" t="n">
-        <v>0.1582044384667115</v>
-      </c>
-      <c r="AA59" s="2" t="n">
-        <v>0.8372982569551426</v>
-      </c>
-      <c r="AB59" s="2" t="n">
-        <v>0.8393372076362939</v>
-      </c>
-      <c r="AC59" s="2" t="n">
-        <v>0.12702</v>
-      </c>
-      <c r="AD59" s="2" t="n">
         <v>0.00517</v>
       </c>
-      <c r="AE59" s="2" t="n">
+      <c r="AE53" s="2" t="n">
         <v>0.01351</v>
       </c>
     </row>

--- a/analyses_outputs/results.xlsx
+++ b/analyses_outputs/results.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -68,13 +68,6 @@
     <border>
       <left/>
       <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -476,116 +469,120 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Retrieval</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Clustering</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>BitextMining</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Clustering</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>STS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Retrieval</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PairClassification</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Reranking</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Clustering</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>STS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Clustering</t>
         </is>
       </c>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Retrieval</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Clustering</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>BitextMining</t>
         </is>
       </c>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Summarization</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Reranking</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="n"/>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>PairClassification</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Retrieval</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="n"/>
       <c r="AE1" s="1" t="n"/>
     </row>
     <row r="2">
@@ -597,147 +594,147 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>BSARDRetrieval_test</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>HALClusteringS2S_test</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>DiaBlaBitextMining_test_fr-en</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>MasakhaNEWSClusteringP2P_test</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>MasakhaNEWSClusteringS2S_test</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>SICKFr_test</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>MassiveScenarioClassification_test</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>MintakaRetrieval_test</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>PawsX_test</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>AmazonReviewsClassification_test</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>AlloprofReranking_test</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>AlloProfClusteringP2P_test</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>STS22_test</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>MLSUMClusteringS2S_test</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>AlloProfClusteringS2S_test</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>SyntecRetrieval_test</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>MLSUMClusteringP2P_test</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>FloresBitextMining_dev_fra_Latn-eng_Latn</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
         <is>
           <t>FloresBitextMining_dev_eng_Latn-fra_Latn</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>MTOPIntentClassification_test</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>MTOPDomainClassification_test</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>SummEvalFr_test</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>SyntecReranking_test</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>MasakhaNEWSClassification_test</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>MassiveIntentClassification_test</t>
         </is>
       </c>
-      <c r="AA2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>OpusparcusPC_test.full</t>
         </is>
       </c>
-      <c r="AB2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>OpusparcusPC_validation.full</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>XPQARetrieval_test</t>
         </is>
       </c>
-      <c r="AD2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>AlloprofRetrieval_test</t>
-        </is>
-      </c>
-      <c r="AE2" s="1" t="inlineStr">
-        <is>
-          <t>BSARDRetrieval_test</t>
         </is>
       </c>
     </row>
@@ -758,91 +755,91 @@
         <v>0.8158927194633603</v>
       </c>
       <c r="C4" s="2" t="n">
+        <v>0.6036</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>0.2416331806317998</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.8537830877079311</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.4506890534306004</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.4239778254058173</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.783253749595937</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>0.7329858776059179</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>0.2286</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="K4" s="2" t="n">
         <v>0.5967939817396208</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="L4" s="2" t="n">
         <v>0.44786</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="2" t="n">
         <v>0.7393313825594308</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>0.5905236983747767</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="O4" s="2" t="n">
         <v>0.822666177362106</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="P4" s="2" t="n">
         <v>0.4359058441822957</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="Q4" s="2" t="n">
         <v>0.3663402207206274</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="R4" s="2" t="n">
         <v>0.84505</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="S4" s="2" t="n">
         <v>0.4310191921623729</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2" t="n">
         <v>0.6236767929846538</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="W4" s="2" t="n">
         <v>0.8924522392734107</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="X4" s="2" t="n">
         <v>0.3109710097201092</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="Y4" s="2" t="n">
         <v>0.8844444444444445</v>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Z4" s="2" t="n">
         <v>0.7656398104265404</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="AA4" s="2" t="n">
         <v>0.6744451916610625</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AB4" s="2" t="n">
         <v>0.9288541715265348</v>
       </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AC4" s="2" t="n">
         <v>0.9457289365299991</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AD4" s="2" t="n">
         <v>0.70911</v>
       </c>
-      <c r="AD4" s="2" t="n">
+      <c r="AE4" s="2" t="n">
         <v>0.48978</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0.6036</v>
       </c>
     </row>
     <row r="5">
@@ -855,91 +852,91 @@
         <v>0.5701758346273191</v>
       </c>
       <c r="C5" s="2" t="n">
+        <v>0.11261</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>0.1861576116891369</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.1131336094934851</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.3238783548898045</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="G5" s="2" t="n">
         <v>0.3317203899044766</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.6164041848098294</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="I5" s="2" t="n">
         <v>0.4418291862811029</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <v>0.02991</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="K5" s="2" t="n">
         <v>0.5078393817652131</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="L5" s="2" t="n">
         <v>0.2853599999999999</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="M5" s="2" t="n">
         <v>0.2929426466158667</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>0.5714285975098367</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="O5" s="2" t="n">
         <v>0.4135399271271215</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="P5" s="2" t="n">
         <v>0.3126641649690648</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="Q5" s="2" t="n">
         <v>0.4348241240386942</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="R5" s="2" t="n">
         <v>0.17599</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="S5" s="2" t="n">
         <v>0.4090788738384479</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="T5" s="2" t="n">
         <v>0.9204446673353393</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="U5" s="2" t="n">
         <v>0.9066087150339909</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="V5" s="2" t="n">
         <v>0.3534606952709051</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="W5" s="2" t="n">
         <v>0.6191356091450047</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="X5" s="2" t="n">
         <v>0.3070335729873741</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="Y5" s="2" t="n">
         <v>0.3942936507936509</v>
       </c>
-      <c r="Y5" s="2" t="n">
+      <c r="Z5" s="2" t="n">
         <v>0.6751184834123224</v>
       </c>
-      <c r="Z5" s="2" t="n">
+      <c r="AA5" s="2" t="n">
         <v>0.3495292535305985</v>
       </c>
-      <c r="AA5" s="2" t="n">
+      <c r="AB5" s="2" t="n">
         <v>0.8609728031715025</v>
       </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AC5" s="2" t="n">
         <v>0.8758173702252184</v>
       </c>
-      <c r="AC5" s="2" t="n">
+      <c r="AD5" s="2" t="n">
         <v>0.15897</v>
       </c>
-      <c r="AD5" s="2" t="n">
+      <c r="AE5" s="2" t="n">
         <v>0.01414</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>0.11261</v>
       </c>
     </row>
     <row r="6">
@@ -952,91 +949,91 @@
         <v>0.570654953893223</v>
       </c>
       <c r="C6" s="2" t="n">
+        <v>0.10811</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0.1954334300029073</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.1129692265139254</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.3378317847816555</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.3404565705021788</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.6165632183808489</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>0.4401479488903833</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <v>0.03014</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="K6" s="2" t="n">
         <v>0.5076824569885957</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="L6" s="2" t="n">
         <v>0.2851199999999999</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="M6" s="2" t="n">
         <v>0.293075699444281</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>0.5665935732649282</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="O6" s="2" t="n">
         <v>0.4218079567381129</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="P6" s="2" t="n">
         <v>0.314328804874776</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="Q6" s="2" t="n">
         <v>0.4215320575444813</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="R6" s="2" t="n">
         <v>0.17599</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="S6" s="2" t="n">
         <v>0.4071825511365696</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="T6" s="2" t="n">
         <v>0.9192744901370778</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="U6" s="2" t="n">
         <v>0.9066087150339909</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="V6" s="2" t="n">
         <v>0.353585969307861</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="W6" s="2" t="n">
         <v>0.6191982461634826</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="X6" s="2" t="n">
         <v>0.3122667451153068</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="Y6" s="2" t="n">
         <v>0.3942936507936509</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Z6" s="2" t="n">
         <v>0.6751184834123224</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="AA6" s="2" t="n">
         <v>0.3478816408876934</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AB6" s="2" t="n">
         <v>0.8609925738288053</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AC6" s="2" t="n">
         <v>0.8757734114810968</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AD6" s="2" t="n">
         <v>0.1556</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AE6" s="2" t="n">
         <v>0.01364</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>0.10811</v>
       </c>
     </row>
     <row r="7">
@@ -1049,91 +1046,91 @@
         <v>0.5703033340036064</v>
       </c>
       <c r="C7" s="2" t="n">
+        <v>0.11261</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>0.1960397251544971</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.05946715324206229</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.337589716019601</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.3460782647523849</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.6168581678045449</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="I7" s="2" t="n">
         <v>0.4378614660390047</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="J7" s="2" t="n">
         <v>0.03052</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="K7" s="2" t="n">
         <v>0.5073485498358526</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="L7" s="2" t="n">
         <v>0.2859599999999999</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>0.2939054280177285</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="N7" s="2" t="n">
         <v>0.5728722420376016</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="O7" s="2" t="n">
         <v>0.4282484915255096</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="P7" s="2" t="n">
         <v>0.3141069123749394</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="Q7" s="2" t="n">
         <v>0.4300157593054996</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="R7" s="2" t="n">
         <v>0.17519</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="S7" s="2" t="n">
         <v>0.4074944583831627</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="T7" s="2" t="n">
         <v>0.6332293277880038</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="U7" s="2" t="n">
         <v>0.6499806439094893</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="V7" s="2" t="n">
         <v>0.352740369558409</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="W7" s="2" t="n">
         <v>0.6170685875352333</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="X7" s="2" t="n">
         <v>0.3098048164787563</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="Y7" s="2" t="n">
         <v>0.3929484126984127</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Z7" s="2" t="n">
         <v>0.6767772511848341</v>
       </c>
-      <c r="Z7" s="2" t="n">
+      <c r="AA7" s="2" t="n">
         <v>0.3493275050437122</v>
       </c>
-      <c r="AA7" s="2" t="n">
+      <c r="AB7" s="2" t="n">
         <v>0.8604661480576208</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AC7" s="2" t="n">
         <v>0.8761939806579652</v>
       </c>
-      <c r="AC7" s="2" t="n">
+      <c r="AD7" s="2" t="n">
         <v>0.15906</v>
       </c>
-      <c r="AD7" s="2" t="n">
+      <c r="AE7" s="2" t="n">
         <v>0.01386</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <v>0.11261</v>
       </c>
     </row>
     <row r="8">
@@ -1146,91 +1143,91 @@
         <v>0.8613984001863513</v>
       </c>
       <c r="C8" s="2" t="n">
+        <v>0.56306</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>0.2443517236782352</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.7007349877195761</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.4352577047069188</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.3670529681942382</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.7770899952473914</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="I8" s="2" t="n">
         <v>0.6981170141223941</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="J8" s="2" t="n">
         <v>0.22464</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="K8" s="2" t="n">
         <v>0.6136877605231777</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="L8" s="2" t="n">
         <v>0.38396</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="M8" s="2" t="n">
         <v>0.6277308388350255</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="N8" s="2" t="n">
         <v>0.6237888550471491</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="O8" s="2" t="n">
         <v>0.8171227763972017</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="P8" s="2" t="n">
         <v>0.4295050938255963</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="Q8" s="2" t="n">
         <v>0.3986103179536452</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="R8" s="2" t="n">
         <v>0.79127</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="S8" s="2" t="n">
         <v>0.429549637509742</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="T8" s="2" t="n">
         <v>0.9919759277833501</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="U8" s="2" t="n">
         <v>0.9973253092611166</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="V8" s="2" t="n">
         <v>0.6080488568744128</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="W8" s="2" t="n">
         <v>0.8650485436893204</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="X8" s="2" t="n">
         <v>0.3160647188490759</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="Y8" s="2" t="n">
         <v>0.8217738095238094</v>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Z8" s="2" t="n">
         <v>0.7409952606635072</v>
       </c>
-      <c r="Z8" s="2" t="n">
+      <c r="AA8" s="2" t="n">
         <v>0.6380295897780768</v>
       </c>
-      <c r="AA8" s="2" t="n">
+      <c r="AB8" s="2" t="n">
         <v>0.9428131982731722</v>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AC8" s="2" t="n">
         <v>0.9533318136331852</v>
       </c>
-      <c r="AC8" s="2" t="n">
+      <c r="AD8" s="2" t="n">
         <v>0.65019</v>
       </c>
-      <c r="AD8" s="2" t="n">
+      <c r="AE8" s="2" t="n">
         <v>0.33007</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>0.56306</v>
       </c>
     </row>
     <row r="9">
@@ -1243,91 +1240,91 @@
         <v>0.7853527565797995</v>
       </c>
       <c r="C9" s="2" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>0.2370252984949168</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.8524372355009098</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.4964694067651284</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="G9" s="2" t="n">
         <v>0.3618981917730912</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.7534687515605065</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="I9" s="2" t="n">
         <v>0.6997310020174849</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="J9" s="2" t="n">
         <v>0.28144</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="K9" s="2" t="n">
         <v>0.5870544934940987</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="L9" s="2" t="n">
         <v>0.4100799999999999</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="M9" s="2" t="n">
         <v>0.7088752883376981</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="N9" s="2" t="n">
         <v>0.6137421216267173</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="O9" s="2" t="n">
         <v>0.8119061093553033</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="P9" s="2" t="n">
         <v>0.4246984637988738</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="Q9" s="2" t="n">
         <v>0.3662872206933244</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="R9" s="2" t="n">
         <v>0.80796</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="S9" s="2" t="n">
         <v>0.4286366213915852</v>
-      </c>
-      <c r="S9" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2" t="n">
         <v>0.6229877857813969</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="W9" s="2" t="n">
         <v>0.8698089570936423</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="X9" s="2" t="n">
         <v>0.307197717007175</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="Y9" s="2" t="n">
         <v>0.8457499999999999</v>
       </c>
-      <c r="Y9" s="2" t="n">
+      <c r="Z9" s="2" t="n">
         <v>0.7547393364928909</v>
       </c>
-      <c r="Z9" s="2" t="n">
+      <c r="AA9" s="2" t="n">
         <v>0.648285137861466</v>
       </c>
-      <c r="AA9" s="2" t="n">
+      <c r="AB9" s="2" t="n">
         <v>0.9305839400834288</v>
       </c>
-      <c r="AB9" s="2" t="n">
+      <c r="AC9" s="2" t="n">
         <v>0.9422828541658839</v>
       </c>
-      <c r="AC9" s="2" t="n">
+      <c r="AD9" s="2" t="n">
         <v>0.67599</v>
       </c>
-      <c r="AD9" s="2" t="n">
+      <c r="AE9" s="2" t="n">
         <v>0.41118</v>
-      </c>
-      <c r="AE9" s="2" t="n">
-        <v>0.0045</v>
       </c>
     </row>
     <row r="10">
@@ -1340,91 +1337,91 @@
         <v>0.799935484366653</v>
       </c>
       <c r="C10" s="2" t="n">
+        <v>0.57658</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>0.239541362584812</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="E10" s="2" t="n">
         <v>0.8694952864886114</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="F10" s="2" t="n">
         <v>0.4563006463136968</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="G10" s="2" t="n">
         <v>0.3086339630962708</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="H10" s="2" t="n">
         <v>0.767437746873382</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="I10" s="2" t="n">
         <v>0.712878278412912</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="J10" s="2" t="n">
         <v>0.30074</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="K10" s="2" t="n">
         <v>0.6018934804753497</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="L10" s="2" t="n">
         <v>0.42094</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="M10" s="2" t="n">
         <v>0.7222761824335505</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="N10" s="2" t="n">
         <v>0.6310932448320445</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="O10" s="3" t="n">
         <v>0.8330552085410882</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="P10" s="2" t="n">
         <v>0.4327314328859869</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="Q10" s="2" t="n">
         <v>0.373886875609376</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="R10" s="2" t="n">
         <v>0.84605</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="S10" s="2" t="n">
         <v>0.42750019998425</v>
-      </c>
-      <c r="S10" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2" t="n">
         <v>0.6854995302223614</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="W10" s="2" t="n">
         <v>0.8925148762918884</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="X10" s="2" t="n">
         <v>0.2966081877466483</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="Y10" s="2" t="n">
         <v>0.8711666666666666</v>
       </c>
-      <c r="Y10" s="2" t="n">
+      <c r="Z10" s="2" t="n">
         <v>0.7609004739336493</v>
       </c>
-      <c r="Z10" s="2" t="n">
+      <c r="AA10" s="2" t="n">
         <v>0.6736381977135171</v>
       </c>
-      <c r="AA10" s="2" t="n">
+      <c r="AB10" s="2" t="n">
         <v>0.9401979957812989</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AC10" s="2" t="n">
         <v>0.952291317855892</v>
       </c>
-      <c r="AC10" s="2" t="n">
+      <c r="AD10" s="2" t="n">
         <v>0.70221</v>
       </c>
-      <c r="AD10" s="2" t="n">
+      <c r="AE10" s="2" t="n">
         <v>0.46942</v>
-      </c>
-      <c r="AE10" s="2" t="n">
-        <v>0.57658</v>
       </c>
     </row>
     <row r="11">
@@ -1437,91 +1434,91 @@
         <v>0.7922738680429985</v>
       </c>
       <c r="C11" s="2" t="n">
+        <v>0.52252</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>0.2340128867212198</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="E11" s="2" t="n">
         <v>0.7371911997949699</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="F11" s="2" t="n">
         <v>0.5394435157885373</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="G11" s="2" t="n">
         <v>0.4105178984993857</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="H11" s="2" t="n">
         <v>0.6960017257463582</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="I11" s="2" t="n">
         <v>0.6528581035642234</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="J11" s="2" t="n">
         <v>0.21309</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="K11" s="2" t="n">
         <v>0.6313386879959426</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="L11" s="2" t="n">
         <v>0.34792</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="M11" s="2" t="n">
         <v>0.5675487985583264</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="N11" s="2" t="n">
         <v>0.6411669265073395</v>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="O11" s="2" t="n">
         <v>0.7877222611897307</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="P11" s="2" t="n">
         <v>0.3391299056452157</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="Q11" s="2" t="n">
         <v>0.325236731994226</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="R11" s="2" t="n">
         <v>0.74197</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="S11" s="2" t="n">
         <v>0.429413226398757</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="T11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="U11" s="2" t="n">
         <v>0.9973253092611166</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="V11" s="2" t="n">
         <v>0.6312245537112433</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="W11" s="2" t="n">
         <v>0.855214531788287</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="X11" s="2" t="n">
         <v>0.2904259923005852</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="Y11" s="2" t="n">
         <v>0.779595238095238</v>
       </c>
-      <c r="Y11" s="2" t="n">
+      <c r="Z11" s="2" t="n">
         <v>0.7928909952606634</v>
       </c>
-      <c r="Z11" s="2" t="n">
+      <c r="AA11" s="2" t="n">
         <v>0.5940820443846672</v>
       </c>
-      <c r="AA11" s="2" t="n">
+      <c r="AB11" s="2" t="n">
         <v>0.9141910841619804</v>
       </c>
-      <c r="AB11" s="2" t="n">
+      <c r="AC11" s="2" t="n">
         <v>0.9261526052336004</v>
       </c>
-      <c r="AC11" s="2" t="n">
+      <c r="AD11" s="2" t="n">
         <v>0.58573</v>
       </c>
-      <c r="AD11" s="2" t="n">
+      <c r="AE11" s="2" t="n">
         <v>0.29969</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>0.52252</v>
       </c>
     </row>
     <row r="12">
@@ -1534,91 +1531,91 @@
         <v>0.5224722935490146</v>
       </c>
       <c r="C12" s="2" t="n">
+        <v>0.1036</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>0.2080755658975593</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="E12" s="2" t="n">
         <v>0.2996061329422579</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="F12" s="2" t="n">
         <v>0.2423499234956803</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="G12" s="2" t="n">
         <v>0.2445999599094782</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="H12" s="2" t="n">
         <v>0.5874812845368886</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="I12" s="2" t="n">
         <v>0.4446536650975118</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="J12" s="2" t="n">
         <v>0.03554</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="K12" s="2" t="n">
         <v>0.5339388951464616</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="L12" s="2" t="n">
         <v>0.29394</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="M12" s="2" t="n">
         <v>0.3178385313302001</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="N12" s="2" t="n">
         <v>0.5149653756008361</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="O12" s="2" t="n">
         <v>0.3904525758557057</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="P12" s="2" t="n">
         <v>0.3179683201467264</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="Q12" s="2" t="n">
         <v>0.4305645671675891</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="R12" s="2" t="n">
         <v>0.18948</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="S12" s="2" t="n">
         <v>0.4090371994645377</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="T12" s="2" t="n">
         <v>0.9694082246740221</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="U12" s="2" t="n">
         <v>0.9762621196924105</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="V12" s="2" t="n">
         <v>0.3783589101158785</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="W12" s="2" t="n">
         <v>0.6361102411525212</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="X12" s="2" t="n">
         <v>0.2880779587217142</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="Y12" s="2" t="n">
         <v>0.4340515873015873</v>
       </c>
-      <c r="Y12" s="2" t="n">
+      <c r="Z12" s="2" t="n">
         <v>0.6400473933649289</v>
       </c>
-      <c r="Z12" s="2" t="n">
+      <c r="AA12" s="2" t="n">
         <v>0.3729993275050437</v>
       </c>
-      <c r="AA12" s="2" t="n">
+      <c r="AB12" s="2" t="n">
         <v>0.8677048159592717</v>
       </c>
-      <c r="AB12" s="2" t="n">
+      <c r="AC12" s="2" t="n">
         <v>0.8722976958382189</v>
       </c>
-      <c r="AC12" s="2" t="n">
+      <c r="AD12" s="2" t="n">
         <v>0.1849</v>
       </c>
-      <c r="AD12" s="2" t="n">
+      <c r="AE12" s="2" t="n">
         <v>0.01626</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>0.1036</v>
       </c>
     </row>
     <row r="13">
@@ -1631,91 +1628,91 @@
         <v>0.5497353309633939</v>
       </c>
       <c r="C13" s="2" t="n">
+        <v>0.16216</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>0.2089820298983429</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="E13" s="2" t="n">
         <v>0.3559984760058366</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="F13" s="2" t="n">
         <v>0.4971340561526633</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="G13" s="2" t="n">
         <v>0.422255814870678</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="H13" s="2" t="n">
         <v>0.5826449144443914</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="I13" s="2" t="n">
         <v>0.4363147276395427</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="J13" s="2" t="n">
         <v>0.02872</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="K13" s="2" t="n">
         <v>0.5322360899538218</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="L13" s="2" t="n">
         <v>0.29024</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="M13" s="2" t="n">
         <v>0.3277262979995819</v>
       </c>
-      <c r="M13" s="2" t="n">
+      <c r="N13" s="2" t="n">
         <v>0.6066148200885675</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="O13" s="2" t="n">
         <v>0.5647457412587442</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="P13" s="2" t="n">
         <v>0.3098774275886452</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="Q13" s="2" t="n">
         <v>0.3505397363641355</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="R13" s="2" t="n">
         <v>0.34951</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="S13" s="2" t="n">
         <v>0.4349522858689475</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="T13" s="2" t="n">
         <v>0.9477432296890672</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="U13" s="2" t="n">
         <v>0.9799398194583752</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="V13" s="2" t="n">
         <v>0.3940181647353586</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="W13" s="2" t="n">
         <v>0.644910742248669</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="X13" s="2" t="n">
         <v>0.3072334740467725</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="Y13" s="2" t="n">
         <v>0.5896785714285715</v>
       </c>
-      <c r="Y13" s="2" t="n">
+      <c r="Z13" s="2" t="n">
         <v>0.756872037914692</v>
       </c>
-      <c r="Z13" s="2" t="n">
+      <c r="AA13" s="2" t="n">
         <v>0.3800605245460659</v>
       </c>
-      <c r="AA13" s="2" t="n">
+      <c r="AB13" s="2" t="n">
         <v>0.8743393906507683</v>
       </c>
-      <c r="AB13" s="2" t="n">
+      <c r="AC13" s="2" t="n">
         <v>0.8874950508866897</v>
       </c>
-      <c r="AC13" s="2" t="n">
+      <c r="AD13" s="2" t="n">
         <v>0.26117</v>
       </c>
-      <c r="AD13" s="2" t="n">
+      <c r="AE13" s="2" t="n">
         <v>0.05506</v>
-      </c>
-      <c r="AE13" s="2" t="n">
-        <v>0.16216</v>
       </c>
     </row>
     <row r="14">
@@ -1728,91 +1725,91 @@
         <v>0.5486423488745364</v>
       </c>
       <c r="C14" s="2" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>0.1350952753315698</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="E14" s="2" t="n">
         <v>0.04331694082788507</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="F14" s="2" t="n">
         <v>0.4398103174841825</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="G14" s="2" t="n">
         <v>0.2665670855775651</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="H14" s="2" t="n">
         <v>0.5368307592304911</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="I14" s="2" t="n">
         <v>0.3948554135843981</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="J14" s="2" t="n">
         <v>0.02022</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="K14" s="2" t="n">
         <v>0.521089966496604</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="L14" s="2" t="n">
         <v>0.29814</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="M14" s="2" t="n">
         <v>0.2556621635909326</v>
       </c>
-      <c r="M14" s="2" t="n">
+      <c r="N14" s="2" t="n">
         <v>0.5423893147384338</v>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="O14" s="2" t="n">
         <v>0.6107432321823179</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="P14" s="2" t="n">
         <v>0.2663399835756784</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="Q14" s="2" t="n">
         <v>0.2918804706562174</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="R14" s="2" t="n">
         <v>0.05799</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="S14" s="2" t="n">
         <v>0.4060210180892428</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="T14" s="2" t="n">
         <v>0.2602264772347189</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="U14" s="2" t="n">
         <v>0.2515262419615453</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="V14" s="2" t="n">
         <v>0.2861259004071406</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="W14" s="2" t="n">
         <v>0.5839336047604134</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="X14" s="2" t="n">
         <v>0.2963071602202985</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="Y14" s="2" t="n">
         <v>0.361670634920635</v>
       </c>
-      <c r="Y14" s="2" t="n">
+      <c r="Z14" s="2" t="n">
         <v>0.6561611374407583</v>
       </c>
-      <c r="Z14" s="2" t="n">
+      <c r="AA14" s="2" t="n">
         <v>0.3095158036314727</v>
       </c>
-      <c r="AA14" s="2" t="n">
+      <c r="AB14" s="2" t="n">
         <v>0.8342726180422799</v>
       </c>
-      <c r="AB14" s="2" t="n">
+      <c r="AC14" s="2" t="n">
         <v>0.8601987158204568</v>
       </c>
-      <c r="AC14" s="2" t="n">
+      <c r="AD14" s="2" t="n">
         <v>0.19922</v>
       </c>
-      <c r="AD14" s="2" t="n">
+      <c r="AE14" s="2" t="n">
         <v>0.00235</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>0.0045</v>
       </c>
     </row>
     <row r="15">
@@ -1825,91 +1822,91 @@
         <v>0.6183576200859585</v>
       </c>
       <c r="C15" s="2" t="n">
+        <v>0.009010000000000001</v>
+      </c>
+      <c r="D15" s="2" t="n">
         <v>0.1838664804452286</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="E15" s="2" t="n">
         <v>0.05998688454697069</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="F15" s="2" t="n">
         <v>0.4213366020734207</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="G15" s="2" t="n">
         <v>0.3335790002411184</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="H15" s="2" t="n">
         <v>0.5880208439406661</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="I15" s="2" t="n">
         <v>0.4633490248823134</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="J15" s="2" t="n">
         <v>0.03552</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="K15" s="2" t="n">
         <v>0.5228462246810233</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="L15" s="2" t="n">
         <v>0.31168</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="M15" s="2" t="n">
         <v>0.3293934606539791</v>
       </c>
-      <c r="M15" s="2" t="n">
+      <c r="N15" s="2" t="n">
         <v>0.592712061687221</v>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="O15" s="2" t="n">
         <v>0.5725762796846933</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="P15" s="2" t="n">
         <v>0.351462769915096</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="Q15" s="2" t="n">
         <v>0.3424503121580777</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="R15" s="2" t="n">
         <v>0.17539</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="S15" s="2" t="n">
         <v>0.4408218038488301</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="T15" s="2" t="n">
         <v>0.4013712370627894</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="U15" s="2" t="n">
         <v>0.3161171999727407</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="V15" s="2" t="n">
         <v>0.4249608518634513</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="W15" s="2" t="n">
         <v>0.6839336047604134</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="X15" s="2" t="n">
         <v>0.2797711620509544</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="Y15" s="2" t="n">
         <v>0.3578185425685426</v>
       </c>
-      <c r="Y15" s="2" t="n">
+      <c r="Z15" s="2" t="n">
         <v>0.7061611374407584</v>
       </c>
-      <c r="Z15" s="2" t="n">
+      <c r="AA15" s="2" t="n">
         <v>0.3620376597175521</v>
       </c>
-      <c r="AA15" s="2" t="n">
+      <c r="AB15" s="2" t="n">
         <v>0.7663262539483096</v>
       </c>
-      <c r="AB15" s="2" t="n">
+      <c r="AC15" s="2" t="n">
         <v>0.797210507122408</v>
       </c>
-      <c r="AC15" s="2" t="n">
+      <c r="AD15" s="2" t="n">
         <v>0.20472</v>
       </c>
-      <c r="AD15" s="2" t="n">
+      <c r="AE15" s="2" t="n">
         <v>0.01968</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>0.009010000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1922,91 +1919,91 @@
         <v>0.8163901919126012</v>
       </c>
       <c r="C16" s="2" t="n">
+        <v>0.39189</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <v>0.2021549178618914</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="E16" s="2" t="n">
         <v>0.3606737729832072</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="F16" s="2" t="n">
         <v>0.3603382429363983</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="G16" s="2" t="n">
         <v>0.3076503346423071</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="H16" s="2" t="n">
         <v>0.7417817544381963</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="I16" s="2" t="n">
         <v>0.6127774041694687</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="J16" s="2" t="n">
         <v>0.13357</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="K16" s="2" t="n">
         <v>0.5743705197496742</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="L16" s="2" t="n">
         <v>0.36026</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="M16" s="2" t="n">
         <v>0.5834449233135185</v>
       </c>
-      <c r="M16" s="2" t="n">
+      <c r="N16" s="2" t="n">
         <v>0.5909203102484407</v>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="O16" s="2" t="n">
         <v>0.7753949779251178</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="P16" s="2" t="n">
         <v>0.2705338909472246</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="Q16" s="2" t="n">
         <v>0.389167691440152</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="R16" s="2" t="n">
         <v>0.68618</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="S16" s="2" t="n">
         <v>0.3597635372718684</v>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="T16" s="2" t="n">
         <v>0.8975927783350049</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="U16" s="2" t="n">
         <v>0.9007021063189569</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="V16" s="2" t="n">
         <v>0.4343877231443783</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="W16" s="2" t="n">
         <v>0.7710303789539619</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="X16" s="2" t="n">
         <v>0.2877116932900191</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="Y16" s="2" t="n">
         <v>0.7372738095238095</v>
       </c>
-      <c r="Y16" s="2" t="n">
+      <c r="Z16" s="2" t="n">
         <v>0.7035545023696683</v>
       </c>
-      <c r="Z16" s="2" t="n">
+      <c r="AA16" s="2" t="n">
         <v>0.5159381304640215</v>
       </c>
-      <c r="AA16" s="2" t="n">
+      <c r="AB16" s="2" t="n">
         <v>0.9205083560505066</v>
       </c>
-      <c r="AB16" s="2" t="n">
+      <c r="AC16" s="2" t="n">
         <v>0.9328066173124074</v>
       </c>
-      <c r="AC16" s="2" t="n">
+      <c r="AD16" s="2" t="n">
         <v>0.57916</v>
       </c>
-      <c r="AD16" s="2" t="n">
+      <c r="AE16" s="2" t="n">
         <v>0.21938</v>
-      </c>
-      <c r="AE16" s="2" t="n">
-        <v>0.39189</v>
       </c>
     </row>
     <row r="17">
@@ -2019,91 +2016,91 @@
         <v>0.7648019211186484</v>
       </c>
       <c r="C17" s="2" t="n">
+        <v>0.51802</v>
+      </c>
+      <c r="D17" s="2" t="n">
         <v>0.1731069266684963</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="E17" s="2" t="n">
         <v>0.6631613175502583</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="F17" s="2" t="n">
         <v>0.5680686305484748</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="G17" s="2" t="n">
         <v>0.294063089090014</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="H17" s="2" t="n">
         <v>0.7550483099806141</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="I17" s="2" t="n">
         <v>0.5949562878278413</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="J17" s="2" t="n">
         <v>0.23004</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="K17" s="2" t="n">
         <v>0.5731728148121378</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="L17" s="2" t="n">
         <v>0.386</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="M17" s="2" t="n">
         <v>0.7022205799056065</v>
       </c>
-      <c r="M17" s="2" t="n">
+      <c r="N17" s="2" t="n">
         <v>0.6195997777996813</v>
       </c>
-      <c r="N17" s="2" t="n">
+      <c r="O17" s="2" t="n">
         <v>0.8279714502136332</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="P17" s="2" t="n">
         <v>0.3272447200966951</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="Q17" s="2" t="n">
         <v>0.3135667338652056</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="R17" s="2" t="n">
         <v>0.7688199999999999</v>
       </c>
-      <c r="R17" s="2" t="n">
+      <c r="S17" s="2" t="n">
         <v>0.4279854786876686</v>
       </c>
-      <c r="S17" s="3" t="n">
+      <c r="T17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="U17" s="2" t="n">
         <v>0.9973253092611166</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="V17" s="2" t="n">
         <v>0.5000626370184779</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="W17" s="2" t="n">
         <v>0.8079235828374569</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="X17" s="2" t="n">
         <v>0.314006702294</v>
       </c>
-      <c r="X17" s="2" t="n">
+      <c r="Y17" s="2" t="n">
         <v>0.8196666666666665</v>
       </c>
-      <c r="Y17" s="2" t="n">
+      <c r="Z17" s="2" t="n">
         <v>0.8258293838862558</v>
       </c>
-      <c r="Z17" s="2" t="n">
+      <c r="AA17" s="2" t="n">
         <v>0.5631136516476126</v>
       </c>
-      <c r="AA17" s="2" t="n">
+      <c r="AB17" s="2" t="n">
         <v>0.9091625445064609</v>
       </c>
-      <c r="AB17" s="2" t="n">
+      <c r="AC17" s="2" t="n">
         <v>0.9209596025105193</v>
       </c>
-      <c r="AC17" s="2" t="n">
+      <c r="AD17" s="2" t="n">
         <v>0.45227</v>
       </c>
-      <c r="AD17" s="2" t="n">
+      <c r="AE17" s="2" t="n">
         <v>0.35394</v>
-      </c>
-      <c r="AE17" s="2" t="n">
-        <v>0.51802</v>
       </c>
     </row>
     <row r="18">
@@ -2116,91 +2113,91 @@
         <v>0.8184387078760932</v>
       </c>
       <c r="C18" s="2" t="n">
+        <v>0.44144</v>
+      </c>
+      <c r="D18" s="2" t="n">
         <v>0.1990356735257148</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="E18" s="2" t="n">
         <v>0.8308540836724554</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="F18" s="2" t="n">
         <v>0.5318379498672176</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="G18" s="2" t="n">
         <v>0.3230998225707994</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="H18" s="3" t="n">
         <v>0.7923250123076204</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="I18" s="2" t="n">
         <v>0.6729320780094149</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="J18" s="2" t="n">
         <v>0.25437</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="K18" s="2" t="n">
         <v>0.6125533530469982</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="L18" s="2" t="n">
         <v>0.41892</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="M18" s="2" t="n">
         <v>0.7366250957261234</v>
       </c>
-      <c r="M18" s="2" t="n">
+      <c r="N18" s="2" t="n">
         <v>0.6352561566282294</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="O18" s="2" t="n">
         <v>0.8276336405644232</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="P18" s="2" t="n">
         <v>0.347527142956374</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="Q18" s="2" t="n">
         <v>0.361759185577996</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="R18" s="2" t="n">
         <v>0.79269</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="S18" s="2" t="n">
         <v>0.4508360325363872</v>
-      </c>
-      <c r="S18" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T18" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2" t="n">
         <v>0.6107422486689634</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="W18" s="2" t="n">
         <v>0.8622925148762919</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="X18" s="2" t="n">
         <v>0.3126400952397324</v>
       </c>
-      <c r="X18" s="2" t="n">
+      <c r="Y18" s="2" t="n">
         <v>0.8365833333333333</v>
       </c>
-      <c r="Y18" s="3" t="n">
+      <c r="Z18" s="3" t="n">
         <v>0.830568720379147</v>
       </c>
-      <c r="Z18" s="2" t="n">
+      <c r="AA18" s="2" t="n">
         <v>0.629388029589778</v>
       </c>
-      <c r="AA18" s="2" t="n">
+      <c r="AB18" s="2" t="n">
         <v>0.940778214081015</v>
       </c>
-      <c r="AB18" s="2" t="n">
+      <c r="AC18" s="2" t="n">
         <v>0.9503580631772154</v>
       </c>
-      <c r="AC18" s="2" t="n">
+      <c r="AD18" s="2" t="n">
         <v>0.58873</v>
       </c>
-      <c r="AD18" s="2" t="n">
+      <c r="AE18" s="2" t="n">
         <v>0.38361</v>
-      </c>
-      <c r="AE18" s="2" t="n">
-        <v>0.44144</v>
       </c>
     </row>
     <row r="19">
@@ -2213,91 +2210,91 @@
         <v>0.3713955104980419</v>
       </c>
       <c r="C19" s="2" t="n">
+        <v>0.02252</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>0.03854581426819014</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="E19" s="2" t="n">
         <v>0.01979442433142667</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="F19" s="2" t="n">
         <v>0.4161016174685461</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="G19" s="2" t="n">
         <v>0.2126096885689954</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="H19" s="2" t="n">
         <v>0.5386168675726091</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="I19" s="2" t="n">
         <v>0.1140551445864156</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="J19" s="2" t="n">
         <v>0.00579</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="K19" s="2" t="n">
         <v>0.5189063823329726</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="L19" s="2" t="n">
         <v>0.24904</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="M19" s="2" t="n">
         <v>0.2920875344017915</v>
       </c>
-      <c r="M19" s="2" t="n">
+      <c r="N19" s="2" t="n">
         <v>0.5285934835529511</v>
       </c>
-      <c r="N19" s="2" t="n">
+      <c r="O19" s="2" t="n">
         <v>0.6536672090843911</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="P19" s="2" t="n">
         <v>0.171305846850958</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="Q19" s="2" t="n">
         <v>0.1445975007371924</v>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="R19" s="2" t="n">
         <v>0.20562</v>
       </c>
-      <c r="R19" s="2" t="n">
+      <c r="S19" s="2" t="n">
         <v>0.3905601625969005</v>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="T19" s="2" t="n">
         <v>0.3091099858805599</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="U19" s="2" t="n">
         <v>0.3585084545943069</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="V19" s="2" t="n">
         <v>0.09492640150328843</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="W19" s="2" t="n">
         <v>0.2554963983714375</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="X19" s="2" t="n">
         <v>0.312594655829165</v>
       </c>
-      <c r="X19" s="2" t="n">
+      <c r="Y19" s="2" t="n">
         <v>0.427472582972583</v>
       </c>
-      <c r="Y19" s="2" t="n">
+      <c r="Z19" s="2" t="n">
         <v>0.7113744075829384</v>
       </c>
-      <c r="Z19" s="2" t="n">
+      <c r="AA19" s="2" t="n">
         <v>0.06980497646267654</v>
       </c>
-      <c r="AA19" s="2" t="n">
+      <c r="AB19" s="2" t="n">
         <v>0.8214541028748449</v>
       </c>
-      <c r="AB19" s="2" t="n">
+      <c r="AC19" s="2" t="n">
         <v>0.8372010738024828</v>
       </c>
-      <c r="AC19" s="2" t="n">
+      <c r="AD19" s="2" t="n">
         <v>0.06587999999999999</v>
       </c>
-      <c r="AD19" s="2" t="n">
+      <c r="AE19" s="2" t="n">
         <v>0.01628</v>
-      </c>
-      <c r="AE19" s="2" t="n">
-        <v>0.02252</v>
       </c>
     </row>
     <row r="20">
@@ -2310,91 +2307,91 @@
         <v>0.3340826064580523</v>
       </c>
       <c r="C20" s="2" t="n">
+        <v>0.02703</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>0.01795603069453415</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="E20" s="2" t="n">
         <v>0.02985745352493187</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="F20" s="2" t="n">
         <v>0.2849343428327477</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="G20" s="2" t="n">
         <v>0.2257882491180909</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="H20" s="2" t="n">
         <v>0.4190237966349758</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="I20" s="2" t="n">
         <v>0.1098184263618023</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="J20" s="2" t="n">
         <v>0.00508</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="K20" s="2" t="n">
         <v>0.5277777608306072</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="L20" s="2" t="n">
         <v>0.23518</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="M20" s="2" t="n">
         <v>0.2990165728874674</v>
       </c>
-      <c r="M20" s="2" t="n">
+      <c r="N20" s="2" t="n">
         <v>0.4320222924608445</v>
       </c>
-      <c r="N20" s="2" t="n">
+      <c r="O20" s="2" t="n">
         <v>0.5515047105823337</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="P20" s="2" t="n">
         <v>0.1489756017869693</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="Q20" s="2" t="n">
         <v>0.1293857445009916</v>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="R20" s="2" t="n">
         <v>0.22333</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="S20" s="2" t="n">
         <v>0.3322371189429822</v>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="T20" s="2" t="n">
         <v>0.2537073113561774</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="U20" s="2" t="n">
         <v>0.08098894058162567</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="V20" s="2" t="n">
         <v>0.08609458189790167</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="W20" s="2" t="n">
         <v>0.2774193548387097</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="X20" s="2" t="n">
         <v>0.2942790176376187</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="Y20" s="2" t="n">
         <v>0.4900678210678211</v>
       </c>
-      <c r="Y20" s="2" t="n">
+      <c r="Z20" s="2" t="n">
         <v>0.6260663507109006</v>
       </c>
-      <c r="Z20" s="2" t="n">
+      <c r="AA20" s="2" t="n">
         <v>0.06237390719569604</v>
       </c>
-      <c r="AA20" s="2" t="n">
+      <c r="AB20" s="2" t="n">
         <v>0.8199594649342907</v>
       </c>
-      <c r="AB20" s="2" t="n">
+      <c r="AC20" s="2" t="n">
         <v>0.8371300542205431</v>
       </c>
-      <c r="AC20" s="2" t="n">
+      <c r="AD20" s="2" t="n">
         <v>0.09089999999999999</v>
       </c>
-      <c r="AD20" s="2" t="n">
+      <c r="AE20" s="2" t="n">
         <v>0.01719</v>
-      </c>
-      <c r="AE20" s="2" t="n">
-        <v>0.02703</v>
       </c>
     </row>
     <row r="21">
@@ -2407,91 +2404,91 @@
         <v>0.1565944995632818</v>
       </c>
       <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>0.05262528089639844</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="E21" s="2" t="n">
         <v>0.009125460760132157</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="F21" s="2" t="n">
         <v>0.2642955329593683</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="G21" s="2" t="n">
         <v>0.2467651379532248</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="H21" s="2" t="n">
         <v>0.3460428228637162</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="I21" s="2" t="n">
         <v>0.2271687962340282</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="J21" s="2" t="n">
         <v>0.00263</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="K21" s="2" t="n">
         <v>0.5413772297820212</v>
       </c>
-      <c r="K21" s="2" t="n">
+      <c r="L21" s="2" t="n">
         <v>0.22446</v>
       </c>
-      <c r="L21" s="2" t="n">
+      <c r="M21" s="2" t="n">
         <v>0.293477014607151</v>
       </c>
-      <c r="M21" s="2" t="n">
+      <c r="N21" s="2" t="n">
         <v>0.4085073955515567</v>
       </c>
-      <c r="N21" s="2" t="n">
+      <c r="O21" s="2" t="n">
         <v>0.4852164892537546</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="P21" s="2" t="n">
         <v>0.1871270130969609</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="Q21" s="2" t="n">
         <v>0.217556103036172</v>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="R21" s="2" t="n">
         <v>0.01578</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="S21" s="2" t="n">
         <v>0.3809040459534752</v>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="T21" s="2" t="n">
         <v>0.1491870638833542</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="U21" s="2" t="n">
         <v>0.1739429979680737</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="V21" s="2" t="n">
         <v>0.09790165988098966</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="W21" s="2" t="n">
         <v>0.2426558095834638</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="X21" s="2" t="n">
         <v>0.2924968054601468</v>
       </c>
-      <c r="X21" s="2" t="n">
+      <c r="Y21" s="2" t="n">
         <v>0.3206645021645022</v>
       </c>
-      <c r="Y21" s="2" t="n">
+      <c r="Z21" s="2" t="n">
         <v>0.5563981042654029</v>
       </c>
-      <c r="Z21" s="2" t="n">
+      <c r="AA21" s="2" t="n">
         <v>0.1641223940820444</v>
       </c>
-      <c r="AA21" s="2" t="n">
+      <c r="AB21" s="2" t="n">
         <v>0.7477882434061929</v>
       </c>
-      <c r="AB21" s="2" t="n">
+      <c r="AC21" s="2" t="n">
         <v>0.7644139372682293</v>
       </c>
-      <c r="AC21" s="2" t="n">
+      <c r="AD21" s="2" t="n">
         <v>0.03694</v>
       </c>
-      <c r="AD21" s="2" t="n">
+      <c r="AE21" s="2" t="n">
         <v>0.0058</v>
-      </c>
-      <c r="AE21" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2504,91 +2501,91 @@
         <v>0.8258035914230101</v>
       </c>
       <c r="C22" s="2" t="n">
+        <v>0.64414</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>0.2703784312414779</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="E22" s="2" t="n">
         <v>0.8537682572781737</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="F22" s="2" t="n">
         <v>0.3774396036145243</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="G22" s="3" t="n">
         <v>0.6506715922995265</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="H22" s="2" t="n">
         <v>0.7914808164798864</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="I22" s="2" t="n">
         <v>0.6982515131136517</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="J22" s="2" t="n">
         <v>0.48849</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="K22" s="2" t="n">
         <v>0.6008082215984939</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="L22" s="2" t="n">
         <v>0.44124</v>
       </c>
-      <c r="L22" s="2" t="n">
+      <c r="M22" s="2" t="n">
         <v>0.7435294651132076</v>
       </c>
-      <c r="M22" s="2" t="n">
+      <c r="N22" s="2" t="n">
         <v>0.6372358432087271</v>
       </c>
-      <c r="N22" s="2" t="n">
+      <c r="O22" s="2" t="n">
         <v>0.756267198771491</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="P22" s="2" t="n">
         <v>0.4441451479416692</v>
       </c>
-      <c r="P22" s="3" t="n">
+      <c r="Q22" s="3" t="n">
         <v>0.5813416598329056</v>
       </c>
-      <c r="Q22" s="2" t="n">
+      <c r="R22" s="2" t="n">
         <v>0.83433</v>
       </c>
-      <c r="R22" s="2" t="n">
+      <c r="S22" s="2" t="n">
         <v>0.4532798369950647</v>
-      </c>
-      <c r="S22" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T22" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2" t="n">
         <v>0.5298465393047291</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="W22" s="2" t="n">
         <v>0.8202630754776072</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="X22" s="2" t="n">
         <v>0.3120032624874787</v>
       </c>
-      <c r="X22" s="2" t="n">
+      <c r="Y22" s="2" t="n">
         <v>0.9000952380952382</v>
       </c>
-      <c r="Y22" s="2" t="n">
+      <c r="Z22" s="2" t="n">
         <v>0.7495260663507108</v>
       </c>
-      <c r="Z22" s="2" t="n">
+      <c r="AA22" s="2" t="n">
         <v>0.59862138533961</v>
       </c>
-      <c r="AA22" s="2" t="n">
+      <c r="AB22" s="2" t="n">
         <v>0.9199728356434089</v>
       </c>
-      <c r="AB22" s="2" t="n">
+      <c r="AC22" s="2" t="n">
         <v>0.9395017624590254</v>
       </c>
-      <c r="AC22" s="2" t="n">
+      <c r="AD22" s="2" t="n">
         <v>0.63403</v>
       </c>
-      <c r="AD22" s="2" t="n">
+      <c r="AE22" s="2" t="n">
         <v>0.45024</v>
-      </c>
-      <c r="AE22" s="2" t="n">
-        <v>0.64414</v>
       </c>
     </row>
     <row r="23">
@@ -2601,91 +2598,91 @@
         <v>0.8061987894341297</v>
       </c>
       <c r="C23" s="2" t="n">
+        <v>0.5315299999999999</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>0.224815183324348</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="E23" s="2" t="n">
         <v>0.8469805121423075</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="F23" s="2" t="n">
         <v>0.4790955603113446</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="G23" s="2" t="n">
         <v>0.511613591091413</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="H23" s="2" t="n">
         <v>0.7622741775011176</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="I23" s="2" t="n">
         <v>0.6648621385339609</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="J23" s="2" t="n">
         <v>0.23459</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="K23" s="2" t="n">
         <v>0.5693001208081843</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="L23" s="2" t="n">
         <v>0.40944</v>
       </c>
-      <c r="L23" s="2" t="n">
+      <c r="M23" s="2" t="n">
         <v>0.666692811769824</v>
       </c>
-      <c r="M23" s="2" t="n">
+      <c r="N23" s="2" t="n">
         <v>0.6208902532272975</v>
       </c>
-      <c r="N23" s="2" t="n">
+      <c r="O23" s="2" t="n">
         <v>0.7812983399916396</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="P23" s="2" t="n">
         <v>0.3852856167447359</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="Q23" s="2" t="n">
         <v>0.3298420160973169</v>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="R23" s="2" t="n">
         <v>0.8048999999999999</v>
       </c>
-      <c r="R23" s="2" t="n">
+      <c r="S23" s="2" t="n">
         <v>0.4347744902667021</v>
       </c>
-      <c r="S23" s="3" t="n">
+      <c r="T23" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="U23" s="2" t="n">
         <v>0.9986626546305583</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="V23" s="2" t="n">
         <v>0.5550892577513311</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="W23" s="2" t="n">
         <v>0.8478546821171312</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="X23" s="2" t="n">
         <v>0.3076006060850825</v>
       </c>
-      <c r="X23" s="2" t="n">
+      <c r="Y23" s="2" t="n">
         <v>0.8293333333333333</v>
       </c>
-      <c r="Y23" s="2" t="n">
+      <c r="Z23" s="2" t="n">
         <v>0.7969194312796208</v>
       </c>
-      <c r="Z23" s="2" t="n">
+      <c r="AA23" s="2" t="n">
         <v>0.6083389374579691</v>
       </c>
-      <c r="AA23" s="2" t="n">
+      <c r="AB23" s="2" t="n">
         <v>0.9271872509880947</v>
       </c>
-      <c r="AB23" s="2" t="n">
+      <c r="AC23" s="2" t="n">
         <v>0.9388089167367641</v>
       </c>
-      <c r="AC23" s="2" t="n">
+      <c r="AD23" s="2" t="n">
         <v>0.65813</v>
       </c>
-      <c r="AD23" s="2" t="n">
+      <c r="AE23" s="2" t="n">
         <v>0.36213</v>
-      </c>
-      <c r="AE23" s="2" t="n">
-        <v>0.5315299999999999</v>
       </c>
     </row>
     <row r="24">
@@ -2698,91 +2695,91 @@
         <v>0.825331305991469</v>
       </c>
       <c r="C24" s="2" t="n">
+        <v>0.59459</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>0.224385340783431</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="E24" s="2" t="n">
         <v>0.848343389001009</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="F24" s="2" t="n">
         <v>0.4094051717864892</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="G24" s="2" t="n">
         <v>0.3056417709980992</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="H24" s="2" t="n">
         <v>0.7877953920342992</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="I24" s="2" t="n">
         <v>0.6814727639542704</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="J24" s="2" t="n">
         <v>0.25198</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="K24" s="2" t="n">
         <v>0.5850354286368129</v>
       </c>
-      <c r="K24" s="2" t="n">
+      <c r="L24" s="2" t="n">
         <v>0.41906</v>
       </c>
-      <c r="L24" s="2" t="n">
+      <c r="M24" s="2" t="n">
         <v>0.6938624729293177</v>
       </c>
-      <c r="M24" s="2" t="n">
+      <c r="N24" s="2" t="n">
         <v>0.6299441060729347</v>
       </c>
-      <c r="N24" s="2" t="n">
+      <c r="O24" s="2" t="n">
         <v>0.7959570636221113</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="P24" s="2" t="n">
         <v>0.3764790754795183</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="Q24" s="2" t="n">
         <v>0.3226490465285985</v>
       </c>
-      <c r="Q24" s="2" t="n">
+      <c r="R24" s="2" t="n">
         <v>0.81073</v>
       </c>
-      <c r="R24" s="2" t="n">
+      <c r="S24" s="2" t="n">
         <v>0.4403584780733176</v>
-      </c>
-      <c r="S24" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2" t="n">
         <v>0.5943000313185093</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="W24" s="2" t="n">
         <v>0.8640776699029127</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="X24" s="2" t="n">
         <v>0.3091960914950717</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="Y24" s="2" t="n">
         <v>0.8286666666666666</v>
       </c>
-      <c r="Y24" s="2" t="n">
+      <c r="Z24" s="2" t="n">
         <v>0.7938388625592416</v>
       </c>
-      <c r="Z24" s="2" t="n">
+      <c r="AA24" s="2" t="n">
         <v>0.6354741089441829</v>
       </c>
-      <c r="AA24" s="2" t="n">
+      <c r="AB24" s="2" t="n">
         <v>0.938913502641856</v>
       </c>
-      <c r="AB24" s="2" t="n">
+      <c r="AC24" s="2" t="n">
         <v>0.9484999717971343</v>
       </c>
-      <c r="AC24" s="2" t="n">
+      <c r="AD24" s="2" t="n">
         <v>0.66152</v>
       </c>
-      <c r="AD24" s="2" t="n">
+      <c r="AE24" s="2" t="n">
         <v>0.38155</v>
-      </c>
-      <c r="AE24" s="2" t="n">
-        <v>0.59459</v>
       </c>
     </row>
     <row r="25">
@@ -2795,91 +2792,91 @@
         <v>0.7932089325677624</v>
       </c>
       <c r="C25" s="2" t="n">
+        <v>0.51802</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>0.1895146766129994</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="E25" s="2" t="n">
         <v>0.8191820946779194</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="F25" s="2" t="n">
         <v>0.4012052586909949</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="G25" s="2" t="n">
         <v>0.3922138626257822</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="H25" s="2" t="n">
         <v>0.7561918985563969</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="I25" s="2" t="n">
         <v>0.6141896435776732</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="J25" s="2" t="n">
         <v>0.22532</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="K25" s="2" t="n">
         <v>0.5567655997101544</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="L25" s="2" t="n">
         <v>0.39678</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="M25" s="2" t="n">
         <v>0.6527671789828227</v>
       </c>
-      <c r="M25" s="2" t="n">
+      <c r="N25" s="2" t="n">
         <v>0.6088563017856842</v>
       </c>
-      <c r="N25" s="2" t="n">
+      <c r="O25" s="2" t="n">
         <v>0.7961730402830817</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="P25" s="2" t="n">
         <v>0.3760912295232594</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="Q25" s="2" t="n">
         <v>0.3252159090813198</v>
       </c>
-      <c r="Q25" s="2" t="n">
+      <c r="R25" s="2" t="n">
         <v>0.75757</v>
       </c>
-      <c r="R25" s="2" t="n">
+      <c r="S25" s="2" t="n">
         <v>0.4319898481643542</v>
-      </c>
-      <c r="S25" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T25" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="2" t="n">
         <v>0.4600689007203257</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="W25" s="2" t="n">
         <v>0.8119636705292829</v>
       </c>
-      <c r="W25" s="3" t="n">
+      <c r="X25" s="3" t="n">
         <v>0.3184904693517336</v>
       </c>
-      <c r="X25" s="2" t="n">
+      <c r="Y25" s="2" t="n">
         <v>0.8181666666666665</v>
       </c>
-      <c r="Y25" s="2" t="n">
+      <c r="Z25" s="2" t="n">
         <v>0.7765402843601896</v>
       </c>
-      <c r="Z25" s="2" t="n">
+      <c r="AA25" s="2" t="n">
         <v>0.5596839273705447</v>
       </c>
-      <c r="AA25" s="2" t="n">
+      <c r="AB25" s="2" t="n">
         <v>0.9251631850374396</v>
       </c>
-      <c r="AB25" s="2" t="n">
+      <c r="AC25" s="2" t="n">
         <v>0.9361314066710414</v>
       </c>
-      <c r="AC25" s="2" t="n">
+      <c r="AD25" s="2" t="n">
         <v>0.57468</v>
       </c>
-      <c r="AD25" s="2" t="n">
+      <c r="AE25" s="2" t="n">
         <v>0.27011</v>
-      </c>
-      <c r="AE25" s="2" t="n">
-        <v>0.51802</v>
       </c>
     </row>
     <row r="26">
@@ -2892,91 +2889,91 @@
         <v>0.4997294509449677</v>
       </c>
       <c r="C26" s="2" t="n">
+        <v>0.32432</v>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>0.1386308009277809</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="E26" s="2" t="n">
         <v>0.02960398393820522</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="F26" s="2" t="n">
         <v>0.4020146637093098</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="G26" s="2" t="n">
         <v>0.2734727715023461</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="H26" s="2" t="n">
         <v>0.5994249043712252</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="I26" s="2" t="n">
         <v>0.4978143913920645</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="J26" s="2" t="n">
         <v>0.02784</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="K26" s="2" t="n">
         <v>0.6199445797185625</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="L26" s="2" t="n">
         <v>0.35122</v>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="M26" s="2" t="n">
         <v>0.3861486557235695</v>
       </c>
-      <c r="M26" s="2" t="n">
+      <c r="N26" s="2" t="n">
         <v>0.6222399442609416</v>
       </c>
-      <c r="N26" s="2" t="n">
+      <c r="O26" s="2" t="n">
         <v>0.7710422175271007</v>
       </c>
-      <c r="O26" s="2" t="n">
+      <c r="P26" s="2" t="n">
         <v>0.3046596247823246</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="Q26" s="2" t="n">
         <v>0.2705660566063521</v>
       </c>
-      <c r="Q26" s="2" t="n">
+      <c r="R26" s="2" t="n">
         <v>0.40572</v>
       </c>
-      <c r="R26" s="2" t="n">
+      <c r="S26" s="2" t="n">
         <v>0.4411463190530258</v>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="T26" s="2" t="n">
         <v>0.7507920742612434</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="U26" s="2" t="n">
         <v>0.7753324186122581</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="V26" s="2" t="n">
         <v>0.5124960851863452</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="W26" s="2" t="n">
         <v>0.6924209207641716</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="X26" s="2" t="n">
         <v>0.2947773908643301</v>
       </c>
-      <c r="X26" s="2" t="n">
+      <c r="Y26" s="2" t="n">
         <v>0.4799292929292929</v>
       </c>
-      <c r="Y26" s="2" t="n">
+      <c r="Z26" s="2" t="n">
         <v>0.8082938388625592</v>
       </c>
-      <c r="Z26" s="2" t="n">
+      <c r="AA26" s="2" t="n">
         <v>0.4321116341627437</v>
       </c>
-      <c r="AA26" s="2" t="n">
+      <c r="AB26" s="2" t="n">
         <v>0.8553994259572022</v>
       </c>
-      <c r="AB26" s="2" t="n">
+      <c r="AC26" s="2" t="n">
         <v>0.8699512931793678</v>
       </c>
-      <c r="AC26" s="2" t="n">
+      <c r="AD26" s="2" t="n">
         <v>0.33816</v>
       </c>
-      <c r="AD26" s="2" t="n">
+      <c r="AE26" s="2" t="n">
         <v>0.12368</v>
-      </c>
-      <c r="AE26" s="2" t="n">
-        <v>0.32432</v>
       </c>
     </row>
     <row r="27">
@@ -2989,91 +2986,91 @@
         <v>0.367797062871304</v>
       </c>
       <c r="C27" s="2" t="n">
+        <v>0.06306</v>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>0.07676232398725595</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="E27" s="2" t="n">
         <v>0.08123300931367383</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="F27" s="2" t="n">
         <v>0.3756989794785178</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="G27" s="2" t="n">
         <v>0.2057636370254607</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="H27" s="2" t="n">
         <v>0.5454151151439361</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="I27" s="2" t="n">
         <v>0.2167451244115669</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="J27" s="2" t="n">
         <v>0.00478</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="K27" s="2" t="n">
         <v>0.5968876661366747</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="L27" s="2" t="n">
         <v>0.2685</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="M27" s="2" t="n">
         <v>0.3071196838846439</v>
       </c>
-      <c r="M27" s="2" t="n">
+      <c r="N27" s="2" t="n">
         <v>0.5356669323782933</v>
       </c>
-      <c r="N27" s="2" t="n">
+      <c r="O27" s="2" t="n">
         <v>0.6134778039151253</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="P27" s="2" t="n">
         <v>0.252602955617548</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="Q27" s="2" t="n">
         <v>0.2213080649584274</v>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="R27" s="2" t="n">
         <v>0.24447</v>
       </c>
-      <c r="R27" s="2" t="n">
+      <c r="S27" s="2" t="n">
         <v>0.3643378561194323</v>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="T27" s="2" t="n">
         <v>0.4982878074063394</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="U27" s="2" t="n">
         <v>0.3735697737011764</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="V27" s="2" t="n">
         <v>0.1575634199812089</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="W27" s="2" t="n">
         <v>0.3498590667084247</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="X27" s="2" t="n">
         <v>0.236335996838468</v>
       </c>
-      <c r="X27" s="2" t="n">
+      <c r="Y27" s="2" t="n">
         <v>0.4720992063492064</v>
       </c>
-      <c r="Y27" s="2" t="n">
+      <c r="Z27" s="2" t="n">
         <v>0.6793838862559242</v>
       </c>
-      <c r="Z27" s="2" t="n">
+      <c r="AA27" s="2" t="n">
         <v>0.1509078681909886</v>
       </c>
-      <c r="AA27" s="2" t="n">
+      <c r="AB27" s="2" t="n">
         <v>0.821028497835868</v>
       </c>
-      <c r="AB27" s="2" t="n">
+      <c r="AC27" s="2" t="n">
         <v>0.8387532049805303</v>
       </c>
-      <c r="AC27" s="2" t="n">
+      <c r="AD27" s="2" t="n">
         <v>0.12977</v>
       </c>
-      <c r="AD27" s="2" t="n">
+      <c r="AE27" s="2" t="n">
         <v>0.01977</v>
-      </c>
-      <c r="AE27" s="2" t="n">
-        <v>0.06306</v>
       </c>
     </row>
     <row r="28">
@@ -3086,91 +3083,91 @@
         <v>0.698190921587828</v>
       </c>
       <c r="C28" s="2" t="n">
+        <v>0.08108</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>0.1152462522943653</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="E28" s="2" t="n">
         <v>0.8592414264387124</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="F28" s="2" t="n">
         <v>0.3204069399698778</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="G28" s="2" t="n">
         <v>0.2977201517756452</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="H28" s="2" t="n">
         <v>0.6495173425879137</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="I28" s="2" t="n">
         <v>0.5855749831876261</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="J28" s="2" t="n">
         <v>0.06314</v>
       </c>
-      <c r="J28" s="3" t="n">
+      <c r="K28" s="3" t="n">
         <v>0.6952503411108341</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="L28" s="2" t="n">
         <v>0.3389</v>
       </c>
-      <c r="L28" s="2" t="n">
+      <c r="M28" s="2" t="n">
         <v>0.3949722119087398</v>
       </c>
-      <c r="M28" s="2" t="n">
+      <c r="N28" s="2" t="n">
         <v>0.4844987065316271</v>
       </c>
-      <c r="N28" s="2" t="n">
+      <c r="O28" s="2" t="n">
         <v>0.6526537801367611</v>
       </c>
-      <c r="O28" s="2" t="n">
+      <c r="P28" s="2" t="n">
         <v>0.2734632035175874</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="Q28" s="2" t="n">
         <v>0.2581005978931367</v>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="R28" s="2" t="n">
         <v>0.28578</v>
       </c>
-      <c r="R28" s="2" t="n">
+      <c r="S28" s="2" t="n">
         <v>0.3452771955734939</v>
-      </c>
-      <c r="S28" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="2" t="n">
         <v>0.5677106169746321</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="W28" s="2" t="n">
         <v>0.7615408706545569</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="X28" s="2" t="n">
         <v>0.3156475744412745</v>
       </c>
-      <c r="X28" s="2" t="n">
+      <c r="Y28" s="2" t="n">
         <v>0.4901031746031747</v>
       </c>
-      <c r="Y28" s="2" t="n">
+      <c r="Z28" s="2" t="n">
         <v>0.659004739336493</v>
       </c>
-      <c r="Z28" s="2" t="n">
+      <c r="AA28" s="2" t="n">
         <v>0.5255548083389374</v>
       </c>
-      <c r="AA28" s="2" t="n">
+      <c r="AB28" s="2" t="n">
         <v>0.9376676402095003</v>
       </c>
-      <c r="AB28" s="2" t="n">
+      <c r="AC28" s="2" t="n">
         <v>0.9461924042044693</v>
       </c>
-      <c r="AC28" s="2" t="n">
+      <c r="AD28" s="2" t="n">
         <v>0.42589</v>
       </c>
-      <c r="AD28" s="2" t="n">
+      <c r="AE28" s="2" t="n">
         <v>0.03097</v>
-      </c>
-      <c r="AE28" s="2" t="n">
-        <v>0.08108</v>
       </c>
     </row>
     <row r="29">
@@ -3183,91 +3180,91 @@
         <v>0.8130363449669112</v>
       </c>
       <c r="C29" s="2" t="n">
+        <v>0.5315299999999999</v>
+      </c>
+      <c r="D29" s="2" t="n">
         <v>0.2426017909651959</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="E29" s="2" t="n">
         <v>0.8278011992260426</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="F29" s="2" t="n">
         <v>0.292272082926912</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="G29" s="2" t="n">
         <v>0.4157909770352988</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="H29" s="2" t="n">
         <v>0.7550779819674533</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="I29" s="2" t="n">
         <v>0.7456960322797579</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="J29" s="2" t="n">
         <v>0.25173</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="K29" s="2" t="n">
         <v>0.6094421871363481</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="L29" s="2" t="n">
         <v>0.42324</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="M29" s="2" t="n">
         <v>0.7368891701668482</v>
       </c>
-      <c r="M29" s="2" t="n">
+      <c r="N29" s="2" t="n">
         <v>0.5757878622622551</v>
       </c>
-      <c r="N29" s="2" t="n">
+      <c r="O29" s="2" t="n">
         <v>0.8190001119887127</v>
       </c>
-      <c r="O29" s="2" t="n">
+      <c r="P29" s="2" t="n">
         <v>0.4243781497829743</v>
       </c>
-      <c r="P29" s="2" t="n">
+      <c r="Q29" s="2" t="n">
         <v>0.3944229454079622</v>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="R29" s="2" t="n">
         <v>0.79145</v>
       </c>
-      <c r="R29" s="2" t="n">
+      <c r="S29" s="2" t="n">
         <v>0.4214163246845126</v>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="T29" s="2" t="n">
         <v>0.9986626546305583</v>
       </c>
-      <c r="T29" s="3" t="n">
+      <c r="U29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="V29" s="2" t="n">
         <v>0.6082054494206075</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="W29" s="2" t="n">
         <v>0.903883495145631</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="X29" s="2" t="n">
         <v>0.3005908023438207</v>
       </c>
-      <c r="X29" s="2" t="n">
+      <c r="Y29" s="2" t="n">
         <v>0.845873015873016</v>
       </c>
-      <c r="Y29" s="2" t="n">
+      <c r="Z29" s="2" t="n">
         <v>0.7023696682464454</v>
       </c>
-      <c r="Z29" s="2" t="n">
+      <c r="AA29" s="2" t="n">
         <v>0.6669468728984532</v>
       </c>
-      <c r="AA29" s="2" t="n">
+      <c r="AB29" s="2" t="n">
         <v>0.9333973385767004</v>
       </c>
-      <c r="AB29" s="2" t="n">
+      <c r="AC29" s="2" t="n">
         <v>0.944701727209905</v>
       </c>
-      <c r="AC29" s="2" t="n">
+      <c r="AD29" s="2" t="n">
         <v>0.68492</v>
       </c>
-      <c r="AD29" s="2" t="n">
+      <c r="AE29" s="2" t="n">
         <v>0.44746</v>
-      </c>
-      <c r="AE29" s="2" t="n">
-        <v>0.5315299999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3280,91 +3277,91 @@
         <v>0.7262832939213406</v>
       </c>
       <c r="C30" s="2" t="n">
+        <v>0.6036</v>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>0.2548325975781052</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="E30" s="2" t="n">
         <v>0.7490244473049233</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="F30" s="2" t="n">
         <v>0.5574960450682011</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="G30" s="2" t="n">
         <v>0.3227666866562461</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="H30" s="2" t="n">
         <v>0.6912509283105648</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="I30" s="2" t="n">
         <v>0.7008406186953597</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="J30" s="2" t="n">
         <v>0.26351</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="K30" s="2" t="n">
         <v>0.668665650886613</v>
       </c>
-      <c r="K30" s="2" t="n">
+      <c r="L30" s="2" t="n">
         <v>0.38106</v>
       </c>
-      <c r="L30" s="2" t="n">
+      <c r="M30" s="2" t="n">
         <v>0.7196818323283877</v>
       </c>
-      <c r="M30" s="2" t="n">
+      <c r="N30" s="2" t="n">
         <v>0.6224457184731559</v>
       </c>
-      <c r="N30" s="2" t="n">
+      <c r="O30" s="2" t="n">
         <v>0.792794943790982</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="P30" s="2" t="n">
         <v>0.4438422214552257</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="Q30" s="2" t="n">
         <v>0.3796537550876475</v>
       </c>
-      <c r="Q30" s="2" t="n">
+      <c r="R30" s="2" t="n">
         <v>0.7870200000000001</v>
       </c>
-      <c r="R30" s="2" t="n">
+      <c r="S30" s="2" t="n">
         <v>0.4460491760281284</v>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="T30" s="2" t="n">
         <v>0.9973253092611166</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="U30" s="2" t="n">
         <v>0.9986626546305583</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="V30" s="2" t="n">
         <v>0.6147823363607892</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="W30" s="2" t="n">
         <v>0.885812715314751</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="X30" s="2" t="n">
         <v>0.2963260674606215</v>
       </c>
-      <c r="X30" s="2" t="n">
+      <c r="Y30" s="2" t="n">
         <v>0.8224285714285715</v>
       </c>
-      <c r="Y30" s="2" t="n">
+      <c r="Z30" s="2" t="n">
         <v>0.7552132701421801</v>
       </c>
-      <c r="Z30" s="2" t="n">
+      <c r="AA30" s="2" t="n">
         <v>0.6383658372562205</v>
       </c>
-      <c r="AA30" s="2" t="n">
+      <c r="AB30" s="2" t="n">
         <v>0.9315589224053143</v>
       </c>
-      <c r="AB30" s="2" t="n">
+      <c r="AC30" s="2" t="n">
         <v>0.93299242831188</v>
       </c>
-      <c r="AC30" s="2" t="n">
+      <c r="AD30" s="2" t="n">
         <v>0.61914</v>
       </c>
-      <c r="AD30" s="2" t="n">
+      <c r="AE30" s="2" t="n">
         <v>0.45487</v>
-      </c>
-      <c r="AE30" s="2" t="n">
-        <v>0.6036</v>
       </c>
     </row>
     <row r="31">
@@ -3377,91 +3374,91 @@
         <v>0.7765803549830591</v>
       </c>
       <c r="C31" s="2" t="n">
+        <v>0.65766</v>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>0.2632047044833564</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="E31" s="2" t="n">
         <v>0.7737718097451919</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="F31" s="2" t="n">
         <v>0.5799405225219099</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="G31" s="2" t="n">
         <v>0.3769405326971794</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="H31" s="2" t="n">
         <v>0.719770122605619</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="I31" s="2" t="n">
         <v>0.6986550100874244</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="J31" s="2" t="n">
         <v>0.2965</v>
       </c>
-      <c r="J31" s="2" t="n">
+      <c r="K31" s="2" t="n">
         <v>0.6542042805601268</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="L31" s="2" t="n">
         <v>0.3631</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="M31" s="2" t="n">
         <v>0.7364325943253973</v>
       </c>
-      <c r="M31" s="2" t="n">
+      <c r="N31" s="2" t="n">
         <v>0.6049889083017318</v>
       </c>
-      <c r="N31" s="2" t="n">
+      <c r="O31" s="2" t="n">
         <v>0.8133791809403829</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="P31" s="2" t="n">
         <v>0.4381914693719002</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="Q31" s="2" t="n">
         <v>0.4058550987695524</v>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="R31" s="2" t="n">
         <v>0.8033</v>
       </c>
-      <c r="R31" s="2" t="n">
+      <c r="S31" s="2" t="n">
         <v>0.4422111049954497</v>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="T31" s="2" t="n">
         <v>0.9986626546305583</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="U31" s="2" t="n">
         <v>0.9973253092611166</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="V31" s="2" t="n">
         <v>0.592890698402756</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="W31" s="2" t="n">
         <v>0.8825555903538993</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="X31" s="2" t="n">
         <v>0.3099183622495067</v>
       </c>
-      <c r="X31" s="2" t="n">
+      <c r="Y31" s="2" t="n">
         <v>0.8217023809523809</v>
       </c>
-      <c r="Y31" s="2" t="n">
+      <c r="Z31" s="2" t="n">
         <v>0.75781990521327</v>
       </c>
-      <c r="Z31" s="2" t="n">
+      <c r="AA31" s="2" t="n">
         <v>0.6489240080699393</v>
       </c>
-      <c r="AA31" s="2" t="n">
+      <c r="AB31" s="2" t="n">
         <v>0.9346759444633187</v>
       </c>
-      <c r="AB31" s="2" t="n">
+      <c r="AC31" s="2" t="n">
         <v>0.9401873666553365</v>
       </c>
-      <c r="AC31" s="2" t="n">
+      <c r="AD31" s="2" t="n">
         <v>0.64217</v>
       </c>
-      <c r="AD31" s="2" t="n">
+      <c r="AE31" s="2" t="n">
         <v>0.49088</v>
-      </c>
-      <c r="AE31" s="2" t="n">
-        <v>0.65766</v>
       </c>
     </row>
     <row r="32">
@@ -3474,91 +3471,91 @@
         <v>0.7972225305052291</v>
       </c>
       <c r="C32" s="2" t="n">
+        <v>0.6756799999999999</v>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>0.2617385576460144</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="E32" s="2" t="n">
         <v>0.7486276019358121</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="F32" s="2" t="n">
         <v>0.4812513474674608</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="G32" s="2" t="n">
         <v>0.3961706213267493</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="H32" s="2" t="n">
         <v>0.7621241859440422</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="I32" s="2" t="n">
         <v>0.6971418964357767</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="J32" s="2" t="n">
         <v>0.21732</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="K32" s="2" t="n">
         <v>0.6202390909948808</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="L32" s="2" t="n">
         <v>0.41594</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="M32" s="2" t="n">
         <v>0.7796140728300852</v>
       </c>
-      <c r="M32" s="2" t="n">
+      <c r="N32" s="2" t="n">
         <v>0.6200673531656187</v>
       </c>
-      <c r="N32" s="2" t="n">
+      <c r="O32" s="2" t="n">
         <v>0.8274398153558601</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="P32" s="2" t="n">
         <v>0.427376128032198</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="Q32" s="2" t="n">
         <v>0.4919858181804794</v>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="R32" s="2" t="n">
         <v>0.7877</v>
       </c>
-      <c r="R32" s="2" t="n">
+      <c r="S32" s="2" t="n">
         <v>0.4527933950642883</v>
       </c>
-      <c r="S32" s="3" t="n">
+      <c r="T32" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="U32" s="2" t="n">
         <v>0.9973253092611166</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="V32" s="2" t="n">
         <v>0.6608831819605385</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="W32" s="2" t="n">
         <v>0.9005010961478235</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="X32" s="2" t="n">
         <v>0.3146953192338591</v>
       </c>
-      <c r="X32" s="2" t="n">
+      <c r="Y32" s="2" t="n">
         <v>0.8122619047619049</v>
       </c>
-      <c r="Y32" s="2" t="n">
+      <c r="Z32" s="2" t="n">
         <v>0.8139810426540285</v>
       </c>
-      <c r="Z32" s="2" t="n">
+      <c r="AA32" s="2" t="n">
         <v>0.6283120376597177</v>
       </c>
-      <c r="AA32" s="2" t="n">
+      <c r="AB32" s="2" t="n">
         <v>0.9261462822985623</v>
       </c>
-      <c r="AB32" s="2" t="n">
+      <c r="AC32" s="2" t="n">
         <v>0.9390344015481578</v>
       </c>
-      <c r="AC32" s="2" t="n">
+      <c r="AD32" s="2" t="n">
         <v>0.74235</v>
       </c>
-      <c r="AD32" s="2" t="n">
+      <c r="AE32" s="2" t="n">
         <v>0.56836</v>
-      </c>
-      <c r="AE32" s="2" t="n">
-        <v>0.6756799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3571,91 +3568,91 @@
         <v>0.7509746606428888</v>
       </c>
       <c r="C33" s="2" t="n">
+        <v>0.22973</v>
+      </c>
+      <c r="D33" s="2" t="n">
         <v>0.2061928108108767</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="E33" s="2" t="n">
         <v>0.8754400001529438</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="F33" s="2" t="n">
         <v>0.4615982853044859</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="G33" s="2" t="n">
         <v>0.3813297329222706</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="H33" s="2" t="n">
         <v>0.699399693283394</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="I33" s="2" t="n">
         <v>0.6510423671822462</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="J33" s="2" t="n">
         <v>0.15529</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="K33" s="2" t="n">
         <v>0.5463098409665733</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="L33" s="2" t="n">
         <v>0.3852399999999999</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="M33" s="2" t="n">
         <v>0.5537476614602802</v>
       </c>
-      <c r="M33" s="2" t="n">
+      <c r="N33" s="2" t="n">
         <v>0.5478373637265357</v>
       </c>
-      <c r="N33" s="2" t="n">
+      <c r="O33" s="2" t="n">
         <v>0.779542837388368</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="P33" s="2" t="n">
         <v>0.348364243914043</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="Q33" s="2" t="n">
         <v>0.316037738871091</v>
       </c>
-      <c r="Q33" s="2" t="n">
+      <c r="R33" s="2" t="n">
         <v>0.55315</v>
       </c>
-      <c r="R33" s="2" t="n">
+      <c r="S33" s="2" t="n">
         <v>0.4209325634914144</v>
-      </c>
-      <c r="S33" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" s="2" t="n">
         <v>0.6201064829314126</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="W33" s="2" t="n">
         <v>0.8413717507046664</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="X33" s="2" t="n">
         <v>0.301637456328485</v>
       </c>
-      <c r="X33" s="2" t="n">
+      <c r="Y33" s="2" t="n">
         <v>0.6762063492063493</v>
       </c>
-      <c r="Y33" s="2" t="n">
+      <c r="Z33" s="2" t="n">
         <v>0.7739336492890996</v>
       </c>
-      <c r="Z33" s="2" t="n">
+      <c r="AA33" s="2" t="n">
         <v>0.6046738399462004</v>
       </c>
-      <c r="AA33" s="2" t="n">
+      <c r="AB33" s="2" t="n">
         <v>0.9395623291640002</v>
       </c>
-      <c r="AB33" s="2" t="n">
+      <c r="AC33" s="2" t="n">
         <v>0.9441484444599348</v>
       </c>
-      <c r="AC33" s="2" t="n">
+      <c r="AD33" s="2" t="n">
         <v>0.51736</v>
       </c>
-      <c r="AD33" s="2" t="n">
+      <c r="AE33" s="2" t="n">
         <v>0.19775</v>
-      </c>
-      <c r="AE33" s="2" t="n">
-        <v>0.22973</v>
       </c>
     </row>
     <row r="34">
@@ -3668,91 +3665,91 @@
         <v>0.6667725575200975</v>
       </c>
       <c r="C34" s="2" t="n">
+        <v>0.34234</v>
+      </c>
+      <c r="D34" s="2" t="n">
         <v>0.1957951528987704</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="E34" s="2" t="n">
         <v>0.096967565885423</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="F34" s="2" t="n">
         <v>0.4271872726070847</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="G34" s="2" t="n">
         <v>0.3246835377100011</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="H34" s="2" t="n">
         <v>0.6316238159087848</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="I34" s="2" t="n">
         <v>0.537626092804304</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="J34" s="2" t="n">
         <v>0.16079</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="K34" s="2" t="n">
         <v>0.5552853885736202</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="L34" s="2" t="n">
         <v>0.2754</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="M34" s="2" t="n">
         <v>0.6701369640322303</v>
       </c>
-      <c r="M34" s="2" t="n">
+      <c r="N34" s="2" t="n">
         <v>0.4602594872664162</v>
       </c>
-      <c r="N34" s="2" t="n">
+      <c r="O34" s="2" t="n">
         <v>0.6951402658537921</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="P34" s="2" t="n">
         <v>0.2929559187477989</v>
       </c>
-      <c r="P34" s="2" t="n">
+      <c r="Q34" s="2" t="n">
         <v>0.3182943689925971</v>
       </c>
-      <c r="Q34" s="2" t="n">
+      <c r="R34" s="2" t="n">
         <v>0.608</v>
       </c>
-      <c r="R34" s="2" t="n">
+      <c r="S34" s="2" t="n">
         <v>0.3435218323840786</v>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="T34" s="2" t="n">
         <v>0.7091264534343772</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="U34" s="2" t="n">
         <v>0.6191113021604495</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="V34" s="2" t="n">
         <v>0.3893830253679925</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="W34" s="2" t="n">
         <v>0.7559348575007829</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="X34" s="2" t="n">
         <v>0.2662863565868236</v>
       </c>
-      <c r="X34" s="2" t="n">
+      <c r="Y34" s="2" t="n">
         <v>0.6917023809523809</v>
       </c>
-      <c r="Y34" s="2" t="n">
+      <c r="Z34" s="2" t="n">
         <v>0.7220379146919431</v>
       </c>
-      <c r="Z34" s="2" t="n">
+      <c r="AA34" s="2" t="n">
         <v>0.4481506388702085</v>
       </c>
-      <c r="AA34" s="2" t="n">
+      <c r="AB34" s="2" t="n">
         <v>0.8734880754144339</v>
       </c>
-      <c r="AB34" s="2" t="n">
+      <c r="AC34" s="2" t="n">
         <v>0.8779525332075913</v>
       </c>
-      <c r="AC34" s="2" t="n">
+      <c r="AD34" s="2" t="n">
         <v>0.55899</v>
       </c>
-      <c r="AD34" s="2" t="n">
+      <c r="AE34" s="2" t="n">
         <v>0.33196</v>
-      </c>
-      <c r="AE34" s="2" t="n">
-        <v>0.34234</v>
       </c>
     </row>
     <row r="35">
@@ -3765,91 +3762,91 @@
         <v>0.6493028232792631</v>
       </c>
       <c r="C35" s="2" t="n">
+        <v>0.27477</v>
+      </c>
+      <c r="D35" s="2" t="n">
         <v>0.1884080354213321</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="E35" s="2" t="n">
         <v>0.03498878152491112</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="F35" s="2" t="n">
         <v>0.3492044210457986</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="G35" s="2" t="n">
         <v>0.4057681708831091</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="H35" s="2" t="n">
         <v>0.6248225654609475</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="I35" s="2" t="n">
         <v>0.5115669132481506</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="J35" s="2" t="n">
         <v>0.09195</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="K35" s="2" t="n">
         <v>0.5539810428438392</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="L35" s="2" t="n">
         <v>0.2689800000000001</v>
       </c>
-      <c r="L35" s="2" t="n">
+      <c r="M35" s="2" t="n">
         <v>0.6262172640988071</v>
       </c>
-      <c r="M35" s="2" t="n">
+      <c r="N35" s="2" t="n">
         <v>0.5183078853752063</v>
       </c>
-      <c r="N35" s="2" t="n">
+      <c r="O35" s="2" t="n">
         <v>0.7700398643056744</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="P35" s="2" t="n">
         <v>0.2811790550911384</v>
       </c>
-      <c r="P35" s="2" t="n">
+      <c r="Q35" s="2" t="n">
         <v>0.3206588333216591</v>
       </c>
-      <c r="Q35" s="2" t="n">
+      <c r="R35" s="2" t="n">
         <v>0.60148</v>
       </c>
-      <c r="R35" s="2" t="n">
+      <c r="S35" s="2" t="n">
         <v>0.3673575599443643</v>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="T35" s="2" t="n">
         <v>0.6231354410624419</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="U35" s="2" t="n">
         <v>0.564793587110538</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="V35" s="2" t="n">
         <v>0.3965236454744754</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="W35" s="2" t="n">
         <v>0.7508299404948324</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="X35" s="2" t="n">
         <v>0.2828180757815488</v>
       </c>
-      <c r="X35" s="2" t="n">
+      <c r="Y35" s="2" t="n">
         <v>0.6730793650793651</v>
       </c>
-      <c r="Y35" s="2" t="n">
+      <c r="Z35" s="2" t="n">
         <v>0.740521327014218</v>
       </c>
-      <c r="Z35" s="2" t="n">
+      <c r="AA35" s="2" t="n">
         <v>0.4263954270342972</v>
       </c>
-      <c r="AA35" s="2" t="n">
+      <c r="AB35" s="2" t="n">
         <v>0.8652704370552743</v>
       </c>
-      <c r="AB35" s="2" t="n">
+      <c r="AC35" s="2" t="n">
         <v>0.8759124475461358</v>
       </c>
-      <c r="AC35" s="2" t="n">
+      <c r="AD35" s="2" t="n">
         <v>0.51786</v>
       </c>
-      <c r="AD35" s="2" t="n">
+      <c r="AE35" s="2" t="n">
         <v>0.28413</v>
-      </c>
-      <c r="AE35" s="2" t="n">
-        <v>0.27477</v>
       </c>
     </row>
     <row r="36">
@@ -3862,91 +3859,91 @@
         <v>0.7748827876122101</v>
       </c>
       <c r="C36" s="2" t="n">
+        <v>0.28829</v>
+      </c>
+      <c r="D36" s="2" t="n">
         <v>0.1820092523936601</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="E36" s="2" t="n">
         <v>0.8327728076127141</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="F36" s="2" t="n">
         <v>0.5376154899329338</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="G36" s="2" t="n">
         <v>0.3276276082145452</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="H36" s="2" t="n">
         <v>0.7249442911000451</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="I36" s="2" t="n">
         <v>0.6738735709482178</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="J36" s="2" t="n">
         <v>0.22545</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="K36" s="2" t="n">
         <v>0.5107538398683125</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="L36" s="2" t="n">
         <v>0.35764</v>
       </c>
-      <c r="L36" s="2" t="n">
+      <c r="M36" s="2" t="n">
         <v>0.6237756079207663</v>
       </c>
-      <c r="M36" s="2" t="n">
+      <c r="N36" s="2" t="n">
         <v>0.5595373948625354</v>
       </c>
-      <c r="N36" s="2" t="n">
+      <c r="O36" s="2" t="n">
         <v>0.7641254265129491</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="P36" s="2" t="n">
         <v>0.3464793188683687</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="Q36" s="2" t="n">
         <v>0.3538541904887588</v>
       </c>
-      <c r="Q36" s="2" t="n">
+      <c r="R36" s="2" t="n">
         <v>0.65338</v>
       </c>
-      <c r="R36" s="2" t="n">
+      <c r="S36" s="2" t="n">
         <v>0.4017045078734119</v>
-      </c>
-      <c r="S36" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T36" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2" t="n">
         <v>0.5610710930159725</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="W36" s="2" t="n">
         <v>0.8498277481991858</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="X36" s="2" t="n">
         <v>0.2812111546255657</v>
       </c>
-      <c r="X36" s="2" t="n">
+      <c r="Y36" s="2" t="n">
         <v>0.7463571428571428</v>
       </c>
-      <c r="Y36" s="2" t="n">
+      <c r="Z36" s="2" t="n">
         <v>0.7687203791469195</v>
       </c>
-      <c r="Z36" s="2" t="n">
+      <c r="AA36" s="2" t="n">
         <v>0.598285137861466</v>
       </c>
-      <c r="AA36" s="2" t="n">
+      <c r="AB36" s="2" t="n">
         <v>0.9207498432598107</v>
       </c>
-      <c r="AB36" s="2" t="n">
+      <c r="AC36" s="2" t="n">
         <v>0.9374506536091047</v>
       </c>
-      <c r="AC36" s="2" t="n">
+      <c r="AD36" s="2" t="n">
         <v>0.51196</v>
       </c>
-      <c r="AD36" s="2" t="n">
+      <c r="AE36" s="2" t="n">
         <v>0.26994</v>
-      </c>
-      <c r="AE36" s="2" t="n">
-        <v>0.28829</v>
       </c>
     </row>
     <row r="37">
@@ -3959,91 +3956,91 @@
         <v>0.6384700996869166</v>
       </c>
       <c r="C37" s="2" t="n">
+        <v>0.2973</v>
+      </c>
+      <c r="D37" s="2" t="n">
         <v>0.124913841593586</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="E37" s="2" t="n">
         <v>0.08784505319023178</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="F37" s="2" t="n">
         <v>0.5372744669883476</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="G37" s="2" t="n">
         <v>0.2726838058131417</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="H37" s="2" t="n">
         <v>0.6210588256655486</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="I37" s="2" t="n">
         <v>0.499226630800269</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="J37" s="2" t="n">
         <v>0.16312</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="K37" s="2" t="n">
         <v>0.5736104900905769</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="L37" s="2" t="n">
         <v>0.27046</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="M37" s="2" t="n">
         <v>0.6295365014472553</v>
       </c>
-      <c r="M37" s="2" t="n">
+      <c r="N37" s="2" t="n">
         <v>0.4913194595542176</v>
       </c>
-      <c r="N37" s="2" t="n">
+      <c r="O37" s="2" t="n">
         <v>0.7461882879262099</v>
       </c>
-      <c r="O37" s="2" t="n">
+      <c r="P37" s="2" t="n">
         <v>0.2595314882250714</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="Q37" s="2" t="n">
         <v>0.2615924058641751</v>
       </c>
-      <c r="Q37" s="2" t="n">
+      <c r="R37" s="2" t="n">
         <v>0.58073</v>
       </c>
-      <c r="R37" s="2" t="n">
+      <c r="S37" s="2" t="n">
         <v>0.3514684027308759</v>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="T37" s="2" t="n">
         <v>0.5537365949388782</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="U37" s="2" t="n">
         <v>0.5046345385362436</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="V37" s="2" t="n">
         <v>0.3718446601941748</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="W37" s="2" t="n">
         <v>0.7296899467585343</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="X37" s="2" t="n">
         <v>0.2759064320988224</v>
       </c>
-      <c r="X37" s="2" t="n">
+      <c r="Y37" s="2" t="n">
         <v>0.6505281385281385</v>
       </c>
-      <c r="Y37" s="2" t="n">
+      <c r="Z37" s="2" t="n">
         <v>0.7561611374407583</v>
       </c>
-      <c r="Z37" s="2" t="n">
+      <c r="AA37" s="2" t="n">
         <v>0.4264290517821117</v>
       </c>
-      <c r="AA37" s="2" t="n">
+      <c r="AB37" s="2" t="n">
         <v>0.8806670648536865</v>
       </c>
-      <c r="AB37" s="2" t="n">
+      <c r="AC37" s="2" t="n">
         <v>0.8776887387170348</v>
       </c>
-      <c r="AC37" s="2" t="n">
+      <c r="AD37" s="2" t="n">
         <v>0.48832</v>
       </c>
-      <c r="AD37" s="2" t="n">
+      <c r="AE37" s="2" t="n">
         <v>0.30229</v>
-      </c>
-      <c r="AE37" s="2" t="n">
-        <v>0.2973</v>
       </c>
     </row>
     <row r="38">
@@ -4056,91 +4053,91 @@
         <v>0.7989821675921884</v>
       </c>
       <c r="C38" s="2" t="n">
+        <v>0.37838</v>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>0.2320666181560827</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="E38" s="2" t="n">
         <v>0.7772438859983376</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="F38" s="2" t="n">
         <v>0.3657831649774737</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="G38" s="2" t="n">
         <v>0.3389979666918544</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="H38" s="2" t="n">
         <v>0.75102380757868</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="I38" s="2" t="n">
         <v>0.6451916610625421</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="J38" s="2" t="n">
         <v>0.21535</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="K38" s="2" t="n">
         <v>0.5694456712082714</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="L38" s="2" t="n">
         <v>0.36758</v>
       </c>
-      <c r="L38" s="2" t="n">
+      <c r="M38" s="2" t="n">
         <v>0.6242438219619088</v>
       </c>
-      <c r="M38" s="2" t="n">
+      <c r="N38" s="2" t="n">
         <v>0.5606489195760765</v>
       </c>
-      <c r="N38" s="2" t="n">
+      <c r="O38" s="2" t="n">
         <v>0.7054517669493489</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="P38" s="2" t="n">
         <v>0.3654820279096755</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="Q38" s="2" t="n">
         <v>0.4215818771542176</v>
       </c>
-      <c r="Q38" s="2" t="n">
+      <c r="R38" s="2" t="n">
         <v>0.65543</v>
       </c>
-      <c r="R38" s="2" t="n">
+      <c r="S38" s="2" t="n">
         <v>0.3997152802677553</v>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="T38" s="2" t="n">
         <v>0.9986626546305583</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="U38" s="2" t="n">
         <v>0.995987963891675</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="V38" s="2" t="n">
         <v>0.4793611024115252</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="W38" s="2" t="n">
         <v>0.7769808957093642</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="X38" s="2" t="n">
         <v>0.2919931043966207</v>
       </c>
-      <c r="X38" s="2" t="n">
+      <c r="Y38" s="2" t="n">
         <v>0.7250396825396825</v>
       </c>
-      <c r="Y38" s="2" t="n">
+      <c r="Z38" s="2" t="n">
         <v>0.7609004739336493</v>
       </c>
-      <c r="Z38" s="2" t="n">
+      <c r="AA38" s="2" t="n">
         <v>0.5751513113651648</v>
       </c>
-      <c r="AA38" s="2" t="n">
+      <c r="AB38" s="2" t="n">
         <v>0.9200522043693091</v>
       </c>
-      <c r="AB38" s="2" t="n">
+      <c r="AC38" s="2" t="n">
         <v>0.9414470609254002</v>
       </c>
-      <c r="AC38" s="2" t="n">
+      <c r="AD38" s="2" t="n">
         <v>0.42511</v>
       </c>
-      <c r="AD38" s="2" t="n">
+      <c r="AE38" s="2" t="n">
         <v>0.26634</v>
-      </c>
-      <c r="AE38" s="2" t="n">
-        <v>0.37838</v>
       </c>
     </row>
     <row r="39">
@@ -4153,91 +4150,91 @@
         <v>0.8469135860099118</v>
       </c>
       <c r="C39" s="2" t="n">
+        <v>0.42793</v>
+      </c>
+      <c r="D39" s="2" t="n">
         <v>0.239677482639205</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="E39" s="2" t="n">
         <v>0.8067461852300057</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="F39" s="2" t="n">
         <v>0.41569311482541</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="G39" s="2" t="n">
         <v>0.3087579159546582</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="H39" s="2" t="n">
         <v>0.755583681044677</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="I39" s="2" t="n">
         <v>0.678950907868191</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="J39" s="2" t="n">
         <v>0.24454</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="K39" s="2" t="n">
         <v>0.5814276884080426</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="L39" s="2" t="n">
         <v>0.40138</v>
       </c>
-      <c r="L39" s="2" t="n">
+      <c r="M39" s="2" t="n">
         <v>0.6720432168620495</v>
       </c>
-      <c r="M39" s="2" t="n">
+      <c r="N39" s="2" t="n">
         <v>0.5449402070854203</v>
       </c>
-      <c r="N39" s="2" t="n">
+      <c r="O39" s="2" t="n">
         <v>0.7430483195474878</v>
       </c>
-      <c r="O39" s="2" t="n">
+      <c r="P39" s="2" t="n">
         <v>0.3753003494348933</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="Q39" s="2" t="n">
         <v>0.4478667196341167</v>
       </c>
-      <c r="Q39" s="2" t="n">
+      <c r="R39" s="2" t="n">
         <v>0.75998</v>
       </c>
-      <c r="R39" s="2" t="n">
+      <c r="S39" s="2" t="n">
         <v>0.4055377595140954</v>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="T39" s="2" t="n">
         <v>0.9986626546305584</v>
       </c>
-      <c r="T39" s="3" t="n">
+      <c r="U39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="V39" s="2" t="n">
         <v>0.5203570310053242</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="W39" s="2" t="n">
         <v>0.8029126213592234</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="X39" s="2" t="n">
         <v>0.2946828386641493</v>
       </c>
-      <c r="X39" s="2" t="n">
+      <c r="Y39" s="2" t="n">
         <v>0.8096666666666666</v>
       </c>
-      <c r="Y39" s="2" t="n">
+      <c r="Z39" s="2" t="n">
         <v>0.7810426540284359</v>
       </c>
-      <c r="Z39" s="2" t="n">
+      <c r="AA39" s="2" t="n">
         <v>0.6187962340282447</v>
       </c>
-      <c r="AA39" s="2" t="n">
+      <c r="AB39" s="2" t="n">
         <v>0.9345353677987358</v>
       </c>
-      <c r="AB39" s="2" t="n">
+      <c r="AC39" s="2" t="n">
         <v>0.9530638045019797</v>
       </c>
-      <c r="AC39" s="2" t="n">
+      <c r="AD39" s="2" t="n">
         <v>0.46221</v>
       </c>
-      <c r="AD39" s="2" t="n">
+      <c r="AE39" s="2" t="n">
         <v>0.30799</v>
-      </c>
-      <c r="AE39" s="2" t="n">
-        <v>0.42793</v>
       </c>
     </row>
     <row r="40">
@@ -4250,91 +4247,91 @@
         <v>0.7404061698113868</v>
       </c>
       <c r="C40" s="2" t="n">
+        <v>0.3964</v>
+      </c>
+      <c r="D40" s="2" t="n">
         <v>0.1771709655357738</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="E40" s="2" t="n">
         <v>0.551313531869022</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="F40" s="2" t="n">
         <v>0.6190485205190622</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="G40" s="2" t="n">
         <v>0.3564262992341879</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="H40" s="2" t="n">
         <v>0.7173634724227647</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="I40" s="2" t="n">
         <v>0.5991930060524545</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="J40" s="2" t="n">
         <v>0.2104</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="K40" s="2" t="n">
         <v>0.5535169602026141</v>
       </c>
-      <c r="K40" s="2" t="n">
+      <c r="L40" s="2" t="n">
         <v>0.3735</v>
       </c>
-      <c r="L40" s="2" t="n">
+      <c r="M40" s="2" t="n">
         <v>0.6322134288038879</v>
       </c>
-      <c r="M40" s="2" t="n">
+      <c r="N40" s="2" t="n">
         <v>0.5844150763298186</v>
       </c>
-      <c r="N40" s="2" t="n">
+      <c r="O40" s="2" t="n">
         <v>0.7768846630995027</v>
       </c>
-      <c r="O40" s="2" t="n">
+      <c r="P40" s="2" t="n">
         <v>0.3006026181192261</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="Q40" s="2" t="n">
         <v>0.3593354716276945</v>
       </c>
-      <c r="Q40" s="2" t="n">
+      <c r="R40" s="2" t="n">
         <v>0.66999</v>
       </c>
-      <c r="R40" s="2" t="n">
+      <c r="S40" s="2" t="n">
         <v>0.4076920517896694</v>
       </c>
-      <c r="S40" s="2" t="n">
+      <c r="T40" s="2" t="n">
         <v>0.9735874289535272</v>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="U40" s="2" t="n">
         <v>0.9615513206285523</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="V40" s="2" t="n">
         <v>0.4384591293454432</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="W40" s="2" t="n">
         <v>0.7502975258377701</v>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="X40" s="2" t="n">
         <v>0.3000911423350935</v>
       </c>
-      <c r="X40" s="2" t="n">
+      <c r="Y40" s="2" t="n">
         <v>0.758845238095238</v>
       </c>
-      <c r="Y40" s="2" t="n">
+      <c r="Z40" s="2" t="n">
         <v>0.812085308056872</v>
       </c>
-      <c r="Z40" s="2" t="n">
+      <c r="AA40" s="2" t="n">
         <v>0.5113315400134499</v>
       </c>
-      <c r="AA40" s="2" t="n">
+      <c r="AB40" s="2" t="n">
         <v>0.8939826485982256</v>
       </c>
-      <c r="AB40" s="2" t="n">
+      <c r="AC40" s="2" t="n">
         <v>0.9004953622645687</v>
       </c>
-      <c r="AC40" s="2" t="n">
+      <c r="AD40" s="2" t="n">
         <v>0.45191</v>
       </c>
-      <c r="AD40" s="2" t="n">
+      <c r="AE40" s="2" t="n">
         <v>0.27523</v>
-      </c>
-      <c r="AE40" s="2" t="n">
-        <v>0.3964</v>
       </c>
     </row>
     <row r="41">
@@ -4347,91 +4344,91 @@
         <v>0.7759236947905355</v>
       </c>
       <c r="C41" s="2" t="n">
+        <v>0.46847</v>
+      </c>
+      <c r="D41" s="2" t="n">
         <v>0.1873235586707495</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="E41" s="2" t="n">
         <v>0.7109667114459385</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="F41" s="2" t="n">
         <v>0.585985794265385</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="G41" s="2" t="n">
         <v>0.3133479963331417</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="H41" s="2" t="n">
         <v>0.7282743267188198</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="I41" s="2" t="n">
         <v>0.6360121049092132</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="J41" s="2" t="n">
         <v>0.23918</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="K41" s="2" t="n">
         <v>0.5958684223229149</v>
       </c>
-      <c r="K41" s="2" t="n">
+      <c r="L41" s="2" t="n">
         <v>0.4147999999999999</v>
       </c>
-      <c r="L41" s="2" t="n">
+      <c r="M41" s="2" t="n">
         <v>0.6754584284213152</v>
       </c>
-      <c r="M41" s="2" t="n">
+      <c r="N41" s="2" t="n">
         <v>0.6182277140780882</v>
       </c>
-      <c r="N41" s="2" t="n">
+      <c r="O41" s="2" t="n">
         <v>0.750086943549879</v>
       </c>
-      <c r="O41" s="2" t="n">
+      <c r="P41" s="2" t="n">
         <v>0.3186940328271737</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="Q41" s="2" t="n">
         <v>0.3977568234064501</v>
       </c>
-      <c r="Q41" s="2" t="n">
+      <c r="R41" s="2" t="n">
         <v>0.71053</v>
       </c>
-      <c r="R41" s="2" t="n">
+      <c r="S41" s="2" t="n">
         <v>0.4207261111658658</v>
       </c>
-      <c r="S41" s="2" t="n">
+      <c r="T41" s="2" t="n">
         <v>0.9919759277833501</v>
       </c>
-      <c r="T41" s="2" t="n">
+      <c r="U41" s="2" t="n">
         <v>0.9866265463055833</v>
       </c>
-      <c r="U41" s="2" t="n">
+      <c r="V41" s="2" t="n">
         <v>0.4772940808017538</v>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="W41" s="2" t="n">
         <v>0.795959912308174</v>
       </c>
-      <c r="W41" s="2" t="n">
+      <c r="X41" s="2" t="n">
         <v>0.3022765637412754</v>
       </c>
-      <c r="X41" s="2" t="n">
+      <c r="Y41" s="2" t="n">
         <v>0.782813492063492</v>
       </c>
-      <c r="Y41" s="2" t="n">
+      <c r="Z41" s="2" t="n">
         <v>0.8042654028436018</v>
       </c>
-      <c r="Z41" s="2" t="n">
+      <c r="AA41" s="2" t="n">
         <v>0.5701412239408203</v>
       </c>
-      <c r="AA41" s="2" t="n">
+      <c r="AB41" s="2" t="n">
         <v>0.911862793751712</v>
       </c>
-      <c r="AB41" s="2" t="n">
+      <c r="AC41" s="2" t="n">
         <v>0.9186413027481362</v>
       </c>
-      <c r="AC41" s="2" t="n">
+      <c r="AD41" s="2" t="n">
         <v>0.48792</v>
       </c>
-      <c r="AD41" s="2" t="n">
+      <c r="AE41" s="2" t="n">
         <v>0.34518</v>
-      </c>
-      <c r="AE41" s="2" t="n">
-        <v>0.46847</v>
       </c>
     </row>
     <row r="42">
@@ -4444,91 +4441,91 @@
         <v>0.794154396398088</v>
       </c>
       <c r="C42" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="2" t="n">
         <v>0.2027889302653955</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="E42" s="2" t="n">
         <v>0.7586314484331536</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="F42" s="2" t="n">
         <v>0.6282235512125198</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="G42" s="2" t="n">
         <v>0.3173861927815954</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="H42" s="2" t="n">
         <v>0.7508041932935345</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="I42" s="2" t="n">
         <v>0.6641560188298588</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="J42" s="2" t="n">
         <v>0.31539</v>
       </c>
-      <c r="J42" s="2" t="n">
+      <c r="K42" s="2" t="n">
         <v>0.6252251289274147</v>
       </c>
-      <c r="K42" s="2" t="n">
+      <c r="L42" s="2" t="n">
         <v>0.43516</v>
       </c>
-      <c r="L42" s="2" t="n">
+      <c r="M42" s="2" t="n">
         <v>0.711535861715982</v>
       </c>
-      <c r="M42" s="2" t="n">
+      <c r="N42" s="2" t="n">
         <v>0.6037247542497267</v>
       </c>
-      <c r="N42" s="2" t="n">
+      <c r="O42" s="2" t="n">
         <v>0.7749353352876681</v>
       </c>
-      <c r="O42" s="2" t="n">
+      <c r="P42" s="2" t="n">
         <v>0.3360365488455902</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="Q42" s="2" t="n">
         <v>0.4076035180401736</v>
       </c>
-      <c r="Q42" s="2" t="n">
+      <c r="R42" s="2" t="n">
         <v>0.74237</v>
       </c>
-      <c r="R42" s="2" t="n">
+      <c r="S42" s="2" t="n">
         <v>0.4161005491114602</v>
-      </c>
-      <c r="S42" s="2" t="n">
-        <v>0.9919759277833501</v>
       </c>
       <c r="T42" s="2" t="n">
         <v>0.9919759277833501</v>
       </c>
       <c r="U42" s="2" t="n">
+        <v>0.9919759277833501</v>
+      </c>
+      <c r="V42" s="2" t="n">
         <v>0.5439085499530223</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="W42" s="2" t="n">
         <v>0.8514249921703726</v>
       </c>
-      <c r="W42" s="2" t="n">
+      <c r="X42" s="2" t="n">
         <v>0.3159390228650623</v>
       </c>
-      <c r="X42" s="2" t="n">
+      <c r="Y42" s="2" t="n">
         <v>0.8092543290043289</v>
       </c>
-      <c r="Y42" s="2" t="n">
+      <c r="Z42" s="2" t="n">
         <v>0.8009478672985783</v>
       </c>
-      <c r="Z42" s="2" t="n">
+      <c r="AA42" s="2" t="n">
         <v>0.6098520511096167</v>
       </c>
-      <c r="AA42" s="2" t="n">
+      <c r="AB42" s="2" t="n">
         <v>0.9248433060784351</v>
       </c>
-      <c r="AB42" s="2" t="n">
+      <c r="AC42" s="2" t="n">
         <v>0.9378969696931576</v>
       </c>
-      <c r="AC42" s="2" t="n">
+      <c r="AD42" s="2" t="n">
         <v>0.5214299999999999</v>
       </c>
-      <c r="AD42" s="2" t="n">
+      <c r="AE42" s="2" t="n">
         <v>0.40375</v>
-      </c>
-      <c r="AE42" s="2" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="43">
@@ -4541,91 +4538,91 @@
         <v>0.8124450977788589</v>
       </c>
       <c r="C43" s="2" t="n">
+        <v>0.5585599999999999</v>
+      </c>
+      <c r="D43" s="2" t="n">
         <v>0.2140492459012981</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="E43" s="2" t="n">
         <v>0.8324518195666728</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="F43" s="2" t="n">
         <v>0.6114553646367987</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="G43" s="2" t="n">
         <v>0.3823921323645222</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="H43" s="2" t="n">
         <v>0.7706782664515456</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="I43" s="2" t="n">
         <v>0.6853059852051111</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="J43" s="2" t="n">
         <v>0.34929</v>
       </c>
-      <c r="J43" s="2" t="n">
+      <c r="K43" s="2" t="n">
         <v>0.639782556744936</v>
       </c>
-      <c r="K43" s="2" t="n">
+      <c r="L43" s="2" t="n">
         <v>0.4608800000000001</v>
       </c>
-      <c r="L43" s="2" t="n">
+      <c r="M43" s="2" t="n">
         <v>0.7523712951211723</v>
       </c>
-      <c r="M43" s="2" t="n">
+      <c r="N43" s="2" t="n">
         <v>0.6097713304012906</v>
       </c>
-      <c r="N43" s="2" t="n">
+      <c r="O43" s="2" t="n">
         <v>0.7680240821366182</v>
       </c>
-      <c r="O43" s="2" t="n">
+      <c r="P43" s="2" t="n">
         <v>0.3524745757300218</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="Q43" s="2" t="n">
         <v>0.4350024233904722</v>
       </c>
-      <c r="Q43" s="2" t="n">
+      <c r="R43" s="2" t="n">
         <v>0.78975</v>
       </c>
-      <c r="R43" s="2" t="n">
+      <c r="S43" s="2" t="n">
         <v>0.4224117195163593</v>
       </c>
-      <c r="S43" s="2" t="n">
+      <c r="T43" s="2" t="n">
         <v>0.9973253092611166</v>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="U43" s="2" t="n">
         <v>0.9986626546305583</v>
       </c>
-      <c r="U43" s="2" t="n">
+      <c r="V43" s="2" t="n">
         <v>0.5833385530848731</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="W43" s="2" t="n">
         <v>0.8620106482931412</v>
       </c>
-      <c r="W43" s="2" t="n">
+      <c r="X43" s="2" t="n">
         <v>0.3039226775800043</v>
       </c>
-      <c r="X43" s="2" t="n">
+      <c r="Y43" s="2" t="n">
         <v>0.8171666666666667</v>
       </c>
-      <c r="Y43" s="2" t="n">
+      <c r="Z43" s="2" t="n">
         <v>0.7909952606635071</v>
       </c>
-      <c r="Z43" s="2" t="n">
+      <c r="AA43" s="2" t="n">
         <v>0.6590786819098857</v>
       </c>
-      <c r="AA43" s="2" t="n">
+      <c r="AB43" s="2" t="n">
         <v>0.9394372210364297</v>
       </c>
-      <c r="AB43" s="2" t="n">
+      <c r="AC43" s="2" t="n">
         <v>0.9511141986772736</v>
       </c>
-      <c r="AC43" s="2" t="n">
+      <c r="AD43" s="2" t="n">
         <v>0.56202</v>
       </c>
-      <c r="AD43" s="2" t="n">
+      <c r="AE43" s="2" t="n">
         <v>0.45748</v>
-      </c>
-      <c r="AE43" s="2" t="n">
-        <v>0.5585599999999999</v>
       </c>
     </row>
     <row r="44">
@@ -4638,91 +4635,91 @@
         <v>0.8347595626027418</v>
       </c>
       <c r="C44" s="2" t="n">
+        <v>0.26126</v>
+      </c>
+      <c r="D44" s="2" t="n">
         <v>0.1619070583380436</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="E44" s="2" t="n">
         <v>0.7780898243854504</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="F44" s="2" t="n">
         <v>0.3850723861796326</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="G44" s="2" t="n">
         <v>0.3251081280317133</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="H44" s="2" t="n">
         <v>0.7724805746003676</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="I44" s="2" t="n">
         <v>0.5830867518493612</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="J44" s="2" t="n">
         <v>0.14812</v>
       </c>
-      <c r="J44" s="2" t="n">
+      <c r="K44" s="2" t="n">
         <v>0.6556847028211261</v>
       </c>
-      <c r="K44" s="2" t="n">
+      <c r="L44" s="2" t="n">
         <v>0.34254</v>
       </c>
-      <c r="L44" s="2" t="n">
+      <c r="M44" s="2" t="n">
         <v>0.556826861955334</v>
       </c>
-      <c r="M44" s="2" t="n">
+      <c r="N44" s="2" t="n">
         <v>0.4910742502173265</v>
       </c>
-      <c r="N44" s="2" t="n">
+      <c r="O44" s="2" t="n">
         <v>0.7409937723367189</v>
       </c>
-      <c r="O44" s="2" t="n">
+      <c r="P44" s="2" t="n">
         <v>0.303885451410444</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="Q44" s="2" t="n">
         <v>0.3272237759178746</v>
       </c>
-      <c r="Q44" s="2" t="n">
+      <c r="R44" s="2" t="n">
         <v>0.49694</v>
       </c>
-      <c r="R44" s="2" t="n">
+      <c r="S44" s="2" t="n">
         <v>0.3619042628585186</v>
       </c>
-      <c r="S44" s="2" t="n">
+      <c r="T44" s="2" t="n">
         <v>0.9879638916750251</v>
       </c>
-      <c r="T44" s="2" t="n">
+      <c r="U44" s="2" t="n">
         <v>0.9946506185222334</v>
       </c>
-      <c r="U44" s="2" t="n">
+      <c r="V44" s="2" t="n">
         <v>0.4453492013780145</v>
       </c>
-      <c r="V44" s="2" t="n">
+      <c r="W44" s="2" t="n">
         <v>0.7182586908863138</v>
       </c>
-      <c r="W44" s="2" t="n">
+      <c r="X44" s="2" t="n">
         <v>0.2933489058303607</v>
       </c>
-      <c r="X44" s="2" t="n">
+      <c r="Y44" s="2" t="n">
         <v>0.6281626984126983</v>
       </c>
-      <c r="Y44" s="2" t="n">
+      <c r="Z44" s="2" t="n">
         <v>0.7383886255924171</v>
       </c>
-      <c r="Z44" s="2" t="n">
+      <c r="AA44" s="2" t="n">
         <v>0.5193006052454606</v>
       </c>
-      <c r="AA44" s="2" t="n">
+      <c r="AB44" s="2" t="n">
         <v>0.9204078160599214</v>
       </c>
-      <c r="AB44" s="2" t="n">
+      <c r="AC44" s="2" t="n">
         <v>0.9395153724999291</v>
       </c>
-      <c r="AC44" s="2" t="n">
+      <c r="AD44" s="2" t="n">
         <v>0.404</v>
       </c>
-      <c r="AD44" s="2" t="n">
+      <c r="AE44" s="2" t="n">
         <v>0.18899</v>
-      </c>
-      <c r="AE44" s="2" t="n">
-        <v>0.26126</v>
       </c>
     </row>
     <row r="45">
@@ -4735,91 +4732,91 @@
         <v>0.825163980735896</v>
       </c>
       <c r="C45" s="3" t="n">
+        <v>0.73423</v>
+      </c>
+      <c r="D45" s="3" t="n">
         <v>0.2796643625096684</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="E45" s="3" t="n">
         <v>0.884362910537232</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="F45" s="2" t="n">
         <v>0.5270799653215082</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="G45" s="2" t="n">
         <v>0.3970800658666344</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="H45" s="2" t="n">
         <v>0.7874564096121601</v>
       </c>
-      <c r="H45" s="3" t="n">
+      <c r="I45" s="3" t="n">
         <v>0.7646267652992602</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="J45" s="3" t="n">
         <v>0.62957</v>
       </c>
-      <c r="J45" s="2" t="n">
+      <c r="K45" s="2" t="n">
         <v>0.6487004383237154</v>
       </c>
-      <c r="K45" s="3" t="n">
+      <c r="L45" s="3" t="n">
         <v>0.46196</v>
       </c>
-      <c r="L45" s="3" t="n">
+      <c r="M45" s="3" t="n">
         <v>0.8044786254258053</v>
       </c>
-      <c r="M45" s="2" t="n">
+      <c r="N45" s="2" t="n">
         <v>0.6188729664384736</v>
       </c>
-      <c r="N45" s="2" t="n">
+      <c r="O45" s="2" t="n">
         <v>0.8218742629385483</v>
       </c>
-      <c r="O45" s="3" t="n">
+      <c r="P45" s="3" t="n">
         <v>0.4572072923344249</v>
       </c>
-      <c r="P45" s="2" t="n">
+      <c r="Q45" s="2" t="n">
         <v>0.5383026633586214</v>
       </c>
-      <c r="Q45" s="3" t="n">
+      <c r="R45" s="3" t="n">
         <v>0.8686700000000001</v>
       </c>
-      <c r="R45" s="2" t="n">
+      <c r="S45" s="2" t="n">
         <v>0.4589797204034647</v>
-      </c>
-      <c r="S45" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T45" s="3" t="n">
         <v>1</v>
       </c>
       <c r="U45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" s="3" t="n">
         <v>0.7367679298465393</v>
       </c>
-      <c r="V45" s="3" t="n">
+      <c r="W45" s="3" t="n">
         <v>0.9337300344503602</v>
       </c>
-      <c r="W45" s="2" t="n">
+      <c r="X45" s="2" t="n">
         <v>0.2958989154199727</v>
       </c>
-      <c r="X45" s="3" t="n">
+      <c r="Y45" s="3" t="n">
         <v>0.9156666666666666</v>
       </c>
-      <c r="Y45" s="2" t="n">
+      <c r="Z45" s="2" t="n">
         <v>0.8218009478672986</v>
       </c>
-      <c r="Z45" s="3" t="n">
+      <c r="AA45" s="3" t="n">
         <v>0.713315400134499</v>
       </c>
-      <c r="AA45" s="3" t="n">
+      <c r="AB45" s="3" t="n">
         <v>0.956495941906191</v>
       </c>
-      <c r="AB45" s="3" t="n">
+      <c r="AC45" s="3" t="n">
         <v>0.9632216568565823</v>
       </c>
-      <c r="AC45" s="3" t="n">
+      <c r="AD45" s="3" t="n">
         <v>0.76519</v>
       </c>
-      <c r="AD45" s="3" t="n">
+      <c r="AE45" s="3" t="n">
         <v>0.60282</v>
-      </c>
-      <c r="AE45" s="3" t="n">
-        <v>0.73423</v>
       </c>
     </row>
     <row r="46">
@@ -4832,91 +4829,91 @@
         <v>0.8113498962069088</v>
       </c>
       <c r="C46" s="2" t="n">
+        <v>0.65766</v>
+      </c>
+      <c r="D46" s="2" t="n">
         <v>0.2704358042080826</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="E46" s="2" t="n">
         <v>0.8569611214966121</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="F46" s="2" t="n">
         <v>0.4524961818598886</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="G46" s="2" t="n">
         <v>0.5476153105172287</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="H46" s="2" t="n">
         <v>0.7569412697440474</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="I46" s="2" t="n">
         <v>0.7329186281102892</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="J46" s="2" t="n">
         <v>0.41674</v>
       </c>
-      <c r="J46" s="2" t="n">
+      <c r="K46" s="2" t="n">
         <v>0.6136061823257404</v>
       </c>
-      <c r="K46" s="2" t="n">
+      <c r="L46" s="2" t="n">
         <v>0.4284000000000001</v>
       </c>
-      <c r="L46" s="2" t="n">
+      <c r="M46" s="2" t="n">
         <v>0.7411183812926199</v>
       </c>
-      <c r="M46" s="2" t="n">
+      <c r="N46" s="2" t="n">
         <v>0.6142121566849555</v>
       </c>
-      <c r="N46" s="2" t="n">
+      <c r="O46" s="2" t="n">
         <v>0.8086996866193595</v>
       </c>
-      <c r="O46" s="2" t="n">
+      <c r="P46" s="2" t="n">
         <v>0.4567430092008721</v>
       </c>
-      <c r="P46" s="2" t="n">
+      <c r="Q46" s="2" t="n">
         <v>0.5097017531638819</v>
       </c>
-      <c r="Q46" s="2" t="n">
+      <c r="R46" s="2" t="n">
         <v>0.86816</v>
       </c>
-      <c r="R46" s="3" t="n">
+      <c r="S46" s="3" t="n">
         <v>0.4626366669004257</v>
-      </c>
-      <c r="S46" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T46" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U46" s="2" t="n">
+      <c r="U46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" s="2" t="n">
         <v>0.678640776699029</v>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="W46" s="2" t="n">
         <v>0.9088318196053869</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="X46" s="2" t="n">
         <v>0.3049243366483514</v>
       </c>
-      <c r="X46" s="2" t="n">
+      <c r="Y46" s="2" t="n">
         <v>0.8945000000000001</v>
       </c>
-      <c r="Y46" s="2" t="n">
+      <c r="Z46" s="2" t="n">
         <v>0.7646919431279622</v>
       </c>
-      <c r="Z46" s="2" t="n">
+      <c r="AA46" s="2" t="n">
         <v>0.6779757901815737</v>
       </c>
-      <c r="AA46" s="2" t="n">
+      <c r="AB46" s="2" t="n">
         <v>0.9444824312907959</v>
       </c>
-      <c r="AB46" s="2" t="n">
+      <c r="AC46" s="2" t="n">
         <v>0.952465716551754</v>
       </c>
-      <c r="AC46" s="2" t="n">
+      <c r="AD46" s="2" t="n">
         <v>0.74907</v>
       </c>
-      <c r="AD46" s="2" t="n">
+      <c r="AE46" s="2" t="n">
         <v>0.52088</v>
-      </c>
-      <c r="AE46" s="2" t="n">
-        <v>0.65766</v>
       </c>
     </row>
     <row r="47">
@@ -4929,90 +4926,92 @@
         <v>0.775488475913985</v>
       </c>
       <c r="C47" s="2" t="n">
+        <v>0.63514</v>
+      </c>
+      <c r="D47" s="2" t="n">
         <v>0.2617596819504725</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="E47" s="2" t="n">
         <v>0.860436629641775</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="F47" s="3" t="n">
         <v>0.6835358427222893</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="G47" s="2" t="n">
         <v>0.4857524685115383</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="H47" s="2" t="n">
         <v>0.7627685738662282</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="I47" s="2" t="n">
         <v>0.7110961667787492</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="J47" s="2" t="n">
         <v>0.2994</v>
       </c>
-      <c r="J47" s="2" t="n">
+      <c r="K47" s="2" t="n">
         <v>0.6016251068115703</v>
       </c>
-      <c r="K47" s="2" t="n">
+      <c r="L47" s="2" t="n">
         <v>0.43764</v>
       </c>
-      <c r="L47" s="2" t="n">
+      <c r="M47" s="2" t="n">
         <v>0.7553035636965619</v>
       </c>
-      <c r="M47" s="3" t="n">
+      <c r="N47" s="3" t="n">
         <v>0.6482909467525912</v>
       </c>
-      <c r="N47" s="2" t="n">
+      <c r="O47" s="2" t="n">
         <v>0.810931445449386</v>
       </c>
-      <c r="O47" s="2" t="n">
+      <c r="P47" s="2" t="n">
         <v>0.416657222225081</v>
       </c>
-      <c r="P47" s="2" t="n">
+      <c r="Q47" s="2" t="n">
         <v>0.5352055108193531</v>
       </c>
-      <c r="Q47" s="2" t="n">
+      <c r="R47" s="2" t="n">
         <v>0.85969</v>
       </c>
-      <c r="R47" s="2" t="n">
+      <c r="S47" s="2" t="n">
         <v>0.445914143327743</v>
       </c>
-      <c r="S47" s="2" t="n">
+      <c r="T47" s="2" t="n">
         <v>0.9933132731527916</v>
       </c>
-      <c r="T47" s="2" t="n">
+      <c r="U47" s="2" t="n">
         <v>0.9946506185222334</v>
       </c>
-      <c r="U47" s="2" t="n">
+      <c r="V47" s="2" t="n">
         <v>0.6445349201378014</v>
       </c>
-      <c r="V47" s="2" t="n">
+      <c r="W47" s="2" t="n">
         <v>0.8937676166614468</v>
       </c>
-      <c r="W47" s="2" t="n">
+      <c r="X47" s="2" t="n">
         <v>0.3049962446901472</v>
       </c>
-      <c r="X47" s="2" t="n">
+      <c r="Y47" s="2" t="n">
         <v>0.8894999999999998</v>
       </c>
-      <c r="Y47" s="2" t="n">
+      <c r="Z47" s="2" t="n">
         <v>0.8151658767772512</v>
       </c>
-      <c r="Z47" s="2" t="n">
+      <c r="AA47" s="2" t="n">
         <v>0.6542030934767989</v>
       </c>
-      <c r="AA47" s="2" t="n">
+      <c r="AB47" s="2" t="n">
         <v>0.9412076883261254</v>
       </c>
-      <c r="AB47" s="2" t="n">
+      <c r="AC47" s="2" t="n">
         <v>0.9510295908785357</v>
       </c>
-      <c r="AC47" s="2" t="n">
+      <c r="AD47" s="2" t="n">
         <v>0.73004</v>
       </c>
-      <c r="AD47" s="2" t="n">
+      <c r="AE47" s="2" t="n">
         <v>0.5164</v>
       </c>
-      <c r="AE47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -5024,91 +5023,91 @@
         <v>0.7642936190822642</v>
       </c>
       <c r="C48" s="2" t="n">
+        <v>0.52703</v>
+      </c>
+      <c r="D48" s="2" t="n">
         <v>0.2484326275705308</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="E48" s="2" t="n">
         <v>0.3189440828794315</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="F48" s="2" t="n">
         <v>0.4854232311151437</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="G48" s="2" t="n">
         <v>0.3633106838853807</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="H48" s="2" t="n">
         <v>0.6851217063378627</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="I48" s="2" t="n">
         <v>0.6246133154001345</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="J48" s="2" t="n">
         <v>0.15507</v>
       </c>
-      <c r="J48" s="2" t="n">
+      <c r="K48" s="2" t="n">
         <v>0.5895656630212746</v>
       </c>
-      <c r="K48" s="2" t="n">
+      <c r="L48" s="2" t="n">
         <v>0.37262</v>
       </c>
-      <c r="L48" s="2" t="n">
+      <c r="M48" s="2" t="n">
         <v>0.7266605452700412</v>
       </c>
-      <c r="M48" s="2" t="n">
+      <c r="N48" s="2" t="n">
         <v>0.5795590984348414</v>
       </c>
-      <c r="N48" s="2" t="n">
+      <c r="O48" s="2" t="n">
         <v>0.7050549213561673</v>
       </c>
-      <c r="O48" s="2" t="n">
+      <c r="P48" s="2" t="n">
         <v>0.3877264742587128</v>
       </c>
-      <c r="P48" s="2" t="n">
+      <c r="Q48" s="2" t="n">
         <v>0.4165266573039174</v>
       </c>
-      <c r="Q48" s="2" t="n">
+      <c r="R48" s="2" t="n">
         <v>0.75831</v>
       </c>
-      <c r="R48" s="2" t="n">
+      <c r="S48" s="2" t="n">
         <v>0.4508245196010945</v>
       </c>
-      <c r="S48" s="2" t="n">
+      <c r="T48" s="2" t="n">
         <v>0.9919759277833501</v>
       </c>
-      <c r="T48" s="2" t="n">
+      <c r="U48" s="2" t="n">
         <v>0.9799398194583752</v>
       </c>
-      <c r="U48" s="2" t="n">
+      <c r="V48" s="2" t="n">
         <v>0.4561854055746946</v>
       </c>
-      <c r="V48" s="2" t="n">
+      <c r="W48" s="2" t="n">
         <v>0.7978703413717507</v>
       </c>
-      <c r="W48" s="2" t="n">
+      <c r="X48" s="2" t="n">
         <v>0.3087952286335955</v>
       </c>
-      <c r="X48" s="2" t="n">
+      <c r="Y48" s="2" t="n">
         <v>0.797095238095238</v>
       </c>
-      <c r="Y48" s="2" t="n">
+      <c r="Z48" s="2" t="n">
         <v>0.8018957345971565</v>
       </c>
-      <c r="Z48" s="2" t="n">
+      <c r="AA48" s="2" t="n">
         <v>0.5369872225958305</v>
       </c>
-      <c r="AA48" s="2" t="n">
+      <c r="AB48" s="2" t="n">
         <v>0.8976194426555255</v>
       </c>
-      <c r="AB48" s="2" t="n">
+      <c r="AC48" s="2" t="n">
         <v>0.896781936586669</v>
       </c>
-      <c r="AC48" s="2" t="n">
+      <c r="AD48" s="2" t="n">
         <v>0.67065</v>
       </c>
-      <c r="AD48" s="2" t="n">
+      <c r="AE48" s="2" t="n">
         <v>0.45499</v>
-      </c>
-      <c r="AE48" s="2" t="n">
-        <v>0.52703</v>
       </c>
     </row>
     <row r="49">
@@ -5121,91 +5120,91 @@
         <v>0.7901988871511573</v>
       </c>
       <c r="C49" s="2" t="n">
+        <v>0.68018</v>
+      </c>
+      <c r="D49" s="2" t="n">
         <v>0.2744285128302836</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="E49" s="2" t="n">
         <v>0.6013319288411012</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="F49" s="2" t="n">
         <v>0.5659470191472211</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="G49" s="2" t="n">
         <v>0.3517814667732468</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="H49" s="2" t="n">
         <v>0.7356028375217639</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="I49" s="2" t="n">
         <v>0.7014794889038332</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="J49" s="2" t="n">
         <v>0.19047</v>
       </c>
-      <c r="J49" s="2" t="n">
+      <c r="K49" s="2" t="n">
         <v>0.608332001960638</v>
       </c>
-      <c r="K49" s="2" t="n">
+      <c r="L49" s="2" t="n">
         <v>0.4215</v>
       </c>
-      <c r="L49" s="2" t="n">
+      <c r="M49" s="2" t="n">
         <v>0.7561215395567691</v>
       </c>
-      <c r="M49" s="2" t="n">
+      <c r="N49" s="2" t="n">
         <v>0.6162945124485424</v>
       </c>
-      <c r="N49" s="2" t="n">
+      <c r="O49" s="2" t="n">
         <v>0.7999221736030022</v>
       </c>
-      <c r="O49" s="2" t="n">
+      <c r="P49" s="2" t="n">
         <v>0.4148135128122253</v>
       </c>
-      <c r="P49" s="2" t="n">
+      <c r="Q49" s="2" t="n">
         <v>0.5067174392659987</v>
       </c>
-      <c r="Q49" s="2" t="n">
+      <c r="R49" s="2" t="n">
         <v>0.82766</v>
       </c>
-      <c r="R49" s="2" t="n">
+      <c r="S49" s="2" t="n">
         <v>0.4522898818144546</v>
       </c>
-      <c r="S49" s="2" t="n">
+      <c r="T49" s="2" t="n">
         <v>0.9986626546305583</v>
       </c>
-      <c r="T49" s="2" t="n">
+      <c r="U49" s="2" t="n">
         <v>0.9946506185222334</v>
       </c>
-      <c r="U49" s="2" t="n">
+      <c r="V49" s="2" t="n">
         <v>0.5943626683369871</v>
       </c>
-      <c r="V49" s="2" t="n">
+      <c r="W49" s="2" t="n">
         <v>0.8767616661446915</v>
       </c>
-      <c r="W49" s="2" t="n">
+      <c r="X49" s="2" t="n">
         <v>0.2833835044555462</v>
       </c>
-      <c r="X49" s="2" t="n">
+      <c r="Y49" s="2" t="n">
         <v>0.8671785714285715</v>
       </c>
-      <c r="Y49" s="2" t="n">
+      <c r="Z49" s="2" t="n">
         <v>0.8213270142180095</v>
       </c>
-      <c r="Z49" s="2" t="n">
+      <c r="AA49" s="2" t="n">
         <v>0.630766644250168</v>
       </c>
-      <c r="AA49" s="2" t="n">
+      <c r="AB49" s="2" t="n">
         <v>0.9286798412153197</v>
       </c>
-      <c r="AB49" s="2" t="n">
+      <c r="AC49" s="2" t="n">
         <v>0.9371986705026045</v>
       </c>
-      <c r="AC49" s="2" t="n">
+      <c r="AD49" s="2" t="n">
         <v>0.71946</v>
       </c>
-      <c r="AD49" s="2" t="n">
+      <c r="AE49" s="2" t="n">
         <v>0.52606</v>
-      </c>
-      <c r="AE49" s="2" t="n">
-        <v>0.68018</v>
       </c>
     </row>
     <row r="50">
@@ -5218,91 +5217,91 @@
         <v>0.7547623244259472</v>
       </c>
       <c r="C50" s="2" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="D50" s="2" t="n">
         <v>0.1894729944719849</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="E50" s="2" t="n">
         <v>0.8167705770180773</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="F50" s="2" t="n">
         <v>0.6057161066482416</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="G50" s="2" t="n">
         <v>0.4030766635566808</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="H50" s="2" t="n">
         <v>0.7137136565612174</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="I50" s="2" t="n">
         <v>0.7021856086079354</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="J50" s="2" t="n">
         <v>0.26121</v>
       </c>
-      <c r="J50" s="2" t="n">
+      <c r="K50" s="2" t="n">
         <v>0.5238943982284524</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="L50" s="2" t="n">
         <v>0.33514</v>
       </c>
-      <c r="L50" s="2" t="n">
+      <c r="M50" s="2" t="n">
         <v>0.6217487639018026</v>
       </c>
-      <c r="M50" s="2" t="n">
+      <c r="N50" s="2" t="n">
         <v>0.5689916720736953</v>
       </c>
-      <c r="N50" s="2" t="n">
+      <c r="O50" s="2" t="n">
         <v>0.779121959792631</v>
       </c>
-      <c r="O50" s="2" t="n">
+      <c r="P50" s="2" t="n">
         <v>0.3550144906912691</v>
       </c>
-      <c r="P50" s="2" t="n">
+      <c r="Q50" s="2" t="n">
         <v>0.378393691062227</v>
       </c>
-      <c r="Q50" s="2" t="n">
+      <c r="R50" s="2" t="n">
         <v>0.69819</v>
       </c>
-      <c r="R50" s="2" t="n">
+      <c r="S50" s="2" t="n">
         <v>0.4389692922750733</v>
-      </c>
-      <c r="S50" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U50" s="2" t="n">
+      <c r="U50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" s="2" t="n">
         <v>0.5398371437519573</v>
       </c>
-      <c r="V50" s="2" t="n">
+      <c r="W50" s="2" t="n">
         <v>0.8549639837143752</v>
       </c>
-      <c r="W50" s="2" t="n">
+      <c r="X50" s="2" t="n">
         <v>0.2821210761980673</v>
       </c>
-      <c r="X50" s="2" t="n">
+      <c r="Y50" s="2" t="n">
         <v>0.7392857142857143</v>
       </c>
-      <c r="Y50" s="2" t="n">
+      <c r="Z50" s="2" t="n">
         <v>0.8206161137440759</v>
       </c>
-      <c r="Z50" s="2" t="n">
+      <c r="AA50" s="2" t="n">
         <v>0.6119031607262946</v>
       </c>
-      <c r="AA50" s="2" t="n">
+      <c r="AB50" s="2" t="n">
         <v>0.914642734849384</v>
       </c>
-      <c r="AB50" s="2" t="n">
+      <c r="AC50" s="2" t="n">
         <v>0.9276770338480919</v>
       </c>
-      <c r="AC50" s="2" t="n">
+      <c r="AD50" s="2" t="n">
         <v>0.5959</v>
       </c>
-      <c r="AD50" s="2" t="n">
+      <c r="AE50" s="2" t="n">
         <v>0.35267</v>
-      </c>
-      <c r="AE50" s="2" t="n">
-        <v>0.0045</v>
       </c>
     </row>
     <row r="51">
@@ -5315,91 +5314,91 @@
         <v>0.7815527423484122</v>
       </c>
       <c r="C51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>0.1894341512230004</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="E51" s="2" t="n">
         <v>0.838819395056347</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="F51" s="2" t="n">
         <v>0.2408582264260665</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="G51" s="2" t="n">
         <v>0.4024379912798725</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="H51" s="2" t="n">
         <v>0.7438679213720065</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="I51" s="2" t="n">
         <v>0.7346671149966374</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="J51" s="2" t="n">
         <v>0.2621</v>
       </c>
-      <c r="J51" s="2" t="n">
+      <c r="K51" s="2" t="n">
         <v>0.5362415343852915</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="L51" s="2" t="n">
         <v>0.35092</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="M51" s="2" t="n">
         <v>0.639460440116346</v>
       </c>
-      <c r="M51" s="2" t="n">
+      <c r="N51" s="2" t="n">
         <v>0.5420886916175743</v>
       </c>
-      <c r="N51" s="2" t="n">
+      <c r="O51" s="2" t="n">
         <v>0.7110616222714751</v>
       </c>
-      <c r="O51" s="2" t="n">
+      <c r="P51" s="2" t="n">
         <v>0.3796744706245461</v>
       </c>
-      <c r="P51" s="2" t="n">
+      <c r="Q51" s="2" t="n">
         <v>0.3794903151594224</v>
       </c>
-      <c r="Q51" s="2" t="n">
+      <c r="R51" s="2" t="n">
         <v>0.6369</v>
       </c>
-      <c r="R51" s="2" t="n">
+      <c r="S51" s="2" t="n">
         <v>0.4102454366803547</v>
-      </c>
-      <c r="S51" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="T51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="U51" s="2" t="n">
+      <c r="U51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2" t="n">
         <v>0.6363921077356717</v>
       </c>
-      <c r="V51" s="2" t="n">
+      <c r="W51" s="2" t="n">
         <v>0.881866583150642</v>
       </c>
-      <c r="W51" s="2" t="n">
+      <c r="X51" s="2" t="n">
         <v>0.2855799948642319</v>
       </c>
-      <c r="X51" s="2" t="n">
+      <c r="Y51" s="2" t="n">
         <v>0.6925079365079365</v>
       </c>
-      <c r="Y51" s="2" t="n">
+      <c r="Z51" s="2" t="n">
         <v>0.7203791469194313</v>
       </c>
-      <c r="Z51" s="2" t="n">
+      <c r="AA51" s="2" t="n">
         <v>0.6580363147276395</v>
       </c>
-      <c r="AA51" s="2" t="n">
+      <c r="AB51" s="2" t="n">
         <v>0.9337926495141736</v>
       </c>
-      <c r="AB51" s="2" t="n">
+      <c r="AC51" s="2" t="n">
         <v>0.9463878648421398</v>
       </c>
-      <c r="AC51" s="2" t="n">
+      <c r="AD51" s="2" t="n">
         <v>0.65213</v>
       </c>
-      <c r="AD51" s="2" t="n">
+      <c r="AE51" s="2" t="n">
         <v>0.33781</v>
-      </c>
-      <c r="AE51" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5412,91 +5411,91 @@
         <v>0.4622634194376477</v>
       </c>
       <c r="C52" s="2" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="D52" s="2" t="n">
         <v>0.08678029981035876</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="E52" s="2" t="n">
         <v>0.2117178555612327</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="F52" s="2" t="n">
         <v>0.2928935602108218</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="G52" s="2" t="n">
         <v>0.2375634936431052</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="H52" s="2" t="n">
         <v>0.4861539023272589</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="I52" s="2" t="n">
         <v>0.2321452589105581</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="J52" s="2" t="n">
         <v>0.00876</v>
       </c>
-      <c r="J52" s="2" t="n">
+      <c r="K52" s="2" t="n">
         <v>0.5134610960311026</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.2674799999999999</v>
       </c>
-      <c r="L52" s="2" t="n">
+      <c r="M52" s="2" t="n">
         <v>0.2756444888903243</v>
       </c>
-      <c r="M52" s="2" t="n">
+      <c r="N52" s="2" t="n">
         <v>0.5224409381186116</v>
       </c>
-      <c r="N52" s="2" t="n">
+      <c r="O52" s="2" t="n">
         <v>0.5672433175176572</v>
       </c>
-      <c r="O52" s="2" t="n">
+      <c r="P52" s="2" t="n">
         <v>0.2414271814543187</v>
       </c>
-      <c r="P52" s="2" t="n">
+      <c r="Q52" s="2" t="n">
         <v>0.2037478764202963</v>
       </c>
-      <c r="Q52" s="2" t="n">
+      <c r="R52" s="2" t="n">
         <v>0.03332</v>
       </c>
-      <c r="R52" s="2" t="n">
+      <c r="S52" s="2" t="n">
         <v>0.4044298462507268</v>
       </c>
-      <c r="S52" s="2" t="n">
+      <c r="T52" s="2" t="n">
         <v>0.7017890974510833</v>
       </c>
-      <c r="T52" s="2" t="n">
+      <c r="U52" s="2" t="n">
         <v>0.5328738628505576</v>
       </c>
-      <c r="U52" s="2" t="n">
+      <c r="V52" s="2" t="n">
         <v>0.1937676166614469</v>
       </c>
-      <c r="V52" s="2" t="n">
+      <c r="W52" s="2" t="n">
         <v>0.4383025367992484</v>
       </c>
-      <c r="W52" s="2" t="n">
+      <c r="X52" s="2" t="n">
         <v>0.2914448969497285</v>
       </c>
-      <c r="X52" s="2" t="n">
+      <c r="Y52" s="2" t="n">
         <v>0.3191150793650793</v>
       </c>
-      <c r="Y52" s="2" t="n">
+      <c r="Z52" s="2" t="n">
         <v>0.6049763033175355</v>
       </c>
-      <c r="Z52" s="2" t="n">
+      <c r="AA52" s="2" t="n">
         <v>0.1358103564223268</v>
       </c>
-      <c r="AA52" s="2" t="n">
+      <c r="AB52" s="2" t="n">
         <v>0.8544669820078381</v>
       </c>
-      <c r="AB52" s="2" t="n">
+      <c r="AC52" s="2" t="n">
         <v>0.8624645232635788</v>
       </c>
-      <c r="AC52" s="2" t="n">
+      <c r="AD52" s="2" t="n">
         <v>0.11649</v>
       </c>
-      <c r="AD52" s="2" t="n">
+      <c r="AE52" s="2" t="n">
         <v>0.00156</v>
-      </c>
-      <c r="AE52" s="2" t="n">
-        <v>0.0045</v>
       </c>
     </row>
     <row r="53">
@@ -5509,102 +5508,102 @@
         <v>0.4231665294262342</v>
       </c>
       <c r="C53" s="2" t="n">
+        <v>0.01351</v>
+      </c>
+      <c r="D53" s="2" t="n">
         <v>0.05943345675729141</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="E53" s="2" t="n">
         <v>0.1324934909347301</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="F53" s="2" t="n">
         <v>0.3402405632525344</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="G53" s="2" t="n">
         <v>0.2152479457502924</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="H53" s="2" t="n">
         <v>0.5001340631306734</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="I53" s="2" t="n">
         <v>0.2392064559515804</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="J53" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="J53" s="2" t="n">
+      <c r="K53" s="2" t="n">
         <v>0.5338491922324053</v>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="L53" s="2" t="n">
         <v>0.26616</v>
       </c>
-      <c r="L53" s="2" t="n">
+      <c r="M53" s="2" t="n">
         <v>0.3089459830689988</v>
       </c>
-      <c r="M53" s="2" t="n">
+      <c r="N53" s="2" t="n">
         <v>0.5653605568863168</v>
       </c>
-      <c r="N53" s="2" t="n">
+      <c r="O53" s="2" t="n">
         <v>0.5549160342530441</v>
       </c>
-      <c r="O53" s="2" t="n">
+      <c r="P53" s="2" t="n">
         <v>0.1850128406979126</v>
       </c>
-      <c r="P53" s="2" t="n">
+      <c r="Q53" s="2" t="n">
         <v>0.2118476703867388</v>
       </c>
-      <c r="Q53" s="2" t="n">
+      <c r="R53" s="2" t="n">
         <v>0.06598999999999999</v>
       </c>
-      <c r="R53" s="2" t="n">
+      <c r="S53" s="2" t="n">
         <v>0.4267404394453324</v>
       </c>
-      <c r="S53" s="2" t="n">
+      <c r="T53" s="2" t="n">
         <v>0.6492966311974625</v>
       </c>
-      <c r="T53" s="2" t="n">
+      <c r="U53" s="2" t="n">
         <v>0.2594625928964929</v>
       </c>
-      <c r="U53" s="2" t="n">
+      <c r="V53" s="2" t="n">
         <v>0.1537112433448168</v>
       </c>
-      <c r="V53" s="2" t="n">
+      <c r="W53" s="2" t="n">
         <v>0.367710616974632</v>
       </c>
-      <c r="W53" s="2" t="n">
+      <c r="X53" s="2" t="n">
         <v>0.2889430627940623</v>
       </c>
-      <c r="X53" s="2" t="n">
+      <c r="Y53" s="2" t="n">
         <v>0.3874368686868688</v>
       </c>
-      <c r="Y53" s="2" t="n">
+      <c r="Z53" s="2" t="n">
         <v>0.6575829383886255</v>
       </c>
-      <c r="Z53" s="2" t="n">
+      <c r="AA53" s="2" t="n">
         <v>0.1582044384667115</v>
       </c>
-      <c r="AA53" s="2" t="n">
+      <c r="AB53" s="2" t="n">
         <v>0.8372982569551426</v>
       </c>
-      <c r="AB53" s="2" t="n">
+      <c r="AC53" s="2" t="n">
         <v>0.8393372076362939</v>
       </c>
-      <c r="AC53" s="2" t="n">
+      <c r="AD53" s="2" t="n">
         <v>0.12702</v>
       </c>
-      <c r="AD53" s="2" t="n">
+      <c r="AE53" s="2" t="n">
         <v>0.00517</v>
-      </c>
-      <c r="AE53" s="2" t="n">
-        <v>0.01351</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/analyses_outputs/results.xlsx
+++ b/analyses_outputs/results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -459,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:AE53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,239 +464,277 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>STS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Retrieval</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Clustering</t>
         </is>
       </c>
-      <c r="H1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BitextMining</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>STS</t>
+        </is>
+      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Retrieval</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PairClassification</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Reranking</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>STS</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Retrieval</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>BitextMining</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>BitextMining</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Summarization</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Reranking</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>PairClassification</t>
         </is>
       </c>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>STS</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="n"/>
-      <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Summarization</t>
-        </is>
-      </c>
+      <c r="AC1" s="1" t="n"/>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Reranking</t>
-        </is>
-      </c>
+          <t>Retrieval</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>STSBenchmarkMultilingualSTS_test</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>BSARDRetrieval_test</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>HALClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>DiaBlaBitextMining_test_fr-en</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>MasakhaNEWSClusteringP2P_test</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>MasakhaNEWSClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>SICKFr_test</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>MassiveScenarioClassification_test</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>MintakaRetrieval_test</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>PawsX_test</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>AmazonReviewsClassification_test</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>AlloprofReranking_test</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>AlloProfClusteringP2P_test</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>STS22_test</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>MLSUMClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>AlloProfClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>SyntecRetrieval_test</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>MLSUMClusteringP2P_test</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>FloresBitextMining_dev_fra_Latn-eng_Latn</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>FloresBitextMining_dev_eng_Latn-fra_Latn</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>MTOPIntentClassification_test</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>MTOPDomainClassification_test</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>SummEvalFr_test</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>SyntecReranking_test</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>MasakhaNEWSClassification_test</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>MassiveIntentClassification_test</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>OpusparcusPC_test.full</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>OpusparcusPC_validation.full</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>XPQARetrieval_test</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
           <t>AlloprofRetrieval_test</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>BSARDRetrieval_test</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>MintakaRetrieval_test</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>SyntecRetrieval_test</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>XPQARetrieval_test</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>AlloProfClusteringP2P_test</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>AlloProfClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>AlloprofReranking_test</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>AmazonReviewsClassification_test</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>FloresBitextMining_dev_fra_Latn-eng_Latn</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>FloresBitextMining_dev_eng_Latn-fra_Latn</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>HALClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClassification_test</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClusteringP2P_test</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>MassiveIntentClassification_test</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>MassiveScenarioClassification_test</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>MLSUMClusteringP2P_test</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>MLSUMClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>MTOPDomainClassification_test</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>MTOPIntentClassification_test</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>OpusparcusPC_test.full</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>OpusparcusPC_validation.full</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>PawsX_test</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>SICKFr_test</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>STS22_test</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>STSBenchmarkMultilingualSTS_test</t>
-        </is>
-      </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>SummEvalFr_test</t>
-        </is>
-      </c>
-      <c r="AD2" s="1" t="inlineStr">
-        <is>
-          <t>SyntecReranking_test</t>
         </is>
       </c>
     </row>
@@ -717,4886 +748,4862 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\BAAI\bge-m3</t>
+          <t>BAAI/bge-m3</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.48951</v>
+        <v>0.8158927194633603</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>0.6036</v>
       </c>
       <c r="D4" s="2" t="n">
+        <v>0.2416331806317998</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.8537830877079311</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.4506890534306004</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.4239778254058173</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.783253749595937</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.7329858776059179</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <v>0.2286</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="K4" s="2" t="n">
+        <v>0.5967939817396208</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0.44786</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0.7393313825594308</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0.5905236983747767</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0.822666177362106</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0.4359058441822957</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0.3663402207206274</v>
+      </c>
+      <c r="R4" s="2" t="n">
         <v>0.84505</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>0.7089800000000001</v>
-      </c>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
-      <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
-      <c r="W4" s="2" t="inlineStr"/>
-      <c r="X4" s="2" t="inlineStr"/>
-      <c r="Y4" s="2" t="inlineStr"/>
-      <c r="Z4" s="2" t="inlineStr"/>
-      <c r="AA4" s="2" t="inlineStr"/>
-      <c r="AB4" s="2" t="inlineStr"/>
-      <c r="AC4" s="2" t="inlineStr"/>
-      <c r="AD4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="n">
+        <v>0.4310191921623729</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0.6236767929846538</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0.8924522392734107</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>0.3109710097201092</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>0.8844444444444445</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0.7656398104265404</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>0.6744451916610625</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>0.9288541715265348</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>0.9457289365299991</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>0.70911</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>0.48978</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Cohere-embed-multilingual-light-v3.0</t>
+          <t>Geotrend/distilbert-base-25lang-cased</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.35394</v>
+        <v>0.5701758346273191</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.51802</v>
+        <v>0.11261</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.23004</v>
+        <v>0.1861576116891369</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.7688199999999999</v>
+        <v>0.1131336094934851</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.45227</v>
+        <v>0.3238783548898045</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.6195997777996813</v>
+        <v>0.3317203899044766</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.3135667338652056</v>
+        <v>0.6164041848098294</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.5159850314408292</v>
+        <v>0.4418291862811029</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>1</v>
+        <v>0.02991</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0.5078393817652131</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.2853599999999999</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0.1731069266684963</v>
+        <v>0.2929426466158667</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0.8258293838862558</v>
+        <v>0.5714285975098367</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.5680686305484748</v>
+        <v>0.4135399271271215</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>0.294063089090014</v>
+        <v>0.3126641649690648</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0.5631136516476126</v>
+        <v>0.4348241240386942</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.5949562878278413</v>
+        <v>0.17599</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0.4279854786876686</v>
+        <v>0.4090788738384479</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.3272447200966951</v>
+        <v>0.9204446673353393</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.8079235828374569</v>
+        <v>0.9066087150339909</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>0.5000626370184779</v>
+        <v>0.3534606952709051</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9091625445064609</v>
+        <v>0.6191356091450047</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9209596025105193</v>
+        <v>0.3070335729873741</v>
       </c>
       <c r="Y5" s="2" t="n">
-        <v>0.5731728148121378</v>
+        <v>0.3942936507936509</v>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>0.7550483099806141</v>
-      </c>
-      <c r="AA5" s="3" t="n">
-        <v>0.8279714502136332</v>
+        <v>0.6751184834123224</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0.3495292535305985</v>
       </c>
       <c r="AB5" s="2" t="n">
-        <v>0.7648019211186484</v>
+        <v>0.8609728031715025</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>0.314006702294</v>
+        <v>0.8758173702252184</v>
       </c>
       <c r="AD5" s="2" t="n">
-        <v>0.8803333333333333</v>
+        <v>0.15897</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>0.01414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Cohere-embed-multilingual-v3.0</t>
+          <t>Geotrend/distilbert-base-en-fr-cased</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.38361</v>
+        <v>0.570654953893223</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.44144</v>
+        <v>0.10811</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.25437</v>
+        <v>0.1954334300029073</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.79269</v>
+        <v>0.1129692265139254</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.58873</v>
+        <v>0.3378317847816555</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.6352561566282294</v>
+        <v>0.3404565705021788</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.361759185577996</v>
+        <v>0.6165632183808489</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.5101276380430734</v>
+        <v>0.4401479488903833</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.41892</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>0.03014</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0.5076824569885957</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0.2851199999999999</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0.1990356735257148</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0.830568720379147</v>
+        <v>0.293075699444281</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0.5665935732649282</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.5318379498672176</v>
+        <v>0.4218079567381129</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0.3230998225707994</v>
+        <v>0.314328804874776</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.629388029589778</v>
+        <v>0.4215320575444813</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.6729320780094149</v>
+        <v>0.17599</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0.4508360325363872</v>
+        <v>0.4071825511365696</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0.347527142956374</v>
+        <v>0.9192744901370778</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.8622925148762919</v>
+        <v>0.9066087150339909</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>0.6107422486689634</v>
+        <v>0.353585969307861</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.940778214081015</v>
+        <v>0.6191982461634826</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9503580631772154</v>
+        <v>0.3122667451153068</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>0.6125533530469982</v>
-      </c>
-      <c r="Z6" s="3" t="n">
-        <v>0.7923250123076204</v>
+        <v>0.3942936507936509</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>0.6751184834123224</v>
       </c>
       <c r="AA6" s="2" t="n">
-        <v>0.8276336405644232</v>
+        <v>0.3478816408876934</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>0.8184387078760932</v>
+        <v>0.8609925738288053</v>
       </c>
       <c r="AC6" s="2" t="n">
-        <v>0.3126400952397324</v>
+        <v>0.8757734114810968</v>
       </c>
       <c r="AD6" s="2" t="n">
-        <v>0.8571666666666666</v>
+        <v>0.1556</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>0.01364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\bert-base-10lang-cased</t>
+          <t>Geotrend/distilbert-base-fr-cased</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.01604</v>
+        <v>0.5703033340036064</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.11261</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.1960397251544971</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.05946715324206229</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.18391</v>
+        <v>0.337589716019601</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.5321615105669343</v>
+        <v>0.3460782647523849</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.429190297654638</v>
+        <v>0.6168581678045449</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3620982002721123</v>
+        <v>0.4378614660390047</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.29382</v>
+        <v>0.03052</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.5073485498358526</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.2859599999999999</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.199384954892849</v>
+        <v>0.2939054280177285</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.6393364928909953</v>
+        <v>0.5728722420376016</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.4282484915255096</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.3141069123749394</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.3728312037659718</v>
+        <v>0.4300157593054996</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.4449562878278413</v>
+        <v>0.17519</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.4095727738171321</v>
+        <v>0.4074944583831627</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.3186880455337019</v>
+        <v>0.6332293277880038</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.6364860632633886</v>
+        <v>0.6499806439094893</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.378703413717507</v>
+        <v>0.352740369558409</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.867897383298739</v>
+        <v>0.6170685875352333</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8721090971840637</v>
+        <v>0.3098048164787563</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>0.5339515630722629</v>
+        <v>0.3929484126984127</v>
       </c>
       <c r="Z7" s="2" t="n">
-        <v>0.5876409741522338</v>
+        <v>0.6767772511848341</v>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>0.4031453580850377</v>
+        <v>0.3493275050437122</v>
       </c>
       <c r="AB7" s="2" t="n">
-        <v>0.5224992109220082</v>
+        <v>0.8604661480576208</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>0.2905539823973022</v>
+        <v>0.8761939806579652</v>
       </c>
       <c r="AD7" s="2" t="n">
-        <v>0.5325</v>
+        <v>0.15906</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>0.01386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\bert-base-15lang-cased</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>0.0161</v>
+          <t>Lajavaness/sentence-camembert-large</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.8613984001863513</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.56306</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.2443517236782352</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.7007349877195761</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.18349</v>
+        <v>0.4352577047069188</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.5316174444700196</v>
+        <v>0.3670529681942382</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.4342614550943816</v>
+        <v>0.7770899952473914</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3620732261213783</v>
+        <v>0.6981170141223941</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.2935</v>
+        <v>0.22464</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.6136877605231777</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.38396</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.2025950895317026</v>
+        <v>0.6277308388350255</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0.6388625592417062</v>
+        <v>0.6237888550471491</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.8171227763972017</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.4295050938255963</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0.3728312037659718</v>
+        <v>0.3986103179536452</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.4446872898453262</v>
+        <v>0.79127</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0.4121972569008033</v>
+        <v>0.429549637509742</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.3188309116220031</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.6370184779204509</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0.3785468211713123</v>
+        <v>0.6080488568744128</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.8677678461935234</v>
+        <v>0.8650485436893204</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8721085649923495</v>
+        <v>0.3160647188490759</v>
       </c>
       <c r="Y8" s="2" t="n">
-        <v>0.5338191982712758</v>
+        <v>0.8217738095238094</v>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>0.5877261140633706</v>
+        <v>0.7409952606635072</v>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.4039926511396135</v>
+        <v>0.6380295897780768</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0.5224819480869909</v>
+        <v>0.9428131982731722</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>0.2913284671743393</v>
+        <v>0.9533318136331852</v>
       </c>
       <c r="AD8" s="2" t="n">
-        <v>0.5325</v>
+        <v>0.65019</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>0.33007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\bert-base-25lang-cased</t>
+          <t>OrdalieTech/Solon-embeddings-base-0.1</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.01604</v>
+        <v>0.7853527565797995</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.0045</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.2370252984949168</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.8524372355009098</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.1846</v>
+        <v>0.4964694067651284</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.5348707232890372</v>
+        <v>0.3618981917730912</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.4310077911837933</v>
+        <v>0.7534687515605065</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3625225169020871</v>
+        <v>0.6997310020174849</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.29388</v>
+        <v>0.28144</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.5870544934940987</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.4100799999999999</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.1977790848789767</v>
+        <v>0.7088752883376981</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.6390995260663508</v>
+        <v>0.6137421216267173</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.8119061093553033</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.4246984637988738</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0.3729657027572293</v>
+        <v>0.3662872206933244</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.4446872898453261</v>
+        <v>0.80796</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0.4072820957884197</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>0.3193833137858634</v>
-      </c>
-      <c r="U9" s="2" t="n">
-        <v>0.636266833698716</v>
+        <v>0.4286366213915852</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.3785781396805512</v>
+        <v>0.6229877857813969</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.8679078502914821</v>
+        <v>0.8698089570936423</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.872319293517213</v>
+        <v>0.307197717007175</v>
       </c>
       <c r="Y9" s="2" t="n">
-        <v>0.5339135830001998</v>
+        <v>0.8457499999999999</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>0.5875963417221689</v>
+        <v>0.7547393364928909</v>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>0.387722409346517</v>
+        <v>0.648285137861466</v>
       </c>
       <c r="AB9" s="2" t="n">
-        <v>0.5224992109220082</v>
+        <v>0.9305839400834288</v>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>0.2884414777790376</v>
+        <v>0.9422828541658839</v>
       </c>
       <c r="AD9" s="2" t="n">
-        <v>0.5325</v>
+        <v>0.67599</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>0.41118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-25lang-cased</t>
+          <t>OrdalieTech/Solon-embeddings-large-0.1</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.01414</v>
+        <v>0.799935484366653</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.11261</v>
+        <v>0.57658</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.02991</v>
+        <v>0.239541362584812</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.17599</v>
+        <v>0.8694952864886114</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.15897</v>
+        <v>0.4563006463136968</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.5714285975098367</v>
+        <v>0.3086339630962708</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.4348241240386942</v>
+        <v>0.767437746873382</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3200076671044939</v>
+        <v>0.712878278412912</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.2853599999999999</v>
+        <v>0.30074</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.9204446673353393</v>
+        <v>0.6018934804753497</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.42094</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.1861576116891369</v>
+        <v>0.7222761824335505</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0.6751184834123224</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>0.3238783548898045</v>
+        <v>0.6310932448320445</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0.8330552085410882</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0.3317203899044766</v>
+        <v>0.4327314328859869</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0.3495292535305985</v>
+        <v>0.373886875609376</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.4418291862811029</v>
+        <v>0.84605</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0.4090788738384479</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>0.3126641649690648</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>0.6191356091450047</v>
+        <v>0.42750019998425</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0.3534606952709051</v>
+        <v>0.6854995302223614</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.8609728031715025</v>
+        <v>0.8925148762918884</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.8758173702252184</v>
+        <v>0.2966081877466483</v>
       </c>
       <c r="Y10" s="2" t="n">
-        <v>0.5078393817652131</v>
+        <v>0.8711666666666666</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.6164041848098294</v>
+        <v>0.7609004739336493</v>
       </c>
       <c r="AA10" s="2" t="n">
-        <v>0.4135399271271215</v>
+        <v>0.6736381977135171</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>0.5701758346273191</v>
+        <v>0.9401979957812989</v>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>0.3070335729873741</v>
+        <v>0.952291317855892</v>
       </c>
       <c r="AD10" s="2" t="n">
-        <v>0.5241666666666667</v>
+        <v>0.70221</v>
+      </c>
+      <c r="AE10" s="2" t="n">
+        <v>0.46942</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-en-fr-cased</t>
+          <t>Wissam42/sentence-croissant-llm-base</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.01364</v>
+        <v>0.7922738680429985</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.10811</v>
+        <v>0.52252</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.03014</v>
+        <v>0.2340128867212198</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.17599</v>
+        <v>0.7371911997949699</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.1556</v>
+        <v>0.5394435157885373</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.5665935732649282</v>
+        <v>0.4105178984993857</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.4215320575444813</v>
+        <v>0.6960017257463582</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3209078159887816</v>
+        <v>0.6528581035642234</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.2851199999999999</v>
+        <v>0.21309</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.9192744901370778</v>
+        <v>0.6313386879959426</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.34792</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.1954334300029073</v>
+        <v>0.5675487985583264</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.6751184834123224</v>
+        <v>0.6411669265073395</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.3378317847816555</v>
+        <v>0.7877222611897307</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.3404565705021788</v>
+        <v>0.3391299056452157</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0.3478816408876934</v>
+        <v>0.325236731994226</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.4401479488903833</v>
+        <v>0.74197</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4071825511365696</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>0.314328804874776</v>
+        <v>0.429413226398757</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.6191982461634826</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>0.353585969307861</v>
+        <v>0.6312245537112433</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.8609925738288053</v>
+        <v>0.855214531788287</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8757734114810968</v>
+        <v>0.2904259923005852</v>
       </c>
       <c r="Y11" s="2" t="n">
-        <v>0.5076824569885957</v>
+        <v>0.779595238095238</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>0.6165632183808489</v>
+        <v>0.7928909952606634</v>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>0.4218079567381129</v>
+        <v>0.5940820443846672</v>
       </c>
       <c r="AB11" s="2" t="n">
-        <v>0.570654953893223</v>
+        <v>0.9141910841619804</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.3122667451153068</v>
+        <v>0.9261526052336004</v>
       </c>
       <c r="AD11" s="2" t="n">
-        <v>0.5241666666666667</v>
+        <v>0.58573</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>0.29969</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-en-fr-es-pt-it-cased</t>
+          <t>bert-base-multilingual-cased</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.01406</v>
+        <v>0.5224722935490146</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.11261</v>
+        <v>0.1036</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.02991</v>
+        <v>0.2080755658975593</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.17599</v>
+        <v>0.2996061329422579</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.15944</v>
+        <v>0.2423499234956803</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.5656571585750919</v>
+        <v>0.2445999599094782</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.4348639521255671</v>
+        <v>0.5874812845368886</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3206529068436572</v>
+        <v>0.4446536650975118</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.2856</v>
+        <v>0.03554</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.9204446673353393</v>
+        <v>0.5339388951464616</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.29394</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0.195516374988827</v>
+        <v>0.3178385313302001</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>0.6755924170616113</v>
+        <v>0.5149653756008361</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.3350757808521446</v>
+        <v>0.3904525758557057</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0.3317203899044766</v>
+        <v>0.3179683201467264</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0.3491257565568258</v>
+        <v>0.4305645671675891</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.441661062542031</v>
+        <v>0.18948</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0.4091629743654286</v>
+        <v>0.4090371994645377</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.3109946916708017</v>
+        <v>0.9694082246740221</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.6192608831819605</v>
+        <v>0.9762621196924105</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0.3541497024741622</v>
+        <v>0.3783589101158785</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.8608285959508718</v>
+        <v>0.6361102411525212</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8757472823792262</v>
+        <v>0.2880779587217142</v>
       </c>
       <c r="Y12" s="2" t="n">
-        <v>0.5076412788138646</v>
+        <v>0.4340515873015873</v>
       </c>
       <c r="Z12" s="2" t="n">
-        <v>0.6164042836935036</v>
+        <v>0.6400473933649289</v>
       </c>
       <c r="AA12" s="2" t="n">
-        <v>0.4159156703977949</v>
+        <v>0.3729993275050437</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>0.5704733367736529</v>
+        <v>0.8677048159592717</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>0.3099238484208555</v>
+        <v>0.8722976958382189</v>
       </c>
       <c r="AD12" s="2" t="n">
-        <v>0.5241666666666667</v>
+        <v>0.1849</v>
+      </c>
+      <c r="AE12" s="2" t="n">
+        <v>0.01626</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Geotrend\distilbert-base-fr-cased</t>
+          <t>bert-base-multilingual-uncased</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.01386</v>
+        <v>0.5497353309633939</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.11261</v>
+        <v>0.16216</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.03052</v>
+        <v>0.2089820298983429</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.17519</v>
+        <v>0.3559984760058366</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.15906</v>
+        <v>0.4971340561526633</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.5728722420376016</v>
+        <v>0.422255814870678</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.4300157593054996</v>
+        <v>0.5826449144443914</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.3230694491734496</v>
+        <v>0.4363147276395427</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.2859599999999999</v>
+        <v>0.02872</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.6332293277880038</v>
+        <v>0.5322360899538218</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.6499806439094893</v>
+        <v>0.29024</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0.1960397251544971</v>
+        <v>0.3277262979995819</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0.6767772511848341</v>
+        <v>0.6066148200885675</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>0.337589716019601</v>
+        <v>0.5647457412587442</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>0.3460782647523849</v>
+        <v>0.3098774275886452</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0.3493275050437122</v>
+        <v>0.3505397363641355</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.4378614660390047</v>
+        <v>0.34951</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>0.4074944583831627</v>
+        <v>0.4349522858689475</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>0.3141069123749394</v>
+        <v>0.9477432296890672</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.6170685875352333</v>
+        <v>0.9799398194583752</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>0.352740369558409</v>
+        <v>0.3940181647353586</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.8604661480576208</v>
+        <v>0.644910742248669</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.8761939806579652</v>
+        <v>0.3072334740467725</v>
       </c>
       <c r="Y13" s="2" t="n">
-        <v>0.5073485498358526</v>
+        <v>0.5896785714285715</v>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>0.6168581678045449</v>
+        <v>0.756872037914692</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>0.4282484915255096</v>
+        <v>0.3800605245460659</v>
       </c>
       <c r="AB13" s="2" t="n">
-        <v>0.5703033340036064</v>
+        <v>0.8743393906507683</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>0.3098048164787563</v>
+        <v>0.8874950508866897</v>
       </c>
       <c r="AD13" s="2" t="n">
-        <v>0.5191666666666668</v>
+        <v>0.26117</v>
+      </c>
+      <c r="AE13" s="2" t="n">
+        <v>0.05506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\OrdalieTech\Solon-embeddings-base-0.1</t>
+          <t>camembert/camembert-base</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.41118</v>
+        <v>0.5486423488745364</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.54505</v>
+        <v>0.0045</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.28144</v>
+        <v>0.1350952753315698</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.80796</v>
+        <v>0.04331694082788507</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.67599</v>
-      </c>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
-      <c r="Q14" s="2" t="inlineStr"/>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr"/>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
-      <c r="W14" s="2" t="inlineStr"/>
-      <c r="X14" s="2" t="inlineStr"/>
-      <c r="Y14" s="2" t="inlineStr"/>
-      <c r="Z14" s="2" t="inlineStr"/>
-      <c r="AA14" s="2" t="inlineStr"/>
-      <c r="AB14" s="2" t="inlineStr"/>
-      <c r="AC14" s="2" t="inlineStr"/>
-      <c r="AD14" s="2" t="inlineStr"/>
+        <v>0.4398103174841825</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0.2665670855775651</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>0.5368307592304911</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0.3948554135843981</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0.02022</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>0.521089966496604</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>0.29814</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0.2556621635909326</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>0.5423893147384338</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>0.6107432321823179</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>0.2663399835756784</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>0.2918804706562174</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>0.05799</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>0.4060210180892428</v>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>0.2602264772347189</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>0.2515262419615453</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>0.2861259004071406</v>
+      </c>
+      <c r="W14" s="2" t="n">
+        <v>0.5839336047604134</v>
+      </c>
+      <c r="X14" s="2" t="n">
+        <v>0.2963071602202985</v>
+      </c>
+      <c r="Y14" s="2" t="n">
+        <v>0.361670634920635</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>0.6561611374407583</v>
+      </c>
+      <c r="AA14" s="2" t="n">
+        <v>0.3095158036314727</v>
+      </c>
+      <c r="AB14" s="2" t="n">
+        <v>0.8342726180422799</v>
+      </c>
+      <c r="AC14" s="2" t="n">
+        <v>0.8601987158204568</v>
+      </c>
+      <c r="AD14" s="2" t="n">
+        <v>0.19922</v>
+      </c>
+      <c r="AE14" s="2" t="n">
+        <v>0.00235</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\OrdalieTech\Solon-embeddings-large-0.1</t>
+          <t>camembert/camembert-large</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.46942</v>
+        <v>0.6183576200859585</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.57658</v>
+        <v>0.009010000000000001</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.30074</v>
+        <v>0.1838664804452286</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.84605</v>
+        <v>0.05998688454697069</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.70221</v>
-      </c>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr"/>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
-      <c r="W15" s="2" t="inlineStr"/>
-      <c r="X15" s="2" t="inlineStr"/>
-      <c r="Y15" s="2" t="inlineStr"/>
-      <c r="Z15" s="2" t="inlineStr"/>
-      <c r="AA15" s="2" t="inlineStr"/>
-      <c r="AB15" s="2" t="inlineStr"/>
-      <c r="AC15" s="2" t="inlineStr"/>
-      <c r="AD15" s="2" t="inlineStr"/>
+        <v>0.4213366020734207</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0.3335790002411184</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>0.5880208439406661</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0.4633490248823134</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0.03552</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0.5228462246810233</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>0.31168</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0.3293934606539791</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0.592712061687221</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>0.5725762796846933</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>0.351462769915096</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>0.3424503121580777</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>0.17539</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>0.4408218038488301</v>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>0.4013712370627894</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>0.3161171999727407</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>0.4249608518634513</v>
+      </c>
+      <c r="W15" s="2" t="n">
+        <v>0.6839336047604134</v>
+      </c>
+      <c r="X15" s="2" t="n">
+        <v>0.2797711620509544</v>
+      </c>
+      <c r="Y15" s="2" t="n">
+        <v>0.3578185425685426</v>
+      </c>
+      <c r="Z15" s="2" t="n">
+        <v>0.7061611374407584</v>
+      </c>
+      <c r="AA15" s="2" t="n">
+        <v>0.3620376597175521</v>
+      </c>
+      <c r="AB15" s="2" t="n">
+        <v>0.7663262539483096</v>
+      </c>
+      <c r="AC15" s="2" t="n">
+        <v>0.797210507122408</v>
+      </c>
+      <c r="AD15" s="2" t="n">
+        <v>0.20472</v>
+      </c>
+      <c r="AE15" s="2" t="n">
+        <v>0.01968</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\Wissam42\sentence-croissant-llm-base</t>
+          <t>dangvantuan/sentence-camembert-base</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.29969</v>
+        <v>0.8163901919126012</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.52252</v>
+        <v>0.39189</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.21309</v>
+        <v>0.2021549178618914</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.74197</v>
+        <v>0.3606737729832072</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.58573</v>
+        <v>0.3603382429363983</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.6411669265073395</v>
+        <v>0.3076503346423071</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.325236731994226</v>
+        <v>0.7417817544381963</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.5299964667919109</v>
+        <v>0.6127774041694687</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.34792</v>
-      </c>
-      <c r="K16" s="3" t="n">
-        <v>1</v>
+        <v>0.13357</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>0.5743705197496742</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.36026</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.2340128867212198</v>
+        <v>0.5834449233135185</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>0.7928909952606634</v>
+        <v>0.5909203102484407</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0.5394435157885373</v>
+        <v>0.7753949779251178</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0.4105178984993857</v>
+        <v>0.2705338909472246</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0.5940820443846672</v>
+        <v>0.389167691440152</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.6528581035642234</v>
+        <v>0.68618</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0.429413226398757</v>
+        <v>0.3597635372718684</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.3391299056452157</v>
+        <v>0.8975927783350049</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.855214531788287</v>
+        <v>0.9007021063189569</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>0.6312245537112433</v>
+        <v>0.4343877231443783</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9141910841619804</v>
+        <v>0.7710303789539619</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.9261526052336004</v>
+        <v>0.2877116932900191</v>
       </c>
       <c r="Y16" s="2" t="n">
-        <v>0.6313386879959426</v>
+        <v>0.7372738095238095</v>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>0.6960017257463582</v>
+        <v>0.7035545023696683</v>
       </c>
       <c r="AA16" s="2" t="n">
-        <v>0.7877222611897307</v>
+        <v>0.5159381304640215</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0.7922738680429985</v>
+        <v>0.9205083560505066</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>0.2904259923005852</v>
+        <v>0.9328066173124074</v>
       </c>
       <c r="AD16" s="2" t="n">
-        <v>0.8290000000000001</v>
+        <v>0.57916</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>0.21938</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\bert-base-multilingual-cased</t>
+          <t>embed-multilingual-light-v3.0</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.01626</v>
+        <v>0.7648019211186484</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.51802</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.1731069266684963</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.6631613175502583</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.1849</v>
+        <v>0.5680686305484748</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.5149653756008361</v>
+        <v>0.294063089090014</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.4305645671675891</v>
+        <v>0.7550483099806141</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.3623465498799006</v>
+        <v>0.5949562878278413</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.29394</v>
+        <v>0.23004</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.5731728148121378</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.386</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.2080755658975593</v>
+        <v>0.7022205799056065</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0.6400473933649289</v>
+        <v>0.6195997777996813</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.8279714502136332</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.3272447200966951</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0.3729993275050437</v>
+        <v>0.3135667338652056</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.4446536650975118</v>
+        <v>0.7688199999999999</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>0.4090371994645377</v>
-      </c>
-      <c r="T17" s="2" t="n">
-        <v>0.3179683201467264</v>
+        <v>0.4279854786876686</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.6361102411525212</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>0.3783589101158785</v>
+        <v>0.5000626370184779</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.8677048159592717</v>
+        <v>0.8079235828374569</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.8722976958382189</v>
+        <v>0.314006702294</v>
       </c>
       <c r="Y17" s="2" t="n">
-        <v>0.5339388951464616</v>
+        <v>0.8196666666666665</v>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>0.5874812845368886</v>
+        <v>0.8258293838862558</v>
       </c>
       <c r="AA17" s="2" t="n">
-        <v>0.3904525758557057</v>
+        <v>0.5631136516476126</v>
       </c>
       <c r="AB17" s="2" t="n">
-        <v>0.5224722935490146</v>
+        <v>0.9091625445064609</v>
       </c>
       <c r="AC17" s="2" t="n">
-        <v>0.2880779587217142</v>
+        <v>0.9209596025105193</v>
       </c>
       <c r="AD17" s="2" t="n">
-        <v>0.5325</v>
+        <v>0.45227</v>
+      </c>
+      <c r="AE17" s="2" t="n">
+        <v>0.35394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\bert-base-multilingual-uncased</t>
+          <t>embed-multilingual-v3.0</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.05506</v>
+        <v>0.8184387078760932</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.16216</v>
+        <v>0.44144</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.02872</v>
+        <v>0.1990356735257148</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.34951</v>
+        <v>0.8308540836724554</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.26117</v>
+        <v>0.5318379498672176</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.6066148200885675</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0.3505397363641355</v>
+        <v>0.3230998225707994</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0.7923250123076204</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.3884926710455013</v>
+        <v>0.6729320780094149</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.29024</v>
+        <v>0.25437</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.9477432296890672</v>
+        <v>0.6125533530469982</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.9799398194583752</v>
+        <v>0.41892</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0.2089820298983429</v>
+        <v>0.7366250957261234</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>0.756872037914692</v>
+        <v>0.6352561566282294</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0.4971340561526633</v>
+        <v>0.8276336405644232</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>0.422255814870678</v>
+        <v>0.347527142956374</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0.3800605245460659</v>
+        <v>0.361759185577996</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.4363147276395427</v>
+        <v>0.79269</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0.4349522858689475</v>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>0.3098774275886452</v>
-      </c>
-      <c r="U18" s="2" t="n">
-        <v>0.644910742248669</v>
+        <v>0.4508360325363872</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>0.3940181647353586</v>
+        <v>0.6107422486689634</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.8743393906507683</v>
+        <v>0.8622925148762919</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8874950508866897</v>
+        <v>0.3126400952397324</v>
       </c>
       <c r="Y18" s="2" t="n">
-        <v>0.5322360899538218</v>
-      </c>
-      <c r="Z18" s="2" t="n">
-        <v>0.5826449144443914</v>
+        <v>0.8365833333333333</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>0.830568720379147</v>
       </c>
       <c r="AA18" s="2" t="n">
-        <v>0.5647457412587442</v>
+        <v>0.629388029589778</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>0.5497353309633939</v>
+        <v>0.940778214081015</v>
       </c>
       <c r="AC18" s="2" t="n">
-        <v>0.3072334740467725</v>
+        <v>0.9503580631772154</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>0.664</v>
+        <v>0.58873</v>
+      </c>
+      <c r="AE18" s="2" t="n">
+        <v>0.38361</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\camembert\camembert-base</t>
+          <t>flaubert/flaubert_base_cased</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.00235</v>
+        <v>0.3713955104980419</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.02252</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.02022</v>
+        <v>0.03854581426819014</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.05799</v>
+        <v>0.01979442433142667</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.19922</v>
+        <v>0.4161016174685461</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.5423893147384338</v>
+        <v>0.2126096885689954</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.2918804706562174</v>
+        <v>0.5386168675726091</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2428709072770491</v>
+        <v>0.1140551445864156</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.29814</v>
+        <v>0.00579</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.2602264772347189</v>
+        <v>0.5189063823329726</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.2515262419615453</v>
+        <v>0.24904</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.1350952753315698</v>
+        <v>0.2920875344017915</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>0.6561611374407583</v>
+        <v>0.5285934835529511</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>0.4398103174841825</v>
+        <v>0.6536672090843911</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>0.2665670855775651</v>
+        <v>0.171305846850958</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0.3095158036314727</v>
+        <v>0.1445975007371924</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.3948554135843981</v>
+        <v>0.20562</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0.4060210180892428</v>
+        <v>0.3905601625969005</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0.2663399835756784</v>
+        <v>0.3091099858805599</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.5839336047604134</v>
+        <v>0.3585084545943069</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>0.2861259004071406</v>
+        <v>0.09492640150328843</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.8342726180422799</v>
+        <v>0.2554963983714375</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8601987158204568</v>
+        <v>0.312594655829165</v>
       </c>
       <c r="Y19" s="2" t="n">
-        <v>0.521089966496604</v>
+        <v>0.427472582972583</v>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>0.5368307592304911</v>
+        <v>0.7113744075829384</v>
       </c>
       <c r="AA19" s="2" t="n">
-        <v>0.6107432321823179</v>
+        <v>0.06980497646267654</v>
       </c>
       <c r="AB19" s="2" t="n">
-        <v>0.5486423488745364</v>
+        <v>0.8214541028748449</v>
       </c>
       <c r="AC19" s="2" t="n">
-        <v>0.2963071602202985</v>
+        <v>0.8372010738024828</v>
       </c>
       <c r="AD19" s="2" t="n">
-        <v>0.4126666666666667</v>
+        <v>0.06587999999999999</v>
+      </c>
+      <c r="AE19" s="2" t="n">
+        <v>0.01628</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\camembert\camembert-large</t>
+          <t>flaubert/flaubert_base_uncased</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.01968</v>
+        <v>0.3340826064580523</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.02703</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.03552</v>
+        <v>0.01795603069453415</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.17539</v>
+        <v>0.02985745352493187</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0.20472</v>
+        <v>0.2849343428327477</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.592712061687221</v>
+        <v>0.2257882491180909</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.3424503121580777</v>
+        <v>0.4190237966349758</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.3306899111278445</v>
+        <v>0.1098184263618023</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.31168</v>
+        <v>0.00508</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.4013712370627894</v>
+        <v>0.5277777608306072</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.3161171999727407</v>
+        <v>0.23518</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.1838664804452286</v>
+        <v>0.2990165728874674</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>0.7061611374407584</v>
+        <v>0.4320222924608445</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0.4213366020734207</v>
+        <v>0.5515047105823337</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>0.3335790002411184</v>
+        <v>0.1489756017869693</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0.3620376597175521</v>
+        <v>0.1293857445009916</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.4633490248823134</v>
+        <v>0.22333</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0.4408218038488301</v>
+        <v>0.3322371189429822</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>0.351462769915096</v>
+        <v>0.2537073113561774</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.6839336047604134</v>
+        <v>0.08098894058162567</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>0.4249608518634513</v>
+        <v>0.08609458189790167</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.7663262539483096</v>
+        <v>0.2774193548387097</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.797210507122408</v>
+        <v>0.2942790176376187</v>
       </c>
       <c r="Y20" s="2" t="n">
-        <v>0.5228462246810233</v>
+        <v>0.4900678210678211</v>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>0.5880208439406661</v>
+        <v>0.6260663507109006</v>
       </c>
       <c r="AA20" s="2" t="n">
-        <v>0.5725762796846933</v>
+        <v>0.06237390719569604</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>0.6183576200859585</v>
+        <v>0.8199594649342907</v>
       </c>
       <c r="AC20" s="2" t="n">
-        <v>0.2797711620509544</v>
+        <v>0.8371300542205431</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>0.5105</v>
+        <v>0.09089999999999999</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>0.01719</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\dangvantuan\sentence-camembert-base</t>
+          <t>flaubert/flaubert_large_cased</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.21938</v>
+        <v>0.1565944995632818</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.39189</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.13357</v>
+        <v>0.05262528089639844</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.68618</v>
+        <v>0.009125460760132157</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.57916</v>
+        <v>0.2642955329593683</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.5909203102484407</v>
+        <v>0.2467651379532248</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.389167691440152</v>
+        <v>0.3460428228637162</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.4868090891948794</v>
+        <v>0.2271687962340282</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.36026</v>
+        <v>0.00263</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.8975927783350049</v>
+        <v>0.5413772297820212</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.9007021063189569</v>
+        <v>0.22446</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.2021549178618914</v>
+        <v>0.293477014607151</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0.7035545023696683</v>
+        <v>0.4085073955515567</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>0.3603382429363983</v>
+        <v>0.4852164892537546</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0.3076503346423071</v>
+        <v>0.1871270130969609</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0.5159381304640215</v>
+        <v>0.217556103036172</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.6127774041694687</v>
+        <v>0.01578</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0.3597635372718684</v>
+        <v>0.3809040459534752</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.2705338909472246</v>
+        <v>0.1491870638833542</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.7710303789539619</v>
+        <v>0.1739429979680737</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>0.4343877231443783</v>
+        <v>0.09790165988098966</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9205083560505066</v>
+        <v>0.2426558095834638</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.9328066173124074</v>
+        <v>0.2924968054601468</v>
       </c>
       <c r="Y21" s="2" t="n">
-        <v>0.5743705197496742</v>
+        <v>0.3206645021645022</v>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>0.7417817544381963</v>
+        <v>0.5563981042654029</v>
       </c>
       <c r="AA21" s="2" t="n">
-        <v>0.7753949779251178</v>
+        <v>0.1641223940820444</v>
       </c>
       <c r="AB21" s="2" t="n">
-        <v>0.8163901919126012</v>
+        <v>0.7477882434061929</v>
       </c>
       <c r="AC21" s="2" t="n">
-        <v>0.2877116932900191</v>
+        <v>0.7644139372682293</v>
       </c>
       <c r="AD21" s="2" t="n">
-        <v>0.7975</v>
+        <v>0.03694</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>0.0058</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\dangvantuan\sentence-camembert-large</t>
+          <t>intfloat/e5-mistral-7b-instruct</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.31623</v>
+        <v>0.8258035914230101</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.56757</v>
+        <v>0.64414</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.21871</v>
+        <v>0.2703784312414779</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.8111</v>
+        <v>0.8537682572781737</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.65623</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0.6268796577838202</v>
+        <v>0.3774396036145243</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0.6506715922995265</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.4206075946482793</v>
+        <v>0.7914808164798864</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.5761808536150032</v>
+        <v>0.6982515131136517</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.3797</v>
+        <v>0.48849</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.9946506185222335</v>
+        <v>0.6008082215984939</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.995987963891675</v>
+        <v>0.44124</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0.2390369822485666</v>
+        <v>0.7435294651132076</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>0.8061611374407583</v>
+        <v>0.6372358432087271</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0.5450656885773288</v>
+        <v>0.756267198771491</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>0.4473220244132624</v>
-      </c>
-      <c r="Q22" s="2" t="n">
-        <v>0.6265299260255548</v>
+        <v>0.4441451479416692</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>0.5813416598329056</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.6929051782111635</v>
+        <v>0.83433</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0.420359585982358</v>
-      </c>
-      <c r="T22" s="2" t="n">
-        <v>0.3229405651242595</v>
-      </c>
-      <c r="U22" s="2" t="n">
-        <v>0.8573755089257752</v>
+        <v>0.4532798369950647</v>
+      </c>
+      <c r="T22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>0.5861572189163796</v>
+        <v>0.5298465393047291</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9462760751835194</v>
+        <v>0.8202630754776072</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.9525375018810192</v>
+        <v>0.3120032624874787</v>
       </c>
       <c r="Y22" s="2" t="n">
-        <v>0.5958886792690583</v>
+        <v>0.9000952380952382</v>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>0.7769676247221875</v>
+        <v>0.7495260663507108</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>0.8172944501533574</v>
-      </c>
-      <c r="AB22" s="3" t="n">
-        <v>0.8578534328308375</v>
+        <v>0.59862138533961</v>
+      </c>
+      <c r="AB22" s="2" t="n">
+        <v>0.9199728356434089</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0.3088268637624669</v>
+        <v>0.9395017624590254</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>0.8815000000000001</v>
+        <v>0.63403</v>
+      </c>
+      <c r="AE22" s="2" t="n">
+        <v>0.45024</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\distilbert-base-uncased</t>
+          <t>intfloat/multilingual-e5-base</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.8061987894341297</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.01802</v>
+        <v>0.5315299999999999</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.00583</v>
+        <v>0.224815183324348</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.08987000000000001</v>
+        <v>0.8469805121423075</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.17744</v>
+        <v>0.4790955603113446</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.3654854742123225</v>
+        <v>0.511613591091413</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.2581130737375776</v>
+        <v>0.7622741775011176</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2395511773805056</v>
+        <v>0.6648621385339609</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.2541</v>
+        <v>0.23459</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.04620745118237596</v>
+        <v>0.5693001208081843</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.06596709425391827</v>
+        <v>0.40944</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0.1223708659659341</v>
+        <v>0.666692811769824</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>0.5507109004739337</v>
+        <v>0.6208902532272975</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>0.2280827796748879</v>
+        <v>0.7812983399916396</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>0.3072061278544836</v>
+        <v>0.3852856167447359</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0.2076664425016812</v>
+        <v>0.3298420160973169</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.2808338937457969</v>
+        <v>0.8048999999999999</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>0.3194912583149639</v>
-      </c>
-      <c r="T23" s="2" t="n">
-        <v>0.243012339178737</v>
+        <v>0.4347744902667021</v>
+      </c>
+      <c r="T23" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.4403695584090198</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>0.2053867835891012</v>
+        <v>0.5550892577513311</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.8407210207396341</v>
+        <v>0.8478546821171312</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.85575055590875</v>
+        <v>0.3076006060850825</v>
       </c>
       <c r="Y23" s="2" t="n">
-        <v>0.5193426436605626</v>
+        <v>0.8293333333333333</v>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>0.5546828187668631</v>
+        <v>0.7969194312796208</v>
       </c>
       <c r="AA23" s="2" t="n">
-        <v>0.1554865823093162</v>
+        <v>0.6083389374579691</v>
       </c>
       <c r="AB23" s="2" t="n">
-        <v>0.4602440842999612</v>
+        <v>0.9271872509880947</v>
       </c>
       <c r="AC23" s="2" t="n">
-        <v>0.3109262244283785</v>
+        <v>0.9388089167367641</v>
       </c>
       <c r="AD23" s="2" t="n">
-        <v>0.4636666666666666</v>
+        <v>0.65813</v>
+      </c>
+      <c r="AE23" s="2" t="n">
+        <v>0.36213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\flaubert\flaubert_base_cased</t>
+          <t>intfloat/multilingual-e5-large</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.01628</v>
+        <v>0.825331305991469</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.02252</v>
+        <v>0.59459</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.00579</v>
+        <v>0.224385340783431</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.20562</v>
+        <v>0.848343389001009</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.06587999999999999</v>
+        <v>0.4094051717864892</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.5285934835529511</v>
+        <v>0.3056417709980992</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.1445975007371924</v>
+        <v>0.7877953920342992</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.3481294672682068</v>
+        <v>0.6814727639542704</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.24904</v>
+        <v>0.25198</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.3091099858805599</v>
+        <v>0.5850354286368129</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.3585084545943069</v>
+        <v>0.41906</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.03854581426819014</v>
+        <v>0.6938624729293177</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0.7113744075829384</v>
+        <v>0.6299441060729347</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0.4161016174685461</v>
+        <v>0.7959570636221113</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>0.2126096885689954</v>
+        <v>0.3764790754795183</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0.06980497646267654</v>
+        <v>0.3226490465285985</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.1140551445864156</v>
+        <v>0.81073</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0.3905601625969005</v>
-      </c>
-      <c r="T24" s="2" t="n">
-        <v>0.171305846850958</v>
-      </c>
-      <c r="U24" s="2" t="n">
-        <v>0.2554963983714375</v>
+        <v>0.4403584780733176</v>
+      </c>
+      <c r="T24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>0.09492640150328843</v>
+        <v>0.5943000313185093</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.8214541028748449</v>
+        <v>0.8640776699029127</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8372010738024828</v>
+        <v>0.3091960914950717</v>
       </c>
       <c r="Y24" s="2" t="n">
-        <v>0.5189063823329726</v>
+        <v>0.8286666666666666</v>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>0.5386168675726091</v>
+        <v>0.7938388625592416</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>0.6536672090843911</v>
+        <v>0.6354741089441829</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0.3713955104980419</v>
+        <v>0.938913502641856</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0.312594655829165</v>
+        <v>0.9484999717971343</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>0.5588333333333334</v>
+        <v>0.66152</v>
+      </c>
+      <c r="AE24" s="2" t="n">
+        <v>0.38155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\flaubert\flaubert_base_uncased</t>
+          <t>intfloat/multilingual-e5-small</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.01719</v>
+        <v>0.7932089325677624</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.02703</v>
+        <v>0.51802</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.00508</v>
+        <v>0.1895146766129994</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.22333</v>
+        <v>0.8191820946779194</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.4012052586909949</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.4320222924608445</v>
+        <v>0.3922138626257822</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.1293857445009916</v>
+        <v>0.7561918985563969</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.3455157833857672</v>
+        <v>0.6141896435776732</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.23518</v>
+        <v>0.22532</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.2537073113561774</v>
+        <v>0.5567655997101544</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.08098894058162567</v>
+        <v>0.39678</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0.01795603069453415</v>
+        <v>0.6527671789828227</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>0.6260663507109006</v>
+        <v>0.6088563017856842</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>0.2849343428327477</v>
+        <v>0.7961730402830817</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>0.2257882491180909</v>
+        <v>0.3760912295232594</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0.06237390719569604</v>
+        <v>0.3252159090813198</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.1098184263618023</v>
+        <v>0.75757</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0.3322371189429822</v>
-      </c>
-      <c r="T25" s="2" t="n">
-        <v>0.1489756017869693</v>
-      </c>
-      <c r="U25" s="2" t="n">
-        <v>0.2774193548387097</v>
+        <v>0.4319898481643542</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>0.08609458189790167</v>
+        <v>0.4600689007203257</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.8199594649342907</v>
-      </c>
-      <c r="X25" s="2" t="n">
-        <v>0.8371300542205431</v>
+        <v>0.8119636705292829</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <v>0.3184904693517336</v>
       </c>
       <c r="Y25" s="2" t="n">
-        <v>0.5277777608306072</v>
+        <v>0.8181666666666665</v>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>0.4190237966349758</v>
+        <v>0.7765402843601896</v>
       </c>
       <c r="AA25" s="2" t="n">
-        <v>0.5515047105823337</v>
+        <v>0.5596839273705447</v>
       </c>
       <c r="AB25" s="2" t="n">
-        <v>0.3340826064580523</v>
+        <v>0.9251631850374396</v>
       </c>
       <c r="AC25" s="2" t="n">
-        <v>0.2942790176376187</v>
+        <v>0.9361314066710414</v>
       </c>
       <c r="AD25" s="2" t="n">
-        <v>0.5718333333333334</v>
+        <v>0.57468</v>
+      </c>
+      <c r="AE25" s="2" t="n">
+        <v>0.27011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\flaubert\flaubert_large_cased</t>
+          <t>izhx/udever-bloom-1b1</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.0058</v>
+        <v>0.4997294509449677</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0</v>
+        <v>0.32432</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.00263</v>
+        <v>0.1386308009277809</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.01578</v>
+        <v>0.02960398393820522</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.03694</v>
+        <v>0.4020146637093098</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.4085073955515567</v>
+        <v>0.2734727715023461</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.217556103036172</v>
+        <v>0.5994249043712252</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2628634383924476</v>
+        <v>0.4978143913920645</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.22446</v>
+        <v>0.02784</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.1491870638833542</v>
+        <v>0.6199445797185625</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.1739429979680737</v>
+        <v>0.35122</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0.05262528089639844</v>
+        <v>0.3861486557235695</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0.5563981042654029</v>
+        <v>0.6222399442609416</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0.2642955329593683</v>
+        <v>0.7710422175271007</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>0.2467651379532248</v>
+        <v>0.3046596247823246</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0.1641223940820444</v>
+        <v>0.2705660566063521</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.2271687962340282</v>
+        <v>0.40572</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0.3809040459534752</v>
+        <v>0.4411463190530258</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>0.1871270130969609</v>
+        <v>0.7507920742612434</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.2426558095834638</v>
+        <v>0.7753324186122581</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>0.09790165988098966</v>
+        <v>0.5124960851863452</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.7477882434061929</v>
+        <v>0.6924209207641716</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.7644139372682293</v>
+        <v>0.2947773908643301</v>
       </c>
       <c r="Y26" s="2" t="n">
-        <v>0.5413772297820212</v>
+        <v>0.4799292929292929</v>
       </c>
       <c r="Z26" s="2" t="n">
-        <v>0.3460428228637162</v>
+        <v>0.8082938388625592</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>0.4852164892537546</v>
+        <v>0.4321116341627437</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>0.1565944995632818</v>
+        <v>0.8553994259572022</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0.2924968054601468</v>
+        <v>0.8699512931793678</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>0.428</v>
+        <v>0.33816</v>
+      </c>
+      <c r="AE26" s="2" t="n">
+        <v>0.12368</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\e5-mistral-7b-instruct</t>
+          <t>izhx/udever-bloom-560m</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.16464</v>
-      </c>
-      <c r="C27" s="2" t="inlineStr"/>
+        <v>0.367797062871304</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0.06306</v>
+      </c>
       <c r="D27" s="2" t="n">
-        <v>0.03572</v>
+        <v>0.07676232398725595</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.55901</v>
+        <v>0.08123300931367383</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0.41288</v>
+        <v>0.3756989794785178</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>0.6106009333650795</v>
+        <v>0.2057636370254607</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.2812144287516594</v>
+        <v>0.5454151151439361</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.4736204616404567</v>
+        <v>0.2167451244115669</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.3670600000000001</v>
+        <v>0.00478</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.4810461602296786</v>
+        <v>0.5968876661366747</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.6295424735745699</v>
+        <v>0.2685</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0.1969463250152054</v>
+        <v>0.3071196838846439</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>0.8059241706161137</v>
+        <v>0.5356669323782933</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>0.5246796947226955</v>
+        <v>0.6134778039151253</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>0.4920055056152256</v>
+        <v>0.252602955617548</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0.4638533960995293</v>
+        <v>0.2213080649584274</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.5385675857431069</v>
+        <v>0.24447</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0.4559377361216638</v>
+        <v>0.3643378561194323</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>0.3200009173890195</v>
+        <v>0.4982878074063394</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.7479799561540871</v>
+        <v>0.3735697737011764</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>0.5397118697150015</v>
+        <v>0.1575634199812089</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.8849687629254399</v>
+        <v>0.3498590667084247</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.9018852564940179</v>
+        <v>0.236335996838468</v>
       </c>
       <c r="Y27" s="2" t="n">
-        <v>0.6365112459841364</v>
+        <v>0.4720992063492064</v>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>0.6439158828177767</v>
+        <v>0.6793838862559242</v>
       </c>
       <c r="AA27" s="2" t="n">
-        <v>0.6981584012442746</v>
+        <v>0.1509078681909886</v>
       </c>
       <c r="AB27" s="2" t="n">
-        <v>0.6187038869282395</v>
-      </c>
-      <c r="AC27" s="3" t="n">
-        <v>0.3221574896003379</v>
+        <v>0.821028497835868</v>
+      </c>
+      <c r="AC27" s="2" t="n">
+        <v>0.8387532049805303</v>
       </c>
       <c r="AD27" s="2" t="n">
-        <v>0.7705</v>
+        <v>0.12977</v>
+      </c>
+      <c r="AE27" s="2" t="n">
+        <v>0.01977</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\multilingual-e5-base</t>
+          <t>laser2</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.36213</v>
+        <v>0.698190921587828</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.5315299999999999</v>
+        <v>0.08108</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.23459</v>
+        <v>0.1152462522943653</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.8592414264387124</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0.65813</v>
+        <v>0.3204069399698778</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.6208902532272975</v>
+        <v>0.2977201517756452</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.3298420160973169</v>
+        <v>0.6495173425879137</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.5810060561836056</v>
+        <v>0.5855749831876261</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.40944</v>
+        <v>0.06314</v>
       </c>
       <c r="K28" s="3" t="n">
+        <v>0.6952503411108341</v>
+      </c>
+      <c r="L28" s="2" t="n">
+        <v>0.3389</v>
+      </c>
+      <c r="M28" s="2" t="n">
+        <v>0.3949722119087398</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0.4844987065316271</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>0.6526537801367611</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>0.2734632035175874</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>0.2581005978931367</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0.28578</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>0.3452771955734939</v>
+      </c>
+      <c r="T28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L28" s="2" t="n">
-        <v>0.9986626546305583</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>0.224815183324348</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>0.7969194312796208</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>0.4790955603113446</v>
-      </c>
-      <c r="P28" s="2" t="n">
-        <v>0.511613591091413</v>
-      </c>
-      <c r="Q28" s="2" t="n">
-        <v>0.6083389374579691</v>
-      </c>
-      <c r="R28" s="2" t="n">
-        <v>0.6648621385339609</v>
-      </c>
-      <c r="S28" s="2" t="n">
-        <v>0.4347744902667021</v>
-      </c>
-      <c r="T28" s="2" t="n">
-        <v>0.3852856167447359</v>
-      </c>
-      <c r="U28" s="2" t="n">
-        <v>0.8478546821171312</v>
+      <c r="U28" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>0.5550892577513311</v>
+        <v>0.5677106169746321</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9271872509880947</v>
+        <v>0.7615408706545569</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.9388089167367641</v>
+        <v>0.3156475744412745</v>
       </c>
       <c r="Y28" s="2" t="n">
-        <v>0.5693001208081843</v>
+        <v>0.4901031746031747</v>
       </c>
       <c r="Z28" s="2" t="n">
-        <v>0.7622741775011176</v>
+        <v>0.659004739336493</v>
       </c>
       <c r="AA28" s="2" t="n">
-        <v>0.7812983399916396</v>
+        <v>0.5255548083389374</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>0.8061987894341297</v>
+        <v>0.9376676402095003</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0.3076006060850825</v>
+        <v>0.9461924042044693</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>0.8543333333333334</v>
+        <v>0.42589</v>
+      </c>
+      <c r="AE28" s="2" t="n">
+        <v>0.03097</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\multilingual-e5-large</t>
+          <t>manu/bge-m3-custom-fr</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.38155</v>
+        <v>0.8130363449669112</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.59459</v>
+        <v>0.5315299999999999</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.25198</v>
+        <v>0.2426017909651959</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.81073</v>
+        <v>0.8278011992260426</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0.66152</v>
+        <v>0.292272082926912</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.6299441060729347</v>
+        <v>0.4157909770352988</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.3226490465285985</v>
+        <v>0.7550779819674533</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.5736952514221313</v>
+        <v>0.7456960322797579</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.41906</v>
-      </c>
-      <c r="K29" s="3" t="n">
+        <v>0.25173</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>0.6094421871363481</v>
+      </c>
+      <c r="L29" s="2" t="n">
+        <v>0.42324</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>0.7368891701668482</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>0.5757878622622551</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0.8190001119887127</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>0.4243781497829743</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>0.3944229454079622</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>0.79145</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>0.4214163246845126</v>
+      </c>
+      <c r="T29" s="2" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="U29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>0.224385340783431</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>0.7938388625592416</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>0.4094051717864892</v>
-      </c>
-      <c r="P29" s="2" t="n">
-        <v>0.3056417709980992</v>
-      </c>
-      <c r="Q29" s="2" t="n">
-        <v>0.6354741089441829</v>
-      </c>
-      <c r="R29" s="2" t="n">
-        <v>0.6814727639542704</v>
-      </c>
-      <c r="S29" s="2" t="n">
-        <v>0.4403584780733176</v>
-      </c>
-      <c r="T29" s="2" t="n">
-        <v>0.3764790754795183</v>
-      </c>
-      <c r="U29" s="2" t="n">
-        <v>0.8640776699029127</v>
-      </c>
       <c r="V29" s="2" t="n">
-        <v>0.5943000313185093</v>
+        <v>0.6082054494206075</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.938913502641856</v>
+        <v>0.903883495145631</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.9484999717971343</v>
+        <v>0.3005908023438207</v>
       </c>
       <c r="Y29" s="2" t="n">
-        <v>0.5850354286368129</v>
+        <v>0.845873015873016</v>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>0.7877953920342992</v>
+        <v>0.7023696682464454</v>
       </c>
       <c r="AA29" s="2" t="n">
-        <v>0.7959570636221113</v>
+        <v>0.6669468728984532</v>
       </c>
       <c r="AB29" s="2" t="n">
-        <v>0.825331305991469</v>
+        <v>0.9333973385767004</v>
       </c>
       <c r="AC29" s="2" t="n">
-        <v>0.3091960914950717</v>
+        <v>0.944701727209905</v>
       </c>
       <c r="AD29" s="2" t="n">
-        <v>0.8689999999999999</v>
+        <v>0.68492</v>
+      </c>
+      <c r="AE29" s="2" t="n">
+        <v>0.44746</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\intfloat\multilingual-e5-small</t>
+          <t>manu/sentence_croissant_alpha_v0.2</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.27011</v>
+        <v>0.7262832939213406</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.51802</v>
+        <v>0.6036</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.22532</v>
+        <v>0.2548325975781052</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.75757</v>
+        <v>0.7490244473049233</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0.57468</v>
+        <v>0.5574960450682011</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.6088563017856842</v>
+        <v>0.3227666866562461</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.3252159090813198</v>
+        <v>0.6912509283105648</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.5616883460889035</v>
+        <v>0.7008406186953597</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.39678</v>
-      </c>
-      <c r="K30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3" t="n">
-        <v>1</v>
+        <v>0.26351</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>0.668665650886613</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>0.38106</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0.1895146766129994</v>
+        <v>0.7196818323283877</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>0.7765402843601896</v>
+        <v>0.6224457184731559</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0.4012052586909949</v>
+        <v>0.792794943790982</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>0.3922138626257822</v>
+        <v>0.4438422214552257</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0.5596839273705447</v>
+        <v>0.3796537550876475</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.6141896435776732</v>
+        <v>0.7870200000000001</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0.4319898481643542</v>
+        <v>0.4460491760281284</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>0.3760912295232594</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.8119636705292829</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>0.4600689007203257</v>
+        <v>0.6147823363607892</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9251631850374396</v>
+        <v>0.885812715314751</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.9361314066710414</v>
+        <v>0.2963260674606215</v>
       </c>
       <c r="Y30" s="2" t="n">
-        <v>0.5567655997101544</v>
+        <v>0.8224285714285715</v>
       </c>
       <c r="Z30" s="2" t="n">
-        <v>0.7561918985563969</v>
+        <v>0.7552132701421801</v>
       </c>
       <c r="AA30" s="2" t="n">
-        <v>0.7961730402830817</v>
+        <v>0.6383658372562205</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>0.7932089325677624</v>
+        <v>0.9315589224053143</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0.3184904693517336</v>
+        <v>0.93299242831188</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>0.8669999999999999</v>
+        <v>0.61914</v>
+      </c>
+      <c r="AE30" s="2" t="n">
+        <v>0.45487</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\izhx\udever-bloom-1b1</t>
+          <t>manu/sentence_croissant_alpha_v0.3</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.12368</v>
+        <v>0.7765803549830591</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.32432</v>
+        <v>0.65766</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.02784</v>
+        <v>0.2632047044833564</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.40572</v>
+        <v>0.7737718097451919</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>0.33816</v>
+        <v>0.5799405225219099</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.6222399442609416</v>
+        <v>0.3769405326971794</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.2705660566063521</v>
+        <v>0.719770122605619</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.391305123990374</v>
+        <v>0.6986550100874244</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.35122</v>
+        <v>0.2965</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.7507920742612434</v>
+        <v>0.6542042805601268</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.7753324186122581</v>
+        <v>0.3631</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0.1386308009277809</v>
+        <v>0.7364325943253973</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>0.8082938388625592</v>
+        <v>0.6049889083017318</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>0.4020146637093098</v>
+        <v>0.8133791809403829</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>0.2734727715023461</v>
+        <v>0.4381914693719002</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0.4321116341627437</v>
+        <v>0.4058550987695524</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.4978143913920645</v>
+        <v>0.8033</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0.4411463190530258</v>
+        <v>0.4422111049954497</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>0.3046596247823246</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.6924209207641716</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>0.5124960851863452</v>
+        <v>0.592890698402756</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.8553994259572022</v>
+        <v>0.8825555903538993</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.8699512931793678</v>
+        <v>0.3099183622495067</v>
       </c>
       <c r="Y31" s="2" t="n">
-        <v>0.6199445797185625</v>
+        <v>0.8217023809523809</v>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>0.5994249043712252</v>
+        <v>0.75781990521327</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>0.7710422175271007</v>
+        <v>0.6489240080699393</v>
       </c>
       <c r="AB31" s="2" t="n">
-        <v>0.4997294509449677</v>
+        <v>0.9346759444633187</v>
       </c>
       <c r="AC31" s="2" t="n">
-        <v>0.2947773908643301</v>
+        <v>0.9401873666553365</v>
       </c>
       <c r="AD31" s="2" t="n">
-        <v>0.6258333333333334</v>
+        <v>0.64217</v>
+      </c>
+      <c r="AE31" s="2" t="n">
+        <v>0.49088</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\izhx\udever-bloom-560m</t>
+          <t>mistral-embed</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.01977</v>
+        <v>0.7972225305052291</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.06306</v>
+        <v>0.6756799999999999</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.00478</v>
+        <v>0.2617385576460144</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.24447</v>
+        <v>0.7486276019358121</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0.12977</v>
+        <v>0.4812513474674608</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>0.5356669323782933</v>
+        <v>0.3961706213267493</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.2213080649584274</v>
+        <v>0.7621241859440422</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2874535569238364</v>
+        <v>0.6971418964357767</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.2685</v>
+        <v>0.21732</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.4982878074063394</v>
+        <v>0.6202390909948808</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.3735697737011764</v>
+        <v>0.41594</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.07676232398725595</v>
+        <v>0.7796140728300852</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0.6793838862559242</v>
+        <v>0.6200673531656187</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0.3756989794785178</v>
+        <v>0.8274398153558601</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>0.2057636370254607</v>
+        <v>0.427376128032198</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0.1509078681909886</v>
+        <v>0.4919858181804794</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.2167451244115669</v>
+        <v>0.7877</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0.3643378561194323</v>
-      </c>
-      <c r="T32" s="2" t="n">
-        <v>0.252602955617548</v>
+        <v>0.4527933950642883</v>
+      </c>
+      <c r="T32" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.3498590667084247</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>0.1575634199812089</v>
+        <v>0.6608831819605385</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.821028497835868</v>
+        <v>0.9005010961478235</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.8387532049805303</v>
+        <v>0.3146953192338591</v>
       </c>
       <c r="Y32" s="2" t="n">
-        <v>0.5968876661366747</v>
+        <v>0.8122619047619049</v>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>0.5454151151439361</v>
+        <v>0.8139810426540285</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>0.6134778039151253</v>
+        <v>0.6283120376597177</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>0.367797062871304</v>
+        <v>0.9261462822985623</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0.236335996838468</v>
+        <v>0.9390344015481578</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>0.5088333333333334</v>
+        <v>0.74235</v>
+      </c>
+      <c r="AE32" s="2" t="n">
+        <v>0.56836</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\laser2</t>
+          <t>sentence-transformers/LaBSE</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.03097</v>
+        <v>0.7509746606428888</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.08108</v>
+        <v>0.22973</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.06314</v>
+        <v>0.2061928108108767</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.28578</v>
+        <v>0.8754400001529438</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0.42589</v>
+        <v>0.4615982853044859</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0.4844987065316271</v>
+        <v>0.3813297329222706</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.2581005978931367</v>
+        <v>0.699399693283394</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.3529297636080134</v>
+        <v>0.6510423671822462</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.3389</v>
-      </c>
-      <c r="K33" s="3" t="n">
+        <v>0.15529</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>0.5463098409665733</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>0.3852399999999999</v>
+      </c>
+      <c r="M33" s="2" t="n">
+        <v>0.5537476614602802</v>
+      </c>
+      <c r="N33" s="2" t="n">
+        <v>0.5478373637265357</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>0.779542837388368</v>
+      </c>
+      <c r="P33" s="2" t="n">
+        <v>0.348364243914043</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>0.316037738871091</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>0.55315</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>0.4209325634914144</v>
+      </c>
+      <c r="T33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L33" s="3" t="n">
+      <c r="U33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M33" s="2" t="n">
-        <v>0.1152462522943653</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>0.659004739336493</v>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>0.3204069399698778</v>
-      </c>
-      <c r="P33" s="2" t="n">
-        <v>0.2977201517756452</v>
-      </c>
-      <c r="Q33" s="2" t="n">
-        <v>0.5255548083389374</v>
-      </c>
-      <c r="R33" s="2" t="n">
-        <v>0.5855749831876261</v>
-      </c>
-      <c r="S33" s="2" t="n">
-        <v>0.3452771955734939</v>
-      </c>
-      <c r="T33" s="2" t="n">
-        <v>0.2734632035175874</v>
-      </c>
-      <c r="U33" s="2" t="n">
-        <v>0.7615408706545569</v>
-      </c>
       <c r="V33" s="2" t="n">
-        <v>0.5677106169746321</v>
+        <v>0.6201064829314126</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9376676402095003</v>
+        <v>0.8413717507046664</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.9461924042044693</v>
-      </c>
-      <c r="Y33" s="3" t="n">
-        <v>0.6952503411108341</v>
+        <v>0.301637456328485</v>
+      </c>
+      <c r="Y33" s="2" t="n">
+        <v>0.6762063492063493</v>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>0.6495173425879137</v>
+        <v>0.7739336492890996</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>0.6526537801367611</v>
+        <v>0.6046738399462004</v>
       </c>
       <c r="AB33" s="2" t="n">
-        <v>0.698190921587828</v>
+        <v>0.9395623291640002</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>0.3156475744412745</v>
+        <v>0.9441484444599348</v>
       </c>
       <c r="AD33" s="2" t="n">
-        <v>0.5593333333333333</v>
+        <v>0.51736</v>
+      </c>
+      <c r="AE33" s="2" t="n">
+        <v>0.19775</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\manu\bge-m3-custom-fr</t>
+          <t>sentence-transformers/all-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.44736</v>
+        <v>0.6667725575200975</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.5315299999999999</v>
+        <v>0.34234</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.25173</v>
+        <v>0.1957951528987704</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.79145</v>
+        <v>0.096967565885423</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.68492</v>
-      </c>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr"/>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr"/>
-      <c r="X34" s="2" t="inlineStr"/>
-      <c r="Y34" s="2" t="inlineStr"/>
-      <c r="Z34" s="2" t="inlineStr"/>
-      <c r="AA34" s="2" t="inlineStr"/>
-      <c r="AB34" s="2" t="inlineStr"/>
-      <c r="AC34" s="2" t="inlineStr"/>
-      <c r="AD34" s="2" t="inlineStr"/>
+        <v>0.4271872726070847</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>0.3246835377100011</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>0.6316238159087848</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0.537626092804304</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>0.16079</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>0.5552853885736202</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>0.2754</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>0.6701369640322303</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>0.4602594872664162</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>0.6951402658537921</v>
+      </c>
+      <c r="P34" s="2" t="n">
+        <v>0.2929559187477989</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>0.3182943689925971</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>0.3435218323840786</v>
+      </c>
+      <c r="T34" s="2" t="n">
+        <v>0.7091264534343772</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <v>0.6191113021604495</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>0.3893830253679925</v>
+      </c>
+      <c r="W34" s="2" t="n">
+        <v>0.7559348575007829</v>
+      </c>
+      <c r="X34" s="2" t="n">
+        <v>0.2662863565868236</v>
+      </c>
+      <c r="Y34" s="2" t="n">
+        <v>0.6917023809523809</v>
+      </c>
+      <c r="Z34" s="2" t="n">
+        <v>0.7220379146919431</v>
+      </c>
+      <c r="AA34" s="2" t="n">
+        <v>0.4481506388702085</v>
+      </c>
+      <c r="AB34" s="2" t="n">
+        <v>0.8734880754144339</v>
+      </c>
+      <c r="AC34" s="2" t="n">
+        <v>0.8779525332075913</v>
+      </c>
+      <c r="AD34" s="2" t="n">
+        <v>0.55899</v>
+      </c>
+      <c r="AE34" s="2" t="n">
+        <v>0.33196</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\manu\sentence_croissant_alpha_v0.2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.45487</v>
+        <v>0.6493028232792631</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.60811</v>
+        <v>0.27477</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.26351</v>
+        <v>0.1884080354213321</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.79169</v>
+        <v>0.03498878152491112</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>0.61948</v>
-      </c>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr"/>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
-      <c r="W35" s="2" t="inlineStr"/>
-      <c r="X35" s="2" t="inlineStr"/>
-      <c r="Y35" s="2" t="inlineStr"/>
-      <c r="Z35" s="2" t="inlineStr"/>
-      <c r="AA35" s="2" t="inlineStr"/>
-      <c r="AB35" s="2" t="inlineStr"/>
-      <c r="AC35" s="2" t="inlineStr"/>
-      <c r="AD35" s="2" t="inlineStr"/>
+        <v>0.3492044210457986</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>0.4057681708831091</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>0.6248225654609475</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0.5115669132481506</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>0.09195</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>0.5539810428438392</v>
+      </c>
+      <c r="L35" s="2" t="n">
+        <v>0.2689800000000001</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>0.6262172640988071</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>0.5183078853752063</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>0.7700398643056744</v>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v>0.2811790550911384</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>0.3206588333216591</v>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>0.60148</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>0.3673575599443643</v>
+      </c>
+      <c r="T35" s="2" t="n">
+        <v>0.6231354410624419</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>0.564793587110538</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>0.3965236454744754</v>
+      </c>
+      <c r="W35" s="2" t="n">
+        <v>0.7508299404948324</v>
+      </c>
+      <c r="X35" s="2" t="n">
+        <v>0.2828180757815488</v>
+      </c>
+      <c r="Y35" s="2" t="n">
+        <v>0.6730793650793651</v>
+      </c>
+      <c r="Z35" s="2" t="n">
+        <v>0.740521327014218</v>
+      </c>
+      <c r="AA35" s="2" t="n">
+        <v>0.4263954270342972</v>
+      </c>
+      <c r="AB35" s="2" t="n">
+        <v>0.8652704370552743</v>
+      </c>
+      <c r="AC35" s="2" t="n">
+        <v>0.8759124475461358</v>
+      </c>
+      <c r="AD35" s="2" t="n">
+        <v>0.51786</v>
+      </c>
+      <c r="AE35" s="2" t="n">
+        <v>0.28413</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\manu\sentence_croissant_alpha_v0.3</t>
+          <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.49097</v>
+        <v>0.7748827876122101</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.65766</v>
+        <v>0.28829</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2966</v>
+        <v>0.1820092523936601</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.8097299999999999</v>
+        <v>0.8327728076127141</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>0.6420400000000001</v>
-      </c>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
-      <c r="W36" s="2" t="inlineStr"/>
-      <c r="X36" s="2" t="inlineStr"/>
-      <c r="Y36" s="2" t="inlineStr"/>
-      <c r="Z36" s="2" t="inlineStr"/>
-      <c r="AA36" s="2" t="inlineStr"/>
-      <c r="AB36" s="2" t="inlineStr"/>
-      <c r="AC36" s="2" t="inlineStr"/>
-      <c r="AD36" s="2" t="inlineStr"/>
+        <v>0.5376154899329338</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>0.3276276082145452</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>0.7249442911000451</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>0.6738735709482178</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>0.22545</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>0.5107538398683125</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>0.35764</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>0.6237756079207663</v>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>0.5595373948625354</v>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>0.7641254265129491</v>
+      </c>
+      <c r="P36" s="2" t="n">
+        <v>0.3464793188683687</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>0.3538541904887588</v>
+      </c>
+      <c r="R36" s="2" t="n">
+        <v>0.65338</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>0.4017045078734119</v>
+      </c>
+      <c r="T36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>0.5610710930159725</v>
+      </c>
+      <c r="W36" s="2" t="n">
+        <v>0.8498277481991858</v>
+      </c>
+      <c r="X36" s="2" t="n">
+        <v>0.2812111546255657</v>
+      </c>
+      <c r="Y36" s="2" t="n">
+        <v>0.7463571428571428</v>
+      </c>
+      <c r="Z36" s="2" t="n">
+        <v>0.7687203791469195</v>
+      </c>
+      <c r="AA36" s="2" t="n">
+        <v>0.598285137861466</v>
+      </c>
+      <c r="AB36" s="2" t="n">
+        <v>0.9207498432598107</v>
+      </c>
+      <c r="AC36" s="2" t="n">
+        <v>0.9374506536091047</v>
+      </c>
+      <c r="AD36" s="2" t="n">
+        <v>0.51196</v>
+      </c>
+      <c r="AE36" s="2" t="n">
+        <v>0.26994</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\mistral-embed</t>
+          <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.56836</v>
+        <v>0.6384700996869166</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.6756799999999999</v>
+        <v>0.2973</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.21732</v>
+        <v>0.124913841593586</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.7877</v>
+        <v>0.08784505319023178</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>0.74235</v>
+        <v>0.5372744669883476</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.6200673531656187</v>
+        <v>0.2726838058131417</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.4919858181804794</v>
+        <v>0.6210588256655486</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.7235703741352056</v>
+        <v>0.499226630800269</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.41594</v>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
+        <v>0.16312</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>0.5736104900905769</v>
+      </c>
+      <c r="L37" s="2" t="n">
+        <v>0.27046</v>
+      </c>
       <c r="M37" s="2" t="n">
-        <v>0.2617385576460144</v>
+        <v>0.6295365014472553</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>0.8139810426540285</v>
+        <v>0.4913194595542176</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0.4812513474674608</v>
+        <v>0.7461882879262099</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>0.3961706213267493</v>
+        <v>0.2595314882250714</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0.6283120376597177</v>
+        <v>0.2615924058641751</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.6971418964357767</v>
+        <v>0.58073</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0.4527933950642883</v>
+        <v>0.3514684027308759</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>0.427376128032198</v>
+        <v>0.5537365949388782</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.9005010961478235</v>
+        <v>0.5046345385362436</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>0.6608831819605385</v>
+        <v>0.3718446601941748</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9261462822985623</v>
+        <v>0.7296899467585343</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.9390344015481578</v>
+        <v>0.2759064320988224</v>
       </c>
       <c r="Y37" s="2" t="n">
-        <v>0.6202390909948808</v>
+        <v>0.6505281385281385</v>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>0.7621241859440422</v>
+        <v>0.7561611374407583</v>
       </c>
       <c r="AA37" s="2" t="n">
-        <v>0.8274398153558601</v>
+        <v>0.4264290517821117</v>
       </c>
       <c r="AB37" s="2" t="n">
-        <v>0.7972225305052291</v>
+        <v>0.8806670648536865</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0.3146953192338591</v>
+        <v>0.8776887387170348</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>0.8856666666666666</v>
+        <v>0.48832</v>
+      </c>
+      <c r="AE37" s="2" t="n">
+        <v>0.30229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\LaBSE</t>
+          <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.19775</v>
+        <v>0.7989821675921884</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.22973</v>
+        <v>0.37838</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.15529</v>
+        <v>0.2320666181560827</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.55315</v>
+        <v>0.7772438859983376</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>0.51736</v>
+        <v>0.3657831649774737</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0.5478373637265357</v>
+        <v>0.3389979666918544</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.316037738871091</v>
+        <v>0.75102380757868</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.4950995736410158</v>
+        <v>0.6451916610625421</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.3852399999999999</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3" t="n">
-        <v>1</v>
+        <v>0.21535</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>0.5694456712082714</v>
+      </c>
+      <c r="L38" s="2" t="n">
+        <v>0.36758</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0.2061928108108767</v>
+        <v>0.6242438219619088</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>0.7739336492890996</v>
+        <v>0.5606489195760765</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0.4615982853044859</v>
+        <v>0.7054517669493489</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>0.3813297329222706</v>
+        <v>0.3654820279096755</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0.6046738399462004</v>
+        <v>0.4215818771542176</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.6510423671822462</v>
+        <v>0.65543</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0.4209325634914144</v>
+        <v>0.3997152802677553</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>0.348364243914043</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.8413717507046664</v>
+        <v>0.995987963891675</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>0.6201064829314126</v>
+        <v>0.4793611024115252</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9395623291640002</v>
+        <v>0.7769808957093642</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>0.9441484444599348</v>
+        <v>0.2919931043966207</v>
       </c>
       <c r="Y38" s="2" t="n">
-        <v>0.5463098409665733</v>
+        <v>0.7250396825396825</v>
       </c>
       <c r="Z38" s="2" t="n">
-        <v>0.699399693283394</v>
+        <v>0.7609004739336493</v>
       </c>
       <c r="AA38" s="2" t="n">
-        <v>0.779542837388368</v>
+        <v>0.5751513113651648</v>
       </c>
       <c r="AB38" s="2" t="n">
-        <v>0.7509746606428888</v>
+        <v>0.9200522043693091</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0.301637456328485</v>
+        <v>0.9414470609254002</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>0.7328333333333332</v>
+        <v>0.42511</v>
+      </c>
+      <c r="AE38" s="2" t="n">
+        <v>0.26634</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\all-MiniLM-L12-v2</t>
+          <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.33196</v>
+        <v>0.8469135860099118</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.34234</v>
+        <v>0.42793</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.16079</v>
+        <v>0.239677482639205</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.608</v>
+        <v>0.8067461852300057</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>0.55899</v>
+        <v>0.41569311482541</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.4602594872664162</v>
+        <v>0.3087579159546582</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.3182943689925971</v>
+        <v>0.755583681044677</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.4573497604610514</v>
+        <v>0.678950907868191</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.2754</v>
+        <v>0.24454</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.7091264534343772</v>
+        <v>0.5814276884080426</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.6191113021604495</v>
+        <v>0.40138</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0.1957951528987704</v>
+        <v>0.6720432168620495</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0.7220379146919431</v>
+        <v>0.5449402070854203</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0.4271872726070847</v>
+        <v>0.7430483195474878</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>0.3246835377100011</v>
+        <v>0.3753003494348933</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0.4481506388702085</v>
+        <v>0.4478667196341167</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.537626092804304</v>
+        <v>0.75998</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0.3435218323840786</v>
+        <v>0.4055377595140954</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>0.2929559187477989</v>
-      </c>
-      <c r="U39" s="2" t="n">
-        <v>0.7559348575007829</v>
+        <v>0.9986626546305584</v>
+      </c>
+      <c r="U39" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>0.3893830253679925</v>
+        <v>0.5203570310053242</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.8734880754144339</v>
+        <v>0.8029126213592234</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>0.8779525332075913</v>
+        <v>0.2946828386641493</v>
       </c>
       <c r="Y39" s="2" t="n">
-        <v>0.5552853885736202</v>
+        <v>0.8096666666666666</v>
       </c>
       <c r="Z39" s="2" t="n">
-        <v>0.6316238159087848</v>
+        <v>0.7810426540284359</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>0.6951402658537921</v>
+        <v>0.6187962340282447</v>
       </c>
       <c r="AB39" s="2" t="n">
-        <v>0.6667725575200975</v>
+        <v>0.9345353677987358</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0.2662863565868236</v>
+        <v>0.9530638045019797</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>0.6833333333333335</v>
+        <v>0.46221</v>
+      </c>
+      <c r="AE39" s="2" t="n">
+        <v>0.30799</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\all-MiniLM-L6-v2</t>
+          <t>sentence-transformers/sentence-t5-base</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.28413</v>
+        <v>0.7404061698113868</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.27477</v>
+        <v>0.3964</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.09195</v>
+        <v>0.1771709655357738</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.60148</v>
+        <v>0.551313531869022</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>0.51786</v>
+        <v>0.6190485205190622</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>0.5183078853752063</v>
+        <v>0.3564262992341879</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.3206588333216591</v>
+        <v>0.7173634724227647</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.3169263945167622</v>
+        <v>0.5991930060524545</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.2689800000000001</v>
+        <v>0.2104</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.6231354410624419</v>
+        <v>0.5535169602026141</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.564793587110538</v>
+        <v>0.3735</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0.1884080354213321</v>
+        <v>0.6322134288038879</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>0.740521327014218</v>
+        <v>0.5844150763298186</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0.3492044210457986</v>
+        <v>0.7768846630995027</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>0.4057681708831091</v>
+        <v>0.3006026181192261</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0.4263954270342972</v>
+        <v>0.3593354716276945</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.5115669132481506</v>
+        <v>0.66999</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0.3673575599443643</v>
+        <v>0.4076920517896694</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>0.2811790550911384</v>
+        <v>0.9735874289535272</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.7508299404948324</v>
+        <v>0.9615513206285523</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>0.3965236454744754</v>
+        <v>0.4384591293454432</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.8652704370552743</v>
+        <v>0.7502975258377701</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>0.8759124475461358</v>
+        <v>0.3000911423350935</v>
       </c>
       <c r="Y40" s="2" t="n">
-        <v>0.5539810428438392</v>
+        <v>0.758845238095238</v>
       </c>
       <c r="Z40" s="2" t="n">
-        <v>0.6248225654609475</v>
+        <v>0.812085308056872</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>0.7700398643056744</v>
+        <v>0.5113315400134499</v>
       </c>
       <c r="AB40" s="2" t="n">
-        <v>0.6493028232792631</v>
+        <v>0.8939826485982256</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0.2828180757815488</v>
+        <v>0.9004953622645687</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>0.5956666666666667</v>
+        <v>0.45191</v>
+      </c>
+      <c r="AE40" s="2" t="n">
+        <v>0.27523</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\distiluse-base-multilingual-cased-v2</t>
+          <t>sentence-transformers/sentence-t5-large</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.26994</v>
+        <v>0.7759236947905355</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.28829</v>
+        <v>0.46847</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.22545</v>
+        <v>0.1873235586707495</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.65338</v>
+        <v>0.7109667114459385</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0.51196</v>
+        <v>0.585985794265385</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>0.5595373948625354</v>
+        <v>0.3133479963331417</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.3538541904887588</v>
+        <v>0.7282743267188198</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.5177355262516891</v>
+        <v>0.6360121049092132</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.35764</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3" t="n">
-        <v>1</v>
+        <v>0.23918</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>0.5958684223229149</v>
+      </c>
+      <c r="L41" s="2" t="n">
+        <v>0.4147999999999999</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>0.1820092523936601</v>
+        <v>0.6754584284213152</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>0.7687203791469195</v>
+        <v>0.6182277140780882</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0.5376154899329338</v>
+        <v>0.750086943549879</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>0.3276276082145452</v>
+        <v>0.3186940328271737</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0.598285137861466</v>
+        <v>0.3977568234064501</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.6738735709482178</v>
+        <v>0.71053</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0.4017045078734119</v>
+        <v>0.4207261111658658</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>0.3464793188683687</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.8498277481991858</v>
+        <v>0.9866265463055833</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>0.5610710930159725</v>
+        <v>0.4772940808017538</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9207498432598107</v>
+        <v>0.795959912308174</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>0.9374506536091047</v>
+        <v>0.3022765637412754</v>
       </c>
       <c r="Y41" s="2" t="n">
-        <v>0.5107538398683125</v>
+        <v>0.782813492063492</v>
       </c>
       <c r="Z41" s="2" t="n">
-        <v>0.7249442911000451</v>
+        <v>0.8042654028436018</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>0.7641254265129491</v>
+        <v>0.5701412239408203</v>
       </c>
       <c r="AB41" s="2" t="n">
-        <v>0.7748827876122101</v>
+        <v>0.911862793751712</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0.2812111546255657</v>
+        <v>0.9186413027481362</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>0.7478333333333331</v>
+        <v>0.48792</v>
+      </c>
+      <c r="AE41" s="2" t="n">
+        <v>0.34518</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\multi-qa-MiniLM-L6-cos-v1</t>
+          <t>sentence-transformers/sentence-t5-xl</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.30229</v>
+        <v>0.794154396398088</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.2973</v>
+        <v>0.5</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.16312</v>
+        <v>0.2027889302653955</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.58073</v>
+        <v>0.7586314484331536</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0.48832</v>
+        <v>0.6282235512125198</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.4913194595542176</v>
+        <v>0.3173861927815954</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.2615924058641751</v>
+        <v>0.7508041932935345</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.4027970855790797</v>
+        <v>0.6641560188298588</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.27046</v>
+        <v>0.31539</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.5537365949388782</v>
+        <v>0.6252251289274147</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.5046345385362436</v>
+        <v>0.43516</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>0.124913841593586</v>
+        <v>0.711535861715982</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>0.7561611374407583</v>
+        <v>0.6037247542497267</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0.5372744669883476</v>
+        <v>0.7749353352876681</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>0.2726838058131417</v>
+        <v>0.3360365488455902</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0.4264290517821117</v>
+        <v>0.4076035180401736</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.499226630800269</v>
+        <v>0.74237</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0.3514684027308759</v>
+        <v>0.4161005491114602</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>0.2595314882250714</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.7296899467585343</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>0.3718446601941748</v>
+        <v>0.5439085499530223</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.8806670648536865</v>
+        <v>0.8514249921703726</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.8776887387170348</v>
+        <v>0.3159390228650623</v>
       </c>
       <c r="Y42" s="2" t="n">
-        <v>0.5736104900905769</v>
+        <v>0.8092543290043289</v>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>0.6210588256655486</v>
+        <v>0.8009478672985783</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>0.7461882879262099</v>
+        <v>0.6098520511096167</v>
       </c>
       <c r="AB42" s="2" t="n">
-        <v>0.6384700996869166</v>
+        <v>0.9248433060784351</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0.2759064320988224</v>
+        <v>0.9378969696931576</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>0.6508333333333334</v>
+        <v>0.5214299999999999</v>
+      </c>
+      <c r="AE42" s="2" t="n">
+        <v>0.40375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\paraphrase-multilingual-MiniLM-L12-v2</t>
+          <t>sentence-transformers/sentence-t5-xxl</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.26634</v>
+        <v>0.8124450977788589</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.37838</v>
+        <v>0.5585599999999999</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.21535</v>
+        <v>0.2140492459012981</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.65543</v>
+        <v>0.8324518195666728</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>0.42511</v>
+        <v>0.6114553646367987</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>0.5606489195760765</v>
+        <v>0.3823921323645222</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.4215818771542176</v>
+        <v>0.7706782664515456</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.4900817277127068</v>
+        <v>0.6853059852051111</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.36758</v>
+        <v>0.34929</v>
       </c>
       <c r="K43" s="2" t="n">
+        <v>0.639782556744936</v>
+      </c>
+      <c r="L43" s="2" t="n">
+        <v>0.4608800000000001</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>0.7523712951211723</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>0.6097713304012906</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>0.7680240821366182</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>0.3524745757300218</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>0.4350024233904722</v>
+      </c>
+      <c r="R43" s="2" t="n">
+        <v>0.78975</v>
+      </c>
+      <c r="S43" s="2" t="n">
+        <v>0.4224117195163593</v>
+      </c>
+      <c r="T43" s="2" t="n">
+        <v>0.9973253092611166</v>
+      </c>
+      <c r="U43" s="2" t="n">
         <v>0.9986626546305583</v>
       </c>
-      <c r="L43" s="2" t="n">
-        <v>0.995987963891675</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>0.2320666181560827</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>0.7609004739336493</v>
-      </c>
-      <c r="O43" s="2" t="n">
-        <v>0.3657831649774737</v>
-      </c>
-      <c r="P43" s="2" t="n">
-        <v>0.3389979666918544</v>
-      </c>
-      <c r="Q43" s="2" t="n">
-        <v>0.5751513113651648</v>
-      </c>
-      <c r="R43" s="2" t="n">
-        <v>0.6451916610625421</v>
-      </c>
-      <c r="S43" s="2" t="n">
-        <v>0.3997152802677553</v>
-      </c>
-      <c r="T43" s="2" t="n">
-        <v>0.3654820279096755</v>
-      </c>
-      <c r="U43" s="2" t="n">
-        <v>0.7769808957093642</v>
-      </c>
       <c r="V43" s="2" t="n">
-        <v>0.4793611024115252</v>
+        <v>0.5833385530848731</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9200522043693091</v>
+        <v>0.8620106482931412</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>0.9414470609254002</v>
+        <v>0.3039226775800043</v>
       </c>
       <c r="Y43" s="2" t="n">
-        <v>0.5694456712082714</v>
+        <v>0.8171666666666667</v>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>0.75102380757868</v>
+        <v>0.7909952606635071</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>0.7054517669493489</v>
+        <v>0.6590786819098857</v>
       </c>
       <c r="AB43" s="2" t="n">
-        <v>0.7989821675921884</v>
+        <v>0.9394372210364297</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0.2919931043966207</v>
+        <v>0.9511141986772736</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>0.7503333333333333</v>
+        <v>0.56202</v>
+      </c>
+      <c r="AE43" s="2" t="n">
+        <v>0.45748</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\paraphrase-multilingual-mpnet-base-v2</t>
+          <t>shibing624/text2vec-base-multilingual</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.30799</v>
+        <v>0.8347595626027418</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.42793</v>
+        <v>0.26126</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.24454</v>
+        <v>0.1619070583380436</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.75998</v>
+        <v>0.7780898243854504</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0.46221</v>
+        <v>0.3850723861796326</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>0.5449402070854203</v>
+        <v>0.3251081280317133</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0.4478667196341167</v>
+        <v>0.7724805746003676</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0.5433541215937093</v>
+        <v>0.5830867518493612</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0.40138</v>
+        <v>0.14812</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.9986626546305584</v>
-      </c>
-      <c r="L44" s="3" t="n">
-        <v>1</v>
+        <v>0.6556847028211261</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>0.34254</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.239677482639205</v>
+        <v>0.556826861955334</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>0.7810426540284359</v>
+        <v>0.4910742502173265</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0.41569311482541</v>
+        <v>0.7409937723367189</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>0.3087579159546582</v>
+        <v>0.303885451410444</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0.6187962340282447</v>
+        <v>0.3272237759178746</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>0.678950907868191</v>
+        <v>0.49694</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0.4055377595140954</v>
+        <v>0.3619042628585186</v>
       </c>
       <c r="T44" s="2" t="n">
-        <v>0.3753003494348933</v>
+        <v>0.9879638916750251</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>0.8029126213592234</v>
+        <v>0.9946506185222334</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>0.5203570310053242</v>
+        <v>0.4453492013780145</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>0.9345353677987358</v>
+        <v>0.7182586908863138</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>0.9530638045019797</v>
+        <v>0.2933489058303607</v>
       </c>
       <c r="Y44" s="2" t="n">
-        <v>0.5814276884080426</v>
+        <v>0.6281626984126983</v>
       </c>
       <c r="Z44" s="2" t="n">
-        <v>0.755583681044677</v>
+        <v>0.7383886255924171</v>
       </c>
       <c r="AA44" s="2" t="n">
-        <v>0.7430483195474878</v>
+        <v>0.5193006052454606</v>
       </c>
       <c r="AB44" s="2" t="n">
-        <v>0.8469135860099118</v>
+        <v>0.9204078160599214</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0.2946828386641493</v>
+        <v>0.9395153724999291</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>0.8323333333333334</v>
+        <v>0.404</v>
+      </c>
+      <c r="AE44" s="2" t="n">
+        <v>0.18899</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-base</t>
+          <t>text-embedding-3-large</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.27523</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>0.3964</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>0.2104</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>0.66999</v>
+        <v>0.825163980735896</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>0.73423</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>0.2796643625096684</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>0.884362910537232</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>0.45191</v>
+        <v>0.5270799653215082</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>0.5844150763298186</v>
+        <v>0.3970800658666344</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0.3593354716276945</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.5011645682624447</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>0.3735</v>
+        <v>0.7874564096121601</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>0.7646267652992602</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>0.62957</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.9735874289535272</v>
-      </c>
-      <c r="L45" s="2" t="n">
-        <v>0.9615513206285523</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>0.1771709655357738</v>
+        <v>0.6487004383237154</v>
+      </c>
+      <c r="L45" s="3" t="n">
+        <v>0.46196</v>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>0.8044786254258053</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>0.812085308056872</v>
+        <v>0.6188729664384736</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0.6190485205190622</v>
-      </c>
-      <c r="P45" s="2" t="n">
-        <v>0.3564262992341879</v>
+        <v>0.8218742629385483</v>
+      </c>
+      <c r="P45" s="3" t="n">
+        <v>0.4572072923344249</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0.5113315400134499</v>
-      </c>
-      <c r="R45" s="2" t="n">
-        <v>0.5991930060524545</v>
+        <v>0.5383026633586214</v>
+      </c>
+      <c r="R45" s="3" t="n">
+        <v>0.8686700000000001</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0.4076920517896694</v>
-      </c>
-      <c r="T45" s="2" t="n">
-        <v>0.3006026181192261</v>
-      </c>
-      <c r="U45" s="2" t="n">
-        <v>0.7502975258377701</v>
-      </c>
-      <c r="V45" s="2" t="n">
-        <v>0.4384591293454432</v>
-      </c>
-      <c r="W45" s="2" t="n">
-        <v>0.8939826485982256</v>
+        <v>0.4589797204034647</v>
+      </c>
+      <c r="T45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" s="3" t="n">
+        <v>0.7367679298465393</v>
+      </c>
+      <c r="W45" s="3" t="n">
+        <v>0.9337300344503602</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>0.9004953622645687</v>
-      </c>
-      <c r="Y45" s="2" t="n">
-        <v>0.5535169602026141</v>
+        <v>0.2958989154199727</v>
+      </c>
+      <c r="Y45" s="3" t="n">
+        <v>0.9156666666666666</v>
       </c>
       <c r="Z45" s="2" t="n">
-        <v>0.7173634724227647</v>
-      </c>
-      <c r="AA45" s="2" t="n">
-        <v>0.7768846630995027</v>
-      </c>
-      <c r="AB45" s="2" t="n">
-        <v>0.7404061698113868</v>
-      </c>
-      <c r="AC45" s="2" t="n">
-        <v>0.3000911423350935</v>
-      </c>
-      <c r="AD45" s="2" t="n">
-        <v>0.7805</v>
+        <v>0.8218009478672986</v>
+      </c>
+      <c r="AA45" s="3" t="n">
+        <v>0.713315400134499</v>
+      </c>
+      <c r="AB45" s="3" t="n">
+        <v>0.956495941906191</v>
+      </c>
+      <c r="AC45" s="3" t="n">
+        <v>0.9632216568565823</v>
+      </c>
+      <c r="AD45" s="3" t="n">
+        <v>0.76519</v>
+      </c>
+      <c r="AE45" s="3" t="n">
+        <v>0.60282</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-large</t>
+          <t>text-embedding-3-small</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.34518</v>
+        <v>0.8113498962069088</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.46847</v>
+        <v>0.65766</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.23918</v>
+        <v>0.2704358042080826</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0.71053</v>
+        <v>0.8569611214966121</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>0.48792</v>
+        <v>0.4524961818598886</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0.6182277140780882</v>
+        <v>0.5476153105172287</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0.3977568234064501</v>
+        <v>0.7569412697440474</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0.5799215751439791</v>
+        <v>0.7329186281102892</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0.4147999999999999</v>
+        <v>0.41674</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.6136061823257404</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.9866265463055833</v>
+        <v>0.4284000000000001</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.1873235586707495</v>
+        <v>0.7411183812926199</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>0.8042654028436018</v>
+        <v>0.6142121566849555</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>0.585985794265385</v>
+        <v>0.8086996866193595</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>0.3133479963331417</v>
+        <v>0.4567430092008721</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0.5701412239408203</v>
+        <v>0.5097017531638819</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>0.6360121049092132</v>
-      </c>
-      <c r="S46" s="2" t="n">
-        <v>0.4207261111658658</v>
-      </c>
-      <c r="T46" s="2" t="n">
-        <v>0.3186940328271737</v>
-      </c>
-      <c r="U46" s="2" t="n">
-        <v>0.795959912308174</v>
+        <v>0.86816</v>
+      </c>
+      <c r="S46" s="3" t="n">
+        <v>0.4626366669004257</v>
+      </c>
+      <c r="T46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V46" s="2" t="n">
-        <v>0.4772940808017538</v>
+        <v>0.678640776699029</v>
       </c>
       <c r="W46" s="2" t="n">
-        <v>0.911862793751712</v>
+        <v>0.9088318196053869</v>
       </c>
       <c r="X46" s="2" t="n">
-        <v>0.9186413027481362</v>
+        <v>0.3049243366483514</v>
       </c>
       <c r="Y46" s="2" t="n">
-        <v>0.5958684223229149</v>
+        <v>0.8945000000000001</v>
       </c>
       <c r="Z46" s="2" t="n">
-        <v>0.7282743267188198</v>
+        <v>0.7646919431279622</v>
       </c>
       <c r="AA46" s="2" t="n">
-        <v>0.750086943549879</v>
+        <v>0.6779757901815737</v>
       </c>
       <c r="AB46" s="2" t="n">
-        <v>0.7759236947905355</v>
+        <v>0.9444824312907959</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0.3022765637412754</v>
+        <v>0.952465716551754</v>
       </c>
       <c r="AD46" s="2" t="n">
-        <v>0.7976666666666666</v>
+        <v>0.74907</v>
+      </c>
+      <c r="AE46" s="2" t="n">
+        <v>0.52088</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-xl</t>
+          <t>text-embedding-ada-002</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.40375</v>
+        <v>0.775488475913985</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.5</v>
+        <v>0.63514</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.31539</v>
+        <v>0.2617596819504725</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0.74237</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>0.5214299999999999</v>
+        <v>0.860436629641775</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>0.6835358427222893</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>0.6037247542497267</v>
+        <v>0.4857524685115383</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0.4076035180401736</v>
+        <v>0.7627685738662282</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0.6329940615569801</v>
+        <v>0.7110961667787492</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0.43516</v>
+        <v>0.2994</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.6016251068115703</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.43764</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>0.2027889302653955</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>0.8009478672985783</v>
+        <v>0.7553035636965619</v>
+      </c>
+      <c r="N47" s="3" t="n">
+        <v>0.6482909467525912</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0.6282235512125198</v>
+        <v>0.810931445449386</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>0.3173861927815954</v>
+        <v>0.416657222225081</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0.6098520511096167</v>
+        <v>0.5352055108193531</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>0.6641560188298588</v>
+        <v>0.85969</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>0.4161005491114602</v>
+        <v>0.445914143327743</v>
       </c>
       <c r="T47" s="2" t="n">
-        <v>0.3360365488455902</v>
+        <v>0.9933132731527916</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>0.8514249921703726</v>
+        <v>0.9946506185222334</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>0.5439085499530223</v>
+        <v>0.6445349201378014</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>0.9248433060784351</v>
+        <v>0.8937676166614468</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>0.9378969696931576</v>
+        <v>0.3049962446901472</v>
       </c>
       <c r="Y47" s="2" t="n">
-        <v>0.6252251289274147</v>
+        <v>0.8894999999999998</v>
       </c>
       <c r="Z47" s="2" t="n">
-        <v>0.7508041932935345</v>
+        <v>0.8151658767772512</v>
       </c>
       <c r="AA47" s="2" t="n">
-        <v>0.7749353352876681</v>
+        <v>0.6542030934767989</v>
       </c>
       <c r="AB47" s="2" t="n">
-        <v>0.794154396398088</v>
+        <v>0.9412076883261254</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0.3159390228650623</v>
+        <v>0.9510295908785357</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>0.8306666666666667</v>
+        <v>0.73004</v>
+      </c>
+      <c r="AE47" s="2" t="n">
+        <v>0.5164</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\sentence-transformers\sentence-t5-xxl</t>
+          <t>voyage-2</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.45748</v>
+        <v>0.7642936190822642</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.5585599999999999</v>
+        <v>0.52703</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.34929</v>
+        <v>0.2484326275705308</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>0.78975</v>
+        <v>0.3189440828794315</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.56202</v>
+        <v>0.4854232311151437</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.6097713304012906</v>
+        <v>0.3633106838853807</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0.4350024233904722</v>
+        <v>0.6851217063378627</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0.6836198251579949</v>
+        <v>0.6246133154001345</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>0.4608800000000001</v>
+        <v>0.15507</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.5895656630212746</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.37262</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>0.2140492459012981</v>
+        <v>0.7266605452700412</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>0.7909952606635071</v>
+        <v>0.5795590984348414</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0.6114553646367987</v>
+        <v>0.7050549213561673</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>0.3823921323645222</v>
+        <v>0.3877264742587128</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0.6590786819098857</v>
+        <v>0.4165266573039174</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>0.6853059852051111</v>
+        <v>0.75831</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0.4224117195163593</v>
+        <v>0.4508245196010945</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>0.3524745757300218</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="U48" s="2" t="n">
-        <v>0.8620106482931412</v>
+        <v>0.9799398194583752</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>0.5833385530848731</v>
+        <v>0.4561854055746946</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>0.9394372210364297</v>
+        <v>0.7978703413717507</v>
       </c>
       <c r="X48" s="2" t="n">
-        <v>0.9511141986772736</v>
+        <v>0.3087952286335955</v>
       </c>
       <c r="Y48" s="2" t="n">
-        <v>0.639782556744936</v>
+        <v>0.797095238095238</v>
       </c>
       <c r="Z48" s="2" t="n">
-        <v>0.7706782664515456</v>
+        <v>0.8018957345971565</v>
       </c>
       <c r="AA48" s="2" t="n">
-        <v>0.7680240821366182</v>
+        <v>0.5369872225958305</v>
       </c>
       <c r="AB48" s="2" t="n">
-        <v>0.8124450977788589</v>
+        <v>0.8976194426555255</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0.3039226775800043</v>
+        <v>0.896781936586669</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>0.8515</v>
+        <v>0.67065</v>
+      </c>
+      <c r="AE48" s="2" t="n">
+        <v>0.45499</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\shibing624\text2vec-base-multilingual</t>
+          <t>voyage-code-2</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.18899</v>
+        <v>0.7901988871511573</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.26126</v>
+        <v>0.68018</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.14812</v>
+        <v>0.2744285128302836</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0.49694</v>
+        <v>0.6013319288411012</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0.404</v>
+        <v>0.5659470191472211</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>0.4910742502173265</v>
+        <v>0.3517814667732468</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>0.3272237759178746</v>
+        <v>0.7356028375217639</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0.5148170958763292</v>
+        <v>0.7014794889038332</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>0.34254</v>
+        <v>0.19047</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.9879638916750251</v>
+        <v>0.608332001960638</v>
       </c>
       <c r="L49" s="2" t="n">
+        <v>0.4215</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>0.7561215395567691</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>0.6162945124485424</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>0.7999221736030022</v>
+      </c>
+      <c r="P49" s="2" t="n">
+        <v>0.4148135128122253</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>0.5067174392659987</v>
+      </c>
+      <c r="R49" s="2" t="n">
+        <v>0.82766</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>0.4522898818144546</v>
+      </c>
+      <c r="T49" s="2" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="U49" s="2" t="n">
         <v>0.9946506185222334</v>
       </c>
-      <c r="M49" s="2" t="n">
-        <v>0.1619070583380436</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>0.7383886255924171</v>
-      </c>
-      <c r="O49" s="2" t="n">
-        <v>0.3850723861796326</v>
-      </c>
-      <c r="P49" s="2" t="n">
-        <v>0.3251081280317133</v>
-      </c>
-      <c r="Q49" s="2" t="n">
-        <v>0.5193006052454606</v>
-      </c>
-      <c r="R49" s="2" t="n">
-        <v>0.5830867518493612</v>
-      </c>
-      <c r="S49" s="2" t="n">
-        <v>0.3619042628585186</v>
-      </c>
-      <c r="T49" s="2" t="n">
-        <v>0.303885451410444</v>
-      </c>
-      <c r="U49" s="2" t="n">
-        <v>0.7182586908863138</v>
-      </c>
       <c r="V49" s="2" t="n">
-        <v>0.4453492013780145</v>
+        <v>0.5943626683369871</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>0.9204078160599214</v>
+        <v>0.8767616661446915</v>
       </c>
       <c r="X49" s="2" t="n">
-        <v>0.9395153724999291</v>
+        <v>0.2833835044555462</v>
       </c>
       <c r="Y49" s="2" t="n">
-        <v>0.6556847028211261</v>
+        <v>0.8671785714285715</v>
       </c>
       <c r="Z49" s="2" t="n">
-        <v>0.7724805746003676</v>
+        <v>0.8213270142180095</v>
       </c>
       <c r="AA49" s="2" t="n">
-        <v>0.7409937723367189</v>
+        <v>0.630766644250168</v>
       </c>
       <c r="AB49" s="2" t="n">
-        <v>0.8347595626027418</v>
+        <v>0.9286798412153197</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0.2933489058303607</v>
+        <v>0.9371986705026045</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>0.7028333333333333</v>
+        <v>0.71946</v>
+      </c>
+      <c r="AE49" s="2" t="n">
+        <v>0.52606</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\text-embedding-3-large</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>0.60282</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>0.73423</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>0.62957</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>0.8686700000000001</v>
-      </c>
-      <c r="F50" s="3" t="n">
-        <v>0.76519</v>
+          <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>0.7547623244259472</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>0.1894729944719849</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>0.8167705770180773</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>0.6057161066482416</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>0.6188729664384736</v>
-      </c>
-      <c r="H50" s="3" t="n">
-        <v>0.5383026633586214</v>
-      </c>
-      <c r="I50" s="3" t="n">
-        <v>0.7609503650218049</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>0.46196</v>
-      </c>
-      <c r="K50" s="3" t="n">
+        <v>0.4030766635566808</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>0.7137136565612174</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>0.7021856086079354</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>0.26121</v>
+      </c>
+      <c r="K50" s="2" t="n">
+        <v>0.5238943982284524</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>0.33514</v>
+      </c>
+      <c r="M50" s="2" t="n">
+        <v>0.6217487639018026</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>0.5689916720736953</v>
+      </c>
+      <c r="O50" s="2" t="n">
+        <v>0.779121959792631</v>
+      </c>
+      <c r="P50" s="2" t="n">
+        <v>0.3550144906912691</v>
+      </c>
+      <c r="Q50" s="2" t="n">
+        <v>0.378393691062227</v>
+      </c>
+      <c r="R50" s="2" t="n">
+        <v>0.69819</v>
+      </c>
+      <c r="S50" s="2" t="n">
+        <v>0.4389692922750733</v>
+      </c>
+      <c r="T50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L50" s="3" t="n">
+      <c r="U50" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M50" s="3" t="n">
-        <v>0.2796643625096684</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>0.8218009478672986</v>
-      </c>
-      <c r="O50" s="2" t="n">
-        <v>0.5270799653215082</v>
-      </c>
-      <c r="P50" s="2" t="n">
-        <v>0.3970800658666344</v>
-      </c>
-      <c r="Q50" s="3" t="n">
-        <v>0.713315400134499</v>
-      </c>
-      <c r="R50" s="3" t="n">
-        <v>0.7646267652992602</v>
-      </c>
-      <c r="S50" s="2" t="n">
-        <v>0.4589797204034647</v>
-      </c>
-      <c r="T50" s="3" t="n">
-        <v>0.4572072923344249</v>
-      </c>
-      <c r="U50" s="3" t="n">
-        <v>0.9337300344503602</v>
-      </c>
-      <c r="V50" s="3" t="n">
-        <v>0.7367679298465393</v>
-      </c>
-      <c r="W50" s="3" t="n">
-        <v>0.956495941906191</v>
-      </c>
-      <c r="X50" s="3" t="n">
-        <v>0.9632216568565823</v>
+      <c r="V50" s="2" t="n">
+        <v>0.5398371437519573</v>
+      </c>
+      <c r="W50" s="2" t="n">
+        <v>0.8549639837143752</v>
+      </c>
+      <c r="X50" s="2" t="n">
+        <v>0.2821210761980673</v>
       </c>
       <c r="Y50" s="2" t="n">
-        <v>0.6487004383237154</v>
+        <v>0.7392857142857143</v>
       </c>
       <c r="Z50" s="2" t="n">
-        <v>0.7874564096121601</v>
+        <v>0.8206161137440759</v>
       </c>
       <c r="AA50" s="2" t="n">
-        <v>0.8218742629385483</v>
+        <v>0.6119031607262946</v>
       </c>
       <c r="AB50" s="2" t="n">
-        <v>0.825163980735896</v>
+        <v>0.914642734849384</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0.2958989154199727</v>
-      </c>
-      <c r="AD50" s="3" t="n">
-        <v>0.9094999999999999</v>
+        <v>0.9276770338480919</v>
+      </c>
+      <c r="AD50" s="2" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="AE50" s="2" t="n">
+        <v>0.35267</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\text-embedding-3-small</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.52088</v>
+        <v>0.7815527423484122</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.65766</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.41674</v>
+        <v>0.1894341512230004</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>0.86816</v>
+        <v>0.838819395056347</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>0.74907</v>
+        <v>0.2408582264260665</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>0.6142121566849555</v>
+        <v>0.4024379912798725</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>0.5097017531638819</v>
+        <v>0.7438679213720065</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0.6998774786860906</v>
+        <v>0.7346671149966374</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>0.4284000000000001</v>
-      </c>
-      <c r="K51" s="3" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="K51" s="2" t="n">
+        <v>0.5362415343852915</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>0.35092</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0.639460440116346</v>
+      </c>
+      <c r="N51" s="2" t="n">
+        <v>0.5420886916175743</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>0.7110616222714751</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>0.3796744706245461</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>0.3794903151594224</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>0.6369</v>
+      </c>
+      <c r="S51" s="2" t="n">
+        <v>0.4102454366803547</v>
+      </c>
+      <c r="T51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L51" s="3" t="n">
+      <c r="U51" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M51" s="2" t="n">
-        <v>0.2704358042080826</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>0.7646919431279622</v>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>0.4524961818598886</v>
-      </c>
-      <c r="P51" s="3" t="n">
-        <v>0.5476153105172287</v>
-      </c>
-      <c r="Q51" s="2" t="n">
-        <v>0.6779757901815737</v>
-      </c>
-      <c r="R51" s="2" t="n">
-        <v>0.7329186281102892</v>
-      </c>
-      <c r="S51" s="3" t="n">
-        <v>0.4626366669004257</v>
-      </c>
-      <c r="T51" s="2" t="n">
-        <v>0.4567430092008721</v>
-      </c>
-      <c r="U51" s="2" t="n">
-        <v>0.9088318196053869</v>
-      </c>
       <c r="V51" s="2" t="n">
-        <v>0.678640776699029</v>
+        <v>0.6363921077356717</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>0.9444824312907959</v>
+        <v>0.881866583150642</v>
       </c>
       <c r="X51" s="2" t="n">
-        <v>0.952465716551754</v>
+        <v>0.2855799948642319</v>
       </c>
       <c r="Y51" s="2" t="n">
-        <v>0.6136061823257404</v>
+        <v>0.6925079365079365</v>
       </c>
       <c r="Z51" s="2" t="n">
-        <v>0.7569412697440474</v>
+        <v>0.7203791469194313</v>
       </c>
       <c r="AA51" s="2" t="n">
-        <v>0.8086996866193595</v>
+        <v>0.6580363147276395</v>
       </c>
       <c r="AB51" s="2" t="n">
-        <v>0.8113498962069088</v>
+        <v>0.9337926495141736</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0.3049243366483514</v>
+        <v>0.9463878648421398</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>0.8961666666666668</v>
+        <v>0.65213</v>
+      </c>
+      <c r="AE51" s="2" t="n">
+        <v>0.33781</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\text-embedding-ada-002</t>
+          <t>xlm-roberta-base</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.5164</v>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
+        <v>0.4622634194376477</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>0.0045</v>
+      </c>
       <c r="D52" s="2" t="n">
-        <v>0.2994</v>
+        <v>0.08678029981035876</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>0.85969</v>
+        <v>0.2117178555612327</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>0.73004</v>
-      </c>
-      <c r="G52" s="3" t="n">
-        <v>0.6482909467525912</v>
+        <v>0.2928935602108218</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>0.2375634936431052</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>0.5352055108193531</v>
-      </c>
-      <c r="I52" s="2" t="inlineStr"/>
+        <v>0.4861539023272589</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>0.2321452589105581</v>
+      </c>
       <c r="J52" s="2" t="n">
-        <v>0.43764</v>
+        <v>0.00876</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>0.9933132731527916</v>
+        <v>0.5134610960311026</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.2674799999999999</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>0.2617596819504725</v>
+        <v>0.2756444888903243</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>0.8151658767772512</v>
-      </c>
-      <c r="O52" s="3" t="n">
-        <v>0.6835358427222893</v>
+        <v>0.5224409381186116</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <v>0.5672433175176572</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>0.4857524685115383</v>
+        <v>0.2414271814543187</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0.6542030934767989</v>
+        <v>0.2037478764202963</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>0.7110961667787492</v>
+        <v>0.03332</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>0.445914143327743</v>
+        <v>0.4044298462507268</v>
       </c>
       <c r="T52" s="2" t="n">
-        <v>0.416657222225081</v>
+        <v>0.7017890974510833</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>0.8937676166614468</v>
+        <v>0.5328738628505576</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>0.6445349201378014</v>
+        <v>0.1937676166614469</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0.9412076883261254</v>
+        <v>0.4383025367992484</v>
       </c>
       <c r="X52" s="2" t="n">
-        <v>0.9510295908785357</v>
+        <v>0.2914448969497285</v>
       </c>
       <c r="Y52" s="2" t="n">
-        <v>0.6016251068115703</v>
+        <v>0.3191150793650793</v>
       </c>
       <c r="Z52" s="2" t="n">
-        <v>0.7627685738662282</v>
+        <v>0.6049763033175355</v>
       </c>
       <c r="AA52" s="2" t="n">
-        <v>0.810931445449386</v>
+        <v>0.1358103564223268</v>
       </c>
       <c r="AB52" s="2" t="n">
-        <v>0.775488475913985</v>
+        <v>0.8544669820078381</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0.3049962446901472</v>
+        <v>0.8624645232635788</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>0.8986666666666667</v>
+        <v>0.11649</v>
+      </c>
+      <c r="AE52" s="2" t="n">
+        <v>0.00156</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\voyage-2</t>
+          <t>xlm-roberta-large</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.45499</v>
+        <v>0.4231665294262342</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.52703</v>
+        <v>0.01351</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.15507</v>
+        <v>0.05943345675729141</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>0.75831</v>
+        <v>0.1324934909347301</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>0.67065</v>
+        <v>0.3402405632525344</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>0.5795590984348414</v>
+        <v>0.2152479457502924</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0.4165266573039174</v>
+        <v>0.5001340631306734</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0.6353910351142916</v>
+        <v>0.2392064559515804</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>0.37262</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.5338491922324053</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>0.9799398194583752</v>
+        <v>0.26616</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>0.2484326275705308</v>
+        <v>0.3089459830689988</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>0.8018957345971565</v>
+        <v>0.5653605568863168</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0.4854232311151437</v>
+        <v>0.5549160342530441</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>0.3633106838853807</v>
+        <v>0.1850128406979126</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0.5369872225958305</v>
+        <v>0.2118476703867388</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>0.6246133154001345</v>
+        <v>0.06598999999999999</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>0.4508245196010945</v>
+        <v>0.4267404394453324</v>
       </c>
       <c r="T53" s="2" t="n">
-        <v>0.3877264742587128</v>
+        <v>0.6492966311974625</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>0.7978703413717507</v>
+        <v>0.2594625928964929</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>0.4561854055746946</v>
+        <v>0.1537112433448168</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>0.8976194426555255</v>
+        <v>0.367710616974632</v>
       </c>
       <c r="X53" s="2" t="n">
-        <v>0.896781936586669</v>
+        <v>0.2889430627940623</v>
       </c>
       <c r="Y53" s="2" t="n">
-        <v>0.5895656630212746</v>
+        <v>0.3874368686868688</v>
       </c>
       <c r="Z53" s="2" t="n">
-        <v>0.6851217063378627</v>
+        <v>0.6575829383886255</v>
       </c>
       <c r="AA53" s="2" t="n">
-        <v>0.7050549213561673</v>
+        <v>0.1582044384667115</v>
       </c>
       <c r="AB53" s="2" t="n">
-        <v>0.7642936190822642</v>
+        <v>0.8372982569551426</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0.3087952286335955</v>
+        <v>0.8393372076362939</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>0.8265</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\voyage-code-2</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>0.52606</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>0.68018</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>0.19047</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>0.82766</v>
-      </c>
-      <c r="F54" s="2" t="n">
-        <v>0.71946</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>0.6162945124485424</v>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>0.5067174392659987</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>0.7079122494623074</v>
-      </c>
-      <c r="J54" s="2" t="n">
-        <v>0.4215</v>
-      </c>
-      <c r="K54" s="2" t="n">
-        <v>0.9986626546305583</v>
-      </c>
-      <c r="L54" s="2" t="n">
-        <v>0.9946506185222334</v>
-      </c>
-      <c r="M54" s="2" t="n">
-        <v>0.2744285128302836</v>
-      </c>
-      <c r="N54" s="2" t="n">
-        <v>0.8213270142180095</v>
-      </c>
-      <c r="O54" s="2" t="n">
-        <v>0.5659470191472211</v>
-      </c>
-      <c r="P54" s="2" t="n">
-        <v>0.3517814667732468</v>
-      </c>
-      <c r="Q54" s="2" t="n">
-        <v>0.630766644250168</v>
-      </c>
-      <c r="R54" s="2" t="n">
-        <v>0.7014794889038332</v>
-      </c>
-      <c r="S54" s="2" t="n">
-        <v>0.4522898818144546</v>
-      </c>
-      <c r="T54" s="2" t="n">
-        <v>0.4148135128122253</v>
-      </c>
-      <c r="U54" s="2" t="n">
-        <v>0.8767616661446915</v>
-      </c>
-      <c r="V54" s="2" t="n">
-        <v>0.5943626683369871</v>
-      </c>
-      <c r="W54" s="2" t="n">
-        <v>0.9286798412153197</v>
-      </c>
-      <c r="X54" s="2" t="n">
-        <v>0.9371986705026045</v>
-      </c>
-      <c r="Y54" s="2" t="n">
-        <v>0.608332001960638</v>
-      </c>
-      <c r="Z54" s="2" t="n">
-        <v>0.7356028375217639</v>
-      </c>
-      <c r="AA54" s="2" t="n">
-        <v>0.7999221736030022</v>
-      </c>
-      <c r="AB54" s="2" t="n">
-        <v>0.7901988871511573</v>
-      </c>
-      <c r="AC54" s="2" t="n">
-        <v>0.2833835044555462</v>
-      </c>
-      <c r="AD54" s="2" t="n">
-        <v>0.8676666666666667</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\vprelovac\universal-sentence-encoder-multilingual-3</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>0.35267</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>0.26121</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>0.69819</v>
-      </c>
-      <c r="F55" s="2" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>0.5689916720736953</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>0.378393691062227</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>0.5622529766312828</v>
-      </c>
-      <c r="J55" s="2" t="n">
-        <v>0.33514</v>
-      </c>
-      <c r="K55" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" s="2" t="n">
-        <v>0.1894729944719849</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>0.8206161137440759</v>
-      </c>
-      <c r="O55" s="2" t="n">
-        <v>0.6057161066482416</v>
-      </c>
-      <c r="P55" s="2" t="n">
-        <v>0.4030766635566808</v>
-      </c>
-      <c r="Q55" s="2" t="n">
-        <v>0.6119031607262946</v>
-      </c>
-      <c r="R55" s="2" t="n">
-        <v>0.7021856086079354</v>
-      </c>
-      <c r="S55" s="2" t="n">
-        <v>0.4389692922750733</v>
-      </c>
-      <c r="T55" s="2" t="n">
-        <v>0.3550144906912691</v>
-      </c>
-      <c r="U55" s="2" t="n">
-        <v>0.8549639837143752</v>
-      </c>
-      <c r="V55" s="2" t="n">
-        <v>0.5398371437519573</v>
-      </c>
-      <c r="W55" s="2" t="n">
-        <v>0.914642734849384</v>
-      </c>
-      <c r="X55" s="2" t="n">
-        <v>0.9276770338480919</v>
-      </c>
-      <c r="Y55" s="2" t="n">
-        <v>0.5238943982284524</v>
-      </c>
-      <c r="Z55" s="2" t="n">
-        <v>0.7137136565612174</v>
-      </c>
-      <c r="AA55" s="2" t="n">
-        <v>0.779121959792631</v>
-      </c>
-      <c r="AB55" s="2" t="n">
-        <v>0.7547623244259472</v>
-      </c>
-      <c r="AC55" s="2" t="n">
-        <v>0.2821210761980673</v>
-      </c>
-      <c r="AD55" s="2" t="n">
-        <v>0.7384999999999999</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\vprelovac\universal-sentence-encoder-multilingual-large-3</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>0.33781</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>0.2621</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>0.6369</v>
-      </c>
-      <c r="F56" s="2" t="n">
-        <v>0.65213</v>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>0.5420886916175743</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>0.3794903151594224</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>0.5539319797366447</v>
-      </c>
-      <c r="J56" s="2" t="n">
-        <v>0.35092</v>
-      </c>
-      <c r="K56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" s="2" t="n">
-        <v>0.1894341512230004</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>0.7203791469194313</v>
-      </c>
-      <c r="O56" s="2" t="n">
-        <v>0.2408582264260665</v>
-      </c>
-      <c r="P56" s="2" t="n">
-        <v>0.4024379912798725</v>
-      </c>
-      <c r="Q56" s="2" t="n">
-        <v>0.6580363147276395</v>
-      </c>
-      <c r="R56" s="2" t="n">
-        <v>0.7346671149966374</v>
-      </c>
-      <c r="S56" s="2" t="n">
-        <v>0.4102454366803547</v>
-      </c>
-      <c r="T56" s="2" t="n">
-        <v>0.3796744706245461</v>
-      </c>
-      <c r="U56" s="2" t="n">
-        <v>0.881866583150642</v>
-      </c>
-      <c r="V56" s="2" t="n">
-        <v>0.6363921077356717</v>
-      </c>
-      <c r="W56" s="2" t="n">
-        <v>0.9337926495141736</v>
-      </c>
-      <c r="X56" s="2" t="n">
-        <v>0.9463878648421398</v>
-      </c>
-      <c r="Y56" s="2" t="n">
-        <v>0.5362415343852915</v>
-      </c>
-      <c r="Z56" s="2" t="n">
-        <v>0.7438679213720065</v>
-      </c>
-      <c r="AA56" s="2" t="n">
-        <v>0.7110616222714751</v>
-      </c>
-      <c r="AB56" s="2" t="n">
-        <v>0.7815527423484122</v>
-      </c>
-      <c r="AC56" s="2" t="n">
-        <v>0.2855799948642319</v>
-      </c>
-      <c r="AD56" s="2" t="n">
-        <v>0.7713333333333332</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\xlm-roberta-base</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>0.00156</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>0.00876</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>0.03332</v>
-      </c>
-      <c r="F57" s="2" t="n">
-        <v>0.11649</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>0.5224409381186116</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>0.2037478764202963</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>0.2558120580916916</v>
-      </c>
-      <c r="J57" s="2" t="n">
-        <v>0.2674799999999999</v>
-      </c>
-      <c r="K57" s="2" t="n">
-        <v>0.7017890974510833</v>
-      </c>
-      <c r="L57" s="2" t="n">
-        <v>0.5328738628505576</v>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>0.08678029981035876</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>0.6049763033175355</v>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>0.2928935602108218</v>
-      </c>
-      <c r="P57" s="2" t="n">
-        <v>0.2375634936431052</v>
-      </c>
-      <c r="Q57" s="2" t="n">
-        <v>0.1358103564223268</v>
-      </c>
-      <c r="R57" s="2" t="n">
-        <v>0.2321452589105581</v>
-      </c>
-      <c r="S57" s="2" t="n">
-        <v>0.4044298462507268</v>
-      </c>
-      <c r="T57" s="2" t="n">
-        <v>0.2414271814543187</v>
-      </c>
-      <c r="U57" s="2" t="n">
-        <v>0.4383025367992484</v>
-      </c>
-      <c r="V57" s="2" t="n">
-        <v>0.1937676166614469</v>
-      </c>
-      <c r="W57" s="2" t="n">
-        <v>0.8544669820078381</v>
-      </c>
-      <c r="X57" s="2" t="n">
-        <v>0.8624645232635788</v>
-      </c>
-      <c r="Y57" s="2" t="n">
-        <v>0.5134610960311026</v>
-      </c>
-      <c r="Z57" s="2" t="n">
-        <v>0.4861539023272589</v>
-      </c>
-      <c r="AA57" s="2" t="n">
-        <v>0.5672433175176572</v>
-      </c>
-      <c r="AB57" s="2" t="n">
-        <v>0.4622634194376477</v>
-      </c>
-      <c r="AC57" s="2" t="n">
-        <v>0.2914448969497285</v>
-      </c>
-      <c r="AD57" s="2" t="n">
-        <v>0.4375000000000001</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>C:\Users\mathi\Wikit\MTEB\mtebscripts\results\xlm-roberta-large</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="n">
+        <v>0.12702</v>
+      </c>
+      <c r="AE53" s="2" t="n">
         <v>0.00517</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>0.01351</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>0.06598999999999999</v>
-      </c>
-      <c r="F58" s="2" t="n">
-        <v>0.12702</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>0.5653605568863168</v>
-      </c>
-      <c r="H58" s="2" t="n">
-        <v>0.2118476703867388</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>0.2861531615674818</v>
-      </c>
-      <c r="J58" s="2" t="n">
-        <v>0.26616</v>
-      </c>
-      <c r="K58" s="2" t="n">
-        <v>0.6492966311974625</v>
-      </c>
-      <c r="L58" s="2" t="n">
-        <v>0.2594625928964929</v>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>0.05943345675729141</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>0.6575829383886255</v>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>0.3402405632525344</v>
-      </c>
-      <c r="P58" s="2" t="n">
-        <v>0.2152479457502924</v>
-      </c>
-      <c r="Q58" s="2" t="n">
-        <v>0.1582044384667115</v>
-      </c>
-      <c r="R58" s="2" t="n">
-        <v>0.2392064559515804</v>
-      </c>
-      <c r="S58" s="2" t="n">
-        <v>0.4267404394453324</v>
-      </c>
-      <c r="T58" s="2" t="n">
-        <v>0.1850128406979126</v>
-      </c>
-      <c r="U58" s="2" t="n">
-        <v>0.367710616974632</v>
-      </c>
-      <c r="V58" s="2" t="n">
-        <v>0.1537112433448168</v>
-      </c>
-      <c r="W58" s="2" t="n">
-        <v>0.8372982569551426</v>
-      </c>
-      <c r="X58" s="2" t="n">
-        <v>0.8393372076362939</v>
-      </c>
-      <c r="Y58" s="2" t="n">
-        <v>0.5338491922324053</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>0.5001340631306734</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>0.5549160342530441</v>
-      </c>
-      <c r="AB58" s="2" t="n">
-        <v>0.4231665294262342</v>
-      </c>
-      <c r="AC58" s="2" t="n">
-        <v>0.2889430627940623</v>
-      </c>
-      <c r="AD58" s="2" t="n">
-        <v>0.4940000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B1:F1"/>
+  <mergeCells count="7">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/analyses_outputs/results.xlsx
+++ b/analyses_outputs/results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE53"/>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,106 +464,118 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>STS</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PairClassification</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Reranking</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BitextMining</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>STS</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Summarization</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Retrieval</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BitextMining</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>STS</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Retrieval</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Clustering</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>BitextMining</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Retrieval</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Clustering</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>STS</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Reranking</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Retrieval</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PairClassification</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Reranking</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>STS</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Retrieval</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>BitextMining</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Summarization</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Reranking</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -574,13 +586,17 @@
       <c r="AA1" s="1" t="n"/>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>Retrieval</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Clustering</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>PairClassification</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="n"/>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Retrieval</t>
         </is>
       </c>
       <c r="AE1" s="1" t="n"/>
@@ -589,152 +605,152 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>MTOPDomainClassification_test</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>MasakhaNEWSClusteringP2P_test</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>STSBenchmarkMultilingualSTS_test</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>PawsX_test</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>SyntecReranking_test</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>MLSUMClusteringP2P_test</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>FloresBitextMining_dev_eng_Latn-fra_Latn</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>FloresBitextMining_dev_fra_Latn-eng_Latn</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>SICKFr_test</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>MasakhaNEWSClassification_test</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>AlloProfClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>SummEvalFr_test</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>MasakhaNEWSClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>AlloprofRetrieval_test</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>MassiveScenarioClassification_test</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>DiaBlaBitextMining_test_fr-en</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>MTOPIntentClassification_test</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>STS22_test</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>MintakaRetrieval_test</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>AlloProfClusteringP2P_test</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>XPQARetrieval_test</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>MLSUMClusteringS2S_test</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>AlloprofReranking_test</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>SyntecRetrieval_test</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>MassiveIntentClassification_test</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>AmazonReviewsClassification_test</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>BSARDRetrieval_test</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>HALClusteringS2S_test</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>DiaBlaBitextMining_test_fr-en</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClusteringP2P_test</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>SICKFr_test</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>MassiveScenarioClassification_test</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>MintakaRetrieval_test</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>PawsX_test</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>AmazonReviewsClassification_test</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>AlloprofReranking_test</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>AlloProfClusteringP2P_test</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>STS22_test</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>MLSUMClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>AlloProfClusteringS2S_test</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>SyntecRetrieval_test</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>MLSUMClusteringP2P_test</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>FloresBitextMining_dev_fra_Latn-eng_Latn</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>FloresBitextMining_dev_eng_Latn-fra_Latn</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>MTOPIntentClassification_test</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>MTOPDomainClassification_test</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>SummEvalFr_test</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>SyntecReranking_test</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClassification_test</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>MassiveIntentClassification_test</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>OpusparcusPC_test.full</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>OpusparcusPC_validation.full</t>
-        </is>
-      </c>
-      <c r="AD2" s="1" t="inlineStr">
-        <is>
-          <t>XPQARetrieval_test</t>
-        </is>
-      </c>
-      <c r="AE2" s="1" t="inlineStr">
-        <is>
-          <t>AlloprofRetrieval_test</t>
         </is>
       </c>
     </row>
@@ -752,94 +768,94 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
+        <v>0.8924522392734107</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.4506890534306004</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>0.8158927194633603</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="E4" s="2" t="n">
+        <v>0.5967939817396208</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0.8844444444444445</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.4310191921623729</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.783253749595937</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0.7656398104265404</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0.3663402207206274</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0.3104772232153365</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0.4239778254058173</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0.48978</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0.7329858776059179</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0.8537830877079311</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0.6236767929846538</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0.822666177362106</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0.5905236983747767</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0.70911</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0.4359058441822957</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>0.7393313825594308</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>0.84505</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0.6744451916610625</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>0.44786</v>
+      </c>
+      <c r="AB4" s="2" t="n">
         <v>0.6036</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0.2416331806317998</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.8537830877079311</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0.4506890534306004</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0.4239778254058173</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0.783253749595937</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.7329858776059179</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.2286</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0.5967939817396208</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0.44786</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0.7393313825594308</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0.5905236983747767</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0.822666177362106</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0.4359058441822957</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0.3663402207206274</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0.84505</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0.4310191921623729</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0.6236767929846538</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>0.8924522392734107</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>0.3109710097201092</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0.8844444444444445</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>0.7656398104265404</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>0.6744451916610625</v>
-      </c>
-      <c r="AB4" s="2" t="n">
+      <c r="AC4" s="2" t="n">
+        <v>0.3096927730202973</v>
+      </c>
+      <c r="AD4" s="2" t="n">
         <v>0.9288541715265348</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AE4" s="2" t="n">
         <v>0.9457289365299991</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>0.70911</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0.48978</v>
       </c>
     </row>
     <row r="5">
@@ -849,94 +865,94 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
+        <v>0.6191356091450047</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.3238783548898045</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>0.5701758346273191</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="E5" s="2" t="n">
+        <v>0.5078393817652131</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.3942936507936509</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.4090788738384479</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0.9066087150339909</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0.9204446673353393</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0.6164041848098294</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0.6751184834123224</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0.4348241240386942</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0.3068248900956283</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0.3317203899044766</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0.01414</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0.4418291862811029</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0.1131336094934851</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0.3534606952709051</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0.4135399271271215</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0.02991</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0.5714285975098367</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0.15897</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>0.3126641649690648</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>0.2929426466158667</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>0.17599</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0.3495292535305985</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0.2853599999999999</v>
+      </c>
+      <c r="AB5" s="2" t="n">
         <v>0.11261</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0.1861576116891369</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0.1131336094934851</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0.3238783548898045</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.3317203899044766</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.6164041848098294</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.4418291862811029</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.02991</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0.5078393817652131</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0.2853599999999999</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>0.2929426466158667</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0.5714285975098367</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0.4135399271271215</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>0.3126641649690648</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>0.4348241240386942</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>0.17599</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>0.4090788738384479</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>0.9204446673353393</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>0.9066087150339909</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>0.3534606952709051</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>0.6191356091450047</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>0.3070335729873741</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>0.3942936507936509</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>0.6751184834123224</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>0.3495292535305985</v>
-      </c>
-      <c r="AB5" s="2" t="n">
+      <c r="AC5" s="2" t="n">
+        <v>0.2391997868514683</v>
+      </c>
+      <c r="AD5" s="2" t="n">
         <v>0.8609728031715025</v>
       </c>
-      <c r="AC5" s="2" t="n">
+      <c r="AE5" s="2" t="n">
         <v>0.8758173702252184</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>0.15897</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>0.01414</v>
       </c>
     </row>
     <row r="6">
@@ -946,94 +962,94 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
+        <v>0.6191982461634826</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.3378317847816555</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>0.570654953893223</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="E6" s="2" t="n">
+        <v>0.5076824569885957</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.3942936507936509</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.4071825511365696</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0.9066087150339909</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0.9192744901370778</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0.6165632183808489</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0.6751184834123224</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0.4215320575444813</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0.3109981167899422</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0.3404565705021788</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0.01364</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0.4401479488903833</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0.1129692265139254</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0.353585969307861</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0.4218079567381129</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>0.03014</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>0.5665935732649282</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>0.1556</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>0.314328804874776</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>0.293075699444281</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>0.17599</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>0.3478816408876934</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>0.2851199999999999</v>
+      </c>
+      <c r="AB6" s="2" t="n">
         <v>0.10811</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0.1954334300029073</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0.1129692265139254</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0.3378317847816555</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.3404565705021788</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.6165632183808489</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.4401479488903833</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0.03014</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0.5076824569885957</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0.2851199999999999</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0.293075699444281</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0.5665935732649282</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0.4218079567381129</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>0.314328804874776</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0.4215320575444813</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>0.17599</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>0.4071825511365696</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>0.9192744901370778</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>0.9066087150339909</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>0.353585969307861</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>0.6191982461634826</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>0.3122667451153068</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>0.3942936507936509</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>0.6751184834123224</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>0.3478816408876934</v>
-      </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AC6" s="2" t="n">
+        <v>0.2488705367546622</v>
+      </c>
+      <c r="AD6" s="2" t="n">
         <v>0.8609925738288053</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AE6" s="2" t="n">
         <v>0.8757734114810968</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>0.1556</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>0.01364</v>
       </c>
     </row>
     <row r="7">
@@ -1043,94 +1059,94 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
+        <v>0.6170685875352333</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.337589716019601</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>0.5703033340036064</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="E7" s="2" t="n">
+        <v>0.5073485498358526</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0.3929484126984127</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.4074944583831627</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0.6499806439094893</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0.6332293277880038</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0.6168581678045449</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0.6767772511848341</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0.4300157593054996</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0.3085027208265758</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0.3460782647523849</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0.01386</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0.4378614660390047</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0.05946715324206229</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0.352740369558409</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0.4282484915255096</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0.03052</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0.5728722420376016</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>0.15906</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0.3141069123749394</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>0.2939054280177285</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>0.17519</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>0.3493275050437122</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>0.2859599999999999</v>
+      </c>
+      <c r="AB7" s="2" t="n">
         <v>0.11261</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0.1960397251544971</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0.05946715324206229</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0.337589716019601</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0.3460782647523849</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.6168581678045449</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.4378614660390047</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.03052</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0.5073485498358526</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0.2859599999999999</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0.2939054280177285</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0.5728722420376016</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0.4282484915255096</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0.3141069123749394</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0.4300157593054996</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0.17519</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>0.4074944583831627</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>0.6332293277880038</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>0.6499806439094893</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0.352740369558409</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>0.6170685875352333</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>0.3098048164787563</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>0.3929484126984127</v>
-      </c>
-      <c r="Z7" s="2" t="n">
-        <v>0.6767772511848341</v>
-      </c>
-      <c r="AA7" s="2" t="n">
-        <v>0.3493275050437122</v>
-      </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AC7" s="2" t="n">
+        <v>0.2426399898772257</v>
+      </c>
+      <c r="AD7" s="2" t="n">
         <v>0.8604661480576208</v>
       </c>
-      <c r="AC7" s="2" t="n">
+      <c r="AE7" s="2" t="n">
         <v>0.8761939806579652</v>
-      </c>
-      <c r="AD7" s="2" t="n">
-        <v>0.15906</v>
-      </c>
-      <c r="AE7" s="2" t="n">
-        <v>0.01386</v>
       </c>
     </row>
     <row r="8">
@@ -1139,4471 +1155,4564 @@
           <t>Lajavaness/sentence-camembert-large</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0.8650485436893204</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.4352577047069188</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>0.8613984001863513</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="E8" s="2" t="n">
+        <v>0.6136877605231777</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.8217738095238094</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0.429549637509742</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0.9973253092611166</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0.9919759277833501</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0.7770899952473914</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0.7409952606635072</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0.3986103179536452</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0.3143824802330605</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0.3670529681942382</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0.33007</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0.6981170141223941</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0.7007349877195761</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0.6080488568744128</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>0.8171227763972017</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>0.22464</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0.6237888550471491</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>0.65019</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0.4295050938255963</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0.6277308388350255</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0.79127</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0.6380295897780768</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0.38396</v>
+      </c>
+      <c r="AB8" s="2" t="n">
         <v>0.56306</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0.2443517236782352</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0.7007349877195761</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0.4352577047069188</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0.3670529681942382</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0.7770899952473914</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.6981170141223941</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.22464</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0.6136877605231777</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>0.38396</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>0.6277308388350255</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0.6237888550471491</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0.8171227763972017</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>0.4295050938255963</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>0.3986103179536452</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>0.79127</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>0.429549637509742</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>0.9919759277833501</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>0.9973253092611166</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>0.6080488568744128</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>0.8650485436893204</v>
-      </c>
-      <c r="X8" s="2" t="n">
-        <v>0.3160647188490759</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>0.8217738095238094</v>
-      </c>
-      <c r="Z8" s="2" t="n">
-        <v>0.7409952606635072</v>
-      </c>
-      <c r="AA8" s="2" t="n">
-        <v>0.6380295897780768</v>
-      </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AC8" s="2" t="n">
+        <v>0.3203446734729044</v>
+      </c>
+      <c r="AD8" s="2" t="n">
         <v>0.9428131982731722</v>
       </c>
-      <c r="AC8" s="2" t="n">
+      <c r="AE8" s="2" t="n">
         <v>0.9533318136331852</v>
-      </c>
-      <c r="AD8" s="2" t="n">
-        <v>0.65019</v>
-      </c>
-      <c r="AE8" s="2" t="n">
-        <v>0.33007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>OrdalieTech/Solon-embeddings-base-0.1</t>
+          <t>Lajavaness/sentence-flaubert-base</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.7853527565797995</v>
+        <v>0.7887566551832133</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.4860196906767234</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2370252984949168</v>
+        <v>0.8566378973699017</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.8524372355009098</v>
+        <v>0.5793299943875329</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.4964694067651284</v>
+        <v>0.8081666666666666</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.3618981917730912</v>
+        <v>0.4145562505476897</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.7534687515605065</v>
+        <v>0.9689067201604814</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.6997310020174849</v>
+        <v>0.9645603477097962</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.28144</v>
+        <v>0.7754956171830516</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.5870544934940987</v>
+        <v>0.7104265402843601</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.4100799999999999</v>
+        <v>0.4000101472459464</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.7088752883376981</v>
+        <v>0.3122331108631331</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.6137421216267173</v>
+        <v>0.3023745235272904</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.8119061093553033</v>
+        <v>0.17892</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0.4246984637988738</v>
+        <v>0.6340618695359785</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0.3662872206933244</v>
+        <v>0.4660636485218948</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.80796</v>
+        <v>0.5284685248982149</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0.4286366213915852</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="3" t="n">
-        <v>1</v>
+        <v>0.7412928169442162</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0.2059</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0.5699904823623312</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.6229877857813969</v>
+        <v>0.5124</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.8698089570936423</v>
+        <v>0.4125497826657207</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.307197717007175</v>
+        <v>0.482879393903199</v>
       </c>
       <c r="Y9" s="2" t="n">
-        <v>0.8457499999999999</v>
+        <v>0.6857799999999999</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>0.7547393364928909</v>
+        <v>0.588567585743107</v>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>0.648285137861466</v>
+        <v>0.4041</v>
       </c>
       <c r="AB9" s="2" t="n">
-        <v>0.9305839400834288</v>
+        <v>0.41892</v>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>0.9422828541658839</v>
+        <v>0.3170178942434851</v>
       </c>
       <c r="AD9" s="2" t="n">
-        <v>0.67599</v>
+        <v>0.9299613099650954</v>
       </c>
       <c r="AE9" s="2" t="n">
-        <v>0.41118</v>
+        <v>0.9446434849237524</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>OrdalieTech/Solon-embeddings-large-0.1</t>
+          <t>OrdalieTech/Solon-embeddings-base-0.1</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.799935484366653</v>
+        <v>0.8698089570936423</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.57658</v>
+        <v>0.4964694067651284</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.239541362584812</v>
+        <v>0.7853527565797995</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.8694952864886114</v>
+        <v>0.5870544934940987</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.4563006463136968</v>
+        <v>0.8457499999999999</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.3086339630962708</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0.767437746873382</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.712878278412912</v>
+        <v>0.4286366213915852</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.30074</v>
+        <v>0.7534687515605065</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.6018934804753497</v>
+        <v>0.7547393364928909</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.42094</v>
+        <v>0.3662872206933244</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.7222761824335505</v>
+        <v>0.3070950189292091</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0.6310932448320445</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <v>0.8330552085410882</v>
+        <v>0.3618981917730912</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0.41118</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0.4327314328859869</v>
+        <v>0.6997310020174849</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0.373886875609376</v>
+        <v>0.8524372355009098</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.84605</v>
+        <v>0.6229877857813969</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0.42750019998425</v>
-      </c>
-      <c r="T10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="3" t="n">
-        <v>1</v>
+        <v>0.8119061093553033</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>0.28144</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>0.6137421216267173</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0.6854995302223614</v>
+        <v>0.67599</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.8925148762918884</v>
+        <v>0.4246984637988738</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.2966081877466483</v>
+        <v>0.7088752883376981</v>
       </c>
       <c r="Y10" s="2" t="n">
-        <v>0.8711666666666666</v>
+        <v>0.80796</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.7609004739336493</v>
+        <v>0.648285137861466</v>
       </c>
       <c r="AA10" s="2" t="n">
-        <v>0.6736381977135171</v>
+        <v>0.4100799999999999</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>0.9401979957812989</v>
+        <v>0.0045</v>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>0.952291317855892</v>
+        <v>0.3001268305632189</v>
       </c>
       <c r="AD10" s="2" t="n">
-        <v>0.70221</v>
+        <v>0.9305839400834288</v>
       </c>
       <c r="AE10" s="2" t="n">
-        <v>0.46942</v>
+        <v>0.9422828541658839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Wissam42/sentence-croissant-llm-base</t>
+          <t>OrdalieTech/Solon-embeddings-large-0.1</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.7922738680429985</v>
+        <v>0.8925148762918884</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.52252</v>
+        <v>0.4563006463136968</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2340128867212198</v>
+        <v>0.799935484366653</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.7371911997949699</v>
+        <v>0.6018934804753497</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.5394435157885373</v>
+        <v>0.8711666666666666</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.4105178984993857</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>0.6960017257463582</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.6528581035642234</v>
+        <v>0.42750019998425</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.21309</v>
+        <v>0.767437746873382</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.6313386879959426</v>
+        <v>0.7609004739336493</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.34792</v>
+        <v>0.373886875609376</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.5675487985583264</v>
+        <v>0.2958235045461276</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.6411669265073395</v>
+        <v>0.3086339630962708</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.7877222611897307</v>
+        <v>0.46942</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.3391299056452157</v>
+        <v>0.712878278412912</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0.325236731994226</v>
+        <v>0.8694952864886114</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.74197</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>0.429413226398757</v>
-      </c>
-      <c r="T11" s="3" t="n">
-        <v>1</v>
+        <v>0.6854995302223614</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>0.8330552085410882</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>0.30074</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.6310932448320445</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>0.6312245537112433</v>
+        <v>0.70221</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.855214531788287</v>
+        <v>0.4327314328859869</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.2904259923005852</v>
+        <v>0.7222761824335505</v>
       </c>
       <c r="Y11" s="2" t="n">
-        <v>0.779595238095238</v>
+        <v>0.84605</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>0.7928909952606634</v>
+        <v>0.6736381977135171</v>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>0.5940820443846672</v>
+        <v>0.42094</v>
       </c>
       <c r="AB11" s="2" t="n">
-        <v>0.9141910841619804</v>
+        <v>0.57658</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.9261526052336004</v>
+        <v>0.319785351848106</v>
       </c>
       <c r="AD11" s="2" t="n">
-        <v>0.58573</v>
+        <v>0.9401979957812989</v>
       </c>
       <c r="AE11" s="2" t="n">
-        <v>0.29969</v>
+        <v>0.952291317855892</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>bert-base-multilingual-cased</t>
+          <t>Wissam42/sentence-croissant-llm-base</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.5224722935490146</v>
+        <v>0.855214531788287</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.1036</v>
+        <v>0.5394435157885373</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.2080755658975593</v>
+        <v>0.7922738680429985</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.2996061329422579</v>
+        <v>0.6313386879959426</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.779595238095238</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.429413226398757</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.5874812845368886</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.4446536650975118</v>
+        <v>0.9973253092611166</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03554</v>
+        <v>0.6960017257463582</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.5339388951464616</v>
+        <v>0.7928909952606634</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.29394</v>
+        <v>0.325236731994226</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>0.3178385313302001</v>
+        <v>0.2890197428557823</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>0.5149653756008361</v>
+        <v>0.4105178984993857</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.3904525758557057</v>
+        <v>0.29969</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0.3179683201467264</v>
+        <v>0.6528581035642234</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0.4305645671675891</v>
+        <v>0.7371911997949699</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.18948</v>
+        <v>0.6312245537112433</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>0.4090371994645377</v>
+        <v>0.7877222611897307</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.21309</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.6411669265073395</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>0.3783589101158785</v>
+        <v>0.58573</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.6361102411525212</v>
+        <v>0.3391299056452157</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.2880779587217142</v>
+        <v>0.5675487985583264</v>
       </c>
       <c r="Y12" s="2" t="n">
-        <v>0.4340515873015873</v>
+        <v>0.74197</v>
       </c>
       <c r="Z12" s="2" t="n">
-        <v>0.6400473933649289</v>
+        <v>0.5940820443846672</v>
       </c>
       <c r="AA12" s="2" t="n">
-        <v>0.3729993275050437</v>
+        <v>0.34792</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>0.8677048159592717</v>
+        <v>0.52252</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>0.8722976958382189</v>
+        <v>0.2918425338399898</v>
       </c>
       <c r="AD12" s="2" t="n">
-        <v>0.1849</v>
+        <v>0.9141910841619804</v>
       </c>
       <c r="AE12" s="2" t="n">
-        <v>0.01626</v>
+        <v>0.9261526052336004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>bert-base-multilingual-uncased</t>
+          <t>bert-base-multilingual-cased</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.5497353309633939</v>
+        <v>0.6361102411525212</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.16216</v>
+        <v>0.2423499234956803</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2089820298983429</v>
+        <v>0.5224722935490146</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.3559984760058366</v>
+        <v>0.5339388951464616</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.4971340561526633</v>
+        <v>0.4340515873015873</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.422255814870678</v>
+        <v>0.4090371994645377</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.5826449144443914</v>
+        <v>0.9762621196924105</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.4363147276395427</v>
+        <v>0.9694082246740221</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02872</v>
+        <v>0.5874812845368886</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.5322360899538218</v>
+        <v>0.6400473933649289</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.29024</v>
+        <v>0.4305645671675891</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0.3277262979995819</v>
+        <v>0.2881930191988686</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0.6066148200885675</v>
+        <v>0.2445999599094782</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>0.5647457412587442</v>
+        <v>0.01626</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>0.3098774275886452</v>
+        <v>0.4446536650975118</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0.3505397363641355</v>
+        <v>0.2996061329422579</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.34951</v>
+        <v>0.3783589101158785</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>0.4349522858689475</v>
+        <v>0.3904525758557057</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>0.9477432296890672</v>
+        <v>0.03554</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.9799398194583752</v>
+        <v>0.5149653756008361</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>0.3940181647353586</v>
+        <v>0.1849</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.644910742248669</v>
+        <v>0.3179683201467264</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.3072334740467725</v>
+        <v>0.3178385313302001</v>
       </c>
       <c r="Y13" s="2" t="n">
-        <v>0.5896785714285715</v>
+        <v>0.18948</v>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>0.756872037914692</v>
+        <v>0.3729993275050437</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>0.3800605245460659</v>
+        <v>0.29394</v>
       </c>
       <c r="AB13" s="2" t="n">
-        <v>0.8743393906507683</v>
+        <v>0.1036</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>0.8874950508866897</v>
+        <v>0.2458193413983279</v>
       </c>
       <c r="AD13" s="2" t="n">
-        <v>0.26117</v>
+        <v>0.8677048159592717</v>
       </c>
       <c r="AE13" s="2" t="n">
-        <v>0.05506</v>
+        <v>0.8722976958382189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>camembert/camembert-base</t>
+          <t>bert-base-multilingual-uncased</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.5486423488745364</v>
+        <v>0.644910742248669</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.4971340561526633</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1350952753315698</v>
+        <v>0.5497353309633939</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.04331694082788507</v>
+        <v>0.5322360899538218</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.4398103174841825</v>
+        <v>0.5896785714285715</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.2665670855775651</v>
+        <v>0.4349522858689475</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.5368307592304911</v>
+        <v>0.9799398194583752</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.3948554135843981</v>
+        <v>0.9477432296890672</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02022</v>
+        <v>0.5826449144443914</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.521089966496604</v>
+        <v>0.756872037914692</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.29814</v>
+        <v>0.3505397363641355</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0.2556621635909326</v>
+        <v>0.3073266406645685</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0.5423893147384338</v>
+        <v>0.422255814870678</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0.6107432321823179</v>
+        <v>0.05506</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>0.2663399835756784</v>
+        <v>0.4363147276395427</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0.2918804706562174</v>
+        <v>0.3559984760058366</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.05799</v>
+        <v>0.3940181647353586</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0.4060210180892428</v>
+        <v>0.5647457412587442</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>0.2602264772347189</v>
+        <v>0.02872</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.2515262419615453</v>
+        <v>0.6066148200885675</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>0.2861259004071406</v>
+        <v>0.26117</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.5839336047604134</v>
+        <v>0.3098774275886452</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.2963071602202985</v>
+        <v>0.3277262979995819</v>
       </c>
       <c r="Y14" s="2" t="n">
-        <v>0.361670634920635</v>
+        <v>0.34951</v>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>0.6561611374407583</v>
+        <v>0.3800605245460659</v>
       </c>
       <c r="AA14" s="2" t="n">
-        <v>0.3095158036314727</v>
+        <v>0.29024</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>0.8342726180422799</v>
+        <v>0.16216</v>
       </c>
       <c r="AC14" s="2" t="n">
-        <v>0.8601987158204568</v>
+        <v>0.2583750607318433</v>
       </c>
       <c r="AD14" s="2" t="n">
-        <v>0.19922</v>
+        <v>0.8743393906507683</v>
       </c>
       <c r="AE14" s="2" t="n">
-        <v>0.00235</v>
+        <v>0.8874950508866897</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>camembert/camembert-large</t>
+          <t>camembert/camembert-base</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.6183576200859585</v>
+        <v>0.5839336047604134</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.4398103174841825</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1838664804452286</v>
+        <v>0.5486423488745364</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.05998688454697069</v>
+        <v>0.521089966496604</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.4213366020734207</v>
+        <v>0.361670634920635</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>0.3335790002411184</v>
+        <v>0.4060210180892428</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.5880208439406661</v>
+        <v>0.2515262419615453</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.4633490248823134</v>
+        <v>0.2602264772347189</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03552</v>
+        <v>0.5368307592304911</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.5228462246810233</v>
+        <v>0.6561611374407583</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.31168</v>
+        <v>0.2918804706562174</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.3293934606539791</v>
+        <v>0.2972138595861862</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>0.592712061687221</v>
+        <v>0.2665670855775651</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>0.5725762796846933</v>
+        <v>0.00235</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>0.351462769915096</v>
+        <v>0.3948554135843981</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0.3424503121580777</v>
+        <v>0.04331694082788507</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.17539</v>
+        <v>0.2861259004071406</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>0.4408218038488301</v>
+        <v>0.6107432321823179</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>0.4013712370627894</v>
+        <v>0.02022</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.3161171999727407</v>
+        <v>0.5423893147384338</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>0.4249608518634513</v>
+        <v>0.19922</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.6839336047604134</v>
+        <v>0.2663399835756784</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.2797711620509544</v>
+        <v>0.2556621635909326</v>
       </c>
       <c r="Y15" s="2" t="n">
-        <v>0.3578185425685426</v>
+        <v>0.05799</v>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>0.7061611374407584</v>
+        <v>0.3095158036314727</v>
       </c>
       <c r="AA15" s="2" t="n">
-        <v>0.3620376597175521</v>
+        <v>0.29814</v>
       </c>
       <c r="AB15" s="2" t="n">
-        <v>0.7663262539483096</v>
+        <v>0.0045</v>
       </c>
       <c r="AC15" s="2" t="n">
-        <v>0.797210507122408</v>
+        <v>0.1581925700530789</v>
       </c>
       <c r="AD15" s="2" t="n">
-        <v>0.20472</v>
+        <v>0.8342726180422799</v>
       </c>
       <c r="AE15" s="2" t="n">
-        <v>0.01968</v>
+        <v>0.8601987158204568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>dangvantuan/sentence-camembert-base</t>
+          <t>camembert/camembert-large</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.8163901919126012</v>
+        <v>0.6839336047604134</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.39189</v>
+        <v>0.4213366020734207</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2021549178618914</v>
+        <v>0.6183576200859585</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.3606737729832072</v>
+        <v>0.5228462246810233</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.3603382429363983</v>
+        <v>0.3578185425685426</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.3076503346423071</v>
+        <v>0.4408218038488301</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.7417817544381963</v>
+        <v>0.3161171999727407</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.6127774041694687</v>
+        <v>0.4013712370627894</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.13357</v>
+        <v>0.5880208439406661</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.5743705197496742</v>
+        <v>0.7061611374407584</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.36026</v>
+        <v>0.3424503121580777</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.5834449233135185</v>
+        <v>0.1672493113419711</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>0.5909203102484407</v>
+        <v>0.3335790002411184</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0.7753949779251178</v>
+        <v>0.01968</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0.2705338909472246</v>
+        <v>0.4633490248823134</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0.389167691440152</v>
+        <v>0.05998688454697069</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.68618</v>
+        <v>0.4249608518634513</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0.3597635372718684</v>
+        <v>0.5725762796846933</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.8975927783350049</v>
+        <v>0.03552</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.9007021063189569</v>
+        <v>0.592712061687221</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>0.4343877231443783</v>
+        <v>0.20472</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.7710303789539619</v>
+        <v>0.351462769915096</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.2877116932900191</v>
+        <v>0.3293934606539791</v>
       </c>
       <c r="Y16" s="2" t="n">
-        <v>0.7372738095238095</v>
+        <v>0.17539</v>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>0.7035545023696683</v>
+        <v>0.3620376597175521</v>
       </c>
       <c r="AA16" s="2" t="n">
-        <v>0.5159381304640215</v>
+        <v>0.31168</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0.9205083560505066</v>
+        <v>0.009010000000000001</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>0.9328066173124074</v>
+        <v>0.03216273637496015</v>
       </c>
       <c r="AD16" s="2" t="n">
-        <v>0.57916</v>
+        <v>0.7663262539483096</v>
       </c>
       <c r="AE16" s="2" t="n">
-        <v>0.21938</v>
+        <v>0.797210507122408</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>embed-multilingual-light-v3.0</t>
+          <t>dangvantuan/sentence-camembert-base</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.7648019211186484</v>
+        <v>0.7710303789539619</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.51802</v>
+        <v>0.3603382429363983</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1731069266684963</v>
+        <v>0.8163901919126012</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.6631613175502583</v>
+        <v>0.5743705197496742</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.5680686305484748</v>
+        <v>0.7372738095238095</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.294063089090014</v>
+        <v>0.3597635372718684</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.7550483099806141</v>
+        <v>0.9007021063189569</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.5949562878278413</v>
+        <v>0.8975927783350049</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.23004</v>
+        <v>0.7417817544381963</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.5731728148121378</v>
+        <v>0.7035545023696683</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.386</v>
+        <v>0.389167691440152</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.7022205799056065</v>
+        <v>0.2852188259243553</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0.6195997777996813</v>
+        <v>0.3076503346423071</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>0.8279714502136332</v>
+        <v>0.21938</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>0.3272447200966951</v>
+        <v>0.6127774041694687</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0.3135667338652056</v>
+        <v>0.3606737729832072</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.7688199999999999</v>
+        <v>0.4343877231443783</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>0.4279854786876686</v>
-      </c>
-      <c r="T17" s="3" t="n">
-        <v>1</v>
+        <v>0.7753949779251178</v>
+      </c>
+      <c r="T17" s="2" t="n">
+        <v>0.13357</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.5909203102484407</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>0.5000626370184779</v>
+        <v>0.57916</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.8079235828374569</v>
+        <v>0.2705338909472246</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.314006702294</v>
+        <v>0.5834449233135185</v>
       </c>
       <c r="Y17" s="2" t="n">
-        <v>0.8196666666666665</v>
+        <v>0.68618</v>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>0.8258293838862558</v>
+        <v>0.5159381304640215</v>
       </c>
       <c r="AA17" s="2" t="n">
-        <v>0.5631136516476126</v>
+        <v>0.36026</v>
       </c>
       <c r="AB17" s="2" t="n">
-        <v>0.9091625445064609</v>
+        <v>0.39189</v>
       </c>
       <c r="AC17" s="2" t="n">
-        <v>0.9209596025105193</v>
+        <v>0.2536650090973221</v>
       </c>
       <c r="AD17" s="2" t="n">
-        <v>0.45227</v>
+        <v>0.9205083560505066</v>
       </c>
       <c r="AE17" s="2" t="n">
-        <v>0.35394</v>
+        <v>0.9328066173124074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>embed-multilingual-v3.0</t>
+          <t>embed-multilingual-light-v3.0</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.8184387078760932</v>
+        <v>0.8079235828374569</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.44144</v>
+        <v>0.5680686305484748</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1990356735257148</v>
+        <v>0.7648019211186484</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.8308540836724554</v>
+        <v>0.5731728148121378</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.5318379498672176</v>
+        <v>0.8196666666666665</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.3230998225707994</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>0.7923250123076204</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.6729320780094149</v>
+        <v>0.4279854786876686</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>0.9973253092611166</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.25437</v>
+        <v>0.7550483099806141</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.6125533530469982</v>
+        <v>0.8258293838862558</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.41892</v>
+        <v>0.3135667338652056</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0.7366250957261234</v>
+        <v>0.3124809100083125</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>0.6352561566282294</v>
+        <v>0.294063089090014</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0.8276336405644232</v>
+        <v>0.35394</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>0.347527142956374</v>
+        <v>0.5949562878278413</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0.361759185577996</v>
+        <v>0.6631613175502583</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.79269</v>
+        <v>0.5000626370184779</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0.4508360325363872</v>
-      </c>
-      <c r="T18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" s="3" t="n">
-        <v>1</v>
+        <v>0.8279714502136332</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>0.23004</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>0.6195997777996813</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>0.6107422486689634</v>
+        <v>0.45227</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.8622925148762919</v>
+        <v>0.3272447200966951</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.3126400952397324</v>
+        <v>0.7022205799056065</v>
       </c>
       <c r="Y18" s="2" t="n">
-        <v>0.8365833333333333</v>
-      </c>
-      <c r="Z18" s="3" t="n">
-        <v>0.830568720379147</v>
+        <v>0.7688199999999999</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>0.5631136516476126</v>
       </c>
       <c r="AA18" s="2" t="n">
-        <v>0.629388029589778</v>
+        <v>0.386</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>0.940778214081015</v>
+        <v>0.51802</v>
       </c>
       <c r="AC18" s="2" t="n">
-        <v>0.9503580631772154</v>
+        <v>0.1964490765934713</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>0.58873</v>
+        <v>0.9091625445064609</v>
       </c>
       <c r="AE18" s="2" t="n">
-        <v>0.38361</v>
+        <v>0.9209596025105193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>flaubert/flaubert_base_cased</t>
+          <t>embed-multilingual-v3.0</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.3713955104980419</v>
+        <v>0.8622925148762919</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.02252</v>
+        <v>0.5318379498672176</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.03854581426819014</v>
+        <v>0.8184387078760932</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.01979442433142667</v>
+        <v>0.6125533530469982</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.4161016174685461</v>
+        <v>0.8365833333333333</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.2126096885689954</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>0.5386168675726091</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.1140551445864156</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.00579</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>0.5189063823329726</v>
+        <v>0.4508360325363872</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>0.7923250123076204</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>0.830568720379147</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.24904</v>
+        <v>0.361759185577996</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.2920875344017915</v>
+        <v>0.3124995360706698</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>0.5285934835529511</v>
+        <v>0.3230998225707994</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>0.6536672090843911</v>
+        <v>0.38361</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>0.171305846850958</v>
+        <v>0.6729320780094149</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0.1445975007371924</v>
+        <v>0.8308540836724554</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.20562</v>
+        <v>0.6107422486689634</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0.3905601625969005</v>
+        <v>0.8276336405644232</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0.3091099858805599</v>
+        <v>0.25437</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.3585084545943069</v>
+        <v>0.6352561566282294</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>0.09492640150328843</v>
+        <v>0.58873</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.2554963983714375</v>
+        <v>0.347527142956374</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.312594655829165</v>
+        <v>0.7366250957261234</v>
       </c>
       <c r="Y19" s="2" t="n">
-        <v>0.427472582972583</v>
+        <v>0.79269</v>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>0.7113744075829384</v>
+        <v>0.629388029589778</v>
       </c>
       <c r="AA19" s="2" t="n">
-        <v>0.06980497646267654</v>
+        <v>0.41892</v>
       </c>
       <c r="AB19" s="2" t="n">
-        <v>0.8214541028748449</v>
+        <v>0.44144</v>
       </c>
       <c r="AC19" s="2" t="n">
-        <v>0.8372010738024828</v>
+        <v>0.244880184861852</v>
       </c>
       <c r="AD19" s="2" t="n">
-        <v>0.06587999999999999</v>
+        <v>0.940778214081015</v>
       </c>
       <c r="AE19" s="2" t="n">
-        <v>0.01628</v>
+        <v>0.9503580631772154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>flaubert/flaubert_base_uncased</t>
+          <t>flaubert/flaubert_base_cased</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.3340826064580523</v>
+        <v>0.2554963983714375</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.02703</v>
+        <v>0.4161016174685461</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.01795603069453415</v>
+        <v>0.3713955104980419</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.02985745352493187</v>
+        <v>0.5189063823329726</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0.2849343428327477</v>
+        <v>0.427472582972583</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.2257882491180909</v>
+        <v>0.3905601625969005</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.4190237966349758</v>
+        <v>0.3585084545943069</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1098184263618023</v>
+        <v>0.3091099858805599</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.00508</v>
+        <v>0.5386168675726091</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.5277777608306072</v>
+        <v>0.7113744075829384</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.23518</v>
+        <v>0.1445975007371924</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.2990165728874674</v>
+        <v>0.3121511534179885</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>0.4320222924608445</v>
+        <v>0.2126096885689954</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0.5515047105823337</v>
+        <v>0.01628</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>0.1489756017869693</v>
+        <v>0.1140551445864156</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0.1293857445009916</v>
+        <v>0.01979442433142667</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.22333</v>
+        <v>0.09492640150328843</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0.3322371189429822</v>
+        <v>0.6536672090843911</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>0.2537073113561774</v>
+        <v>0.00579</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.08098894058162567</v>
+        <v>0.5285934835529511</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>0.08609458189790167</v>
+        <v>0.06587999999999999</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.2774193548387097</v>
+        <v>0.171305846850958</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.2942790176376187</v>
+        <v>0.2920875344017915</v>
       </c>
       <c r="Y20" s="2" t="n">
-        <v>0.4900678210678211</v>
+        <v>0.20562</v>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>0.6260663507109006</v>
+        <v>0.06980497646267654</v>
       </c>
       <c r="AA20" s="2" t="n">
-        <v>0.06237390719569604</v>
+        <v>0.24904</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>0.8199594649342907</v>
+        <v>0.02252</v>
       </c>
       <c r="AC20" s="2" t="n">
-        <v>0.8371300542205431</v>
+        <v>0.04350586920781181</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.8214541028748449</v>
       </c>
       <c r="AE20" s="2" t="n">
-        <v>0.01719</v>
+        <v>0.8372010738024828</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>flaubert/flaubert_large_cased</t>
+          <t>flaubert/flaubert_base_uncased</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.1565944995632818</v>
+        <v>0.2774193548387097</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
+        <v>0.2849343428327477</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.05262528089639844</v>
+        <v>0.3340826064580523</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.009125460760132157</v>
+        <v>0.5277777608306072</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.2642955329593683</v>
+        <v>0.4900678210678211</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.2467651379532248</v>
+        <v>0.3322371189429822</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.3460428228637162</v>
+        <v>0.08098894058162567</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2271687962340282</v>
+        <v>0.2537073113561774</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.00263</v>
+        <v>0.4190237966349758</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.5413772297820212</v>
+        <v>0.6260663507109006</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.22446</v>
+        <v>0.1293857445009916</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.293477014607151</v>
+        <v>0.2940387618112921</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0.4085073955515567</v>
+        <v>0.2257882491180909</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>0.4852164892537546</v>
+        <v>0.01719</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0.1871270130969609</v>
+        <v>0.1098184263618023</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0.217556103036172</v>
+        <v>0.02985745352493187</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.01578</v>
+        <v>0.08609458189790167</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0.3809040459534752</v>
+        <v>0.5515047105823337</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.1491870638833542</v>
+        <v>0.00508</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.1739429979680737</v>
+        <v>0.4320222924608445</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>0.09790165988098966</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.2426558095834638</v>
+        <v>0.1489756017869693</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.2924968054601468</v>
+        <v>0.2990165728874674</v>
       </c>
       <c r="Y21" s="2" t="n">
-        <v>0.3206645021645022</v>
+        <v>0.22333</v>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>0.5563981042654029</v>
+        <v>0.06237390719569604</v>
       </c>
       <c r="AA21" s="2" t="n">
-        <v>0.1641223940820444</v>
+        <v>0.23518</v>
       </c>
       <c r="AB21" s="2" t="n">
-        <v>0.7477882434061929</v>
+        <v>0.02703</v>
       </c>
       <c r="AC21" s="2" t="n">
-        <v>0.7644139372682293</v>
+        <v>0.02110798186730912</v>
       </c>
       <c r="AD21" s="2" t="n">
-        <v>0.03694</v>
+        <v>0.8199594649342907</v>
       </c>
       <c r="AE21" s="2" t="n">
-        <v>0.0058</v>
+        <v>0.8371300542205431</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>intfloat/e5-mistral-7b-instruct</t>
+          <t>flaubert/flaubert_large_cased</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.8258035914230101</v>
+        <v>0.2426558095834638</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.64414</v>
+        <v>0.2642955329593683</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.2703784312414779</v>
+        <v>0.1565944995632818</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.8537682572781737</v>
+        <v>0.5413772297820212</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.3774396036145243</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <v>0.6506715922995265</v>
+        <v>0.3206645021645022</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0.3809040459534752</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.7914808164798864</v>
+        <v>0.1739429979680737</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.6982515131136517</v>
+        <v>0.1491870638833542</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.48849</v>
+        <v>0.3460428228637162</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.6008082215984939</v>
+        <v>0.5563981042654029</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.44124</v>
+        <v>0.217556103036172</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0.7435294651132076</v>
+        <v>0.2934677862909658</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>0.6372358432087271</v>
+        <v>0.2467651379532248</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0.756267198771491</v>
+        <v>0.0058</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>0.4441451479416692</v>
-      </c>
-      <c r="Q22" s="3" t="n">
-        <v>0.5813416598329056</v>
+        <v>0.2271687962340282</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>0.009125460760132157</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.83433</v>
+        <v>0.09790165988098966</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0.4532798369950647</v>
-      </c>
-      <c r="T22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" s="3" t="n">
-        <v>1</v>
+        <v>0.4852164892537546</v>
+      </c>
+      <c r="T22" s="2" t="n">
+        <v>0.00263</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>0.4085073955515567</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>0.5298465393047291</v>
+        <v>0.03694</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.8202630754776072</v>
+        <v>0.1871270130969609</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.3120032624874787</v>
+        <v>0.293477014607151</v>
       </c>
       <c r="Y22" s="2" t="n">
-        <v>0.9000952380952382</v>
+        <v>0.01578</v>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>0.7495260663507108</v>
+        <v>0.1641223940820444</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>0.59862138533961</v>
+        <v>0.22446</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>0.9199728356434089</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0.9395017624590254</v>
+        <v>0.06655572532464642</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>0.63403</v>
+        <v>0.7477882434061929</v>
       </c>
       <c r="AE22" s="2" t="n">
-        <v>0.45024</v>
+        <v>0.7644139372682293</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>intfloat/multilingual-e5-base</t>
+          <t>intfloat/e5-mistral-7b-instruct</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.8061987894341297</v>
+        <v>0.8202630754776072</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.5315299999999999</v>
+        <v>0.3774396036145243</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.224815183324348</v>
+        <v>0.8258035914230101</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.8469805121423075</v>
+        <v>0.6008082215984939</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.4790955603113446</v>
+        <v>0.9000952380952382</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.511613591091413</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>0.7622741775011176</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.6648621385339609</v>
+        <v>0.4532798369950647</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.23459</v>
+        <v>0.7914808164798864</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.5693001208081843</v>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>0.40944</v>
+        <v>0.7495260663507108</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0.5813416598329056</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0.666692811769824</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>0.6208902532272975</v>
+        <v>0.3124673740516555</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>0.6506715922995265</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>0.7812983399916396</v>
+        <v>0.45024</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>0.3852856167447359</v>
+        <v>0.6982515131136517</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0.3298420160973169</v>
+        <v>0.8537682572781737</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.8048999999999999</v>
+        <v>0.5298465393047291</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>0.4347744902667021</v>
-      </c>
-      <c r="T23" s="3" t="n">
-        <v>1</v>
+        <v>0.756267198771491</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>0.48849</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.6372358432087271</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>0.5550892577513311</v>
+        <v>0.63403</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.8478546821171312</v>
+        <v>0.4441451479416692</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.3076006060850825</v>
+        <v>0.7435294651132076</v>
       </c>
       <c r="Y23" s="2" t="n">
-        <v>0.8293333333333333</v>
+        <v>0.83433</v>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>0.7969194312796208</v>
+        <v>0.59862138533961</v>
       </c>
       <c r="AA23" s="2" t="n">
-        <v>0.6083389374579691</v>
+        <v>0.44124</v>
       </c>
       <c r="AB23" s="2" t="n">
-        <v>0.9271872509880947</v>
-      </c>
-      <c r="AC23" s="2" t="n">
-        <v>0.9388089167367641</v>
+        <v>0.64414</v>
+      </c>
+      <c r="AC23" s="3" t="n">
+        <v>0.3714783622355678</v>
       </c>
       <c r="AD23" s="2" t="n">
-        <v>0.65813</v>
+        <v>0.9199728356434089</v>
       </c>
       <c r="AE23" s="2" t="n">
-        <v>0.36213</v>
+        <v>0.9395017624590254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>intfloat/multilingual-e5-large</t>
+          <t>intfloat/multilingual-e5-base</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.825331305991469</v>
+        <v>0.8478546821171312</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.59459</v>
+        <v>0.4790955603113446</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.224385340783431</v>
+        <v>0.8061987894341297</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.848343389001009</v>
+        <v>0.5693001208081843</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0.4094051717864892</v>
+        <v>0.8293333333333333</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.3056417709980992</v>
+        <v>0.4347744902667021</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.7877953920342992</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.6814727639542704</v>
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.25198</v>
+        <v>0.7622741775011176</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.5850354286368129</v>
+        <v>0.7969194312796208</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.41906</v>
+        <v>0.3298420160973169</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.6938624729293177</v>
+        <v>0.3085025393421201</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0.6299441060729347</v>
+        <v>0.511613591091413</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0.7959570636221113</v>
+        <v>0.36213</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>0.3764790754795183</v>
+        <v>0.6648621385339609</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0.3226490465285985</v>
+        <v>0.8469805121423075</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.81073</v>
+        <v>0.5550892577513311</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0.4403584780733176</v>
-      </c>
-      <c r="T24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U24" s="3" t="n">
-        <v>1</v>
+        <v>0.7812983399916396</v>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>0.23459</v>
+      </c>
+      <c r="U24" s="2" t="n">
+        <v>0.6208902532272975</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>0.5943000313185093</v>
+        <v>0.65813</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.8640776699029127</v>
+        <v>0.3852856167447359</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.3091960914950717</v>
+        <v>0.666692811769824</v>
       </c>
       <c r="Y24" s="2" t="n">
-        <v>0.8286666666666666</v>
+        <v>0.8048999999999999</v>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>0.7938388625592416</v>
+        <v>0.6083389374579691</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>0.6354741089441829</v>
+        <v>0.40944</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0.938913502641856</v>
+        <v>0.5315299999999999</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0.9484999717971343</v>
+        <v>0.2797665263973637</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>0.66152</v>
+        <v>0.9271872509880947</v>
       </c>
       <c r="AE24" s="2" t="n">
-        <v>0.38155</v>
+        <v>0.9388089167367641</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>intfloat/multilingual-e5-small</t>
+          <t>intfloat/multilingual-e5-large</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.7932089325677624</v>
+        <v>0.8640776699029127</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.51802</v>
+        <v>0.4094051717864892</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1895146766129994</v>
+        <v>0.825331305991469</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.8191820946779194</v>
+        <v>0.5850354286368129</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.4012052586909949</v>
+        <v>0.8286666666666666</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.3922138626257822</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>0.7561918985563969</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.6141896435776732</v>
+        <v>0.4403584780733176</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.22532</v>
+        <v>0.7877953920342992</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.5567655997101544</v>
+        <v>0.7938388625592416</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.39678</v>
+        <v>0.3226490465285985</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0.6527671789828227</v>
+        <v>0.309620638332414</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>0.6088563017856842</v>
+        <v>0.3056417709980992</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>0.7961730402830817</v>
+        <v>0.38155</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>0.3760912295232594</v>
+        <v>0.6814727639542704</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0.3252159090813198</v>
+        <v>0.848343389001009</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.75757</v>
+        <v>0.5943000313185093</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0.4319898481643542</v>
-      </c>
-      <c r="T25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" s="3" t="n">
-        <v>1</v>
+        <v>0.7959570636221113</v>
+      </c>
+      <c r="T25" s="2" t="n">
+        <v>0.25198</v>
+      </c>
+      <c r="U25" s="2" t="n">
+        <v>0.6299441060729347</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>0.4600689007203257</v>
+        <v>0.66152</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.8119636705292829</v>
-      </c>
-      <c r="X25" s="3" t="n">
-        <v>0.3184904693517336</v>
+        <v>0.3764790754795183</v>
+      </c>
+      <c r="X25" s="2" t="n">
+        <v>0.6938624729293177</v>
       </c>
       <c r="Y25" s="2" t="n">
-        <v>0.8181666666666665</v>
+        <v>0.81073</v>
       </c>
       <c r="Z25" s="2" t="n">
-        <v>0.7765402843601896</v>
+        <v>0.6354741089441829</v>
       </c>
       <c r="AA25" s="2" t="n">
-        <v>0.5596839273705447</v>
+        <v>0.41906</v>
       </c>
       <c r="AB25" s="2" t="n">
-        <v>0.9251631850374396</v>
+        <v>0.59459</v>
       </c>
       <c r="AC25" s="2" t="n">
-        <v>0.9361314066710414</v>
+        <v>0.2774672118720068</v>
       </c>
       <c r="AD25" s="2" t="n">
-        <v>0.57468</v>
+        <v>0.938913502641856</v>
       </c>
       <c r="AE25" s="2" t="n">
-        <v>0.27011</v>
+        <v>0.9484999717971343</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>izhx/udever-bloom-1b1</t>
+          <t>intfloat/multilingual-e5-small</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.4997294509449677</v>
+        <v>0.8119636705292829</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.32432</v>
+        <v>0.4012052586909949</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1386308009277809</v>
+        <v>0.7932089325677624</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.02960398393820522</v>
+        <v>0.5567655997101544</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>0.4020146637093098</v>
+        <v>0.8181666666666665</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.2734727715023461</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0.5994249043712252</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.4978143913920645</v>
+        <v>0.4319898481643542</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02784</v>
+        <v>0.7561918985563969</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.6199445797185625</v>
+        <v>0.7765402843601896</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.35122</v>
+        <v>0.3252159090813198</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0.3861486557235695</v>
+        <v>0.3163066081340647</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0.6222399442609416</v>
+        <v>0.3922138626257822</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0.7710422175271007</v>
+        <v>0.27011</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>0.3046596247823246</v>
+        <v>0.6141896435776732</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0.2705660566063521</v>
+        <v>0.8191820946779194</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.40572</v>
+        <v>0.4600689007203257</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0.4411463190530258</v>
+        <v>0.7961730402830817</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>0.7507920742612434</v>
+        <v>0.22532</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.7753324186122581</v>
+        <v>0.6088563017856842</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>0.5124960851863452</v>
+        <v>0.57468</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.6924209207641716</v>
+        <v>0.3760912295232594</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.2947773908643301</v>
+        <v>0.6527671789828227</v>
       </c>
       <c r="Y26" s="2" t="n">
-        <v>0.4799292929292929</v>
+        <v>0.75757</v>
       </c>
       <c r="Z26" s="2" t="n">
-        <v>0.8082938388625592</v>
+        <v>0.5596839273705447</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>0.4321116341627437</v>
+        <v>0.39678</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>0.8553994259572022</v>
+        <v>0.51802</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0.8699512931793678</v>
+        <v>0.207871943996032</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>0.33816</v>
+        <v>0.9251631850374396</v>
       </c>
       <c r="AE26" s="2" t="n">
-        <v>0.12368</v>
+        <v>0.9361314066710414</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>izhx/udever-bloom-560m</t>
+          <t>izhx/udever-bloom-1b1</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.367797062871304</v>
+        <v>0.6924209207641716</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.06306</v>
+        <v>0.4020146637093098</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.07676232398725595</v>
+        <v>0.4997294509449677</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.08123300931367383</v>
+        <v>0.6199445797185625</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>0.3756989794785178</v>
+        <v>0.4799292929292929</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>0.2057636370254607</v>
+        <v>0.4411463190530258</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.5454151151439361</v>
+        <v>0.7753324186122581</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2167451244115669</v>
+        <v>0.7507920742612434</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.00478</v>
+        <v>0.5994249043712252</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.5968876661366747</v>
+        <v>0.8082938388625592</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.2685</v>
+        <v>0.2705660566063521</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0.3071196838846439</v>
+        <v>0.2948271390028477</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>0.5356669323782933</v>
+        <v>0.2734727715023461</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>0.6134778039151253</v>
+        <v>0.12368</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>0.252602955617548</v>
+        <v>0.4978143913920645</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0.2213080649584274</v>
+        <v>0.02960398393820522</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.24447</v>
+        <v>0.5124960851863452</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0.3643378561194323</v>
+        <v>0.7710422175271007</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>0.4982878074063394</v>
+        <v>0.02784</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.3735697737011764</v>
+        <v>0.6222399442609416</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>0.1575634199812089</v>
+        <v>0.33816</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.3498590667084247</v>
+        <v>0.3046596247823246</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.236335996838468</v>
+        <v>0.3861486557235695</v>
       </c>
       <c r="Y27" s="2" t="n">
-        <v>0.4720992063492064</v>
+        <v>0.40572</v>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>0.6793838862559242</v>
+        <v>0.4321116341627437</v>
       </c>
       <c r="AA27" s="2" t="n">
-        <v>0.1509078681909886</v>
+        <v>0.35122</v>
       </c>
       <c r="AB27" s="2" t="n">
-        <v>0.821028497835868</v>
+        <v>0.32432</v>
       </c>
       <c r="AC27" s="2" t="n">
-        <v>0.8387532049805303</v>
+        <v>0.1632465746354957</v>
       </c>
       <c r="AD27" s="2" t="n">
-        <v>0.12977</v>
+        <v>0.8553994259572022</v>
       </c>
       <c r="AE27" s="2" t="n">
-        <v>0.01977</v>
+        <v>0.8699512931793678</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>laser2</t>
+          <t>izhx/udever-bloom-560m</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.698190921587828</v>
+        <v>0.3498590667084247</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.08108</v>
+        <v>0.3756989794785178</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.1152462522943653</v>
+        <v>0.367797062871304</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.8592414264387124</v>
+        <v>0.5968876661366747</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0.3204069399698778</v>
+        <v>0.4720992063492064</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.2977201517756452</v>
+        <v>0.3643378561194323</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.6495173425879137</v>
+        <v>0.3735697737011764</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.5855749831876261</v>
+        <v>0.4982878074063394</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.06314</v>
-      </c>
-      <c r="K28" s="3" t="n">
-        <v>0.6952503411108341</v>
+        <v>0.5454151151439361</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>0.6793838862559242</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.3389</v>
+        <v>0.2213080649584274</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0.3949722119087398</v>
+        <v>0.2352421430265289</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>0.4844987065316271</v>
+        <v>0.2057636370254607</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0.6526537801367611</v>
+        <v>0.01977</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>0.2734632035175874</v>
+        <v>0.2167451244115669</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0.2581005978931367</v>
+        <v>0.08123300931367383</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.28578</v>
+        <v>0.1575634199812089</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>0.3452771955734939</v>
-      </c>
-      <c r="T28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" s="3" t="n">
-        <v>1</v>
+        <v>0.6134778039151253</v>
+      </c>
+      <c r="T28" s="2" t="n">
+        <v>0.00478</v>
+      </c>
+      <c r="U28" s="2" t="n">
+        <v>0.5356669323782933</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>0.5677106169746321</v>
+        <v>0.12977</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.7615408706545569</v>
+        <v>0.252602955617548</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.3156475744412745</v>
+        <v>0.3071196838846439</v>
       </c>
       <c r="Y28" s="2" t="n">
-        <v>0.4901031746031747</v>
+        <v>0.24447</v>
       </c>
       <c r="Z28" s="2" t="n">
-        <v>0.659004739336493</v>
+        <v>0.1509078681909886</v>
       </c>
       <c r="AA28" s="2" t="n">
-        <v>0.5255548083389374</v>
+        <v>0.2685</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>0.9376676402095003</v>
+        <v>0.06306</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0.9461924042044693</v>
+        <v>0.08379076469905847</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>0.42589</v>
+        <v>0.821028497835868</v>
       </c>
       <c r="AE28" s="2" t="n">
-        <v>0.03097</v>
+        <v>0.8387532049805303</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>manu/bge-m3-custom-fr</t>
+          <t>laser2</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.8130363449669112</v>
+        <v>0.7615408706545569</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.5315299999999999</v>
+        <v>0.3204069399698778</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.2426017909651959</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>0.8278011992260426</v>
+        <v>0.698190921587828</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.6952503411108341</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0.292272082926912</v>
+        <v>0.4901031746031747</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.4157909770352988</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>0.7550779819674533</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.7456960322797579</v>
+        <v>0.3452771955734939</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.25173</v>
+        <v>0.6495173425879137</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>0.6094421871363481</v>
+        <v>0.659004739336493</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0.42324</v>
+        <v>0.2581005978931367</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>0.7368891701668482</v>
+        <v>0.3147839211842597</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>0.5757878622622551</v>
+        <v>0.2977201517756452</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>0.8190001119887127</v>
+        <v>0.03097</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>0.4243781497829743</v>
+        <v>0.5855749831876261</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0.3944229454079622</v>
+        <v>0.8592414264387124</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.79145</v>
+        <v>0.5677106169746321</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>0.4214163246845126</v>
+        <v>0.6526537801367611</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>0.9986626546305583</v>
-      </c>
-      <c r="U29" s="3" t="n">
-        <v>1</v>
+        <v>0.06314</v>
+      </c>
+      <c r="U29" s="2" t="n">
+        <v>0.4844987065316271</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>0.6082054494206075</v>
+        <v>0.42589</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.903883495145631</v>
+        <v>0.2734632035175874</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.3005908023438207</v>
+        <v>0.3949722119087398</v>
       </c>
       <c r="Y29" s="2" t="n">
-        <v>0.845873015873016</v>
+        <v>0.28578</v>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>0.7023696682464454</v>
+        <v>0.5255548083389374</v>
       </c>
       <c r="AA29" s="2" t="n">
-        <v>0.6669468728984532</v>
+        <v>0.3389</v>
       </c>
       <c r="AB29" s="2" t="n">
-        <v>0.9333973385767004</v>
+        <v>0.08108</v>
       </c>
       <c r="AC29" s="2" t="n">
-        <v>0.944701727209905</v>
+        <v>0.119521921967448</v>
       </c>
       <c r="AD29" s="2" t="n">
-        <v>0.68492</v>
+        <v>0.9376676402095003</v>
       </c>
       <c r="AE29" s="2" t="n">
-        <v>0.44746</v>
+        <v>0.9461924042044693</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>manu/sentence_croissant_alpha_v0.2</t>
+          <t>manu/bge-m3-custom-fr</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.7262832939213406</v>
+        <v>0.903883495145631</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.6036</v>
+        <v>0.292272082926912</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.2548325975781052</v>
+        <v>0.8130363449669112</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.7490244473049233</v>
+        <v>0.6094421871363481</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>0.5574960450682011</v>
+        <v>0.845873015873016</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.3227666866562461</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>0.6912509283105648</v>
+        <v>0.4214163246845126</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.7008406186953597</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.26351</v>
+        <v>0.7550779819674533</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0.668665650886613</v>
+        <v>0.7023696682464454</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.38106</v>
+        <v>0.3944229454079622</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>0.7196818323283877</v>
+        <v>0.3005334974874609</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>0.6224457184731559</v>
+        <v>0.4157909770352988</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0.792794943790982</v>
+        <v>0.44746</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>0.4438422214552257</v>
+        <v>0.7456960322797579</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0.3796537550876475</v>
+        <v>0.8278011992260426</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.7870200000000001</v>
+        <v>0.6082054494206075</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0.4460491760281284</v>
+        <v>0.8190001119887127</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.25173</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.5757878622622551</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>0.6147823363607892</v>
+        <v>0.68492</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.885812715314751</v>
+        <v>0.4243781497829743</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.2963260674606215</v>
+        <v>0.7368891701668482</v>
       </c>
       <c r="Y30" s="2" t="n">
-        <v>0.8224285714285715</v>
+        <v>0.79145</v>
       </c>
       <c r="Z30" s="2" t="n">
-        <v>0.7552132701421801</v>
+        <v>0.6669468728984532</v>
       </c>
       <c r="AA30" s="2" t="n">
-        <v>0.6383658372562205</v>
+        <v>0.42324</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>0.9315589224053143</v>
+        <v>0.5315299999999999</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0.93299242831188</v>
+        <v>0.3071434643691057</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>0.61914</v>
+        <v>0.9333973385767004</v>
       </c>
       <c r="AE30" s="2" t="n">
-        <v>0.45487</v>
+        <v>0.944701727209905</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>manu/sentence_croissant_alpha_v0.3</t>
+          <t>manu/sentence_croissant_alpha_v0.2</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.7765803549830591</v>
+        <v>0.885812715314751</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.65766</v>
+        <v>0.5574960450682011</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.2632047044833564</v>
+        <v>0.7262832939213406</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.7737718097451919</v>
+        <v>0.668665650886613</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>0.5799405225219099</v>
+        <v>0.8224285714285715</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.3769405326971794</v>
+        <v>0.4460491760281284</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.719770122605619</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.6986550100874244</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.2965</v>
+        <v>0.6912509283105648</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.6542042805601268</v>
+        <v>0.7552132701421801</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.3631</v>
+        <v>0.3796537550876475</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0.7364325943253973</v>
+        <v>0.3000058099243242</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>0.6049889083017318</v>
+        <v>0.3227666866562461</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>0.8133791809403829</v>
+        <v>0.45487</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>0.4381914693719002</v>
+        <v>0.7008406186953597</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0.4058550987695524</v>
+        <v>0.7490244473049233</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.8033</v>
+        <v>0.6147823363607892</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0.4422111049954497</v>
+        <v>0.792794943790982</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.26351</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.6224457184731559</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>0.592890698402756</v>
+        <v>0.61914</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.8825555903538993</v>
+        <v>0.4438422214552257</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.3099183622495067</v>
+        <v>0.7196818323283877</v>
       </c>
       <c r="Y31" s="2" t="n">
-        <v>0.8217023809523809</v>
+        <v>0.7870200000000001</v>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>0.75781990521327</v>
+        <v>0.6383658372562205</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>0.6489240080699393</v>
+        <v>0.38106</v>
       </c>
       <c r="AB31" s="2" t="n">
-        <v>0.9346759444633187</v>
+        <v>0.6036</v>
       </c>
       <c r="AC31" s="2" t="n">
-        <v>0.9401873666553365</v>
+        <v>0.3330566761940467</v>
       </c>
       <c r="AD31" s="2" t="n">
-        <v>0.64217</v>
+        <v>0.9315589224053143</v>
       </c>
       <c r="AE31" s="2" t="n">
-        <v>0.49088</v>
+        <v>0.93299242831188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>mistral-embed</t>
+          <t>manu/sentence_croissant_alpha_v0.3</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.7972225305052291</v>
+        <v>0.8825555903538993</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.6756799999999999</v>
+        <v>0.5799405225219099</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.2617385576460144</v>
+        <v>0.7765803549830591</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.7486276019358121</v>
+        <v>0.6542042805601268</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>0.4812513474674608</v>
+        <v>0.8217023809523809</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>0.3961706213267493</v>
+        <v>0.4422111049954497</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.7621241859440422</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.6971418964357767</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.21732</v>
+        <v>0.719770122605619</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.6202390909948808</v>
+        <v>0.75781990521327</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.41594</v>
+        <v>0.4058550987695524</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.7796140728300852</v>
+        <v>0.307881108524684</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>0.6200673531656187</v>
+        <v>0.3769405326971794</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0.8274398153558601</v>
+        <v>0.49088</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>0.427376128032198</v>
+        <v>0.6986550100874244</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0.4919858181804794</v>
+        <v>0.7737718097451919</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.7877</v>
+        <v>0.592890698402756</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>0.4527933950642883</v>
-      </c>
-      <c r="T32" s="3" t="n">
-        <v>1</v>
+        <v>0.8133791809403829</v>
+      </c>
+      <c r="T32" s="2" t="n">
+        <v>0.2965</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.6049889083017318</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>0.6608831819605385</v>
+        <v>0.64217</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9005010961478235</v>
+        <v>0.4381914693719002</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.3146953192338591</v>
+        <v>0.7364325943253973</v>
       </c>
       <c r="Y32" s="2" t="n">
-        <v>0.8122619047619049</v>
+        <v>0.8033</v>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>0.8139810426540285</v>
+        <v>0.6489240080699393</v>
       </c>
       <c r="AA32" s="2" t="n">
-        <v>0.6283120376597177</v>
+        <v>0.3631</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>0.9261462822985623</v>
+        <v>0.65766</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0.9390344015481578</v>
+        <v>0.3502355102897413</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>0.74235</v>
+        <v>0.9346759444633187</v>
       </c>
       <c r="AE32" s="2" t="n">
-        <v>0.56836</v>
+        <v>0.9401873666553365</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/LaBSE</t>
+          <t>mistral-embed</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.7509746606428888</v>
+        <v>0.9005010961478235</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.22973</v>
+        <v>0.4812513474674608</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.2061928108108767</v>
+        <v>0.7972225305052291</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.8754400001529438</v>
+        <v>0.6202390909948808</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>0.4615982853044859</v>
+        <v>0.8122619047619049</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0.3813297329222706</v>
+        <v>0.4527933950642883</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.699399693283394</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0.6510423671822462</v>
+        <v>0.9973253092611166</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.15529</v>
+        <v>0.7621241859440422</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.5463098409665733</v>
+        <v>0.8139810426540285</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.3852399999999999</v>
+        <v>0.4919858181804794</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.5537476614602802</v>
+        <v>0.3132209274517802</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>0.5478373637265357</v>
+        <v>0.3961706213267493</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0.779542837388368</v>
+        <v>0.56836</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>0.348364243914043</v>
+        <v>0.6971418964357767</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0.316037738871091</v>
+        <v>0.7486276019358121</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.55315</v>
+        <v>0.6608831819605385</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0.4209325634914144</v>
-      </c>
-      <c r="T33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U33" s="3" t="n">
-        <v>1</v>
+        <v>0.8274398153558601</v>
+      </c>
+      <c r="T33" s="2" t="n">
+        <v>0.21732</v>
+      </c>
+      <c r="U33" s="2" t="n">
+        <v>0.6200673531656187</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>0.6201064829314126</v>
+        <v>0.74235</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.8413717507046664</v>
+        <v>0.427376128032198</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.301637456328485</v>
+        <v>0.7796140728300852</v>
       </c>
       <c r="Y33" s="2" t="n">
-        <v>0.6762063492063493</v>
+        <v>0.7877</v>
       </c>
       <c r="Z33" s="2" t="n">
-        <v>0.7739336492890996</v>
+        <v>0.6283120376597177</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>0.6046738399462004</v>
+        <v>0.41594</v>
       </c>
       <c r="AB33" s="2" t="n">
-        <v>0.9395623291640002</v>
+        <v>0.6756799999999999</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>0.9441484444599348</v>
+        <v>0.3462581979003524</v>
       </c>
       <c r="AD33" s="2" t="n">
-        <v>0.51736</v>
+        <v>0.9261462822985623</v>
       </c>
       <c r="AE33" s="2" t="n">
-        <v>0.19775</v>
+        <v>0.9390344015481578</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-MiniLM-L12-v2</t>
+          <t>sentence-transformers/LaBSE</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.6667725575200975</v>
+        <v>0.8413717507046664</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.34234</v>
+        <v>0.4615982853044859</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.1957951528987704</v>
+        <v>0.7509746606428888</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.096967565885423</v>
+        <v>0.5463098409665733</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.4271872726070847</v>
+        <v>0.6762063492063493</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>0.3246835377100011</v>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>0.6316238159087848</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.537626092804304</v>
+        <v>0.4209325634914144</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.16079</v>
+        <v>0.699399693283394</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.5552853885736202</v>
+        <v>0.7739336492890996</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.2754</v>
+        <v>0.316037738871091</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0.6701369640322303</v>
+        <v>0.3030742538946646</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>0.4602594872664162</v>
+        <v>0.3813297329222706</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0.6951402658537921</v>
+        <v>0.19775</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>0.2929559187477989</v>
+        <v>0.6510423671822462</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0.3182943689925971</v>
+        <v>0.8754400001529438</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.608</v>
+        <v>0.6201064829314126</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0.3435218323840786</v>
+        <v>0.779542837388368</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>0.7091264534343772</v>
+        <v>0.15529</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.6191113021604495</v>
+        <v>0.5478373637265357</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>0.3893830253679925</v>
+        <v>0.51736</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.7559348575007829</v>
+        <v>0.348364243914043</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.2662863565868236</v>
+        <v>0.5537476614602802</v>
       </c>
       <c r="Y34" s="2" t="n">
-        <v>0.6917023809523809</v>
+        <v>0.55315</v>
       </c>
       <c r="Z34" s="2" t="n">
-        <v>0.7220379146919431</v>
+        <v>0.6046738399462004</v>
       </c>
       <c r="AA34" s="2" t="n">
-        <v>0.4481506388702085</v>
+        <v>0.3852399999999999</v>
       </c>
       <c r="AB34" s="2" t="n">
-        <v>0.8734880754144339</v>
+        <v>0.22973</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0.8779525332075913</v>
+        <v>0.2536257073353338</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>0.55899</v>
+        <v>0.9395623291640002</v>
       </c>
       <c r="AE34" s="2" t="n">
-        <v>0.33196</v>
+        <v>0.9441484444599348</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/all-MiniLM-L6-v2</t>
+          <t>sentence-transformers/all-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.6493028232792631</v>
+        <v>0.7559348575007829</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.27477</v>
+        <v>0.4271872726070847</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.1884080354213321</v>
+        <v>0.6667725575200975</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.03498878152491112</v>
+        <v>0.5552853885736202</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>0.3492044210457986</v>
+        <v>0.6917023809523809</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>0.4057681708831091</v>
+        <v>0.3435218323840786</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.6248225654609475</v>
+        <v>0.6191113021604495</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.5115669132481506</v>
+        <v>0.7091264534343772</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.09195</v>
+        <v>0.6316238159087848</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0.5539810428438392</v>
+        <v>0.7220379146919431</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.2689800000000001</v>
+        <v>0.3182943689925971</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0.6262172640988071</v>
+        <v>0.2658929931264655</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>0.5183078853752063</v>
+        <v>0.3246835377100011</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0.7700398643056744</v>
+        <v>0.33196</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>0.2811790550911384</v>
+        <v>0.537626092804304</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0.3206588333216591</v>
+        <v>0.096967565885423</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.60148</v>
+        <v>0.3893830253679925</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>0.3673575599443643</v>
+        <v>0.6951402658537921</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>0.6231354410624419</v>
+        <v>0.16079</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.564793587110538</v>
+        <v>0.4602594872664162</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>0.3965236454744754</v>
+        <v>0.55899</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.7508299404948324</v>
+        <v>0.2929559187477989</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>0.2828180757815488</v>
+        <v>0.6701369640322303</v>
       </c>
       <c r="Y35" s="2" t="n">
-        <v>0.6730793650793651</v>
+        <v>0.608</v>
       </c>
       <c r="Z35" s="2" t="n">
-        <v>0.740521327014218</v>
+        <v>0.4481506388702085</v>
       </c>
       <c r="AA35" s="2" t="n">
-        <v>0.4263954270342972</v>
+        <v>0.2754</v>
       </c>
       <c r="AB35" s="2" t="n">
-        <v>0.8652704370552743</v>
+        <v>0.34234</v>
       </c>
       <c r="AC35" s="2" t="n">
-        <v>0.8759124475461358</v>
+        <v>0.2475983648615359</v>
       </c>
       <c r="AD35" s="2" t="n">
-        <v>0.51786</v>
+        <v>0.8734880754144339</v>
       </c>
       <c r="AE35" s="2" t="n">
-        <v>0.28413</v>
+        <v>0.8779525332075913</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.7748827876122101</v>
+        <v>0.7508299404948324</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.28829</v>
+        <v>0.3492044210457986</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.1820092523936601</v>
+        <v>0.6493028232792631</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.8327728076127141</v>
+        <v>0.5539810428438392</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>0.5376154899329338</v>
+        <v>0.6730793650793651</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>0.3276276082145452</v>
+        <v>0.3673575599443643</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.7249442911000451</v>
+        <v>0.564793587110538</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.6738735709482178</v>
+        <v>0.6231354410624419</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.22545</v>
+        <v>0.6248225654609475</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>0.5107538398683125</v>
+        <v>0.740521327014218</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.35764</v>
+        <v>0.3206588333216591</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>0.6237756079207663</v>
+        <v>0.2816802118035422</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>0.5595373948625354</v>
+        <v>0.4057681708831091</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>0.7641254265129491</v>
+        <v>0.28413</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>0.3464793188683687</v>
+        <v>0.5115669132481506</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0.3538541904887588</v>
+        <v>0.03498878152491112</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.65338</v>
+        <v>0.3965236454744754</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>0.4017045078734119</v>
-      </c>
-      <c r="T36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U36" s="3" t="n">
-        <v>1</v>
+        <v>0.7700398643056744</v>
+      </c>
+      <c r="T36" s="2" t="n">
+        <v>0.09195</v>
+      </c>
+      <c r="U36" s="2" t="n">
+        <v>0.5183078853752063</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>0.5610710930159725</v>
+        <v>0.51786</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.8498277481991858</v>
+        <v>0.2811790550911384</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.2812111546255657</v>
+        <v>0.6262172640988071</v>
       </c>
       <c r="Y36" s="2" t="n">
-        <v>0.7463571428571428</v>
+        <v>0.60148</v>
       </c>
       <c r="Z36" s="2" t="n">
-        <v>0.7687203791469195</v>
+        <v>0.4263954270342972</v>
       </c>
       <c r="AA36" s="2" t="n">
-        <v>0.598285137861466</v>
+        <v>0.2689800000000001</v>
       </c>
       <c r="AB36" s="2" t="n">
-        <v>0.9207498432598107</v>
+        <v>0.27477</v>
       </c>
       <c r="AC36" s="2" t="n">
-        <v>0.9374506536091047</v>
+        <v>0.2318414161912387</v>
       </c>
       <c r="AD36" s="2" t="n">
-        <v>0.51196</v>
+        <v>0.8652704370552743</v>
       </c>
       <c r="AE36" s="2" t="n">
-        <v>0.26994</v>
+        <v>0.8759124475461358</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
+          <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.6384700996869166</v>
+        <v>0.8498277481991858</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.2973</v>
+        <v>0.5376154899329338</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.124913841593586</v>
+        <v>0.7748827876122101</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.08784505319023178</v>
+        <v>0.5107538398683125</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>0.5372744669883476</v>
+        <v>0.7463571428571428</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.2726838058131417</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0.6210588256655486</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.499226630800269</v>
+        <v>0.4017045078734119</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.16312</v>
+        <v>0.7249442911000451</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.5736104900905769</v>
+        <v>0.7687203791469195</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.27046</v>
+        <v>0.3538541904887588</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>0.6295365014472553</v>
+        <v>0.281681307328504</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>0.4913194595542176</v>
+        <v>0.3276276082145452</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0.7461882879262099</v>
+        <v>0.26994</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>0.2595314882250714</v>
+        <v>0.6738735709482178</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0.2615924058641751</v>
+        <v>0.8327728076127141</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.58073</v>
+        <v>0.5610710930159725</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>0.3514684027308759</v>
+        <v>0.7641254265129491</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>0.5537365949388782</v>
+        <v>0.22545</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.5046345385362436</v>
+        <v>0.5595373948625354</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>0.3718446601941748</v>
+        <v>0.51196</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.7296899467585343</v>
+        <v>0.3464793188683687</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.2759064320988224</v>
+        <v>0.6237756079207663</v>
       </c>
       <c r="Y37" s="2" t="n">
-        <v>0.6505281385281385</v>
+        <v>0.65338</v>
       </c>
       <c r="Z37" s="2" t="n">
-        <v>0.7561611374407583</v>
+        <v>0.598285137861466</v>
       </c>
       <c r="AA37" s="2" t="n">
-        <v>0.4264290517821117</v>
+        <v>0.35764</v>
       </c>
       <c r="AB37" s="2" t="n">
-        <v>0.8806670648536865</v>
+        <v>0.28829</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0.8776887387170348</v>
+        <v>0.2187405625185021</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>0.48832</v>
+        <v>0.9207498432598107</v>
       </c>
       <c r="AE37" s="2" t="n">
-        <v>0.30229</v>
+        <v>0.9374506536091047</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
+          <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.7989821675921884</v>
+        <v>0.7296899467585343</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.37838</v>
+        <v>0.5372744669883476</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.2320666181560827</v>
+        <v>0.6384700996869166</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.7772438859983376</v>
+        <v>0.5736104900905769</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>0.3657831649774737</v>
+        <v>0.6505281385281385</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0.3389979666918544</v>
+        <v>0.3514684027308759</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.75102380757868</v>
+        <v>0.5046345385362436</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.6451916610625421</v>
+        <v>0.5537365949388782</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.21535</v>
+        <v>0.6210588256655486</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0.5694456712082714</v>
+        <v>0.7561611374407583</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.36758</v>
+        <v>0.2615924058641751</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0.6242438219619088</v>
+        <v>0.2755407702680553</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>0.5606489195760765</v>
+        <v>0.2726838058131417</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>0.7054517669493489</v>
+        <v>0.30229</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>0.3654820279096755</v>
+        <v>0.499226630800269</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0.4215818771542176</v>
+        <v>0.08784505319023178</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.65543</v>
+        <v>0.3718446601941748</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>0.3997152802677553</v>
+        <v>0.7461882879262099</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.16312</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.995987963891675</v>
+        <v>0.4913194595542176</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>0.4793611024115252</v>
+        <v>0.48832</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.7769808957093642</v>
+        <v>0.2595314882250714</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>0.2919931043966207</v>
+        <v>0.6295365014472553</v>
       </c>
       <c r="Y38" s="2" t="n">
-        <v>0.7250396825396825</v>
+        <v>0.58073</v>
       </c>
       <c r="Z38" s="2" t="n">
-        <v>0.7609004739336493</v>
+        <v>0.4264290517821117</v>
       </c>
       <c r="AA38" s="2" t="n">
-        <v>0.5751513113651648</v>
+        <v>0.27046</v>
       </c>
       <c r="AB38" s="2" t="n">
-        <v>0.9200522043693091</v>
+        <v>0.2973</v>
       </c>
       <c r="AC38" s="2" t="n">
-        <v>0.9414470609254002</v>
+        <v>0.1442662572115109</v>
       </c>
       <c r="AD38" s="2" t="n">
-        <v>0.42511</v>
+        <v>0.8806670648536865</v>
       </c>
       <c r="AE38" s="2" t="n">
-        <v>0.26634</v>
+        <v>0.8776887387170348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
+          <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.8469135860099118</v>
+        <v>0.7769808957093642</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.42793</v>
+        <v>0.3657831649774737</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.239677482639205</v>
+        <v>0.7989821675921884</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.8067461852300057</v>
+        <v>0.5694456712082714</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>0.41569311482541</v>
+        <v>0.7250396825396825</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.3087579159546582</v>
+        <v>0.3997152802677553</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.755583681044677</v>
+        <v>0.995987963891675</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.678950907868191</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.24454</v>
+        <v>0.75102380757868</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.5814276884080426</v>
+        <v>0.7609004739336493</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.40138</v>
+        <v>0.4215818771542176</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0.6720432168620495</v>
+        <v>0.290182711032168</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>0.5449402070854203</v>
+        <v>0.3389979666918544</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0.7430483195474878</v>
+        <v>0.26634</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>0.3753003494348933</v>
+        <v>0.6451916610625421</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0.4478667196341167</v>
+        <v>0.7772438859983376</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.75998</v>
+        <v>0.4793611024115252</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>0.4055377595140954</v>
+        <v>0.7054517669493489</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>0.9986626546305584</v>
-      </c>
-      <c r="U39" s="3" t="n">
-        <v>1</v>
+        <v>0.21535</v>
+      </c>
+      <c r="U39" s="2" t="n">
+        <v>0.5606489195760765</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>0.5203570310053242</v>
+        <v>0.42511</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.8029126213592234</v>
+        <v>0.3654820279096755</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>0.2946828386641493</v>
+        <v>0.6242438219619088</v>
       </c>
       <c r="Y39" s="2" t="n">
-        <v>0.8096666666666666</v>
+        <v>0.65543</v>
       </c>
       <c r="Z39" s="2" t="n">
-        <v>0.7810426540284359</v>
+        <v>0.5751513113651648</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>0.6187962340282447</v>
+        <v>0.36758</v>
       </c>
       <c r="AB39" s="2" t="n">
-        <v>0.9345353677987358</v>
+        <v>0.37838</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0.9530638045019797</v>
+        <v>0.2952205755713568</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>0.46221</v>
+        <v>0.9200522043693091</v>
       </c>
       <c r="AE39" s="2" t="n">
-        <v>0.30799</v>
+        <v>0.9414470609254002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-base</t>
+          <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.7404061698113868</v>
+        <v>0.8029126213592234</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.3964</v>
+        <v>0.41569311482541</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.1771709655357738</v>
+        <v>0.8469135860099118</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.551313531869022</v>
+        <v>0.5814276884080426</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>0.6190485205190622</v>
+        <v>0.8096666666666666</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>0.3564262992341879</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>0.7173634724227647</v>
+        <v>0.4055377595140954</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.5991930060524545</v>
+        <v>0.9986626546305584</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.2104</v>
+        <v>0.755583681044677</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.5535169602026141</v>
+        <v>0.7810426540284359</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.3735</v>
+        <v>0.4478667196341167</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0.6322134288038879</v>
+        <v>0.2958065201100799</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>0.5844150763298186</v>
+        <v>0.3087579159546582</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>0.7768846630995027</v>
+        <v>0.30799</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>0.3006026181192261</v>
+        <v>0.678950907868191</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0.3593354716276945</v>
+        <v>0.8067461852300057</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.66999</v>
+        <v>0.5203570310053242</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>0.4076920517896694</v>
+        <v>0.7430483195474878</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>0.9735874289535272</v>
+        <v>0.24454</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.9615513206285523</v>
+        <v>0.5449402070854203</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>0.4384591293454432</v>
+        <v>0.46221</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.7502975258377701</v>
+        <v>0.3753003494348933</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>0.3000911423350935</v>
+        <v>0.6720432168620495</v>
       </c>
       <c r="Y40" s="2" t="n">
-        <v>0.758845238095238</v>
+        <v>0.75998</v>
       </c>
       <c r="Z40" s="2" t="n">
-        <v>0.812085308056872</v>
+        <v>0.6187962340282447</v>
       </c>
       <c r="AA40" s="2" t="n">
-        <v>0.5113315400134499</v>
+        <v>0.40138</v>
       </c>
       <c r="AB40" s="2" t="n">
-        <v>0.8939826485982256</v>
+        <v>0.42793</v>
       </c>
       <c r="AC40" s="2" t="n">
-        <v>0.9004953622645687</v>
+        <v>0.3130058815827937</v>
       </c>
       <c r="AD40" s="2" t="n">
-        <v>0.45191</v>
+        <v>0.9345353677987358</v>
       </c>
       <c r="AE40" s="2" t="n">
-        <v>0.27523</v>
+        <v>0.9530638045019797</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-large</t>
+          <t>sentence-transformers/sentence-t5-base</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.7759236947905355</v>
+        <v>0.7502975258377701</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.46847</v>
+        <v>0.6190485205190622</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.1873235586707495</v>
+        <v>0.7404061698113868</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.7109667114459385</v>
+        <v>0.5535169602026141</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>0.585985794265385</v>
+        <v>0.758845238095238</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>0.3133479963331417</v>
+        <v>0.4076920517896694</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.7282743267188198</v>
+        <v>0.9615513206285523</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.6360121049092132</v>
+        <v>0.9735874289535272</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.23918</v>
+        <v>0.7173634724227647</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0.5958684223229149</v>
+        <v>0.812085308056872</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.4147999999999999</v>
+        <v>0.3593354716276945</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>0.6754584284213152</v>
+        <v>0.2988136858698119</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>0.6182277140780882</v>
+        <v>0.3564262992341879</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0.750086943549879</v>
+        <v>0.27523</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>0.3186940328271737</v>
+        <v>0.5991930060524545</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0.3977568234064501</v>
+        <v>0.551313531869022</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.71053</v>
+        <v>0.4384591293454432</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>0.4207261111658658</v>
+        <v>0.7768846630995027</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.2104</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.9866265463055833</v>
+        <v>0.5844150763298186</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>0.4772940808017538</v>
+        <v>0.45191</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.795959912308174</v>
+        <v>0.3006026181192261</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>0.3022765637412754</v>
+        <v>0.6322134288038879</v>
       </c>
       <c r="Y41" s="2" t="n">
-        <v>0.782813492063492</v>
+        <v>0.66999</v>
       </c>
       <c r="Z41" s="2" t="n">
-        <v>0.8042654028436018</v>
+        <v>0.5113315400134499</v>
       </c>
       <c r="AA41" s="2" t="n">
-        <v>0.5701412239408203</v>
+        <v>0.3735</v>
       </c>
       <c r="AB41" s="2" t="n">
-        <v>0.911862793751712</v>
+        <v>0.3964</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0.9186413027481362</v>
+        <v>0.2248151593145149</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>0.48792</v>
+        <v>0.8939826485982256</v>
       </c>
       <c r="AE41" s="2" t="n">
-        <v>0.34518</v>
+        <v>0.9004953622645687</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-xl</t>
+          <t>sentence-transformers/sentence-t5-large</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.794154396398088</v>
+        <v>0.795959912308174</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.5</v>
+        <v>0.585985794265385</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.2027889302653955</v>
+        <v>0.7759236947905355</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.7586314484331536</v>
+        <v>0.5958684223229149</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>0.6282235512125198</v>
+        <v>0.782813492063492</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.3173861927815954</v>
+        <v>0.4207261111658658</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.7508041932935345</v>
+        <v>0.9866265463055833</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.6641560188298588</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.31539</v>
+        <v>0.7282743267188198</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.6252251289274147</v>
+        <v>0.8042654028436018</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.43516</v>
+        <v>0.3977568234064501</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>0.711535861715982</v>
+        <v>0.3021704644764397</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>0.6037247542497267</v>
+        <v>0.3133479963331417</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>0.7749353352876681</v>
+        <v>0.34518</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>0.3360365488455902</v>
+        <v>0.6360121049092132</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0.4076035180401736</v>
+        <v>0.7109667114459385</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.74237</v>
+        <v>0.4772940808017538</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>0.4161005491114602</v>
+        <v>0.750086943549879</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.23918</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.6182277140780882</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>0.5439085499530223</v>
+        <v>0.48792</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.8514249921703726</v>
+        <v>0.3186940328271737</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.3159390228650623</v>
+        <v>0.6754584284213152</v>
       </c>
       <c r="Y42" s="2" t="n">
-        <v>0.8092543290043289</v>
+        <v>0.71053</v>
       </c>
       <c r="Z42" s="2" t="n">
-        <v>0.8009478672985783</v>
+        <v>0.5701412239408203</v>
       </c>
       <c r="AA42" s="2" t="n">
-        <v>0.6098520511096167</v>
+        <v>0.4147999999999999</v>
       </c>
       <c r="AB42" s="2" t="n">
-        <v>0.9248433060784351</v>
+        <v>0.46847</v>
       </c>
       <c r="AC42" s="2" t="n">
-        <v>0.9378969696931576</v>
+        <v>0.2474614526731128</v>
       </c>
       <c r="AD42" s="2" t="n">
-        <v>0.5214299999999999</v>
+        <v>0.911862793751712</v>
       </c>
       <c r="AE42" s="2" t="n">
-        <v>0.40375</v>
+        <v>0.9186413027481362</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>sentence-transformers/sentence-t5-xxl</t>
+          <t>sentence-transformers/sentence-t5-xl</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.8124450977788589</v>
+        <v>0.8514249921703726</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.5585599999999999</v>
+        <v>0.6282235512125198</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.2140492459012981</v>
+        <v>0.794154396398088</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.8324518195666728</v>
+        <v>0.6252251289274147</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>0.6114553646367987</v>
+        <v>0.8092543290043289</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>0.3823921323645222</v>
+        <v>0.4161005491114602</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.7706782664515456</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.6853059852051111</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.34929</v>
+        <v>0.7508041932935345</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.639782556744936</v>
+        <v>0.8009478672985783</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.4608800000000001</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>0.7523712951211723</v>
+        <v>0.4076035180401736</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>0.3167588266138099</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>0.6097713304012906</v>
+        <v>0.3173861927815954</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0.7680240821366182</v>
+        <v>0.40375</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>0.3524745757300218</v>
+        <v>0.6641560188298588</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0.4350024233904722</v>
+        <v>0.7586314484331536</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.78975</v>
+        <v>0.5439085499530223</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>0.4224117195163593</v>
+        <v>0.7749353352876681</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.31539</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.6037247542497267</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>0.5833385530848731</v>
+        <v>0.5214299999999999</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.8620106482931412</v>
+        <v>0.3360365488455902</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>0.3039226775800043</v>
+        <v>0.711535861715982</v>
       </c>
       <c r="Y43" s="2" t="n">
-        <v>0.8171666666666667</v>
+        <v>0.74237</v>
       </c>
       <c r="Z43" s="2" t="n">
-        <v>0.7909952606635071</v>
+        <v>0.6098520511096167</v>
       </c>
       <c r="AA43" s="2" t="n">
-        <v>0.6590786819098857</v>
+        <v>0.43516</v>
       </c>
       <c r="AB43" s="2" t="n">
-        <v>0.9394372210364297</v>
+        <v>0.5</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0.9511141986772736</v>
+        <v>0.2688445581529558</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>0.56202</v>
+        <v>0.9248433060784351</v>
       </c>
       <c r="AE43" s="2" t="n">
-        <v>0.45748</v>
+        <v>0.9378969696931576</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>shibing624/text2vec-base-multilingual</t>
+          <t>sentence-transformers/sentence-t5-xxl</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.8347595626027418</v>
+        <v>0.8620106482931412</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.26126</v>
+        <v>0.6114553646367987</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.1619070583380436</v>
+        <v>0.8124450977788589</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.7780898243854504</v>
+        <v>0.639782556744936</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>0.3850723861796326</v>
+        <v>0.8171666666666667</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>0.3251081280317133</v>
+        <v>0.4224117195163593</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0.7724805746003676</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0.5830867518493612</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0.14812</v>
+        <v>0.7706782664515456</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.6556847028211261</v>
+        <v>0.7909952606635071</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.34254</v>
+        <v>0.4350024233904722</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.556826861955334</v>
+        <v>0.3040353534678364</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>0.4910742502173265</v>
+        <v>0.3823921323645222</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>0.7409937723367189</v>
+        <v>0.45748</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>0.303885451410444</v>
+        <v>0.6853059852051111</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0.3272237759178746</v>
+        <v>0.8324518195666728</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>0.49694</v>
+        <v>0.5833385530848731</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>0.3619042628585186</v>
+        <v>0.7680240821366182</v>
       </c>
       <c r="T44" s="2" t="n">
-        <v>0.9879638916750251</v>
+        <v>0.34929</v>
       </c>
       <c r="U44" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.6097713304012906</v>
       </c>
       <c r="V44" s="2" t="n">
-        <v>0.4453492013780145</v>
+        <v>0.56202</v>
       </c>
       <c r="W44" s="2" t="n">
-        <v>0.7182586908863138</v>
+        <v>0.3524745757300218</v>
       </c>
       <c r="X44" s="2" t="n">
-        <v>0.2933489058303607</v>
+        <v>0.7523712951211723</v>
       </c>
       <c r="Y44" s="2" t="n">
-        <v>0.6281626984126983</v>
+        <v>0.78975</v>
       </c>
       <c r="Z44" s="2" t="n">
-        <v>0.7383886255924171</v>
+        <v>0.6590786819098857</v>
       </c>
       <c r="AA44" s="2" t="n">
-        <v>0.5193006052454606</v>
+        <v>0.4608800000000001</v>
       </c>
       <c r="AB44" s="2" t="n">
-        <v>0.9204078160599214</v>
+        <v>0.5585599999999999</v>
       </c>
       <c r="AC44" s="2" t="n">
-        <v>0.9395153724999291</v>
+        <v>0.2970379490302957</v>
       </c>
       <c r="AD44" s="2" t="n">
-        <v>0.404</v>
+        <v>0.9394372210364297</v>
       </c>
       <c r="AE44" s="2" t="n">
-        <v>0.18899</v>
+        <v>0.9511141986772736</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>text-embedding-3-large</t>
+          <t>shibing624/text2vec-base-multilingual</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.825163980735896</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>0.73423</v>
-      </c>
-      <c r="D45" s="3" t="n">
-        <v>0.2796643625096684</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>0.884362910537232</v>
+        <v>0.7182586908863138</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>0.3850723861796326</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>0.8347595626027418</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>0.6556847028211261</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>0.5270799653215082</v>
+        <v>0.6281626984126983</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>0.3970800658666344</v>
+        <v>0.3619042628585186</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0.7874564096121601</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>0.7646267652992602</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>0.62957</v>
+        <v>0.9946506185222334</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>0.9879638916750251</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>0.7724805746003676</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.6487004383237154</v>
-      </c>
-      <c r="L45" s="3" t="n">
-        <v>0.46196</v>
-      </c>
-      <c r="M45" s="3" t="n">
-        <v>0.8044786254258053</v>
+        <v>0.7383886255924171</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>0.3272237759178746</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>0.2920530155461478</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>0.6188729664384736</v>
+        <v>0.3251081280317133</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0.8218742629385483</v>
-      </c>
-      <c r="P45" s="3" t="n">
-        <v>0.4572072923344249</v>
+        <v>0.18899</v>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v>0.5830867518493612</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0.5383026633586214</v>
-      </c>
-      <c r="R45" s="3" t="n">
-        <v>0.8686700000000001</v>
+        <v>0.7780898243854504</v>
+      </c>
+      <c r="R45" s="2" t="n">
+        <v>0.4453492013780145</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>0.4589797204034647</v>
-      </c>
-      <c r="T45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V45" s="3" t="n">
-        <v>0.7367679298465393</v>
-      </c>
-      <c r="W45" s="3" t="n">
-        <v>0.9337300344503602</v>
+        <v>0.7409937723367189</v>
+      </c>
+      <c r="T45" s="2" t="n">
+        <v>0.14812</v>
+      </c>
+      <c r="U45" s="2" t="n">
+        <v>0.4910742502173265</v>
+      </c>
+      <c r="V45" s="2" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="W45" s="2" t="n">
+        <v>0.303885451410444</v>
       </c>
       <c r="X45" s="2" t="n">
-        <v>0.2958989154199727</v>
-      </c>
-      <c r="Y45" s="3" t="n">
-        <v>0.9156666666666666</v>
+        <v>0.556826861955334</v>
+      </c>
+      <c r="Y45" s="2" t="n">
+        <v>0.49694</v>
       </c>
       <c r="Z45" s="2" t="n">
-        <v>0.8218009478672986</v>
-      </c>
-      <c r="AA45" s="3" t="n">
-        <v>0.713315400134499</v>
-      </c>
-      <c r="AB45" s="3" t="n">
-        <v>0.956495941906191</v>
-      </c>
-      <c r="AC45" s="3" t="n">
-        <v>0.9632216568565823</v>
-      </c>
-      <c r="AD45" s="3" t="n">
-        <v>0.76519</v>
-      </c>
-      <c r="AE45" s="3" t="n">
-        <v>0.60282</v>
+        <v>0.5193006052454606</v>
+      </c>
+      <c r="AA45" s="2" t="n">
+        <v>0.34254</v>
+      </c>
+      <c r="AB45" s="2" t="n">
+        <v>0.26126</v>
+      </c>
+      <c r="AC45" s="2" t="n">
+        <v>0.2133335782794981</v>
+      </c>
+      <c r="AD45" s="2" t="n">
+        <v>0.9204078160599214</v>
+      </c>
+      <c r="AE45" s="2" t="n">
+        <v>0.9395153724999291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>text-embedding-3-small</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>0.8113498962069088</v>
+          <t>text-embedding-3-large</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>0.9337300344503602</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.65766</v>
+        <v>0.5270799653215082</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.2704358042080826</v>
+        <v>0.825163980735896</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0.8569611214966121</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>0.4524961818598886</v>
+        <v>0.6487004383237154</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>0.9156666666666666</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0.5476153105172287</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>0.7569412697440474</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.7329186281102892</v>
+        <v>0.4589797204034647</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0.41674</v>
+        <v>0.7874564096121601</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.6136061823257404</v>
+        <v>0.8218009478672986</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.4284000000000001</v>
+        <v>0.5383026633586214</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.7411183812926199</v>
+        <v>0.2953434659473538</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>0.6142121566849555</v>
-      </c>
-      <c r="O46" s="2" t="n">
-        <v>0.8086996866193595</v>
-      </c>
-      <c r="P46" s="2" t="n">
-        <v>0.4567430092008721</v>
-      </c>
-      <c r="Q46" s="2" t="n">
-        <v>0.5097017531638819</v>
-      </c>
-      <c r="R46" s="2" t="n">
-        <v>0.86816</v>
-      </c>
-      <c r="S46" s="3" t="n">
-        <v>0.4626366669004257</v>
+        <v>0.3970800658666344</v>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>0.60282</v>
+      </c>
+      <c r="P46" s="3" t="n">
+        <v>0.7646267652992602</v>
+      </c>
+      <c r="Q46" s="3" t="n">
+        <v>0.884362910537232</v>
+      </c>
+      <c r="R46" s="3" t="n">
+        <v>0.7367679298465393</v>
+      </c>
+      <c r="S46" s="2" t="n">
+        <v>0.8218742629385483</v>
       </c>
       <c r="T46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U46" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V46" s="2" t="n">
-        <v>0.678640776699029</v>
-      </c>
-      <c r="W46" s="2" t="n">
-        <v>0.9088318196053869</v>
-      </c>
-      <c r="X46" s="2" t="n">
-        <v>0.3049243366483514</v>
-      </c>
-      <c r="Y46" s="2" t="n">
-        <v>0.8945000000000001</v>
-      </c>
-      <c r="Z46" s="2" t="n">
-        <v>0.7646919431279622</v>
-      </c>
-      <c r="AA46" s="2" t="n">
-        <v>0.6779757901815737</v>
-      </c>
-      <c r="AB46" s="2" t="n">
-        <v>0.9444824312907959</v>
+        <v>0.62957</v>
+      </c>
+      <c r="U46" s="2" t="n">
+        <v>0.6188729664384736</v>
+      </c>
+      <c r="V46" s="3" t="n">
+        <v>0.76519</v>
+      </c>
+      <c r="W46" s="3" t="n">
+        <v>0.4572072923344249</v>
+      </c>
+      <c r="X46" s="3" t="n">
+        <v>0.8044786254258053</v>
+      </c>
+      <c r="Y46" s="3" t="n">
+        <v>0.8686700000000001</v>
+      </c>
+      <c r="Z46" s="3" t="n">
+        <v>0.713315400134499</v>
+      </c>
+      <c r="AA46" s="3" t="n">
+        <v>0.46196</v>
+      </c>
+      <c r="AB46" s="3" t="n">
+        <v>0.73423</v>
       </c>
       <c r="AC46" s="2" t="n">
-        <v>0.952465716551754</v>
-      </c>
-      <c r="AD46" s="2" t="n">
-        <v>0.74907</v>
-      </c>
-      <c r="AE46" s="2" t="n">
-        <v>0.52088</v>
+        <v>0.3677886102453842</v>
+      </c>
+      <c r="AD46" s="3" t="n">
+        <v>0.956495941906191</v>
+      </c>
+      <c r="AE46" s="3" t="n">
+        <v>0.9632216568565823</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>text-embedding-ada-002</t>
+          <t>text-embedding-3-small</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.775488475913985</v>
+        <v>0.9088318196053869</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.63514</v>
+        <v>0.4524961818598886</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.2617596819504725</v>
+        <v>0.8113498962069088</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0.860436629641775</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>0.6835358427222893</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>0.4857524685115383</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>0.7627685738662282</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0.7110961667787492</v>
+        <v>0.6136061823257404</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>0.8945000000000001</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>0.4626366669004257</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0.2994</v>
+        <v>0.7569412697440474</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0.6016251068115703</v>
+        <v>0.7646919431279622</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.43764</v>
+        <v>0.5097017531638819</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>0.7553035636965619</v>
-      </c>
-      <c r="N47" s="3" t="n">
-        <v>0.6482909467525912</v>
+        <v>0.3041025626902713</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>0.5476153105172287</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>0.810931445449386</v>
+        <v>0.52088</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>0.416657222225081</v>
+        <v>0.7329186281102892</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0.5352055108193531</v>
+        <v>0.8569611214966121</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>0.85969</v>
+        <v>0.678640776699029</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>0.445914143327743</v>
+        <v>0.8086996866193595</v>
       </c>
       <c r="T47" s="2" t="n">
-        <v>0.9933132731527916</v>
+        <v>0.41674</v>
       </c>
       <c r="U47" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.6142121566849555</v>
       </c>
       <c r="V47" s="2" t="n">
-        <v>0.6445349201378014</v>
+        <v>0.74907</v>
       </c>
       <c r="W47" s="2" t="n">
-        <v>0.8937676166614468</v>
+        <v>0.4567430092008721</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>0.3049962446901472</v>
+        <v>0.7411183812926199</v>
       </c>
       <c r="Y47" s="2" t="n">
-        <v>0.8894999999999998</v>
+        <v>0.86816</v>
       </c>
       <c r="Z47" s="2" t="n">
-        <v>0.8151658767772512</v>
+        <v>0.6779757901815737</v>
       </c>
       <c r="AA47" s="2" t="n">
-        <v>0.6542030934767989</v>
+        <v>0.4284000000000001</v>
       </c>
       <c r="AB47" s="2" t="n">
-        <v>0.9412076883261254</v>
+        <v>0.65766</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0.9510295908785357</v>
+        <v>0.3560612118654781</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>0.73004</v>
+        <v>0.9444824312907959</v>
       </c>
       <c r="AE47" s="2" t="n">
-        <v>0.5164</v>
+        <v>0.952465716551754</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>voyage-2</t>
+          <t>text-embedding-ada-002</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.7642936190822642</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>0.52703</v>
+        <v>0.8937676166614468</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>0.6835358427222893</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.2484326275705308</v>
+        <v>0.775488475913985</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>0.3189440828794315</v>
+        <v>0.6016251068115703</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>0.4854232311151437</v>
+        <v>0.8894999999999998</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.3633106838853807</v>
+        <v>0.445914143327743</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0.6851217063378627</v>
+        <v>0.9946506185222334</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>0.6246133154001345</v>
+        <v>0.9933132731527916</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>0.15507</v>
+        <v>0.7627685738662282</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0.5895656630212746</v>
+        <v>0.8151658767772512</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.37262</v>
+        <v>0.5352055108193531</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>0.7266605452700412</v>
+        <v>0.3046180391776183</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>0.5795590984348414</v>
+        <v>0.4857524685115383</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>0.7050549213561673</v>
+        <v>0.5164</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>0.3877264742587128</v>
+        <v>0.7110961667787492</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0.4165266573039174</v>
+        <v>0.860436629641775</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>0.75831</v>
+        <v>0.6445349201378014</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>0.4508245196010945</v>
+        <v>0.810931445449386</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>0.9919759277833501</v>
-      </c>
-      <c r="U48" s="2" t="n">
-        <v>0.9799398194583752</v>
+        <v>0.2994</v>
+      </c>
+      <c r="U48" s="3" t="n">
+        <v>0.6482909467525912</v>
       </c>
       <c r="V48" s="2" t="n">
-        <v>0.4561854055746946</v>
+        <v>0.73004</v>
       </c>
       <c r="W48" s="2" t="n">
-        <v>0.7978703413717507</v>
+        <v>0.416657222225081</v>
       </c>
       <c r="X48" s="2" t="n">
-        <v>0.3087952286335955</v>
+        <v>0.7553035636965619</v>
       </c>
       <c r="Y48" s="2" t="n">
-        <v>0.797095238095238</v>
+        <v>0.85969</v>
       </c>
       <c r="Z48" s="2" t="n">
-        <v>0.8018957345971565</v>
+        <v>0.6542030934767989</v>
       </c>
       <c r="AA48" s="2" t="n">
-        <v>0.5369872225958305</v>
+        <v>0.43764</v>
       </c>
       <c r="AB48" s="2" t="n">
-        <v>0.8976194426555255</v>
+        <v>0.63514</v>
       </c>
       <c r="AC48" s="2" t="n">
-        <v>0.896781936586669</v>
+        <v>0.3541689084917826</v>
       </c>
       <c r="AD48" s="2" t="n">
-        <v>0.67065</v>
+        <v>0.9412076883261254</v>
       </c>
       <c r="AE48" s="2" t="n">
-        <v>0.45499</v>
+        <v>0.9510295908785357</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>voyage-code-2</t>
+          <t>voyage-2</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.7901988871511573</v>
+        <v>0.7978703413717507</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.68018</v>
+        <v>0.4854232311151437</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.2744285128302836</v>
+        <v>0.7642936190822642</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0.6013319288411012</v>
+        <v>0.5895656630212746</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>0.5659470191472211</v>
+        <v>0.797095238095238</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>0.3517814667732468</v>
+        <v>0.4508245196010945</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>0.7356028375217639</v>
+        <v>0.9799398194583752</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0.7014794889038332</v>
+        <v>0.9919759277833501</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>0.19047</v>
+        <v>0.6851217063378627</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.608332001960638</v>
+        <v>0.8018957345971565</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.4215</v>
+        <v>0.4165266573039174</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>0.7561215395567691</v>
+        <v>0.3085411532416116</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>0.6162945124485424</v>
+        <v>0.3633106838853807</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0.7999221736030022</v>
+        <v>0.45499</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>0.4148135128122253</v>
+        <v>0.6246133154001345</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0.5067174392659987</v>
+        <v>0.3189440828794315</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>0.82766</v>
+        <v>0.4561854055746946</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>0.4522898818144546</v>
+        <v>0.7050549213561673</v>
       </c>
       <c r="T49" s="2" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.15507</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.5795590984348414</v>
       </c>
       <c r="V49" s="2" t="n">
-        <v>0.5943626683369871</v>
+        <v>0.67065</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>0.8767616661446915</v>
+        <v>0.3877264742587128</v>
       </c>
       <c r="X49" s="2" t="n">
-        <v>0.2833835044555462</v>
+        <v>0.7266605452700412</v>
       </c>
       <c r="Y49" s="2" t="n">
-        <v>0.8671785714285715</v>
+        <v>0.75831</v>
       </c>
       <c r="Z49" s="2" t="n">
-        <v>0.8213270142180095</v>
+        <v>0.5369872225958305</v>
       </c>
       <c r="AA49" s="2" t="n">
-        <v>0.630766644250168</v>
+        <v>0.37262</v>
       </c>
       <c r="AB49" s="2" t="n">
-        <v>0.9286798412153197</v>
+        <v>0.52703</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0.9371986705026045</v>
+        <v>0.332811685855689</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>0.71946</v>
+        <v>0.8976194426555255</v>
       </c>
       <c r="AE49" s="2" t="n">
-        <v>0.52606</v>
+        <v>0.896781936586669</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
+          <t>voyage-code-2</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.7547623244259472</v>
+        <v>0.8767616661446915</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.5659470191472211</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.1894729944719849</v>
+        <v>0.7901988871511573</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>0.8167705770180773</v>
+        <v>0.608332001960638</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>0.6057161066482416</v>
+        <v>0.8671785714285715</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>0.4030766635566808</v>
+        <v>0.4522898818144546</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>0.7137136565612174</v>
+        <v>0.9946506185222334</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>0.7021856086079354</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>0.26121</v>
+        <v>0.7356028375217639</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>0.5238943982284524</v>
+        <v>0.8213270142180095</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>0.33514</v>
+        <v>0.5067174392659987</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>0.6217487639018026</v>
+        <v>0.2831543704262003</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>0.5689916720736953</v>
+        <v>0.3517814667732468</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>0.779121959792631</v>
+        <v>0.52606</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>0.3550144906912691</v>
+        <v>0.7014794889038332</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0.378393691062227</v>
+        <v>0.6013319288411012</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>0.69819</v>
+        <v>0.5943626683369871</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>0.4389692922750733</v>
-      </c>
-      <c r="T50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U50" s="3" t="n">
-        <v>1</v>
+        <v>0.7999221736030022</v>
+      </c>
+      <c r="T50" s="2" t="n">
+        <v>0.19047</v>
+      </c>
+      <c r="U50" s="2" t="n">
+        <v>0.6162945124485424</v>
       </c>
       <c r="V50" s="2" t="n">
-        <v>0.5398371437519573</v>
+        <v>0.71946</v>
       </c>
       <c r="W50" s="2" t="n">
-        <v>0.8549639837143752</v>
+        <v>0.4148135128122253</v>
       </c>
       <c r="X50" s="2" t="n">
-        <v>0.2821210761980673</v>
+        <v>0.7561215395567691</v>
       </c>
       <c r="Y50" s="2" t="n">
-        <v>0.7392857142857143</v>
+        <v>0.82766</v>
       </c>
       <c r="Z50" s="2" t="n">
-        <v>0.8206161137440759</v>
+        <v>0.630766644250168</v>
       </c>
       <c r="AA50" s="2" t="n">
-        <v>0.6119031607262946</v>
+        <v>0.4215</v>
       </c>
       <c r="AB50" s="2" t="n">
-        <v>0.914642734849384</v>
+        <v>0.68018</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0.9276770338480919</v>
+        <v>0.3528993494802901</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>0.5959</v>
+        <v>0.9286798412153197</v>
       </c>
       <c r="AE50" s="2" t="n">
-        <v>0.35267</v>
+        <v>0.9371986705026045</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.7815527423484122</v>
+        <v>0.8549639837143752</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0</v>
+        <v>0.6057161066482416</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.1894341512230004</v>
+        <v>0.7547623244259472</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>0.838819395056347</v>
+        <v>0.5238943982284524</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>0.2408582264260665</v>
+        <v>0.7392857142857143</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>0.4024379912798725</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>0.7438679213720065</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.7346671149966374</v>
+        <v>0.4389692922750733</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>0.2621</v>
+        <v>0.7137136565612174</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>0.5362415343852915</v>
+        <v>0.8206161137440759</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>0.35092</v>
+        <v>0.378393691062227</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>0.639460440116346</v>
+        <v>0.282370179147941</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>0.5420886916175743</v>
+        <v>0.4030766635566808</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>0.7110616222714751</v>
+        <v>0.35267</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>0.3796744706245461</v>
+        <v>0.7021856086079354</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>0.3794903151594224</v>
+        <v>0.8167705770180773</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>0.6369</v>
+        <v>0.5398371437519573</v>
       </c>
       <c r="S51" s="2" t="n">
-        <v>0.4102454366803547</v>
-      </c>
-      <c r="T51" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U51" s="3" t="n">
-        <v>1</v>
+        <v>0.779121959792631</v>
+      </c>
+      <c r="T51" s="2" t="n">
+        <v>0.26121</v>
+      </c>
+      <c r="U51" s="2" t="n">
+        <v>0.5689916720736953</v>
       </c>
       <c r="V51" s="2" t="n">
-        <v>0.6363921077356717</v>
+        <v>0.5959</v>
       </c>
       <c r="W51" s="2" t="n">
-        <v>0.881866583150642</v>
+        <v>0.3550144906912691</v>
       </c>
       <c r="X51" s="2" t="n">
-        <v>0.2855799948642319</v>
+        <v>0.6217487639018026</v>
       </c>
       <c r="Y51" s="2" t="n">
-        <v>0.6925079365079365</v>
+        <v>0.69819</v>
       </c>
       <c r="Z51" s="2" t="n">
-        <v>0.7203791469194313</v>
+        <v>0.6119031607262946</v>
       </c>
       <c r="AA51" s="2" t="n">
-        <v>0.6580363147276395</v>
+        <v>0.33514</v>
       </c>
       <c r="AB51" s="2" t="n">
-        <v>0.9337926495141736</v>
+        <v>0.0045</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0.9463878648421398</v>
+        <v>0.237323589391459</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>0.65213</v>
+        <v>0.914642734849384</v>
       </c>
       <c r="AE51" s="2" t="n">
-        <v>0.33781</v>
+        <v>0.9276770338480919</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>xlm-roberta-base</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.4622634194376477</v>
+        <v>0.881866583150642</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.0045</v>
+        <v>0.2408582264260665</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.08678029981035876</v>
+        <v>0.7815527423484122</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>0.2117178555612327</v>
+        <v>0.5362415343852915</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>0.2928935602108218</v>
+        <v>0.6925079365079365</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>0.2375634936431052</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>0.4861539023272589</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>0.2321452589105581</v>
+        <v>0.4102454366803547</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>0.00876</v>
+        <v>0.7438679213720065</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>0.5134610960311026</v>
+        <v>0.7203791469194313</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>0.2674799999999999</v>
+        <v>0.3794903151594224</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>0.2756444888903243</v>
+        <v>0.2844223473418103</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>0.5224409381186116</v>
+        <v>0.4024379912798725</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>0.5672433175176572</v>
+        <v>0.33781</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>0.2414271814543187</v>
+        <v>0.7346671149966374</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0.2037478764202963</v>
+        <v>0.838819395056347</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>0.03332</v>
+        <v>0.6363921077356717</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>0.4044298462507268</v>
+        <v>0.7110616222714751</v>
       </c>
       <c r="T52" s="2" t="n">
-        <v>0.7017890974510833</v>
+        <v>0.2621</v>
       </c>
       <c r="U52" s="2" t="n">
-        <v>0.5328738628505576</v>
+        <v>0.5420886916175743</v>
       </c>
       <c r="V52" s="2" t="n">
-        <v>0.1937676166614469</v>
+        <v>0.65213</v>
       </c>
       <c r="W52" s="2" t="n">
-        <v>0.4383025367992484</v>
+        <v>0.3796744706245461</v>
       </c>
       <c r="X52" s="2" t="n">
-        <v>0.2914448969497285</v>
+        <v>0.639460440116346</v>
       </c>
       <c r="Y52" s="2" t="n">
-        <v>0.3191150793650793</v>
+        <v>0.6369</v>
       </c>
       <c r="Z52" s="2" t="n">
-        <v>0.6049763033175355</v>
+        <v>0.6580363147276395</v>
       </c>
       <c r="AA52" s="2" t="n">
-        <v>0.1358103564223268</v>
+        <v>0.35092</v>
       </c>
       <c r="AB52" s="2" t="n">
-        <v>0.8544669820078381</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0.8624645232635788</v>
+        <v>0.2259058459221838</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>0.11649</v>
+        <v>0.9337926495141736</v>
       </c>
       <c r="AE52" s="2" t="n">
-        <v>0.00156</v>
+        <v>0.9463878648421398</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
+          <t>xlm-roberta-base</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>0.4383025367992484</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>0.2928935602108218</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>0.4622634194376477</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>0.5134610960311026</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>0.3191150793650793</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>0.4044298462507268</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>0.5328738628505576</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>0.7017890974510833</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <v>0.4861539023272589</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <v>0.6049763033175355</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>0.2037478764202963</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <v>0.289685838190132</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <v>0.2375634936431052</v>
+      </c>
+      <c r="O53" s="2" t="n">
+        <v>0.00156</v>
+      </c>
+      <c r="P53" s="2" t="n">
+        <v>0.2321452589105581</v>
+      </c>
+      <c r="Q53" s="2" t="n">
+        <v>0.2117178555612327</v>
+      </c>
+      <c r="R53" s="2" t="n">
+        <v>0.1937676166614469</v>
+      </c>
+      <c r="S53" s="2" t="n">
+        <v>0.5672433175176572</v>
+      </c>
+      <c r="T53" s="2" t="n">
+        <v>0.00876</v>
+      </c>
+      <c r="U53" s="2" t="n">
+        <v>0.5224409381186116</v>
+      </c>
+      <c r="V53" s="2" t="n">
+        <v>0.11649</v>
+      </c>
+      <c r="W53" s="2" t="n">
+        <v>0.2414271814543187</v>
+      </c>
+      <c r="X53" s="2" t="n">
+        <v>0.2756444888903243</v>
+      </c>
+      <c r="Y53" s="2" t="n">
+        <v>0.03332</v>
+      </c>
+      <c r="Z53" s="2" t="n">
+        <v>0.1358103564223268</v>
+      </c>
+      <c r="AA53" s="2" t="n">
+        <v>0.2674799999999999</v>
+      </c>
+      <c r="AB53" s="2" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="AC53" s="2" t="n">
+        <v>0.08808491967213536</v>
+      </c>
+      <c r="AD53" s="2" t="n">
+        <v>0.8544669820078381</v>
+      </c>
+      <c r="AE53" s="2" t="n">
+        <v>0.8624645232635788</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
           <t>xlm-roberta-large</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B54" s="2" t="n">
+        <v>0.367710616974632</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0.3402405632525344</v>
+      </c>
+      <c r="D54" s="2" t="n">
         <v>0.4231665294262342</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="E54" s="2" t="n">
+        <v>0.5338491922324053</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>0.3874368686868688</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>0.4267404394453324</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>0.2594625928964929</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>0.6492966311974625</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <v>0.5001340631306734</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <v>0.6575829383886255</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>0.2118476703867388</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <v>0.2878470458656923</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <v>0.2152479457502924</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <v>0.00517</v>
+      </c>
+      <c r="P54" s="2" t="n">
+        <v>0.2392064559515804</v>
+      </c>
+      <c r="Q54" s="2" t="n">
+        <v>0.1324934909347301</v>
+      </c>
+      <c r="R54" s="2" t="n">
+        <v>0.1537112433448168</v>
+      </c>
+      <c r="S54" s="2" t="n">
+        <v>0.5549160342530441</v>
+      </c>
+      <c r="T54" s="2" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="U54" s="2" t="n">
+        <v>0.5653605568863168</v>
+      </c>
+      <c r="V54" s="2" t="n">
+        <v>0.12702</v>
+      </c>
+      <c r="W54" s="2" t="n">
+        <v>0.1850128406979126</v>
+      </c>
+      <c r="X54" s="2" t="n">
+        <v>0.3089459830689988</v>
+      </c>
+      <c r="Y54" s="2" t="n">
+        <v>0.06598999999999999</v>
+      </c>
+      <c r="Z54" s="2" t="n">
+        <v>0.1582044384667115</v>
+      </c>
+      <c r="AA54" s="2" t="n">
+        <v>0.26616</v>
+      </c>
+      <c r="AB54" s="2" t="n">
         <v>0.01351</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>0.05943345675729141</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>0.1324934909347301</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>0.3402405632525344</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>0.2152479457502924</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>0.5001340631306734</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>0.2392064559515804</v>
-      </c>
-      <c r="J53" s="2" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="K53" s="2" t="n">
-        <v>0.5338491922324053</v>
-      </c>
-      <c r="L53" s="2" t="n">
-        <v>0.26616</v>
-      </c>
-      <c r="M53" s="2" t="n">
-        <v>0.3089459830689988</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>0.5653605568863168</v>
-      </c>
-      <c r="O53" s="2" t="n">
-        <v>0.5549160342530441</v>
-      </c>
-      <c r="P53" s="2" t="n">
-        <v>0.1850128406979126</v>
-      </c>
-      <c r="Q53" s="2" t="n">
-        <v>0.2118476703867388</v>
-      </c>
-      <c r="R53" s="2" t="n">
-        <v>0.06598999999999999</v>
-      </c>
-      <c r="S53" s="2" t="n">
-        <v>0.4267404394453324</v>
-      </c>
-      <c r="T53" s="2" t="n">
-        <v>0.6492966311974625</v>
-      </c>
-      <c r="U53" s="2" t="n">
-        <v>0.2594625928964929</v>
-      </c>
-      <c r="V53" s="2" t="n">
-        <v>0.1537112433448168</v>
-      </c>
-      <c r="W53" s="2" t="n">
-        <v>0.367710616974632</v>
-      </c>
-      <c r="X53" s="2" t="n">
-        <v>0.2889430627940623</v>
-      </c>
-      <c r="Y53" s="2" t="n">
-        <v>0.3874368686868688</v>
-      </c>
-      <c r="Z53" s="2" t="n">
-        <v>0.6575829383886255</v>
-      </c>
-      <c r="AA53" s="2" t="n">
-        <v>0.1582044384667115</v>
-      </c>
-      <c r="AB53" s="2" t="n">
+      <c r="AC54" s="2" t="n">
+        <v>0.06196806019217935</v>
+      </c>
+      <c r="AD54" s="2" t="n">
         <v>0.8372982569551426</v>
       </c>
-      <c r="AC53" s="2" t="n">
+      <c r="AE54" s="2" t="n">
         <v>0.8393372076362939</v>
-      </c>
-      <c r="AD53" s="2" t="n">
-        <v>0.12702</v>
-      </c>
-      <c r="AE53" s="2" t="n">
-        <v>0.00517</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AB1:AC1"/>
+  <mergeCells count="3">
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/analyses_outputs/results.xlsx
+++ b/analyses_outputs/results.xlsx
@@ -67,14 +67,14 @@
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,257 +465,177 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Clustering</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Reranking</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Retrieval</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Retrieval</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BitextMining</t>
         </is>
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>PairClassification</t>
         </is>
       </c>
       <c r="P1" s="1" t="n"/>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Reranking</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Retrieval</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
+      <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PairClassification</t>
+          <t>STS</t>
         </is>
       </c>
       <c r="W1" s="1" t="n"/>
       <c r="X1" s="1" t="n"/>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>STS</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="n"/>
-      <c r="AA1" s="1" t="n"/>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
           <t>Summarization</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Reranking</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Retrieval</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>AlloProfClusteringP2P_test</t>
+          <t>MassiveScenarioClassification</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>AlloProfClusteringS2S_test</t>
+          <t>MassiveIntentClassification</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>AlloprofReranking_test</t>
+          <t>MasakhaNEWSClassification</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>AlloprofRetrieval_test</t>
+          <t>MTOPIntentClassification</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>AmazonReviewsClassification_test</t>
+          <t>MTOPDomainClassification</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>BSARDRetrieval_test</t>
+          <t>AmazonReviewsClassification</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>DiaBlaBitextMining_test_fr-en</t>
+          <t>MasakhaNEWSClusteringS2S</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>FloresBitextMining_dev_fra_Latn-eng_Latn</t>
+          <t>MasakhaNEWSClusteringP2P</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>FloresBitextMining_dev_eng_Latn-fra_Latn</t>
+          <t>MLSUMClusteringS2S</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>HALClusteringS2S_test</t>
+          <t>MLSUMClusteringP2P</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>MasakhaNEWSClassification_test</t>
+          <t>HALClusteringS2S</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>MasakhaNEWSClusteringP2P_test</t>
+          <t>AlloProfClusteringS2S</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>MasakhaNEWSClusteringS2S_test</t>
+          <t>AlloProfClusteringP2P</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>MassiveIntentClassification_test</t>
+          <t>PawsX</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>MassiveScenarioClassification_test</t>
+          <t>OpusparcusPC.full</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
         <is>
-          <t>MintakaRetrieval_test</t>
+          <t>SyntecReranking</t>
         </is>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>MLSUMClusteringP2P_test</t>
+          <t>AlloprofReranking</t>
         </is>
       </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
-          <t>MLSUMClusteringS2S_test</t>
+          <t>SyntecRetrieval</t>
         </is>
       </c>
       <c r="T2" s="1" t="inlineStr">
         <is>
-          <t>MTOPDomainClassification_test</t>
+          <t>BSARDRetrieval</t>
         </is>
       </c>
       <c r="U2" s="1" t="inlineStr">
         <is>
-          <t>MTOPIntentClassification_test</t>
+          <t>AlloprofRetrieval</t>
         </is>
       </c>
       <c r="V2" s="1" t="inlineStr">
         <is>
-          <t>OpusparcusPC_test.full</t>
+          <t>STSBenchmarkMultilingualSTS</t>
         </is>
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>OpusparcusPC_validation.full</t>
+          <t>STS22</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>PawsX_test</t>
+          <t>SICKFr</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>SICKFr_test</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>STS22_test</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>STSBenchmarkMultilingualSTS_test</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>SummEvalFr_test</t>
-        </is>
-      </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>SyntecReranking_test</t>
-        </is>
-      </c>
-      <c r="AD2" s="1" t="inlineStr">
-        <is>
-          <t>SyntecRetrieval_test</t>
-        </is>
-      </c>
-      <c r="AE2" s="1" t="inlineStr">
-        <is>
-          <t>XPQARetrieval_test</t>
+          <t>SummEvalFr</t>
         </is>
       </c>
     </row>
@@ -729,5445 +649,4039 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>../results\BAAI\bge-m3</t>
+          <t>BAAI/bge-m3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5905236983747767</v>
+        <v>0.73</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3663402207206274</v>
+        <v>0.67</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7393313825594308</v>
+        <v>0.77</v>
       </c>
       <c r="E4" t="n">
-        <v>0.48978</v>
+        <v>0.62</v>
       </c>
       <c r="F4" t="n">
-        <v>0.44786</v>
+        <v>0.89</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6036</v>
+        <v>0.45</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8537830877079311</v>
+        <v>0.42</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3096927730202973</v>
+        <v>0.43</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7656398104265404</v>
+        <v>0.31</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4506890534306004</v>
+        <v>0.37</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4239778254058173</v>
+        <v>0.59</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6744451916610625</v>
+        <v>0.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7329858776059179</v>
+        <v>0.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2286</v>
+        <v>0.88</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4310191921623729</v>
+        <v>0.74</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4359058441822957</v>
+        <v>0.85</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8924522392734107</v>
+        <v>0.6</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6236767929846538</v>
+        <v>0.49</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9288541715265348</v>
+        <v>0.82</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9457289365299991</v>
+        <v>0.82</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5967939817396208</v>
+        <v>0.78</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.783253749595937</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.822666177362106</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.8158927194633603</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.3104772232153365</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.8844444444444445</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.84505</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.70911</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>../results\Geotrend\bert-base-10lang-cased</t>
+          <t>Geotrend/distilbert-base-25lang-cased</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5321615105669343</v>
+        <v>0.44</v>
       </c>
       <c r="C5" t="n">
-        <v>0.429190297654638</v>
+        <v>0.35</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3179379221831011</v>
+        <v>0.68</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01604</v>
+        <v>0.35</v>
       </c>
       <c r="F5" t="n">
-        <v>0.29382</v>
+        <v>0.62</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1036</v>
+        <v>0.29</v>
       </c>
       <c r="H5" t="n">
-        <v>0.299374159143314</v>
+        <v>0.33</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.32</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.31</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2514049171194154</v>
+        <v>0.41</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6393364928909953</v>
+        <v>0.24</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.43</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.57</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3728312037659718</v>
+        <v>0.51</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4449562878278413</v>
+        <v>0.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03554</v>
+        <v>0.39</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4095727738171321</v>
+        <v>0.29</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3186880455337019</v>
+        <v>0.18</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6364860632633886</v>
+        <v>0.11</v>
       </c>
       <c r="U5" t="n">
-        <v>0.378703413717507</v>
+        <v>0.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0.867897383298739</v>
+        <v>0.57</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8721090971840637</v>
+        <v>0.41</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5339515630722629</v>
+        <v>0.62</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5876409741522338</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.4031453580850377</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.5224992109220082</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.2900249891005249</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.433218253968254</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.18948</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.18391</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>../results\Geotrend\bert-base-15lang-cased</t>
+          <t>Geotrend/distilbert-base-en-fr-cased</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5316174444700196</v>
+        <v>0.44</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4342614550943816</v>
+        <v>0.35</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3173867246559752</v>
+        <v>0.68</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0161</v>
+        <v>0.35</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2935</v>
+        <v>0.62</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1036</v>
+        <v>0.29</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2995597273787902</v>
+        <v>0.34</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.34</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.31</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2539191370805207</v>
+        <v>0.41</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6388625592417062</v>
+        <v>0.25</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.42</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.57</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3728312037659718</v>
+        <v>0.51</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4446872898453262</v>
+        <v>0.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03554</v>
+        <v>0.39</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4121972569008033</v>
+        <v>0.29</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3188309116220031</v>
+        <v>0.18</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6370184779204509</v>
+        <v>0.11</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3785468211713123</v>
+        <v>0.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8677678461935234</v>
+        <v>0.57</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8721085649923495</v>
+        <v>0.42</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5338191982712758</v>
+        <v>0.62</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5877261140633706</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.4039926511396135</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.5224819480869909</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.2914359701829241</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.433218253968254</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.18948</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.18349</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>../results\Geotrend\bert-base-25lang-cased</t>
+          <t>Geotrend/distilbert-base-fr-cased</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5348707232890372</v>
+        <v>0.44</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4310077911837933</v>
+        <v>0.35</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3183568791057281</v>
+        <v>0.68</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01604</v>
+        <v>0.35</v>
       </c>
       <c r="F7" t="n">
-        <v>0.29388</v>
+        <v>0.62</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1036</v>
+        <v>0.29</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2996061329422579</v>
+        <v>0.35</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.34</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.31</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2550798915900722</v>
+        <v>0.41</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6390995260663508</v>
+        <v>0.24</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.43</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.57</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3729657027572293</v>
+        <v>0.51</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4446872898453261</v>
+        <v>0.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03554</v>
+        <v>0.39</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4072820957884197</v>
+        <v>0.29</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3193833137858634</v>
+        <v>0.18</v>
       </c>
       <c r="T7" t="n">
-        <v>0.636266833698716</v>
+        <v>0.11</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3785781396805512</v>
+        <v>0.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8679078502914821</v>
+        <v>0.57</v>
       </c>
       <c r="W7" t="n">
-        <v>0.872319293517213</v>
+        <v>0.43</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5339135830001998</v>
+        <v>0.62</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5875963417221689</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.387722409346517</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.5224992109220082</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.2885644278061256</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.433218253968254</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.18948</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.1846</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>../results\Geotrend\distilbert-base-25lang-cased</t>
+          <t>Lajavaness/sentence-camembert-large</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5714285975098367</v>
+        <v>0.7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4348241240386942</v>
+        <v>0.64</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2929426466158667</v>
+        <v>0.74</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01414</v>
+        <v>0.61</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2853599999999999</v>
+        <v>0.87</v>
       </c>
       <c r="G8" t="n">
-        <v>0.11261</v>
+        <v>0.38</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1131336094934851</v>
+        <v>0.37</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9204446673353393</v>
+        <v>0.44</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.43</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2391997868514683</v>
+        <v>0.43</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6751184834123224</v>
+        <v>0.32</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3238783548898045</v>
+        <v>0.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3317203899044766</v>
+        <v>0.62</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3495292535305985</v>
+        <v>0.61</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4418291862811029</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02991</v>
+        <v>0.82</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4090788738384479</v>
+        <v>0.63</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3126641649690648</v>
+        <v>0.79</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6191356091450047</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3534606952709051</v>
+        <v>0.33</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8609728031715025</v>
+        <v>0.86</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8758173702252184</v>
+        <v>0.82</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5078393817652131</v>
+        <v>0.78</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6164041848098294</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.4135399271271215</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.5701758346273191</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.3068248900956283</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.3942936507936509</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.17599</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.15897</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>../results\Geotrend\distilbert-base-en-fr-cased</t>
+          <t>Lajavaness/sentence-flaubert-base</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5665935732649282</v>
+        <v>0.63</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4215320575444813</v>
+        <v>0.59</v>
       </c>
       <c r="D9" t="n">
-        <v>0.293075699444281</v>
+        <v>0.71</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01364</v>
+        <v>0.53</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2851199999999999</v>
+        <v>0.79</v>
       </c>
       <c r="G9" t="n">
-        <v>0.10811</v>
+        <v>0.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1129692265139254</v>
+        <v>0.3</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9192744901370778</v>
+        <v>0.49</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.41</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2488705367546622</v>
+        <v>0.41</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6751184834123224</v>
+        <v>0.32</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3378317847816555</v>
+        <v>0.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3404565705021788</v>
+        <v>0.57</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3478816408876934</v>
+        <v>0.58</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4401479488903833</v>
+        <v>0.93</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03014</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4071825511365696</v>
+        <v>0.48</v>
       </c>
       <c r="S9" t="n">
-        <v>0.314328804874776</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6191982461634826</v>
+        <v>0.42</v>
       </c>
       <c r="U9" t="n">
-        <v>0.353585969307861</v>
+        <v>0.18</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8609925738288053</v>
+        <v>0.86</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8757734114810968</v>
+        <v>0.74</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5076824569885957</v>
+        <v>0.78</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6165632183808489</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.4218079567381129</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.570654953893223</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.3109981167899422</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.3942936507936509</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.17599</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.1556</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>../results\Geotrend\distilbert-base-en-fr-es-pt-it-cased</t>
+          <t>OrdalieTech/Solon-embeddings-base-0.1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5656571585750919</v>
+        <v>0.7</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4348639521255671</v>
+        <v>0.65</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2933882142274384</v>
+        <v>0.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01406</v>
+        <v>0.62</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2856</v>
+        <v>0.87</v>
       </c>
       <c r="G10" t="n">
-        <v>0.11261</v>
+        <v>0.41</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1136640517513887</v>
+        <v>0.36</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9204446673353393</v>
+        <v>0.5</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9066087150339909</v>
+        <v>0.42</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2465395870905665</v>
+        <v>0.43</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6755924170616113</v>
+        <v>0.3</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3350757808521446</v>
+        <v>0.37</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3317203899044766</v>
+        <v>0.61</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3491257565568258</v>
+        <v>0.59</v>
       </c>
       <c r="P10" t="n">
-        <v>0.441661062542031</v>
+        <v>0.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02991</v>
+        <v>0.85</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4091629743654286</v>
+        <v>0.71</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3109946916708017</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6192608831819605</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3541497024741622</v>
+        <v>0.41</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8608285959508718</v>
+        <v>0.79</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8757472823792262</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5076412788138646</v>
+        <v>0.75</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6164042836935036</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.4159156703977949</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.5704733367736529</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.3088695290999525</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0.3942936507936509</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.17599</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.15944</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>../results\Geotrend\distilbert-base-fr-cased</t>
+          <t>OrdalieTech/Solon-embeddings-large-0.1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5728722420376016</v>
+        <v>0.71</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4300157593054996</v>
+        <v>0.67</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2939054280177285</v>
+        <v>0.76</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01386</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2859599999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G11" t="n">
-        <v>0.11261</v>
+        <v>0.42</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05946715324206229</v>
+        <v>0.31</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6332293277880038</v>
+        <v>0.46</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6499806439094893</v>
+        <v>0.43</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2426399898772257</v>
+        <v>0.43</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6767772511848341</v>
+        <v>0.32</v>
       </c>
       <c r="M11" t="n">
-        <v>0.337589716019601</v>
+        <v>0.37</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3460782647523849</v>
+        <v>0.63</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3493275050437122</v>
+        <v>0.6</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4378614660390047</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03052</v>
+        <v>0.87</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4074944583831627</v>
+        <v>0.72</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3141069123749394</v>
+        <v>0.85</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6170685875352333</v>
+        <v>0.58</v>
       </c>
       <c r="U11" t="n">
-        <v>0.352740369558409</v>
+        <v>0.47</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8604661480576208</v>
+        <v>0.8</v>
       </c>
       <c r="W11" t="n">
-        <v>0.8761939806579652</v>
+        <v>0.83</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5073485498358526</v>
+        <v>0.77</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6168581678045449</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.4282484915255096</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.5703033340036064</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0.3085027208265758</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.3929484126984127</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.17519</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.15906</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>../results\Lajavaness\sentence-camembert-large</t>
+          <t>Wissam42/sentence-croissant-llm-base</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6237888550471491</v>
+        <v>0.65</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3986103179536452</v>
+        <v>0.59</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6277308388350255</v>
+        <v>0.79</v>
       </c>
       <c r="E12" t="n">
-        <v>0.33007</v>
+        <v>0.63</v>
       </c>
       <c r="F12" t="n">
-        <v>0.38396</v>
+        <v>0.86</v>
       </c>
       <c r="G12" t="n">
-        <v>0.56306</v>
+        <v>0.35</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7007349877195761</v>
+        <v>0.41</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.54</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.34</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3203446734729044</v>
+        <v>0.43</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7409952606635072</v>
+        <v>0.29</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4352577047069188</v>
+        <v>0.33</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3670529681942382</v>
+        <v>0.64</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6380295897780768</v>
+        <v>0.63</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6981170141223941</v>
+        <v>0.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.22464</v>
+        <v>0.78</v>
       </c>
       <c r="R12" t="n">
-        <v>0.429549637509742</v>
+        <v>0.57</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4295050938255963</v>
+        <v>0.74</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8650485436893204</v>
+        <v>0.52</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6080488568744128</v>
+        <v>0.3</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9428131982731722</v>
+        <v>0.79</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9533318136331852</v>
+        <v>0.79</v>
       </c>
       <c r="X12" t="n">
-        <v>0.6136877605231777</v>
+        <v>0.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7770899952473914</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.8171227763972017</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.8613984001863513</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.3143824802330605</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0.8217738095238094</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.79127</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.65019</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>../results\Lajavaness\sentence-flaubert-base</t>
+          <t>bert-base-multilingual-cased</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5699904823623312</v>
+        <v>0.44</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4000101472459464</v>
+        <v>0.37</v>
       </c>
       <c r="D13" t="n">
-        <v>0.482879393903199</v>
+        <v>0.64</v>
       </c>
       <c r="E13" t="n">
-        <v>0.17892</v>
+        <v>0.38</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4041</v>
+        <v>0.64</v>
       </c>
       <c r="G13" t="n">
-        <v>0.41892</v>
+        <v>0.29</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4660636485218948</v>
+        <v>0.24</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9645603477097962</v>
+        <v>0.24</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9689067201604814</v>
+        <v>0.32</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3170178942434851</v>
+        <v>0.41</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7104265402843601</v>
+        <v>0.25</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4860196906767234</v>
+        <v>0.43</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3023745235272904</v>
+        <v>0.51</v>
       </c>
       <c r="O13" t="n">
-        <v>0.588567585743107</v>
+        <v>0.53</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6340618695359785</v>
+        <v>0.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2059</v>
+        <v>0.43</v>
       </c>
       <c r="R13" t="n">
-        <v>0.4145562505476897</v>
+        <v>0.32</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4125497826657207</v>
+        <v>0.19</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7887566551832133</v>
+        <v>0.1</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5284685248982149</v>
+        <v>0.02</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9299613099650954</v>
+        <v>0.52</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9446434849237524</v>
+        <v>0.39</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5793299943875329</v>
+        <v>0.59</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7754956171830516</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.7412928169442162</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.8566378973699017</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0.3122331108631331</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0.8081666666666666</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.6857799999999999</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.5124</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>../results\OrdalieTech\Solon-embeddings-base-0.1</t>
+          <t>bert-base-multilingual-uncased</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6137421216267173</v>
+        <v>0.44</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3662872206933244</v>
+        <v>0.38</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7088752883376981</v>
+        <v>0.76</v>
       </c>
       <c r="E14" t="n">
-        <v>0.41118</v>
+        <v>0.39</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4100799999999999</v>
+        <v>0.64</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0045</v>
+        <v>0.29</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8524372355009098</v>
+        <v>0.42</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3001268305632189</v>
+        <v>0.43</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7547393364928909</v>
+        <v>0.26</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4964694067651284</v>
+        <v>0.35</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3618981917730912</v>
+        <v>0.61</v>
       </c>
       <c r="O14" t="n">
-        <v>0.648285137861466</v>
+        <v>0.53</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6997310020174849</v>
+        <v>0.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.28144</v>
+        <v>0.59</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4286366213915852</v>
+        <v>0.33</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4246984637988738</v>
+        <v>0.35</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8698089570936423</v>
+        <v>0.16</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6229877857813969</v>
+        <v>0.06</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9305839400834288</v>
+        <v>0.55</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9422828541658839</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>0.5870544934940987</v>
+        <v>0.58</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.7534687515605065</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.8119061093553033</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.7853527565797995</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.3070950189292091</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.8457499999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.80796</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.67599</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>../results\OrdalieTech\Solon-embeddings-large-0.1</t>
+          <t>camembert/camembert-base</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6310932448320445</v>
+        <v>0.39</v>
       </c>
       <c r="C15" t="n">
-        <v>0.373886875609376</v>
+        <v>0.31</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7222761824335505</v>
+        <v>0.66</v>
       </c>
       <c r="E15" t="n">
-        <v>0.46942</v>
+        <v>0.29</v>
       </c>
       <c r="F15" t="n">
-        <v>0.42094</v>
+        <v>0.58</v>
       </c>
       <c r="G15" t="n">
-        <v>0.57658</v>
+        <v>0.3</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8694952864886114</v>
+        <v>0.27</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.27</v>
       </c>
       <c r="K15" t="n">
-        <v>0.319785351848106</v>
+        <v>0.41</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7609004739336493</v>
+        <v>0.16</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4563006463136968</v>
+        <v>0.29</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3086339630962708</v>
+        <v>0.54</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6736381977135171</v>
+        <v>0.52</v>
       </c>
       <c r="P15" t="n">
-        <v>0.712878278412912</v>
+        <v>0.83</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.30074</v>
+        <v>0.36</v>
       </c>
       <c r="R15" t="n">
-        <v>0.42750019998425</v>
+        <v>0.26</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4327314328859869</v>
+        <v>0.06</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8925148762918884</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6854995302223614</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9401979957812989</v>
+        <v>0.55</v>
       </c>
       <c r="W15" t="n">
-        <v>0.952291317855892</v>
+        <v>0.61</v>
       </c>
       <c r="X15" t="n">
-        <v>0.6018934804753497</v>
+        <v>0.54</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.767437746873382</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.8330552085410882</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.799935484366653</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.2958235045461276</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.8711666666666666</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.84605</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.70221</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>../results\Wissam42\sentence-croissant-llm-base</t>
+          <t>camembert/camembert-large</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6411669265073395</v>
+        <v>0.46</v>
       </c>
       <c r="C16" t="n">
-        <v>0.325236731994226</v>
+        <v>0.36</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5675487985583264</v>
+        <v>0.71</v>
       </c>
       <c r="E16" t="n">
-        <v>0.29969</v>
+        <v>0.42</v>
       </c>
       <c r="F16" t="n">
-        <v>0.34792</v>
+        <v>0.68</v>
       </c>
       <c r="G16" t="n">
-        <v>0.52252</v>
+        <v>0.31</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7371911997949699</v>
+        <v>0.33</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.35</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2918425338399898</v>
+        <v>0.44</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7928909952606634</v>
+        <v>0.03</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5394435157885373</v>
+        <v>0.34</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4105178984993857</v>
+        <v>0.59</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5940820443846672</v>
+        <v>0.52</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6528581035642234</v>
+        <v>0.77</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.21309</v>
+        <v>0.36</v>
       </c>
       <c r="R16" t="n">
-        <v>0.429413226398757</v>
+        <v>0.33</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3391299056452157</v>
+        <v>0.18</v>
       </c>
       <c r="T16" t="n">
-        <v>0.855214531788287</v>
+        <v>0.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0.6312245537112433</v>
+        <v>0.02</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9141910841619804</v>
+        <v>0.62</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9261526052336004</v>
+        <v>0.57</v>
       </c>
       <c r="X16" t="n">
-        <v>0.6313386879959426</v>
+        <v>0.59</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.6960017257463582</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.7877222611897307</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.7922738680429985</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.2890197428557823</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.779595238095238</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.74197</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.58573</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>../results\bert-base-multilingual-cased</t>
+          <t>dangvantuan/sentence-camembert-base</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5149653756008361</v>
+        <v>0.61</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4305645671675891</v>
+        <v>0.52</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3178385313302001</v>
+        <v>0.7</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01626</v>
+        <v>0.43</v>
       </c>
       <c r="F17" t="n">
-        <v>0.29394</v>
+        <v>0.77</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1036</v>
+        <v>0.36</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2996061329422579</v>
+        <v>0.31</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9694082246740221</v>
+        <v>0.36</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9762621196924105</v>
+        <v>0.27</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2458193413983279</v>
+        <v>0.36</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6400473933649289</v>
+        <v>0.25</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2423499234956803</v>
+        <v>0.39</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2445999599094782</v>
+        <v>0.59</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3729993275050437</v>
+        <v>0.57</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4446536650975118</v>
+        <v>0.92</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.03554</v>
+        <v>0.74</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4090371994645377</v>
+        <v>0.58</v>
       </c>
       <c r="S17" t="n">
-        <v>0.3179683201467264</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6361102411525212</v>
+        <v>0.39</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3783589101158785</v>
+        <v>0.22</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8677048159592717</v>
+        <v>0.82</v>
       </c>
       <c r="W17" t="n">
-        <v>0.8722976958382189</v>
+        <v>0.78</v>
       </c>
       <c r="X17" t="n">
-        <v>0.5339388951464616</v>
+        <v>0.74</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.5874812845368886</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.3904525758557057</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.5224722935490146</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.2881930191988686</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.4340515873015873</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.18948</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.1849</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>../results\bert-base-multilingual-uncased</t>
+          <t>embed-multilingual-light-v3.0</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6066148200885675</v>
+        <v>0.59</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3505397363641355</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3277262979995819</v>
+        <v>0.83</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05506</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.29024</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.16216</v>
+        <v>0.39</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3559984760058366</v>
+        <v>0.29</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9477432296890672</v>
+        <v>0.57</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9799398194583752</v>
+        <v>0.33</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2583750607318433</v>
+        <v>0.43</v>
       </c>
       <c r="L18" t="n">
-        <v>0.756872037914692</v>
+        <v>0.2</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4971340561526633</v>
+        <v>0.31</v>
       </c>
       <c r="N18" t="n">
-        <v>0.422255814870678</v>
+        <v>0.62</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3800605245460659</v>
+        <v>0.57</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4363147276395427</v>
+        <v>0.91</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02872</v>
+        <v>0.82</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4349522858689475</v>
+        <v>0.7</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3098774275886452</v>
+        <v>0.77</v>
       </c>
       <c r="T18" t="n">
-        <v>0.644910742248669</v>
+        <v>0.52</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3940181647353586</v>
+        <v>0.35</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8743393906507683</v>
+        <v>0.76</v>
       </c>
       <c r="W18" t="n">
-        <v>0.8874950508866897</v>
+        <v>0.83</v>
       </c>
       <c r="X18" t="n">
-        <v>0.5322360899538218</v>
+        <v>0.76</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.5826449144443914</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.5647457412587442</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.5497353309633939</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.3073266406645685</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0.5896785714285715</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.34951</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.26117</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>../results\camembert\camembert-base</t>
+          <t>embed-multilingual-v3.0</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5423893147384338</v>
+        <v>0.67</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2918804706562174</v>
+        <v>0.63</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2556621635909326</v>
+        <v>0.83</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00235</v>
+        <v>0.61</v>
       </c>
       <c r="F19" t="n">
-        <v>0.29814</v>
+        <v>0.86</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0045</v>
+        <v>0.42</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04331694082788507</v>
+        <v>0.32</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2602264772347189</v>
+        <v>0.53</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2515262419615453</v>
+        <v>0.35</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1581925700530789</v>
+        <v>0.45</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6561611374407583</v>
+        <v>0.24</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4398103174841825</v>
+        <v>0.36</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2665670855775651</v>
+        <v>0.64</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3095158036314727</v>
+        <v>0.61</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3948554135843981</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02022</v>
+        <v>0.84</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4060210180892428</v>
+        <v>0.74</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2663399835756784</v>
+        <v>0.79</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5839336047604134</v>
+        <v>0.44</v>
       </c>
       <c r="U19" t="n">
-        <v>0.2861259004071406</v>
+        <v>0.38</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8342726180422799</v>
+        <v>0.82</v>
       </c>
       <c r="W19" t="n">
-        <v>0.8601987158204568</v>
+        <v>0.83</v>
       </c>
       <c r="X19" t="n">
-        <v>0.521089966496604</v>
+        <v>0.79</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.5368307592304911</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.6107432321823179</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.5486423488745364</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0.2972138595861862</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.361670634920635</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.05799</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.19922</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>../results\camembert\camembert-large</t>
+          <t>flaubert/flaubert_base_cased</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.592712061687221</v>
+        <v>0.11</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3424503121580777</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3293934606539791</v>
+        <v>0.71</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01968</v>
+        <v>0.09</v>
       </c>
       <c r="F20" t="n">
-        <v>0.31168</v>
+        <v>0.26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05998688454697069</v>
+        <v>0.21</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4013712370627894</v>
+        <v>0.42</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3161171999727407</v>
+        <v>0.17</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03216273637496015</v>
+        <v>0.39</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7061611374407584</v>
+        <v>0.04</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4213366020734207</v>
+        <v>0.14</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3335790002411184</v>
+        <v>0.53</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3620376597175521</v>
+        <v>0.52</v>
       </c>
       <c r="P20" t="n">
-        <v>0.4633490248823134</v>
+        <v>0.82</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03552</v>
+        <v>0.43</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4408218038488301</v>
+        <v>0.29</v>
       </c>
       <c r="S20" t="n">
-        <v>0.351462769915096</v>
+        <v>0.21</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6839336047604134</v>
+        <v>0.02</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4249608518634513</v>
+        <v>0.02</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7663262539483096</v>
+        <v>0.37</v>
       </c>
       <c r="W20" t="n">
-        <v>0.797210507122408</v>
+        <v>0.65</v>
       </c>
       <c r="X20" t="n">
-        <v>0.5228462246810233</v>
+        <v>0.54</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.5880208439406661</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.5725762796846933</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.6183576200859585</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0.1672493113419711</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0.3578185425685426</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.17539</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0.20472</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>../results\dangvantuan\sentence-camembert-base</t>
+          <t>flaubert/flaubert_base_uncased</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5909203102484407</v>
+        <v>0.11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.389167691440152</v>
+        <v>0.06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5834449233135185</v>
+        <v>0.63</v>
       </c>
       <c r="E21" t="n">
-        <v>0.21938</v>
+        <v>0.09</v>
       </c>
       <c r="F21" t="n">
-        <v>0.36026</v>
+        <v>0.28</v>
       </c>
       <c r="G21" t="n">
-        <v>0.39189</v>
+        <v>0.24</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3606737729832072</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8975927783350049</v>
+        <v>0.28</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9007021063189569</v>
+        <v>0.15</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2536650090973221</v>
+        <v>0.33</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7035545023696683</v>
+        <v>0.02</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3603382429363983</v>
+        <v>0.13</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3076503346423071</v>
+        <v>0.43</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5159381304640215</v>
+        <v>0.53</v>
       </c>
       <c r="P21" t="n">
-        <v>0.6127774041694687</v>
+        <v>0.82</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.13357</v>
+        <v>0.49</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3597635372718684</v>
+        <v>0.3</v>
       </c>
       <c r="S21" t="n">
-        <v>0.2705338909472246</v>
+        <v>0.22</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7710303789539619</v>
+        <v>0.03</v>
       </c>
       <c r="U21" t="n">
-        <v>0.4343877231443783</v>
+        <v>0.02</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9205083560505066</v>
+        <v>0.33</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9328066173124074</v>
+        <v>0.55</v>
       </c>
       <c r="X21" t="n">
-        <v>0.5743705197496742</v>
+        <v>0.42</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7417817544381963</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.7753949779251178</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.8163901919126012</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.2852188259243553</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0.7372738095238095</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.68618</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.57916</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>../results\dangvantuan\sentence-camembert-large</t>
+          <t>flaubert/flaubert_large_cased</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6268796577838202</v>
+        <v>0.23</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4206075946482793</v>
+        <v>0.16</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6232895404009673</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.31623</v>
+        <v>0.1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3797</v>
+        <v>0.24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.56757</v>
+        <v>0.22</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6783115045819693</v>
+        <v>0.25</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9946506185222335</v>
+        <v>0.26</v>
       </c>
       <c r="J22" t="n">
-        <v>0.995987963891675</v>
+        <v>0.19</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3095981601980681</v>
+        <v>0.38</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8061611374407583</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5450656885773288</v>
+        <v>0.22</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4473220244132624</v>
+        <v>0.41</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6265299260255548</v>
+        <v>0.54</v>
       </c>
       <c r="P22" t="n">
-        <v>0.6929051782111635</v>
+        <v>0.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.21871</v>
+        <v>0.32</v>
       </c>
       <c r="R22" t="n">
-        <v>0.420359585982358</v>
+        <v>0.29</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3229405651242595</v>
+        <v>0.02</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8573755089257752</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.5861572189163796</v>
+        <v>0.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9462760751835194</v>
+        <v>0.16</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9525375018810192</v>
+        <v>0.49</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5958886792690583</v>
+        <v>0.35</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7769676247221875</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.8172944501533574</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.8578534328308375</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0.3058441726492274</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0.848345238095238</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.8111</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0.65623</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>../results\embed-multilingual-light-v3.0</t>
+          <t>intfloat/e5-mistral-7b-instruct</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6195997777996813</v>
+        <v>0.7</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3135667338652056</v>
+        <v>0.6</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7022205799056065</v>
+        <v>0.75</v>
       </c>
       <c r="E23" t="n">
-        <v>0.35394</v>
+        <v>0.53</v>
       </c>
       <c r="F23" t="n">
-        <v>0.386</v>
+        <v>0.82</v>
       </c>
       <c r="G23" t="n">
-        <v>0.51802</v>
+        <v>0.44</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6631613175502583</v>
+        <v>0.65</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.44</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1964490765934713</v>
+        <v>0.45</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8258293838862558</v>
+        <v>0.37</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5680686305484748</v>
+        <v>0.58</v>
       </c>
       <c r="N23" t="n">
-        <v>0.294063089090014</v>
+        <v>0.64</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5631136516476126</v>
+        <v>0.6</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5949562878278413</v>
+        <v>0.92</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.23004</v>
+        <v>0.9</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4279854786876686</v>
+        <v>0.74</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3272447200966951</v>
+        <v>0.83</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8079235828374569</v>
+        <v>0.64</v>
       </c>
       <c r="U23" t="n">
-        <v>0.5000626370184779</v>
+        <v>0.45</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9091625445064609</v>
+        <v>0.83</v>
       </c>
       <c r="W23" t="n">
-        <v>0.9209596025105193</v>
+        <v>0.76</v>
       </c>
       <c r="X23" t="n">
-        <v>0.5731728148121378</v>
+        <v>0.79</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.7550483099806141</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.8279714502136332</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.7648019211186484</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0.3124809100083125</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0.8196666666666665</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.7688199999999999</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.45227</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>../results\embed-multilingual-v3.0</t>
+          <t>intfloat/multilingual-e5-base</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6352561566282294</v>
+        <v>0.66</v>
       </c>
       <c r="C24" t="n">
-        <v>0.361759185577996</v>
+        <v>0.61</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7366250957261234</v>
+        <v>0.8</v>
       </c>
       <c r="E24" t="n">
-        <v>0.38361</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.41892</v>
+        <v>0.85</v>
       </c>
       <c r="G24" t="n">
-        <v>0.44144</v>
+        <v>0.41</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8308540836724554</v>
+        <v>0.51</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="K24" t="n">
-        <v>0.244880184861852</v>
+        <v>0.43</v>
       </c>
       <c r="L24" t="n">
-        <v>0.830568720379147</v>
+        <v>0.28</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5318379498672176</v>
+        <v>0.33</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3230998225707994</v>
+        <v>0.62</v>
       </c>
       <c r="O24" t="n">
-        <v>0.629388029589778</v>
+        <v>0.57</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6729320780094149</v>
+        <v>0.93</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.25437</v>
+        <v>0.83</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4508360325363872</v>
+        <v>0.67</v>
       </c>
       <c r="S24" t="n">
-        <v>0.347527142956374</v>
+        <v>0.8</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8622925148762919</v>
+        <v>0.53</v>
       </c>
       <c r="U24" t="n">
-        <v>0.6107422486689634</v>
+        <v>0.36</v>
       </c>
       <c r="V24" t="n">
-        <v>0.940778214081015</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W24" t="n">
-        <v>0.9503580631772154</v>
+        <v>0.78</v>
       </c>
       <c r="X24" t="n">
-        <v>0.6125533530469982</v>
+        <v>0.76</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7923250123076204</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.8276336405644232</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.8184387078760932</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.3124995360706698</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.8365833333333333</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.79269</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.58873</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>../results\flaubert\flaubert_base_cased</t>
+          <t>intfloat/multilingual-e5-large</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5285934835529511</v>
+        <v>0.68</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1445975007371924</v>
+        <v>0.64</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2920875344017915</v>
+        <v>0.79</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01628</v>
+        <v>0.59</v>
       </c>
       <c r="F25" t="n">
-        <v>0.24904</v>
+        <v>0.86</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02252</v>
+        <v>0.42</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01979442433142667</v>
+        <v>0.31</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3091099858805599</v>
+        <v>0.41</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3585084545943069</v>
+        <v>0.38</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04350586920781181</v>
+        <v>0.44</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7113744075829384</v>
+        <v>0.28</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4161016174685461</v>
+        <v>0.32</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2126096885689954</v>
+        <v>0.63</v>
       </c>
       <c r="O25" t="n">
-        <v>0.06980497646267654</v>
+        <v>0.59</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1140551445864156</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.00579</v>
+        <v>0.83</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3905601625969005</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>0.171305846850958</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2554963983714375</v>
+        <v>0.59</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09492640150328843</v>
+        <v>0.38</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8214541028748449</v>
+        <v>0.83</v>
       </c>
       <c r="W25" t="n">
-        <v>0.8372010738024828</v>
+        <v>0.8</v>
       </c>
       <c r="X25" t="n">
-        <v>0.5189063823329726</v>
+        <v>0.79</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.5386168675726091</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.6536672090843911</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.3713955104980419</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0.3121511534179885</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0.427472582972583</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.20562</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.06587999999999999</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>../results\flaubert\flaubert_base_uncased</t>
+          <t>intfloat/multilingual-e5-small</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4320222924608445</v>
+        <v>0.61</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1293857445009916</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2990165728874674</v>
+        <v>0.78</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01719</v>
+        <v>0.46</v>
       </c>
       <c r="F26" t="n">
-        <v>0.23518</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02703</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02985745352493187</v>
+        <v>0.39</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2537073113561774</v>
+        <v>0.4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08098894058162567</v>
+        <v>0.38</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02110798186730912</v>
+        <v>0.43</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6260663507109006</v>
+        <v>0.21</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2849343428327477</v>
+        <v>0.33</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2257882491180909</v>
+        <v>0.61</v>
       </c>
       <c r="O26" t="n">
-        <v>0.06237390719569604</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1098184263618023</v>
+        <v>0.93</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.00508</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3322371189429822</v>
+        <v>0.65</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1489756017869693</v>
+        <v>0.76</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2774193548387097</v>
+        <v>0.52</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08609458189790167</v>
+        <v>0.27</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8199594649342907</v>
+        <v>0.79</v>
       </c>
       <c r="W26" t="n">
-        <v>0.8371300542205431</v>
+        <v>0.8</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5277777608306072</v>
+        <v>0.76</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.4190237966349758</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.5515047105823337</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.3340826064580523</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.2940387618112921</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.4900678210678211</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.22333</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>../results\flaubert\flaubert_large_cased</t>
+          <t>izhx/udever-bloom-1b1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4085073955515567</v>
+        <v>0.5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217556103036172</v>
+        <v>0.43</v>
       </c>
       <c r="D27" t="n">
-        <v>0.293477014607151</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0058</v>
+        <v>0.51</v>
       </c>
       <c r="F27" t="n">
-        <v>0.22446</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H27" t="n">
-        <v>0.009125460760132157</v>
+        <v>0.27</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1491870638833542</v>
+        <v>0.4</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1739429979680737</v>
+        <v>0.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06655572532464642</v>
+        <v>0.44</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5563981042654029</v>
+        <v>0.16</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2642955329593683</v>
+        <v>0.27</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2467651379532248</v>
+        <v>0.62</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1641223940820444</v>
+        <v>0.62</v>
       </c>
       <c r="P27" t="n">
-        <v>0.2271687962340282</v>
+        <v>0.86</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.00263</v>
+        <v>0.48</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3809040459534752</v>
+        <v>0.39</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1871270130969609</v>
+        <v>0.41</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2426558095834638</v>
+        <v>0.32</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790165988098966</v>
+        <v>0.12</v>
       </c>
       <c r="V27" t="n">
-        <v>0.7477882434061929</v>
+        <v>0.5</v>
       </c>
       <c r="W27" t="n">
-        <v>0.7644139372682293</v>
+        <v>0.77</v>
       </c>
       <c r="X27" t="n">
-        <v>0.5413772297820212</v>
+        <v>0.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.3460428228637162</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.4852164892537546</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.1565944995632818</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0.2934677862909658</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0.3206645021645022</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0.01578</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0.03694</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>../results\intfloat\e5-mistral-7b-instruct</t>
+          <t>izhx/udever-bloom-560m</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6372358432087271</v>
+        <v>0.22</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5813416598329056</v>
+        <v>0.15</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7435294651132076</v>
+        <v>0.68</v>
       </c>
       <c r="E28" t="n">
-        <v>0.45024</v>
+        <v>0.16</v>
       </c>
       <c r="F28" t="n">
-        <v>0.44124</v>
+        <v>0.35</v>
       </c>
       <c r="G28" t="n">
-        <v>0.64414</v>
+        <v>0.27</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8537682572781737</v>
+        <v>0.21</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3714783622355678</v>
+        <v>0.36</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7495260663507108</v>
+        <v>0.08</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3774396036145243</v>
+        <v>0.22</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6506715922995265</v>
+        <v>0.54</v>
       </c>
       <c r="O28" t="n">
-        <v>0.59862138533961</v>
+        <v>0.6</v>
       </c>
       <c r="P28" t="n">
-        <v>0.6982515131136517</v>
+        <v>0.82</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.48849</v>
+        <v>0.47</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4532798369950647</v>
+        <v>0.31</v>
       </c>
       <c r="S28" t="n">
-        <v>0.4441451479416692</v>
+        <v>0.24</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8202630754776072</v>
+        <v>0.06</v>
       </c>
       <c r="U28" t="n">
-        <v>0.5298465393047291</v>
+        <v>0.02</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9199728356434089</v>
+        <v>0.37</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9395017624590254</v>
+        <v>0.61</v>
       </c>
       <c r="X28" t="n">
-        <v>0.6008082215984939</v>
+        <v>0.55</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7914808164798864</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.756267198771491</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.8258035914230101</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0.3124673740516555</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0.9000952380952382</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.83433</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0.63403</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>../results\intfloat\multilingual-e5-base</t>
+          <t>laser2</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6208902532272975</v>
+        <v>0.59</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3298420160973169</v>
+        <v>0.53</v>
       </c>
       <c r="D29" t="n">
-        <v>0.666692811769824</v>
+        <v>0.66</v>
       </c>
       <c r="E29" t="n">
-        <v>0.36213</v>
+        <v>0.57</v>
       </c>
       <c r="F29" t="n">
-        <v>0.40944</v>
+        <v>0.76</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5315299999999999</v>
+        <v>0.34</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8469805121423075</v>
+        <v>0.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.27</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2797665263973637</v>
+        <v>0.35</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7969194312796208</v>
+        <v>0.12</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4790955603113446</v>
+        <v>0.26</v>
       </c>
       <c r="N29" t="n">
-        <v>0.511613591091413</v>
+        <v>0.48</v>
       </c>
       <c r="O29" t="n">
-        <v>0.6083389374579691</v>
+        <v>0.7</v>
       </c>
       <c r="P29" t="n">
-        <v>0.6648621385339609</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.23459</v>
+        <v>0.49</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4347744902667021</v>
+        <v>0.39</v>
       </c>
       <c r="S29" t="n">
-        <v>0.3852856167447359</v>
+        <v>0.29</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8478546821171312</v>
+        <v>0.08</v>
       </c>
       <c r="U29" t="n">
-        <v>0.5550892577513311</v>
+        <v>0.03</v>
       </c>
       <c r="V29" t="n">
-        <v>0.9271872509880947</v>
+        <v>0.7</v>
       </c>
       <c r="W29" t="n">
-        <v>0.9388089167367641</v>
+        <v>0.65</v>
       </c>
       <c r="X29" t="n">
-        <v>0.5693001208081843</v>
+        <v>0.65</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.7622741775011176</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.7812983399916396</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.8061987894341297</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0.3085025393421201</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0.8293333333333333</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.8048999999999999</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0.65813</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>../results\intfloat\multilingual-e5-large</t>
+          <t>manu/bge-m3-custom-fr</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6299441060729347</v>
+        <v>0.75</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3226490465285985</v>
+        <v>0.67</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6938624729293177</v>
+        <v>0.7</v>
       </c>
       <c r="E30" t="n">
-        <v>0.38155</v>
+        <v>0.61</v>
       </c>
       <c r="F30" t="n">
-        <v>0.41906</v>
+        <v>0.9</v>
       </c>
       <c r="G30" t="n">
-        <v>0.59459</v>
+        <v>0.42</v>
       </c>
       <c r="H30" t="n">
-        <v>0.848343389001009</v>
+        <v>0.42</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2774672118720068</v>
+        <v>0.42</v>
       </c>
       <c r="L30" t="n">
-        <v>0.7938388625592416</v>
+        <v>0.31</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4094051717864892</v>
+        <v>0.39</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3056417709980992</v>
+        <v>0.58</v>
       </c>
       <c r="O30" t="n">
-        <v>0.6354741089441829</v>
+        <v>0.61</v>
       </c>
       <c r="P30" t="n">
-        <v>0.6814727639542704</v>
+        <v>0.93</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.25198</v>
+        <v>0.85</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4403584780733176</v>
+        <v>0.74</v>
       </c>
       <c r="S30" t="n">
-        <v>0.3764790754795183</v>
+        <v>0.79</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8640776699029127</v>
+        <v>0.53</v>
       </c>
       <c r="U30" t="n">
-        <v>0.5943000313185093</v>
+        <v>0.45</v>
       </c>
       <c r="V30" t="n">
-        <v>0.938913502641856</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W30" t="n">
-        <v>0.9484999717971343</v>
+        <v>0.82</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5850354286368129</v>
+        <v>0.76</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.7877953920342992</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.7959570636221113</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.825331305991469</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0.309620638332414</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0.8286666666666666</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0.81073</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0.66152</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>../results\intfloat\multilingual-e5-small</t>
+          <t>manu/sentence_croissant_alpha_v0.2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6088563017856842</v>
+        <v>0.7</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3252159090813198</v>
+        <v>0.64</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6527671789828227</v>
+        <v>0.76</v>
       </c>
       <c r="E31" t="n">
-        <v>0.27011</v>
+        <v>0.61</v>
       </c>
       <c r="F31" t="n">
-        <v>0.39678</v>
+        <v>0.89</v>
       </c>
       <c r="G31" t="n">
-        <v>0.51802</v>
+        <v>0.38</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8191820946779194</v>
+        <v>0.32</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="K31" t="n">
-        <v>0.207871943996032</v>
+        <v>0.45</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7765402843601896</v>
+        <v>0.33</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4012052586909949</v>
+        <v>0.38</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3922138626257822</v>
+        <v>0.62</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5596839273705447</v>
+        <v>0.67</v>
       </c>
       <c r="P31" t="n">
-        <v>0.6141896435776732</v>
+        <v>0.93</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.22532</v>
+        <v>0.82</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4319898481643542</v>
+        <v>0.72</v>
       </c>
       <c r="S31" t="n">
-        <v>0.3760912295232594</v>
+        <v>0.79</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8119636705292829</v>
+        <v>0.6</v>
       </c>
       <c r="U31" t="n">
-        <v>0.4600689007203257</v>
+        <v>0.45</v>
       </c>
       <c r="V31" t="n">
-        <v>0.9251631850374396</v>
+        <v>0.73</v>
       </c>
       <c r="W31" t="n">
-        <v>0.9361314066710414</v>
+        <v>0.79</v>
       </c>
       <c r="X31" t="n">
-        <v>0.5567655997101544</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.7561918985563969</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.7961730402830817</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.7932089325677624</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0.3163066081340647</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0.8181666666666665</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.75757</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0.57468</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>../results\izhx\udever-bloom-1b1</t>
+          <t>manu/sentence_croissant_alpha_v0.3</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6222399442609416</v>
+        <v>0.7</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2705660566063521</v>
+        <v>0.65</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3861486557235695</v>
+        <v>0.76</v>
       </c>
       <c r="E32" t="n">
-        <v>0.12368</v>
+        <v>0.59</v>
       </c>
       <c r="F32" t="n">
-        <v>0.35122</v>
+        <v>0.88</v>
       </c>
       <c r="G32" t="n">
-        <v>0.32432</v>
+        <v>0.36</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02960398393820522</v>
+        <v>0.38</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7507920742612434</v>
+        <v>0.58</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7753324186122581</v>
+        <v>0.44</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1632465746354957</v>
+        <v>0.44</v>
       </c>
       <c r="L32" t="n">
-        <v>0.8082938388625592</v>
+        <v>0.35</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4020146637093098</v>
+        <v>0.41</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2734727715023461</v>
+        <v>0.6</v>
       </c>
       <c r="O32" t="n">
-        <v>0.4321116341627437</v>
+        <v>0.65</v>
       </c>
       <c r="P32" t="n">
-        <v>0.4978143913920645</v>
+        <v>0.93</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02784</v>
+        <v>0.82</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4411463190530258</v>
+        <v>0.74</v>
       </c>
       <c r="S32" t="n">
-        <v>0.3046596247823246</v>
+        <v>0.8</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6924209207641716</v>
+        <v>0.66</v>
       </c>
       <c r="U32" t="n">
-        <v>0.5124960851863452</v>
+        <v>0.49</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8553994259572022</v>
+        <v>0.78</v>
       </c>
       <c r="W32" t="n">
-        <v>0.8699512931793678</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X32" t="n">
-        <v>0.6199445797185625</v>
+        <v>0.72</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.5994249043712252</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0.7710422175271007</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0.4997294509449677</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0.2948271390028477</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0.4799292929292929</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0.40572</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0.33816</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>../results\izhx\udever-bloom-560m</t>
+          <t>mistral-embed</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5356669323782933</v>
+        <v>0.7</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2213080649584274</v>
+        <v>0.63</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3071196838846439</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01977</v>
+        <v>0.66</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2685</v>
+        <v>0.9</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06306</v>
+        <v>0.42</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08123300931367383</v>
+        <v>0.4</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4982878074063394</v>
+        <v>0.48</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3735697737011764</v>
+        <v>0.43</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08379076469905847</v>
+        <v>0.45</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6793838862559242</v>
+        <v>0.35</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3756989794785178</v>
+        <v>0.49</v>
       </c>
       <c r="N33" t="n">
-        <v>0.2057636370254607</v>
+        <v>0.62</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1509078681909886</v>
+        <v>0.62</v>
       </c>
       <c r="P33" t="n">
-        <v>0.2167451244115669</v>
+        <v>0.93</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.00478</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3643378561194323</v>
+        <v>0.78</v>
       </c>
       <c r="S33" t="n">
-        <v>0.252602955617548</v>
+        <v>0.79</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3498590667084247</v>
+        <v>0.68</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1575634199812089</v>
+        <v>0.57</v>
       </c>
       <c r="V33" t="n">
-        <v>0.821028497835868</v>
+        <v>0.8</v>
       </c>
       <c r="W33" t="n">
-        <v>0.8387532049805303</v>
+        <v>0.83</v>
       </c>
       <c r="X33" t="n">
-        <v>0.5968876661366747</v>
+        <v>0.76</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.5454151151439361</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0.6134778039151253</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0.367797062871304</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0.2352421430265289</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0.4720992063492064</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.24447</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.12977</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>../results\laser2</t>
+          <t>sentence-transformers/LaBSE</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4844987065316271</v>
+        <v>0.65</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2581005978931367</v>
+        <v>0.6</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3949722119087398</v>
+        <v>0.77</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03097</v>
+        <v>0.62</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3389</v>
+        <v>0.84</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08108</v>
+        <v>0.39</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8592414264387124</v>
+        <v>0.38</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="K34" t="n">
-        <v>0.119521921967448</v>
+        <v>0.42</v>
       </c>
       <c r="L34" t="n">
-        <v>0.659004739336493</v>
+        <v>0.25</v>
       </c>
       <c r="M34" t="n">
-        <v>0.3204069399698778</v>
+        <v>0.32</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2977201517756452</v>
+        <v>0.55</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5255548083389374</v>
+        <v>0.55</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5855749831876261</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.06314</v>
+        <v>0.68</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3452771955734939</v>
+        <v>0.55</v>
       </c>
       <c r="S34" t="n">
-        <v>0.2734632035175874</v>
+        <v>0.55</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7615408706545569</v>
+        <v>0.23</v>
       </c>
       <c r="U34" t="n">
-        <v>0.5677106169746321</v>
+        <v>0.2</v>
       </c>
       <c r="V34" t="n">
-        <v>0.9376676402095003</v>
+        <v>0.75</v>
       </c>
       <c r="W34" t="n">
-        <v>0.9461924042044693</v>
+        <v>0.78</v>
       </c>
       <c r="X34" t="n">
-        <v>0.6952503411108341</v>
+        <v>0.7</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.6495173425879137</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0.6526537801367611</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0.698190921587828</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0.3147839211842597</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0.4901031746031747</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.28578</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0.42589</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>../results\manu\bge-m3-custom-fr</t>
+          <t>sentence-transformers/all-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5757878622622551</v>
+        <v>0.54</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3944229454079622</v>
+        <v>0.45</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7368891701668482</v>
+        <v>0.72</v>
       </c>
       <c r="E35" t="n">
-        <v>0.44746</v>
+        <v>0.39</v>
       </c>
       <c r="F35" t="n">
-        <v>0.42324</v>
+        <v>0.76</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5315299999999999</v>
+        <v>0.28</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8278011992260426</v>
+        <v>0.32</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.43</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3071434643691057</v>
+        <v>0.34</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7023696682464454</v>
+        <v>0.25</v>
       </c>
       <c r="M35" t="n">
-        <v>0.292272082926912</v>
+        <v>0.32</v>
       </c>
       <c r="N35" t="n">
-        <v>0.4157909770352988</v>
+        <v>0.46</v>
       </c>
       <c r="O35" t="n">
-        <v>0.6669468728984532</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P35" t="n">
-        <v>0.7456960322797579</v>
+        <v>0.87</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.25173</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4214163246845126</v>
+        <v>0.67</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4243781497829743</v>
+        <v>0.61</v>
       </c>
       <c r="T35" t="n">
-        <v>0.903883495145631</v>
+        <v>0.34</v>
       </c>
       <c r="U35" t="n">
-        <v>0.6082054494206075</v>
+        <v>0.33</v>
       </c>
       <c r="V35" t="n">
-        <v>0.9333973385767004</v>
+        <v>0.67</v>
       </c>
       <c r="W35" t="n">
-        <v>0.944701727209905</v>
+        <v>0.7</v>
       </c>
       <c r="X35" t="n">
-        <v>0.6094421871363481</v>
+        <v>0.63</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.7550779819674533</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0.8190001119887127</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0.8130363449669112</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0.3005334974874609</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0.845873015873016</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0.79145</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0.68492</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>../results\manu\sentence_croissant_alpha_v0.2</t>
+          <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.6224457184731559</v>
+        <v>0.51</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3796537550876475</v>
+        <v>0.43</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7196818323283877</v>
+        <v>0.74</v>
       </c>
       <c r="E36" t="n">
-        <v>0.45487</v>
+        <v>0.4</v>
       </c>
       <c r="F36" t="n">
-        <v>0.38106</v>
+        <v>0.75</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6036</v>
+        <v>0.27</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7490244473049233</v>
+        <v>0.41</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.35</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.28</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3330566761940467</v>
+        <v>0.37</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7552132701421801</v>
+        <v>0.23</v>
       </c>
       <c r="M36" t="n">
-        <v>0.5574960450682011</v>
+        <v>0.32</v>
       </c>
       <c r="N36" t="n">
-        <v>0.3227666866562461</v>
+        <v>0.52</v>
       </c>
       <c r="O36" t="n">
-        <v>0.6383658372562205</v>
+        <v>0.55</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7008406186953597</v>
+        <v>0.87</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.26351</v>
+        <v>0.67</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4460491760281284</v>
+        <v>0.63</v>
       </c>
       <c r="S36" t="n">
-        <v>0.4438422214552257</v>
+        <v>0.6</v>
       </c>
       <c r="T36" t="n">
-        <v>0.885812715314751</v>
+        <v>0.27</v>
       </c>
       <c r="U36" t="n">
-        <v>0.6147823363607892</v>
+        <v>0.28</v>
       </c>
       <c r="V36" t="n">
-        <v>0.9315589224053143</v>
+        <v>0.65</v>
       </c>
       <c r="W36" t="n">
-        <v>0.93299242831188</v>
+        <v>0.77</v>
       </c>
       <c r="X36" t="n">
-        <v>0.668665650886613</v>
+        <v>0.62</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.6912509283105648</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0.792794943790982</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0.7262832939213406</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0.3000058099243242</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0.8224285714285715</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.7870200000000001</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0.61914</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>../results\manu\sentence_croissant_alpha_v0.3</t>
+          <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6049889083017318</v>
+        <v>0.67</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4058550987695524</v>
+        <v>0.6</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7364325943253973</v>
+        <v>0.77</v>
       </c>
       <c r="E37" t="n">
-        <v>0.49088</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3631</v>
+        <v>0.85</v>
       </c>
       <c r="G37" t="n">
-        <v>0.65766</v>
+        <v>0.36</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7737718097451919</v>
+        <v>0.33</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.54</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.35</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3502355102897413</v>
+        <v>0.4</v>
       </c>
       <c r="L37" t="n">
-        <v>0.75781990521327</v>
+        <v>0.22</v>
       </c>
       <c r="M37" t="n">
-        <v>0.5799405225219099</v>
+        <v>0.35</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3769405326971794</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6489240080699393</v>
+        <v>0.51</v>
       </c>
       <c r="P37" t="n">
-        <v>0.6986550100874244</v>
+        <v>0.92</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2965</v>
+        <v>0.75</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4422111049954497</v>
+        <v>0.62</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4381914693719002</v>
+        <v>0.65</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8825555903538993</v>
+        <v>0.29</v>
       </c>
       <c r="U37" t="n">
-        <v>0.592890698402756</v>
+        <v>0.27</v>
       </c>
       <c r="V37" t="n">
-        <v>0.9346759444633187</v>
+        <v>0.77</v>
       </c>
       <c r="W37" t="n">
-        <v>0.9401873666553365</v>
+        <v>0.76</v>
       </c>
       <c r="X37" t="n">
-        <v>0.6542042805601268</v>
+        <v>0.72</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.719770122605619</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0.8133791809403829</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0.7765803549830591</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.307881108524684</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.8217023809523809</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.8033</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.64217</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>../results\mistral-embed</t>
+          <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.6200673531656187</v>
+        <v>0.5</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4919858181804794</v>
+        <v>0.43</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7796140728300852</v>
+        <v>0.76</v>
       </c>
       <c r="E38" t="n">
-        <v>0.56836</v>
+        <v>0.37</v>
       </c>
       <c r="F38" t="n">
-        <v>0.41594</v>
+        <v>0.73</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6756799999999999</v>
+        <v>0.27</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7486276019358121</v>
+        <v>0.27</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.26</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3462581979003524</v>
+        <v>0.35</v>
       </c>
       <c r="L38" t="n">
-        <v>0.8139810426540285</v>
+        <v>0.14</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4812513474674608</v>
+        <v>0.26</v>
       </c>
       <c r="N38" t="n">
-        <v>0.3961706213267493</v>
+        <v>0.49</v>
       </c>
       <c r="O38" t="n">
-        <v>0.6283120376597177</v>
+        <v>0.57</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6971418964357767</v>
+        <v>0.88</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.21732</v>
+        <v>0.65</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4527933950642883</v>
+        <v>0.63</v>
       </c>
       <c r="S38" t="n">
-        <v>0.427376128032198</v>
+        <v>0.58</v>
       </c>
       <c r="T38" t="n">
-        <v>0.9005010961478235</v>
+        <v>0.3</v>
       </c>
       <c r="U38" t="n">
-        <v>0.6608831819605385</v>
+        <v>0.3</v>
       </c>
       <c r="V38" t="n">
-        <v>0.9261462822985623</v>
+        <v>0.64</v>
       </c>
       <c r="W38" t="n">
-        <v>0.9390344015481578</v>
+        <v>0.75</v>
       </c>
       <c r="X38" t="n">
-        <v>0.6202390909948808</v>
+        <v>0.62</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.7621241859440422</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0.8274398153558601</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0.7972225305052291</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0.3132209274517802</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0.8122619047619049</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.7877</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0.74235</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\LaBSE</t>
+          <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5478373637265357</v>
+        <v>0.65</v>
       </c>
       <c r="C39" t="n">
-        <v>0.316037738871091</v>
+        <v>0.58</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5537476614602802</v>
+        <v>0.76</v>
       </c>
       <c r="E39" t="n">
-        <v>0.19775</v>
+        <v>0.48</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3852399999999999</v>
+        <v>0.78</v>
       </c>
       <c r="G39" t="n">
-        <v>0.22973</v>
+        <v>0.37</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8754400001529438</v>
+        <v>0.34</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2536257073353338</v>
+        <v>0.4</v>
       </c>
       <c r="L39" t="n">
-        <v>0.7739336492890996</v>
+        <v>0.3</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4615982853044859</v>
+        <v>0.42</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3813297329222706</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O39" t="n">
-        <v>0.6046738399462004</v>
+        <v>0.57</v>
       </c>
       <c r="P39" t="n">
-        <v>0.6510423671822462</v>
+        <v>0.92</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.15529</v>
+        <v>0.73</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4209325634914144</v>
+        <v>0.62</v>
       </c>
       <c r="S39" t="n">
-        <v>0.348364243914043</v>
+        <v>0.66</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8413717507046664</v>
+        <v>0.38</v>
       </c>
       <c r="U39" t="n">
-        <v>0.6201064829314126</v>
+        <v>0.27</v>
       </c>
       <c r="V39" t="n">
-        <v>0.9395623291640002</v>
+        <v>0.8</v>
       </c>
       <c r="W39" t="n">
-        <v>0.9441484444599348</v>
+        <v>0.71</v>
       </c>
       <c r="X39" t="n">
-        <v>0.5463098409665733</v>
+        <v>0.75</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.699399693283394</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0.779542837388368</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0.7509746606428888</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0.3030742538946646</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0.6762063492063493</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.55315</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0.51736</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\all-MiniLM-L12-v2</t>
+          <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4602594872664162</v>
+        <v>0.68</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3182943689925971</v>
+        <v>0.62</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6701369640322303</v>
+        <v>0.78</v>
       </c>
       <c r="E40" t="n">
-        <v>0.33196</v>
+        <v>0.52</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2754</v>
+        <v>0.8</v>
       </c>
       <c r="G40" t="n">
-        <v>0.34234</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.096967565885423</v>
+        <v>0.31</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7091264534343772</v>
+        <v>0.42</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6191113021604495</v>
+        <v>0.38</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2475983648615359</v>
+        <v>0.41</v>
       </c>
       <c r="L40" t="n">
-        <v>0.7220379146919431</v>
+        <v>0.31</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4271872726070847</v>
+        <v>0.45</v>
       </c>
       <c r="N40" t="n">
-        <v>0.3246835377100011</v>
+        <v>0.54</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4481506388702085</v>
+        <v>0.58</v>
       </c>
       <c r="P40" t="n">
-        <v>0.537626092804304</v>
+        <v>0.93</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.16079</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3435218323840786</v>
+        <v>0.67</v>
       </c>
       <c r="S40" t="n">
-        <v>0.2929559187477989</v>
+        <v>0.76</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7559348575007829</v>
+        <v>0.43</v>
       </c>
       <c r="U40" t="n">
-        <v>0.3893830253679925</v>
+        <v>0.31</v>
       </c>
       <c r="V40" t="n">
-        <v>0.8734880754144339</v>
+        <v>0.85</v>
       </c>
       <c r="W40" t="n">
-        <v>0.8779525332075913</v>
+        <v>0.74</v>
       </c>
       <c r="X40" t="n">
-        <v>0.5552853885736202</v>
+        <v>0.76</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.6316238159087848</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0.6951402658537921</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0.6667725575200975</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0.2658929931264655</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0.6917023809523809</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0.55899</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\all-MiniLM-L6-v2</t>
+          <t>sentence-transformers/sentence-t5-base</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.5183078853752063</v>
+        <v>0.6</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3206588333216591</v>
+        <v>0.51</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6262172640988071</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.28413</v>
+        <v>0.44</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2689800000000001</v>
+        <v>0.75</v>
       </c>
       <c r="G41" t="n">
-        <v>0.27477</v>
+        <v>0.37</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03498878152491112</v>
+        <v>0.36</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6231354410624419</v>
+        <v>0.62</v>
       </c>
       <c r="J41" t="n">
-        <v>0.564793587110538</v>
+        <v>0.3</v>
       </c>
       <c r="K41" t="n">
-        <v>0.2318414161912387</v>
+        <v>0.41</v>
       </c>
       <c r="L41" t="n">
-        <v>0.740521327014218</v>
+        <v>0.22</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3492044210457986</v>
+        <v>0.36</v>
       </c>
       <c r="N41" t="n">
-        <v>0.4057681708831091</v>
+        <v>0.58</v>
       </c>
       <c r="O41" t="n">
-        <v>0.4263954270342972</v>
+        <v>0.55</v>
       </c>
       <c r="P41" t="n">
-        <v>0.5115669132481506</v>
+        <v>0.89</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.09195</v>
+        <v>0.76</v>
       </c>
       <c r="R41" t="n">
-        <v>0.3673575599443643</v>
+        <v>0.63</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2811790550911384</v>
+        <v>0.67</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7508299404948324</v>
+        <v>0.4</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3965236454744754</v>
+        <v>0.28</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8652704370552743</v>
+        <v>0.74</v>
       </c>
       <c r="W41" t="n">
-        <v>0.8759124475461358</v>
+        <v>0.78</v>
       </c>
       <c r="X41" t="n">
-        <v>0.5539810428438392</v>
+        <v>0.72</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.6248225654609475</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.7700398643056744</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0.6493028232792631</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0.2816802118035422</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0.6730793650793651</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.60148</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.51786</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\distiluse-base-multilingual-cased-v2</t>
+          <t>sentence-transformers/sentence-t5-large</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5595373948625354</v>
+        <v>0.64</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3538541904887588</v>
+        <v>0.57</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6237756079207663</v>
+        <v>0.8</v>
       </c>
       <c r="E42" t="n">
-        <v>0.26994</v>
+        <v>0.48</v>
       </c>
       <c r="F42" t="n">
-        <v>0.35764</v>
+        <v>0.8</v>
       </c>
       <c r="G42" t="n">
-        <v>0.28829</v>
+        <v>0.41</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8327728076127141</v>
+        <v>0.31</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2187405625185021</v>
+        <v>0.42</v>
       </c>
       <c r="L42" t="n">
-        <v>0.7687203791469195</v>
+        <v>0.25</v>
       </c>
       <c r="M42" t="n">
-        <v>0.5376154899329338</v>
+        <v>0.4</v>
       </c>
       <c r="N42" t="n">
-        <v>0.3276276082145452</v>
+        <v>0.62</v>
       </c>
       <c r="O42" t="n">
-        <v>0.598285137861466</v>
+        <v>0.6</v>
       </c>
       <c r="P42" t="n">
-        <v>0.6738735709482178</v>
+        <v>0.91</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.22545</v>
+        <v>0.78</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4017045078734119</v>
+        <v>0.68</v>
       </c>
       <c r="S42" t="n">
-        <v>0.3464793188683687</v>
+        <v>0.71</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8498277481991858</v>
+        <v>0.47</v>
       </c>
       <c r="U42" t="n">
-        <v>0.5610710930159725</v>
+        <v>0.35</v>
       </c>
       <c r="V42" t="n">
-        <v>0.9207498432598107</v>
+        <v>0.78</v>
       </c>
       <c r="W42" t="n">
-        <v>0.9374506536091047</v>
+        <v>0.75</v>
       </c>
       <c r="X42" t="n">
-        <v>0.5107538398683125</v>
+        <v>0.73</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.7249442911000451</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0.7641254265129491</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0.7748827876122101</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0.281681307328504</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0.7463571428571428</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0.65338</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0.51196</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\multi-qa-MiniLM-L6-cos-v1</t>
+          <t>sentence-transformers/sentence-t5-xl</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4913194595542176</v>
+        <v>0.66</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2615924058641751</v>
+        <v>0.61</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6295365014472553</v>
+        <v>0.8</v>
       </c>
       <c r="E43" t="n">
-        <v>0.30229</v>
+        <v>0.54</v>
       </c>
       <c r="F43" t="n">
-        <v>0.27046</v>
+        <v>0.85</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2973</v>
+        <v>0.44</v>
       </c>
       <c r="H43" t="n">
-        <v>0.08784505319023178</v>
+        <v>0.32</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5537365949388782</v>
+        <v>0.63</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5046345385362436</v>
+        <v>0.34</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1442662572115109</v>
+        <v>0.42</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7561611374407583</v>
+        <v>0.27</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5372744669883476</v>
+        <v>0.41</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2726838058131417</v>
+        <v>0.6</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4264290517821117</v>
+        <v>0.63</v>
       </c>
       <c r="P43" t="n">
-        <v>0.499226630800269</v>
+        <v>0.92</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.16312</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R43" t="n">
-        <v>0.3514684027308759</v>
+        <v>0.71</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2595314882250714</v>
+        <v>0.74</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7296899467585343</v>
+        <v>0.5</v>
       </c>
       <c r="U43" t="n">
-        <v>0.3718446601941748</v>
+        <v>0.4</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8806670648536865</v>
+        <v>0.79</v>
       </c>
       <c r="W43" t="n">
-        <v>0.8776887387170348</v>
+        <v>0.77</v>
       </c>
       <c r="X43" t="n">
-        <v>0.5736104900905769</v>
+        <v>0.75</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.6210588256655486</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0.7461882879262099</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.6384700996869166</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0.2755407702680553</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0.6505281385281385</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.58073</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0.48832</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\paraphrase-multilingual-MiniLM-L12-v2</t>
+          <t>sentence-transformers/sentence-t5-xxl</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.5606489195760765</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4215818771542176</v>
+        <v>0.66</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6242438219619088</v>
+        <v>0.79</v>
       </c>
       <c r="E44" t="n">
-        <v>0.26634</v>
+        <v>0.58</v>
       </c>
       <c r="F44" t="n">
-        <v>0.36758</v>
+        <v>0.86</v>
       </c>
       <c r="G44" t="n">
-        <v>0.37838</v>
+        <v>0.46</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7772438859983376</v>
+        <v>0.38</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.61</v>
       </c>
       <c r="J44" t="n">
-        <v>0.995987963891675</v>
+        <v>0.35</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2952205755713568</v>
+        <v>0.42</v>
       </c>
       <c r="L44" t="n">
-        <v>0.7609004739336493</v>
+        <v>0.3</v>
       </c>
       <c r="M44" t="n">
-        <v>0.3657831649774737</v>
+        <v>0.44</v>
       </c>
       <c r="N44" t="n">
-        <v>0.3389979666918544</v>
+        <v>0.61</v>
       </c>
       <c r="O44" t="n">
-        <v>0.5751513113651648</v>
+        <v>0.64</v>
       </c>
       <c r="P44" t="n">
-        <v>0.6451916610625421</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.21535</v>
+        <v>0.82</v>
       </c>
       <c r="R44" t="n">
-        <v>0.3997152802677553</v>
+        <v>0.75</v>
       </c>
       <c r="S44" t="n">
-        <v>0.3654820279096755</v>
+        <v>0.79</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7769808957093642</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4793611024115252</v>
+        <v>0.46</v>
       </c>
       <c r="V44" t="n">
-        <v>0.9200522043693091</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W44" t="n">
-        <v>0.9414470609254002</v>
+        <v>0.77</v>
       </c>
       <c r="X44" t="n">
-        <v>0.5694456712082714</v>
+        <v>0.77</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.75102380757868</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0.7054517669493489</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0.7989821675921884</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0.290182711032168</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0.7250396825396825</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0.65543</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0.42511</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\paraphrase-multilingual-mpnet-base-v2</t>
+          <t>shibing624/text2vec-base-multilingual</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5449402070854203</v>
+        <v>0.58</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4478667196341167</v>
+        <v>0.52</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6720432168620495</v>
+        <v>0.74</v>
       </c>
       <c r="E45" t="n">
-        <v>0.30799</v>
+        <v>0.45</v>
       </c>
       <c r="F45" t="n">
-        <v>0.40138</v>
+        <v>0.72</v>
       </c>
       <c r="G45" t="n">
-        <v>0.42793</v>
+        <v>0.34</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8067461852300057</v>
+        <v>0.33</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9986626546305584</v>
+        <v>0.39</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3130058815827937</v>
+        <v>0.36</v>
       </c>
       <c r="L45" t="n">
-        <v>0.7810426540284359</v>
+        <v>0.21</v>
       </c>
       <c r="M45" t="n">
-        <v>0.41569311482541</v>
+        <v>0.33</v>
       </c>
       <c r="N45" t="n">
-        <v>0.3087579159546582</v>
+        <v>0.49</v>
       </c>
       <c r="O45" t="n">
-        <v>0.6187962340282447</v>
+        <v>0.66</v>
       </c>
       <c r="P45" t="n">
-        <v>0.678950907868191</v>
+        <v>0.92</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.24454</v>
+        <v>0.63</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4055377595140954</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S45" t="n">
-        <v>0.3753003494348933</v>
+        <v>0.5</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8029126213592234</v>
+        <v>0.26</v>
       </c>
       <c r="U45" t="n">
-        <v>0.5203570310053242</v>
+        <v>0.19</v>
       </c>
       <c r="V45" t="n">
-        <v>0.9345353677987358</v>
+        <v>0.83</v>
       </c>
       <c r="W45" t="n">
-        <v>0.9530638045019797</v>
+        <v>0.74</v>
       </c>
       <c r="X45" t="n">
-        <v>0.5814276884080426</v>
+        <v>0.77</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.755583681044677</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0.7430483195474878</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0.8469135860099118</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0.2958065201100799</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0.8096666666666666</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0.75998</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0.46221</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\sentence-t5-base</t>
+          <t>text-embedding-3-large</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5844150763298186</v>
+        <v>0.76</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3593354716276945</v>
+        <v>0.71</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6322134288038879</v>
+        <v>0.82</v>
       </c>
       <c r="E46" t="n">
-        <v>0.27523</v>
+        <v>0.74</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3735</v>
+        <v>0.93</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3964</v>
+        <v>0.46</v>
       </c>
       <c r="H46" t="n">
-        <v>0.551313531869022</v>
+        <v>0.4</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9735874289535272</v>
+        <v>0.53</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9615513206285523</v>
+        <v>0.46</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2248151593145149</v>
+        <v>0.46</v>
       </c>
       <c r="L46" t="n">
-        <v>0.812085308056872</v>
+        <v>0.37</v>
       </c>
       <c r="M46" t="n">
-        <v>0.6190485205190622</v>
+        <v>0.54</v>
       </c>
       <c r="N46" t="n">
-        <v>0.3564262992341879</v>
+        <v>0.62</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5113315400134499</v>
+        <v>0.65</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5991930060524545</v>
+        <v>0.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2104</v>
+        <v>0.92</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4076920517896694</v>
+        <v>0.8</v>
       </c>
       <c r="S46" t="n">
-        <v>0.3006026181192261</v>
+        <v>0.87</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7502975258377701</v>
+        <v>0.73</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4384591293454432</v>
+        <v>0.6</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8939826485982256</v>
+        <v>0.83</v>
       </c>
       <c r="W46" t="n">
-        <v>0.9004953622645687</v>
+        <v>0.82</v>
       </c>
       <c r="X46" t="n">
-        <v>0.5535169602026141</v>
+        <v>0.79</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.7173634724227647</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0.7768846630995027</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0.7404061698113868</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0.2988136858698119</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0.758845238095238</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0.66999</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0.45191</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\sentence-t5-large</t>
+          <t>text-embedding-3-small</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.6182277140780882</v>
+        <v>0.73</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3977568234064501</v>
+        <v>0.68</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6754584284213152</v>
+        <v>0.76</v>
       </c>
       <c r="E47" t="n">
-        <v>0.34518</v>
+        <v>0.68</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4147999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G47" t="n">
-        <v>0.46847</v>
+        <v>0.43</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7109667114459385</v>
+        <v>0.55</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.45</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9866265463055833</v>
+        <v>0.46</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2474614526731128</v>
+        <v>0.46</v>
       </c>
       <c r="L47" t="n">
-        <v>0.8042654028436018</v>
+        <v>0.36</v>
       </c>
       <c r="M47" t="n">
-        <v>0.585985794265385</v>
+        <v>0.51</v>
       </c>
       <c r="N47" t="n">
-        <v>0.3133479963331417</v>
+        <v>0.61</v>
       </c>
       <c r="O47" t="n">
-        <v>0.5701412239408203</v>
+        <v>0.61</v>
       </c>
       <c r="P47" t="n">
-        <v>0.6360121049092132</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.23918</v>
+        <v>0.89</v>
       </c>
       <c r="R47" t="n">
-        <v>0.4207261111658658</v>
+        <v>0.74</v>
       </c>
       <c r="S47" t="n">
-        <v>0.3186940328271737</v>
+        <v>0.87</v>
       </c>
       <c r="T47" t="n">
-        <v>0.795959912308174</v>
+        <v>0.66</v>
       </c>
       <c r="U47" t="n">
-        <v>0.4772940808017538</v>
+        <v>0.52</v>
       </c>
       <c r="V47" t="n">
-        <v>0.911862793751712</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W47" t="n">
-        <v>0.9186413027481362</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X47" t="n">
-        <v>0.5958684223229149</v>
+        <v>0.76</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.7282743267188198</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0.750086943549879</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0.7759236947905355</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0.3021704644764397</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0.782813492063492</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0.71053</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0.48792</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\sentence-t5-xl</t>
+          <t>text-embedding-ada-002</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.6037247542497267</v>
+        <v>0.71</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4076035180401736</v>
+        <v>0.65</v>
       </c>
       <c r="D48" t="n">
-        <v>0.711535861715982</v>
+        <v>0.82</v>
       </c>
       <c r="E48" t="n">
-        <v>0.40375</v>
+        <v>0.64</v>
       </c>
       <c r="F48" t="n">
-        <v>0.43516</v>
+        <v>0.89</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7586314484331536</v>
+        <v>0.49</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.68</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.42</v>
       </c>
       <c r="K48" t="n">
-        <v>0.2688445581529558</v>
+        <v>0.45</v>
       </c>
       <c r="L48" t="n">
-        <v>0.8009478672985783</v>
+        <v>0.35</v>
       </c>
       <c r="M48" t="n">
-        <v>0.6282235512125198</v>
+        <v>0.54</v>
       </c>
       <c r="N48" t="n">
-        <v>0.3173861927815954</v>
+        <v>0.65</v>
       </c>
       <c r="O48" t="n">
-        <v>0.6098520511096167</v>
+        <v>0.6</v>
       </c>
       <c r="P48" t="n">
-        <v>0.6641560188298588</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.31539</v>
+        <v>0.89</v>
       </c>
       <c r="R48" t="n">
-        <v>0.4161005491114602</v>
+        <v>0.76</v>
       </c>
       <c r="S48" t="n">
-        <v>0.3360365488455902</v>
+        <v>0.86</v>
       </c>
       <c r="T48" t="n">
-        <v>0.8514249921703726</v>
+        <v>0.64</v>
       </c>
       <c r="U48" t="n">
-        <v>0.5439085499530223</v>
+        <v>0.52</v>
       </c>
       <c r="V48" t="n">
-        <v>0.9248433060784351</v>
+        <v>0.78</v>
       </c>
       <c r="W48" t="n">
-        <v>0.9378969696931576</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X48" t="n">
-        <v>0.6252251289274147</v>
+        <v>0.76</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.7508041932935345</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0.7749353352876681</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0.794154396398088</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0.3167588266138099</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0.8092543290043289</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.74237</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0.5214299999999999</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>../results\sentence-transformers\sentence-t5-xxl</t>
+          <t>voyage-2</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6097713304012906</v>
+        <v>0.62</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4350024233904722</v>
+        <v>0.54</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7523712951211723</v>
+        <v>0.8</v>
       </c>
       <c r="E49" t="n">
-        <v>0.45748</v>
+        <v>0.46</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4608800000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5585599999999999</v>
+        <v>0.37</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8324518195666728</v>
+        <v>0.36</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9973253092611166</v>
+        <v>0.49</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9986626546305583</v>
+        <v>0.39</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2970379490302957</v>
+        <v>0.45</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7909952606635071</v>
+        <v>0.33</v>
       </c>
       <c r="M49" t="n">
-        <v>0.6114553646367987</v>
+        <v>0.42</v>
       </c>
       <c r="N49" t="n">
-        <v>0.3823921323645222</v>
+        <v>0.58</v>
       </c>
       <c r="O49" t="n">
-        <v>0.6590786819098857</v>
+        <v>0.59</v>
       </c>
       <c r="P49" t="n">
-        <v>0.6853059852051111</v>
+        <v>0.9</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.34929</v>
+        <v>0.8</v>
       </c>
       <c r="R49" t="n">
-        <v>0.4224117195163593</v>
+        <v>0.73</v>
       </c>
       <c r="S49" t="n">
-        <v>0.3524745757300218</v>
+        <v>0.76</v>
       </c>
       <c r="T49" t="n">
-        <v>0.8620106482931412</v>
+        <v>0.53</v>
       </c>
       <c r="U49" t="n">
-        <v>0.5833385530848731</v>
+        <v>0.45</v>
       </c>
       <c r="V49" t="n">
-        <v>0.9394372210364297</v>
+        <v>0.76</v>
       </c>
       <c r="W49" t="n">
-        <v>0.9511141986772736</v>
+        <v>0.71</v>
       </c>
       <c r="X49" t="n">
-        <v>0.639782556744936</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.7706782664515456</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0.7680240821366182</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0.8124450977788589</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0.3040353534678364</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0.8171666666666667</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0.78975</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0.56202</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>../results\shibing624\text2vec-base-multilingual</t>
+          <t>voyage-code-2</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4910742502173265</v>
+        <v>0.7</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3272237759178746</v>
+        <v>0.63</v>
       </c>
       <c r="D50" t="n">
-        <v>0.556826861955334</v>
+        <v>0.82</v>
       </c>
       <c r="E50" t="n">
-        <v>0.18899</v>
+        <v>0.59</v>
       </c>
       <c r="F50" t="n">
-        <v>0.34254</v>
+        <v>0.88</v>
       </c>
       <c r="G50" t="n">
-        <v>0.26126</v>
+        <v>0.42</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7780898243854504</v>
+        <v>0.35</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9879638916750251</v>
+        <v>0.57</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.41</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2133335782794981</v>
+        <v>0.45</v>
       </c>
       <c r="L50" t="n">
-        <v>0.7383886255924171</v>
+        <v>0.35</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3850723861796326</v>
+        <v>0.51</v>
       </c>
       <c r="N50" t="n">
-        <v>0.3251081280317133</v>
+        <v>0.62</v>
       </c>
       <c r="O50" t="n">
-        <v>0.5193006052454606</v>
+        <v>0.61</v>
       </c>
       <c r="P50" t="n">
-        <v>0.5830867518493612</v>
+        <v>0.93</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.14812</v>
+        <v>0.87</v>
       </c>
       <c r="R50" t="n">
-        <v>0.3619042628585186</v>
+        <v>0.76</v>
       </c>
       <c r="S50" t="n">
-        <v>0.303885451410444</v>
+        <v>0.83</v>
       </c>
       <c r="T50" t="n">
-        <v>0.7182586908863138</v>
+        <v>0.68</v>
       </c>
       <c r="U50" t="n">
-        <v>0.4453492013780145</v>
+        <v>0.53</v>
       </c>
       <c r="V50" t="n">
-        <v>0.9204078160599214</v>
+        <v>0.79</v>
       </c>
       <c r="W50" t="n">
-        <v>0.9395153724999291</v>
+        <v>0.8</v>
       </c>
       <c r="X50" t="n">
-        <v>0.6556847028211261</v>
+        <v>0.74</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.7724805746003676</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0.7409937723367189</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0.8347595626027418</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0.2920530155461478</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0.6281626984126983</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0.49694</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0.404</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>../results\text-embedding-3-large</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.6188729664384736</v>
+        <v>0.7</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5383026633586214</v>
+        <v>0.61</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8044786254258053</v>
+        <v>0.82</v>
       </c>
       <c r="E51" t="n">
-        <v>0.60282</v>
+        <v>0.54</v>
       </c>
       <c r="F51" t="n">
-        <v>0.46196</v>
+        <v>0.85</v>
       </c>
       <c r="G51" t="n">
-        <v>0.73423</v>
+        <v>0.34</v>
       </c>
       <c r="H51" t="n">
-        <v>0.884362910537232</v>
+        <v>0.4</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3677886102453842</v>
+        <v>0.44</v>
       </c>
       <c r="L51" t="n">
-        <v>0.8218009478672986</v>
+        <v>0.24</v>
       </c>
       <c r="M51" t="n">
-        <v>0.5270799653215082</v>
+        <v>0.38</v>
       </c>
       <c r="N51" t="n">
-        <v>0.3970800658666344</v>
+        <v>0.57</v>
       </c>
       <c r="O51" t="n">
-        <v>0.713315400134499</v>
+        <v>0.52</v>
       </c>
       <c r="P51" t="n">
-        <v>0.7646267652992602</v>
+        <v>0.91</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.62957</v>
+        <v>0.74</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4589797204034647</v>
+        <v>0.62</v>
       </c>
       <c r="S51" t="n">
-        <v>0.4572072923344249</v>
+        <v>0.7</v>
       </c>
       <c r="T51" t="n">
-        <v>0.9337300344503602</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0.7367679298465393</v>
+        <v>0.35</v>
       </c>
       <c r="V51" t="n">
-        <v>0.956495941906191</v>
+        <v>0.75</v>
       </c>
       <c r="W51" t="n">
-        <v>0.9632216568565823</v>
+        <v>0.78</v>
       </c>
       <c r="X51" t="n">
-        <v>0.6487004383237154</v>
+        <v>0.71</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.7874564096121601</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0.8218742629385483</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0.825163980735896</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0.2953434659473538</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0.9156666666666666</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0.8686700000000001</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0.76519</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>../results\text-embedding-3-small</t>
+          <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.6142121566849555</v>
+        <v>0.73</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5097017531638819</v>
+        <v>0.66</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7411183812926199</v>
+        <v>0.72</v>
       </c>
       <c r="E52" t="n">
-        <v>0.52088</v>
+        <v>0.64</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4284000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G52" t="n">
-        <v>0.65766</v>
+        <v>0.35</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8569611214966121</v>
+        <v>0.4</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3560612118654781</v>
+        <v>0.41</v>
       </c>
       <c r="L52" t="n">
-        <v>0.7646919431279622</v>
+        <v>0.23</v>
       </c>
       <c r="M52" t="n">
-        <v>0.4524961818598886</v>
+        <v>0.38</v>
       </c>
       <c r="N52" t="n">
-        <v>0.5476153105172287</v>
+        <v>0.54</v>
       </c>
       <c r="O52" t="n">
-        <v>0.6779757901815737</v>
+        <v>0.54</v>
       </c>
       <c r="P52" t="n">
-        <v>0.7329186281102892</v>
+        <v>0.93</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.41674</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R52" t="n">
-        <v>0.4626366669004257</v>
+        <v>0.64</v>
       </c>
       <c r="S52" t="n">
-        <v>0.4567430092008721</v>
+        <v>0.64</v>
       </c>
       <c r="T52" t="n">
-        <v>0.9088318196053869</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>0.678640776699029</v>
+        <v>0.34</v>
       </c>
       <c r="V52" t="n">
-        <v>0.9444824312907959</v>
+        <v>0.78</v>
       </c>
       <c r="W52" t="n">
-        <v>0.952465716551754</v>
+        <v>0.71</v>
       </c>
       <c r="X52" t="n">
-        <v>0.6136061823257404</v>
+        <v>0.74</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.7569412697440474</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0.8086996866193595</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>0.8113498962069088</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0.3041025626902713</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0.8945000000000001</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0.86816</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0.74907</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>../results\text-embedding-ada-002</t>
+          <t>xlm-roberta-base</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.6482909467525912</v>
+        <v>0.23</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5352055108193531</v>
+        <v>0.14</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7553035636965619</v>
+        <v>0.6</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5164</v>
+        <v>0.19</v>
       </c>
       <c r="F53" t="n">
-        <v>0.43764</v>
+        <v>0.44</v>
       </c>
       <c r="G53" t="n">
-        <v>0.63514</v>
+        <v>0.27</v>
       </c>
       <c r="H53" t="n">
-        <v>0.860436629641775</v>
+        <v>0.24</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9933132731527916</v>
+        <v>0.29</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9946506185222334</v>
+        <v>0.24</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3541689084917826</v>
+        <v>0.4</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8151658767772512</v>
+        <v>0.09</v>
       </c>
       <c r="M53" t="n">
-        <v>0.6835358427222893</v>
+        <v>0.2</v>
       </c>
       <c r="N53" t="n">
-        <v>0.4857524685115383</v>
+        <v>0.52</v>
       </c>
       <c r="O53" t="n">
-        <v>0.6542030934767989</v>
+        <v>0.51</v>
       </c>
       <c r="P53" t="n">
-        <v>0.7110961667787492</v>
+        <v>0.85</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.2994</v>
+        <v>0.32</v>
       </c>
       <c r="R53" t="n">
-        <v>0.445914143327743</v>
+        <v>0.28</v>
       </c>
       <c r="S53" t="n">
-        <v>0.416657222225081</v>
+        <v>0.03</v>
       </c>
       <c r="T53" t="n">
-        <v>0.8937676166614468</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>0.6445349201378014</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>0.9412076883261254</v>
+        <v>0.46</v>
       </c>
       <c r="W53" t="n">
-        <v>0.9510295908785357</v>
+        <v>0.57</v>
       </c>
       <c r="X53" t="n">
-        <v>0.6016251068115703</v>
+        <v>0.49</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.7627685738662282</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0.810931445449386</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>0.775488475913985</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0.3046180391776183</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0.8894999999999998</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0.85969</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0.73004</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>../results\voyage-2</t>
+          <t>xlm-roberta-large</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.5795590984348414</v>
+        <v>0.24</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4165266573039174</v>
+        <v>0.16</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7266605452700412</v>
+        <v>0.66</v>
       </c>
       <c r="E54" t="n">
-        <v>0.45499</v>
+        <v>0.15</v>
       </c>
       <c r="F54" t="n">
-        <v>0.37262</v>
+        <v>0.37</v>
       </c>
       <c r="G54" t="n">
-        <v>0.52703</v>
+        <v>0.27</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3189440828794315</v>
+        <v>0.22</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9919759277833501</v>
+        <v>0.34</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9799398194583752</v>
+        <v>0.19</v>
       </c>
       <c r="K54" t="n">
-        <v>0.332811685855689</v>
+        <v>0.43</v>
       </c>
       <c r="L54" t="n">
-        <v>0.8018957345971565</v>
+        <v>0.06</v>
       </c>
       <c r="M54" t="n">
-        <v>0.4854232311151437</v>
+        <v>0.21</v>
       </c>
       <c r="N54" t="n">
-        <v>0.3633106838853807</v>
+        <v>0.57</v>
       </c>
       <c r="O54" t="n">
-        <v>0.5369872225958305</v>
+        <v>0.53</v>
       </c>
       <c r="P54" t="n">
-        <v>0.6246133154001345</v>
+        <v>0.84</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.15507</v>
+        <v>0.39</v>
       </c>
       <c r="R54" t="n">
-        <v>0.4508245196010945</v>
+        <v>0.31</v>
       </c>
       <c r="S54" t="n">
-        <v>0.3877264742587128</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T54" t="n">
-        <v>0.7978703413717507</v>
+        <v>0.01</v>
       </c>
       <c r="U54" t="n">
-        <v>0.4561854055746946</v>
+        <v>0.01</v>
       </c>
       <c r="V54" t="n">
-        <v>0.8976194426555255</v>
+        <v>0.42</v>
       </c>
       <c r="W54" t="n">
-        <v>0.896781936586669</v>
+        <v>0.55</v>
       </c>
       <c r="X54" t="n">
-        <v>0.5895656630212746</v>
+        <v>0.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.6851217063378627</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>0.7050549213561673</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>0.7642936190822642</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0.3085411532416116</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0.797095238095238</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0.75831</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0.67065</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>../results\voyage-code-2</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.6162945124485424</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5067174392659987</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.7561215395567691</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.52606</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.4215</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.68018</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.6013319288411012</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.9986626546305583</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9946506185222334</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.3528993494802901</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.8213270142180095</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.5659470191472211</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.3517814667732468</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0.630766644250168</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0.7014794889038332</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.19047</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.4522898818144546</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0.4148135128122253</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0.8767616661446915</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0.5943626683369871</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0.9286798412153197</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0.9371986705026045</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0.608332001960638</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>0.7356028375217639</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0.7999221736030022</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>0.7901988871511573</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0.2831543704262003</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0.8671785714285715</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0.82766</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0.71946</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>../results\vprelovac\universal-sentence-encoder-multilingual-3</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.5689916720736953</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.378393691062227</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.6217487639018026</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.35267</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.33514</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.8167705770180773</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.237323589391459</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.8206161137440759</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.6057161066482416</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.4030766635566808</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.6119031607262946</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0.7021856086079354</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.26121</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.4389692922750733</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0.3550144906912691</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0.8549639837143752</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0.5398371437519573</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0.914642734849384</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0.9276770338480919</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.5238943982284524</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0.7137136565612174</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0.779121959792631</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0.7547623244259472</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0.282370179147941</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0.7392857142857143</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0.69819</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0.5959</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>../results\vprelovac\universal-sentence-encoder-multilingual-large-3</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.5420886916175743</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.3794903151594224</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.639460440116346</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.33781</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.35092</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.838819395056347</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.2259058459221838</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.7203791469194313</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.2408582264260665</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.4024379912798725</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0.6580363147276395</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0.7346671149966374</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.2621</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0.4102454366803547</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0.3796744706245461</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0.881866583150642</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0.6363921077356717</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0.9337926495141736</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0.9463878648421398</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0.5362415343852915</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0.7438679213720065</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0.7110616222714751</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>0.7815527423484122</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0.2844223473418103</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0.6925079365079365</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0.6369</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0.65213</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>../results\xlm-roberta-base</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.5224409381186116</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.2037478764202963</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.2756444888903243</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.00156</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.2674799999999999</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.2117178555612327</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.7017890974510833</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5328738628505576</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.08808491967213536</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.6049763033175355</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.2928935602108218</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.2375634936431052</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.1358103564223268</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.2321452589105581</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.00876</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.4044298462507268</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0.2414271814543187</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0.4383025367992484</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0.1937676166614469</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0.8544669820078381</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0.8624645232635788</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0.5134610960311026</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0.4861539023272589</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0.5672433175176572</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>0.4622634194376477</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0.289685838190132</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0.3191150793650793</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0.03332</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0.11649</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>../results\xlm-roberta-large</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.5653605568863168</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.2118476703867388</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.3089459830689988</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.00517</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.26616</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.01351</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.1324934909347301</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.6492966311974625</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.2594625928964929</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.06196806019217935</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.6575829383886255</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.3402405632525344</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.2152479457502924</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0.1582044384667115</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0.2392064559515804</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.4267404394453324</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0.1850128406979126</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0.367710616974632</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0.1537112433448168</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0.8372982569551426</v>
-      </c>
-      <c r="W59" t="n">
-        <v>0.8393372076362939</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0.5338491922324053</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>0.5001340631306734</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>0.5549160342530441</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>0.4231665294262342</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0.2878470458656923</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0.3874368686868688</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0.06598999999999999</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0.12702</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="T1:U1"/>
+  <mergeCells count="6">
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="H1:N1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analyses_outputs/results.xlsx
+++ b/analyses_outputs/results.xlsx
@@ -83,10 +83,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,76 +658,76 @@
           <t>BAAI/bge-m3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -731,76 +737,76 @@
           <t>Geotrend/distilbert-base-25lang-cased</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -810,76 +816,76 @@
           <t>Geotrend/distilbert-base-en-fr-cased</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -889,76 +895,76 @@
           <t>Geotrend/distilbert-base-fr-cased</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -968,76 +974,76 @@
           <t>Lajavaness/sentence-camembert-large</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8" s="3" t="n">
         <v>0.86</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1047,76 +1053,76 @@
           <t>Lajavaness/sentence-flaubert-base</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>0.48</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="3" t="n">
         <v>0.86</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1126,76 +1132,76 @@
           <t>OrdalieTech/Solon-embeddings-base-0.1</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1205,76 +1211,76 @@
           <t>OrdalieTech/Solon-embeddings-large-0.1</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="2" t="n">
         <v>0.47</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="3" t="n">
         <v>0.83</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1284,76 +1290,76 @@
           <t>Wissam42/sentence-croissant-llm-base</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1363,76 +1369,76 @@
           <t>bert-base-multilingual-cased</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="2" t="n">
         <v>0.19</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1442,76 +1448,76 @@
           <t>bert-base-multilingual-uncased</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1521,76 +1527,76 @@
           <t>camembert/camembert-base</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1600,76 +1606,76 @@
           <t>camembert/camembert-large</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16" s="2" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1679,76 +1685,76 @@
           <t>dangvantuan/sentence-camembert-base</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1758,76 +1764,76 @@
           <t>embed-multilingual-light-v3.0</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="3" t="n">
         <v>0.83</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18" s="3" t="n">
         <v>0.83</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1837,76 +1843,76 @@
           <t>embed-multilingual-v3.0</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="3" t="n">
         <v>0.83</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="2" t="n">
         <v>0.84</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19" s="3" t="n">
         <v>0.83</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1916,76 +1922,76 @@
           <t>flaubert/flaubert_base_cased</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="2" t="n">
         <v>0.09</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1995,76 +2001,76 @@
           <t>flaubert/flaubert_base_uncased</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="2" t="n">
         <v>0.09</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="2" t="n">
         <v>0.13</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2074,76 +2080,76 @@
           <t>flaubert/flaubert_large_cased</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="2" t="n">
         <v>0.19</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2153,76 +2159,76 @@
           <t>intfloat/e5-mistral-7b-instruct</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="3" t="n">
         <v>0.65</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="3" t="n">
         <v>0.37</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="3" t="n">
         <v>0.58</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2232,76 +2238,76 @@
           <t>intfloat/multilingual-e5-base</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="2" t="n">
         <v>0.48</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U24" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V24" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="W24" t="n">
+      <c r="W24" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="X24" t="n">
+      <c r="X24" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y24" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2311,76 +2317,76 @@
           <t>intfloat/multilingual-e5-large</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25" s="2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25" s="2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U25" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V25" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="W25" t="n">
+      <c r="W25" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="X25" t="n">
+      <c r="X25" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Y25" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2390,76 +2396,76 @@
           <t>intfloat/multilingual-e5-small</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U26" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V26" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="W26" t="n">
+      <c r="W26" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="X26" t="n">
+      <c r="X26" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Y26" s="3" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2469,76 +2475,76 @@
           <t>izhx/udever-bloom-1b1</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" s="2" t="n">
         <v>0.48</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U27" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V27" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="W27" t="n">
+      <c r="W27" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="X27" t="n">
+      <c r="X27" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Y27" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2548,76 +2554,76 @@
           <t>izhx/udever-bloom-560m</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" s="2" t="n">
         <v>0.08</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" s="2" t="n">
         <v>0.47</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U28" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V28" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="W28" t="n">
+      <c r="W28" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="X28" t="n">
+      <c r="X28" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Y28" s="2" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2627,76 +2633,76 @@
           <t>laser2</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29" s="2" t="n">
         <v>0.12</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29" s="2" t="n">
         <v>0.48</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29" s="3" t="n">
         <v>0.7</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29" s="2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T29" s="2" t="n">
         <v>0.08</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U29" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V29" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W29" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X29" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Y29" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2706,76 +2712,76 @@
           <t>manu/bge-m3-custom-fr</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U30" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V30" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W30" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X30" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y30" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2785,76 +2791,76 @@
           <t>manu/sentence_croissant_alpha_v0.2</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T31" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U31" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="V31" t="n">
+      <c r="V31" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="W31" t="n">
+      <c r="W31" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="X31" t="n">
+      <c r="X31" s="2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Y31" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2864,76 +2870,76 @@
           <t>manu/sentence_croissant_alpha_v0.3</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U32" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="V32" t="n">
+      <c r="V32" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="W32" t="n">
+      <c r="W32" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="X32" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Y32" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2943,76 +2949,76 @@
           <t>mistral-embed</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="2" t="n">
         <v>0.48</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T33" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="U33" t="n">
+      <c r="U33" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="V33" t="n">
+      <c r="V33" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="W33" t="n">
+      <c r="W33" s="3" t="n">
         <v>0.83</v>
       </c>
-      <c r="X33" t="n">
+      <c r="X33" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Y33" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3022,76 +3028,76 @@
           <t>sentence-transformers/LaBSE</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="2" t="n">
         <v>0.84</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34" s="2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S34" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T34" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="U34" t="n">
+      <c r="U34" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="V34" t="n">
+      <c r="V34" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="W34" t="n">
+      <c r="W34" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="X34" t="n">
+      <c r="X34" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Y34" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3101,76 +3107,76 @@
           <t>sentence-transformers/all-MiniLM-L12-v2</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" s="2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T35" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="U35" t="n">
+      <c r="U35" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="V35" t="n">
+      <c r="V35" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="W35" t="n">
+      <c r="W35" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="X35" t="n">
+      <c r="X35" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Y35" s="2" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3180,76 +3186,76 @@
           <t>sentence-transformers/all-MiniLM-L6-v2</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S36" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T36" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="U36" t="n">
+      <c r="U36" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V36" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W36" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="X36" t="n">
+      <c r="X36" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y36" s="2" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3259,76 +3265,76 @@
           <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S37" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T37" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U37" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V37" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W37" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X37" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Y37" s="2" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3338,76 +3344,76 @@
           <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P38" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="S38" t="n">
+      <c r="S38" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T38" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="U38" t="n">
+      <c r="U38" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="V38" t="n">
+      <c r="V38" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="W38" t="n">
+      <c r="W38" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="X38" t="n">
+      <c r="X38" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Y38" s="2" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3417,76 +3423,76 @@
           <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="2" t="n">
         <v>0.48</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S39" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="T39" t="n">
+      <c r="T39" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="U39" t="n">
+      <c r="U39" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="V39" t="n">
+      <c r="V39" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="W39" t="n">
+      <c r="W39" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="X39" t="n">
+      <c r="X39" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Y39" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3496,76 +3502,76 @@
           <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P40" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R40" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="S40" t="n">
+      <c r="S40" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T40" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="U40" t="n">
+      <c r="U40" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="V40" t="n">
+      <c r="V40" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="W40" t="n">
+      <c r="W40" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="X40" t="n">
+      <c r="X40" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Y40" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3575,76 +3581,76 @@
           <t>sentence-transformers/sentence-t5-base</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P41" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R41" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="S41" t="n">
+      <c r="S41" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T41" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="U41" t="n">
+      <c r="U41" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="V41" t="n">
+      <c r="V41" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="W41" t="n">
+      <c r="W41" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="X41" t="n">
+      <c r="X41" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Y41" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3654,76 +3660,76 @@
           <t>sentence-transformers/sentence-t5-large</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="2" t="n">
         <v>0.48</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O42" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P42" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S42" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T42" s="2" t="n">
         <v>0.47</v>
       </c>
-      <c r="U42" t="n">
+      <c r="U42" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="V42" t="n">
+      <c r="V42" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="W42" t="n">
+      <c r="W42" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="X42" t="n">
+      <c r="X42" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Y42" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3733,76 +3739,76 @@
           <t>sentence-transformers/sentence-t5-xl</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P43" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="R43" t="n">
+      <c r="R43" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S43" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T43" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="U43" t="n">
+      <c r="U43" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="V43" t="n">
+      <c r="V43" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="W43" t="n">
+      <c r="W43" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="X43" t="n">
+      <c r="X43" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Y43" s="3" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3812,76 +3818,76 @@
           <t>sentence-transformers/sentence-t5-xxl</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="3" t="n">
         <v>0.46</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44" s="2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="R44" t="n">
+      <c r="R44" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="S44" t="n">
+      <c r="S44" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T44" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="U44" t="n">
+      <c r="U44" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="V44" t="n">
+      <c r="V44" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="W44" t="n">
+      <c r="W44" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="X44" t="n">
+      <c r="X44" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Y44" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3891,76 +3897,76 @@
           <t>shibing624/text2vec-base-multilingual</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P45" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="R45" t="n">
+      <c r="R45" s="2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="S45" t="n">
+      <c r="S45" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T45" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="U45" t="n">
+      <c r="U45" s="2" t="n">
         <v>0.19</v>
       </c>
-      <c r="V45" t="n">
+      <c r="V45" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="W45" t="n">
+      <c r="W45" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="X45" t="n">
+      <c r="X45" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Y45" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3970,76 +3976,76 @@
           <t>text-embedding-3-large</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="3" t="n">
         <v>0.76</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="3" t="n">
         <v>0.71</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="3" t="n">
         <v>0.74</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" s="3" t="n">
         <v>0.93</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="3" t="n">
         <v>0.46</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46" s="3" t="n">
         <v>0.46</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46" s="3" t="n">
         <v>0.46</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46" s="3" t="n">
         <v>0.37</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P46" s="3" t="n">
         <v>0.96</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46" s="3" t="n">
         <v>0.92</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R46" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S46" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="T46" t="n">
+      <c r="T46" s="3" t="n">
         <v>0.73</v>
       </c>
-      <c r="U46" t="n">
+      <c r="U46" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="V46" t="n">
+      <c r="V46" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="W46" t="n">
+      <c r="W46" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="X46" t="n">
+      <c r="X46" s="3" t="n">
         <v>0.79</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Y46" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4049,76 +4055,76 @@
           <t>text-embedding-3-small</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47" s="3" t="n">
         <v>0.46</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47" s="3" t="n">
         <v>0.46</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O47" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P47" s="2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="R47" t="n">
+      <c r="R47" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="S47" t="n">
+      <c r="S47" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="T47" t="n">
+      <c r="T47" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="U47" t="n">
+      <c r="U47" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="V47" t="n">
+      <c r="V47" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="W47" t="n">
+      <c r="W47" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="X47" t="n">
+      <c r="X47" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Y47" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4128,76 +4134,76 @@
           <t>text-embedding-ada-002</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48" s="3" t="n">
         <v>0.68</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48" s="3" t="n">
         <v>0.65</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="P48" t="n">
+      <c r="P48" s="2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R48" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S48" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T48" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="U48" t="n">
+      <c r="U48" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="V48" t="n">
+      <c r="V48" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="W48" t="n">
+      <c r="W48" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="X48" t="n">
+      <c r="X48" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Y48" s="2" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4207,76 +4213,76 @@
           <t>voyage-2</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="P49" t="n">
+      <c r="P49" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R49" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S49" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T49" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="U49" t="n">
+      <c r="U49" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="V49" t="n">
+      <c r="V49" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="W49" t="n">
+      <c r="W49" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="X49" t="n">
+      <c r="X49" s="2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Y49" s="2" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4286,76 +4292,76 @@
           <t>voyage-code-2</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50" s="2" t="n">
         <v>0.45</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P50" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="R50" t="n">
+      <c r="R50" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="S50" t="n">
+      <c r="S50" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="T50" t="n">
+      <c r="T50" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="U50" t="n">
+      <c r="U50" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="V50" t="n">
+      <c r="V50" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="W50" t="n">
+      <c r="W50" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="X50" t="n">
+      <c r="X50" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Y50" s="2" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4365,76 +4371,76 @@
           <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P51" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R51" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S51" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="T51" t="n">
+      <c r="T51" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U51" t="n">
+      <c r="U51" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="V51" t="n">
+      <c r="V51" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="W51" t="n">
+      <c r="W51" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="X51" t="n">
+      <c r="X51" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Y51" s="2" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4444,76 +4450,76 @@
           <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="2" t="n">
         <v>0.35</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52" s="2" t="n">
         <v>0.41</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52" s="2" t="n">
         <v>0.38</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P52" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52" s="2" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R52" t="n">
+      <c r="R52" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="S52" t="n">
+      <c r="S52" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="T52" t="n">
+      <c r="T52" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U52" t="n">
+      <c r="U52" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="V52" t="n">
+      <c r="V52" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="W52" t="n">
+      <c r="W52" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="X52" t="n">
+      <c r="X52" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Y52" s="2" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4523,76 +4529,76 @@
           <t>xlm-roberta-base</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="2" t="n">
         <v>0.23</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="2" t="n">
         <v>0.19</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53" s="2" t="n">
         <v>0.09</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P53" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="R53" t="n">
+      <c r="R53" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="S53" t="n">
+      <c r="S53" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="T53" t="n">
+      <c r="T53" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U53" t="n">
+      <c r="U53" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V53" t="n">
+      <c r="V53" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="W53" t="n">
+      <c r="W53" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="X53" t="n">
+      <c r="X53" s="2" t="n">
         <v>0.49</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Y53" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4602,76 +4608,76 @@
           <t>xlm-roberta-large</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="2" t="n">
         <v>0.16</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="2" t="n">
         <v>0.27</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54" s="2" t="n">
         <v>0.19</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54" s="2" t="n">
         <v>0.43</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54" s="2" t="n">
         <v>0.84</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54" s="2" t="n">
         <v>0.39</v>
       </c>
-      <c r="R54" t="n">
+      <c r="R54" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S54" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="T54" t="n">
+      <c r="T54" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="U54" t="n">
+      <c r="U54" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="V54" t="n">
+      <c r="V54" s="2" t="n">
         <v>0.42</v>
       </c>
-      <c r="W54" t="n">
+      <c r="W54" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="X54" t="n">
+      <c r="X54" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Y54" s="2" t="n">
         <v>0.29</v>
       </c>
     </row>

--- a/analyses_outputs/results.xlsx
+++ b/analyses_outputs/results.xlsx
@@ -1,43 +1,305 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>PairClassification</t>
+  </si>
+  <si>
+    <t>Reranking</t>
+  </si>
+  <si>
+    <t>Retrieval</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>Summarization</t>
+  </si>
+  <si>
+    <t>MassiveScenarioClassification</t>
+  </si>
+  <si>
+    <t>MassiveIntentClassification</t>
+  </si>
+  <si>
+    <t>MasakhaNEWSClassification</t>
+  </si>
+  <si>
+    <t>MTOPIntentClassification</t>
+  </si>
+  <si>
+    <t>MTOPDomainClassification</t>
+  </si>
+  <si>
+    <t>AmazonReviewsClassification</t>
+  </si>
+  <si>
+    <t>MasakhaNEWSClusteringS2S</t>
+  </si>
+  <si>
+    <t>MasakhaNEWSClusteringP2P</t>
+  </si>
+  <si>
+    <t>MLSUMClusteringS2S</t>
+  </si>
+  <si>
+    <t>MLSUMClusteringP2P</t>
+  </si>
+  <si>
+    <t>HALClusteringS2S</t>
+  </si>
+  <si>
+    <t>AlloProfClusteringS2S</t>
+  </si>
+  <si>
+    <t>AlloProfClusteringP2P</t>
+  </si>
+  <si>
+    <t>PawsX</t>
+  </si>
+  <si>
+    <t>OpusparcusPC</t>
+  </si>
+  <si>
+    <t>SyntecReranking</t>
+  </si>
+  <si>
+    <t>AlloprofReranking</t>
+  </si>
+  <si>
+    <t>SyntecRetrieval</t>
+  </si>
+  <si>
+    <t>BSARDRetrieval</t>
+  </si>
+  <si>
+    <t>AlloprofRetrieval</t>
+  </si>
+  <si>
+    <t>STSBenchmarkMultilingualSTS</t>
+  </si>
+  <si>
+    <t>STS22</t>
+  </si>
+  <si>
+    <t>SICKFr</t>
+  </si>
+  <si>
+    <t>SummEvalFr</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>BAAI/bge-m3</t>
+  </si>
+  <si>
+    <t>Geotrend/distilbert-base-25lang-cased</t>
+  </si>
+  <si>
+    <t>Geotrend/distilbert-base-en-fr-cased</t>
+  </si>
+  <si>
+    <t>Geotrend/distilbert-base-fr-cased</t>
+  </si>
+  <si>
+    <t>Lajavaness/sentence-camembert-large</t>
+  </si>
+  <si>
+    <t>Lajavaness/sentence-flaubert-base</t>
+  </si>
+  <si>
+    <t>OrdalieTech/Solon-embeddings-base-0.1</t>
+  </si>
+  <si>
+    <t>OrdalieTech/Solon-embeddings-large-0.1</t>
+  </si>
+  <si>
+    <t>Wissam42/sentence-croissant-llm-base</t>
+  </si>
+  <si>
+    <t>bert-base-multilingual-cased</t>
+  </si>
+  <si>
+    <t>bert-base-multilingual-uncased</t>
+  </si>
+  <si>
+    <t>camembert/camembert-base</t>
+  </si>
+  <si>
+    <t>camembert/camembert-large</t>
+  </si>
+  <si>
+    <t>dangvantuan/sentence-camembert-base</t>
+  </si>
+  <si>
+    <t>embed-multilingual-light-v3.0</t>
+  </si>
+  <si>
+    <t>embed-multilingual-v3.0</t>
+  </si>
+  <si>
+    <t>flaubert/flaubert_base_cased</t>
+  </si>
+  <si>
+    <t>flaubert/flaubert_base_uncased</t>
+  </si>
+  <si>
+    <t>flaubert/flaubert_large_cased</t>
+  </si>
+  <si>
+    <t>intfloat/e5-mistral-7b-instruct</t>
+  </si>
+  <si>
+    <t>intfloat/multilingual-e5-base</t>
+  </si>
+  <si>
+    <t>intfloat/multilingual-e5-large</t>
+  </si>
+  <si>
+    <t>intfloat/multilingual-e5-small</t>
+  </si>
+  <si>
+    <t>izhx/udever-bloom-1b1</t>
+  </si>
+  <si>
+    <t>izhx/udever-bloom-560m</t>
+  </si>
+  <si>
+    <t>laser2</t>
+  </si>
+  <si>
+    <t>manu/bge-m3-custom-fr</t>
+  </si>
+  <si>
+    <t>manu/sentence_croissant_alpha_v0.2</t>
+  </si>
+  <si>
+    <t>manu/sentence_croissant_alpha_v0.3</t>
+  </si>
+  <si>
+    <t>mistral-embed</t>
+  </si>
+  <si>
+    <t>sentence-transformers/LaBSE</t>
+  </si>
+  <si>
+    <t>sentence-transformers/all-MiniLM-L12-v2</t>
+  </si>
+  <si>
+    <t>sentence-transformers/all-MiniLM-L6-v2</t>
+  </si>
+  <si>
+    <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
+  </si>
+  <si>
+    <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
+  </si>
+  <si>
+    <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
+  </si>
+  <si>
+    <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
+  </si>
+  <si>
+    <t>sentence-transformers/sentence-t5-base</t>
+  </si>
+  <si>
+    <t>sentence-transformers/sentence-t5-large</t>
+  </si>
+  <si>
+    <t>sentence-transformers/sentence-t5-xl</t>
+  </si>
+  <si>
+    <t>sentence-transformers/sentence-t5-xxl</t>
+  </si>
+  <si>
+    <t>shibing624/text2vec-base-multilingual</t>
+  </si>
+  <si>
+    <t>text-embedding-3-large</t>
+  </si>
+  <si>
+    <t>text-embedding-3-small</t>
+  </si>
+  <si>
+    <t>text-embedding-ada-002</t>
+  </si>
+  <si>
+    <t>voyage-2</t>
+  </si>
+  <si>
+    <t>voyage-code-2</t>
+  </si>
+  <si>
+    <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
+  </si>
+  <si>
+    <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
+  </si>
+  <si>
+    <t>xlm-roberta-base</t>
+  </si>
+  <si>
+    <t>xlm-roberta-large</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,127 +308,68 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -175,10 +378,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -216,69 +419,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -302,54 +507,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -359,7 +563,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -368,7 +572,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,7 +581,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -385,10 +589,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -417,7 +621,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -430,13 +634,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -454,4242 +657,4124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Clustering</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>PairClassification</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Reranking</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Retrieval</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>STS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Summarization</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>MassiveScenarioClassification</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>MassiveIntentClassification</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClassification</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>MTOPIntentClassification</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>MTOPDomainClassification</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>AmazonReviewsClassification</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClusteringS2S</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>MasakhaNEWSClusteringP2P</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>MLSUMClusteringS2S</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>MLSUMClusteringP2P</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>HALClusteringS2S</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>AlloProfClusteringS2S</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>AlloProfClusteringP2P</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>PawsX</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>OpusparcusPC.full</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>SyntecReranking</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>AlloprofReranking</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>SyntecRetrieval</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>BSARDRetrieval</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>AlloprofRetrieval</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>STSBenchmarkMultilingualSTS</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>STS22</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>SICKFr</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>SummEvalFr</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>BAAI/bge-m3</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4">
         <v>0.73</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4">
         <v>0.67</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4">
         <v>0.77</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4">
         <v>0.62</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="4">
         <v>0.89</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="4">
         <v>0.45</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="4">
         <v>0.42</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="4">
         <v>0.45</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="4">
         <v>0.44</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="4">
         <v>0.43</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="4">
         <v>0.31</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="4">
         <v>0.37</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="4">
         <v>0.59</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="4">
         <v>0.6</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="4">
         <v>0.88</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="4">
         <v>0.74</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="4">
         <v>0.85</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="4">
         <v>0.6</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="4">
         <v>0.49</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="4">
         <v>0.82</v>
       </c>
-      <c r="W4" s="2" t="n">
+      <c r="W4" s="4">
         <v>0.82</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="X4" s="4">
         <v>0.78</v>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Y4" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Geotrend/distilbert-base-25lang-cased</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.44</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="4">
         <v>0.35</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4">
         <v>0.68</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4">
         <v>0.35</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="4">
         <v>0.62</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="4">
         <v>0.29</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4">
         <v>0.33</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="4">
         <v>0.32</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="4">
         <v>0.31</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="4">
         <v>0.41</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="4">
         <v>0.24</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="4">
         <v>0.43</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="4">
         <v>0.57</v>
       </c>
-      <c r="O5" s="2" t="n">
+      <c r="O5" s="4">
         <v>0.51</v>
       </c>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="4">
         <v>0.86</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="4">
         <v>0.39</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="4">
         <v>0.29</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="4">
         <v>0.18</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="4">
         <v>0.11</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="4">
         <v>0.01</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="4">
         <v>0.57</v>
       </c>
-      <c r="W5" s="2" t="n">
+      <c r="W5" s="4">
         <v>0.41</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="X5" s="4">
         <v>0.62</v>
       </c>
-      <c r="Y5" s="2" t="n">
+      <c r="Y5" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Geotrend/distilbert-base-en-fr-cased</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4">
         <v>0.44</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="4">
         <v>0.35</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="4">
         <v>0.68</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="4">
         <v>0.35</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="4">
         <v>0.62</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="4">
         <v>0.29</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="4">
         <v>0.34</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4">
         <v>0.34</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="4">
         <v>0.31</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="4">
         <v>0.41</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="4">
         <v>0.25</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="M6" s="4">
         <v>0.42</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="4">
         <v>0.57</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="4">
         <v>0.51</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="4">
         <v>0.86</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="4">
         <v>0.39</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="4">
         <v>0.29</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="4">
         <v>0.18</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="4">
         <v>0.11</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="4">
         <v>0.01</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="4">
         <v>0.57</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="W6" s="4">
         <v>0.42</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="X6" s="4">
         <v>0.62</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Y6" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Geotrend/distilbert-base-fr-cased</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4">
         <v>0.44</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="4">
         <v>0.35</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="4">
         <v>0.68</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="4">
         <v>0.35</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="4">
         <v>0.62</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="4">
         <v>0.29</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="4">
         <v>0.35</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="4">
         <v>0.34</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="4">
         <v>0.31</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="4">
         <v>0.41</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="4">
         <v>0.24</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="M7" s="4">
         <v>0.43</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="4">
         <v>0.57</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="4">
         <v>0.51</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="4">
         <v>0.86</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="4">
         <v>0.39</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="4">
         <v>0.29</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="S7" s="4">
         <v>0.18</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="4">
         <v>0.11</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="4">
         <v>0.01</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="4">
         <v>0.57</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="4">
         <v>0.43</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="X7" s="4">
         <v>0.62</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Y7" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Lajavaness/sentence-camembert-large</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.7</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="4">
         <v>0.64</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="4">
         <v>0.74</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="4">
         <v>0.61</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="4">
         <v>0.87</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="4">
         <v>0.38</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="4">
         <v>0.37</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="4">
         <v>0.44</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="4">
         <v>0.43</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="4">
         <v>0.43</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="4">
         <v>0.32</v>
       </c>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="4">
         <v>0.4</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="4">
         <v>0.62</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="4">
         <v>0.61</v>
       </c>
-      <c r="P8" s="2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q8" s="2" t="n">
+      <c r="P8" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="Q8" s="4">
         <v>0.82</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="4">
         <v>0.63</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="4">
         <v>0.79</v>
       </c>
-      <c r="T8" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="U8" s="2" t="n">
+      <c r="T8" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="U8" s="4">
         <v>0.33</v>
       </c>
-      <c r="V8" s="3" t="n">
+      <c r="V8" s="5">
         <v>0.86</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="4">
         <v>0.82</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="X8" s="4">
         <v>0.78</v>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Y8" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Lajavaness/sentence-flaubert-base</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.63</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="4">
         <v>0.59</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="4">
         <v>0.71</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="4">
         <v>0.53</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="4">
         <v>0.79</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="4">
         <v>0.4</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="4">
         <v>0.3</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="4">
         <v>0.49</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="4">
         <v>0.41</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="4">
         <v>0.41</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="4">
         <v>0.32</v>
       </c>
-      <c r="M9" s="2" t="n">
+      <c r="M9" s="4">
         <v>0.4</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="N9" s="4">
         <v>0.57</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="4">
         <v>0.58</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q9" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R9" s="2" t="n">
+      <c r="Q9" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="R9" s="4">
         <v>0.48</v>
       </c>
-      <c r="S9" s="2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="T9" s="2" t="n">
+      <c r="S9" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="T9" s="4">
         <v>0.42</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="4">
         <v>0.18</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="5">
         <v>0.86</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="W9" s="4">
         <v>0.74</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="X9" s="4">
         <v>0.78</v>
       </c>
-      <c r="Y9" s="2" t="n">
+      <c r="Y9" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>OrdalieTech/Solon-embeddings-base-0.1</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.7</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="4">
         <v>0.65</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="4">
         <v>0.75</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="4">
         <v>0.62</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="4">
         <v>0.87</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="4">
         <v>0.41</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="4">
         <v>0.36</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="4">
         <v>0.5</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="4">
         <v>0.42</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="4">
         <v>0.43</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="4">
         <v>0.3</v>
       </c>
-      <c r="M10" s="2" t="n">
+      <c r="M10" s="4">
         <v>0.37</v>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="N10" s="4">
         <v>0.61</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="4">
         <v>0.59</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="4">
         <v>0.85</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="R10" s="4">
         <v>0.71</v>
       </c>
-      <c r="S10" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="T10" s="2" t="n">
+      <c r="S10" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="T10" s="6">
         <v>0</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="4">
         <v>0.41</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="4">
         <v>0.79</v>
       </c>
-      <c r="W10" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="X10" s="2" t="n">
+      <c r="W10" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="X10" s="4">
         <v>0.75</v>
       </c>
-      <c r="Y10" s="2" t="n">
+      <c r="Y10" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>OrdalieTech/Solon-embeddings-large-0.1</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
         <v>0.71</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="4">
         <v>0.67</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="4">
         <v>0.76</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="E11" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.89</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="4">
         <v>0.42</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="4">
         <v>0.31</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="4">
         <v>0.46</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="4">
         <v>0.43</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="4">
         <v>0.43</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="4">
         <v>0.32</v>
       </c>
-      <c r="M11" s="2" t="n">
+      <c r="M11" s="4">
         <v>0.37</v>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="N11" s="4">
         <v>0.63</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="O11" s="4">
         <v>0.6</v>
       </c>
-      <c r="P11" s="2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q11" s="2" t="n">
+      <c r="P11" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="Q11" s="4">
         <v>0.87</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="R11" s="4">
         <v>0.72</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="4">
         <v>0.85</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="4">
         <v>0.58</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="4">
         <v>0.47</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="4">
         <v>0.8</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="5">
         <v>0.83</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="X11" s="4">
         <v>0.77</v>
       </c>
-      <c r="Y11" s="2" t="n">
+      <c r="Y11" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Wissam42/sentence-croissant-llm-base</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4">
         <v>0.65</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="4">
         <v>0.59</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="4">
         <v>0.79</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="4">
         <v>0.63</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="4">
         <v>0.86</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="4">
         <v>0.35</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="4">
         <v>0.41</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="4">
         <v>0.54</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="4">
         <v>0.34</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="4">
         <v>0.43</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="4">
         <v>0.29</v>
       </c>
-      <c r="M12" s="2" t="n">
+      <c r="M12" s="4">
         <v>0.33</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="N12" s="4">
         <v>0.64</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="4">
         <v>0.63</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="4">
         <v>0.91</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="Q12" s="4">
         <v>0.78</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="R12" s="4">
         <v>0.57</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="4">
         <v>0.74</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="4">
         <v>0.52</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="4">
         <v>0.3</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="4">
         <v>0.79</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="W12" s="4">
         <v>0.79</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="X12" s="4">
         <v>0.7</v>
       </c>
-      <c r="Y12" s="2" t="n">
+      <c r="Y12" s="4">
         <v>0.29</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>bert-base-multilingual-cased</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4">
         <v>0.44</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="4">
         <v>0.37</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="4">
         <v>0.64</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="4">
         <v>0.38</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="4">
         <v>0.64</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="4">
         <v>0.29</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="4">
         <v>0.24</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="4">
         <v>0.24</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="4">
         <v>0.32</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="4">
         <v>0.41</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="4">
         <v>0.25</v>
       </c>
-      <c r="M13" s="2" t="n">
+      <c r="M13" s="4">
         <v>0.43</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="N13" s="4">
         <v>0.51</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="4">
         <v>0.53</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="4">
         <v>0.87</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="4">
         <v>0.43</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="R13" s="4">
         <v>0.32</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="4">
         <v>0.19</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="4">
         <v>0.1</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="4">
         <v>0.02</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="4">
         <v>0.52</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="W13" s="4">
         <v>0.39</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="X13" s="4">
         <v>0.59</v>
       </c>
-      <c r="Y13" s="2" t="n">
+      <c r="Y13" s="4">
         <v>0.29</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>bert-base-multilingual-uncased</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4">
         <v>0.44</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="4">
         <v>0.38</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="4">
         <v>0.76</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="4">
         <v>0.39</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="4">
         <v>0.64</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="4">
         <v>0.29</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="4">
         <v>0.42</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="4">
         <v>0.5</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="4">
         <v>0.31</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="4">
         <v>0.43</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="4">
         <v>0.26</v>
       </c>
-      <c r="M14" s="2" t="n">
+      <c r="M14" s="4">
         <v>0.35</v>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="N14" s="4">
         <v>0.61</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="4">
         <v>0.53</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="4">
         <v>0.87</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="4">
         <v>0.59</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="R14" s="4">
         <v>0.33</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="4">
         <v>0.35</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="4">
         <v>0.16</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="4">
         <v>0.06</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="4">
         <v>0.55</v>
       </c>
-      <c r="W14" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="X14" s="2" t="n">
+      <c r="W14" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="X14" s="4">
         <v>0.58</v>
       </c>
-      <c r="Y14" s="2" t="n">
+      <c r="Y14" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>camembert/camembert-base</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4">
         <v>0.39</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="4">
         <v>0.31</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="4">
         <v>0.66</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="4">
         <v>0.29</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="4">
         <v>0.58</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="4">
         <v>0.3</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="4">
         <v>0.27</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="4">
         <v>0.44</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="4">
         <v>0.27</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="4">
         <v>0.41</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="4">
         <v>0.16</v>
       </c>
-      <c r="M15" s="2" t="n">
+      <c r="M15" s="4">
         <v>0.29</v>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="N15" s="4">
         <v>0.54</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="4">
         <v>0.52</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="4">
         <v>0.83</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="Q15" s="4">
         <v>0.36</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="R15" s="4">
         <v>0.26</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="S15" s="4">
         <v>0.06</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="6">
         <v>0</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="6">
         <v>0</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="4">
         <v>0.55</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="4">
         <v>0.61</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="X15" s="4">
         <v>0.54</v>
       </c>
-      <c r="Y15" s="2" t="n">
+      <c r="Y15" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>camembert/camembert-large</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4">
         <v>0.46</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="4">
         <v>0.36</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="4">
         <v>0.71</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="4">
         <v>0.42</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="4">
         <v>0.68</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="4">
         <v>0.31</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="4">
         <v>0.33</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="4">
         <v>0.42</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="4">
         <v>0.35</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="4">
         <v>0.44</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="4">
         <v>0.03</v>
       </c>
-      <c r="M16" s="2" t="n">
+      <c r="M16" s="4">
         <v>0.34</v>
       </c>
-      <c r="N16" s="2" t="n">
+      <c r="N16" s="4">
         <v>0.59</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="O16" s="4">
         <v>0.52</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="4">
         <v>0.77</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="4">
         <v>0.36</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="R16" s="4">
         <v>0.33</v>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="4">
         <v>0.18</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="4">
         <v>0.01</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="4">
         <v>0.02</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="4">
         <v>0.62</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="4">
         <v>0.57</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="X16" s="4">
         <v>0.59</v>
       </c>
-      <c r="Y16" s="2" t="n">
+      <c r="Y16" s="4">
         <v>0.17</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>dangvantuan/sentence-camembert-base</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4">
         <v>0.61</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="4">
         <v>0.52</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="4">
         <v>0.7</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="4">
         <v>0.43</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="4">
         <v>0.77</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="4">
         <v>0.36</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="4">
         <v>0.31</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="4">
         <v>0.36</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="4">
         <v>0.27</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="4">
         <v>0.36</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="4">
         <v>0.25</v>
       </c>
-      <c r="M17" s="2" t="n">
+      <c r="M17" s="4">
         <v>0.39</v>
       </c>
-      <c r="N17" s="2" t="n">
+      <c r="N17" s="4">
         <v>0.59</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="4">
         <v>0.57</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="4">
         <v>0.92</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="4">
         <v>0.74</v>
       </c>
-      <c r="R17" s="2" t="n">
+      <c r="R17" s="4">
         <v>0.58</v>
       </c>
-      <c r="S17" s="2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="T17" s="2" t="n">
+      <c r="S17" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="T17" s="4">
         <v>0.39</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="4">
         <v>0.22</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="4">
         <v>0.82</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="W17" s="4">
         <v>0.78</v>
       </c>
-      <c r="X17" s="2" t="n">
+      <c r="X17" s="4">
         <v>0.74</v>
       </c>
-      <c r="Y17" s="2" t="n">
+      <c r="Y17" s="4">
         <v>0.29</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>embed-multilingual-light-v3.0</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4">
         <v>0.59</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D18" s="3" t="n">
+      <c r="C18" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="D18" s="5">
         <v>0.83</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="4">
         <v>0.5</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G18" s="2" t="n">
+      <c r="F18" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="G18" s="4">
         <v>0.39</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="4">
         <v>0.29</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="4">
         <v>0.57</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="4">
         <v>0.33</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="4">
         <v>0.43</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="4">
         <v>0.2</v>
       </c>
-      <c r="M18" s="2" t="n">
+      <c r="M18" s="4">
         <v>0.31</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="N18" s="4">
         <v>0.62</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="4">
         <v>0.57</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="4">
         <v>0.91</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="4">
         <v>0.82</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="R18" s="4">
         <v>0.7</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="4">
         <v>0.77</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="4">
         <v>0.52</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="4">
         <v>0.35</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="4">
         <v>0.76</v>
       </c>
-      <c r="W18" s="3" t="n">
+      <c r="W18" s="5">
         <v>0.83</v>
       </c>
-      <c r="X18" s="2" t="n">
+      <c r="X18" s="4">
         <v>0.76</v>
       </c>
-      <c r="Y18" s="2" t="n">
+      <c r="Y18" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>embed-multilingual-v3.0</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4">
         <v>0.67</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="4">
         <v>0.63</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="5">
         <v>0.83</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="4">
         <v>0.61</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="4">
         <v>0.86</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="4">
         <v>0.42</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="4">
         <v>0.32</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="4">
         <v>0.53</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="4">
         <v>0.35</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="4">
         <v>0.45</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="L19" s="4">
         <v>0.24</v>
       </c>
-      <c r="M19" s="2" t="n">
+      <c r="M19" s="4">
         <v>0.36</v>
       </c>
-      <c r="N19" s="2" t="n">
+      <c r="N19" s="4">
         <v>0.64</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="4">
         <v>0.61</v>
       </c>
-      <c r="P19" s="2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q19" s="2" t="n">
+      <c r="P19" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="Q19" s="4">
         <v>0.84</v>
       </c>
-      <c r="R19" s="2" t="n">
+      <c r="R19" s="4">
         <v>0.74</v>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="4">
         <v>0.79</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="4">
         <v>0.44</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="4">
         <v>0.38</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="4">
         <v>0.82</v>
       </c>
-      <c r="W19" s="3" t="n">
+      <c r="W19" s="5">
         <v>0.83</v>
       </c>
-      <c r="X19" s="3" t="n">
+      <c r="X19" s="5">
         <v>0.79</v>
       </c>
-      <c r="Y19" s="2" t="n">
+      <c r="Y19" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>flaubert/flaubert_base_cased</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4">
         <v>0.11</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="C20" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="D20" s="4">
         <v>0.71</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="4">
         <v>0.09</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="4">
         <v>0.26</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="4">
         <v>0.25</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="4">
         <v>0.21</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="4">
         <v>0.42</v>
       </c>
-      <c r="J20" s="2" t="n">
+      <c r="J20" s="4">
         <v>0.17</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="K20" s="4">
         <v>0.39</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="L20" s="4">
         <v>0.04</v>
       </c>
-      <c r="M20" s="2" t="n">
+      <c r="M20" s="4">
         <v>0.14</v>
       </c>
-      <c r="N20" s="2" t="n">
+      <c r="N20" s="4">
         <v>0.53</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="4">
         <v>0.52</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="4">
         <v>0.82</v>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="Q20" s="4">
         <v>0.43</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="R20" s="4">
         <v>0.29</v>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="4">
         <v>0.21</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="4">
         <v>0.02</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="4">
         <v>0.02</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="4">
         <v>0.37</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="4">
         <v>0.65</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="4">
         <v>0.54</v>
       </c>
-      <c r="Y20" s="2" t="n">
+      <c r="Y20" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>flaubert/flaubert_base_uncased</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="4">
         <v>0.11</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="4">
         <v>0.06</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="4">
         <v>0.63</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="4">
         <v>0.09</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="4">
         <v>0.28</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="4">
         <v>0.24</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="4">
         <v>0.23</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="4">
         <v>0.28</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="J21" s="4">
         <v>0.15</v>
       </c>
-      <c r="K21" s="2" t="n">
+      <c r="K21" s="4">
         <v>0.33</v>
       </c>
-      <c r="L21" s="2" t="n">
+      <c r="L21" s="4">
         <v>0.02</v>
       </c>
-      <c r="M21" s="2" t="n">
+      <c r="M21" s="4">
         <v>0.13</v>
       </c>
-      <c r="N21" s="2" t="n">
+      <c r="N21" s="4">
         <v>0.43</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="O21" s="4">
         <v>0.53</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="4">
         <v>0.82</v>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="Q21" s="4">
         <v>0.49</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" s="4">
         <v>0.3</v>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="4">
         <v>0.22</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="4">
         <v>0.03</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="4">
         <v>0.02</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="4">
         <v>0.33</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="4">
         <v>0.55</v>
       </c>
-      <c r="X21" s="2" t="n">
+      <c r="X21" s="4">
         <v>0.42</v>
       </c>
-      <c r="Y21" s="2" t="n">
+      <c r="Y21" s="4">
         <v>0.29</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>flaubert/flaubert_large_cased</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4">
         <v>0.23</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="4">
         <v>0.16</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E22" s="2" t="n">
+      <c r="D22" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="E22" s="4">
         <v>0.1</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="4">
         <v>0.24</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="4">
         <v>0.22</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="4">
         <v>0.25</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="4">
         <v>0.26</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="J22" s="4">
         <v>0.19</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="K22" s="4">
         <v>0.38</v>
       </c>
-      <c r="L22" s="2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M22" s="2" t="n">
+      <c r="L22" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="M22" s="4">
         <v>0.22</v>
       </c>
-      <c r="N22" s="2" t="n">
+      <c r="N22" s="4">
         <v>0.41</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="O22" s="4">
         <v>0.54</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="4">
         <v>0.75</v>
       </c>
-      <c r="Q22" s="2" t="n">
+      <c r="Q22" s="4">
         <v>0.32</v>
       </c>
-      <c r="R22" s="2" t="n">
+      <c r="R22" s="4">
         <v>0.29</v>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="4">
         <v>0.02</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="6">
         <v>0</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="4">
         <v>0.01</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="4">
         <v>0.16</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="4">
         <v>0.49</v>
       </c>
-      <c r="X22" s="2" t="n">
+      <c r="X22" s="4">
         <v>0.35</v>
       </c>
-      <c r="Y22" s="2" t="n">
+      <c r="Y22" s="4">
         <v>0.29</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>intfloat/e5-mistral-7b-instruct</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4">
         <v>0.7</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="4">
         <v>0.6</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="4">
         <v>0.75</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="4">
         <v>0.53</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="4">
         <v>0.82</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="4">
         <v>0.44</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="5">
         <v>0.65</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="4">
         <v>0.38</v>
       </c>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="4">
         <v>0.44</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="K23" s="4">
         <v>0.45</v>
       </c>
-      <c r="L23" s="3" t="n">
+      <c r="L23" s="5">
         <v>0.37</v>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="M23" s="5">
         <v>0.58</v>
       </c>
-      <c r="N23" s="2" t="n">
+      <c r="N23" s="4">
         <v>0.64</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="O23" s="4">
         <v>0.6</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="4">
         <v>0.92</v>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="Q23" s="4">
         <v>0.9</v>
       </c>
-      <c r="R23" s="2" t="n">
+      <c r="R23" s="4">
         <v>0.74</v>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="4">
         <v>0.83</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="4">
         <v>0.64</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="4">
         <v>0.45</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="4">
         <v>0.83</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="4">
         <v>0.76</v>
       </c>
-      <c r="X23" s="3" t="n">
+      <c r="X23" s="5">
         <v>0.79</v>
       </c>
-      <c r="Y23" s="2" t="n">
+      <c r="Y23" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>intfloat/multilingual-e5-base</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4">
         <v>0.66</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="4">
         <v>0.61</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="4">
         <v>0.8</v>
       </c>
-      <c r="E24" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F24" s="2" t="n">
+      <c r="E24" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="F24" s="4">
         <v>0.85</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="4">
         <v>0.41</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="4">
         <v>0.51</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="4">
         <v>0.48</v>
       </c>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="4">
         <v>0.39</v>
       </c>
-      <c r="K24" s="2" t="n">
+      <c r="K24" s="4">
         <v>0.43</v>
       </c>
-      <c r="L24" s="2" t="n">
+      <c r="L24" s="4">
         <v>0.28</v>
       </c>
-      <c r="M24" s="2" t="n">
+      <c r="M24" s="4">
         <v>0.33</v>
       </c>
-      <c r="N24" s="2" t="n">
+      <c r="N24" s="4">
         <v>0.62</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="O24" s="4">
         <v>0.57</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q24" s="2" t="n">
+      <c r="Q24" s="4">
         <v>0.83</v>
       </c>
-      <c r="R24" s="2" t="n">
+      <c r="R24" s="4">
         <v>0.67</v>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="4">
         <v>0.8</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="4">
         <v>0.53</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="4">
         <v>0.36</v>
       </c>
-      <c r="V24" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W24" s="2" t="n">
+      <c r="V24" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="W24" s="4">
         <v>0.78</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="X24" s="4">
         <v>0.76</v>
       </c>
-      <c r="Y24" s="2" t="n">
+      <c r="Y24" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>intfloat/multilingual-e5-large</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="4">
         <v>0.68</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="4">
         <v>0.64</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="4">
         <v>0.79</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="4">
         <v>0.59</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="4">
         <v>0.86</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="4">
         <v>0.42</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="4">
         <v>0.31</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="4">
         <v>0.41</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="4">
         <v>0.38</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="K25" s="4">
         <v>0.44</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="L25" s="4">
         <v>0.28</v>
       </c>
-      <c r="M25" s="2" t="n">
+      <c r="M25" s="4">
         <v>0.32</v>
       </c>
-      <c r="N25" s="2" t="n">
+      <c r="N25" s="4">
         <v>0.63</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="4">
         <v>0.59</v>
       </c>
-      <c r="P25" s="2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q25" s="2" t="n">
+      <c r="P25" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="Q25" s="4">
         <v>0.83</v>
       </c>
-      <c r="R25" s="2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S25" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="T25" s="2" t="n">
+      <c r="R25" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="T25" s="4">
         <v>0.59</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="4">
         <v>0.38</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="4">
         <v>0.83</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="4">
         <v>0.8</v>
       </c>
-      <c r="X25" s="3" t="n">
+      <c r="X25" s="5">
         <v>0.79</v>
       </c>
-      <c r="Y25" s="2" t="n">
+      <c r="Y25" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>intfloat/multilingual-e5-small</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="4">
         <v>0.61</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D26" s="2" t="n">
+      <c r="C26" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="D26" s="4">
         <v>0.78</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="4">
         <v>0.46</v>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G26" s="2" t="n">
+      <c r="F26" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="G26" s="4">
         <v>0.4</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="4">
         <v>0.39</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="4">
         <v>0.4</v>
       </c>
-      <c r="J26" s="2" t="n">
+      <c r="J26" s="4">
         <v>0.38</v>
       </c>
-      <c r="K26" s="2" t="n">
+      <c r="K26" s="4">
         <v>0.43</v>
       </c>
-      <c r="L26" s="2" t="n">
+      <c r="L26" s="4">
         <v>0.21</v>
       </c>
-      <c r="M26" s="2" t="n">
+      <c r="M26" s="4">
         <v>0.33</v>
       </c>
-      <c r="N26" s="2" t="n">
+      <c r="N26" s="4">
         <v>0.61</v>
       </c>
-      <c r="O26" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P26" s="2" t="n">
+      <c r="O26" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="P26" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q26" s="2" t="n">
+      <c r="Q26" s="4">
         <v>0.82</v>
       </c>
-      <c r="R26" s="2" t="n">
+      <c r="R26" s="4">
         <v>0.65</v>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="4">
         <v>0.76</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="4">
         <v>0.52</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="4">
         <v>0.27</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="4">
         <v>0.79</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="W26" s="4">
         <v>0.8</v>
       </c>
-      <c r="X26" s="2" t="n">
+      <c r="X26" s="4">
         <v>0.76</v>
       </c>
-      <c r="Y26" s="3" t="n">
+      <c r="Y26" s="5">
         <v>0.32</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>izhx/udever-bloom-1b1</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="4">
         <v>0.5</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="4">
         <v>0.43</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E27" s="2" t="n">
+      <c r="D27" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="E27" s="4">
         <v>0.51</v>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G27" s="2" t="n">
+      <c r="F27" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="G27" s="4">
         <v>0.35</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="4">
         <v>0.27</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="4">
         <v>0.4</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="J27" s="4">
         <v>0.3</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" s="4">
         <v>0.44</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="L27" s="4">
         <v>0.16</v>
       </c>
-      <c r="M27" s="2" t="n">
+      <c r="M27" s="4">
         <v>0.27</v>
       </c>
-      <c r="N27" s="2" t="n">
+      <c r="N27" s="4">
         <v>0.62</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="O27" s="4">
         <v>0.62</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="4">
         <v>0.86</v>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="Q27" s="4">
         <v>0.48</v>
       </c>
-      <c r="R27" s="2" t="n">
+      <c r="R27" s="4">
         <v>0.39</v>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="4">
         <v>0.41</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="4">
         <v>0.32</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="4">
         <v>0.12</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="4">
         <v>0.5</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="4">
         <v>0.77</v>
       </c>
-      <c r="X27" s="2" t="n">
+      <c r="X27" s="4">
         <v>0.6</v>
       </c>
-      <c r="Y27" s="2" t="n">
+      <c r="Y27" s="4">
         <v>0.29</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>izhx/udever-bloom-560m</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="4">
         <v>0.22</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="4">
         <v>0.15</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="4">
         <v>0.68</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="4">
         <v>0.16</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="4">
         <v>0.35</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="4">
         <v>0.27</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="4">
         <v>0.21</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="4">
         <v>0.38</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="J28" s="4">
         <v>0.25</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K28" s="4">
         <v>0.36</v>
       </c>
-      <c r="L28" s="2" t="n">
+      <c r="L28" s="4">
         <v>0.08</v>
       </c>
-      <c r="M28" s="2" t="n">
+      <c r="M28" s="4">
         <v>0.22</v>
       </c>
-      <c r="N28" s="2" t="n">
+      <c r="N28" s="4">
         <v>0.54</v>
       </c>
-      <c r="O28" s="2" t="n">
+      <c r="O28" s="4">
         <v>0.6</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="4">
         <v>0.82</v>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="Q28" s="4">
         <v>0.47</v>
       </c>
-      <c r="R28" s="2" t="n">
+      <c r="R28" s="4">
         <v>0.31</v>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="4">
         <v>0.24</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="4">
         <v>0.06</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="4">
         <v>0.02</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="4">
         <v>0.37</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="4">
         <v>0.61</v>
       </c>
-      <c r="X28" s="2" t="n">
+      <c r="X28" s="4">
         <v>0.55</v>
       </c>
-      <c r="Y28" s="2" t="n">
+      <c r="Y28" s="4">
         <v>0.24</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>laser2</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4">
         <v>0.59</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="4">
         <v>0.53</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="4">
         <v>0.66</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="4">
         <v>0.57</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="4">
         <v>0.76</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="4">
         <v>0.34</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="4">
         <v>0.3</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="4">
         <v>0.32</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="J29" s="4">
         <v>0.27</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="4">
         <v>0.35</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="L29" s="4">
         <v>0.12</v>
       </c>
-      <c r="M29" s="2" t="n">
+      <c r="M29" s="4">
         <v>0.26</v>
       </c>
-      <c r="N29" s="2" t="n">
+      <c r="N29" s="4">
         <v>0.48</v>
       </c>
-      <c r="O29" s="3" t="n">
+      <c r="O29" s="5">
         <v>0.7</v>
       </c>
-      <c r="P29" s="2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q29" s="2" t="n">
+      <c r="P29" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="Q29" s="4">
         <v>0.49</v>
       </c>
-      <c r="R29" s="2" t="n">
+      <c r="R29" s="4">
         <v>0.39</v>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="S29" s="4">
         <v>0.29</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="4">
         <v>0.08</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="4">
         <v>0.03</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="4">
         <v>0.7</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="4">
         <v>0.65</v>
       </c>
-      <c r="X29" s="2" t="n">
+      <c r="X29" s="4">
         <v>0.65</v>
       </c>
-      <c r="Y29" s="2" t="n">
+      <c r="Y29" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>manu/bge-m3-custom-fr</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4">
         <v>0.75</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="4">
         <v>0.67</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="4">
         <v>0.7</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="4">
         <v>0.61</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="4">
         <v>0.9</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="4">
         <v>0.42</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="4">
         <v>0.42</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="4">
         <v>0.29</v>
       </c>
-      <c r="J30" s="2" t="n">
+      <c r="J30" s="4">
         <v>0.42</v>
       </c>
-      <c r="K30" s="2" t="n">
+      <c r="K30" s="4">
         <v>0.42</v>
       </c>
-      <c r="L30" s="2" t="n">
+      <c r="L30" s="4">
         <v>0.31</v>
       </c>
-      <c r="M30" s="2" t="n">
+      <c r="M30" s="4">
         <v>0.39</v>
       </c>
-      <c r="N30" s="2" t="n">
+      <c r="N30" s="4">
         <v>0.58</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="O30" s="4">
         <v>0.61</v>
       </c>
-      <c r="P30" s="2" t="n">
+      <c r="P30" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q30" s="2" t="n">
+      <c r="Q30" s="4">
         <v>0.85</v>
       </c>
-      <c r="R30" s="2" t="n">
+      <c r="R30" s="4">
         <v>0.74</v>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="S30" s="4">
         <v>0.79</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="4">
         <v>0.53</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="4">
         <v>0.45</v>
       </c>
-      <c r="V30" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W30" s="2" t="n">
+      <c r="V30" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="W30" s="4">
         <v>0.82</v>
       </c>
-      <c r="X30" s="2" t="n">
+      <c r="X30" s="4">
         <v>0.76</v>
       </c>
-      <c r="Y30" s="2" t="n">
+      <c r="Y30" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>manu/sentence_croissant_alpha_v0.2</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="4">
         <v>0.7</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="4">
         <v>0.64</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="4">
         <v>0.76</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="4">
         <v>0.61</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="4">
         <v>0.89</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="4">
         <v>0.38</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="4">
         <v>0.32</v>
       </c>
-      <c r="I31" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="J31" s="2" t="n">
+      <c r="I31" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="J31" s="4">
         <v>0.44</v>
       </c>
-      <c r="K31" s="2" t="n">
+      <c r="K31" s="4">
         <v>0.45</v>
       </c>
-      <c r="L31" s="2" t="n">
+      <c r="L31" s="4">
         <v>0.33</v>
       </c>
-      <c r="M31" s="2" t="n">
+      <c r="M31" s="4">
         <v>0.38</v>
       </c>
-      <c r="N31" s="2" t="n">
+      <c r="N31" s="4">
         <v>0.62</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="4">
         <v>0.67</v>
       </c>
-      <c r="P31" s="2" t="n">
+      <c r="P31" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="Q31" s="4">
         <v>0.82</v>
       </c>
-      <c r="R31" s="2" t="n">
+      <c r="R31" s="4">
         <v>0.72</v>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="4">
         <v>0.79</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="4">
         <v>0.6</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="4">
         <v>0.45</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="4">
         <v>0.73</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="4">
         <v>0.79</v>
       </c>
-      <c r="X31" s="2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Y31" s="2" t="n">
+      <c r="X31" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="Y31" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>manu/sentence_croissant_alpha_v0.3</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="4">
         <v>0.7</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="4">
         <v>0.65</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="4">
         <v>0.76</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="4">
         <v>0.59</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="4">
         <v>0.88</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="4">
         <v>0.36</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="4">
         <v>0.38</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="4">
         <v>0.58</v>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J32" s="4">
         <v>0.44</v>
       </c>
-      <c r="K32" s="2" t="n">
+      <c r="K32" s="4">
         <v>0.44</v>
       </c>
-      <c r="L32" s="2" t="n">
+      <c r="L32" s="4">
         <v>0.35</v>
       </c>
-      <c r="M32" s="2" t="n">
+      <c r="M32" s="4">
         <v>0.41</v>
       </c>
-      <c r="N32" s="2" t="n">
+      <c r="N32" s="4">
         <v>0.6</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="O32" s="4">
         <v>0.65</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="Q32" s="4">
         <v>0.82</v>
       </c>
-      <c r="R32" s="2" t="n">
+      <c r="R32" s="4">
         <v>0.74</v>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="4">
         <v>0.8</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="4">
         <v>0.66</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="4">
         <v>0.49</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="4">
         <v>0.78</v>
       </c>
-      <c r="W32" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="X32" s="2" t="n">
+      <c r="W32" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="X32" s="4">
         <v>0.72</v>
       </c>
-      <c r="Y32" s="2" t="n">
+      <c r="Y32" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>mistral-embed</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4">
         <v>0.7</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="4">
         <v>0.63</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E33" s="2" t="n">
+      <c r="D33" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="E33" s="4">
         <v>0.66</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="4">
         <v>0.9</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="4">
         <v>0.42</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="4">
         <v>0.4</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="4">
         <v>0.48</v>
       </c>
-      <c r="J33" s="2" t="n">
+      <c r="J33" s="4">
         <v>0.43</v>
       </c>
-      <c r="K33" s="2" t="n">
+      <c r="K33" s="4">
         <v>0.45</v>
       </c>
-      <c r="L33" s="2" t="n">
+      <c r="L33" s="4">
         <v>0.35</v>
       </c>
-      <c r="M33" s="2" t="n">
+      <c r="M33" s="4">
         <v>0.49</v>
       </c>
-      <c r="N33" s="2" t="n">
+      <c r="N33" s="4">
         <v>0.62</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="4">
         <v>0.62</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q33" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R33" s="2" t="n">
+      <c r="Q33" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="R33" s="4">
         <v>0.78</v>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="S33" s="4">
         <v>0.79</v>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="4">
         <v>0.68</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="4">
         <v>0.57</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="4">
         <v>0.8</v>
       </c>
-      <c r="W33" s="3" t="n">
+      <c r="W33" s="5">
         <v>0.83</v>
       </c>
-      <c r="X33" s="2" t="n">
+      <c r="X33" s="4">
         <v>0.76</v>
       </c>
-      <c r="Y33" s="2" t="n">
+      <c r="Y33" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/LaBSE</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="4">
         <v>0.65</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="4">
         <v>0.6</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="4">
         <v>0.77</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="4">
         <v>0.62</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="4">
         <v>0.84</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="4">
         <v>0.39</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="4">
         <v>0.38</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="4">
         <v>0.46</v>
       </c>
-      <c r="J34" s="2" t="n">
+      <c r="J34" s="4">
         <v>0.35</v>
       </c>
-      <c r="K34" s="2" t="n">
+      <c r="K34" s="4">
         <v>0.42</v>
       </c>
-      <c r="L34" s="2" t="n">
+      <c r="L34" s="4">
         <v>0.25</v>
       </c>
-      <c r="M34" s="2" t="n">
+      <c r="M34" s="4">
         <v>0.32</v>
       </c>
-      <c r="N34" s="2" t="n">
+      <c r="N34" s="4">
         <v>0.55</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="4">
         <v>0.55</v>
       </c>
-      <c r="P34" s="2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q34" s="2" t="n">
+      <c r="P34" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="Q34" s="4">
         <v>0.68</v>
       </c>
-      <c r="R34" s="2" t="n">
+      <c r="R34" s="4">
         <v>0.55</v>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="S34" s="4">
         <v>0.55</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="4">
         <v>0.23</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="4">
         <v>0.2</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="4">
         <v>0.75</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="4">
         <v>0.78</v>
       </c>
-      <c r="X34" s="2" t="n">
+      <c r="X34" s="4">
         <v>0.7</v>
       </c>
-      <c r="Y34" s="2" t="n">
+      <c r="Y34" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/all-MiniLM-L12-v2</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="4">
         <v>0.54</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="4">
         <v>0.45</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="4">
         <v>0.72</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="4">
         <v>0.39</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="4">
         <v>0.76</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="4">
         <v>0.28</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="4">
         <v>0.32</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="4">
         <v>0.43</v>
       </c>
-      <c r="J35" s="2" t="n">
+      <c r="J35" s="4">
         <v>0.29</v>
       </c>
-      <c r="K35" s="2" t="n">
+      <c r="K35" s="4">
         <v>0.34</v>
       </c>
-      <c r="L35" s="2" t="n">
+      <c r="L35" s="4">
         <v>0.25</v>
       </c>
-      <c r="M35" s="2" t="n">
+      <c r="M35" s="4">
         <v>0.32</v>
       </c>
-      <c r="N35" s="2" t="n">
+      <c r="N35" s="4">
         <v>0.46</v>
       </c>
-      <c r="O35" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P35" s="2" t="n">
+      <c r="O35" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="P35" s="4">
         <v>0.87</v>
       </c>
-      <c r="Q35" s="2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R35" s="2" t="n">
+      <c r="Q35" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="R35" s="4">
         <v>0.67</v>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="S35" s="4">
         <v>0.61</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="4">
         <v>0.34</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="4">
         <v>0.33</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="4">
         <v>0.67</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="4">
         <v>0.7</v>
       </c>
-      <c r="X35" s="2" t="n">
+      <c r="X35" s="4">
         <v>0.63</v>
       </c>
-      <c r="Y35" s="2" t="n">
+      <c r="Y35" s="4">
         <v>0.27</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/all-MiniLM-L6-v2</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="4">
         <v>0.51</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="4">
         <v>0.43</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="4">
         <v>0.74</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="4">
         <v>0.4</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="4">
         <v>0.75</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="4">
         <v>0.27</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="4">
         <v>0.41</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="4">
         <v>0.35</v>
       </c>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="4">
         <v>0.28</v>
       </c>
-      <c r="K36" s="2" t="n">
+      <c r="K36" s="4">
         <v>0.37</v>
       </c>
-      <c r="L36" s="2" t="n">
+      <c r="L36" s="4">
         <v>0.23</v>
       </c>
-      <c r="M36" s="2" t="n">
+      <c r="M36" s="4">
         <v>0.32</v>
       </c>
-      <c r="N36" s="2" t="n">
+      <c r="N36" s="4">
         <v>0.52</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="O36" s="4">
         <v>0.55</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="4">
         <v>0.87</v>
       </c>
-      <c r="Q36" s="2" t="n">
+      <c r="Q36" s="4">
         <v>0.67</v>
       </c>
-      <c r="R36" s="2" t="n">
+      <c r="R36" s="4">
         <v>0.63</v>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="S36" s="4">
         <v>0.6</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="4">
         <v>0.27</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="4">
         <v>0.28</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="4">
         <v>0.65</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="4">
         <v>0.77</v>
       </c>
-      <c r="X36" s="2" t="n">
+      <c r="X36" s="4">
         <v>0.62</v>
       </c>
-      <c r="Y36" s="2" t="n">
+      <c r="Y36" s="4">
         <v>0.28</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/distiluse-base-multilingual-cased-v2</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="4">
         <v>0.67</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="4">
         <v>0.6</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="4">
         <v>0.77</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F37" s="2" t="n">
+      <c r="E37" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="F37" s="4">
         <v>0.85</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="4">
         <v>0.36</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="4">
         <v>0.33</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="4">
         <v>0.54</v>
       </c>
-      <c r="J37" s="2" t="n">
+      <c r="J37" s="4">
         <v>0.35</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K37" s="4">
         <v>0.4</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="L37" s="4">
         <v>0.22</v>
       </c>
-      <c r="M37" s="2" t="n">
+      <c r="M37" s="4">
         <v>0.35</v>
       </c>
-      <c r="N37" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O37" s="2" t="n">
+      <c r="N37" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="O37" s="4">
         <v>0.51</v>
       </c>
-      <c r="P37" s="2" t="n">
+      <c r="P37" s="4">
         <v>0.92</v>
       </c>
-      <c r="Q37" s="2" t="n">
+      <c r="Q37" s="4">
         <v>0.75</v>
       </c>
-      <c r="R37" s="2" t="n">
+      <c r="R37" s="4">
         <v>0.62</v>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="S37" s="4">
         <v>0.65</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="4">
         <v>0.29</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="4">
         <v>0.27</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="4">
         <v>0.77</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="4">
         <v>0.76</v>
       </c>
-      <c r="X37" s="2" t="n">
+      <c r="X37" s="4">
         <v>0.72</v>
       </c>
-      <c r="Y37" s="2" t="n">
+      <c r="Y37" s="4">
         <v>0.28</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/multi-qa-MiniLM-L6-cos-v1</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="4">
         <v>0.5</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="4">
         <v>0.43</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="4">
         <v>0.76</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="4">
         <v>0.37</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="4">
         <v>0.73</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="4">
         <v>0.27</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="4">
         <v>0.27</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="4">
         <v>0.54</v>
       </c>
-      <c r="J38" s="2" t="n">
+      <c r="J38" s="4">
         <v>0.26</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="K38" s="4">
         <v>0.35</v>
       </c>
-      <c r="L38" s="2" t="n">
+      <c r="L38" s="4">
         <v>0.14</v>
       </c>
-      <c r="M38" s="2" t="n">
+      <c r="M38" s="4">
         <v>0.26</v>
       </c>
-      <c r="N38" s="2" t="n">
+      <c r="N38" s="4">
         <v>0.49</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="O38" s="4">
         <v>0.57</v>
       </c>
-      <c r="P38" s="2" t="n">
+      <c r="P38" s="4">
         <v>0.88</v>
       </c>
-      <c r="Q38" s="2" t="n">
+      <c r="Q38" s="4">
         <v>0.65</v>
       </c>
-      <c r="R38" s="2" t="n">
+      <c r="R38" s="4">
         <v>0.63</v>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="S38" s="4">
         <v>0.58</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="4">
         <v>0.3</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="4">
         <v>0.3</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="4">
         <v>0.64</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="4">
         <v>0.75</v>
       </c>
-      <c r="X38" s="2" t="n">
+      <c r="X38" s="4">
         <v>0.62</v>
       </c>
-      <c r="Y38" s="2" t="n">
+      <c r="Y38" s="4">
         <v>0.28</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/paraphrase-multilingual-MiniLM-L12-v2</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="4">
         <v>0.65</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="4">
         <v>0.58</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="4">
         <v>0.76</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="4">
         <v>0.48</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="4">
         <v>0.78</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="4">
         <v>0.37</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="4">
         <v>0.34</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="4">
         <v>0.37</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="J39" s="4">
         <v>0.37</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="K39" s="4">
         <v>0.4</v>
       </c>
-      <c r="L39" s="2" t="n">
+      <c r="L39" s="4">
         <v>0.3</v>
       </c>
-      <c r="M39" s="2" t="n">
+      <c r="M39" s="4">
         <v>0.42</v>
       </c>
-      <c r="N39" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O39" s="2" t="n">
+      <c r="N39" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="O39" s="4">
         <v>0.57</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="4">
         <v>0.92</v>
       </c>
-      <c r="Q39" s="2" t="n">
+      <c r="Q39" s="4">
         <v>0.73</v>
       </c>
-      <c r="R39" s="2" t="n">
+      <c r="R39" s="4">
         <v>0.62</v>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="S39" s="4">
         <v>0.66</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="4">
         <v>0.38</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="4">
         <v>0.27</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="4">
         <v>0.8</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="W39" s="4">
         <v>0.71</v>
       </c>
-      <c r="X39" s="2" t="n">
+      <c r="X39" s="4">
         <v>0.75</v>
       </c>
-      <c r="Y39" s="2" t="n">
+      <c r="Y39" s="4">
         <v>0.29</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/paraphrase-multilingual-mpnet-base-v2</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="4">
         <v>0.68</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="4">
         <v>0.62</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="4">
         <v>0.78</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="4">
         <v>0.52</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="4">
         <v>0.8</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="4">
         <v>0.4</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="4">
         <v>0.31</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="4">
         <v>0.42</v>
       </c>
-      <c r="J40" s="2" t="n">
+      <c r="J40" s="4">
         <v>0.38</v>
       </c>
-      <c r="K40" s="2" t="n">
+      <c r="K40" s="4">
         <v>0.41</v>
       </c>
-      <c r="L40" s="2" t="n">
+      <c r="L40" s="4">
         <v>0.31</v>
       </c>
-      <c r="M40" s="2" t="n">
+      <c r="M40" s="4">
         <v>0.45</v>
       </c>
-      <c r="N40" s="2" t="n">
+      <c r="N40" s="4">
         <v>0.54</v>
       </c>
-      <c r="O40" s="2" t="n">
+      <c r="O40" s="4">
         <v>0.58</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q40" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R40" s="2" t="n">
+      <c r="Q40" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="R40" s="4">
         <v>0.67</v>
       </c>
-      <c r="S40" s="2" t="n">
+      <c r="S40" s="4">
         <v>0.76</v>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="T40" s="4">
         <v>0.43</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="U40" s="4">
         <v>0.31</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="V40" s="4">
         <v>0.85</v>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="W40" s="4">
         <v>0.74</v>
       </c>
-      <c r="X40" s="2" t="n">
+      <c r="X40" s="4">
         <v>0.76</v>
       </c>
-      <c r="Y40" s="2" t="n">
+      <c r="Y40" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/sentence-t5-base</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="4">
         <v>0.6</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="4">
         <v>0.51</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E41" s="2" t="n">
+      <c r="D41" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="E41" s="4">
         <v>0.44</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="4">
         <v>0.75</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="4">
         <v>0.37</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="4">
         <v>0.36</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="4">
         <v>0.62</v>
       </c>
-      <c r="J41" s="2" t="n">
+      <c r="J41" s="4">
         <v>0.3</v>
       </c>
-      <c r="K41" s="2" t="n">
+      <c r="K41" s="4">
         <v>0.41</v>
       </c>
-      <c r="L41" s="2" t="n">
+      <c r="L41" s="4">
         <v>0.22</v>
       </c>
-      <c r="M41" s="2" t="n">
+      <c r="M41" s="4">
         <v>0.36</v>
       </c>
-      <c r="N41" s="2" t="n">
+      <c r="N41" s="4">
         <v>0.58</v>
       </c>
-      <c r="O41" s="2" t="n">
+      <c r="O41" s="4">
         <v>0.55</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="4">
         <v>0.89</v>
       </c>
-      <c r="Q41" s="2" t="n">
+      <c r="Q41" s="4">
         <v>0.76</v>
       </c>
-      <c r="R41" s="2" t="n">
+      <c r="R41" s="4">
         <v>0.63</v>
       </c>
-      <c r="S41" s="2" t="n">
+      <c r="S41" s="4">
         <v>0.67</v>
       </c>
-      <c r="T41" s="2" t="n">
+      <c r="T41" s="4">
         <v>0.4</v>
       </c>
-      <c r="U41" s="2" t="n">
+      <c r="U41" s="4">
         <v>0.28</v>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="V41" s="4">
         <v>0.74</v>
       </c>
-      <c r="W41" s="2" t="n">
+      <c r="W41" s="4">
         <v>0.78</v>
       </c>
-      <c r="X41" s="2" t="n">
+      <c r="X41" s="4">
         <v>0.72</v>
       </c>
-      <c r="Y41" s="2" t="n">
+      <c r="Y41" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/sentence-t5-large</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="4">
         <v>0.64</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="4">
         <v>0.57</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="4">
         <v>0.8</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="4">
         <v>0.48</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="4">
         <v>0.8</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="4">
         <v>0.41</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="4">
         <v>0.31</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="4">
         <v>0.59</v>
       </c>
-      <c r="J42" s="2" t="n">
+      <c r="J42" s="4">
         <v>0.32</v>
       </c>
-      <c r="K42" s="2" t="n">
+      <c r="K42" s="4">
         <v>0.42</v>
       </c>
-      <c r="L42" s="2" t="n">
+      <c r="L42" s="4">
         <v>0.25</v>
       </c>
-      <c r="M42" s="2" t="n">
+      <c r="M42" s="4">
         <v>0.4</v>
       </c>
-      <c r="N42" s="2" t="n">
+      <c r="N42" s="4">
         <v>0.62</v>
       </c>
-      <c r="O42" s="2" t="n">
+      <c r="O42" s="4">
         <v>0.6</v>
       </c>
-      <c r="P42" s="2" t="n">
+      <c r="P42" s="4">
         <v>0.91</v>
       </c>
-      <c r="Q42" s="2" t="n">
+      <c r="Q42" s="4">
         <v>0.78</v>
       </c>
-      <c r="R42" s="2" t="n">
+      <c r="R42" s="4">
         <v>0.68</v>
       </c>
-      <c r="S42" s="2" t="n">
+      <c r="S42" s="4">
         <v>0.71</v>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="T42" s="4">
         <v>0.47</v>
       </c>
-      <c r="U42" s="2" t="n">
+      <c r="U42" s="4">
         <v>0.35</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="V42" s="4">
         <v>0.78</v>
       </c>
-      <c r="W42" s="2" t="n">
+      <c r="W42" s="4">
         <v>0.75</v>
       </c>
-      <c r="X42" s="2" t="n">
+      <c r="X42" s="4">
         <v>0.73</v>
       </c>
-      <c r="Y42" s="2" t="n">
+      <c r="Y42" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/sentence-t5-xl</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="4">
         <v>0.66</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="4">
         <v>0.61</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="4">
         <v>0.8</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="4">
         <v>0.54</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="4">
         <v>0.85</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="4">
         <v>0.44</v>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H43" s="4">
         <v>0.32</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="4">
         <v>0.63</v>
       </c>
-      <c r="J43" s="2" t="n">
+      <c r="J43" s="4">
         <v>0.34</v>
       </c>
-      <c r="K43" s="2" t="n">
+      <c r="K43" s="4">
         <v>0.42</v>
       </c>
-      <c r="L43" s="2" t="n">
+      <c r="L43" s="4">
         <v>0.27</v>
       </c>
-      <c r="M43" s="2" t="n">
+      <c r="M43" s="4">
         <v>0.41</v>
       </c>
-      <c r="N43" s="2" t="n">
+      <c r="N43" s="4">
         <v>0.6</v>
       </c>
-      <c r="O43" s="2" t="n">
+      <c r="O43" s="4">
         <v>0.63</v>
       </c>
-      <c r="P43" s="2" t="n">
+      <c r="P43" s="4">
         <v>0.92</v>
       </c>
-      <c r="Q43" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R43" s="2" t="n">
+      <c r="Q43" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="R43" s="4">
         <v>0.71</v>
       </c>
-      <c r="S43" s="2" t="n">
+      <c r="S43" s="4">
         <v>0.74</v>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="T43" s="4">
         <v>0.5</v>
       </c>
-      <c r="U43" s="2" t="n">
+      <c r="U43" s="4">
         <v>0.4</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="V43" s="4">
         <v>0.79</v>
       </c>
-      <c r="W43" s="2" t="n">
+      <c r="W43" s="4">
         <v>0.77</v>
       </c>
-      <c r="X43" s="2" t="n">
+      <c r="X43" s="4">
         <v>0.75</v>
       </c>
-      <c r="Y43" s="3" t="n">
+      <c r="Y43" s="5">
         <v>0.32</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>sentence-transformers/sentence-t5-xxl</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C44" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="C44" s="4">
         <v>0.66</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="4">
         <v>0.79</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="4">
         <v>0.58</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="4">
         <v>0.86</v>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="5">
         <v>0.46</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="4">
         <v>0.38</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="4">
         <v>0.61</v>
       </c>
-      <c r="J44" s="2" t="n">
+      <c r="J44" s="4">
         <v>0.35</v>
       </c>
-      <c r="K44" s="2" t="n">
+      <c r="K44" s="4">
         <v>0.42</v>
       </c>
-      <c r="L44" s="2" t="n">
+      <c r="L44" s="4">
         <v>0.3</v>
       </c>
-      <c r="M44" s="2" t="n">
+      <c r="M44" s="4">
         <v>0.44</v>
       </c>
-      <c r="N44" s="2" t="n">
+      <c r="N44" s="4">
         <v>0.61</v>
       </c>
-      <c r="O44" s="2" t="n">
+      <c r="O44" s="4">
         <v>0.64</v>
       </c>
-      <c r="P44" s="2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q44" s="2" t="n">
+      <c r="P44" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="Q44" s="4">
         <v>0.82</v>
       </c>
-      <c r="R44" s="2" t="n">
+      <c r="R44" s="4">
         <v>0.75</v>
       </c>
-      <c r="S44" s="2" t="n">
+      <c r="S44" s="4">
         <v>0.79</v>
       </c>
-      <c r="T44" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="U44" s="2" t="n">
+      <c r="T44" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="U44" s="4">
         <v>0.46</v>
       </c>
-      <c r="V44" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W44" s="2" t="n">
+      <c r="V44" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="W44" s="4">
         <v>0.77</v>
       </c>
-      <c r="X44" s="2" t="n">
+      <c r="X44" s="4">
         <v>0.77</v>
       </c>
-      <c r="Y44" s="2" t="n">
+      <c r="Y44" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>shibing624/text2vec-base-multilingual</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="4">
         <v>0.58</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="4">
         <v>0.52</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="4">
         <v>0.74</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="4">
         <v>0.45</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="4">
         <v>0.72</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="4">
         <v>0.34</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="4">
         <v>0.33</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="4">
         <v>0.39</v>
       </c>
-      <c r="J45" s="2" t="n">
+      <c r="J45" s="4">
         <v>0.3</v>
       </c>
-      <c r="K45" s="2" t="n">
+      <c r="K45" s="4">
         <v>0.36</v>
       </c>
-      <c r="L45" s="2" t="n">
+      <c r="L45" s="4">
         <v>0.21</v>
       </c>
-      <c r="M45" s="2" t="n">
+      <c r="M45" s="4">
         <v>0.33</v>
       </c>
-      <c r="N45" s="2" t="n">
+      <c r="N45" s="4">
         <v>0.49</v>
       </c>
-      <c r="O45" s="2" t="n">
+      <c r="O45" s="4">
         <v>0.66</v>
       </c>
-      <c r="P45" s="2" t="n">
+      <c r="P45" s="4">
         <v>0.92</v>
       </c>
-      <c r="Q45" s="2" t="n">
+      <c r="Q45" s="4">
         <v>0.63</v>
       </c>
-      <c r="R45" s="2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S45" s="2" t="n">
+      <c r="R45" s="4">
+        <v>0.56</v>
+      </c>
+      <c r="S45" s="4">
         <v>0.5</v>
       </c>
-      <c r="T45" s="2" t="n">
+      <c r="T45" s="4">
         <v>0.26</v>
       </c>
-      <c r="U45" s="2" t="n">
+      <c r="U45" s="4">
         <v>0.19</v>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="4">
         <v>0.83</v>
       </c>
-      <c r="W45" s="2" t="n">
+      <c r="W45" s="4">
         <v>0.74</v>
       </c>
-      <c r="X45" s="2" t="n">
+      <c r="X45" s="4">
         <v>0.77</v>
       </c>
-      <c r="Y45" s="2" t="n">
+      <c r="Y45" s="4">
         <v>0.29</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>text-embedding-3-large</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="n">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="5">
         <v>0.76</v>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="C46" s="5">
         <v>0.71</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="4">
         <v>0.82</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="5">
         <v>0.74</v>
       </c>
-      <c r="F46" s="3" t="n">
+      <c r="F46" s="5">
         <v>0.93</v>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="5">
         <v>0.46</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="4">
         <v>0.4</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="4">
         <v>0.53</v>
       </c>
-      <c r="J46" s="3" t="n">
+      <c r="J46" s="5">
         <v>0.46</v>
       </c>
-      <c r="K46" s="3" t="n">
+      <c r="K46" s="5">
         <v>0.46</v>
       </c>
-      <c r="L46" s="3" t="n">
+      <c r="L46" s="5">
         <v>0.37</v>
       </c>
-      <c r="M46" s="2" t="n">
+      <c r="M46" s="4">
         <v>0.54</v>
       </c>
-      <c r="N46" s="2" t="n">
+      <c r="N46" s="4">
         <v>0.62</v>
       </c>
-      <c r="O46" s="2" t="n">
+      <c r="O46" s="4">
         <v>0.65</v>
       </c>
-      <c r="P46" s="3" t="n">
+      <c r="P46" s="5">
         <v>0.96</v>
       </c>
-      <c r="Q46" s="3" t="n">
+      <c r="Q46" s="5">
         <v>0.92</v>
       </c>
-      <c r="R46" s="3" t="n">
+      <c r="R46" s="5">
         <v>0.8</v>
       </c>
-      <c r="S46" s="3" t="n">
+      <c r="S46" s="5">
         <v>0.87</v>
       </c>
-      <c r="T46" s="3" t="n">
+      <c r="T46" s="5">
         <v>0.73</v>
       </c>
-      <c r="U46" s="3" t="n">
+      <c r="U46" s="5">
         <v>0.6</v>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="V46" s="4">
         <v>0.83</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="W46" s="4">
         <v>0.82</v>
       </c>
-      <c r="X46" s="3" t="n">
+      <c r="X46" s="5">
         <v>0.79</v>
       </c>
-      <c r="Y46" s="2" t="n">
+      <c r="Y46" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>text-embedding-3-small</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="4">
         <v>0.73</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="4">
         <v>0.68</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="4">
         <v>0.76</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="4">
         <v>0.68</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="4">
         <v>0.91</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="4">
         <v>0.43</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="4">
         <v>0.55</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="4">
         <v>0.45</v>
       </c>
-      <c r="J47" s="3" t="n">
+      <c r="J47" s="5">
         <v>0.46</v>
       </c>
-      <c r="K47" s="3" t="n">
+      <c r="K47" s="5">
         <v>0.46</v>
       </c>
-      <c r="L47" s="2" t="n">
+      <c r="L47" s="4">
         <v>0.36</v>
       </c>
-      <c r="M47" s="2" t="n">
+      <c r="M47" s="4">
         <v>0.51</v>
       </c>
-      <c r="N47" s="2" t="n">
+      <c r="N47" s="4">
         <v>0.61</v>
       </c>
-      <c r="O47" s="2" t="n">
+      <c r="O47" s="4">
         <v>0.61</v>
       </c>
-      <c r="P47" s="2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q47" s="2" t="n">
+      <c r="P47" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="Q47" s="4">
         <v>0.89</v>
       </c>
-      <c r="R47" s="2" t="n">
+      <c r="R47" s="4">
         <v>0.74</v>
       </c>
-      <c r="S47" s="3" t="n">
+      <c r="S47" s="5">
         <v>0.87</v>
       </c>
-      <c r="T47" s="2" t="n">
+      <c r="T47" s="4">
         <v>0.66</v>
       </c>
-      <c r="U47" s="2" t="n">
+      <c r="U47" s="4">
         <v>0.52</v>
       </c>
-      <c r="V47" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W47" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="X47" s="2" t="n">
+      <c r="V47" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="W47" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="X47" s="4">
         <v>0.76</v>
       </c>
-      <c r="Y47" s="2" t="n">
+      <c r="Y47" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>text-embedding-ada-002</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="4">
         <v>0.71</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="4">
         <v>0.65</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="4">
         <v>0.82</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="4">
         <v>0.64</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="4">
         <v>0.89</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="4">
         <v>0.44</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="4">
         <v>0.49</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I48" s="5">
         <v>0.68</v>
       </c>
-      <c r="J48" s="2" t="n">
+      <c r="J48" s="4">
         <v>0.42</v>
       </c>
-      <c r="K48" s="2" t="n">
+      <c r="K48" s="4">
         <v>0.45</v>
       </c>
-      <c r="L48" s="2" t="n">
+      <c r="L48" s="4">
         <v>0.35</v>
       </c>
-      <c r="M48" s="2" t="n">
+      <c r="M48" s="4">
         <v>0.54</v>
       </c>
-      <c r="N48" s="3" t="n">
+      <c r="N48" s="5">
         <v>0.65</v>
       </c>
-      <c r="O48" s="2" t="n">
+      <c r="O48" s="4">
         <v>0.6</v>
       </c>
-      <c r="P48" s="2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q48" s="2" t="n">
+      <c r="P48" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="Q48" s="4">
         <v>0.89</v>
       </c>
-      <c r="R48" s="2" t="n">
+      <c r="R48" s="4">
         <v>0.76</v>
       </c>
-      <c r="S48" s="2" t="n">
+      <c r="S48" s="4">
         <v>0.86</v>
       </c>
-      <c r="T48" s="2" t="n">
+      <c r="T48" s="4">
         <v>0.64</v>
       </c>
-      <c r="U48" s="2" t="n">
+      <c r="U48" s="4">
         <v>0.52</v>
       </c>
-      <c r="V48" s="2" t="n">
+      <c r="V48" s="4">
         <v>0.78</v>
       </c>
-      <c r="W48" s="2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="X48" s="2" t="n">
+      <c r="W48" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="X48" s="4">
         <v>0.76</v>
       </c>
-      <c r="Y48" s="2" t="n">
+      <c r="Y48" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>voyage-2</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="4">
         <v>0.62</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="4">
         <v>0.54</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="4">
         <v>0.8</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="4">
         <v>0.46</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="4">
         <v>0.8</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="4">
         <v>0.37</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="4">
         <v>0.36</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="4">
         <v>0.49</v>
       </c>
-      <c r="J49" s="2" t="n">
+      <c r="J49" s="4">
         <v>0.39</v>
       </c>
-      <c r="K49" s="2" t="n">
+      <c r="K49" s="4">
         <v>0.45</v>
       </c>
-      <c r="L49" s="2" t="n">
+      <c r="L49" s="4">
         <v>0.33</v>
       </c>
-      <c r="M49" s="2" t="n">
+      <c r="M49" s="4">
         <v>0.42</v>
       </c>
-      <c r="N49" s="2" t="n">
+      <c r="N49" s="4">
         <v>0.58</v>
       </c>
-      <c r="O49" s="2" t="n">
+      <c r="O49" s="4">
         <v>0.59</v>
       </c>
-      <c r="P49" s="2" t="n">
+      <c r="P49" s="4">
         <v>0.9</v>
       </c>
-      <c r="Q49" s="2" t="n">
+      <c r="Q49" s="4">
         <v>0.8</v>
       </c>
-      <c r="R49" s="2" t="n">
+      <c r="R49" s="4">
         <v>0.73</v>
       </c>
-      <c r="S49" s="2" t="n">
+      <c r="S49" s="4">
         <v>0.76</v>
       </c>
-      <c r="T49" s="2" t="n">
+      <c r="T49" s="4">
         <v>0.53</v>
       </c>
-      <c r="U49" s="2" t="n">
+      <c r="U49" s="4">
         <v>0.45</v>
       </c>
-      <c r="V49" s="2" t="n">
+      <c r="V49" s="4">
         <v>0.76</v>
       </c>
-      <c r="W49" s="2" t="n">
+      <c r="W49" s="4">
         <v>0.71</v>
       </c>
-      <c r="X49" s="2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Y49" s="2" t="n">
+      <c r="X49" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="Y49" s="4">
         <v>0.31</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>voyage-code-2</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="4">
         <v>0.7</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="4">
         <v>0.63</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="4">
         <v>0.82</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="4">
         <v>0.59</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="4">
         <v>0.88</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="4">
         <v>0.42</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="4">
         <v>0.35</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="4">
         <v>0.57</v>
       </c>
-      <c r="J50" s="2" t="n">
+      <c r="J50" s="4">
         <v>0.41</v>
       </c>
-      <c r="K50" s="2" t="n">
+      <c r="K50" s="4">
         <v>0.45</v>
       </c>
-      <c r="L50" s="2" t="n">
+      <c r="L50" s="4">
         <v>0.35</v>
       </c>
-      <c r="M50" s="2" t="n">
+      <c r="M50" s="4">
         <v>0.51</v>
       </c>
-      <c r="N50" s="2" t="n">
+      <c r="N50" s="4">
         <v>0.62</v>
       </c>
-      <c r="O50" s="2" t="n">
+      <c r="O50" s="4">
         <v>0.61</v>
       </c>
-      <c r="P50" s="2" t="n">
+      <c r="P50" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q50" s="2" t="n">
+      <c r="Q50" s="4">
         <v>0.87</v>
       </c>
-      <c r="R50" s="2" t="n">
+      <c r="R50" s="4">
         <v>0.76</v>
       </c>
-      <c r="S50" s="2" t="n">
+      <c r="S50" s="4">
         <v>0.83</v>
       </c>
-      <c r="T50" s="2" t="n">
+      <c r="T50" s="4">
         <v>0.68</v>
       </c>
-      <c r="U50" s="2" t="n">
+      <c r="U50" s="4">
         <v>0.53</v>
       </c>
-      <c r="V50" s="2" t="n">
+      <c r="V50" s="4">
         <v>0.79</v>
       </c>
-      <c r="W50" s="2" t="n">
+      <c r="W50" s="4">
         <v>0.8</v>
       </c>
-      <c r="X50" s="2" t="n">
+      <c r="X50" s="4">
         <v>0.74</v>
       </c>
-      <c r="Y50" s="2" t="n">
+      <c r="Y50" s="4">
         <v>0.28</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>vprelovac/universal-sentence-encoder-multilingual-3</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="4">
         <v>0.7</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="4">
         <v>0.61</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="4">
         <v>0.82</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="4">
         <v>0.54</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="4">
         <v>0.85</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="4">
         <v>0.34</v>
       </c>
-      <c r="H51" s="2" t="n">
+      <c r="H51" s="4">
         <v>0.4</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="4">
         <v>0.61</v>
       </c>
-      <c r="J51" s="2" t="n">
+      <c r="J51" s="4">
         <v>0.36</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="4">
         <v>0.44</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L51" s="4">
         <v>0.24</v>
       </c>
-      <c r="M51" s="2" t="n">
+      <c r="M51" s="4">
         <v>0.38</v>
       </c>
-      <c r="N51" s="2" t="n">
+      <c r="N51" s="4">
         <v>0.57</v>
       </c>
-      <c r="O51" s="2" t="n">
+      <c r="O51" s="4">
         <v>0.52</v>
       </c>
-      <c r="P51" s="2" t="n">
+      <c r="P51" s="4">
         <v>0.91</v>
       </c>
-      <c r="Q51" s="2" t="n">
+      <c r="Q51" s="4">
         <v>0.74</v>
       </c>
-      <c r="R51" s="2" t="n">
+      <c r="R51" s="4">
         <v>0.62</v>
       </c>
-      <c r="S51" s="2" t="n">
+      <c r="S51" s="4">
         <v>0.7</v>
       </c>
-      <c r="T51" s="2" t="n">
+      <c r="T51" s="6">
         <v>0</v>
       </c>
-      <c r="U51" s="2" t="n">
+      <c r="U51" s="4">
         <v>0.35</v>
       </c>
-      <c r="V51" s="2" t="n">
+      <c r="V51" s="4">
         <v>0.75</v>
       </c>
-      <c r="W51" s="2" t="n">
+      <c r="W51" s="4">
         <v>0.78</v>
       </c>
-      <c r="X51" s="2" t="n">
+      <c r="X51" s="4">
         <v>0.71</v>
       </c>
-      <c r="Y51" s="2" t="n">
+      <c r="Y51" s="4">
         <v>0.28</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>vprelovac/universal-sentence-encoder-multilingual-large-3</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="4">
         <v>0.73</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="4">
         <v>0.66</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="4">
         <v>0.72</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="4">
         <v>0.64</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="4">
         <v>0.88</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="4">
         <v>0.35</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="4">
         <v>0.4</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="4">
         <v>0.24</v>
       </c>
-      <c r="J52" s="2" t="n">
+      <c r="J52" s="4">
         <v>0.38</v>
       </c>
-      <c r="K52" s="2" t="n">
+      <c r="K52" s="4">
         <v>0.41</v>
       </c>
-      <c r="L52" s="2" t="n">
+      <c r="L52" s="4">
         <v>0.23</v>
       </c>
-      <c r="M52" s="2" t="n">
+      <c r="M52" s="4">
         <v>0.38</v>
       </c>
-      <c r="N52" s="2" t="n">
+      <c r="N52" s="4">
         <v>0.54</v>
       </c>
-      <c r="O52" s="2" t="n">
+      <c r="O52" s="4">
         <v>0.54</v>
       </c>
-      <c r="P52" s="2" t="n">
+      <c r="P52" s="4">
         <v>0.93</v>
       </c>
-      <c r="Q52" s="2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R52" s="2" t="n">
+      <c r="Q52" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="R52" s="4">
         <v>0.64</v>
       </c>
-      <c r="S52" s="2" t="n">
+      <c r="S52" s="4">
         <v>0.64</v>
       </c>
-      <c r="T52" s="2" t="n">
+      <c r="T52" s="6">
         <v>0</v>
       </c>
-      <c r="U52" s="2" t="n">
+      <c r="U52" s="4">
         <v>0.34</v>
       </c>
-      <c r="V52" s="2" t="n">
+      <c r="V52" s="4">
         <v>0.78</v>
       </c>
-      <c r="W52" s="2" t="n">
+      <c r="W52" s="4">
         <v>0.71</v>
       </c>
-      <c r="X52" s="2" t="n">
+      <c r="X52" s="4">
         <v>0.74</v>
       </c>
-      <c r="Y52" s="2" t="n">
+      <c r="Y52" s="4">
         <v>0.28</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>xlm-roberta-base</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="4">
         <v>0.23</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="4">
         <v>0.14</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="4">
         <v>0.6</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="4">
         <v>0.19</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="4">
         <v>0.44</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="4">
         <v>0.27</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="4">
         <v>0.24</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I53" s="4">
         <v>0.29</v>
       </c>
-      <c r="J53" s="2" t="n">
+      <c r="J53" s="4">
         <v>0.24</v>
       </c>
-      <c r="K53" s="2" t="n">
+      <c r="K53" s="4">
         <v>0.4</v>
       </c>
-      <c r="L53" s="2" t="n">
+      <c r="L53" s="4">
         <v>0.09</v>
       </c>
-      <c r="M53" s="2" t="n">
+      <c r="M53" s="4">
         <v>0.2</v>
       </c>
-      <c r="N53" s="2" t="n">
+      <c r="N53" s="4">
         <v>0.52</v>
       </c>
-      <c r="O53" s="2" t="n">
+      <c r="O53" s="4">
         <v>0.51</v>
       </c>
-      <c r="P53" s="2" t="n">
+      <c r="P53" s="4">
         <v>0.85</v>
       </c>
-      <c r="Q53" s="2" t="n">
+      <c r="Q53" s="4">
         <v>0.32</v>
       </c>
-      <c r="R53" s="2" t="n">
+      <c r="R53" s="4">
         <v>0.28</v>
       </c>
-      <c r="S53" s="2" t="n">
+      <c r="S53" s="4">
         <v>0.03</v>
       </c>
-      <c r="T53" s="2" t="n">
+      <c r="T53" s="6">
         <v>0</v>
       </c>
-      <c r="U53" s="2" t="n">
+      <c r="U53" s="6">
         <v>0</v>
       </c>
-      <c r="V53" s="2" t="n">
+      <c r="V53" s="4">
         <v>0.46</v>
       </c>
-      <c r="W53" s="2" t="n">
+      <c r="W53" s="4">
         <v>0.57</v>
       </c>
-      <c r="X53" s="2" t="n">
+      <c r="X53" s="4">
         <v>0.49</v>
       </c>
-      <c r="Y53" s="2" t="n">
+      <c r="Y53" s="4">
         <v>0.29</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>xlm-roberta-large</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="n">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="4">
         <v>0.24</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="4">
         <v>0.16</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="4">
         <v>0.66</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="4">
         <v>0.15</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="4">
         <v>0.37</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="4">
         <v>0.27</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="4">
         <v>0.22</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="4">
         <v>0.34</v>
       </c>
-      <c r="J54" s="2" t="n">
+      <c r="J54" s="4">
         <v>0.19</v>
       </c>
-      <c r="K54" s="2" t="n">
+      <c r="K54" s="4">
         <v>0.43</v>
       </c>
-      <c r="L54" s="2" t="n">
+      <c r="L54" s="4">
         <v>0.06</v>
       </c>
-      <c r="M54" s="2" t="n">
+      <c r="M54" s="4">
         <v>0.21</v>
       </c>
-      <c r="N54" s="2" t="n">
+      <c r="N54" s="4">
         <v>0.57</v>
       </c>
-      <c r="O54" s="2" t="n">
+      <c r="O54" s="4">
         <v>0.53</v>
       </c>
-      <c r="P54" s="2" t="n">
+      <c r="P54" s="4">
         <v>0.84</v>
       </c>
-      <c r="Q54" s="2" t="n">
+      <c r="Q54" s="4">
         <v>0.39</v>
       </c>
-      <c r="R54" s="2" t="n">
+      <c r="R54" s="4">
         <v>0.31</v>
       </c>
-      <c r="S54" s="2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T54" s="2" t="n">
+      <c r="S54" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="T54" s="4">
         <v>0.01</v>
       </c>
-      <c r="U54" s="2" t="n">
+      <c r="U54" s="4">
         <v>0.01</v>
       </c>
-      <c r="V54" s="2" t="n">
+      <c r="V54" s="4">
         <v>0.42</v>
       </c>
-      <c r="W54" s="2" t="n">
+      <c r="W54" s="4">
         <v>0.55</v>
       </c>
-      <c r="X54" s="2" t="n">
+      <c r="X54" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y54" s="2" t="n">
+      <c r="Y54" s="4">
         <v>0.29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:U1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="H1:N1"/>
     <mergeCell ref="V1:X1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>